--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -1631,7 +1631,7 @@
   <dimension ref="A3:I286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14:C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1721,11 +1721,11 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="str">
-        <f t="shared" ref="C6:C13" si="0">"100"&amp;"0000"&amp;F6</f>
-        <v>10000001</v>
+        <f>"1"&amp;TEXT(D6,"000")&amp;F6</f>
+        <v>10001</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>13</v>
@@ -1747,11 +1747,11 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>10000002</v>
+        <f>"1"&amp;TEXT(D7,"000")&amp;F7</f>
+        <v>10002</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>14</v>
@@ -1773,11 +1773,11 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>10000003</v>
+        <f>"1"&amp;TEXT(D8,"000")&amp;F8</f>
+        <v>10003</v>
       </c>
       <c r="D8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>17</v>
@@ -1799,11 +1799,11 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>10000004</v>
+        <f t="shared" ref="C9:C72" si="0">"1"&amp;TEXT(D9,"000")&amp;F9</f>
+        <v>10004</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>18</v>
@@ -1826,10 +1826,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10000005</v>
+        <v>10005</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>20</v>
@@ -1852,10 +1852,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10000006</v>
+        <v>10006</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>21</v>
@@ -1878,10 +1878,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10000007</v>
+        <v>10007</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>22</v>
@@ -1904,10 +1904,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10000008</v>
+        <v>10008</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>23</v>
@@ -1929,8 +1929,8 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="str">
-        <f t="shared" ref="C6:C29" si="1">"100"&amp;D14&amp;"00"&amp;F14</f>
-        <v>10010001</v>
+        <f t="shared" si="0"/>
+        <v>10101</v>
       </c>
       <c r="D14" s="8">
         <v>10</v>
@@ -1955,8 +1955,8 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10010002</v>
+        <f t="shared" si="0"/>
+        <v>10102</v>
       </c>
       <c r="D15" s="8">
         <v>10</v>
@@ -1981,8 +1981,8 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10010003</v>
+        <f t="shared" si="0"/>
+        <v>10103</v>
       </c>
       <c r="D16" s="8">
         <v>10</v>
@@ -2007,8 +2007,8 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10010004</v>
+        <f t="shared" si="0"/>
+        <v>10104</v>
       </c>
       <c r="D17" s="8">
         <v>10</v>
@@ -2033,8 +2033,8 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10010005</v>
+        <f t="shared" si="0"/>
+        <v>10105</v>
       </c>
       <c r="D18" s="8">
         <v>10</v>
@@ -2059,8 +2059,8 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10010006</v>
+        <f t="shared" si="0"/>
+        <v>10106</v>
       </c>
       <c r="D19" s="8">
         <v>10</v>
@@ -2085,8 +2085,8 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10010007</v>
+        <f t="shared" si="0"/>
+        <v>10107</v>
       </c>
       <c r="D20" s="8">
         <v>10</v>
@@ -2111,8 +2111,8 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10010008</v>
+        <f t="shared" si="0"/>
+        <v>10108</v>
       </c>
       <c r="D21" s="8">
         <v>10</v>
@@ -2137,8 +2137,8 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10020001</v>
+        <f t="shared" si="0"/>
+        <v>10201</v>
       </c>
       <c r="D22" s="8">
         <v>20</v>
@@ -2163,8 +2163,8 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10020002</v>
+        <f t="shared" si="0"/>
+        <v>10202</v>
       </c>
       <c r="D23" s="8">
         <v>20</v>
@@ -2189,8 +2189,8 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10020003</v>
+        <f t="shared" si="0"/>
+        <v>10203</v>
       </c>
       <c r="D24" s="8">
         <v>20</v>
@@ -2215,8 +2215,8 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10020004</v>
+        <f t="shared" si="0"/>
+        <v>10204</v>
       </c>
       <c r="D25" s="8">
         <v>20</v>
@@ -2241,8 +2241,8 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10020005</v>
+        <f t="shared" si="0"/>
+        <v>10205</v>
       </c>
       <c r="D26" s="8">
         <v>20</v>
@@ -2267,8 +2267,8 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10020006</v>
+        <f t="shared" si="0"/>
+        <v>10206</v>
       </c>
       <c r="D27" s="8">
         <v>20</v>
@@ -2293,8 +2293,8 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10020007</v>
+        <f t="shared" si="0"/>
+        <v>10207</v>
       </c>
       <c r="D28" s="8">
         <v>20</v>
@@ -2319,8 +2319,8 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>10020008</v>
+        <f t="shared" si="0"/>
+        <v>10208</v>
       </c>
       <c r="D29" s="8">
         <v>20</v>
@@ -2345,8 +2345,8 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="str">
-        <f t="shared" ref="C30:C93" si="2">"100"&amp;D30&amp;"00"&amp;F30</f>
-        <v>10030001</v>
+        <f t="shared" si="0"/>
+        <v>10301</v>
       </c>
       <c r="D30" s="8">
         <v>30</v>
@@ -2371,8 +2371,8 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10030002</v>
+        <f t="shared" si="0"/>
+        <v>10302</v>
       </c>
       <c r="D31" s="8">
         <v>30</v>
@@ -2397,8 +2397,8 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10030003</v>
+        <f t="shared" si="0"/>
+        <v>10303</v>
       </c>
       <c r="D32" s="8">
         <v>30</v>
@@ -2423,8 +2423,8 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10030004</v>
+        <f t="shared" si="0"/>
+        <v>10304</v>
       </c>
       <c r="D33" s="8">
         <v>30</v>
@@ -2449,8 +2449,8 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10030005</v>
+        <f t="shared" si="0"/>
+        <v>10305</v>
       </c>
       <c r="D34" s="8">
         <v>30</v>
@@ -2475,8 +2475,8 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10030006</v>
+        <f t="shared" si="0"/>
+        <v>10306</v>
       </c>
       <c r="D35" s="8">
         <v>30</v>
@@ -2501,8 +2501,8 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10030007</v>
+        <f t="shared" si="0"/>
+        <v>10307</v>
       </c>
       <c r="D36" s="8">
         <v>30</v>
@@ -2527,8 +2527,8 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10030008</v>
+        <f t="shared" si="0"/>
+        <v>10308</v>
       </c>
       <c r="D37" s="8">
         <v>30</v>
@@ -2553,8 +2553,8 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10040001</v>
+        <f t="shared" si="0"/>
+        <v>10401</v>
       </c>
       <c r="D38" s="8">
         <v>40</v>
@@ -2579,8 +2579,8 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10040002</v>
+        <f t="shared" si="0"/>
+        <v>10402</v>
       </c>
       <c r="D39" s="8">
         <v>40</v>
@@ -2605,8 +2605,8 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10040003</v>
+        <f t="shared" si="0"/>
+        <v>10403</v>
       </c>
       <c r="D40" s="8">
         <v>40</v>
@@ -2631,8 +2631,8 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10040004</v>
+        <f t="shared" si="0"/>
+        <v>10404</v>
       </c>
       <c r="D41" s="8">
         <v>40</v>
@@ -2657,8 +2657,8 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10040005</v>
+        <f t="shared" si="0"/>
+        <v>10405</v>
       </c>
       <c r="D42" s="8">
         <v>40</v>
@@ -2683,8 +2683,8 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10040006</v>
+        <f t="shared" si="0"/>
+        <v>10406</v>
       </c>
       <c r="D43" s="8">
         <v>40</v>
@@ -2709,8 +2709,8 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10040007</v>
+        <f t="shared" si="0"/>
+        <v>10407</v>
       </c>
       <c r="D44" s="8">
         <v>40</v>
@@ -2735,8 +2735,8 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10040008</v>
+        <f t="shared" si="0"/>
+        <v>10408</v>
       </c>
       <c r="D45" s="8">
         <v>40</v>
@@ -2761,8 +2761,8 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10050001</v>
+        <f t="shared" si="0"/>
+        <v>10501</v>
       </c>
       <c r="D46" s="8">
         <v>50</v>
@@ -2787,8 +2787,8 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10050002</v>
+        <f t="shared" si="0"/>
+        <v>10502</v>
       </c>
       <c r="D47" s="8">
         <v>50</v>
@@ -2813,8 +2813,8 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10050003</v>
+        <f t="shared" si="0"/>
+        <v>10503</v>
       </c>
       <c r="D48" s="8">
         <v>50</v>
@@ -2839,8 +2839,8 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10050004</v>
+        <f t="shared" si="0"/>
+        <v>10504</v>
       </c>
       <c r="D49" s="8">
         <v>50</v>
@@ -2865,8 +2865,8 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10050005</v>
+        <f t="shared" si="0"/>
+        <v>10505</v>
       </c>
       <c r="D50" s="8">
         <v>50</v>
@@ -2891,8 +2891,8 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10050006</v>
+        <f t="shared" si="0"/>
+        <v>10506</v>
       </c>
       <c r="D51" s="8">
         <v>50</v>
@@ -2917,8 +2917,8 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10050007</v>
+        <f t="shared" si="0"/>
+        <v>10507</v>
       </c>
       <c r="D52" s="8">
         <v>50</v>
@@ -2943,8 +2943,8 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10050008</v>
+        <f t="shared" si="0"/>
+        <v>10508</v>
       </c>
       <c r="D53" s="8">
         <v>50</v>
@@ -2969,8 +2969,8 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10060001</v>
+        <f t="shared" si="0"/>
+        <v>10601</v>
       </c>
       <c r="D54" s="8">
         <v>60</v>
@@ -2995,8 +2995,8 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10060002</v>
+        <f t="shared" si="0"/>
+        <v>10602</v>
       </c>
       <c r="D55" s="8">
         <v>60</v>
@@ -3021,8 +3021,8 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10060003</v>
+        <f t="shared" si="0"/>
+        <v>10603</v>
       </c>
       <c r="D56" s="8">
         <v>60</v>
@@ -3047,8 +3047,8 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10060004</v>
+        <f t="shared" si="0"/>
+        <v>10604</v>
       </c>
       <c r="D57" s="8">
         <v>60</v>
@@ -3073,8 +3073,8 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10060005</v>
+        <f t="shared" si="0"/>
+        <v>10605</v>
       </c>
       <c r="D58" s="8">
         <v>60</v>
@@ -3099,8 +3099,8 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10060006</v>
+        <f t="shared" si="0"/>
+        <v>10606</v>
       </c>
       <c r="D59" s="8">
         <v>60</v>
@@ -3125,8 +3125,8 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10060007</v>
+        <f t="shared" si="0"/>
+        <v>10607</v>
       </c>
       <c r="D60" s="8">
         <v>60</v>
@@ -3151,8 +3151,8 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10060008</v>
+        <f t="shared" si="0"/>
+        <v>10608</v>
       </c>
       <c r="D61" s="8">
         <v>60</v>
@@ -3177,8 +3177,8 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10070001</v>
+        <f t="shared" si="0"/>
+        <v>10701</v>
       </c>
       <c r="D62" s="8">
         <v>70</v>
@@ -3203,8 +3203,8 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10070002</v>
+        <f t="shared" si="0"/>
+        <v>10702</v>
       </c>
       <c r="D63" s="8">
         <v>70</v>
@@ -3229,8 +3229,8 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10070003</v>
+        <f t="shared" si="0"/>
+        <v>10703</v>
       </c>
       <c r="D64" s="8">
         <v>70</v>
@@ -3255,8 +3255,8 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10070004</v>
+        <f t="shared" si="0"/>
+        <v>10704</v>
       </c>
       <c r="D65" s="8">
         <v>70</v>
@@ -3281,8 +3281,8 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10070005</v>
+        <f t="shared" si="0"/>
+        <v>10705</v>
       </c>
       <c r="D66" s="8">
         <v>70</v>
@@ -3307,8 +3307,8 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10070006</v>
+        <f t="shared" si="0"/>
+        <v>10706</v>
       </c>
       <c r="D67" s="8">
         <v>70</v>
@@ -3333,8 +3333,8 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10070007</v>
+        <f t="shared" si="0"/>
+        <v>10707</v>
       </c>
       <c r="D68" s="8">
         <v>70</v>
@@ -3359,8 +3359,8 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10070008</v>
+        <f t="shared" si="0"/>
+        <v>10708</v>
       </c>
       <c r="D69" s="8">
         <v>70</v>
@@ -3385,8 +3385,8 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10080001</v>
+        <f t="shared" si="0"/>
+        <v>10801</v>
       </c>
       <c r="D70" s="8">
         <v>80</v>
@@ -3411,8 +3411,8 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10080002</v>
+        <f t="shared" si="0"/>
+        <v>10802</v>
       </c>
       <c r="D71" s="8">
         <v>80</v>
@@ -3437,8 +3437,8 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10080003</v>
+        <f t="shared" si="0"/>
+        <v>10803</v>
       </c>
       <c r="D72" s="8">
         <v>80</v>
@@ -3463,8 +3463,8 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10080004</v>
+        <f t="shared" ref="C73:C136" si="1">"1"&amp;TEXT(D73,"000")&amp;F73</f>
+        <v>10804</v>
       </c>
       <c r="D73" s="8">
         <v>80</v>
@@ -3489,8 +3489,8 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10080005</v>
+        <f t="shared" si="1"/>
+        <v>10805</v>
       </c>
       <c r="D74" s="8">
         <v>80</v>
@@ -3515,8 +3515,8 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10080006</v>
+        <f t="shared" si="1"/>
+        <v>10806</v>
       </c>
       <c r="D75" s="8">
         <v>80</v>
@@ -3541,8 +3541,8 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10080007</v>
+        <f t="shared" si="1"/>
+        <v>10807</v>
       </c>
       <c r="D76" s="8">
         <v>80</v>
@@ -3567,8 +3567,8 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10080008</v>
+        <f t="shared" si="1"/>
+        <v>10808</v>
       </c>
       <c r="D77" s="8">
         <v>80</v>
@@ -3593,8 +3593,8 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10090001</v>
+        <f t="shared" si="1"/>
+        <v>10901</v>
       </c>
       <c r="D78" s="8">
         <v>90</v>
@@ -3619,8 +3619,8 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10090002</v>
+        <f t="shared" si="1"/>
+        <v>10902</v>
       </c>
       <c r="D79" s="8">
         <v>90</v>
@@ -3645,8 +3645,8 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10090003</v>
+        <f t="shared" si="1"/>
+        <v>10903</v>
       </c>
       <c r="D80" s="8">
         <v>90</v>
@@ -3671,8 +3671,8 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10090004</v>
+        <f t="shared" si="1"/>
+        <v>10904</v>
       </c>
       <c r="D81" s="8">
         <v>90</v>
@@ -3697,8 +3697,8 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10090005</v>
+        <f t="shared" si="1"/>
+        <v>10905</v>
       </c>
       <c r="D82" s="8">
         <v>90</v>
@@ -3723,8 +3723,8 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10090006</v>
+        <f t="shared" si="1"/>
+        <v>10906</v>
       </c>
       <c r="D83" s="8">
         <v>90</v>
@@ -3749,8 +3749,8 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10090007</v>
+        <f t="shared" si="1"/>
+        <v>10907</v>
       </c>
       <c r="D84" s="8">
         <v>90</v>
@@ -3775,8 +3775,8 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>10090008</v>
+        <f t="shared" si="1"/>
+        <v>10908</v>
       </c>
       <c r="D85" s="8">
         <v>90</v>
@@ -3801,8 +3801,8 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>100100001</v>
+        <f t="shared" si="1"/>
+        <v>11001</v>
       </c>
       <c r="D86" s="8">
         <v>100</v>
@@ -3827,8 +3827,8 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>100100002</v>
+        <f t="shared" si="1"/>
+        <v>11002</v>
       </c>
       <c r="D87" s="8">
         <v>100</v>
@@ -3853,8 +3853,8 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>100100003</v>
+        <f t="shared" si="1"/>
+        <v>11003</v>
       </c>
       <c r="D88" s="8">
         <v>100</v>
@@ -3879,8 +3879,8 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>100100004</v>
+        <f t="shared" si="1"/>
+        <v>11004</v>
       </c>
       <c r="D89" s="8">
         <v>100</v>
@@ -3905,8 +3905,8 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>100100005</v>
+        <f t="shared" si="1"/>
+        <v>11005</v>
       </c>
       <c r="D90" s="8">
         <v>100</v>
@@ -3931,8 +3931,8 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>100100006</v>
+        <f t="shared" si="1"/>
+        <v>11006</v>
       </c>
       <c r="D91" s="8">
         <v>100</v>
@@ -3957,8 +3957,8 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>100100007</v>
+        <f t="shared" si="1"/>
+        <v>11007</v>
       </c>
       <c r="D92" s="8">
         <v>100</v>
@@ -3983,8 +3983,8 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>100100008</v>
+        <f t="shared" si="1"/>
+        <v>11008</v>
       </c>
       <c r="D93" s="8">
         <v>100</v>
@@ -4009,8 +4009,8 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="str">
-        <f t="shared" ref="C94:C157" si="3">"100"&amp;D94&amp;"00"&amp;F94</f>
-        <v>100110001</v>
+        <f t="shared" si="1"/>
+        <v>11101</v>
       </c>
       <c r="D94" s="8">
         <v>110</v>
@@ -4035,8 +4035,8 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100110002</v>
+        <f t="shared" si="1"/>
+        <v>11102</v>
       </c>
       <c r="D95" s="8">
         <v>110</v>
@@ -4061,8 +4061,8 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100110003</v>
+        <f t="shared" si="1"/>
+        <v>11103</v>
       </c>
       <c r="D96" s="8">
         <v>110</v>
@@ -4087,8 +4087,8 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100110004</v>
+        <f t="shared" si="1"/>
+        <v>11104</v>
       </c>
       <c r="D97" s="8">
         <v>110</v>
@@ -4113,8 +4113,8 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100110005</v>
+        <f t="shared" si="1"/>
+        <v>11105</v>
       </c>
       <c r="D98" s="8">
         <v>110</v>
@@ -4139,8 +4139,8 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100110006</v>
+        <f t="shared" si="1"/>
+        <v>11106</v>
       </c>
       <c r="D99" s="8">
         <v>110</v>
@@ -4165,8 +4165,8 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100110007</v>
+        <f t="shared" si="1"/>
+        <v>11107</v>
       </c>
       <c r="D100" s="8">
         <v>110</v>
@@ -4191,8 +4191,8 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100110008</v>
+        <f t="shared" si="1"/>
+        <v>11108</v>
       </c>
       <c r="D101" s="8">
         <v>110</v>
@@ -4217,8 +4217,8 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100120001</v>
+        <f t="shared" si="1"/>
+        <v>11201</v>
       </c>
       <c r="D102" s="8">
         <v>120</v>
@@ -4243,8 +4243,8 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100120002</v>
+        <f t="shared" si="1"/>
+        <v>11202</v>
       </c>
       <c r="D103" s="8">
         <v>120</v>
@@ -4269,8 +4269,8 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100120003</v>
+        <f t="shared" si="1"/>
+        <v>11203</v>
       </c>
       <c r="D104" s="8">
         <v>120</v>
@@ -4295,8 +4295,8 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100120004</v>
+        <f t="shared" si="1"/>
+        <v>11204</v>
       </c>
       <c r="D105" s="8">
         <v>120</v>
@@ -4321,8 +4321,8 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100120005</v>
+        <f t="shared" si="1"/>
+        <v>11205</v>
       </c>
       <c r="D106" s="8">
         <v>120</v>
@@ -4347,8 +4347,8 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100120006</v>
+        <f t="shared" si="1"/>
+        <v>11206</v>
       </c>
       <c r="D107" s="8">
         <v>120</v>
@@ -4373,8 +4373,8 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100120007</v>
+        <f t="shared" si="1"/>
+        <v>11207</v>
       </c>
       <c r="D108" s="8">
         <v>120</v>
@@ -4399,8 +4399,8 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100120008</v>
+        <f t="shared" si="1"/>
+        <v>11208</v>
       </c>
       <c r="D109" s="8">
         <v>120</v>
@@ -4425,8 +4425,8 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100130001</v>
+        <f t="shared" si="1"/>
+        <v>11301</v>
       </c>
       <c r="D110" s="8">
         <v>130</v>
@@ -4451,8 +4451,8 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100130002</v>
+        <f t="shared" si="1"/>
+        <v>11302</v>
       </c>
       <c r="D111" s="8">
         <v>130</v>
@@ -4477,8 +4477,8 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100130003</v>
+        <f t="shared" si="1"/>
+        <v>11303</v>
       </c>
       <c r="D112" s="8">
         <v>130</v>
@@ -4503,8 +4503,8 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100130004</v>
+        <f t="shared" si="1"/>
+        <v>11304</v>
       </c>
       <c r="D113" s="8">
         <v>130</v>
@@ -4529,8 +4529,8 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100130005</v>
+        <f t="shared" si="1"/>
+        <v>11305</v>
       </c>
       <c r="D114" s="8">
         <v>130</v>
@@ -4555,8 +4555,8 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100130006</v>
+        <f t="shared" si="1"/>
+        <v>11306</v>
       </c>
       <c r="D115" s="8">
         <v>130</v>
@@ -4581,8 +4581,8 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100130007</v>
+        <f t="shared" si="1"/>
+        <v>11307</v>
       </c>
       <c r="D116" s="8">
         <v>130</v>
@@ -4607,8 +4607,8 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100130008</v>
+        <f t="shared" si="1"/>
+        <v>11308</v>
       </c>
       <c r="D117" s="8">
         <v>130</v>
@@ -4633,8 +4633,8 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100140001</v>
+        <f t="shared" si="1"/>
+        <v>11401</v>
       </c>
       <c r="D118" s="8">
         <v>140</v>
@@ -4659,8 +4659,8 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100140002</v>
+        <f t="shared" si="1"/>
+        <v>11402</v>
       </c>
       <c r="D119" s="8">
         <v>140</v>
@@ -4685,8 +4685,8 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100140003</v>
+        <f t="shared" si="1"/>
+        <v>11403</v>
       </c>
       <c r="D120" s="8">
         <v>140</v>
@@ -4711,8 +4711,8 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100140004</v>
+        <f t="shared" si="1"/>
+        <v>11404</v>
       </c>
       <c r="D121" s="8">
         <v>140</v>
@@ -4737,8 +4737,8 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100140005</v>
+        <f t="shared" si="1"/>
+        <v>11405</v>
       </c>
       <c r="D122" s="8">
         <v>140</v>
@@ -4763,8 +4763,8 @@
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100140006</v>
+        <f t="shared" si="1"/>
+        <v>11406</v>
       </c>
       <c r="D123" s="8">
         <v>140</v>
@@ -4789,8 +4789,8 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100140007</v>
+        <f t="shared" si="1"/>
+        <v>11407</v>
       </c>
       <c r="D124" s="8">
         <v>140</v>
@@ -4815,8 +4815,8 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100140008</v>
+        <f t="shared" si="1"/>
+        <v>11408</v>
       </c>
       <c r="D125" s="8">
         <v>140</v>
@@ -4841,8 +4841,8 @@
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100150001</v>
+        <f t="shared" si="1"/>
+        <v>11501</v>
       </c>
       <c r="D126" s="8">
         <v>150</v>
@@ -4867,8 +4867,8 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100150002</v>
+        <f t="shared" si="1"/>
+        <v>11502</v>
       </c>
       <c r="D127" s="8">
         <v>150</v>
@@ -4893,8 +4893,8 @@
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100150003</v>
+        <f t="shared" si="1"/>
+        <v>11503</v>
       </c>
       <c r="D128" s="8">
         <v>150</v>
@@ -4919,8 +4919,8 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100150004</v>
+        <f t="shared" si="1"/>
+        <v>11504</v>
       </c>
       <c r="D129" s="8">
         <v>150</v>
@@ -4945,8 +4945,8 @@
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100150005</v>
+        <f t="shared" si="1"/>
+        <v>11505</v>
       </c>
       <c r="D130" s="8">
         <v>150</v>
@@ -4971,8 +4971,8 @@
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100150006</v>
+        <f t="shared" si="1"/>
+        <v>11506</v>
       </c>
       <c r="D131" s="8">
         <v>150</v>
@@ -4997,8 +4997,8 @@
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100150007</v>
+        <f t="shared" si="1"/>
+        <v>11507</v>
       </c>
       <c r="D132" s="8">
         <v>150</v>
@@ -5023,8 +5023,8 @@
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100150008</v>
+        <f t="shared" si="1"/>
+        <v>11508</v>
       </c>
       <c r="D133" s="8">
         <v>150</v>
@@ -5049,8 +5049,8 @@
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100160001</v>
+        <f t="shared" si="1"/>
+        <v>11601</v>
       </c>
       <c r="D134" s="12">
         <v>160</v>
@@ -5075,8 +5075,8 @@
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100160002</v>
+        <f t="shared" si="1"/>
+        <v>11602</v>
       </c>
       <c r="D135" s="12">
         <v>160</v>
@@ -5101,8 +5101,8 @@
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100160003</v>
+        <f t="shared" si="1"/>
+        <v>11603</v>
       </c>
       <c r="D136" s="12">
         <v>160</v>
@@ -5127,8 +5127,8 @@
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100160004</v>
+        <f t="shared" ref="C137:C200" si="2">"1"&amp;TEXT(D137,"000")&amp;F137</f>
+        <v>11604</v>
       </c>
       <c r="D137" s="12">
         <v>160</v>
@@ -5153,8 +5153,8 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100160005</v>
+        <f t="shared" si="2"/>
+        <v>11605</v>
       </c>
       <c r="D138" s="12">
         <v>160</v>
@@ -5179,8 +5179,8 @@
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100160006</v>
+        <f t="shared" si="2"/>
+        <v>11606</v>
       </c>
       <c r="D139" s="12">
         <v>160</v>
@@ -5205,8 +5205,8 @@
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100160007</v>
+        <f t="shared" si="2"/>
+        <v>11607</v>
       </c>
       <c r="D140" s="12">
         <v>160</v>
@@ -5231,8 +5231,8 @@
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100160008</v>
+        <f t="shared" si="2"/>
+        <v>11608</v>
       </c>
       <c r="D141" s="12">
         <v>160</v>
@@ -5257,8 +5257,8 @@
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100170001</v>
+        <f t="shared" si="2"/>
+        <v>11701</v>
       </c>
       <c r="D142" s="8">
         <v>170</v>
@@ -5283,8 +5283,8 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100170002</v>
+        <f t="shared" si="2"/>
+        <v>11702</v>
       </c>
       <c r="D143" s="8">
         <v>170</v>
@@ -5309,8 +5309,8 @@
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100170003</v>
+        <f t="shared" si="2"/>
+        <v>11703</v>
       </c>
       <c r="D144" s="8">
         <v>170</v>
@@ -5335,8 +5335,8 @@
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100170004</v>
+        <f t="shared" si="2"/>
+        <v>11704</v>
       </c>
       <c r="D145" s="8">
         <v>170</v>
@@ -5361,8 +5361,8 @@
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100170005</v>
+        <f t="shared" si="2"/>
+        <v>11705</v>
       </c>
       <c r="D146" s="8">
         <v>170</v>
@@ -5387,8 +5387,8 @@
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100170006</v>
+        <f t="shared" si="2"/>
+        <v>11706</v>
       </c>
       <c r="D147" s="8">
         <v>170</v>
@@ -5413,8 +5413,8 @@
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100170007</v>
+        <f t="shared" si="2"/>
+        <v>11707</v>
       </c>
       <c r="D148" s="8">
         <v>170</v>
@@ -5439,8 +5439,8 @@
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100170008</v>
+        <f t="shared" si="2"/>
+        <v>11708</v>
       </c>
       <c r="D149" s="8">
         <v>170</v>
@@ -5465,8 +5465,8 @@
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100180001</v>
+        <f t="shared" si="2"/>
+        <v>11801</v>
       </c>
       <c r="D150" s="8">
         <v>180</v>
@@ -5491,8 +5491,8 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100180002</v>
+        <f t="shared" si="2"/>
+        <v>11802</v>
       </c>
       <c r="D151" s="8">
         <v>180</v>
@@ -5517,8 +5517,8 @@
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100180003</v>
+        <f t="shared" si="2"/>
+        <v>11803</v>
       </c>
       <c r="D152" s="8">
         <v>180</v>
@@ -5543,8 +5543,8 @@
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100180004</v>
+        <f t="shared" si="2"/>
+        <v>11804</v>
       </c>
       <c r="D153" s="8">
         <v>180</v>
@@ -5569,8 +5569,8 @@
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100180005</v>
+        <f t="shared" si="2"/>
+        <v>11805</v>
       </c>
       <c r="D154" s="8">
         <v>180</v>
@@ -5595,8 +5595,8 @@
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100180006</v>
+        <f t="shared" si="2"/>
+        <v>11806</v>
       </c>
       <c r="D155" s="8">
         <v>180</v>
@@ -5621,8 +5621,8 @@
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100180007</v>
+        <f t="shared" si="2"/>
+        <v>11807</v>
       </c>
       <c r="D156" s="8">
         <v>180</v>
@@ -5647,8 +5647,8 @@
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>100180008</v>
+        <f t="shared" si="2"/>
+        <v>11808</v>
       </c>
       <c r="D157" s="8">
         <v>180</v>
@@ -5673,8 +5673,8 @@
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="str">
-        <f t="shared" ref="C158:C221" si="4">"100"&amp;D158&amp;"00"&amp;F158</f>
-        <v>100190001</v>
+        <f t="shared" si="2"/>
+        <v>11901</v>
       </c>
       <c r="D158" s="8">
         <v>190</v>
@@ -5699,8 +5699,8 @@
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100190002</v>
+        <f t="shared" si="2"/>
+        <v>11902</v>
       </c>
       <c r="D159" s="8">
         <v>190</v>
@@ -5725,8 +5725,8 @@
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100190003</v>
+        <f t="shared" si="2"/>
+        <v>11903</v>
       </c>
       <c r="D160" s="8">
         <v>190</v>
@@ -5751,8 +5751,8 @@
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100190004</v>
+        <f t="shared" si="2"/>
+        <v>11904</v>
       </c>
       <c r="D161" s="8">
         <v>190</v>
@@ -5777,8 +5777,8 @@
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100190005</v>
+        <f t="shared" si="2"/>
+        <v>11905</v>
       </c>
       <c r="D162" s="8">
         <v>190</v>
@@ -5803,8 +5803,8 @@
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100190006</v>
+        <f t="shared" si="2"/>
+        <v>11906</v>
       </c>
       <c r="D163" s="8">
         <v>190</v>
@@ -5829,8 +5829,8 @@
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100190007</v>
+        <f t="shared" si="2"/>
+        <v>11907</v>
       </c>
       <c r="D164" s="8">
         <v>190</v>
@@ -5855,8 +5855,8 @@
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100190008</v>
+        <f t="shared" si="2"/>
+        <v>11908</v>
       </c>
       <c r="D165" s="8">
         <v>190</v>
@@ -5881,8 +5881,8 @@
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100200001</v>
+        <f t="shared" si="2"/>
+        <v>12001</v>
       </c>
       <c r="D166" s="8">
         <v>200</v>
@@ -5907,8 +5907,8 @@
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100200002</v>
+        <f t="shared" si="2"/>
+        <v>12002</v>
       </c>
       <c r="D167" s="8">
         <v>200</v>
@@ -5933,8 +5933,8 @@
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100200003</v>
+        <f t="shared" si="2"/>
+        <v>12003</v>
       </c>
       <c r="D168" s="8">
         <v>200</v>
@@ -5959,8 +5959,8 @@
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100200004</v>
+        <f t="shared" si="2"/>
+        <v>12004</v>
       </c>
       <c r="D169" s="8">
         <v>200</v>
@@ -5985,8 +5985,8 @@
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100200005</v>
+        <f t="shared" si="2"/>
+        <v>12005</v>
       </c>
       <c r="D170" s="8">
         <v>200</v>
@@ -6011,8 +6011,8 @@
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100200006</v>
+        <f t="shared" si="2"/>
+        <v>12006</v>
       </c>
       <c r="D171" s="8">
         <v>200</v>
@@ -6037,8 +6037,8 @@
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100200007</v>
+        <f t="shared" si="2"/>
+        <v>12007</v>
       </c>
       <c r="D172" s="8">
         <v>200</v>
@@ -6063,8 +6063,8 @@
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100200008</v>
+        <f t="shared" si="2"/>
+        <v>12008</v>
       </c>
       <c r="D173" s="8">
         <v>200</v>
@@ -6089,8 +6089,8 @@
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100210001</v>
+        <f t="shared" si="2"/>
+        <v>12101</v>
       </c>
       <c r="D174" s="8">
         <v>210</v>
@@ -6115,8 +6115,8 @@
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100210002</v>
+        <f t="shared" si="2"/>
+        <v>12102</v>
       </c>
       <c r="D175" s="8">
         <v>210</v>
@@ -6141,8 +6141,8 @@
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100210003</v>
+        <f t="shared" si="2"/>
+        <v>12103</v>
       </c>
       <c r="D176" s="8">
         <v>210</v>
@@ -6167,8 +6167,8 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100210004</v>
+        <f t="shared" si="2"/>
+        <v>12104</v>
       </c>
       <c r="D177" s="8">
         <v>210</v>
@@ -6193,8 +6193,8 @@
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100210005</v>
+        <f t="shared" si="2"/>
+        <v>12105</v>
       </c>
       <c r="D178" s="8">
         <v>210</v>
@@ -6219,8 +6219,8 @@
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100210006</v>
+        <f t="shared" si="2"/>
+        <v>12106</v>
       </c>
       <c r="D179" s="8">
         <v>210</v>
@@ -6245,8 +6245,8 @@
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100210007</v>
+        <f t="shared" si="2"/>
+        <v>12107</v>
       </c>
       <c r="D180" s="8">
         <v>210</v>
@@ -6271,8 +6271,8 @@
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100210008</v>
+        <f t="shared" si="2"/>
+        <v>12108</v>
       </c>
       <c r="D181" s="8">
         <v>210</v>
@@ -6297,8 +6297,8 @@
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100220001</v>
+        <f t="shared" si="2"/>
+        <v>12201</v>
       </c>
       <c r="D182" s="8">
         <v>220</v>
@@ -6323,8 +6323,8 @@
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100220002</v>
+        <f t="shared" si="2"/>
+        <v>12202</v>
       </c>
       <c r="D183" s="8">
         <v>220</v>
@@ -6349,8 +6349,8 @@
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100220003</v>
+        <f t="shared" si="2"/>
+        <v>12203</v>
       </c>
       <c r="D184" s="8">
         <v>220</v>
@@ -6375,8 +6375,8 @@
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100220004</v>
+        <f t="shared" si="2"/>
+        <v>12204</v>
       </c>
       <c r="D185" s="8">
         <v>220</v>
@@ -6401,8 +6401,8 @@
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100220005</v>
+        <f t="shared" si="2"/>
+        <v>12205</v>
       </c>
       <c r="D186" s="8">
         <v>220</v>
@@ -6427,8 +6427,8 @@
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100220006</v>
+        <f t="shared" si="2"/>
+        <v>12206</v>
       </c>
       <c r="D187" s="8">
         <v>220</v>
@@ -6453,8 +6453,8 @@
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100220007</v>
+        <f t="shared" si="2"/>
+        <v>12207</v>
       </c>
       <c r="D188" s="8">
         <v>220</v>
@@ -6479,8 +6479,8 @@
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100220008</v>
+        <f t="shared" si="2"/>
+        <v>12208</v>
       </c>
       <c r="D189" s="8">
         <v>220</v>
@@ -6505,8 +6505,8 @@
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100230001</v>
+        <f t="shared" si="2"/>
+        <v>12301</v>
       </c>
       <c r="D190" s="8">
         <v>230</v>
@@ -6531,8 +6531,8 @@
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100230002</v>
+        <f t="shared" si="2"/>
+        <v>12302</v>
       </c>
       <c r="D191" s="8">
         <v>230</v>
@@ -6557,8 +6557,8 @@
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100230003</v>
+        <f t="shared" si="2"/>
+        <v>12303</v>
       </c>
       <c r="D192" s="8">
         <v>230</v>
@@ -6583,8 +6583,8 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100230004</v>
+        <f t="shared" si="2"/>
+        <v>12304</v>
       </c>
       <c r="D193" s="8">
         <v>230</v>
@@ -6609,8 +6609,8 @@
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100230005</v>
+        <f t="shared" si="2"/>
+        <v>12305</v>
       </c>
       <c r="D194" s="8">
         <v>230</v>
@@ -6635,8 +6635,8 @@
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100230006</v>
+        <f t="shared" si="2"/>
+        <v>12306</v>
       </c>
       <c r="D195" s="8">
         <v>230</v>
@@ -6661,8 +6661,8 @@
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100230007</v>
+        <f t="shared" si="2"/>
+        <v>12307</v>
       </c>
       <c r="D196" s="8">
         <v>230</v>
@@ -6687,8 +6687,8 @@
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100230008</v>
+        <f t="shared" si="2"/>
+        <v>12308</v>
       </c>
       <c r="D197" s="8">
         <v>230</v>
@@ -6713,8 +6713,8 @@
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100240001</v>
+        <f t="shared" si="2"/>
+        <v>12401</v>
       </c>
       <c r="D198" s="8">
         <v>240</v>
@@ -6739,8 +6739,8 @@
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100240002</v>
+        <f t="shared" si="2"/>
+        <v>12402</v>
       </c>
       <c r="D199" s="8">
         <v>240</v>
@@ -6765,8 +6765,8 @@
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100240003</v>
+        <f t="shared" si="2"/>
+        <v>12403</v>
       </c>
       <c r="D200" s="8">
         <v>240</v>
@@ -6791,8 +6791,8 @@
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100240004</v>
+        <f t="shared" ref="C201:C264" si="3">"1"&amp;TEXT(D201,"000")&amp;F201</f>
+        <v>12404</v>
       </c>
       <c r="D201" s="8">
         <v>240</v>
@@ -6817,8 +6817,8 @@
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100240005</v>
+        <f t="shared" si="3"/>
+        <v>12405</v>
       </c>
       <c r="D202" s="8">
         <v>240</v>
@@ -6843,8 +6843,8 @@
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100240006</v>
+        <f t="shared" si="3"/>
+        <v>12406</v>
       </c>
       <c r="D203" s="8">
         <v>240</v>
@@ -6869,8 +6869,8 @@
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100240007</v>
+        <f t="shared" si="3"/>
+        <v>12407</v>
       </c>
       <c r="D204" s="8">
         <v>240</v>
@@ -6895,8 +6895,8 @@
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100240008</v>
+        <f t="shared" si="3"/>
+        <v>12408</v>
       </c>
       <c r="D205" s="8">
         <v>240</v>
@@ -6921,8 +6921,8 @@
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100250001</v>
+        <f t="shared" si="3"/>
+        <v>12501</v>
       </c>
       <c r="D206" s="8">
         <v>250</v>
@@ -6947,8 +6947,8 @@
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100250002</v>
+        <f t="shared" si="3"/>
+        <v>12502</v>
       </c>
       <c r="D207" s="8">
         <v>250</v>
@@ -6973,8 +6973,8 @@
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100250003</v>
+        <f t="shared" si="3"/>
+        <v>12503</v>
       </c>
       <c r="D208" s="8">
         <v>250</v>
@@ -6999,8 +6999,8 @@
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100250004</v>
+        <f t="shared" si="3"/>
+        <v>12504</v>
       </c>
       <c r="D209" s="8">
         <v>250</v>
@@ -7025,8 +7025,8 @@
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100250005</v>
+        <f t="shared" si="3"/>
+        <v>12505</v>
       </c>
       <c r="D210" s="8">
         <v>250</v>
@@ -7051,8 +7051,8 @@
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100250006</v>
+        <f t="shared" si="3"/>
+        <v>12506</v>
       </c>
       <c r="D211" s="8">
         <v>250</v>
@@ -7077,8 +7077,8 @@
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100250007</v>
+        <f t="shared" si="3"/>
+        <v>12507</v>
       </c>
       <c r="D212" s="8">
         <v>250</v>
@@ -7103,8 +7103,8 @@
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100250008</v>
+        <f t="shared" si="3"/>
+        <v>12508</v>
       </c>
       <c r="D213" s="8">
         <v>250</v>
@@ -7129,8 +7129,8 @@
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100260001</v>
+        <f t="shared" si="3"/>
+        <v>12601</v>
       </c>
       <c r="D214" s="8">
         <v>260</v>
@@ -7155,8 +7155,8 @@
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100260002</v>
+        <f t="shared" si="3"/>
+        <v>12602</v>
       </c>
       <c r="D215" s="8">
         <v>260</v>
@@ -7181,8 +7181,8 @@
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100260003</v>
+        <f t="shared" si="3"/>
+        <v>12603</v>
       </c>
       <c r="D216" s="8">
         <v>260</v>
@@ -7207,8 +7207,8 @@
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100260004</v>
+        <f t="shared" si="3"/>
+        <v>12604</v>
       </c>
       <c r="D217" s="8">
         <v>260</v>
@@ -7233,8 +7233,8 @@
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100260005</v>
+        <f t="shared" si="3"/>
+        <v>12605</v>
       </c>
       <c r="D218" s="8">
         <v>260</v>
@@ -7259,8 +7259,8 @@
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100260006</v>
+        <f t="shared" si="3"/>
+        <v>12606</v>
       </c>
       <c r="D219" s="8">
         <v>260</v>
@@ -7285,8 +7285,8 @@
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100260007</v>
+        <f t="shared" si="3"/>
+        <v>12607</v>
       </c>
       <c r="D220" s="8">
         <v>260</v>
@@ -7311,8 +7311,8 @@
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100260008</v>
+        <f t="shared" si="3"/>
+        <v>12608</v>
       </c>
       <c r="D221" s="8">
         <v>260</v>
@@ -7337,8 +7337,8 @@
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="str">
-        <f t="shared" ref="C222:C285" si="5">"100"&amp;D222&amp;"00"&amp;F222</f>
-        <v>100270001</v>
+        <f t="shared" si="3"/>
+        <v>12701</v>
       </c>
       <c r="D222" s="8">
         <v>270</v>
@@ -7363,8 +7363,8 @@
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100270002</v>
+        <f t="shared" si="3"/>
+        <v>12702</v>
       </c>
       <c r="D223" s="8">
         <v>270</v>
@@ -7389,8 +7389,8 @@
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100270003</v>
+        <f t="shared" si="3"/>
+        <v>12703</v>
       </c>
       <c r="D224" s="8">
         <v>270</v>
@@ -7415,8 +7415,8 @@
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100270004</v>
+        <f t="shared" si="3"/>
+        <v>12704</v>
       </c>
       <c r="D225" s="8">
         <v>270</v>
@@ -7441,8 +7441,8 @@
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100270005</v>
+        <f t="shared" si="3"/>
+        <v>12705</v>
       </c>
       <c r="D226" s="8">
         <v>270</v>
@@ -7467,8 +7467,8 @@
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100270006</v>
+        <f t="shared" si="3"/>
+        <v>12706</v>
       </c>
       <c r="D227" s="8">
         <v>270</v>
@@ -7493,8 +7493,8 @@
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100270007</v>
+        <f t="shared" si="3"/>
+        <v>12707</v>
       </c>
       <c r="D228" s="8">
         <v>270</v>
@@ -7519,8 +7519,8 @@
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100270008</v>
+        <f t="shared" si="3"/>
+        <v>12708</v>
       </c>
       <c r="D229" s="8">
         <v>270</v>
@@ -7545,8 +7545,8 @@
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100280001</v>
+        <f t="shared" si="3"/>
+        <v>12801</v>
       </c>
       <c r="D230" s="8">
         <v>280</v>
@@ -7571,8 +7571,8 @@
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100280002</v>
+        <f t="shared" si="3"/>
+        <v>12802</v>
       </c>
       <c r="D231" s="8">
         <v>280</v>
@@ -7597,8 +7597,8 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100280003</v>
+        <f t="shared" si="3"/>
+        <v>12803</v>
       </c>
       <c r="D232" s="8">
         <v>280</v>
@@ -7623,8 +7623,8 @@
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100280004</v>
+        <f t="shared" si="3"/>
+        <v>12804</v>
       </c>
       <c r="D233" s="8">
         <v>280</v>
@@ -7649,8 +7649,8 @@
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100280005</v>
+        <f t="shared" si="3"/>
+        <v>12805</v>
       </c>
       <c r="D234" s="8">
         <v>280</v>
@@ -7675,8 +7675,8 @@
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100280006</v>
+        <f t="shared" si="3"/>
+        <v>12806</v>
       </c>
       <c r="D235" s="8">
         <v>280</v>
@@ -7701,8 +7701,8 @@
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100280007</v>
+        <f t="shared" si="3"/>
+        <v>12807</v>
       </c>
       <c r="D236" s="8">
         <v>280</v>
@@ -7727,8 +7727,8 @@
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100280008</v>
+        <f t="shared" si="3"/>
+        <v>12808</v>
       </c>
       <c r="D237" s="8">
         <v>280</v>
@@ -7753,8 +7753,8 @@
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100290001</v>
+        <f t="shared" si="3"/>
+        <v>12901</v>
       </c>
       <c r="D238" s="8">
         <v>290</v>
@@ -7779,8 +7779,8 @@
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100290002</v>
+        <f t="shared" si="3"/>
+        <v>12902</v>
       </c>
       <c r="D239" s="8">
         <v>290</v>
@@ -7805,8 +7805,8 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100290003</v>
+        <f t="shared" si="3"/>
+        <v>12903</v>
       </c>
       <c r="D240" s="8">
         <v>290</v>
@@ -7831,8 +7831,8 @@
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100290004</v>
+        <f t="shared" si="3"/>
+        <v>12904</v>
       </c>
       <c r="D241" s="8">
         <v>290</v>
@@ -7857,8 +7857,8 @@
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100290005</v>
+        <f t="shared" si="3"/>
+        <v>12905</v>
       </c>
       <c r="D242" s="8">
         <v>290</v>
@@ -7883,8 +7883,8 @@
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100290006</v>
+        <f t="shared" si="3"/>
+        <v>12906</v>
       </c>
       <c r="D243" s="8">
         <v>290</v>
@@ -7909,8 +7909,8 @@
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100290007</v>
+        <f t="shared" si="3"/>
+        <v>12907</v>
       </c>
       <c r="D244" s="8">
         <v>290</v>
@@ -7935,8 +7935,8 @@
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100290008</v>
+        <f t="shared" si="3"/>
+        <v>12908</v>
       </c>
       <c r="D245" s="8">
         <v>290</v>
@@ -7961,8 +7961,8 @@
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100300001</v>
+        <f t="shared" si="3"/>
+        <v>13001</v>
       </c>
       <c r="D246" s="8">
         <v>300</v>
@@ -7987,8 +7987,8 @@
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100300002</v>
+        <f t="shared" si="3"/>
+        <v>13002</v>
       </c>
       <c r="D247" s="8">
         <v>300</v>
@@ -8013,8 +8013,8 @@
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100300003</v>
+        <f t="shared" si="3"/>
+        <v>13003</v>
       </c>
       <c r="D248" s="8">
         <v>300</v>
@@ -8039,8 +8039,8 @@
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100300004</v>
+        <f t="shared" si="3"/>
+        <v>13004</v>
       </c>
       <c r="D249" s="8">
         <v>300</v>
@@ -8065,8 +8065,8 @@
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100300005</v>
+        <f t="shared" si="3"/>
+        <v>13005</v>
       </c>
       <c r="D250" s="8">
         <v>300</v>
@@ -8091,8 +8091,8 @@
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100300006</v>
+        <f t="shared" si="3"/>
+        <v>13006</v>
       </c>
       <c r="D251" s="8">
         <v>300</v>
@@ -8117,8 +8117,8 @@
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100300007</v>
+        <f t="shared" si="3"/>
+        <v>13007</v>
       </c>
       <c r="D252" s="8">
         <v>300</v>
@@ -8143,8 +8143,8 @@
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100300008</v>
+        <f t="shared" si="3"/>
+        <v>13008</v>
       </c>
       <c r="D253" s="8">
         <v>300</v>
@@ -8169,8 +8169,8 @@
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100310001</v>
+        <f t="shared" si="3"/>
+        <v>13101</v>
       </c>
       <c r="D254" s="8">
         <v>310</v>
@@ -8195,8 +8195,8 @@
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100310002</v>
+        <f t="shared" si="3"/>
+        <v>13102</v>
       </c>
       <c r="D255" s="8">
         <v>310</v>
@@ -8221,8 +8221,8 @@
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100310003</v>
+        <f t="shared" si="3"/>
+        <v>13103</v>
       </c>
       <c r="D256" s="8">
         <v>310</v>
@@ -8247,8 +8247,8 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100310004</v>
+        <f t="shared" si="3"/>
+        <v>13104</v>
       </c>
       <c r="D257" s="8">
         <v>310</v>
@@ -8273,8 +8273,8 @@
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100310005</v>
+        <f t="shared" si="3"/>
+        <v>13105</v>
       </c>
       <c r="D258" s="8">
         <v>310</v>
@@ -8299,8 +8299,8 @@
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100310006</v>
+        <f t="shared" si="3"/>
+        <v>13106</v>
       </c>
       <c r="D259" s="8">
         <v>310</v>
@@ -8325,8 +8325,8 @@
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100310007</v>
+        <f t="shared" si="3"/>
+        <v>13107</v>
       </c>
       <c r="D260" s="8">
         <v>310</v>
@@ -8351,8 +8351,8 @@
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100310008</v>
+        <f t="shared" si="3"/>
+        <v>13108</v>
       </c>
       <c r="D261" s="8">
         <v>310</v>
@@ -8377,8 +8377,8 @@
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100320001</v>
+        <f t="shared" si="3"/>
+        <v>13201</v>
       </c>
       <c r="D262" s="8">
         <v>320</v>
@@ -8403,8 +8403,8 @@
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100320002</v>
+        <f t="shared" si="3"/>
+        <v>13202</v>
       </c>
       <c r="D263" s="8">
         <v>320</v>
@@ -8429,8 +8429,8 @@
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100320003</v>
+        <f t="shared" si="3"/>
+        <v>13203</v>
       </c>
       <c r="D264" s="8">
         <v>320</v>
@@ -8455,8 +8455,8 @@
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100320004</v>
+        <f t="shared" ref="C265:C285" si="4">"1"&amp;TEXT(D265,"000")&amp;F265</f>
+        <v>13204</v>
       </c>
       <c r="D265" s="8">
         <v>320</v>
@@ -8481,8 +8481,8 @@
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100320005</v>
+        <f t="shared" si="4"/>
+        <v>13205</v>
       </c>
       <c r="D266" s="8">
         <v>320</v>
@@ -8507,8 +8507,8 @@
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100320006</v>
+        <f t="shared" si="4"/>
+        <v>13206</v>
       </c>
       <c r="D267" s="8">
         <v>320</v>
@@ -8533,8 +8533,8 @@
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100320007</v>
+        <f t="shared" si="4"/>
+        <v>13207</v>
       </c>
       <c r="D268" s="8">
         <v>320</v>
@@ -8559,8 +8559,8 @@
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100320008</v>
+        <f t="shared" si="4"/>
+        <v>13208</v>
       </c>
       <c r="D269" s="8">
         <v>320</v>
@@ -8585,8 +8585,8 @@
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100330001</v>
+        <f t="shared" si="4"/>
+        <v>13301</v>
       </c>
       <c r="D270" s="8">
         <v>330</v>
@@ -8611,8 +8611,8 @@
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100330002</v>
+        <f t="shared" si="4"/>
+        <v>13302</v>
       </c>
       <c r="D271" s="8">
         <v>330</v>
@@ -8637,8 +8637,8 @@
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100330003</v>
+        <f t="shared" si="4"/>
+        <v>13303</v>
       </c>
       <c r="D272" s="8">
         <v>330</v>
@@ -8663,8 +8663,8 @@
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100330004</v>
+        <f t="shared" si="4"/>
+        <v>13304</v>
       </c>
       <c r="D273" s="8">
         <v>330</v>
@@ -8689,8 +8689,8 @@
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100330005</v>
+        <f t="shared" si="4"/>
+        <v>13305</v>
       </c>
       <c r="D274" s="8">
         <v>330</v>
@@ -8715,8 +8715,8 @@
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100330006</v>
+        <f t="shared" si="4"/>
+        <v>13306</v>
       </c>
       <c r="D275" s="8">
         <v>330</v>
@@ -8741,8 +8741,8 @@
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100330007</v>
+        <f t="shared" si="4"/>
+        <v>13307</v>
       </c>
       <c r="D276" s="8">
         <v>330</v>
@@ -8767,8 +8767,8 @@
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100330008</v>
+        <f t="shared" si="4"/>
+        <v>13308</v>
       </c>
       <c r="D277" s="8">
         <v>330</v>
@@ -8793,8 +8793,8 @@
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100340001</v>
+        <f t="shared" si="4"/>
+        <v>13401</v>
       </c>
       <c r="D278" s="8">
         <v>340</v>
@@ -8819,8 +8819,8 @@
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100340002</v>
+        <f t="shared" si="4"/>
+        <v>13402</v>
       </c>
       <c r="D279" s="8">
         <v>340</v>
@@ -8845,8 +8845,8 @@
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100340003</v>
+        <f t="shared" si="4"/>
+        <v>13403</v>
       </c>
       <c r="D280" s="8">
         <v>340</v>
@@ -8871,8 +8871,8 @@
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100340004</v>
+        <f t="shared" si="4"/>
+        <v>13404</v>
       </c>
       <c r="D281" s="8">
         <v>340</v>
@@ -8897,8 +8897,8 @@
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100340005</v>
+        <f t="shared" si="4"/>
+        <v>13405</v>
       </c>
       <c r="D282" s="8">
         <v>340</v>
@@ -8923,8 +8923,8 @@
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100340006</v>
+        <f t="shared" si="4"/>
+        <v>13406</v>
       </c>
       <c r="D283" s="8">
         <v>340</v>
@@ -8949,8 +8949,8 @@
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100340007</v>
+        <f t="shared" si="4"/>
+        <v>13407</v>
       </c>
       <c r="D284" s="8">
         <v>340</v>
@@ -8975,8 +8975,8 @@
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>100340008</v>
+        <f t="shared" si="4"/>
+        <v>13408</v>
       </c>
       <c r="D285" s="8">
         <v>340</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -6393,7 +6393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -6409,11 +6409,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6739,18 +6734,18 @@
   <dimension ref="A3:J845"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="19.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="2" width="18.125" collapsed="false"/>
+    <col min="5" max="7" customWidth="true" style="1" width="19.75" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="3" width="10.5" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="4" width="21.125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="1" width="14.875" collapsed="false"/>
+    <col min="11" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" spans="1:10">
@@ -6773,7 +6768,7 @@
       <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -6800,7 +6795,7 @@
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -6827,42 +6822,40 @@
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" ht="24.0" customHeight="true">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="3:10">
+    <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
         <v>23</v>
       </c>
@@ -6888,7 +6881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="3:10">
+    <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
         <v>27</v>
       </c>
@@ -6914,7 +6907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="3:10">
+    <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
         <v>32</v>
       </c>
@@ -6940,7 +6933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="3:10">
+    <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -6966,7 +6959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="3:10">
+    <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
         <v>39</v>
       </c>
@@ -6992,7 +6985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="24" customHeight="1" spans="3:10">
+    <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
         <v>43</v>
       </c>
@@ -7018,7 +7011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="3:10">
+    <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
         <v>46</v>
       </c>
@@ -7044,7 +7037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="3:10">
+    <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
         <v>48</v>
       </c>
@@ -7070,7 +7063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="3:10">
+    <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
         <v>50</v>
       </c>
@@ -7096,7 +7089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="3:10">
+    <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
         <v>52</v>
       </c>
@@ -7122,7 +7115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="3:10">
+    <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
         <v>54</v>
       </c>
@@ -7148,7 +7141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="24" customHeight="1" spans="3:10">
+    <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
         <v>56</v>
       </c>
@@ -7174,7 +7167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" ht="24" customHeight="1" spans="3:10">
+    <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -7200,7 +7193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" ht="24" customHeight="1" spans="3:10">
+    <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
         <v>60</v>
       </c>
@@ -7226,7 +7219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="3:10">
+    <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
         <v>62</v>
       </c>
@@ -7252,7 +7245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="3:10">
+    <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
         <v>64</v>
       </c>
@@ -7278,7 +7271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="3:10">
+    <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -7304,7 +7297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="24" customHeight="1" spans="3:10">
+    <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
         <v>68</v>
       </c>
@@ -7330,7 +7323,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" ht="24" customHeight="1" spans="3:10">
+    <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
         <v>70</v>
       </c>
@@ -7356,7 +7349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" ht="24" customHeight="1" spans="3:10">
+    <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -7382,7 +7375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="3:10">
+    <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
         <v>74</v>
       </c>
@@ -7408,7 +7401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" ht="24" customHeight="1" spans="3:10">
+    <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
         <v>76</v>
       </c>
@@ -7434,7 +7427,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="3:10">
+    <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
         <v>78</v>
       </c>
@@ -7460,7 +7453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" ht="24" customHeight="1" spans="3:10">
+    <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
         <v>80</v>
       </c>
@@ -7486,7 +7479,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" ht="24" customHeight="1" spans="3:10">
+    <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
         <v>84</v>
       </c>
@@ -7512,7 +7505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" ht="24" customHeight="1" spans="3:10">
+    <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
         <v>87</v>
       </c>
@@ -7538,7 +7531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" ht="24" customHeight="1" spans="3:10">
+    <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
         <v>91</v>
       </c>
@@ -7564,7 +7557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" ht="24" customHeight="1" spans="3:10">
+    <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
         <v>94</v>
       </c>
@@ -7590,7 +7583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" ht="24" customHeight="1" spans="3:10">
+    <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
         <v>96</v>
       </c>
@@ -7616,7 +7609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" ht="24" customHeight="1" spans="3:10">
+    <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
         <v>98</v>
       </c>
@@ -7642,7 +7635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" ht="24" customHeight="1" spans="3:10">
+    <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
         <v>100</v>
       </c>
@@ -7668,7 +7661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" ht="24" customHeight="1" spans="3:10">
+    <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
         <v>102</v>
       </c>
@@ -7694,7 +7687,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" ht="24" customHeight="1" spans="3:10">
+    <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
         <v>104</v>
       </c>
@@ -7720,7 +7713,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" ht="24" customHeight="1" spans="3:10">
+    <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
         <v>106</v>
       </c>
@@ -7746,7 +7739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" ht="24" customHeight="1" spans="3:10">
+    <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
         <v>108</v>
       </c>
@@ -7772,7 +7765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" ht="24" customHeight="1" spans="3:10">
+    <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
         <v>110</v>
       </c>
@@ -7798,7 +7791,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" ht="24" customHeight="1" spans="3:10">
+    <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
         <v>112</v>
       </c>
@@ -7824,7 +7817,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" ht="24" customHeight="1" spans="3:10">
+    <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
         <v>114</v>
       </c>
@@ -7850,7 +7843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" ht="24" customHeight="1" spans="3:10">
+    <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
         <v>116</v>
       </c>
@@ -7876,7 +7869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" ht="24" customHeight="1" spans="3:10">
+    <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
         <v>118</v>
       </c>
@@ -7902,7 +7895,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" ht="24" customHeight="1" spans="3:10">
+    <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
         <v>120</v>
       </c>
@@ -7928,7 +7921,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" ht="24" customHeight="1" spans="3:10">
+    <row r="48" ht="24.0" customHeight="true">
       <c r="C48" t="s">
         <v>122</v>
       </c>
@@ -7954,7 +7947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" ht="24" customHeight="1" spans="3:10">
+    <row r="49" ht="24.0" customHeight="true">
       <c r="C49" t="s">
         <v>124</v>
       </c>
@@ -7980,7 +7973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" ht="24" customHeight="1" spans="3:10">
+    <row r="50" ht="24.0" customHeight="true">
       <c r="C50" t="s">
         <v>126</v>
       </c>
@@ -8006,7 +7999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" ht="24" customHeight="1" spans="3:10">
+    <row r="51" ht="24.0" customHeight="true">
       <c r="C51" t="s">
         <v>128</v>
       </c>
@@ -8032,7 +8025,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" ht="24" customHeight="1" spans="3:10">
+    <row r="52" ht="24.0" customHeight="true">
       <c r="C52" t="s">
         <v>130</v>
       </c>
@@ -8058,7 +8051,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" ht="24" customHeight="1" spans="3:10">
+    <row r="53" ht="24.0" customHeight="true">
       <c r="C53" t="s">
         <v>132</v>
       </c>
@@ -8084,7 +8077,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" ht="24" customHeight="1" spans="3:10">
+    <row r="54" ht="24.0" customHeight="true">
       <c r="C54" t="s">
         <v>134</v>
       </c>
@@ -8110,7 +8103,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" ht="24" customHeight="1" spans="3:10">
+    <row r="55" ht="24.0" customHeight="true">
       <c r="C55" t="s">
         <v>139</v>
       </c>
@@ -8136,7 +8129,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" ht="24" customHeight="1" spans="3:10">
+    <row r="56" ht="24.0" customHeight="true">
       <c r="C56" t="s">
         <v>142</v>
       </c>
@@ -8162,7 +8155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" ht="24" customHeight="1" spans="3:10">
+    <row r="57" ht="24.0" customHeight="true">
       <c r="C57" t="s">
         <v>145</v>
       </c>
@@ -8188,7 +8181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" ht="24" customHeight="1" spans="3:10">
+    <row r="58" ht="24.0" customHeight="true">
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -8214,7 +8207,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" ht="24" customHeight="1" spans="3:10">
+    <row r="59" ht="24.0" customHeight="true">
       <c r="C59" t="s">
         <v>150</v>
       </c>
@@ -8240,7 +8233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" ht="24" customHeight="1" spans="3:10">
+    <row r="60" ht="24.0" customHeight="true">
       <c r="C60" t="s">
         <v>152</v>
       </c>
@@ -8266,7 +8259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" ht="24" customHeight="1" spans="3:10">
+    <row r="61" ht="24.0" customHeight="true">
       <c r="C61" t="s">
         <v>154</v>
       </c>
@@ -8292,7 +8285,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" ht="24" customHeight="1" spans="3:10">
+    <row r="62" ht="24.0" customHeight="true">
       <c r="C62" t="s">
         <v>156</v>
       </c>
@@ -8318,7 +8311,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" ht="24" customHeight="1" spans="3:10">
+    <row r="63" ht="24.0" customHeight="true">
       <c r="C63" t="s">
         <v>158</v>
       </c>
@@ -8344,7 +8337,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" ht="24" customHeight="1" spans="3:10">
+    <row r="64" ht="24.0" customHeight="true">
       <c r="C64" t="s">
         <v>160</v>
       </c>
@@ -8370,7 +8363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" ht="24" customHeight="1" spans="3:10">
+    <row r="65" ht="24.0" customHeight="true">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -8396,7 +8389,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" ht="24" customHeight="1" spans="3:10">
+    <row r="66" ht="24.0" customHeight="true">
       <c r="C66" t="s">
         <v>164</v>
       </c>
@@ -8422,7 +8415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" ht="24" customHeight="1" spans="3:10">
+    <row r="67" ht="24.0" customHeight="true">
       <c r="C67" t="s">
         <v>166</v>
       </c>
@@ -8448,7 +8441,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" ht="24" customHeight="1" spans="3:10">
+    <row r="68" ht="24.0" customHeight="true">
       <c r="C68" t="s">
         <v>168</v>
       </c>
@@ -8474,7 +8467,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" ht="24" customHeight="1" spans="3:10">
+    <row r="69" ht="24.0" customHeight="true">
       <c r="C69" t="s">
         <v>170</v>
       </c>
@@ -8500,7 +8493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" ht="24" customHeight="1" spans="3:10">
+    <row r="70" ht="24.0" customHeight="true">
       <c r="C70" t="s">
         <v>172</v>
       </c>
@@ -8526,7 +8519,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" ht="24" customHeight="1" spans="3:10">
+    <row r="71" ht="24.0" customHeight="true">
       <c r="C71" t="s">
         <v>174</v>
       </c>
@@ -8552,7 +8545,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" ht="24" customHeight="1" spans="3:10">
+    <row r="72" ht="24.0" customHeight="true">
       <c r="C72" t="s">
         <v>176</v>
       </c>
@@ -8578,7 +8571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" ht="24" customHeight="1" spans="3:10">
+    <row r="73" ht="24.0" customHeight="true">
       <c r="C73" t="s">
         <v>178</v>
       </c>
@@ -8604,7 +8597,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" ht="24" customHeight="1" spans="3:10">
+    <row r="74" ht="24.0" customHeight="true">
       <c r="C74" t="s">
         <v>180</v>
       </c>
@@ -8630,7 +8623,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" ht="24" customHeight="1" spans="3:10">
+    <row r="75" ht="24.0" customHeight="true">
       <c r="C75" t="s">
         <v>182</v>
       </c>
@@ -8656,7 +8649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" ht="24" customHeight="1" spans="3:10">
+    <row r="76" ht="24.0" customHeight="true">
       <c r="C76" t="s">
         <v>184</v>
       </c>
@@ -8682,7 +8675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" ht="24" customHeight="1" spans="3:10">
+    <row r="77" ht="24.0" customHeight="true">
       <c r="C77" t="s">
         <v>186</v>
       </c>
@@ -8708,7 +8701,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" ht="24" customHeight="1" spans="3:10">
+    <row r="78" ht="24.0" customHeight="true">
       <c r="C78" t="s">
         <v>188</v>
       </c>
@@ -8734,7 +8727,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" ht="24" customHeight="1" spans="3:10">
+    <row r="79" ht="24.0" customHeight="true">
       <c r="C79" t="s">
         <v>192</v>
       </c>
@@ -8760,7 +8753,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" ht="24" customHeight="1" spans="3:10">
+    <row r="80" ht="24.0" customHeight="true">
       <c r="C80" t="s">
         <v>195</v>
       </c>
@@ -8786,7 +8779,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" ht="24" customHeight="1" spans="3:10">
+    <row r="81" ht="24.0" customHeight="true">
       <c r="C81" t="s">
         <v>198</v>
       </c>
@@ -8812,7 +8805,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" ht="24" customHeight="1" spans="3:10">
+    <row r="82" ht="24.0" customHeight="true">
       <c r="C82" t="s">
         <v>200</v>
       </c>
@@ -8838,7 +8831,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" ht="24" customHeight="1" spans="3:10">
+    <row r="83" ht="24.0" customHeight="true">
       <c r="C83" t="s">
         <v>202</v>
       </c>
@@ -8864,7 +8857,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" ht="24" customHeight="1" spans="3:10">
+    <row r="84" ht="24.0" customHeight="true">
       <c r="C84" t="s">
         <v>204</v>
       </c>
@@ -8890,7 +8883,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" ht="24" customHeight="1" spans="3:10">
+    <row r="85" ht="24.0" customHeight="true">
       <c r="C85" t="s">
         <v>206</v>
       </c>
@@ -8916,7 +8909,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" ht="24" customHeight="1" spans="3:10">
+    <row r="86" ht="24.0" customHeight="true">
       <c r="C86" t="s">
         <v>208</v>
       </c>
@@ -8942,7 +8935,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" ht="24" customHeight="1" spans="3:10">
+    <row r="87" ht="24.0" customHeight="true">
       <c r="C87" t="s">
         <v>210</v>
       </c>
@@ -8968,7 +8961,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" ht="24" customHeight="1" spans="3:10">
+    <row r="88" ht="24.0" customHeight="true">
       <c r="C88" t="s">
         <v>212</v>
       </c>
@@ -8994,7 +8987,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" ht="24" customHeight="1" spans="3:10">
+    <row r="89" ht="24.0" customHeight="true">
       <c r="C89" t="s">
         <v>214</v>
       </c>
@@ -9020,7 +9013,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" ht="24" customHeight="1" spans="3:10">
+    <row r="90" ht="24.0" customHeight="true">
       <c r="C90" t="s">
         <v>216</v>
       </c>
@@ -9046,7 +9039,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" ht="24" customHeight="1" spans="3:10">
+    <row r="91" ht="24.0" customHeight="true">
       <c r="C91" t="s">
         <v>218</v>
       </c>
@@ -9072,7 +9065,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" ht="24" customHeight="1" spans="3:10">
+    <row r="92" ht="24.0" customHeight="true">
       <c r="C92" t="s">
         <v>220</v>
       </c>
@@ -9098,7 +9091,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" ht="24" customHeight="1" spans="3:10">
+    <row r="93" ht="24.0" customHeight="true">
       <c r="C93" t="s">
         <v>222</v>
       </c>
@@ -9124,7 +9117,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" ht="24" customHeight="1" spans="3:10">
+    <row r="94" ht="24.0" customHeight="true">
       <c r="C94" t="s">
         <v>224</v>
       </c>
@@ -9150,7 +9143,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" ht="24" customHeight="1" spans="3:10">
+    <row r="95" ht="24.0" customHeight="true">
       <c r="C95" t="s">
         <v>226</v>
       </c>
@@ -9176,7 +9169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="96" ht="24" customHeight="1" spans="3:10">
+    <row r="96" ht="24.0" customHeight="true">
       <c r="C96" t="s">
         <v>228</v>
       </c>
@@ -9202,7 +9195,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" ht="24" customHeight="1" spans="3:10">
+    <row r="97" ht="24.0" customHeight="true">
       <c r="C97" t="s">
         <v>230</v>
       </c>
@@ -9228,7 +9221,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" ht="24" customHeight="1" spans="3:10">
+    <row r="98" ht="24.0" customHeight="true">
       <c r="C98" t="s">
         <v>232</v>
       </c>
@@ -9254,7 +9247,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" ht="24" customHeight="1" spans="3:10">
+    <row r="99" ht="24.0" customHeight="true">
       <c r="C99" t="s">
         <v>234</v>
       </c>
@@ -9280,7 +9273,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" ht="24" customHeight="1" spans="3:10">
+    <row r="100" ht="24.0" customHeight="true">
       <c r="C100" t="s">
         <v>236</v>
       </c>
@@ -9306,7 +9299,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" ht="24" customHeight="1" spans="3:10">
+    <row r="101" ht="24.0" customHeight="true">
       <c r="C101" t="s">
         <v>238</v>
       </c>
@@ -9332,7 +9325,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" ht="24" customHeight="1" spans="3:10">
+    <row r="102" ht="24.0" customHeight="true">
       <c r="C102" t="s">
         <v>240</v>
       </c>
@@ -9358,7 +9351,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" ht="24" customHeight="1" spans="3:10">
+    <row r="103" ht="24.0" customHeight="true">
       <c r="C103" t="s">
         <v>245</v>
       </c>
@@ -9384,7 +9377,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" ht="24" customHeight="1" spans="3:10">
+    <row r="104" ht="24.0" customHeight="true">
       <c r="C104" t="s">
         <v>248</v>
       </c>
@@ -9410,7 +9403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="105" ht="24" customHeight="1" spans="3:10">
+    <row r="105" ht="24.0" customHeight="true">
       <c r="C105" t="s">
         <v>251</v>
       </c>
@@ -9436,7 +9429,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="106" ht="24" customHeight="1" spans="3:10">
+    <row r="106" ht="24.0" customHeight="true">
       <c r="C106" t="s">
         <v>253</v>
       </c>
@@ -9462,7 +9455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" ht="24" customHeight="1" spans="3:10">
+    <row r="107" ht="24.0" customHeight="true">
       <c r="C107" t="s">
         <v>255</v>
       </c>
@@ -9488,7 +9481,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" ht="24" customHeight="1" spans="3:10">
+    <row r="108" ht="24.0" customHeight="true">
       <c r="C108" t="s">
         <v>257</v>
       </c>
@@ -9514,7 +9507,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" ht="24" customHeight="1" spans="3:10">
+    <row r="109" ht="24.0" customHeight="true">
       <c r="C109" t="s">
         <v>259</v>
       </c>
@@ -9540,7 +9533,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" ht="24" customHeight="1" spans="3:10">
+    <row r="110" ht="24.0" customHeight="true">
       <c r="C110" t="s">
         <v>261</v>
       </c>
@@ -9566,7 +9559,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" ht="24" customHeight="1" spans="3:10">
+    <row r="111" ht="24.0" customHeight="true">
       <c r="C111" t="s">
         <v>263</v>
       </c>
@@ -9592,7 +9585,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="112" ht="24" customHeight="1" spans="3:10">
+    <row r="112" ht="24.0" customHeight="true">
       <c r="C112" t="s">
         <v>265</v>
       </c>
@@ -9618,7 +9611,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="113" ht="24" customHeight="1" spans="3:10">
+    <row r="113" ht="24.0" customHeight="true">
       <c r="C113" t="s">
         <v>267</v>
       </c>
@@ -9644,7 +9637,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" ht="24" customHeight="1" spans="3:10">
+    <row r="114" ht="24.0" customHeight="true">
       <c r="C114" t="s">
         <v>269</v>
       </c>
@@ -9670,7 +9663,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="115" ht="24" customHeight="1" spans="3:10">
+    <row r="115" ht="24.0" customHeight="true">
       <c r="C115" t="s">
         <v>271</v>
       </c>
@@ -9696,7 +9689,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" ht="24" customHeight="1" spans="3:10">
+    <row r="116" ht="24.0" customHeight="true">
       <c r="C116" t="s">
         <v>273</v>
       </c>
@@ -9722,7 +9715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" ht="24" customHeight="1" spans="3:10">
+    <row r="117" ht="24.0" customHeight="true">
       <c r="C117" t="s">
         <v>275</v>
       </c>
@@ -9748,7 +9741,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" ht="24" customHeight="1" spans="3:10">
+    <row r="118" ht="24.0" customHeight="true">
       <c r="C118" t="s">
         <v>277</v>
       </c>
@@ -9774,7 +9767,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="119" ht="24" customHeight="1" spans="3:10">
+    <row r="119" ht="24.0" customHeight="true">
       <c r="C119" t="s">
         <v>279</v>
       </c>
@@ -9800,7 +9793,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="120" ht="24" customHeight="1" spans="3:10">
+    <row r="120" ht="24.0" customHeight="true">
       <c r="C120" t="s">
         <v>281</v>
       </c>
@@ -9826,7 +9819,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" ht="24" customHeight="1" spans="3:10">
+    <row r="121" ht="24.0" customHeight="true">
       <c r="C121" t="s">
         <v>283</v>
       </c>
@@ -9852,7 +9845,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="122" ht="24" customHeight="1" spans="3:10">
+    <row r="122" ht="24.0" customHeight="true">
       <c r="C122" t="s">
         <v>285</v>
       </c>
@@ -9878,7 +9871,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="123" ht="24" customHeight="1" spans="3:10">
+    <row r="123" ht="24.0" customHeight="true">
       <c r="C123" t="s">
         <v>287</v>
       </c>
@@ -9904,7 +9897,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" ht="24" customHeight="1" spans="3:10">
+    <row r="124" ht="24.0" customHeight="true">
       <c r="C124" t="s">
         <v>289</v>
       </c>
@@ -9930,7 +9923,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="125" ht="24" customHeight="1" spans="3:10">
+    <row r="125" ht="24.0" customHeight="true">
       <c r="C125" t="s">
         <v>291</v>
       </c>
@@ -9956,7 +9949,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" ht="24" customHeight="1" spans="3:10">
+    <row r="126" ht="24.0" customHeight="true">
       <c r="C126" t="s">
         <v>293</v>
       </c>
@@ -9982,7 +9975,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" ht="24" customHeight="1" spans="3:10">
+    <row r="127" ht="24.0" customHeight="true">
       <c r="C127" t="s">
         <v>297</v>
       </c>
@@ -10008,7 +10001,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="128" ht="24" customHeight="1" spans="3:10">
+    <row r="128" ht="24.0" customHeight="true">
       <c r="C128" t="s">
         <v>300</v>
       </c>
@@ -10034,7 +10027,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="129" ht="24" customHeight="1" spans="3:10">
+    <row r="129" ht="24.0" customHeight="true">
       <c r="C129" t="s">
         <v>303</v>
       </c>
@@ -10060,7 +10053,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" ht="24" customHeight="1" spans="3:10">
+    <row r="130" ht="24.0" customHeight="true">
       <c r="C130" t="s">
         <v>306</v>
       </c>
@@ -10086,7 +10079,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="131" ht="24" customHeight="1" spans="3:10">
+    <row r="131" ht="24.0" customHeight="true">
       <c r="C131" t="s">
         <v>308</v>
       </c>
@@ -10112,7 +10105,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="132" ht="24" customHeight="1" spans="3:10">
+    <row r="132" ht="24.0" customHeight="true">
       <c r="C132" t="s">
         <v>310</v>
       </c>
@@ -10138,7 +10131,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" ht="24" customHeight="1" spans="3:10">
+    <row r="133" ht="24.0" customHeight="true">
       <c r="C133" t="s">
         <v>312</v>
       </c>
@@ -10164,7 +10157,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="134" ht="24" customHeight="1" spans="3:10">
+    <row r="134" ht="24.0" customHeight="true">
       <c r="C134" t="s">
         <v>314</v>
       </c>
@@ -10190,7 +10183,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" ht="24" customHeight="1" spans="3:10">
+    <row r="135" ht="24.0" customHeight="true">
       <c r="C135" t="s">
         <v>316</v>
       </c>
@@ -10216,7 +10209,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="136" ht="24" customHeight="1" spans="3:10">
+    <row r="136" ht="24.0" customHeight="true">
       <c r="C136" t="s">
         <v>318</v>
       </c>
@@ -10242,7 +10235,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="137" ht="24" customHeight="1" spans="3:10">
+    <row r="137" ht="24.0" customHeight="true">
       <c r="C137" t="s">
         <v>320</v>
       </c>
@@ -10268,7 +10261,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="138" ht="24" customHeight="1" spans="3:10">
+    <row r="138" ht="24.0" customHeight="true">
       <c r="C138" t="s">
         <v>322</v>
       </c>
@@ -10294,7 +10287,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" ht="24" customHeight="1" spans="3:10">
+    <row r="139" ht="24.0" customHeight="true">
       <c r="C139" t="s">
         <v>324</v>
       </c>
@@ -10320,7 +10313,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="140" ht="24" customHeight="1" spans="3:10">
+    <row r="140" ht="24.0" customHeight="true">
       <c r="C140" t="s">
         <v>326</v>
       </c>
@@ -10346,7 +10339,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="141" ht="24" customHeight="1" spans="3:10">
+    <row r="141" ht="24.0" customHeight="true">
       <c r="C141" t="s">
         <v>328</v>
       </c>
@@ -10372,7 +10365,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="142" ht="24" customHeight="1" spans="3:10">
+    <row r="142" ht="24.0" customHeight="true">
       <c r="C142" t="s">
         <v>330</v>
       </c>
@@ -10398,7 +10391,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" ht="24" customHeight="1" spans="3:10">
+    <row r="143" ht="24.0" customHeight="true">
       <c r="C143" t="s">
         <v>332</v>
       </c>
@@ -10424,7 +10417,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="144" ht="24" customHeight="1" spans="3:10">
+    <row r="144" ht="24.0" customHeight="true">
       <c r="C144" t="s">
         <v>334</v>
       </c>
@@ -10450,7 +10443,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" ht="24" customHeight="1" spans="3:10">
+    <row r="145" ht="24.0" customHeight="true">
       <c r="C145" t="s">
         <v>336</v>
       </c>
@@ -10476,7 +10469,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="146" ht="24" customHeight="1" spans="3:10">
+    <row r="146" ht="24.0" customHeight="true">
       <c r="C146" t="s">
         <v>338</v>
       </c>
@@ -10502,7 +10495,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="147" ht="24" customHeight="1" spans="3:10">
+    <row r="147" ht="24.0" customHeight="true">
       <c r="C147" t="s">
         <v>340</v>
       </c>
@@ -10528,7 +10521,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="148" ht="24" customHeight="1" spans="3:10">
+    <row r="148" ht="24.0" customHeight="true">
       <c r="C148" t="s">
         <v>342</v>
       </c>
@@ -10554,7 +10547,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="149" ht="24" customHeight="1" spans="3:10">
+    <row r="149" ht="24.0" customHeight="true">
       <c r="C149" t="s">
         <v>344</v>
       </c>
@@ -10580,7 +10573,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" ht="24" customHeight="1" spans="3:10">
+    <row r="150" ht="24.0" customHeight="true">
       <c r="C150" t="s">
         <v>346</v>
       </c>
@@ -10606,7 +10599,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="151" ht="24" customHeight="1" spans="3:10">
+    <row r="151" ht="24.0" customHeight="true">
       <c r="C151" t="s">
         <v>350</v>
       </c>
@@ -10632,7 +10625,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="152" ht="24" customHeight="1" spans="3:10">
+    <row r="152" ht="24.0" customHeight="true">
       <c r="C152" t="s">
         <v>353</v>
       </c>
@@ -10658,7 +10651,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="153" ht="24" customHeight="1" spans="3:10">
+    <row r="153" ht="24.0" customHeight="true">
       <c r="C153" t="s">
         <v>356</v>
       </c>
@@ -10684,7 +10677,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="154" ht="24" customHeight="1" spans="3:10">
+    <row r="154" ht="24.0" customHeight="true">
       <c r="C154" t="s">
         <v>358</v>
       </c>
@@ -10710,7 +10703,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="155" ht="24" customHeight="1" spans="3:10">
+    <row r="155" ht="24.0" customHeight="true">
       <c r="C155" t="s">
         <v>360</v>
       </c>
@@ -10736,7 +10729,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="156" ht="24" customHeight="1" spans="3:10">
+    <row r="156" ht="24.0" customHeight="true">
       <c r="C156" t="s">
         <v>362</v>
       </c>
@@ -10762,7 +10755,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" ht="24" customHeight="1" spans="3:10">
+    <row r="157" ht="24.0" customHeight="true">
       <c r="C157" t="s">
         <v>364</v>
       </c>
@@ -10788,7 +10781,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="158" ht="24" customHeight="1" spans="3:10">
+    <row r="158" ht="24.0" customHeight="true">
       <c r="C158" t="s">
         <v>366</v>
       </c>
@@ -10814,7 +10807,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="159" ht="24" customHeight="1" spans="3:10">
+    <row r="159" ht="24.0" customHeight="true">
       <c r="C159" t="s">
         <v>368</v>
       </c>
@@ -10840,7 +10833,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="160" ht="24" customHeight="1" spans="3:10">
+    <row r="160" ht="24.0" customHeight="true">
       <c r="C160" t="s">
         <v>370</v>
       </c>
@@ -10866,7 +10859,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="161" ht="24" customHeight="1" spans="3:10">
+    <row r="161" ht="24.0" customHeight="true">
       <c r="C161" t="s">
         <v>372</v>
       </c>
@@ -10892,7 +10885,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="162" ht="24" customHeight="1" spans="3:10">
+    <row r="162" ht="24.0" customHeight="true">
       <c r="C162" t="s">
         <v>374</v>
       </c>
@@ -10918,7 +10911,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="163" ht="24" customHeight="1" spans="3:10">
+    <row r="163" ht="24.0" customHeight="true">
       <c r="C163" t="s">
         <v>376</v>
       </c>
@@ -10944,7 +10937,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="164" ht="24" customHeight="1" spans="3:10">
+    <row r="164" ht="24.0" customHeight="true">
       <c r="C164" t="s">
         <v>378</v>
       </c>
@@ -10970,7 +10963,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="165" ht="24" customHeight="1" spans="3:10">
+    <row r="165" ht="24.0" customHeight="true">
       <c r="C165" t="s">
         <v>380</v>
       </c>
@@ -10996,7 +10989,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="166" ht="24" customHeight="1" spans="3:10">
+    <row r="166" ht="24.0" customHeight="true">
       <c r="C166" t="s">
         <v>382</v>
       </c>
@@ -11022,7 +11015,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="167" ht="24" customHeight="1" spans="3:10">
+    <row r="167" ht="24.0" customHeight="true">
       <c r="C167" t="s">
         <v>384</v>
       </c>
@@ -11048,7 +11041,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="168" ht="24" customHeight="1" spans="3:10">
+    <row r="168" ht="24.0" customHeight="true">
       <c r="C168" t="s">
         <v>386</v>
       </c>
@@ -11074,7 +11067,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="169" ht="24" customHeight="1" spans="3:10">
+    <row r="169" ht="24.0" customHeight="true">
       <c r="C169" t="s">
         <v>388</v>
       </c>
@@ -11100,7 +11093,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" ht="24" customHeight="1" spans="3:10">
+    <row r="170" ht="24.0" customHeight="true">
       <c r="C170" t="s">
         <v>390</v>
       </c>
@@ -11126,7 +11119,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="171" ht="24" customHeight="1" spans="3:10">
+    <row r="171" ht="24.0" customHeight="true">
       <c r="C171" t="s">
         <v>392</v>
       </c>
@@ -11152,7 +11145,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="172" ht="24" customHeight="1" spans="3:10">
+    <row r="172" ht="24.0" customHeight="true">
       <c r="C172" t="s">
         <v>394</v>
       </c>
@@ -11178,7 +11171,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" ht="24" customHeight="1" spans="3:10">
+    <row r="173" ht="24.0" customHeight="true">
       <c r="C173" t="s">
         <v>396</v>
       </c>
@@ -11204,7 +11197,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" ht="24" customHeight="1" spans="3:10">
+    <row r="174" ht="24.0" customHeight="true">
       <c r="C174" t="s">
         <v>398</v>
       </c>
@@ -11230,7 +11223,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="175" ht="24" customHeight="1" spans="3:10">
+    <row r="175" ht="24.0" customHeight="true">
       <c r="C175" t="s">
         <v>402</v>
       </c>
@@ -11256,7 +11249,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" ht="24" customHeight="1" spans="3:10">
+    <row r="176" ht="24.0" customHeight="true">
       <c r="C176" t="s">
         <v>405</v>
       </c>
@@ -11282,7 +11275,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="177" ht="24" customHeight="1" spans="3:10">
+    <row r="177" ht="24.0" customHeight="true">
       <c r="C177" t="s">
         <v>407</v>
       </c>
@@ -11308,7 +11301,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="178" ht="24" customHeight="1" spans="3:10">
+    <row r="178" ht="24.0" customHeight="true">
       <c r="C178" t="s">
         <v>410</v>
       </c>
@@ -11334,7 +11327,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="179" ht="24" customHeight="1" spans="3:10">
+    <row r="179" ht="24.0" customHeight="true">
       <c r="C179" t="s">
         <v>412</v>
       </c>
@@ -11360,7 +11353,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="180" ht="24" customHeight="1" spans="3:10">
+    <row r="180" ht="24.0" customHeight="true">
       <c r="C180" t="s">
         <v>414</v>
       </c>
@@ -11386,7 +11379,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="181" ht="24" customHeight="1" spans="3:10">
+    <row r="181" ht="24.0" customHeight="true">
       <c r="C181" t="s">
         <v>416</v>
       </c>
@@ -11412,7 +11405,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="182" ht="24" customHeight="1" spans="3:10">
+    <row r="182" ht="24.0" customHeight="true">
       <c r="C182" t="s">
         <v>418</v>
       </c>
@@ -11438,7 +11431,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" ht="24" customHeight="1" spans="3:10">
+    <row r="183" ht="24.0" customHeight="true">
       <c r="C183" t="s">
         <v>420</v>
       </c>
@@ -11464,7 +11457,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="184" ht="24" customHeight="1" spans="3:10">
+    <row r="184" ht="24.0" customHeight="true">
       <c r="C184" t="s">
         <v>422</v>
       </c>
@@ -11490,7 +11483,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="185" ht="24" customHeight="1" spans="3:10">
+    <row r="185" ht="24.0" customHeight="true">
       <c r="C185" t="s">
         <v>424</v>
       </c>
@@ -11516,7 +11509,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="186" ht="24" customHeight="1" spans="3:10">
+    <row r="186" ht="24.0" customHeight="true">
       <c r="C186" t="s">
         <v>426</v>
       </c>
@@ -11542,7 +11535,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="187" ht="24" customHeight="1" spans="3:10">
+    <row r="187" ht="24.0" customHeight="true">
       <c r="C187" t="s">
         <v>428</v>
       </c>
@@ -11568,7 +11561,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="188" ht="24" customHeight="1" spans="3:10">
+    <row r="188" ht="24.0" customHeight="true">
       <c r="C188" t="s">
         <v>430</v>
       </c>
@@ -11594,7 +11587,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="189" ht="24" customHeight="1" spans="3:10">
+    <row r="189" ht="24.0" customHeight="true">
       <c r="C189" t="s">
         <v>432</v>
       </c>
@@ -11620,7 +11613,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="190" ht="24" customHeight="1" spans="3:10">
+    <row r="190" ht="24.0" customHeight="true">
       <c r="C190" t="s">
         <v>434</v>
       </c>
@@ -11646,7 +11639,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="191" ht="24" customHeight="1" spans="3:10">
+    <row r="191" ht="24.0" customHeight="true">
       <c r="C191" t="s">
         <v>436</v>
       </c>
@@ -11672,7 +11665,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="192" ht="24" customHeight="1" spans="3:10">
+    <row r="192" ht="24.0" customHeight="true">
       <c r="C192" t="s">
         <v>438</v>
       </c>
@@ -11698,7 +11691,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="193" ht="24" customHeight="1" spans="3:10">
+    <row r="193" ht="24.0" customHeight="true">
       <c r="C193" t="s">
         <v>440</v>
       </c>
@@ -11724,7 +11717,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="194" ht="24" customHeight="1" spans="3:10">
+    <row r="194" ht="24.0" customHeight="true">
       <c r="C194" t="s">
         <v>442</v>
       </c>
@@ -11750,7 +11743,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="195" ht="24" customHeight="1" spans="3:10">
+    <row r="195" ht="24.0" customHeight="true">
       <c r="C195" t="s">
         <v>444</v>
       </c>
@@ -11776,7 +11769,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="196" ht="24" customHeight="1" spans="3:10">
+    <row r="196" ht="24.0" customHeight="true">
       <c r="C196" t="s">
         <v>446</v>
       </c>
@@ -11802,7 +11795,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="197" ht="24" customHeight="1" spans="3:10">
+    <row r="197" ht="24.0" customHeight="true">
       <c r="C197" t="s">
         <v>448</v>
       </c>
@@ -11828,7 +11821,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="198" ht="24" customHeight="1" spans="3:10">
+    <row r="198" ht="24.0" customHeight="true">
       <c r="C198" t="s">
         <v>450</v>
       </c>
@@ -11854,7 +11847,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="199" ht="24" customHeight="1" spans="3:10">
+    <row r="199" ht="24.0" customHeight="true">
       <c r="C199" t="s">
         <v>455</v>
       </c>
@@ -11880,7 +11873,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="200" ht="24" customHeight="1" spans="3:10">
+    <row r="200" ht="24.0" customHeight="true">
       <c r="C200" t="s">
         <v>458</v>
       </c>
@@ -11906,7 +11899,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="201" ht="24" customHeight="1" spans="3:10">
+    <row r="201" ht="24.0" customHeight="true">
       <c r="C201" t="s">
         <v>462</v>
       </c>
@@ -11932,7 +11925,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="202" ht="24" customHeight="1" spans="3:10">
+    <row r="202" ht="24.0" customHeight="true">
       <c r="C202" t="s">
         <v>465</v>
       </c>
@@ -11958,7 +11951,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="203" ht="24" customHeight="1" spans="3:10">
+    <row r="203" ht="24.0" customHeight="true">
       <c r="C203" t="s">
         <v>467</v>
       </c>
@@ -11984,7 +11977,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="204" ht="24" customHeight="1" spans="3:10">
+    <row r="204" ht="24.0" customHeight="true">
       <c r="C204" t="s">
         <v>469</v>
       </c>
@@ -12010,7 +12003,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="205" ht="24" customHeight="1" spans="3:10">
+    <row r="205" ht="24.0" customHeight="true">
       <c r="C205" t="s">
         <v>471</v>
       </c>
@@ -12036,7 +12029,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="206" ht="24" customHeight="1" spans="3:10">
+    <row r="206" ht="24.0" customHeight="true">
       <c r="C206" t="s">
         <v>473</v>
       </c>
@@ -12062,7 +12055,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="207" ht="24" customHeight="1" spans="3:10">
+    <row r="207" ht="24.0" customHeight="true">
       <c r="C207" t="s">
         <v>475</v>
       </c>
@@ -12088,7 +12081,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="208" ht="24" customHeight="1" spans="3:10">
+    <row r="208" ht="24.0" customHeight="true">
       <c r="C208" t="s">
         <v>477</v>
       </c>
@@ -12114,7 +12107,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="209" ht="24" customHeight="1" spans="3:10">
+    <row r="209" ht="24.0" customHeight="true">
       <c r="C209" t="s">
         <v>479</v>
       </c>
@@ -12140,7 +12133,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="210" ht="24" customHeight="1" spans="3:10">
+    <row r="210" ht="24.0" customHeight="true">
       <c r="C210" t="s">
         <v>481</v>
       </c>
@@ -12166,7 +12159,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="211" ht="24" customHeight="1" spans="3:10">
+    <row r="211" ht="24.0" customHeight="true">
       <c r="C211" t="s">
         <v>483</v>
       </c>
@@ -12192,7 +12185,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="212" ht="24" customHeight="1" spans="3:10">
+    <row r="212" ht="24.0" customHeight="true">
       <c r="C212" t="s">
         <v>485</v>
       </c>
@@ -12218,7 +12211,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="213" ht="24" customHeight="1" spans="3:10">
+    <row r="213" ht="24.0" customHeight="true">
       <c r="C213" t="s">
         <v>487</v>
       </c>
@@ -12244,7 +12237,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="214" ht="24" customHeight="1" spans="3:10">
+    <row r="214" ht="24.0" customHeight="true">
       <c r="C214" t="s">
         <v>489</v>
       </c>
@@ -12270,7 +12263,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="215" ht="24" customHeight="1" spans="3:10">
+    <row r="215" ht="24.0" customHeight="true">
       <c r="C215" t="s">
         <v>491</v>
       </c>
@@ -12296,7 +12289,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="216" ht="24" customHeight="1" spans="3:10">
+    <row r="216" ht="24.0" customHeight="true">
       <c r="C216" t="s">
         <v>493</v>
       </c>
@@ -12322,7 +12315,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="217" ht="24" customHeight="1" spans="3:10">
+    <row r="217" ht="24.0" customHeight="true">
       <c r="C217" t="s">
         <v>495</v>
       </c>
@@ -12348,7 +12341,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="218" ht="24" customHeight="1" spans="3:10">
+    <row r="218" ht="24.0" customHeight="true">
       <c r="C218" t="s">
         <v>497</v>
       </c>
@@ -12374,7 +12367,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="219" ht="24" customHeight="1" spans="3:10">
+    <row r="219" ht="24.0" customHeight="true">
       <c r="C219" t="s">
         <v>499</v>
       </c>
@@ -12400,7 +12393,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="220" ht="24" customHeight="1" spans="3:10">
+    <row r="220" ht="24.0" customHeight="true">
       <c r="C220" t="s">
         <v>501</v>
       </c>
@@ -12426,7 +12419,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="221" ht="24" customHeight="1" spans="3:10">
+    <row r="221" ht="24.0" customHeight="true">
       <c r="C221" t="s">
         <v>503</v>
       </c>
@@ -12452,7 +12445,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="222" ht="24" customHeight="1" spans="3:10">
+    <row r="222" ht="24.0" customHeight="true">
       <c r="C222" t="s">
         <v>505</v>
       </c>
@@ -12478,7 +12471,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="223" ht="24" customHeight="1" spans="3:10">
+    <row r="223" ht="24.0" customHeight="true">
       <c r="C223" t="s">
         <v>509</v>
       </c>
@@ -12504,7 +12497,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="224" ht="24" customHeight="1" spans="3:10">
+    <row r="224" ht="24.0" customHeight="true">
       <c r="C224" t="s">
         <v>512</v>
       </c>
@@ -12530,7 +12523,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="225" ht="24" customHeight="1" spans="3:10">
+    <row r="225" ht="24.0" customHeight="true">
       <c r="C225" t="s">
         <v>516</v>
       </c>
@@ -12556,7 +12549,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="226" ht="24" customHeight="1" spans="3:10">
+    <row r="226" ht="24.0" customHeight="true">
       <c r="C226" t="s">
         <v>519</v>
       </c>
@@ -12582,7 +12575,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="227" ht="24" customHeight="1" spans="3:10">
+    <row r="227" ht="24.0" customHeight="true">
       <c r="C227" t="s">
         <v>521</v>
       </c>
@@ -12608,7 +12601,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="228" ht="24" customHeight="1" spans="3:10">
+    <row r="228" ht="24.0" customHeight="true">
       <c r="C228" t="s">
         <v>523</v>
       </c>
@@ -12634,7 +12627,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="229" ht="24" customHeight="1" spans="3:10">
+    <row r="229" ht="24.0" customHeight="true">
       <c r="C229" t="s">
         <v>525</v>
       </c>
@@ -12660,7 +12653,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="230" ht="24" customHeight="1" spans="3:10">
+    <row r="230" ht="24.0" customHeight="true">
       <c r="C230" t="s">
         <v>527</v>
       </c>
@@ -12686,7 +12679,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="231" ht="24" customHeight="1" spans="3:10">
+    <row r="231" ht="24.0" customHeight="true">
       <c r="C231" t="s">
         <v>529</v>
       </c>
@@ -12712,7 +12705,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="232" ht="24" customHeight="1" spans="3:10">
+    <row r="232" ht="24.0" customHeight="true">
       <c r="C232" t="s">
         <v>531</v>
       </c>
@@ -12738,7 +12731,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="233" ht="24" customHeight="1" spans="3:10">
+    <row r="233" ht="24.0" customHeight="true">
       <c r="C233" t="s">
         <v>533</v>
       </c>
@@ -12764,7 +12757,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="234" ht="24" customHeight="1" spans="3:10">
+    <row r="234" ht="24.0" customHeight="true">
       <c r="C234" t="s">
         <v>535</v>
       </c>
@@ -12790,7 +12783,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="235" ht="24" customHeight="1" spans="3:10">
+    <row r="235" ht="24.0" customHeight="true">
       <c r="C235" t="s">
         <v>537</v>
       </c>
@@ -12816,7 +12809,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="236" ht="24" customHeight="1" spans="3:10">
+    <row r="236" ht="24.0" customHeight="true">
       <c r="C236" t="s">
         <v>539</v>
       </c>
@@ -12842,7 +12835,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="237" ht="24" customHeight="1" spans="3:10">
+    <row r="237" ht="24.0" customHeight="true">
       <c r="C237" t="s">
         <v>541</v>
       </c>
@@ -12868,7 +12861,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="238" ht="24" customHeight="1" spans="3:10">
+    <row r="238" ht="24.0" customHeight="true">
       <c r="C238" t="s">
         <v>543</v>
       </c>
@@ -12894,7 +12887,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="239" ht="24" customHeight="1" spans="3:10">
+    <row r="239" ht="24.0" customHeight="true">
       <c r="C239" t="s">
         <v>545</v>
       </c>
@@ -12920,7 +12913,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="240" ht="24" customHeight="1" spans="3:10">
+    <row r="240" ht="24.0" customHeight="true">
       <c r="C240" t="s">
         <v>547</v>
       </c>
@@ -12946,7 +12939,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="241" ht="24" customHeight="1" spans="3:10">
+    <row r="241" ht="24.0" customHeight="true">
       <c r="C241" t="s">
         <v>549</v>
       </c>
@@ -12972,7 +12965,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="242" ht="24" customHeight="1" spans="3:10">
+    <row r="242" ht="24.0" customHeight="true">
       <c r="C242" t="s">
         <v>551</v>
       </c>
@@ -12998,7 +12991,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="243" ht="24" customHeight="1" spans="3:10">
+    <row r="243" ht="24.0" customHeight="true">
       <c r="C243" t="s">
         <v>553</v>
       </c>
@@ -13024,7 +13017,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="244" ht="24" customHeight="1" spans="3:10">
+    <row r="244" ht="24.0" customHeight="true">
       <c r="C244" t="s">
         <v>555</v>
       </c>
@@ -13050,7 +13043,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="245" ht="24" customHeight="1" spans="3:10">
+    <row r="245" ht="24.0" customHeight="true">
       <c r="C245" t="s">
         <v>557</v>
       </c>
@@ -13076,7 +13069,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="246" ht="24" customHeight="1" spans="3:10">
+    <row r="246" ht="24.0" customHeight="true">
       <c r="C246" t="s">
         <v>559</v>
       </c>
@@ -13102,7 +13095,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="247" ht="24" customHeight="1" spans="3:10">
+    <row r="247" ht="24.0" customHeight="true">
       <c r="C247" t="s">
         <v>562</v>
       </c>
@@ -13128,7 +13121,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="248" ht="24" customHeight="1" spans="3:10">
+    <row r="248" ht="24.0" customHeight="true">
       <c r="C248" t="s">
         <v>565</v>
       </c>
@@ -13154,7 +13147,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="249" ht="24" customHeight="1" spans="3:10">
+    <row r="249" ht="24.0" customHeight="true">
       <c r="C249" t="s">
         <v>568</v>
       </c>
@@ -13180,7 +13173,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="250" ht="24" customHeight="1" spans="3:10">
+    <row r="250" ht="24.0" customHeight="true">
       <c r="C250" t="s">
         <v>570</v>
       </c>
@@ -13206,7 +13199,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="251" ht="24" customHeight="1" spans="3:10">
+    <row r="251" ht="24.0" customHeight="true">
       <c r="C251" t="s">
         <v>572</v>
       </c>
@@ -13232,7 +13225,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="252" ht="24" customHeight="1" spans="3:10">
+    <row r="252" ht="24.0" customHeight="true">
       <c r="C252" t="s">
         <v>574</v>
       </c>
@@ -13258,7 +13251,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="253" ht="24" customHeight="1" spans="3:10">
+    <row r="253" ht="24.0" customHeight="true">
       <c r="C253" t="s">
         <v>576</v>
       </c>
@@ -13284,7 +13277,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="254" ht="24" customHeight="1" spans="3:10">
+    <row r="254" ht="24.0" customHeight="true">
       <c r="C254" t="s">
         <v>578</v>
       </c>
@@ -13310,7 +13303,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="255" ht="24" customHeight="1" spans="3:10">
+    <row r="255" ht="24.0" customHeight="true">
       <c r="C255" t="s">
         <v>580</v>
       </c>
@@ -13336,7 +13329,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="256" ht="24" customHeight="1" spans="3:10">
+    <row r="256" ht="24.0" customHeight="true">
       <c r="C256" t="s">
         <v>582</v>
       </c>
@@ -13362,7 +13355,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="257" ht="24" customHeight="1" spans="3:10">
+    <row r="257" ht="24.0" customHeight="true">
       <c r="C257" t="s">
         <v>584</v>
       </c>
@@ -13388,7 +13381,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="258" ht="24" customHeight="1" spans="3:10">
+    <row r="258" ht="24.0" customHeight="true">
       <c r="C258" t="s">
         <v>586</v>
       </c>
@@ -13414,7 +13407,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="259" ht="24" customHeight="1" spans="3:10">
+    <row r="259" ht="24.0" customHeight="true">
       <c r="C259" t="s">
         <v>588</v>
       </c>
@@ -13440,7 +13433,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="260" ht="24" customHeight="1" spans="3:10">
+    <row r="260" ht="24.0" customHeight="true">
       <c r="C260" t="s">
         <v>590</v>
       </c>
@@ -13466,7 +13459,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="261" ht="24" customHeight="1" spans="3:10">
+    <row r="261" ht="24.0" customHeight="true">
       <c r="C261" t="s">
         <v>592</v>
       </c>
@@ -13492,7 +13485,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="262" ht="24" customHeight="1" spans="3:10">
+    <row r="262" ht="24.0" customHeight="true">
       <c r="C262" t="s">
         <v>594</v>
       </c>
@@ -13518,7 +13511,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="263" ht="24" customHeight="1" spans="3:10">
+    <row r="263" ht="24.0" customHeight="true">
       <c r="C263" t="s">
         <v>596</v>
       </c>
@@ -13544,7 +13537,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="264" ht="24" customHeight="1" spans="3:10">
+    <row r="264" ht="24.0" customHeight="true">
       <c r="C264" t="s">
         <v>598</v>
       </c>
@@ -13570,7 +13563,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="265" ht="24" customHeight="1" spans="3:10">
+    <row r="265" ht="24.0" customHeight="true">
       <c r="C265" t="s">
         <v>600</v>
       </c>
@@ -13596,7 +13589,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="266" ht="24" customHeight="1" spans="3:10">
+    <row r="266" ht="24.0" customHeight="true">
       <c r="C266" t="s">
         <v>602</v>
       </c>
@@ -13622,7 +13615,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="267" ht="24" customHeight="1" spans="3:10">
+    <row r="267" ht="24.0" customHeight="true">
       <c r="C267" t="s">
         <v>604</v>
       </c>
@@ -13648,7 +13641,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="268" ht="24" customHeight="1" spans="3:10">
+    <row r="268" ht="24.0" customHeight="true">
       <c r="C268" t="s">
         <v>606</v>
       </c>
@@ -13674,7 +13667,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="269" ht="24" customHeight="1" spans="3:10">
+    <row r="269" ht="24.0" customHeight="true">
       <c r="C269" t="s">
         <v>608</v>
       </c>
@@ -13700,7 +13693,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="270" ht="24" customHeight="1" spans="3:10">
+    <row r="270" ht="24.0" customHeight="true">
       <c r="C270" t="s">
         <v>610</v>
       </c>
@@ -13726,7 +13719,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="271" ht="24" customHeight="1" spans="3:10">
+    <row r="271" ht="24.0" customHeight="true">
       <c r="C271" t="s">
         <v>614</v>
       </c>
@@ -13752,7 +13745,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="272" ht="24" customHeight="1" spans="3:10">
+    <row r="272" ht="24.0" customHeight="true">
       <c r="C272" t="s">
         <v>617</v>
       </c>
@@ -13778,7 +13771,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="273" ht="24" customHeight="1" spans="3:10">
+    <row r="273" ht="24.0" customHeight="true">
       <c r="C273" t="s">
         <v>620</v>
       </c>
@@ -13804,7 +13797,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="274" ht="24" customHeight="1" spans="3:10">
+    <row r="274" ht="24.0" customHeight="true">
       <c r="C274" t="s">
         <v>622</v>
       </c>
@@ -13830,7 +13823,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="275" ht="24" customHeight="1" spans="3:10">
+    <row r="275" ht="24.0" customHeight="true">
       <c r="C275" t="s">
         <v>624</v>
       </c>
@@ -13856,7 +13849,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="276" ht="24" customHeight="1" spans="3:10">
+    <row r="276" ht="24.0" customHeight="true">
       <c r="C276" t="s">
         <v>626</v>
       </c>
@@ -13882,7 +13875,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="277" ht="24" customHeight="1" spans="3:10">
+    <row r="277" ht="24.0" customHeight="true">
       <c r="C277" t="s">
         <v>628</v>
       </c>
@@ -13908,7 +13901,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="278" ht="24" customHeight="1" spans="3:10">
+    <row r="278" ht="24.0" customHeight="true">
       <c r="C278" t="s">
         <v>630</v>
       </c>
@@ -13934,7 +13927,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="279" ht="24" customHeight="1" spans="3:10">
+    <row r="279" ht="24.0" customHeight="true">
       <c r="C279" t="s">
         <v>632</v>
       </c>
@@ -13960,7 +13953,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="280" ht="24" customHeight="1" spans="3:10">
+    <row r="280" ht="24.0" customHeight="true">
       <c r="C280" t="s">
         <v>634</v>
       </c>
@@ -13986,7 +13979,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="281" ht="24" customHeight="1" spans="3:10">
+    <row r="281" ht="24.0" customHeight="true">
       <c r="C281" t="s">
         <v>636</v>
       </c>
@@ -14012,7 +14005,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="282" ht="24" customHeight="1" spans="3:10">
+    <row r="282" ht="24.0" customHeight="true">
       <c r="C282" t="s">
         <v>638</v>
       </c>
@@ -14038,7 +14031,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="283" ht="24" customHeight="1" spans="3:10">
+    <row r="283" ht="24.0" customHeight="true">
       <c r="C283" t="s">
         <v>640</v>
       </c>
@@ -14064,7 +14057,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="284" ht="24" customHeight="1" spans="3:10">
+    <row r="284" ht="24.0" customHeight="true">
       <c r="C284" t="s">
         <v>642</v>
       </c>
@@ -14090,7 +14083,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="285" ht="24" customHeight="1" spans="3:10">
+    <row r="285" ht="24.0" customHeight="true">
       <c r="C285" t="s">
         <v>644</v>
       </c>
@@ -14116,7 +14109,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="286" ht="24" customHeight="1" spans="3:10">
+    <row r="286" ht="24.0" customHeight="true">
       <c r="C286" t="s">
         <v>646</v>
       </c>
@@ -14142,7 +14135,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="287" ht="24" customHeight="1" spans="3:10">
+    <row r="287" ht="24.0" customHeight="true">
       <c r="C287" t="s">
         <v>648</v>
       </c>
@@ -14168,7 +14161,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="288" ht="24" customHeight="1" spans="3:10">
+    <row r="288" ht="24.0" customHeight="true">
       <c r="C288" t="s">
         <v>650</v>
       </c>
@@ -14194,7 +14187,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="289" ht="24" customHeight="1" spans="3:10">
+    <row r="289" ht="24.0" customHeight="true">
       <c r="C289" t="s">
         <v>652</v>
       </c>
@@ -14220,7 +14213,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="290" ht="24" customHeight="1" spans="3:10">
+    <row r="290" ht="24.0" customHeight="true">
       <c r="C290" t="s">
         <v>654</v>
       </c>
@@ -14246,7 +14239,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="291" ht="24" customHeight="1" spans="3:10">
+    <row r="291" ht="24.0" customHeight="true">
       <c r="C291" t="s">
         <v>656</v>
       </c>
@@ -14272,7 +14265,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="292" ht="24" customHeight="1" spans="3:10">
+    <row r="292" ht="24.0" customHeight="true">
       <c r="C292" t="s">
         <v>658</v>
       </c>
@@ -14298,7 +14291,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="293" ht="24" customHeight="1" spans="3:10">
+    <row r="293" ht="24.0" customHeight="true">
       <c r="C293" t="s">
         <v>660</v>
       </c>
@@ -14324,7 +14317,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="294" ht="24" customHeight="1" spans="3:10">
+    <row r="294" ht="24.0" customHeight="true">
       <c r="C294" t="s">
         <v>662</v>
       </c>
@@ -14350,7 +14343,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="295" ht="24" customHeight="1" spans="3:10">
+    <row r="295" ht="24.0" customHeight="true">
       <c r="C295" t="s">
         <v>666</v>
       </c>
@@ -14376,7 +14369,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="296" ht="24" customHeight="1" spans="3:10">
+    <row r="296" ht="24.0" customHeight="true">
       <c r="C296" t="s">
         <v>669</v>
       </c>
@@ -14402,7 +14395,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="297" ht="24" customHeight="1" spans="3:10">
+    <row r="297" ht="24.0" customHeight="true">
       <c r="C297" t="s">
         <v>672</v>
       </c>
@@ -14428,7 +14421,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="298" ht="24" customHeight="1" spans="3:10">
+    <row r="298" ht="24.0" customHeight="true">
       <c r="C298" t="s">
         <v>675</v>
       </c>
@@ -14454,7 +14447,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="299" ht="24" customHeight="1" spans="3:10">
+    <row r="299" ht="24.0" customHeight="true">
       <c r="C299" t="s">
         <v>677</v>
       </c>
@@ -14480,7 +14473,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="300" ht="24" customHeight="1" spans="3:10">
+    <row r="300" ht="24.0" customHeight="true">
       <c r="C300" t="s">
         <v>679</v>
       </c>
@@ -14506,7 +14499,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="301" ht="24" customHeight="1" spans="3:10">
+    <row r="301" ht="24.0" customHeight="true">
       <c r="C301" t="s">
         <v>681</v>
       </c>
@@ -14532,7 +14525,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="302" ht="24" customHeight="1" spans="3:10">
+    <row r="302" ht="24.0" customHeight="true">
       <c r="C302" t="s">
         <v>683</v>
       </c>
@@ -14558,7 +14551,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="303" ht="24" customHeight="1" spans="3:10">
+    <row r="303" ht="24.0" customHeight="true">
       <c r="C303" t="s">
         <v>685</v>
       </c>
@@ -14584,7 +14577,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="304" ht="24" customHeight="1" spans="3:10">
+    <row r="304" ht="24.0" customHeight="true">
       <c r="C304" t="s">
         <v>687</v>
       </c>
@@ -14610,7 +14603,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="305" ht="24" customHeight="1" spans="3:10">
+    <row r="305" ht="24.0" customHeight="true">
       <c r="C305" t="s">
         <v>689</v>
       </c>
@@ -14636,7 +14629,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="306" ht="24" customHeight="1" spans="3:10">
+    <row r="306" ht="24.0" customHeight="true">
       <c r="C306" t="s">
         <v>691</v>
       </c>
@@ -14662,7 +14655,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="307" ht="24" customHeight="1" spans="3:10">
+    <row r="307" ht="24.0" customHeight="true">
       <c r="C307" t="s">
         <v>693</v>
       </c>
@@ -14688,7 +14681,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="308" ht="24" customHeight="1" spans="3:10">
+    <row r="308" ht="24.0" customHeight="true">
       <c r="C308" t="s">
         <v>695</v>
       </c>
@@ -14714,7 +14707,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="309" ht="24" customHeight="1" spans="3:10">
+    <row r="309" ht="24.0" customHeight="true">
       <c r="C309" t="s">
         <v>697</v>
       </c>
@@ -14740,7 +14733,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="310" ht="24" customHeight="1" spans="3:10">
+    <row r="310" ht="24.0" customHeight="true">
       <c r="C310" t="s">
         <v>699</v>
       </c>
@@ -14766,7 +14759,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="311" ht="24" customHeight="1" spans="3:10">
+    <row r="311" ht="24.0" customHeight="true">
       <c r="C311" t="s">
         <v>701</v>
       </c>
@@ -14792,7 +14785,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="312" ht="24" customHeight="1" spans="3:10">
+    <row r="312" ht="24.0" customHeight="true">
       <c r="C312" t="s">
         <v>703</v>
       </c>
@@ -14818,7 +14811,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="313" ht="24" customHeight="1" spans="3:10">
+    <row r="313" ht="24.0" customHeight="true">
       <c r="C313" t="s">
         <v>705</v>
       </c>
@@ -14844,7 +14837,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="314" ht="24" customHeight="1" spans="3:10">
+    <row r="314" ht="24.0" customHeight="true">
       <c r="C314" t="s">
         <v>707</v>
       </c>
@@ -14870,7 +14863,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="315" ht="24" customHeight="1" spans="3:10">
+    <row r="315" ht="24.0" customHeight="true">
       <c r="C315" t="s">
         <v>709</v>
       </c>
@@ -14896,7 +14889,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="316" ht="24" customHeight="1" spans="3:10">
+    <row r="316" ht="24.0" customHeight="true">
       <c r="C316" t="s">
         <v>711</v>
       </c>
@@ -14922,7 +14915,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="317" ht="24" customHeight="1" spans="3:10">
+    <row r="317" ht="24.0" customHeight="true">
       <c r="C317" t="s">
         <v>713</v>
       </c>
@@ -14948,7 +14941,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="318" ht="24" customHeight="1" spans="3:10">
+    <row r="318" ht="24.0" customHeight="true">
       <c r="C318" t="s">
         <v>715</v>
       </c>
@@ -14974,7 +14967,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="319" ht="24" customHeight="1" spans="3:10">
+    <row r="319" ht="24.0" customHeight="true">
       <c r="C319" t="s">
         <v>719</v>
       </c>
@@ -15000,7 +14993,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="320" ht="24" customHeight="1" spans="3:10">
+    <row r="320" ht="24.0" customHeight="true">
       <c r="C320" t="s">
         <v>722</v>
       </c>
@@ -15026,7 +15019,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="321" ht="24" customHeight="1" spans="3:10">
+    <row r="321" ht="24.0" customHeight="true">
       <c r="C321" t="s">
         <v>726</v>
       </c>
@@ -15052,7 +15045,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="322" ht="24" customHeight="1" spans="3:10">
+    <row r="322" ht="24.0" customHeight="true">
       <c r="C322" t="s">
         <v>729</v>
       </c>
@@ -15078,7 +15071,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="323" ht="24" customHeight="1" spans="3:10">
+    <row r="323" ht="24.0" customHeight="true">
       <c r="C323" t="s">
         <v>731</v>
       </c>
@@ -15104,7 +15097,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="324" ht="24" customHeight="1" spans="3:10">
+    <row r="324" ht="24.0" customHeight="true">
       <c r="C324" t="s">
         <v>733</v>
       </c>
@@ -15130,7 +15123,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="325" ht="24" customHeight="1" spans="3:10">
+    <row r="325" ht="24.0" customHeight="true">
       <c r="C325" t="s">
         <v>735</v>
       </c>
@@ -15156,7 +15149,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="326" ht="24" customHeight="1" spans="3:10">
+    <row r="326" ht="24.0" customHeight="true">
       <c r="C326" t="s">
         <v>737</v>
       </c>
@@ -15182,7 +15175,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="327" ht="24" customHeight="1" spans="3:10">
+    <row r="327" ht="24.0" customHeight="true">
       <c r="C327" t="s">
         <v>739</v>
       </c>
@@ -15208,7 +15201,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="328" ht="24" customHeight="1" spans="3:10">
+    <row r="328" ht="24.0" customHeight="true">
       <c r="C328" t="s">
         <v>741</v>
       </c>
@@ -15234,7 +15227,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="329" ht="24" customHeight="1" spans="3:10">
+    <row r="329" ht="24.0" customHeight="true">
       <c r="C329" t="s">
         <v>743</v>
       </c>
@@ -15260,7 +15253,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="330" ht="24" customHeight="1" spans="3:10">
+    <row r="330" ht="24.0" customHeight="true">
       <c r="C330" t="s">
         <v>745</v>
       </c>
@@ -15286,7 +15279,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="331" ht="24" customHeight="1" spans="3:10">
+    <row r="331" ht="24.0" customHeight="true">
       <c r="C331" t="s">
         <v>747</v>
       </c>
@@ -15312,7 +15305,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="332" ht="24" customHeight="1" spans="3:10">
+    <row r="332" ht="24.0" customHeight="true">
       <c r="C332" t="s">
         <v>749</v>
       </c>
@@ -15338,7 +15331,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="333" ht="24" customHeight="1" spans="3:10">
+    <row r="333" ht="24.0" customHeight="true">
       <c r="C333" t="s">
         <v>751</v>
       </c>
@@ -15364,7 +15357,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="334" ht="24" customHeight="1" spans="3:10">
+    <row r="334" ht="24.0" customHeight="true">
       <c r="C334" t="s">
         <v>753</v>
       </c>
@@ -15390,7 +15383,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="335" ht="24" customHeight="1" spans="3:10">
+    <row r="335" ht="24.0" customHeight="true">
       <c r="C335" t="s">
         <v>755</v>
       </c>
@@ -15416,7 +15409,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="336" ht="24" customHeight="1" spans="3:10">
+    <row r="336" ht="24.0" customHeight="true">
       <c r="C336" t="s">
         <v>757</v>
       </c>
@@ -15442,7 +15435,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="337" ht="24" customHeight="1" spans="3:10">
+    <row r="337" ht="24.0" customHeight="true">
       <c r="C337" t="s">
         <v>759</v>
       </c>
@@ -15468,7 +15461,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="338" ht="24" customHeight="1" spans="3:10">
+    <row r="338" ht="24.0" customHeight="true">
       <c r="C338" t="s">
         <v>761</v>
       </c>
@@ -15494,7 +15487,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="339" ht="24" customHeight="1" spans="3:10">
+    <row r="339" ht="24.0" customHeight="true">
       <c r="C339" t="s">
         <v>763</v>
       </c>
@@ -15520,7 +15513,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="340" ht="24" customHeight="1" spans="3:10">
+    <row r="340" ht="24.0" customHeight="true">
       <c r="C340" t="s">
         <v>765</v>
       </c>
@@ -15546,7 +15539,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="341" ht="24" customHeight="1" spans="3:10">
+    <row r="341" ht="24.0" customHeight="true">
       <c r="C341" t="s">
         <v>767</v>
       </c>
@@ -15572,7 +15565,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="342" ht="24" customHeight="1" spans="3:10">
+    <row r="342" ht="24.0" customHeight="true">
       <c r="C342" t="s">
         <v>769</v>
       </c>
@@ -15598,7 +15591,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="343" ht="24" customHeight="1" spans="3:10">
+    <row r="343" ht="24.0" customHeight="true">
       <c r="C343" t="s">
         <v>773</v>
       </c>
@@ -15624,7 +15617,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="344" ht="24" customHeight="1" spans="3:10">
+    <row r="344" ht="24.0" customHeight="true">
       <c r="C344" t="s">
         <v>776</v>
       </c>
@@ -15650,7 +15643,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="345" ht="24" customHeight="1" spans="3:10">
+    <row r="345" ht="24.0" customHeight="true">
       <c r="C345" t="s">
         <v>780</v>
       </c>
@@ -15676,7 +15669,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="346" ht="24" customHeight="1" spans="3:10">
+    <row r="346" ht="24.0" customHeight="true">
       <c r="C346" t="s">
         <v>783</v>
       </c>
@@ -15702,7 +15695,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="347" ht="24" customHeight="1" spans="3:10">
+    <row r="347" ht="24.0" customHeight="true">
       <c r="C347" t="s">
         <v>785</v>
       </c>
@@ -15728,7 +15721,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="348" ht="24" customHeight="1" spans="3:10">
+    <row r="348" ht="24.0" customHeight="true">
       <c r="C348" t="s">
         <v>787</v>
       </c>
@@ -15754,7 +15747,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="349" ht="24" customHeight="1" spans="3:10">
+    <row r="349" ht="24.0" customHeight="true">
       <c r="C349" t="s">
         <v>789</v>
       </c>
@@ -15780,7 +15773,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="350" ht="24" customHeight="1" spans="3:10">
+    <row r="350" ht="24.0" customHeight="true">
       <c r="C350" t="s">
         <v>791</v>
       </c>
@@ -15806,7 +15799,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="351" ht="24" customHeight="1" spans="3:10">
+    <row r="351" ht="24.0" customHeight="true">
       <c r="C351" t="s">
         <v>793</v>
       </c>
@@ -15832,7 +15825,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="352" ht="24" customHeight="1" spans="3:10">
+    <row r="352" ht="24.0" customHeight="true">
       <c r="C352" t="s">
         <v>795</v>
       </c>
@@ -15858,7 +15851,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="353" ht="24" customHeight="1" spans="3:10">
+    <row r="353" ht="24.0" customHeight="true">
       <c r="C353" t="s">
         <v>797</v>
       </c>
@@ -15884,7 +15877,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="354" ht="24" customHeight="1" spans="3:10">
+    <row r="354" ht="24.0" customHeight="true">
       <c r="C354" t="s">
         <v>799</v>
       </c>
@@ -15910,7 +15903,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="355" ht="24" customHeight="1" spans="3:10">
+    <row r="355" ht="24.0" customHeight="true">
       <c r="C355" t="s">
         <v>801</v>
       </c>
@@ -15936,7 +15929,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="356" ht="24" customHeight="1" spans="3:10">
+    <row r="356" ht="24.0" customHeight="true">
       <c r="C356" t="s">
         <v>803</v>
       </c>
@@ -15962,7 +15955,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="357" ht="24" customHeight="1" spans="3:10">
+    <row r="357" ht="24.0" customHeight="true">
       <c r="C357" t="s">
         <v>805</v>
       </c>
@@ -15988,7 +15981,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="358" ht="24" customHeight="1" spans="3:10">
+    <row r="358" ht="24.0" customHeight="true">
       <c r="C358" t="s">
         <v>807</v>
       </c>
@@ -16014,7 +16007,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="359" ht="24" customHeight="1" spans="3:10">
+    <row r="359" ht="24.0" customHeight="true">
       <c r="C359" t="s">
         <v>809</v>
       </c>
@@ -16040,7 +16033,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="360" ht="24" customHeight="1" spans="3:10">
+    <row r="360" ht="24.0" customHeight="true">
       <c r="C360" t="s">
         <v>811</v>
       </c>
@@ -16066,7 +16059,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="361" ht="24" customHeight="1" spans="3:10">
+    <row r="361" ht="24.0" customHeight="true">
       <c r="C361" t="s">
         <v>813</v>
       </c>
@@ -16092,7 +16085,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="362" ht="24" customHeight="1" spans="3:10">
+    <row r="362" ht="24.0" customHeight="true">
       <c r="C362" t="s">
         <v>815</v>
       </c>
@@ -16118,7 +16111,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="363" ht="24" customHeight="1" spans="3:10">
+    <row r="363" ht="24.0" customHeight="true">
       <c r="C363" t="s">
         <v>817</v>
       </c>
@@ -16144,7 +16137,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="364" ht="24" customHeight="1" spans="3:10">
+    <row r="364" ht="24.0" customHeight="true">
       <c r="C364" t="s">
         <v>819</v>
       </c>
@@ -16170,7 +16163,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="365" ht="24" customHeight="1" spans="3:10">
+    <row r="365" ht="24.0" customHeight="true">
       <c r="C365" t="s">
         <v>821</v>
       </c>
@@ -16196,7 +16189,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="366" ht="24" customHeight="1" spans="3:10">
+    <row r="366" ht="24.0" customHeight="true">
       <c r="C366" t="s">
         <v>823</v>
       </c>
@@ -16222,7 +16215,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="367" ht="24" customHeight="1" spans="3:10">
+    <row r="367" ht="24.0" customHeight="true">
       <c r="C367" t="s">
         <v>827</v>
       </c>
@@ -16248,7 +16241,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="368" ht="24" customHeight="1" spans="3:10">
+    <row r="368" ht="24.0" customHeight="true">
       <c r="C368" t="s">
         <v>830</v>
       </c>
@@ -16274,7 +16267,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="369" ht="24" customHeight="1" spans="3:10">
+    <row r="369" ht="24.0" customHeight="true">
       <c r="C369" t="s">
         <v>833</v>
       </c>
@@ -16300,7 +16293,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="370" ht="24" customHeight="1" spans="3:10">
+    <row r="370" ht="24.0" customHeight="true">
       <c r="C370" t="s">
         <v>835</v>
       </c>
@@ -16326,7 +16319,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="371" ht="24" customHeight="1" spans="3:10">
+    <row r="371" ht="24.0" customHeight="true">
       <c r="C371" t="s">
         <v>837</v>
       </c>
@@ -16352,7 +16345,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="372" ht="24" customHeight="1" spans="3:10">
+    <row r="372" ht="24.0" customHeight="true">
       <c r="C372" t="s">
         <v>839</v>
       </c>
@@ -16378,7 +16371,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="373" ht="24" customHeight="1" spans="3:10">
+    <row r="373" ht="24.0" customHeight="true">
       <c r="C373" t="s">
         <v>841</v>
       </c>
@@ -16404,7 +16397,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="374" ht="24" customHeight="1" spans="3:10">
+    <row r="374" ht="24.0" customHeight="true">
       <c r="C374" t="s">
         <v>843</v>
       </c>
@@ -16430,7 +16423,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="375" ht="24" customHeight="1" spans="3:10">
+    <row r="375" ht="24.0" customHeight="true">
       <c r="C375" t="s">
         <v>845</v>
       </c>
@@ -16456,7 +16449,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="376" ht="24" customHeight="1" spans="3:10">
+    <row r="376" ht="24.0" customHeight="true">
       <c r="C376" t="s">
         <v>847</v>
       </c>
@@ -16482,7 +16475,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="377" ht="24" customHeight="1" spans="3:10">
+    <row r="377" ht="24.0" customHeight="true">
       <c r="C377" t="s">
         <v>849</v>
       </c>
@@ -16508,7 +16501,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="378" ht="24" customHeight="1" spans="3:10">
+    <row r="378" ht="24.0" customHeight="true">
       <c r="C378" t="s">
         <v>851</v>
       </c>
@@ -16534,7 +16527,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="379" ht="24" customHeight="1" spans="3:10">
+    <row r="379" ht="24.0" customHeight="true">
       <c r="C379" t="s">
         <v>853</v>
       </c>
@@ -16560,7 +16553,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="380" ht="24" customHeight="1" spans="3:10">
+    <row r="380" ht="24.0" customHeight="true">
       <c r="C380" t="s">
         <v>855</v>
       </c>
@@ -16586,7 +16579,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="381" ht="24" customHeight="1" spans="3:10">
+    <row r="381" ht="24.0" customHeight="true">
       <c r="C381" t="s">
         <v>857</v>
       </c>
@@ -16612,7 +16605,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="382" ht="24" customHeight="1" spans="3:10">
+    <row r="382" ht="24.0" customHeight="true">
       <c r="C382" t="s">
         <v>859</v>
       </c>
@@ -16638,7 +16631,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="383" ht="24" customHeight="1" spans="3:10">
+    <row r="383" ht="24.0" customHeight="true">
       <c r="C383" t="s">
         <v>861</v>
       </c>
@@ -16664,7 +16657,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="384" ht="24" customHeight="1" spans="3:10">
+    <row r="384" ht="24.0" customHeight="true">
       <c r="C384" t="s">
         <v>863</v>
       </c>
@@ -16690,7 +16683,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="385" ht="24" customHeight="1" spans="3:10">
+    <row r="385" ht="24.0" customHeight="true">
       <c r="C385" t="s">
         <v>865</v>
       </c>
@@ -16716,7 +16709,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="386" ht="24" customHeight="1" spans="3:10">
+    <row r="386" ht="24.0" customHeight="true">
       <c r="C386" t="s">
         <v>867</v>
       </c>
@@ -16742,7 +16735,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="387" ht="24" customHeight="1" spans="3:10">
+    <row r="387" ht="24.0" customHeight="true">
       <c r="C387" t="s">
         <v>869</v>
       </c>
@@ -16768,7 +16761,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="388" ht="24" customHeight="1" spans="3:10">
+    <row r="388" ht="24.0" customHeight="true">
       <c r="C388" t="s">
         <v>871</v>
       </c>
@@ -16794,7 +16787,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="389" ht="24" customHeight="1" spans="3:10">
+    <row r="389" ht="24.0" customHeight="true">
       <c r="C389" t="s">
         <v>873</v>
       </c>
@@ -16820,7 +16813,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="390" ht="24" customHeight="1" spans="3:10">
+    <row r="390" ht="24.0" customHeight="true">
       <c r="C390" t="s">
         <v>875</v>
       </c>
@@ -16846,7 +16839,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="391" ht="24" customHeight="1" spans="3:10">
+    <row r="391" ht="24.0" customHeight="true">
       <c r="C391" t="s">
         <v>879</v>
       </c>
@@ -16872,7 +16865,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="392" ht="24" customHeight="1" spans="3:10">
+    <row r="392" ht="24.0" customHeight="true">
       <c r="C392" t="s">
         <v>882</v>
       </c>
@@ -16898,7 +16891,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="393" ht="24" customHeight="1" spans="3:10">
+    <row r="393" ht="24.0" customHeight="true">
       <c r="C393" t="s">
         <v>885</v>
       </c>
@@ -16924,7 +16917,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="394" ht="24" customHeight="1" spans="3:10">
+    <row r="394" ht="24.0" customHeight="true">
       <c r="C394" t="s">
         <v>887</v>
       </c>
@@ -16950,7 +16943,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="395" ht="24" customHeight="1" spans="3:10">
+    <row r="395" ht="24.0" customHeight="true">
       <c r="C395" t="s">
         <v>889</v>
       </c>
@@ -16976,7 +16969,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="396" ht="24" customHeight="1" spans="3:10">
+    <row r="396" ht="24.0" customHeight="true">
       <c r="C396" t="s">
         <v>891</v>
       </c>
@@ -17002,7 +16995,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="397" ht="24" customHeight="1" spans="3:10">
+    <row r="397" ht="24.0" customHeight="true">
       <c r="C397" t="s">
         <v>893</v>
       </c>
@@ -17028,7 +17021,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="398" ht="24" customHeight="1" spans="3:10">
+    <row r="398" ht="24.0" customHeight="true">
       <c r="C398" t="s">
         <v>895</v>
       </c>
@@ -17054,7 +17047,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="399" ht="24" customHeight="1" spans="3:10">
+    <row r="399" ht="24.0" customHeight="true">
       <c r="C399" t="s">
         <v>897</v>
       </c>
@@ -17080,7 +17073,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="400" ht="24" customHeight="1" spans="3:10">
+    <row r="400" ht="24.0" customHeight="true">
       <c r="C400" t="s">
         <v>899</v>
       </c>
@@ -17106,7 +17099,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="401" ht="24" customHeight="1" spans="3:10">
+    <row r="401" ht="24.0" customHeight="true">
       <c r="C401" t="s">
         <v>901</v>
       </c>
@@ -17132,7 +17125,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="402" ht="24" customHeight="1" spans="3:10">
+    <row r="402" ht="24.0" customHeight="true">
       <c r="C402" t="s">
         <v>903</v>
       </c>
@@ -17158,7 +17151,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="403" ht="24" customHeight="1" spans="3:10">
+    <row r="403" ht="24.0" customHeight="true">
       <c r="C403" t="s">
         <v>905</v>
       </c>
@@ -17184,7 +17177,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="404" ht="24" customHeight="1" spans="3:10">
+    <row r="404" ht="24.0" customHeight="true">
       <c r="C404" t="s">
         <v>907</v>
       </c>
@@ -17210,7 +17203,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="405" ht="24" customHeight="1" spans="3:10">
+    <row r="405" ht="24.0" customHeight="true">
       <c r="C405" t="s">
         <v>909</v>
       </c>
@@ -17236,7 +17229,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="406" ht="24" customHeight="1" spans="3:10">
+    <row r="406" ht="24.0" customHeight="true">
       <c r="C406" t="s">
         <v>911</v>
       </c>
@@ -17262,7 +17255,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="407" ht="24" customHeight="1" spans="3:10">
+    <row r="407" ht="24.0" customHeight="true">
       <c r="C407" t="s">
         <v>913</v>
       </c>
@@ -17288,7 +17281,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="408" ht="24" customHeight="1" spans="3:10">
+    <row r="408" ht="24.0" customHeight="true">
       <c r="C408" t="s">
         <v>915</v>
       </c>
@@ -17314,7 +17307,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="409" ht="24" customHeight="1" spans="3:10">
+    <row r="409" ht="24.0" customHeight="true">
       <c r="C409" t="s">
         <v>917</v>
       </c>
@@ -17340,7 +17333,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="410" ht="24" customHeight="1" spans="3:10">
+    <row r="410" ht="24.0" customHeight="true">
       <c r="C410" t="s">
         <v>919</v>
       </c>
@@ -17366,7 +17359,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="411" ht="24" customHeight="1" spans="3:10">
+    <row r="411" ht="24.0" customHeight="true">
       <c r="C411" t="s">
         <v>921</v>
       </c>
@@ -17392,7 +17385,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="412" ht="24" customHeight="1" spans="3:10">
+    <row r="412" ht="24.0" customHeight="true">
       <c r="C412" t="s">
         <v>923</v>
       </c>
@@ -17418,7 +17411,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="413" ht="24" customHeight="1" spans="3:10">
+    <row r="413" ht="24.0" customHeight="true">
       <c r="C413" t="s">
         <v>925</v>
       </c>
@@ -17444,7 +17437,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="414" ht="24" customHeight="1" spans="3:10">
+    <row r="414" ht="24.0" customHeight="true">
       <c r="C414" t="s">
         <v>927</v>
       </c>
@@ -17470,7 +17463,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="415" ht="24" customHeight="1" spans="3:10">
+    <row r="415" ht="24.0" customHeight="true">
       <c r="C415" t="s">
         <v>931</v>
       </c>
@@ -17496,7 +17489,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="416" ht="24" customHeight="1" spans="3:10">
+    <row r="416" ht="24.0" customHeight="true">
       <c r="C416" t="s">
         <v>934</v>
       </c>
@@ -17522,7 +17515,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="417" ht="24" customHeight="1" spans="3:10">
+    <row r="417" ht="24.0" customHeight="true">
       <c r="C417" t="s">
         <v>937</v>
       </c>
@@ -17548,7 +17541,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="418" ht="24" customHeight="1" spans="3:10">
+    <row r="418" ht="24.0" customHeight="true">
       <c r="C418" t="s">
         <v>940</v>
       </c>
@@ -17574,7 +17567,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="419" ht="24" customHeight="1" spans="3:10">
+    <row r="419" ht="24.0" customHeight="true">
       <c r="C419" t="s">
         <v>942</v>
       </c>
@@ -17600,7 +17593,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="420" ht="24" customHeight="1" spans="3:10">
+    <row r="420" ht="24.0" customHeight="true">
       <c r="C420" t="s">
         <v>944</v>
       </c>
@@ -17626,7 +17619,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="421" ht="24" customHeight="1" spans="3:10">
+    <row r="421" ht="24.0" customHeight="true">
       <c r="C421" t="s">
         <v>946</v>
       </c>
@@ -17652,7 +17645,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="422" ht="24" customHeight="1" spans="3:10">
+    <row r="422" ht="24.0" customHeight="true">
       <c r="C422" t="s">
         <v>948</v>
       </c>
@@ -17678,7 +17671,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="423" ht="24" customHeight="1" spans="3:10">
+    <row r="423" ht="24.0" customHeight="true">
       <c r="C423" t="s">
         <v>950</v>
       </c>
@@ -17704,7 +17697,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="424" ht="24" customHeight="1" spans="3:10">
+    <row r="424" ht="24.0" customHeight="true">
       <c r="C424" t="s">
         <v>952</v>
       </c>
@@ -17730,7 +17723,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="425" ht="24" customHeight="1" spans="3:10">
+    <row r="425" ht="24.0" customHeight="true">
       <c r="C425" t="s">
         <v>954</v>
       </c>
@@ -17756,7 +17749,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="426" ht="24" customHeight="1" spans="3:10">
+    <row r="426" ht="24.0" customHeight="true">
       <c r="C426" t="s">
         <v>956</v>
       </c>
@@ -17782,7 +17775,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="427" ht="24" customHeight="1" spans="3:10">
+    <row r="427" ht="24.0" customHeight="true">
       <c r="C427" t="s">
         <v>958</v>
       </c>
@@ -17808,7 +17801,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="428" ht="24" customHeight="1" spans="3:10">
+    <row r="428" ht="24.0" customHeight="true">
       <c r="C428" t="s">
         <v>960</v>
       </c>
@@ -17834,7 +17827,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="429" ht="24" customHeight="1" spans="3:10">
+    <row r="429" ht="24.0" customHeight="true">
       <c r="C429" t="s">
         <v>962</v>
       </c>
@@ -17860,7 +17853,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="430" ht="24" customHeight="1" spans="3:10">
+    <row r="430" ht="24.0" customHeight="true">
       <c r="C430" t="s">
         <v>964</v>
       </c>
@@ -17886,7 +17879,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="431" ht="24" customHeight="1" spans="3:10">
+    <row r="431" ht="24.0" customHeight="true">
       <c r="C431" t="s">
         <v>966</v>
       </c>
@@ -17912,7 +17905,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="432" ht="24" customHeight="1" spans="3:10">
+    <row r="432" ht="24.0" customHeight="true">
       <c r="C432" t="s">
         <v>968</v>
       </c>
@@ -17938,7 +17931,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="433" ht="24" customHeight="1" spans="3:10">
+    <row r="433" ht="24.0" customHeight="true">
       <c r="C433" t="s">
         <v>970</v>
       </c>
@@ -17964,7 +17957,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="434" ht="24" customHeight="1" spans="3:10">
+    <row r="434" ht="24.0" customHeight="true">
       <c r="C434" t="s">
         <v>972</v>
       </c>
@@ -17990,7 +17983,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="435" ht="24" customHeight="1" spans="3:10">
+    <row r="435" ht="24.0" customHeight="true">
       <c r="C435" t="s">
         <v>974</v>
       </c>
@@ -18016,7 +18009,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="436" ht="24" customHeight="1" spans="3:10">
+    <row r="436" ht="24.0" customHeight="true">
       <c r="C436" t="s">
         <v>976</v>
       </c>
@@ -18042,7 +18035,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="437" ht="24" customHeight="1" spans="3:10">
+    <row r="437" ht="24.0" customHeight="true">
       <c r="C437" t="s">
         <v>978</v>
       </c>
@@ -18068,7 +18061,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="438" ht="24" customHeight="1" spans="3:10">
+    <row r="438" ht="24.0" customHeight="true">
       <c r="C438" t="s">
         <v>980</v>
       </c>
@@ -18094,7 +18087,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="439" ht="24" customHeight="1" spans="3:10">
+    <row r="439" ht="24.0" customHeight="true">
       <c r="C439" t="s">
         <v>983</v>
       </c>
@@ -18120,7 +18113,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="440" ht="24" customHeight="1" spans="3:10">
+    <row r="440" ht="24.0" customHeight="true">
       <c r="C440" t="s">
         <v>986</v>
       </c>
@@ -18146,7 +18139,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="441" ht="24" customHeight="1" spans="3:10">
+    <row r="441" ht="24.0" customHeight="true">
       <c r="C441" t="s">
         <v>990</v>
       </c>
@@ -18172,7 +18165,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="442" ht="24" customHeight="1" spans="3:10">
+    <row r="442" ht="24.0" customHeight="true">
       <c r="C442" t="s">
         <v>993</v>
       </c>
@@ -18198,7 +18191,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="443" ht="24" customHeight="1" spans="3:10">
+    <row r="443" ht="24.0" customHeight="true">
       <c r="C443" t="s">
         <v>995</v>
       </c>
@@ -18224,7 +18217,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="444" ht="24" customHeight="1" spans="3:10">
+    <row r="444" ht="24.0" customHeight="true">
       <c r="C444" t="s">
         <v>997</v>
       </c>
@@ -18250,7 +18243,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="445" ht="24" customHeight="1" spans="3:10">
+    <row r="445" ht="24.0" customHeight="true">
       <c r="C445" t="s">
         <v>999</v>
       </c>
@@ -18276,7 +18269,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="446" ht="24" customHeight="1" spans="3:10">
+    <row r="446" ht="24.0" customHeight="true">
       <c r="C446" t="s">
         <v>1001</v>
       </c>
@@ -18302,7 +18295,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="447" ht="24" customHeight="1" spans="3:10">
+    <row r="447" ht="24.0" customHeight="true">
       <c r="C447" t="s">
         <v>1003</v>
       </c>
@@ -18328,7 +18321,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="448" ht="24" customHeight="1" spans="3:10">
+    <row r="448" ht="24.0" customHeight="true">
       <c r="C448" t="s">
         <v>1005</v>
       </c>
@@ -18354,7 +18347,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="449" ht="24" customHeight="1" spans="3:10">
+    <row r="449" ht="24.0" customHeight="true">
       <c r="C449" t="s">
         <v>1007</v>
       </c>
@@ -18380,7 +18373,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="450" ht="24" customHeight="1" spans="3:10">
+    <row r="450" ht="24.0" customHeight="true">
       <c r="C450" t="s">
         <v>1009</v>
       </c>
@@ -18406,7 +18399,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="451" ht="24" customHeight="1" spans="3:10">
+    <row r="451" ht="24.0" customHeight="true">
       <c r="C451" t="s">
         <v>1011</v>
       </c>
@@ -18432,7 +18425,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="452" ht="24" customHeight="1" spans="3:10">
+    <row r="452" ht="24.0" customHeight="true">
       <c r="C452" t="s">
         <v>1013</v>
       </c>
@@ -18458,7 +18451,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="453" ht="24" customHeight="1" spans="3:10">
+    <row r="453" ht="24.0" customHeight="true">
       <c r="C453" t="s">
         <v>1015</v>
       </c>
@@ -18484,7 +18477,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="454" ht="24" customHeight="1" spans="3:10">
+    <row r="454" ht="24.0" customHeight="true">
       <c r="C454" t="s">
         <v>1017</v>
       </c>
@@ -18510,7 +18503,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="455" ht="24" customHeight="1" spans="3:10">
+    <row r="455" ht="24.0" customHeight="true">
       <c r="C455" t="s">
         <v>1019</v>
       </c>
@@ -18536,7 +18529,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="456" ht="24" customHeight="1" spans="3:10">
+    <row r="456" ht="24.0" customHeight="true">
       <c r="C456" t="s">
         <v>1021</v>
       </c>
@@ -18562,7 +18555,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="457" ht="24" customHeight="1" spans="3:10">
+    <row r="457" ht="24.0" customHeight="true">
       <c r="C457" t="s">
         <v>1023</v>
       </c>
@@ -18588,7 +18581,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="458" ht="24" customHeight="1" spans="3:10">
+    <row r="458" ht="24.0" customHeight="true">
       <c r="C458" t="s">
         <v>1025</v>
       </c>
@@ -18614,7 +18607,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="459" ht="24" customHeight="1" spans="3:10">
+    <row r="459" ht="24.0" customHeight="true">
       <c r="C459" t="s">
         <v>1027</v>
       </c>
@@ -18640,7 +18633,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="460" ht="24" customHeight="1" spans="3:10">
+    <row r="460" ht="24.0" customHeight="true">
       <c r="C460" t="s">
         <v>1029</v>
       </c>
@@ -18666,7 +18659,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="461" ht="24" customHeight="1" spans="3:10">
+    <row r="461" ht="24.0" customHeight="true">
       <c r="C461" t="s">
         <v>1031</v>
       </c>
@@ -18692,7 +18685,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="462" ht="24" customHeight="1" spans="3:10">
+    <row r="462" ht="24.0" customHeight="true">
       <c r="C462" t="s">
         <v>1033</v>
       </c>
@@ -18718,7 +18711,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="463" ht="24" customHeight="1" spans="3:10">
+    <row r="463" ht="24.0" customHeight="true">
       <c r="C463" t="s">
         <v>1037</v>
       </c>
@@ -18744,7 +18737,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="464" ht="24" customHeight="1" spans="3:10">
+    <row r="464" ht="24.0" customHeight="true">
       <c r="C464" t="s">
         <v>1040</v>
       </c>
@@ -18770,7 +18763,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="465" ht="24" customHeight="1" spans="3:10">
+    <row r="465" ht="24.0" customHeight="true">
       <c r="C465" t="s">
         <v>1044</v>
       </c>
@@ -18796,7 +18789,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="466" ht="24" customHeight="1" spans="3:10">
+    <row r="466" ht="24.0" customHeight="true">
       <c r="C466" t="s">
         <v>1047</v>
       </c>
@@ -18822,7 +18815,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="467" ht="24" customHeight="1" spans="3:10">
+    <row r="467" ht="24.0" customHeight="true">
       <c r="C467" t="s">
         <v>1049</v>
       </c>
@@ -18848,7 +18841,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="468" ht="24" customHeight="1" spans="3:10">
+    <row r="468" ht="24.0" customHeight="true">
       <c r="C468" t="s">
         <v>1051</v>
       </c>
@@ -18874,7 +18867,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="469" ht="24" customHeight="1" spans="3:10">
+    <row r="469" ht="24.0" customHeight="true">
       <c r="C469" t="s">
         <v>1053</v>
       </c>
@@ -18900,7 +18893,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="470" ht="24" customHeight="1" spans="3:10">
+    <row r="470" ht="24.0" customHeight="true">
       <c r="C470" t="s">
         <v>1055</v>
       </c>
@@ -18926,7 +18919,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="471" ht="24" customHeight="1" spans="3:10">
+    <row r="471" ht="24.0" customHeight="true">
       <c r="C471" t="s">
         <v>1057</v>
       </c>
@@ -18952,7 +18945,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="472" ht="24" customHeight="1" spans="3:10">
+    <row r="472" ht="24.0" customHeight="true">
       <c r="C472" t="s">
         <v>1059</v>
       </c>
@@ -18978,7 +18971,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="473" ht="24" customHeight="1" spans="3:10">
+    <row r="473" ht="24.0" customHeight="true">
       <c r="C473" t="s">
         <v>1061</v>
       </c>
@@ -19004,7 +18997,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="474" ht="24" customHeight="1" spans="3:10">
+    <row r="474" ht="24.0" customHeight="true">
       <c r="C474" t="s">
         <v>1063</v>
       </c>
@@ -19030,7 +19023,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="475" ht="24" customHeight="1" spans="3:10">
+    <row r="475" ht="24.0" customHeight="true">
       <c r="C475" t="s">
         <v>1065</v>
       </c>
@@ -19056,7 +19049,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="476" ht="24" customHeight="1" spans="3:10">
+    <row r="476" ht="24.0" customHeight="true">
       <c r="C476" t="s">
         <v>1067</v>
       </c>
@@ -19082,7 +19075,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="477" ht="24" customHeight="1" spans="3:10">
+    <row r="477" ht="24.0" customHeight="true">
       <c r="C477" t="s">
         <v>1069</v>
       </c>
@@ -19108,7 +19101,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="478" ht="24" customHeight="1" spans="3:10">
+    <row r="478" ht="24.0" customHeight="true">
       <c r="C478" t="s">
         <v>1071</v>
       </c>
@@ -19134,7 +19127,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="479" ht="24" customHeight="1" spans="3:10">
+    <row r="479" ht="24.0" customHeight="true">
       <c r="C479" t="s">
         <v>1073</v>
       </c>
@@ -19160,7 +19153,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="480" ht="24" customHeight="1" spans="3:10">
+    <row r="480" ht="24.0" customHeight="true">
       <c r="C480" t="s">
         <v>1075</v>
       </c>
@@ -19186,7 +19179,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="481" ht="24" customHeight="1" spans="3:10">
+    <row r="481" ht="24.0" customHeight="true">
       <c r="C481" t="s">
         <v>1077</v>
       </c>
@@ -19212,7 +19205,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="482" ht="24" customHeight="1" spans="3:10">
+    <row r="482" ht="24.0" customHeight="true">
       <c r="C482" t="s">
         <v>1079</v>
       </c>
@@ -19238,7 +19231,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="483" ht="24" customHeight="1" spans="3:10">
+    <row r="483" ht="24.0" customHeight="true">
       <c r="C483" t="s">
         <v>1081</v>
       </c>
@@ -19264,7 +19257,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="484" ht="24" customHeight="1" spans="3:10">
+    <row r="484" ht="24.0" customHeight="true">
       <c r="C484" t="s">
         <v>1083</v>
       </c>
@@ -19290,7 +19283,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="485" ht="24" customHeight="1" spans="3:10">
+    <row r="485" ht="24.0" customHeight="true">
       <c r="C485" t="s">
         <v>1085</v>
       </c>
@@ -19316,7 +19309,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="486" ht="24" customHeight="1" spans="3:10">
+    <row r="486" ht="24.0" customHeight="true">
       <c r="C486" t="s">
         <v>1087</v>
       </c>
@@ -19342,7 +19335,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="487" ht="24" customHeight="1" spans="3:10">
+    <row r="487" ht="24.0" customHeight="true">
       <c r="C487" t="s">
         <v>1091</v>
       </c>
@@ -19368,7 +19361,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="488" ht="24" customHeight="1" spans="3:10">
+    <row r="488" ht="24.0" customHeight="true">
       <c r="C488" t="s">
         <v>1094</v>
       </c>
@@ -19394,7 +19387,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="489" ht="24" customHeight="1" spans="3:10">
+    <row r="489" ht="24.0" customHeight="true">
       <c r="C489" t="s">
         <v>1097</v>
       </c>
@@ -19420,7 +19413,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="490" ht="24" customHeight="1" spans="3:10">
+    <row r="490" ht="24.0" customHeight="true">
       <c r="C490" t="s">
         <v>1099</v>
       </c>
@@ -19446,7 +19439,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="491" ht="24" customHeight="1" spans="3:10">
+    <row r="491" ht="24.0" customHeight="true">
       <c r="C491" t="s">
         <v>1101</v>
       </c>
@@ -19472,7 +19465,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="492" ht="24" customHeight="1" spans="3:10">
+    <row r="492" ht="24.0" customHeight="true">
       <c r="C492" t="s">
         <v>1103</v>
       </c>
@@ -19498,7 +19491,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="493" ht="24" customHeight="1" spans="3:10">
+    <row r="493" ht="24.0" customHeight="true">
       <c r="C493" t="s">
         <v>1105</v>
       </c>
@@ -19524,7 +19517,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="494" ht="24" customHeight="1" spans="3:10">
+    <row r="494" ht="24.0" customHeight="true">
       <c r="C494" t="s">
         <v>1107</v>
       </c>
@@ -19550,7 +19543,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="495" ht="24" customHeight="1" spans="3:10">
+    <row r="495" ht="24.0" customHeight="true">
       <c r="C495" t="s">
         <v>1109</v>
       </c>
@@ -19576,7 +19569,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="496" ht="24" customHeight="1" spans="3:10">
+    <row r="496" ht="24.0" customHeight="true">
       <c r="C496" t="s">
         <v>1111</v>
       </c>
@@ -19602,7 +19595,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="497" ht="24" customHeight="1" spans="3:10">
+    <row r="497" ht="24.0" customHeight="true">
       <c r="C497" t="s">
         <v>1113</v>
       </c>
@@ -19628,7 +19621,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="498" ht="24" customHeight="1" spans="3:10">
+    <row r="498" ht="24.0" customHeight="true">
       <c r="C498" t="s">
         <v>1115</v>
       </c>
@@ -19654,7 +19647,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="499" ht="24" customHeight="1" spans="3:10">
+    <row r="499" ht="24.0" customHeight="true">
       <c r="C499" t="s">
         <v>1117</v>
       </c>
@@ -19680,7 +19673,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="500" ht="24" customHeight="1" spans="3:10">
+    <row r="500" ht="24.0" customHeight="true">
       <c r="C500" t="s">
         <v>1119</v>
       </c>
@@ -19706,7 +19699,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="501" ht="24" customHeight="1" spans="3:10">
+    <row r="501" ht="24.0" customHeight="true">
       <c r="C501" t="s">
         <v>1121</v>
       </c>
@@ -19732,7 +19725,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="502" ht="24" customHeight="1" spans="3:10">
+    <row r="502" ht="24.0" customHeight="true">
       <c r="C502" t="s">
         <v>1123</v>
       </c>
@@ -19758,7 +19751,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="503" ht="24" customHeight="1" spans="3:10">
+    <row r="503" ht="24.0" customHeight="true">
       <c r="C503" t="s">
         <v>1125</v>
       </c>
@@ -19784,7 +19777,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="504" ht="24" customHeight="1" spans="3:10">
+    <row r="504" ht="24.0" customHeight="true">
       <c r="C504" t="s">
         <v>1127</v>
       </c>
@@ -19810,7 +19803,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="505" ht="24" customHeight="1" spans="3:10">
+    <row r="505" ht="24.0" customHeight="true">
       <c r="C505" t="s">
         <v>1129</v>
       </c>
@@ -19836,7 +19829,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="506" ht="24" customHeight="1" spans="3:10">
+    <row r="506" ht="24.0" customHeight="true">
       <c r="C506" t="s">
         <v>1131</v>
       </c>
@@ -19862,7 +19855,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="507" ht="24" customHeight="1" spans="3:10">
+    <row r="507" ht="24.0" customHeight="true">
       <c r="C507" t="s">
         <v>1133</v>
       </c>
@@ -19888,7 +19881,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="508" ht="24" customHeight="1" spans="3:10">
+    <row r="508" ht="24.0" customHeight="true">
       <c r="C508" t="s">
         <v>1135</v>
       </c>
@@ -19914,7 +19907,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="509" ht="24" customHeight="1" spans="3:10">
+    <row r="509" ht="24.0" customHeight="true">
       <c r="C509" t="s">
         <v>1137</v>
       </c>
@@ -19940,7 +19933,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="510" ht="24" customHeight="1" spans="3:10">
+    <row r="510" ht="24.0" customHeight="true">
       <c r="C510" t="s">
         <v>1139</v>
       </c>
@@ -19966,7 +19959,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="511" ht="24" customHeight="1" spans="3:10">
+    <row r="511" ht="24.0" customHeight="true">
       <c r="C511" t="s">
         <v>1143</v>
       </c>
@@ -19992,7 +19985,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="512" ht="24" customHeight="1" spans="3:10">
+    <row r="512" ht="24.0" customHeight="true">
       <c r="C512" t="s">
         <v>1146</v>
       </c>
@@ -20018,7 +20011,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="513" ht="24" customHeight="1" spans="3:10">
+    <row r="513" ht="24.0" customHeight="true">
       <c r="C513" t="s">
         <v>1149</v>
       </c>
@@ -20044,7 +20037,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="514" ht="24" customHeight="1" spans="3:10">
+    <row r="514" ht="24.0" customHeight="true">
       <c r="C514" t="s">
         <v>1151</v>
       </c>
@@ -20070,7 +20063,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="515" ht="24" customHeight="1" spans="3:10">
+    <row r="515" ht="24.0" customHeight="true">
       <c r="C515" t="s">
         <v>1153</v>
       </c>
@@ -20096,7 +20089,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="516" ht="24" customHeight="1" spans="3:10">
+    <row r="516" ht="24.0" customHeight="true">
       <c r="C516" t="s">
         <v>1155</v>
       </c>
@@ -20122,7 +20115,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="517" ht="24" customHeight="1" spans="3:10">
+    <row r="517" ht="24.0" customHeight="true">
       <c r="C517" t="s">
         <v>1157</v>
       </c>
@@ -20148,7 +20141,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="518" ht="24" customHeight="1" spans="3:10">
+    <row r="518" ht="24.0" customHeight="true">
       <c r="C518" t="s">
         <v>1159</v>
       </c>
@@ -20174,7 +20167,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="519" ht="24" customHeight="1" spans="3:10">
+    <row r="519" ht="24.0" customHeight="true">
       <c r="C519" t="s">
         <v>1161</v>
       </c>
@@ -20200,7 +20193,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="520" ht="24" customHeight="1" spans="3:10">
+    <row r="520" ht="24.0" customHeight="true">
       <c r="C520" t="s">
         <v>1163</v>
       </c>
@@ -20226,7 +20219,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="521" ht="24" customHeight="1" spans="3:10">
+    <row r="521" ht="24.0" customHeight="true">
       <c r="C521" t="s">
         <v>1165</v>
       </c>
@@ -20252,7 +20245,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="522" ht="24" customHeight="1" spans="3:10">
+    <row r="522" ht="24.0" customHeight="true">
       <c r="C522" t="s">
         <v>1167</v>
       </c>
@@ -20278,7 +20271,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="523" ht="24" customHeight="1" spans="3:10">
+    <row r="523" ht="24.0" customHeight="true">
       <c r="C523" t="s">
         <v>1169</v>
       </c>
@@ -20304,7 +20297,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="524" ht="24" customHeight="1" spans="3:10">
+    <row r="524" ht="24.0" customHeight="true">
       <c r="C524" t="s">
         <v>1171</v>
       </c>
@@ -20330,7 +20323,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="525" ht="24" customHeight="1" spans="3:10">
+    <row r="525" ht="24.0" customHeight="true">
       <c r="C525" t="s">
         <v>1173</v>
       </c>
@@ -20356,7 +20349,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="526" ht="24" customHeight="1" spans="3:10">
+    <row r="526" ht="24.0" customHeight="true">
       <c r="C526" t="s">
         <v>1175</v>
       </c>
@@ -20382,7 +20375,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="527" ht="24" customHeight="1" spans="3:10">
+    <row r="527" ht="24.0" customHeight="true">
       <c r="C527" t="s">
         <v>1177</v>
       </c>
@@ -20408,7 +20401,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="528" ht="24" customHeight="1" spans="3:10">
+    <row r="528" ht="24.0" customHeight="true">
       <c r="C528" t="s">
         <v>1179</v>
       </c>
@@ -20434,7 +20427,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="529" ht="24" customHeight="1" spans="3:10">
+    <row r="529" ht="24.0" customHeight="true">
       <c r="C529" t="s">
         <v>1181</v>
       </c>
@@ -20460,7 +20453,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="530" ht="24" customHeight="1" spans="3:10">
+    <row r="530" ht="24.0" customHeight="true">
       <c r="C530" t="s">
         <v>1183</v>
       </c>
@@ -20486,7 +20479,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="531" ht="24" customHeight="1" spans="3:10">
+    <row r="531" ht="24.0" customHeight="true">
       <c r="C531" t="s">
         <v>1185</v>
       </c>
@@ -20512,7 +20505,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="532" ht="24" customHeight="1" spans="3:10">
+    <row r="532" ht="24.0" customHeight="true">
       <c r="C532" t="s">
         <v>1187</v>
       </c>
@@ -20538,7 +20531,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="533" ht="24" customHeight="1" spans="3:10">
+    <row r="533" ht="24.0" customHeight="true">
       <c r="C533" t="s">
         <v>1189</v>
       </c>
@@ -20564,7 +20557,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="534" ht="24" customHeight="1" spans="3:10">
+    <row r="534" ht="24.0" customHeight="true">
       <c r="C534" t="s">
         <v>1191</v>
       </c>
@@ -20590,7 +20583,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="535" ht="24" customHeight="1" spans="3:10">
+    <row r="535" ht="24.0" customHeight="true">
       <c r="C535" t="s">
         <v>1195</v>
       </c>
@@ -20616,7 +20609,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="536" ht="24" customHeight="1" spans="3:10">
+    <row r="536" ht="24.0" customHeight="true">
       <c r="C536" t="s">
         <v>1198</v>
       </c>
@@ -20642,7 +20635,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="537" ht="24" customHeight="1" spans="3:10">
+    <row r="537" ht="24.0" customHeight="true">
       <c r="C537" t="s">
         <v>1201</v>
       </c>
@@ -20668,7 +20661,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="538" ht="24" customHeight="1" spans="3:10">
+    <row r="538" ht="24.0" customHeight="true">
       <c r="C538" t="s">
         <v>1204</v>
       </c>
@@ -20694,7 +20687,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="539" ht="24" customHeight="1" spans="3:10">
+    <row r="539" ht="24.0" customHeight="true">
       <c r="C539" t="s">
         <v>1206</v>
       </c>
@@ -20720,7 +20713,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="540" ht="24" customHeight="1" spans="3:10">
+    <row r="540" ht="24.0" customHeight="true">
       <c r="C540" t="s">
         <v>1208</v>
       </c>
@@ -20746,7 +20739,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="541" ht="24" customHeight="1" spans="3:10">
+    <row r="541" ht="24.0" customHeight="true">
       <c r="C541" t="s">
         <v>1210</v>
       </c>
@@ -20772,7 +20765,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="542" ht="24" customHeight="1" spans="3:10">
+    <row r="542" ht="24.0" customHeight="true">
       <c r="C542" t="s">
         <v>1212</v>
       </c>
@@ -20798,7 +20791,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="543" ht="24" customHeight="1" spans="3:10">
+    <row r="543" ht="24.0" customHeight="true">
       <c r="C543" t="s">
         <v>1214</v>
       </c>
@@ -20824,7 +20817,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="544" ht="24" customHeight="1" spans="3:10">
+    <row r="544" ht="24.0" customHeight="true">
       <c r="C544" t="s">
         <v>1216</v>
       </c>
@@ -20850,7 +20843,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="545" ht="24" customHeight="1" spans="3:10">
+    <row r="545" ht="24.0" customHeight="true">
       <c r="C545" t="s">
         <v>1218</v>
       </c>
@@ -20876,7 +20869,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="546" ht="24" customHeight="1" spans="3:10">
+    <row r="546" ht="24.0" customHeight="true">
       <c r="C546" t="s">
         <v>1220</v>
       </c>
@@ -20902,7 +20895,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="547" ht="24" customHeight="1" spans="3:10">
+    <row r="547" ht="24.0" customHeight="true">
       <c r="C547" t="s">
         <v>1222</v>
       </c>
@@ -20928,7 +20921,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="548" ht="24" customHeight="1" spans="3:10">
+    <row r="548" ht="24.0" customHeight="true">
       <c r="C548" t="s">
         <v>1224</v>
       </c>
@@ -20954,7 +20947,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="549" ht="24" customHeight="1" spans="3:10">
+    <row r="549" ht="24.0" customHeight="true">
       <c r="C549" t="s">
         <v>1226</v>
       </c>
@@ -20980,7 +20973,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="550" ht="24" customHeight="1" spans="3:10">
+    <row r="550" ht="24.0" customHeight="true">
       <c r="C550" t="s">
         <v>1228</v>
       </c>
@@ -21006,7 +20999,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="551" ht="24" customHeight="1" spans="3:10">
+    <row r="551" ht="24.0" customHeight="true">
       <c r="C551" t="s">
         <v>1230</v>
       </c>
@@ -21032,7 +21025,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="552" ht="24" customHeight="1" spans="3:10">
+    <row r="552" ht="24.0" customHeight="true">
       <c r="C552" t="s">
         <v>1232</v>
       </c>
@@ -21058,7 +21051,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="553" ht="24" customHeight="1" spans="3:10">
+    <row r="553" ht="24.0" customHeight="true">
       <c r="C553" t="s">
         <v>1234</v>
       </c>
@@ -21084,7 +21077,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="554" ht="24" customHeight="1" spans="3:10">
+    <row r="554" ht="24.0" customHeight="true">
       <c r="C554" t="s">
         <v>1236</v>
       </c>
@@ -21110,7 +21103,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="555" ht="24" customHeight="1" spans="3:10">
+    <row r="555" ht="24.0" customHeight="true">
       <c r="C555" t="s">
         <v>1238</v>
       </c>
@@ -21136,7 +21129,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="556" ht="24" customHeight="1" spans="3:10">
+    <row r="556" ht="24.0" customHeight="true">
       <c r="C556" t="s">
         <v>1240</v>
       </c>
@@ -21162,7 +21155,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="557" ht="24" customHeight="1" spans="3:10">
+    <row r="557" ht="24.0" customHeight="true">
       <c r="C557" t="s">
         <v>1242</v>
       </c>
@@ -21188,7 +21181,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="558" ht="24" customHeight="1" spans="3:10">
+    <row r="558" ht="24.0" customHeight="true">
       <c r="C558" t="s">
         <v>1244</v>
       </c>
@@ -21214,7 +21207,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="559" ht="24" customHeight="1" spans="3:10">
+    <row r="559" ht="24.0" customHeight="true">
       <c r="C559" t="s">
         <v>1248</v>
       </c>
@@ -21240,7 +21233,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="560" ht="24" customHeight="1" spans="3:10">
+    <row r="560" ht="24.0" customHeight="true">
       <c r="C560" t="s">
         <v>1251</v>
       </c>
@@ -21266,7 +21259,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="561" ht="24" customHeight="1" spans="3:10">
+    <row r="561" ht="24.0" customHeight="true">
       <c r="C561" t="s">
         <v>1255</v>
       </c>
@@ -21292,7 +21285,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="562" ht="24" customHeight="1" spans="3:10">
+    <row r="562" ht="24.0" customHeight="true">
       <c r="C562" t="s">
         <v>1258</v>
       </c>
@@ -21318,7 +21311,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="563" ht="24" customHeight="1" spans="3:10">
+    <row r="563" ht="24.0" customHeight="true">
       <c r="C563" t="s">
         <v>1260</v>
       </c>
@@ -21344,7 +21337,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="564" ht="24" customHeight="1" spans="3:10">
+    <row r="564" ht="24.0" customHeight="true">
       <c r="C564" t="s">
         <v>1262</v>
       </c>
@@ -21370,7 +21363,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="565" ht="24" customHeight="1" spans="3:10">
+    <row r="565" ht="24.0" customHeight="true">
       <c r="C565" t="s">
         <v>1264</v>
       </c>
@@ -21396,7 +21389,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="566" ht="24" customHeight="1" spans="3:10">
+    <row r="566" ht="24.0" customHeight="true">
       <c r="C566" t="s">
         <v>1266</v>
       </c>
@@ -21422,7 +21415,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="567" ht="24" customHeight="1" spans="3:10">
+    <row r="567" ht="24.0" customHeight="true">
       <c r="C567" t="s">
         <v>1268</v>
       </c>
@@ -21448,7 +21441,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="568" ht="24" customHeight="1" spans="3:10">
+    <row r="568" ht="24.0" customHeight="true">
       <c r="C568" t="s">
         <v>1270</v>
       </c>
@@ -21474,7 +21467,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="569" ht="24" customHeight="1" spans="3:10">
+    <row r="569" ht="24.0" customHeight="true">
       <c r="C569" t="s">
         <v>1272</v>
       </c>
@@ -21500,7 +21493,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="570" ht="24" customHeight="1" spans="3:10">
+    <row r="570" ht="24.0" customHeight="true">
       <c r="C570" t="s">
         <v>1274</v>
       </c>
@@ -21526,7 +21519,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="571" ht="24" customHeight="1" spans="3:10">
+    <row r="571" ht="24.0" customHeight="true">
       <c r="C571" t="s">
         <v>1276</v>
       </c>
@@ -21552,7 +21545,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="572" ht="24" customHeight="1" spans="3:10">
+    <row r="572" ht="24.0" customHeight="true">
       <c r="C572" t="s">
         <v>1278</v>
       </c>
@@ -21578,7 +21571,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="573" ht="24" customHeight="1" spans="3:10">
+    <row r="573" ht="24.0" customHeight="true">
       <c r="C573" t="s">
         <v>1280</v>
       </c>
@@ -21604,7 +21597,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="574" ht="24" customHeight="1" spans="3:10">
+    <row r="574" ht="24.0" customHeight="true">
       <c r="C574" t="s">
         <v>1282</v>
       </c>
@@ -21630,7 +21623,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="575" ht="24" customHeight="1" spans="3:10">
+    <row r="575" ht="24.0" customHeight="true">
       <c r="C575" t="s">
         <v>1284</v>
       </c>
@@ -21656,7 +21649,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="576" ht="24" customHeight="1" spans="3:10">
+    <row r="576" ht="24.0" customHeight="true">
       <c r="C576" t="s">
         <v>1286</v>
       </c>
@@ -21682,7 +21675,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="577" ht="24" customHeight="1" spans="3:10">
+    <row r="577" ht="24.0" customHeight="true">
       <c r="C577" t="s">
         <v>1288</v>
       </c>
@@ -21708,7 +21701,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="578" ht="24" customHeight="1" spans="3:10">
+    <row r="578" ht="24.0" customHeight="true">
       <c r="C578" t="s">
         <v>1290</v>
       </c>
@@ -21734,7 +21727,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="579" ht="24" customHeight="1" spans="3:10">
+    <row r="579" ht="24.0" customHeight="true">
       <c r="C579" t="s">
         <v>1292</v>
       </c>
@@ -21760,7 +21753,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="580" ht="24" customHeight="1" spans="3:10">
+    <row r="580" ht="24.0" customHeight="true">
       <c r="C580" t="s">
         <v>1294</v>
       </c>
@@ -21786,7 +21779,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="581" ht="24" customHeight="1" spans="3:10">
+    <row r="581" ht="24.0" customHeight="true">
       <c r="C581" t="s">
         <v>1296</v>
       </c>
@@ -21812,7 +21805,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="582" ht="24" customHeight="1" spans="3:10">
+    <row r="582" ht="24.0" customHeight="true">
       <c r="C582" t="s">
         <v>1298</v>
       </c>
@@ -21838,7 +21831,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="583" ht="24" customHeight="1" spans="3:10">
+    <row r="583" ht="24.0" customHeight="true">
       <c r="C583" t="s">
         <v>1302</v>
       </c>
@@ -21864,7 +21857,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="584" ht="24" customHeight="1" spans="3:10">
+    <row r="584" ht="24.0" customHeight="true">
       <c r="C584" t="s">
         <v>1305</v>
       </c>
@@ -21890,7 +21883,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="585" ht="24" customHeight="1" spans="3:10">
+    <row r="585" ht="24.0" customHeight="true">
       <c r="C585" t="s">
         <v>1309</v>
       </c>
@@ -21916,7 +21909,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="586" ht="24" customHeight="1" spans="3:10">
+    <row r="586" ht="24.0" customHeight="true">
       <c r="C586" t="s">
         <v>1312</v>
       </c>
@@ -21942,7 +21935,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="587" ht="24" customHeight="1" spans="3:10">
+    <row r="587" ht="24.0" customHeight="true">
       <c r="C587" t="s">
         <v>1314</v>
       </c>
@@ -21968,7 +21961,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="588" ht="24" customHeight="1" spans="3:10">
+    <row r="588" ht="24.0" customHeight="true">
       <c r="C588" t="s">
         <v>1316</v>
       </c>
@@ -21994,7 +21987,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="589" ht="24" customHeight="1" spans="3:10">
+    <row r="589" ht="24.0" customHeight="true">
       <c r="C589" t="s">
         <v>1318</v>
       </c>
@@ -22020,7 +22013,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="590" ht="24" customHeight="1" spans="3:10">
+    <row r="590" ht="24.0" customHeight="true">
       <c r="C590" t="s">
         <v>1320</v>
       </c>
@@ -22046,7 +22039,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="591" ht="24" customHeight="1" spans="3:10">
+    <row r="591" ht="24.0" customHeight="true">
       <c r="C591" t="s">
         <v>1322</v>
       </c>
@@ -22072,7 +22065,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="592" ht="24" customHeight="1" spans="3:10">
+    <row r="592" ht="24.0" customHeight="true">
       <c r="C592" t="s">
         <v>1324</v>
       </c>
@@ -22098,7 +22091,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="593" ht="24" customHeight="1" spans="3:10">
+    <row r="593" ht="24.0" customHeight="true">
       <c r="C593" t="s">
         <v>1326</v>
       </c>
@@ -22124,7 +22117,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="594" ht="24" customHeight="1" spans="3:10">
+    <row r="594" ht="24.0" customHeight="true">
       <c r="C594" t="s">
         <v>1328</v>
       </c>
@@ -22150,7 +22143,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="595" ht="24" customHeight="1" spans="3:10">
+    <row r="595" ht="24.0" customHeight="true">
       <c r="C595" t="s">
         <v>1330</v>
       </c>
@@ -22176,7 +22169,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="596" ht="24" customHeight="1" spans="3:10">
+    <row r="596" ht="24.0" customHeight="true">
       <c r="C596" t="s">
         <v>1332</v>
       </c>
@@ -22202,7 +22195,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="597" ht="24" customHeight="1" spans="3:10">
+    <row r="597" ht="24.0" customHeight="true">
       <c r="C597" t="s">
         <v>1334</v>
       </c>
@@ -22228,7 +22221,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="598" ht="24" customHeight="1" spans="3:10">
+    <row r="598" ht="24.0" customHeight="true">
       <c r="C598" t="s">
         <v>1336</v>
       </c>
@@ -22254,7 +22247,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="599" ht="24" customHeight="1" spans="3:10">
+    <row r="599" ht="24.0" customHeight="true">
       <c r="C599" t="s">
         <v>1338</v>
       </c>
@@ -22280,7 +22273,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="600" ht="24" customHeight="1" spans="3:10">
+    <row r="600" ht="24.0" customHeight="true">
       <c r="C600" t="s">
         <v>1340</v>
       </c>
@@ -22306,7 +22299,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="601" ht="24" customHeight="1" spans="3:10">
+    <row r="601" ht="24.0" customHeight="true">
       <c r="C601" t="s">
         <v>1342</v>
       </c>
@@ -22332,7 +22325,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="602" ht="24" customHeight="1" spans="3:10">
+    <row r="602" ht="24.0" customHeight="true">
       <c r="C602" t="s">
         <v>1344</v>
       </c>
@@ -22358,7 +22351,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="603" ht="24" customHeight="1" spans="3:10">
+    <row r="603" ht="24.0" customHeight="true">
       <c r="C603" t="s">
         <v>1346</v>
       </c>
@@ -22384,7 +22377,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="604" ht="24" customHeight="1" spans="3:10">
+    <row r="604" ht="24.0" customHeight="true">
       <c r="C604" t="s">
         <v>1348</v>
       </c>
@@ -22410,7 +22403,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="605" ht="24" customHeight="1" spans="3:10">
+    <row r="605" ht="24.0" customHeight="true">
       <c r="C605" t="s">
         <v>1350</v>
       </c>
@@ -22436,7 +22429,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="606" ht="24" customHeight="1" spans="3:10">
+    <row r="606" ht="24.0" customHeight="true">
       <c r="C606" t="s">
         <v>1352</v>
       </c>
@@ -22462,7 +22455,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="607" ht="24" customHeight="1" spans="3:10">
+    <row r="607" ht="24.0" customHeight="true">
       <c r="C607" t="s">
         <v>1356</v>
       </c>
@@ -22488,7 +22481,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="608" ht="24" customHeight="1" spans="3:10">
+    <row r="608" ht="24.0" customHeight="true">
       <c r="C608" t="s">
         <v>1359</v>
       </c>
@@ -22514,7 +22507,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="609" ht="24" customHeight="1" spans="3:10">
+    <row r="609" ht="24.0" customHeight="true">
       <c r="C609" t="s">
         <v>1362</v>
       </c>
@@ -22540,7 +22533,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="610" ht="24" customHeight="1" spans="3:10">
+    <row r="610" ht="24.0" customHeight="true">
       <c r="C610" t="s">
         <v>1364</v>
       </c>
@@ -22566,7 +22559,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="611" ht="24" customHeight="1" spans="3:10">
+    <row r="611" ht="24.0" customHeight="true">
       <c r="C611" t="s">
         <v>1366</v>
       </c>
@@ -22592,7 +22585,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="612" ht="24" customHeight="1" spans="3:10">
+    <row r="612" ht="24.0" customHeight="true">
       <c r="C612" t="s">
         <v>1368</v>
       </c>
@@ -22618,7 +22611,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="613" ht="24" customHeight="1" spans="3:10">
+    <row r="613" ht="24.0" customHeight="true">
       <c r="C613" t="s">
         <v>1370</v>
       </c>
@@ -22644,7 +22637,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="614" ht="24" customHeight="1" spans="3:10">
+    <row r="614" ht="24.0" customHeight="true">
       <c r="C614" t="s">
         <v>1372</v>
       </c>
@@ -22670,7 +22663,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="615" ht="24" customHeight="1" spans="3:10">
+    <row r="615" ht="24.0" customHeight="true">
       <c r="C615" t="s">
         <v>1374</v>
       </c>
@@ -22696,7 +22689,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="616" ht="24" customHeight="1" spans="3:10">
+    <row r="616" ht="24.0" customHeight="true">
       <c r="C616" t="s">
         <v>1376</v>
       </c>
@@ -22722,7 +22715,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="617" ht="24" customHeight="1" spans="3:10">
+    <row r="617" ht="24.0" customHeight="true">
       <c r="C617" t="s">
         <v>1378</v>
       </c>
@@ -22748,7 +22741,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="618" ht="24" customHeight="1" spans="3:10">
+    <row r="618" ht="24.0" customHeight="true">
       <c r="C618" t="s">
         <v>1380</v>
       </c>
@@ -22774,7 +22767,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="619" ht="24" customHeight="1" spans="3:10">
+    <row r="619" ht="24.0" customHeight="true">
       <c r="C619" t="s">
         <v>1382</v>
       </c>
@@ -22800,7 +22793,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="620" ht="24" customHeight="1" spans="3:10">
+    <row r="620" ht="24.0" customHeight="true">
       <c r="C620" t="s">
         <v>1384</v>
       </c>
@@ -22826,7 +22819,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="621" ht="24" customHeight="1" spans="3:10">
+    <row r="621" ht="24.0" customHeight="true">
       <c r="C621" t="s">
         <v>1386</v>
       </c>
@@ -22852,7 +22845,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="622" ht="24" customHeight="1" spans="3:10">
+    <row r="622" ht="24.0" customHeight="true">
       <c r="C622" t="s">
         <v>1388</v>
       </c>
@@ -22878,7 +22871,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="623" ht="24" customHeight="1" spans="3:10">
+    <row r="623" ht="24.0" customHeight="true">
       <c r="C623" t="s">
         <v>1390</v>
       </c>
@@ -22904,7 +22897,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="624" ht="24" customHeight="1" spans="3:10">
+    <row r="624" ht="24.0" customHeight="true">
       <c r="C624" t="s">
         <v>1392</v>
       </c>
@@ -22930,7 +22923,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="625" ht="24" customHeight="1" spans="3:10">
+    <row r="625" ht="24.0" customHeight="true">
       <c r="C625" t="s">
         <v>1394</v>
       </c>
@@ -22956,7 +22949,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="626" ht="24" customHeight="1" spans="3:10">
+    <row r="626" ht="24.0" customHeight="true">
       <c r="C626" t="s">
         <v>1396</v>
       </c>
@@ -22982,7 +22975,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="627" ht="24" customHeight="1" spans="3:10">
+    <row r="627" ht="24.0" customHeight="true">
       <c r="C627" t="s">
         <v>1398</v>
       </c>
@@ -23008,7 +23001,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="628" ht="24" customHeight="1" spans="3:10">
+    <row r="628" ht="24.0" customHeight="true">
       <c r="C628" t="s">
         <v>1400</v>
       </c>
@@ -23034,7 +23027,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="629" ht="24" customHeight="1" spans="3:10">
+    <row r="629" ht="24.0" customHeight="true">
       <c r="C629" t="s">
         <v>1402</v>
       </c>
@@ -23060,7 +23053,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="630" ht="24" customHeight="1" spans="3:10">
+    <row r="630" ht="24.0" customHeight="true">
       <c r="C630" t="s">
         <v>1404</v>
       </c>
@@ -23086,7 +23079,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="631" ht="24" customHeight="1" spans="3:10">
+    <row r="631" ht="24.0" customHeight="true">
       <c r="C631" t="s">
         <v>1408</v>
       </c>
@@ -23112,7 +23105,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="632" ht="24" customHeight="1" spans="3:10">
+    <row r="632" ht="24.0" customHeight="true">
       <c r="C632" t="s">
         <v>1411</v>
       </c>
@@ -23138,7 +23131,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="633" ht="24" customHeight="1" spans="3:10">
+    <row r="633" ht="24.0" customHeight="true">
       <c r="C633" t="s">
         <v>1414</v>
       </c>
@@ -23164,7 +23157,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="634" ht="24" customHeight="1" spans="3:10">
+    <row r="634" ht="24.0" customHeight="true">
       <c r="C634" t="s">
         <v>1416</v>
       </c>
@@ -23190,7 +23183,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="635" ht="24" customHeight="1" spans="3:10">
+    <row r="635" ht="24.0" customHeight="true">
       <c r="C635" t="s">
         <v>1418</v>
       </c>
@@ -23216,7 +23209,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="636" ht="24" customHeight="1" spans="3:10">
+    <row r="636" ht="24.0" customHeight="true">
       <c r="C636" t="s">
         <v>1420</v>
       </c>
@@ -23242,7 +23235,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="637" ht="24" customHeight="1" spans="3:10">
+    <row r="637" ht="24.0" customHeight="true">
       <c r="C637" t="s">
         <v>1422</v>
       </c>
@@ -23268,7 +23261,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="638" ht="24" customHeight="1" spans="3:10">
+    <row r="638" ht="24.0" customHeight="true">
       <c r="C638" t="s">
         <v>1424</v>
       </c>
@@ -23294,7 +23287,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="639" ht="24" customHeight="1" spans="3:10">
+    <row r="639" ht="24.0" customHeight="true">
       <c r="C639" t="s">
         <v>1426</v>
       </c>
@@ -23320,7 +23313,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="640" ht="24" customHeight="1" spans="3:10">
+    <row r="640" ht="24.0" customHeight="true">
       <c r="C640" t="s">
         <v>1428</v>
       </c>
@@ -23346,7 +23339,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="641" ht="24" customHeight="1" spans="3:10">
+    <row r="641" ht="24.0" customHeight="true">
       <c r="C641" t="s">
         <v>1430</v>
       </c>
@@ -23372,7 +23365,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="642" ht="24" customHeight="1" spans="3:10">
+    <row r="642" ht="24.0" customHeight="true">
       <c r="C642" t="s">
         <v>1432</v>
       </c>
@@ -23398,7 +23391,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="643" ht="24" customHeight="1" spans="3:10">
+    <row r="643" ht="24.0" customHeight="true">
       <c r="C643" t="s">
         <v>1434</v>
       </c>
@@ -23424,7 +23417,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="644" ht="24" customHeight="1" spans="3:10">
+    <row r="644" ht="24.0" customHeight="true">
       <c r="C644" t="s">
         <v>1436</v>
       </c>
@@ -23450,7 +23443,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="645" ht="24" customHeight="1" spans="3:10">
+    <row r="645" ht="24.0" customHeight="true">
       <c r="C645" t="s">
         <v>1438</v>
       </c>
@@ -23476,7 +23469,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="646" ht="24" customHeight="1" spans="3:10">
+    <row r="646" ht="24.0" customHeight="true">
       <c r="C646" t="s">
         <v>1440</v>
       </c>
@@ -23502,7 +23495,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="647" ht="24" customHeight="1" spans="3:10">
+    <row r="647" ht="24.0" customHeight="true">
       <c r="C647" t="s">
         <v>1442</v>
       </c>
@@ -23528,7 +23521,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="648" ht="24" customHeight="1" spans="3:10">
+    <row r="648" ht="24.0" customHeight="true">
       <c r="C648" t="s">
         <v>1444</v>
       </c>
@@ -23554,7 +23547,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="649" ht="24" customHeight="1" spans="3:10">
+    <row r="649" ht="24.0" customHeight="true">
       <c r="C649" t="s">
         <v>1446</v>
       </c>
@@ -23580,7 +23573,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="650" ht="24" customHeight="1" spans="3:10">
+    <row r="650" ht="24.0" customHeight="true">
       <c r="C650" t="s">
         <v>1448</v>
       </c>
@@ -23606,7 +23599,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="651" ht="24" customHeight="1" spans="3:10">
+    <row r="651" ht="24.0" customHeight="true">
       <c r="C651" t="s">
         <v>1450</v>
       </c>
@@ -23632,7 +23625,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="652" ht="24" customHeight="1" spans="3:10">
+    <row r="652" ht="24.0" customHeight="true">
       <c r="C652" t="s">
         <v>1452</v>
       </c>
@@ -23658,7 +23651,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="653" ht="24" customHeight="1" spans="3:10">
+    <row r="653" ht="24.0" customHeight="true">
       <c r="C653" t="s">
         <v>1454</v>
       </c>
@@ -23684,7 +23677,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="654" ht="24" customHeight="1" spans="3:10">
+    <row r="654" ht="24.0" customHeight="true">
       <c r="C654" t="s">
         <v>1456</v>
       </c>
@@ -23710,7 +23703,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="655" ht="24" customHeight="1" spans="3:10">
+    <row r="655" ht="24.0" customHeight="true">
       <c r="C655" t="s">
         <v>1460</v>
       </c>
@@ -23736,7 +23729,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="656" ht="24" customHeight="1" spans="3:10">
+    <row r="656" ht="24.0" customHeight="true">
       <c r="C656" t="s">
         <v>1463</v>
       </c>
@@ -23762,7 +23755,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="657" ht="24" customHeight="1" spans="3:10">
+    <row r="657" ht="24.0" customHeight="true">
       <c r="C657" t="s">
         <v>1466</v>
       </c>
@@ -23788,7 +23781,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="658" ht="24" customHeight="1" spans="3:10">
+    <row r="658" ht="24.0" customHeight="true">
       <c r="C658" t="s">
         <v>1469</v>
       </c>
@@ -23814,7 +23807,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="659" ht="24" customHeight="1" spans="3:10">
+    <row r="659" ht="24.0" customHeight="true">
       <c r="C659" t="s">
         <v>1471</v>
       </c>
@@ -23840,7 +23833,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="660" ht="24" customHeight="1" spans="3:10">
+    <row r="660" ht="24.0" customHeight="true">
       <c r="C660" t="s">
         <v>1473</v>
       </c>
@@ -23866,7 +23859,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="661" ht="24" customHeight="1" spans="3:10">
+    <row r="661" ht="24.0" customHeight="true">
       <c r="C661" t="s">
         <v>1475</v>
       </c>
@@ -23892,7 +23885,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="662" ht="24" customHeight="1" spans="3:10">
+    <row r="662" ht="24.0" customHeight="true">
       <c r="C662" t="s">
         <v>1477</v>
       </c>
@@ -23918,7 +23911,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="663" ht="24" customHeight="1" spans="3:10">
+    <row r="663" ht="24.0" customHeight="true">
       <c r="C663" t="s">
         <v>1479</v>
       </c>
@@ -23944,7 +23937,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="664" ht="24" customHeight="1" spans="3:10">
+    <row r="664" ht="24.0" customHeight="true">
       <c r="C664" t="s">
         <v>1481</v>
       </c>
@@ -23970,7 +23963,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="665" ht="24" customHeight="1" spans="3:10">
+    <row r="665" ht="24.0" customHeight="true">
       <c r="C665" t="s">
         <v>1483</v>
       </c>
@@ -23996,7 +23989,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="666" ht="24" customHeight="1" spans="3:10">
+    <row r="666" ht="24.0" customHeight="true">
       <c r="C666" t="s">
         <v>1485</v>
       </c>
@@ -24022,7 +24015,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="667" ht="24" customHeight="1" spans="3:10">
+    <row r="667" ht="24.0" customHeight="true">
       <c r="C667" t="s">
         <v>1487</v>
       </c>
@@ -24048,7 +24041,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="668" ht="24" customHeight="1" spans="3:10">
+    <row r="668" ht="24.0" customHeight="true">
       <c r="C668" t="s">
         <v>1489</v>
       </c>
@@ -24074,7 +24067,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="669" ht="24" customHeight="1" spans="3:10">
+    <row r="669" ht="24.0" customHeight="true">
       <c r="C669" t="s">
         <v>1491</v>
       </c>
@@ -24100,7 +24093,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="670" ht="24" customHeight="1" spans="3:10">
+    <row r="670" ht="24.0" customHeight="true">
       <c r="C670" t="s">
         <v>1493</v>
       </c>
@@ -24126,7 +24119,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="671" ht="24" customHeight="1" spans="3:10">
+    <row r="671" ht="24.0" customHeight="true">
       <c r="C671" t="s">
         <v>1495</v>
       </c>
@@ -24152,7 +24145,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="672" ht="24" customHeight="1" spans="3:10">
+    <row r="672" ht="24.0" customHeight="true">
       <c r="C672" t="s">
         <v>1497</v>
       </c>
@@ -24178,7 +24171,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="673" ht="24" customHeight="1" spans="3:10">
+    <row r="673" ht="24.0" customHeight="true">
       <c r="C673" t="s">
         <v>1499</v>
       </c>
@@ -24204,7 +24197,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="674" ht="24" customHeight="1" spans="3:10">
+    <row r="674" ht="24.0" customHeight="true">
       <c r="C674" t="s">
         <v>1501</v>
       </c>
@@ -24230,7 +24223,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="675" ht="24" customHeight="1" spans="3:10">
+    <row r="675" ht="24.0" customHeight="true">
       <c r="C675" t="s">
         <v>1503</v>
       </c>
@@ -24256,7 +24249,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="676" ht="24" customHeight="1" spans="3:10">
+    <row r="676" ht="24.0" customHeight="true">
       <c r="C676" t="s">
         <v>1505</v>
       </c>
@@ -24282,7 +24275,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="677" ht="24" customHeight="1" spans="3:10">
+    <row r="677" ht="24.0" customHeight="true">
       <c r="C677" t="s">
         <v>1507</v>
       </c>
@@ -24308,7 +24301,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="678" ht="24" customHeight="1" spans="3:10">
+    <row r="678" ht="24.0" customHeight="true">
       <c r="C678" t="s">
         <v>1509</v>
       </c>
@@ -24334,7 +24327,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="679" ht="24" customHeight="1" spans="3:10">
+    <row r="679" ht="24.0" customHeight="true">
       <c r="C679" t="s">
         <v>1513</v>
       </c>
@@ -24360,7 +24353,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="680" ht="24" customHeight="1" spans="3:10">
+    <row r="680" ht="24.0" customHeight="true">
       <c r="C680" t="s">
         <v>1516</v>
       </c>
@@ -24386,7 +24379,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="681" ht="24" customHeight="1" spans="3:10">
+    <row r="681" ht="24.0" customHeight="true">
       <c r="C681" t="s">
         <v>1520</v>
       </c>
@@ -24412,7 +24405,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="682" ht="24" customHeight="1" spans="3:10">
+    <row r="682" ht="24.0" customHeight="true">
       <c r="C682" t="s">
         <v>1523</v>
       </c>
@@ -24438,7 +24431,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="683" ht="24" customHeight="1" spans="3:10">
+    <row r="683" ht="24.0" customHeight="true">
       <c r="C683" t="s">
         <v>1525</v>
       </c>
@@ -24464,7 +24457,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="684" ht="24" customHeight="1" spans="3:10">
+    <row r="684" ht="24.0" customHeight="true">
       <c r="C684" t="s">
         <v>1527</v>
       </c>
@@ -24490,7 +24483,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="685" ht="24" customHeight="1" spans="3:10">
+    <row r="685" ht="24.0" customHeight="true">
       <c r="C685" t="s">
         <v>1529</v>
       </c>
@@ -24516,7 +24509,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="686" ht="24" customHeight="1" spans="3:10">
+    <row r="686" ht="24.0" customHeight="true">
       <c r="C686" t="s">
         <v>1531</v>
       </c>
@@ -24542,7 +24535,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="687" ht="24" customHeight="1" spans="3:10">
+    <row r="687" ht="24.0" customHeight="true">
       <c r="C687" t="s">
         <v>1533</v>
       </c>
@@ -24568,7 +24561,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="688" ht="24" customHeight="1" spans="3:10">
+    <row r="688" ht="24.0" customHeight="true">
       <c r="C688" t="s">
         <v>1535</v>
       </c>
@@ -24594,7 +24587,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="689" ht="24" customHeight="1" spans="3:10">
+    <row r="689" ht="24.0" customHeight="true">
       <c r="C689" t="s">
         <v>1537</v>
       </c>
@@ -24620,7 +24613,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="690" ht="24" customHeight="1" spans="3:10">
+    <row r="690" ht="24.0" customHeight="true">
       <c r="C690" t="s">
         <v>1539</v>
       </c>
@@ -24646,7 +24639,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="691" ht="24" customHeight="1" spans="3:10">
+    <row r="691" ht="24.0" customHeight="true">
       <c r="C691" t="s">
         <v>1541</v>
       </c>
@@ -24672,7 +24665,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="692" ht="24" customHeight="1" spans="3:10">
+    <row r="692" ht="24.0" customHeight="true">
       <c r="C692" t="s">
         <v>1543</v>
       </c>
@@ -24698,7 +24691,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="693" ht="24" customHeight="1" spans="3:10">
+    <row r="693" ht="24.0" customHeight="true">
       <c r="C693" t="s">
         <v>1545</v>
       </c>
@@ -24724,7 +24717,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="694" ht="24" customHeight="1" spans="3:10">
+    <row r="694" ht="24.0" customHeight="true">
       <c r="C694" t="s">
         <v>1547</v>
       </c>
@@ -24750,7 +24743,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="695" ht="24" customHeight="1" spans="3:10">
+    <row r="695" ht="24.0" customHeight="true">
       <c r="C695" t="s">
         <v>1549</v>
       </c>
@@ -24776,7 +24769,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="696" ht="24" customHeight="1" spans="3:10">
+    <row r="696" ht="24.0" customHeight="true">
       <c r="C696" t="s">
         <v>1551</v>
       </c>
@@ -24802,7 +24795,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="697" ht="24" customHeight="1" spans="3:10">
+    <row r="697" ht="24.0" customHeight="true">
       <c r="C697" t="s">
         <v>1553</v>
       </c>
@@ -24828,7 +24821,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="698" ht="24" customHeight="1" spans="3:10">
+    <row r="698" ht="24.0" customHeight="true">
       <c r="C698" t="s">
         <v>1555</v>
       </c>
@@ -24854,7 +24847,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="699" ht="24" customHeight="1" spans="3:10">
+    <row r="699" ht="24.0" customHeight="true">
       <c r="C699" t="s">
         <v>1557</v>
       </c>
@@ -24880,7 +24873,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="700" ht="24" customHeight="1" spans="3:10">
+    <row r="700" ht="24.0" customHeight="true">
       <c r="C700" t="s">
         <v>1559</v>
       </c>
@@ -24906,7 +24899,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="701" ht="24" customHeight="1" spans="3:10">
+    <row r="701" ht="24.0" customHeight="true">
       <c r="C701" t="s">
         <v>1561</v>
       </c>
@@ -24932,7 +24925,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="702" ht="24" customHeight="1" spans="3:10">
+    <row r="702" ht="24.0" customHeight="true">
       <c r="C702" t="s">
         <v>1563</v>
       </c>
@@ -24958,7 +24951,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="703" ht="24" customHeight="1" spans="3:10">
+    <row r="703" ht="24.0" customHeight="true">
       <c r="C703" t="s">
         <v>1567</v>
       </c>
@@ -24984,7 +24977,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="704" ht="24" customHeight="1" spans="3:10">
+    <row r="704" ht="24.0" customHeight="true">
       <c r="C704" t="s">
         <v>1570</v>
       </c>
@@ -25010,7 +25003,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="705" ht="24" customHeight="1" spans="3:10">
+    <row r="705" ht="24.0" customHeight="true">
       <c r="C705" t="s">
         <v>1574</v>
       </c>
@@ -25036,7 +25029,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="706" ht="24" customHeight="1" spans="3:10">
+    <row r="706" ht="24.0" customHeight="true">
       <c r="C706" t="s">
         <v>1577</v>
       </c>
@@ -25062,7 +25055,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="707" ht="24" customHeight="1" spans="3:10">
+    <row r="707" ht="24.0" customHeight="true">
       <c r="C707" t="s">
         <v>1579</v>
       </c>
@@ -25088,7 +25081,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="708" ht="24" customHeight="1" spans="3:10">
+    <row r="708" ht="24.0" customHeight="true">
       <c r="C708" t="s">
         <v>1581</v>
       </c>
@@ -25114,7 +25107,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="709" ht="24" customHeight="1" spans="3:10">
+    <row r="709" ht="24.0" customHeight="true">
       <c r="C709" t="s">
         <v>1583</v>
       </c>
@@ -25140,7 +25133,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="710" ht="24" customHeight="1" spans="3:10">
+    <row r="710" ht="24.0" customHeight="true">
       <c r="C710" t="s">
         <v>1585</v>
       </c>
@@ -25166,7 +25159,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="711" ht="24" customHeight="1" spans="3:10">
+    <row r="711" ht="24.0" customHeight="true">
       <c r="C711" t="s">
         <v>1587</v>
       </c>
@@ -25192,7 +25185,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="712" ht="24" customHeight="1" spans="3:10">
+    <row r="712" ht="24.0" customHeight="true">
       <c r="C712" t="s">
         <v>1589</v>
       </c>
@@ -25218,7 +25211,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="713" ht="24" customHeight="1" spans="3:10">
+    <row r="713" ht="24.0" customHeight="true">
       <c r="C713" t="s">
         <v>1591</v>
       </c>
@@ -25244,7 +25237,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="714" ht="24" customHeight="1" spans="3:10">
+    <row r="714" ht="24.0" customHeight="true">
       <c r="C714" t="s">
         <v>1593</v>
       </c>
@@ -25270,7 +25263,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="715" ht="24" customHeight="1" spans="3:10">
+    <row r="715" ht="24.0" customHeight="true">
       <c r="C715" t="s">
         <v>1595</v>
       </c>
@@ -25296,7 +25289,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="716" ht="24" customHeight="1" spans="3:10">
+    <row r="716" ht="24.0" customHeight="true">
       <c r="C716" t="s">
         <v>1597</v>
       </c>
@@ -25322,7 +25315,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="717" ht="24" customHeight="1" spans="3:10">
+    <row r="717" ht="24.0" customHeight="true">
       <c r="C717" t="s">
         <v>1599</v>
       </c>
@@ -25348,7 +25341,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="718" ht="24" customHeight="1" spans="3:10">
+    <row r="718" ht="24.0" customHeight="true">
       <c r="C718" t="s">
         <v>1601</v>
       </c>
@@ -25374,7 +25367,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="719" ht="24" customHeight="1" spans="3:10">
+    <row r="719" ht="24.0" customHeight="true">
       <c r="C719" t="s">
         <v>1603</v>
       </c>
@@ -25400,7 +25393,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="720" ht="24" customHeight="1" spans="3:10">
+    <row r="720" ht="24.0" customHeight="true">
       <c r="C720" t="s">
         <v>1605</v>
       </c>
@@ -25426,7 +25419,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="721" ht="24" customHeight="1" spans="3:10">
+    <row r="721" ht="24.0" customHeight="true">
       <c r="C721" t="s">
         <v>1607</v>
       </c>
@@ -25452,7 +25445,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="722" ht="24" customHeight="1" spans="3:10">
+    <row r="722" ht="24.0" customHeight="true">
       <c r="C722" t="s">
         <v>1609</v>
       </c>
@@ -25478,7 +25471,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="723" ht="24" customHeight="1" spans="3:10">
+    <row r="723" ht="24.0" customHeight="true">
       <c r="C723" t="s">
         <v>1611</v>
       </c>
@@ -25504,7 +25497,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="724" ht="24" customHeight="1" spans="3:10">
+    <row r="724" ht="24.0" customHeight="true">
       <c r="C724" t="s">
         <v>1613</v>
       </c>
@@ -25530,7 +25523,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="725" ht="24" customHeight="1" spans="3:10">
+    <row r="725" ht="24.0" customHeight="true">
       <c r="C725" t="s">
         <v>1615</v>
       </c>
@@ -25556,7 +25549,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="726" ht="24" customHeight="1" spans="3:10">
+    <row r="726" ht="24.0" customHeight="true">
       <c r="C726" t="s">
         <v>1617</v>
       </c>
@@ -25582,7 +25575,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="727" ht="24" customHeight="1" spans="3:10">
+    <row r="727" ht="24.0" customHeight="true">
       <c r="C727" t="s">
         <v>1620</v>
       </c>
@@ -25608,7 +25601,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="728" ht="24" customHeight="1" spans="3:10">
+    <row r="728" ht="24.0" customHeight="true">
       <c r="C728" t="s">
         <v>1623</v>
       </c>
@@ -25634,7 +25627,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="729" ht="24" customHeight="1" spans="3:10">
+    <row r="729" ht="24.0" customHeight="true">
       <c r="C729" t="s">
         <v>1626</v>
       </c>
@@ -25660,7 +25653,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="730" ht="24" customHeight="1" spans="3:10">
+    <row r="730" ht="24.0" customHeight="true">
       <c r="C730" t="s">
         <v>1628</v>
       </c>
@@ -25686,7 +25679,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="731" ht="24" customHeight="1" spans="3:10">
+    <row r="731" ht="24.0" customHeight="true">
       <c r="C731" t="s">
         <v>1630</v>
       </c>
@@ -25712,7 +25705,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="732" ht="24" customHeight="1" spans="3:10">
+    <row r="732" ht="24.0" customHeight="true">
       <c r="C732" t="s">
         <v>1632</v>
       </c>
@@ -25738,7 +25731,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="733" ht="24" customHeight="1" spans="3:10">
+    <row r="733" ht="24.0" customHeight="true">
       <c r="C733" t="s">
         <v>1634</v>
       </c>
@@ -25764,7 +25757,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="734" ht="24" customHeight="1" spans="3:10">
+    <row r="734" ht="24.0" customHeight="true">
       <c r="C734" t="s">
         <v>1636</v>
       </c>
@@ -25790,7 +25783,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="735" ht="24" customHeight="1" spans="3:10">
+    <row r="735" ht="24.0" customHeight="true">
       <c r="C735" t="s">
         <v>1638</v>
       </c>
@@ -25816,7 +25809,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="736" ht="24" customHeight="1" spans="3:10">
+    <row r="736" ht="24.0" customHeight="true">
       <c r="C736" t="s">
         <v>1640</v>
       </c>
@@ -25842,7 +25835,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="737" ht="24" customHeight="1" spans="3:10">
+    <row r="737" ht="24.0" customHeight="true">
       <c r="C737" t="s">
         <v>1642</v>
       </c>
@@ -25868,7 +25861,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="738" ht="24" customHeight="1" spans="3:10">
+    <row r="738" ht="24.0" customHeight="true">
       <c r="C738" t="s">
         <v>1644</v>
       </c>
@@ -25894,7 +25887,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="739" ht="24" customHeight="1" spans="3:10">
+    <row r="739" ht="24.0" customHeight="true">
       <c r="C739" t="s">
         <v>1646</v>
       </c>
@@ -25920,7 +25913,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="740" ht="24" customHeight="1" spans="3:10">
+    <row r="740" ht="24.0" customHeight="true">
       <c r="C740" t="s">
         <v>1648</v>
       </c>
@@ -25946,7 +25939,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="741" ht="24" customHeight="1" spans="3:10">
+    <row r="741" ht="24.0" customHeight="true">
       <c r="C741" t="s">
         <v>1650</v>
       </c>
@@ -25972,7 +25965,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="742" ht="24" customHeight="1" spans="3:10">
+    <row r="742" ht="24.0" customHeight="true">
       <c r="C742" t="s">
         <v>1652</v>
       </c>
@@ -25998,7 +25991,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="743" ht="24" customHeight="1" spans="3:10">
+    <row r="743" ht="24.0" customHeight="true">
       <c r="C743" t="s">
         <v>1654</v>
       </c>
@@ -26024,7 +26017,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="744" ht="24" customHeight="1" spans="3:10">
+    <row r="744" ht="24.0" customHeight="true">
       <c r="C744" t="s">
         <v>1656</v>
       </c>
@@ -26050,7 +26043,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="745" ht="24" customHeight="1" spans="3:10">
+    <row r="745" ht="24.0" customHeight="true">
       <c r="C745" t="s">
         <v>1658</v>
       </c>
@@ -26076,7 +26069,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="746" ht="24" customHeight="1" spans="3:10">
+    <row r="746" ht="24.0" customHeight="true">
       <c r="C746" t="s">
         <v>1660</v>
       </c>
@@ -26102,7 +26095,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="747" ht="24" customHeight="1" spans="3:10">
+    <row r="747" ht="24.0" customHeight="true">
       <c r="C747" t="s">
         <v>1662</v>
       </c>
@@ -26128,7 +26121,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="748" ht="24" customHeight="1" spans="3:10">
+    <row r="748" ht="24.0" customHeight="true">
       <c r="C748" t="s">
         <v>1664</v>
       </c>
@@ -26154,7 +26147,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="749" ht="24" customHeight="1" spans="3:10">
+    <row r="749" ht="24.0" customHeight="true">
       <c r="C749" t="s">
         <v>1666</v>
       </c>
@@ -26180,7 +26173,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="750" ht="24" customHeight="1" spans="3:10">
+    <row r="750" ht="24.0" customHeight="true">
       <c r="C750" t="s">
         <v>1668</v>
       </c>
@@ -26206,7 +26199,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="751" ht="24" customHeight="1" spans="3:10">
+    <row r="751" ht="24.0" customHeight="true">
       <c r="C751" t="s">
         <v>1672</v>
       </c>
@@ -26232,7 +26225,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="752" ht="24" customHeight="1" spans="3:10">
+    <row r="752" ht="24.0" customHeight="true">
       <c r="C752" t="s">
         <v>1675</v>
       </c>
@@ -26258,7 +26251,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="753" ht="24" customHeight="1" spans="3:10">
+    <row r="753" ht="24.0" customHeight="true">
       <c r="C753" t="s">
         <v>1678</v>
       </c>
@@ -26284,7 +26277,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="754" ht="24" customHeight="1" spans="3:10">
+    <row r="754" ht="24.0" customHeight="true">
       <c r="C754" t="s">
         <v>1680</v>
       </c>
@@ -26310,7 +26303,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="755" ht="24" customHeight="1" spans="3:10">
+    <row r="755" ht="24.0" customHeight="true">
       <c r="C755" t="s">
         <v>1682</v>
       </c>
@@ -26336,7 +26329,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="756" ht="24" customHeight="1" spans="3:10">
+    <row r="756" ht="24.0" customHeight="true">
       <c r="C756" t="s">
         <v>1684</v>
       </c>
@@ -26362,7 +26355,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="757" ht="24" customHeight="1" spans="3:10">
+    <row r="757" ht="24.0" customHeight="true">
       <c r="C757" t="s">
         <v>1686</v>
       </c>
@@ -26388,7 +26381,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="758" ht="24" customHeight="1" spans="3:10">
+    <row r="758" ht="24.0" customHeight="true">
       <c r="C758" t="s">
         <v>1688</v>
       </c>
@@ -26414,7 +26407,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="759" ht="24" customHeight="1" spans="3:10">
+    <row r="759" ht="24.0" customHeight="true">
       <c r="C759" t="s">
         <v>1690</v>
       </c>
@@ -26440,7 +26433,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="760" ht="24" customHeight="1" spans="3:10">
+    <row r="760" ht="24.0" customHeight="true">
       <c r="C760" t="s">
         <v>1692</v>
       </c>
@@ -26466,7 +26459,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="761" ht="24" customHeight="1" spans="3:10">
+    <row r="761" ht="24.0" customHeight="true">
       <c r="C761" t="s">
         <v>1694</v>
       </c>
@@ -26492,7 +26485,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="762" ht="24" customHeight="1" spans="3:10">
+    <row r="762" ht="24.0" customHeight="true">
       <c r="C762" t="s">
         <v>1696</v>
       </c>
@@ -26518,7 +26511,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="763" ht="24" customHeight="1" spans="3:10">
+    <row r="763" ht="24.0" customHeight="true">
       <c r="C763" t="s">
         <v>1698</v>
       </c>
@@ -26544,7 +26537,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="764" ht="24" customHeight="1" spans="3:10">
+    <row r="764" ht="24.0" customHeight="true">
       <c r="C764" t="s">
         <v>1700</v>
       </c>
@@ -26570,7 +26563,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="765" ht="24" customHeight="1" spans="3:10">
+    <row r="765" ht="24.0" customHeight="true">
       <c r="C765" t="s">
         <v>1702</v>
       </c>
@@ -26596,7 +26589,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="766" ht="24" customHeight="1" spans="3:10">
+    <row r="766" ht="24.0" customHeight="true">
       <c r="C766" t="s">
         <v>1704</v>
       </c>
@@ -26622,7 +26615,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="767" ht="24" customHeight="1" spans="3:10">
+    <row r="767" ht="24.0" customHeight="true">
       <c r="C767" t="s">
         <v>1706</v>
       </c>
@@ -26648,7 +26641,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="768" ht="24" customHeight="1" spans="3:10">
+    <row r="768" ht="24.0" customHeight="true">
       <c r="C768" t="s">
         <v>1708</v>
       </c>
@@ -26674,7 +26667,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="769" ht="24" customHeight="1" spans="3:10">
+    <row r="769" ht="24.0" customHeight="true">
       <c r="C769" t="s">
         <v>1710</v>
       </c>
@@ -26700,7 +26693,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="770" ht="24" customHeight="1" spans="3:10">
+    <row r="770" ht="24.0" customHeight="true">
       <c r="C770" t="s">
         <v>1712</v>
       </c>
@@ -26726,7 +26719,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="771" ht="24" customHeight="1" spans="3:10">
+    <row r="771" ht="24.0" customHeight="true">
       <c r="C771" t="s">
         <v>1714</v>
       </c>
@@ -26752,7 +26745,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="772" ht="24" customHeight="1" spans="3:10">
+    <row r="772" ht="24.0" customHeight="true">
       <c r="C772" t="s">
         <v>1716</v>
       </c>
@@ -26778,7 +26771,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="773" ht="24" customHeight="1" spans="3:10">
+    <row r="773" ht="24.0" customHeight="true">
       <c r="C773" t="s">
         <v>1718</v>
       </c>
@@ -26804,7 +26797,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="774" ht="24" customHeight="1" spans="3:10">
+    <row r="774" ht="24.0" customHeight="true">
       <c r="C774" t="s">
         <v>1720</v>
       </c>
@@ -26830,7 +26823,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="775" ht="24" customHeight="1" spans="3:10">
+    <row r="775" ht="24.0" customHeight="true">
       <c r="C775" t="s">
         <v>1724</v>
       </c>
@@ -26856,7 +26849,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="776" ht="24" customHeight="1" spans="3:10">
+    <row r="776" ht="24.0" customHeight="true">
       <c r="C776" t="s">
         <v>1727</v>
       </c>
@@ -26882,7 +26875,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="777" ht="24" customHeight="1" spans="3:10">
+    <row r="777" ht="24.0" customHeight="true">
       <c r="C777" t="s">
         <v>1730</v>
       </c>
@@ -26908,7 +26901,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="778" ht="24" customHeight="1" spans="3:10">
+    <row r="778" ht="24.0" customHeight="true">
       <c r="C778" t="s">
         <v>1733</v>
       </c>
@@ -26934,7 +26927,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="779" ht="24" customHeight="1" spans="3:10">
+    <row r="779" ht="24.0" customHeight="true">
       <c r="C779" t="s">
         <v>1735</v>
       </c>
@@ -26960,7 +26953,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="780" ht="24" customHeight="1" spans="3:10">
+    <row r="780" ht="24.0" customHeight="true">
       <c r="C780" t="s">
         <v>1737</v>
       </c>
@@ -26986,7 +26979,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="781" ht="24" customHeight="1" spans="3:10">
+    <row r="781" ht="24.0" customHeight="true">
       <c r="C781" t="s">
         <v>1739</v>
       </c>
@@ -27012,7 +27005,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="782" ht="24" customHeight="1" spans="3:10">
+    <row r="782" ht="24.0" customHeight="true">
       <c r="C782" t="s">
         <v>1741</v>
       </c>
@@ -27038,7 +27031,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="783" ht="24" customHeight="1" spans="3:10">
+    <row r="783" ht="24.0" customHeight="true">
       <c r="C783" t="s">
         <v>1743</v>
       </c>
@@ -27064,7 +27057,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="784" ht="24" customHeight="1" spans="3:10">
+    <row r="784" ht="24.0" customHeight="true">
       <c r="C784" t="s">
         <v>1745</v>
       </c>
@@ -27090,7 +27083,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="785" ht="24" customHeight="1" spans="3:10">
+    <row r="785" ht="24.0" customHeight="true">
       <c r="C785" t="s">
         <v>1747</v>
       </c>
@@ -27116,7 +27109,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="786" ht="24" customHeight="1" spans="3:10">
+    <row r="786" ht="24.0" customHeight="true">
       <c r="C786" t="s">
         <v>1749</v>
       </c>
@@ -27142,7 +27135,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="787" ht="24" customHeight="1" spans="3:10">
+    <row r="787" ht="24.0" customHeight="true">
       <c r="C787" t="s">
         <v>1751</v>
       </c>
@@ -27168,7 +27161,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="788" ht="24" customHeight="1" spans="3:10">
+    <row r="788" ht="24.0" customHeight="true">
       <c r="C788" t="s">
         <v>1753</v>
       </c>
@@ -27194,7 +27187,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="789" ht="24" customHeight="1" spans="3:10">
+    <row r="789" ht="24.0" customHeight="true">
       <c r="C789" t="s">
         <v>1755</v>
       </c>
@@ -27220,7 +27213,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="790" ht="24" customHeight="1" spans="3:10">
+    <row r="790" ht="24.0" customHeight="true">
       <c r="C790" t="s">
         <v>1757</v>
       </c>
@@ -27246,7 +27239,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="791" ht="24" customHeight="1" spans="3:10">
+    <row r="791" ht="24.0" customHeight="true">
       <c r="C791" t="s">
         <v>1759</v>
       </c>
@@ -27272,7 +27265,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="792" ht="24" customHeight="1" spans="3:10">
+    <row r="792" ht="24.0" customHeight="true">
       <c r="C792" t="s">
         <v>1761</v>
       </c>
@@ -27298,7 +27291,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="793" ht="24" customHeight="1" spans="3:10">
+    <row r="793" ht="24.0" customHeight="true">
       <c r="C793" t="s">
         <v>1763</v>
       </c>
@@ -27324,7 +27317,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="794" ht="24" customHeight="1" spans="3:10">
+    <row r="794" ht="24.0" customHeight="true">
       <c r="C794" t="s">
         <v>1765</v>
       </c>
@@ -27350,7 +27343,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="795" ht="24" customHeight="1" spans="3:10">
+    <row r="795" ht="24.0" customHeight="true">
       <c r="C795" t="s">
         <v>1767</v>
       </c>
@@ -27376,7 +27369,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="796" ht="24" customHeight="1" spans="3:10">
+    <row r="796" ht="24.0" customHeight="true">
       <c r="C796" t="s">
         <v>1769</v>
       </c>
@@ -27402,7 +27395,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="797" ht="24" customHeight="1" spans="3:10">
+    <row r="797" ht="24.0" customHeight="true">
       <c r="C797" t="s">
         <v>1771</v>
       </c>
@@ -27428,7 +27421,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="798" ht="24" customHeight="1" spans="3:10">
+    <row r="798" ht="24.0" customHeight="true">
       <c r="C798" t="s">
         <v>1773</v>
       </c>
@@ -27454,7 +27447,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="799" ht="24" customHeight="1" spans="3:10">
+    <row r="799" ht="24.0" customHeight="true">
       <c r="C799" t="s">
         <v>1777</v>
       </c>
@@ -27480,7 +27473,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="800" ht="24" customHeight="1" spans="3:10">
+    <row r="800" ht="24.0" customHeight="true">
       <c r="C800" t="s">
         <v>1780</v>
       </c>
@@ -27506,7 +27499,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="801" ht="24" customHeight="1" spans="3:10">
+    <row r="801" ht="24.0" customHeight="true">
       <c r="C801" t="s">
         <v>1784</v>
       </c>
@@ -27532,7 +27525,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="802" ht="24" customHeight="1" spans="3:10">
+    <row r="802" ht="24.0" customHeight="true">
       <c r="C802" t="s">
         <v>1787</v>
       </c>
@@ -27558,7 +27551,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="803" ht="24" customHeight="1" spans="3:10">
+    <row r="803" ht="24.0" customHeight="true">
       <c r="C803" t="s">
         <v>1789</v>
       </c>
@@ -27584,7 +27577,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="804" ht="24" customHeight="1" spans="3:10">
+    <row r="804" ht="24.0" customHeight="true">
       <c r="C804" t="s">
         <v>1791</v>
       </c>
@@ -27610,7 +27603,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="805" ht="24" customHeight="1" spans="3:10">
+    <row r="805" ht="24.0" customHeight="true">
       <c r="C805" t="s">
         <v>1793</v>
       </c>
@@ -27636,7 +27629,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="806" ht="24" customHeight="1" spans="3:10">
+    <row r="806" ht="24.0" customHeight="true">
       <c r="C806" t="s">
         <v>1795</v>
       </c>
@@ -27662,7 +27655,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="807" ht="24" customHeight="1" spans="3:10">
+    <row r="807" ht="24.0" customHeight="true">
       <c r="C807" t="s">
         <v>1797</v>
       </c>
@@ -27688,7 +27681,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="808" ht="24" customHeight="1" spans="3:10">
+    <row r="808" ht="24.0" customHeight="true">
       <c r="C808" t="s">
         <v>1799</v>
       </c>
@@ -27714,7 +27707,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="809" ht="24" customHeight="1" spans="3:10">
+    <row r="809" ht="24.0" customHeight="true">
       <c r="C809" t="s">
         <v>1801</v>
       </c>
@@ -27740,7 +27733,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="810" ht="24" customHeight="1" spans="3:10">
+    <row r="810" ht="24.0" customHeight="true">
       <c r="C810" t="s">
         <v>1803</v>
       </c>
@@ -27766,7 +27759,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="811" ht="24" customHeight="1" spans="3:10">
+    <row r="811" ht="24.0" customHeight="true">
       <c r="C811" t="s">
         <v>1805</v>
       </c>
@@ -27792,7 +27785,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="812" ht="24" customHeight="1" spans="3:10">
+    <row r="812" ht="24.0" customHeight="true">
       <c r="C812" t="s">
         <v>1807</v>
       </c>
@@ -27818,7 +27811,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="813" ht="24" customHeight="1" spans="3:10">
+    <row r="813" ht="24.0" customHeight="true">
       <c r="C813" t="s">
         <v>1809</v>
       </c>
@@ -27844,7 +27837,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="814" ht="24" customHeight="1" spans="3:10">
+    <row r="814" ht="24.0" customHeight="true">
       <c r="C814" t="s">
         <v>1811</v>
       </c>
@@ -27870,7 +27863,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="815" ht="24" customHeight="1" spans="3:10">
+    <row r="815" ht="24.0" customHeight="true">
       <c r="C815" t="s">
         <v>1813</v>
       </c>
@@ -27896,7 +27889,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="816" ht="24" customHeight="1" spans="3:10">
+    <row r="816" ht="24.0" customHeight="true">
       <c r="C816" t="s">
         <v>1815</v>
       </c>
@@ -27922,7 +27915,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="817" ht="24" customHeight="1" spans="3:10">
+    <row r="817" ht="24.0" customHeight="true">
       <c r="C817" t="s">
         <v>1817</v>
       </c>
@@ -27948,7 +27941,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="818" ht="24" customHeight="1" spans="3:10">
+    <row r="818" ht="24.0" customHeight="true">
       <c r="C818" t="s">
         <v>1819</v>
       </c>
@@ -27974,7 +27967,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="819" ht="24" customHeight="1" spans="3:10">
+    <row r="819" ht="24.0" customHeight="true">
       <c r="C819" t="s">
         <v>1821</v>
       </c>
@@ -28000,7 +27993,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="820" ht="24" customHeight="1" spans="3:10">
+    <row r="820" ht="24.0" customHeight="true">
       <c r="C820" t="s">
         <v>1823</v>
       </c>
@@ -28026,7 +28019,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="821" ht="24" customHeight="1" spans="3:10">
+    <row r="821" ht="24.0" customHeight="true">
       <c r="C821" t="s">
         <v>1825</v>
       </c>
@@ -28052,7 +28045,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="822" ht="24" customHeight="1" spans="3:10">
+    <row r="822" ht="24.0" customHeight="true">
       <c r="C822" t="s">
         <v>1827</v>
       </c>
@@ -28078,7 +28071,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="823" ht="24" customHeight="1" spans="3:10">
+    <row r="823" ht="24.0" customHeight="true">
       <c r="C823" t="s">
         <v>1831</v>
       </c>
@@ -28104,7 +28097,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="824" ht="24" customHeight="1" spans="3:10">
+    <row r="824" ht="24.0" customHeight="true">
       <c r="C824" t="s">
         <v>1834</v>
       </c>
@@ -28130,7 +28123,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="825" ht="24" customHeight="1" spans="3:10">
+    <row r="825" ht="24.0" customHeight="true">
       <c r="C825" t="s">
         <v>1838</v>
       </c>
@@ -28156,7 +28149,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="826" ht="24" customHeight="1" spans="3:10">
+    <row r="826" ht="24.0" customHeight="true">
       <c r="C826" t="s">
         <v>1841</v>
       </c>
@@ -28182,7 +28175,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="827" ht="24" customHeight="1" spans="3:10">
+    <row r="827" ht="24.0" customHeight="true">
       <c r="C827" t="s">
         <v>1843</v>
       </c>
@@ -28208,7 +28201,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="828" ht="24" customHeight="1" spans="3:10">
+    <row r="828" ht="24.0" customHeight="true">
       <c r="C828" t="s">
         <v>1845</v>
       </c>
@@ -28234,7 +28227,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="829" ht="24" customHeight="1" spans="3:10">
+    <row r="829" ht="24.0" customHeight="true">
       <c r="C829" t="s">
         <v>1847</v>
       </c>
@@ -28260,7 +28253,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="830" ht="24" customHeight="1" spans="3:10">
+    <row r="830" ht="24.0" customHeight="true">
       <c r="C830" t="s">
         <v>1849</v>
       </c>
@@ -28286,7 +28279,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="831" ht="24" customHeight="1" spans="3:10">
+    <row r="831" ht="24.0" customHeight="true">
       <c r="C831" t="s">
         <v>1851</v>
       </c>
@@ -28312,7 +28305,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="832" ht="24" customHeight="1" spans="3:10">
+    <row r="832" ht="24.0" customHeight="true">
       <c r="C832" t="s">
         <v>1853</v>
       </c>
@@ -28338,7 +28331,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="833" ht="24" customHeight="1" spans="3:10">
+    <row r="833" ht="24.0" customHeight="true">
       <c r="C833" t="s">
         <v>1855</v>
       </c>
@@ -28364,7 +28357,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="834" ht="24" customHeight="1" spans="3:10">
+    <row r="834" ht="24.0" customHeight="true">
       <c r="C834" t="s">
         <v>1857</v>
       </c>
@@ -28390,7 +28383,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="835" ht="24" customHeight="1" spans="3:10">
+    <row r="835" ht="24.0" customHeight="true">
       <c r="C835" t="s">
         <v>1859</v>
       </c>
@@ -28416,7 +28409,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="836" ht="24" customHeight="1" spans="3:10">
+    <row r="836" ht="24.0" customHeight="true">
       <c r="C836" t="s">
         <v>1861</v>
       </c>
@@ -28442,7 +28435,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="837" ht="24" customHeight="1" spans="3:10">
+    <row r="837" ht="24.0" customHeight="true">
       <c r="C837" t="s">
         <v>1863</v>
       </c>
@@ -28468,7 +28461,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="838" ht="24" customHeight="1" spans="3:10">
+    <row r="838" ht="24.0" customHeight="true">
       <c r="C838" t="s">
         <v>1865</v>
       </c>
@@ -28494,7 +28487,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="839" ht="24" customHeight="1" spans="3:10">
+    <row r="839" ht="24.0" customHeight="true">
       <c r="C839" t="s">
         <v>1867</v>
       </c>
@@ -28520,7 +28513,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="840" ht="24" customHeight="1" spans="3:10">
+    <row r="840" ht="24.0" customHeight="true">
       <c r="C840" t="s">
         <v>1869</v>
       </c>
@@ -28546,7 +28539,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="841" ht="24" customHeight="1" spans="3:10">
+    <row r="841" ht="24.0" customHeight="true">
       <c r="C841" t="s">
         <v>1871</v>
       </c>
@@ -28572,7 +28565,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="842" ht="24" customHeight="1" spans="3:10">
+    <row r="842" ht="24.0" customHeight="true">
       <c r="C842" t="s">
         <v>1873</v>
       </c>
@@ -28598,7 +28591,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="843" ht="24" customHeight="1" spans="3:10">
+    <row r="843" ht="24.0" customHeight="true">
       <c r="C843" t="s">
         <v>1875</v>
       </c>
@@ -28624,7 +28617,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="844" ht="24" customHeight="1" spans="3:10">
+    <row r="844" ht="24.0" customHeight="true">
       <c r="C844" t="s">
         <v>1877</v>
       </c>
@@ -28650,7 +28643,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="845" ht="24" customHeight="1" spans="3:10">
+    <row r="845" ht="24.0" customHeight="true">
       <c r="C845" t="s">
         <v>1879</v>
       </c>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8500" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8620" uniqueCount="1921">
   <si>
     <t>_id</t>
   </si>
@@ -5793,6 +5793,78 @@
   </si>
   <si>
     <t>新手靴</t>
+  </si>
+  <si>
+    <t>吸血剑</t>
+  </si>
+  <si>
+    <t>吸血甲</t>
+  </si>
+  <si>
+    <t>吸血链</t>
+  </si>
+  <si>
+    <t>吸血盔</t>
+  </si>
+  <si>
+    <t>灼烧剑</t>
+  </si>
+  <si>
+    <t>灼烧甲</t>
+  </si>
+  <si>
+    <t>灼烧链</t>
+  </si>
+  <si>
+    <t>灼烧盔</t>
+  </si>
+  <si>
+    <t>回复剑</t>
+  </si>
+  <si>
+    <t>回复甲</t>
+  </si>
+  <si>
+    <t>回复链</t>
+  </si>
+  <si>
+    <t>回复盔</t>
+  </si>
+  <si>
+    <t>中毒剑</t>
+  </si>
+  <si>
+    <t>中毒甲</t>
+  </si>
+  <si>
+    <t>中毒链</t>
+  </si>
+  <si>
+    <t>中毒盔</t>
+  </si>
+  <si>
+    <t>晕眩剑</t>
+  </si>
+  <si>
+    <t>晕眩甲</t>
+  </si>
+  <si>
+    <t>晕眩链</t>
+  </si>
+  <si>
+    <t>晕眩盔</t>
+  </si>
+  <si>
+    <t>冰冻剑</t>
+  </si>
+  <si>
+    <t>冰冻甲</t>
+  </si>
+  <si>
+    <t>冰冻链</t>
+  </si>
+  <si>
+    <t>冰冻盔</t>
   </si>
 </sst>
 </file>
@@ -33802,10 +33874,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -34184,6 +34256,774 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="24" customHeight="1" spans="3:12">
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -6120,7 +6120,7 @@
     <t>冰冻盔</t>
   </si>
   <si>
-    <t>斗笠 · 一阶</t>
+    <t>斗笠·一阶</t>
   </si>
   <si>
     <t>2,3,4,12</t>
@@ -6129,61 +6129,61 @@
     <t>100,100,100,10</t>
   </si>
   <si>
-    <t>斗笠 · 二阶</t>
+    <t>斗笠·二阶</t>
   </si>
   <si>
     <t>200,200,200,20</t>
   </si>
   <si>
-    <t>斗笠 · 三阶</t>
+    <t>斗笠·三阶</t>
   </si>
   <si>
     <t>400,400,400,30</t>
   </si>
   <si>
-    <t>斗笠 · 四阶</t>
+    <t>斗笠·四阶</t>
   </si>
   <si>
     <t>800,800,800,40</t>
   </si>
   <si>
-    <t>斗笠 · 五阶</t>
+    <t>斗笠·五阶</t>
   </si>
   <si>
     <t>1600,1600,1600,50</t>
   </si>
   <si>
-    <t>斗笠 · 六阶</t>
+    <t>斗笠·六阶</t>
   </si>
   <si>
     <t>3200,3200,3200,60</t>
   </si>
   <si>
-    <t>斗笠 · 七阶</t>
+    <t>斗笠·七阶</t>
   </si>
   <si>
     <t>6400,6400,6400,70</t>
   </si>
   <si>
-    <t>斗笠 · 八阶</t>
+    <t>斗笠·八阶</t>
   </si>
   <si>
     <t>12800,12800,12800,80</t>
   </si>
   <si>
-    <t>斗笠 · 九阶</t>
+    <t>斗笠·九阶</t>
   </si>
   <si>
     <t>25600,25600,25600,90</t>
   </si>
   <si>
-    <t>斗笠 · 十阶</t>
+    <t>斗笠·十阶</t>
   </si>
   <si>
     <t>51200,51200,51200,100</t>
   </si>
   <si>
-    <t>护盾 · 一阶</t>
+    <t>护盾·一阶</t>
   </si>
   <si>
     <t>5,13</t>
@@ -6192,61 +6192,61 @@
     <t>100,10</t>
   </si>
   <si>
-    <t>护盾 · 二阶</t>
+    <t>护盾·二阶</t>
   </si>
   <si>
     <t>200,20</t>
   </si>
   <si>
-    <t>护盾 · 三阶</t>
+    <t>护盾·三阶</t>
   </si>
   <si>
     <t>400,30</t>
   </si>
   <si>
-    <t>护盾 · 四阶</t>
+    <t>护盾·四阶</t>
   </si>
   <si>
     <t>800,40</t>
   </si>
   <si>
-    <t>护盾 · 五阶</t>
+    <t>护盾·五阶</t>
   </si>
   <si>
     <t>1600,50</t>
   </si>
   <si>
-    <t>护盾 · 六阶</t>
+    <t>护盾·六阶</t>
   </si>
   <si>
     <t>3200,60</t>
   </si>
   <si>
-    <t>护盾 · 七阶</t>
+    <t>护盾·七阶</t>
   </si>
   <si>
     <t>6400,70</t>
   </si>
   <si>
-    <t>护盾 · 八阶</t>
+    <t>护盾·八阶</t>
   </si>
   <si>
     <t>12800,80</t>
   </si>
   <si>
-    <t>护盾 · 九阶</t>
+    <t>护盾·九阶</t>
   </si>
   <si>
     <t>25600,90</t>
   </si>
   <si>
-    <t>护盾 · 十阶</t>
+    <t>护盾·十阶</t>
   </si>
   <si>
     <t>51200,100</t>
   </si>
   <si>
-    <t>神符 · 一阶</t>
+    <t>神符·一阶</t>
   </si>
   <si>
     <t>7,8,14,18,20</t>
@@ -6255,61 +6255,61 @@
     <t>1,1,10,10,10</t>
   </si>
   <si>
-    <t>神符 · 二阶</t>
+    <t>神符·二阶</t>
   </si>
   <si>
     <t>2,2,20,20,20</t>
   </si>
   <si>
-    <t>神符 · 三阶</t>
+    <t>神符·三阶</t>
   </si>
   <si>
     <t>3,3,30,30,30</t>
   </si>
   <si>
-    <t>神符 · 四阶</t>
+    <t>神符·四阶</t>
   </si>
   <si>
     <t>4,4,40,40,40</t>
   </si>
   <si>
-    <t>神符 · 五阶</t>
+    <t>神符·五阶</t>
   </si>
   <si>
     <t>5,5,50,50,50</t>
   </si>
   <si>
-    <t>神符 · 六阶</t>
+    <t>神符·六阶</t>
   </si>
   <si>
     <t>6,6,60,60,60</t>
   </si>
   <si>
-    <t>神符 · 七阶</t>
+    <t>神符·七阶</t>
   </si>
   <si>
     <t>7,7,70,70,70</t>
   </si>
   <si>
-    <t>神符 · 八阶</t>
+    <t>神符·八阶</t>
   </si>
   <si>
     <t>8,8,80,80,80</t>
   </si>
   <si>
-    <t>神符 · 九阶</t>
+    <t>神符·九阶</t>
   </si>
   <si>
     <t>9,9,90,90,90</t>
   </si>
   <si>
-    <t>神符 · 十阶</t>
+    <t>神符·十阶</t>
   </si>
   <si>
     <t>10,10,100,100,100</t>
   </si>
   <si>
-    <t>魔石 · 一阶</t>
+    <t>魔石·一阶</t>
   </si>
   <si>
     <t>21,22</t>
@@ -6318,55 +6318,55 @@
     <t>10,1</t>
   </si>
   <si>
-    <t>魔石 · 二阶</t>
+    <t>魔石·二阶</t>
   </si>
   <si>
     <t>20,1</t>
   </si>
   <si>
-    <t>魔石 · 三阶</t>
+    <t>魔石·三阶</t>
   </si>
   <si>
     <t>40,1</t>
   </si>
   <si>
-    <t>魔石 · 四阶</t>
+    <t>魔石·四阶</t>
   </si>
   <si>
     <t>80,1</t>
   </si>
   <si>
-    <t>魔石 · 五阶</t>
+    <t>魔石·五阶</t>
   </si>
   <si>
     <t>160,1</t>
   </si>
   <si>
-    <t>魔石 · 六阶</t>
+    <t>魔石·六阶</t>
   </si>
   <si>
     <t>320,2</t>
   </si>
   <si>
-    <t>魔石 · 七阶</t>
+    <t>魔石·七阶</t>
   </si>
   <si>
     <t>640,2</t>
   </si>
   <si>
-    <t>魔石 · 八阶</t>
+    <t>魔石·八阶</t>
   </si>
   <si>
     <t>1280,2</t>
   </si>
   <si>
-    <t>魔石 · 九阶</t>
+    <t>魔石·九阶</t>
   </si>
   <si>
     <t>2560,2</t>
   </si>
   <si>
-    <t>魔石 · 十阶</t>
+    <t>魔石·十阶</t>
   </si>
   <si>
     <t>5120,2</t>
@@ -34438,8 +34438,8 @@
   <sheetPr/>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -34438,8 +34438,8 @@
   <sheetPr/>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -34588,7 +34588,7 @@
         <v>-1</v>
       </c>
       <c r="K6">
-        <v>10011</v>
+        <v>-1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -34620,7 +34620,7 @@
         <v>-1</v>
       </c>
       <c r="K7">
-        <v>10011</v>
+        <v>-1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -34652,7 +34652,7 @@
         <v>-1</v>
       </c>
       <c r="K8">
-        <v>10011</v>
+        <v>-1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -34684,7 +34684,7 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>10011</v>
+        <v>-1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -34716,7 +34716,7 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>20011</v>
+        <v>-1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -34748,7 +34748,7 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>20011</v>
+        <v>-1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -34780,7 +34780,7 @@
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>20011</v>
+        <v>-1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -34812,7 +34812,7 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>20011</v>
+        <v>-1</v>
       </c>
       <c r="L13">
         <v>1</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -7110,76 +7110,76 @@
     <t>魔石一阶</t>
   </si>
   <si>
-    <t>22,23</t>
-  </si>
-  <si>
-    <t>100,1</t>
+    <t>22,23,15</t>
+  </si>
+  <si>
+    <t>100,1,10</t>
   </si>
   <si>
     <t>魔石二阶</t>
   </si>
   <si>
-    <t>200,1</t>
+    <t>200,1,20</t>
   </si>
   <si>
     <t>魔石三阶</t>
   </si>
   <si>
-    <t>400,1</t>
+    <t>400,1,30</t>
   </si>
   <si>
     <t>魔石四阶</t>
   </si>
   <si>
-    <t>800,1</t>
+    <t>800,1,40</t>
   </si>
   <si>
     <t>魔石五阶</t>
   </si>
   <si>
-    <t>1600,1</t>
+    <t>1600,1,50</t>
   </si>
   <si>
     <t>魔石六阶</t>
   </si>
   <si>
-    <t>3200,2</t>
+    <t>3200,2,60</t>
   </si>
   <si>
     <t>魔石七阶</t>
   </si>
   <si>
-    <t>6400,2</t>
+    <t>6400,2,70</t>
   </si>
   <si>
     <t>魔石八阶</t>
   </si>
   <si>
-    <t>12800,2</t>
+    <t>12800,2,80</t>
   </si>
   <si>
     <t>魔石九阶</t>
   </si>
   <si>
-    <t>25600,2</t>
+    <t>25600,2,90</t>
   </si>
   <si>
     <t>魔石十阶</t>
   </si>
   <si>
-    <t>51200,2</t>
+    <t>51200,2,100</t>
   </si>
   <si>
     <t>魔石十一阶</t>
   </si>
   <si>
-    <t>75000,2</t>
+    <t>75000,2,110</t>
   </si>
   <si>
     <t>魔石十二阶</t>
   </si>
   <si>
-    <t>100000,2</t>
+    <t>100000,2,120</t>
   </si>
   <si>
     <t>十年魂环</t>
@@ -47756,7 +47756,7 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -7222,7 +7222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -7251,6 +7251,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -7264,6 +7292,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7303,21 +7339,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7368,28 +7389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7427,13 +7427,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7451,19 +7493,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7487,18 +7541,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7511,31 +7553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7559,19 +7577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7595,12 +7601,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7618,6 +7618,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7650,21 +7665,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7721,148 +7721,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7891,52 +7891,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -8209,7 +8209,7 @@
   <sheetPr/>
   <dimension ref="A1:O965"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -47739,8 +47739,8 @@
   <sheetPr/>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -47895,7 +47895,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>2233</v>
@@ -47936,7 +47936,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>2236</v>
@@ -47977,7 +47977,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>2237</v>
@@ -48018,7 +48018,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>2239</v>
@@ -48059,7 +48059,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>2241</v>
@@ -48100,7 +48100,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>2242</v>
@@ -48141,7 +48141,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>2243</v>
@@ -48182,7 +48182,7 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>2244</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -808,10 +808,10 @@
     <t>幻檀战刃</t>
   </si>
   <si>
-    <t>10467300</t>
-  </si>
-  <si>
-    <t>34891000</t>
+    <t>9102000</t>
+  </si>
+  <si>
+    <t>30339998</t>
   </si>
   <si>
     <t>21004101</t>
@@ -823,10 +823,10 @@
     <t>幻荒战刃</t>
   </si>
   <si>
-    <t>13116600</t>
-  </si>
-  <si>
-    <t>43722000</t>
+    <t>10281600</t>
+  </si>
+  <si>
+    <t>34272000</t>
   </si>
   <si>
     <t>21004201</t>
@@ -838,10 +838,10 @@
     <t>幻魂战刃</t>
   </si>
   <si>
-    <t>15944400</t>
-  </si>
-  <si>
-    <t>53148000</t>
+    <t>11532600</t>
+  </si>
+  <si>
+    <t>38442000</t>
   </si>
   <si>
     <t>21004301</t>
@@ -853,10 +853,10 @@
     <t>幻月战刃</t>
   </si>
   <si>
-    <t>18955200</t>
-  </si>
-  <si>
-    <t>63184000</t>
+    <t>12856800</t>
+  </si>
+  <si>
+    <t>42856000</t>
   </si>
   <si>
     <t>21004401</t>
@@ -868,10 +868,10 @@
     <t>幻风战刃</t>
   </si>
   <si>
-    <t>22153500</t>
-  </si>
-  <si>
-    <t>73845000</t>
+    <t>14256000</t>
+  </si>
+  <si>
+    <t>47520000</t>
   </si>
   <si>
     <t>21000002</t>
@@ -1243,7 +1243,7 @@
     <t>幻檀战甲</t>
   </si>
   <si>
-    <t>69782000,3489100</t>
+    <t>60679996,3034000</t>
   </si>
   <si>
     <t>21004102</t>
@@ -1252,7 +1252,7 @@
     <t>幻荒战甲</t>
   </si>
   <si>
-    <t>87444000,4372200</t>
+    <t>68544000,3427200</t>
   </si>
   <si>
     <t>21004202</t>
@@ -1261,7 +1261,7 @@
     <t>幻魂战甲</t>
   </si>
   <si>
-    <t>106296000,5314800</t>
+    <t>76884000,3844200</t>
   </si>
   <si>
     <t>21004302</t>
@@ -1270,7 +1270,7 @@
     <t>幻月战甲</t>
   </si>
   <si>
-    <t>126368000,6318400</t>
+    <t>85712000,4285600</t>
   </si>
   <si>
     <t>21004402</t>
@@ -1279,7 +1279,7 @@
     <t>幻风战甲</t>
   </si>
   <si>
-    <t>147690000,7384500</t>
+    <t>95040000,4752000</t>
   </si>
   <si>
     <t>21000003</t>
@@ -1762,10 +1762,10 @@
     <t>幻檀战链</t>
   </si>
   <si>
-    <t>34891000,3489100</t>
-  </si>
-  <si>
-    <t>17445500</t>
+    <t>30339998,3034000</t>
+  </si>
+  <si>
+    <t>15169999</t>
   </si>
   <si>
     <t>21004103</t>
@@ -1774,10 +1774,10 @@
     <t>幻荒战链</t>
   </si>
   <si>
-    <t>43722000,4372200</t>
-  </si>
-  <si>
-    <t>21861000</t>
+    <t>34272000,3427200</t>
+  </si>
+  <si>
+    <t>17136000</t>
   </si>
   <si>
     <t>21004203</t>
@@ -1786,10 +1786,10 @@
     <t>幻魂战链</t>
   </si>
   <si>
-    <t>53148000,5314800</t>
-  </si>
-  <si>
-    <t>26574000</t>
+    <t>38442000,3844200</t>
+  </si>
+  <si>
+    <t>19221000</t>
   </si>
   <si>
     <t>21004303</t>
@@ -1798,10 +1798,10 @@
     <t>幻月战链</t>
   </si>
   <si>
-    <t>63184000,6318400</t>
-  </si>
-  <si>
-    <t>31592000</t>
+    <t>42856000,4285600</t>
+  </si>
+  <si>
+    <t>21428000</t>
   </si>
   <si>
     <t>21004403</t>
@@ -1810,10 +1810,10 @@
     <t>幻风战链</t>
   </si>
   <si>
-    <t>73845000,7384500</t>
-  </si>
-  <si>
-    <t>36922500</t>
+    <t>47520000,4752000</t>
+  </si>
+  <si>
+    <t>23760000</t>
   </si>
   <si>
     <t>21000004</t>
@@ -3013,7 +3013,7 @@
     <t>幻檀战带</t>
   </si>
   <si>
-    <t>34891000,3489100,3489100</t>
+    <t>30339998,3034000,3034000</t>
   </si>
   <si>
     <t>21004109</t>
@@ -3022,7 +3022,7 @@
     <t>幻荒战带</t>
   </si>
   <si>
-    <t>43722000,4372200,4372200</t>
+    <t>34272000,3427200,3427200</t>
   </si>
   <si>
     <t>21004209</t>
@@ -3031,7 +3031,7 @@
     <t>幻魂战带</t>
   </si>
   <si>
-    <t>53148000,5314800,5314800</t>
+    <t>38442000,3844200,3844200</t>
   </si>
   <si>
     <t>21004309</t>
@@ -3040,7 +3040,7 @@
     <t>幻月战带</t>
   </si>
   <si>
-    <t>63184000,6318400,6318400</t>
+    <t>42856000,4285600,4285600</t>
   </si>
   <si>
     <t>21004409</t>
@@ -3049,7 +3049,7 @@
     <t>幻风战带</t>
   </si>
   <si>
-    <t>73845000,7384500,7384500</t>
+    <t>47520000,4752000,4752000</t>
   </si>
   <si>
     <t>21000010</t>
@@ -8220,12 +8220,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -9035,7 +9035,7 @@
   <dimension ref="A1:O1085"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="C3:O1085"/>
+      <selection activeCell="E4" sqref="C3:O1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -9856,7 +9856,7 @@
   <sheetPr/>
   <dimension ref="A1:O1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F20" sqref="C3:O1205"/>
     </sheetView>
   </sheetViews>
@@ -59226,8 +59226,8 @@
   <sheetPr/>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59415,7 +59415,7 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
@@ -59456,7 +59456,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
@@ -59497,7 +59497,7 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
@@ -59538,7 +59538,7 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
@@ -59579,7 +59579,7 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
@@ -59620,7 +59620,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
@@ -59661,7 +59661,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
@@ -59702,7 +59702,7 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17449" uniqueCount="3187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17461" uniqueCount="3196">
   <si>
     <t>_id</t>
   </si>
@@ -9340,148 +9340,163 @@
     <t>斗笠一阶</t>
   </si>
   <si>
-    <t>2,3,4,12</t>
-  </si>
-  <si>
-    <t>100,100,100,10</t>
+    <t>26,27,28,12</t>
+  </si>
+  <si>
+    <t>10,10,10,10</t>
   </si>
   <si>
     <t>斗笠二阶</t>
   </si>
   <si>
-    <t>200,200,200,20</t>
+    <t>20,20,20,20</t>
   </si>
   <si>
     <t>斗笠三阶</t>
   </si>
   <si>
-    <t>400,400,400,30</t>
+    <t>30,30,30,30</t>
   </si>
   <si>
     <t>斗笠四阶</t>
   </si>
   <si>
-    <t>800,800,800,40</t>
+    <t>40,40,40,40</t>
   </si>
   <si>
     <t>斗笠五阶</t>
   </si>
   <si>
-    <t>1600,1600,1600,50</t>
+    <t>50,50,50,50</t>
   </si>
   <si>
     <t>斗笠六阶</t>
   </si>
   <si>
-    <t>3200,3200,3200,60</t>
+    <t>60,60,60,60</t>
   </si>
   <si>
     <t>斗笠七阶</t>
   </si>
   <si>
-    <t>6400,6400,6400,70</t>
+    <t>70,70,70,70</t>
   </si>
   <si>
     <t>斗笠八阶</t>
   </si>
   <si>
-    <t>12800,12800,12800,80</t>
+    <t>80,80,80,80</t>
   </si>
   <si>
     <t>斗笠九阶</t>
   </si>
   <si>
-    <t>25600,25600,25600,90</t>
+    <t>90,90,90,90</t>
   </si>
   <si>
     <t>斗笠十阶</t>
   </si>
   <si>
-    <t>51200,51200,51200,100</t>
+    <t>100,100,100,100</t>
   </si>
   <si>
     <t>斗笠十一阶</t>
   </si>
   <si>
-    <t>75000,75000,75000,110</t>
+    <t>110,110,110,110</t>
   </si>
   <si>
     <t>斗笠十二阶</t>
   </si>
   <si>
-    <t>100000,100000,100000,120</t>
+    <t>120,120,120,120</t>
+  </si>
+  <si>
+    <t>斗笠十三阶</t>
+  </si>
+  <si>
+    <t>140,140,140,140</t>
   </si>
   <si>
     <t>护盾一阶</t>
   </si>
   <si>
-    <t>5,13</t>
-  </si>
-  <si>
-    <t>100,10</t>
+    <t>16,13</t>
+  </si>
+  <si>
+    <t>10,10</t>
   </si>
   <si>
     <t>护盾二阶</t>
   </si>
   <si>
+    <t>20,20</t>
+  </si>
+  <si>
     <t>护盾三阶</t>
   </si>
   <si>
-    <t>400,30</t>
+    <t>30,30</t>
   </si>
   <si>
     <t>护盾四阶</t>
   </si>
   <si>
-    <t>800,40</t>
+    <t>40,40</t>
   </si>
   <si>
     <t>护盾五阶</t>
   </si>
   <si>
-    <t>1600,50</t>
+    <t>50,50</t>
   </si>
   <si>
     <t>护盾六阶</t>
   </si>
   <si>
-    <t>3200,60</t>
+    <t>60,60</t>
   </si>
   <si>
     <t>护盾七阶</t>
   </si>
   <si>
-    <t>6400,70</t>
+    <t>70,70</t>
   </si>
   <si>
     <t>护盾八阶</t>
   </si>
   <si>
-    <t>12800,80</t>
+    <t>80,80</t>
   </si>
   <si>
     <t>护盾九阶</t>
   </si>
   <si>
-    <t>25600,90</t>
+    <t>90,90</t>
   </si>
   <si>
     <t>护盾十阶</t>
   </si>
   <si>
-    <t>51200,100</t>
+    <t>100,100</t>
   </si>
   <si>
     <t>护盾十一阶</t>
   </si>
   <si>
-    <t>75000,110</t>
+    <t>110,110</t>
   </si>
   <si>
     <t>护盾十二阶</t>
   </si>
   <si>
-    <t>100000,120</t>
+    <t>120,120</t>
+  </si>
+  <si>
+    <t>护盾十三阶</t>
+  </si>
+  <si>
+    <t>140,140</t>
   </si>
   <si>
     <t>神符一阶</t>
@@ -9559,79 +9574,91 @@
     <t>12,12,120,120,120</t>
   </si>
   <si>
+    <t>神符十三阶</t>
+  </si>
+  <si>
+    <t>14,14,140,140,140</t>
+  </si>
+  <si>
     <t>魔石一阶</t>
   </si>
   <si>
-    <t>22,23,15</t>
-  </si>
-  <si>
-    <t>100,1,10</t>
+    <t>10,15,23</t>
+  </si>
+  <si>
+    <t>1,10,1</t>
   </si>
   <si>
     <t>魔石二阶</t>
   </si>
   <si>
-    <t>200,1,20</t>
+    <t>2,20,1</t>
   </si>
   <si>
     <t>魔石三阶</t>
   </si>
   <si>
-    <t>400,1,30</t>
+    <t>3,30,1</t>
   </si>
   <si>
     <t>魔石四阶</t>
   </si>
   <si>
-    <t>800,1,40</t>
+    <t>4,40,1</t>
   </si>
   <si>
     <t>魔石五阶</t>
   </si>
   <si>
-    <t>1600,1,50</t>
+    <t>5,50,1</t>
   </si>
   <si>
     <t>魔石六阶</t>
   </si>
   <si>
-    <t>3200,2,60</t>
+    <t>6,60,2</t>
   </si>
   <si>
     <t>魔石七阶</t>
   </si>
   <si>
-    <t>6400,2,70</t>
+    <t>7,70,2</t>
   </si>
   <si>
     <t>魔石八阶</t>
   </si>
   <si>
-    <t>12800,2,80</t>
+    <t>8,80,2</t>
   </si>
   <si>
     <t>魔石九阶</t>
   </si>
   <si>
-    <t>25600,2,90</t>
+    <t>9,90,2</t>
   </si>
   <si>
     <t>魔石十阶</t>
   </si>
   <si>
-    <t>51200,2,100</t>
+    <t>10,100,2</t>
   </si>
   <si>
     <t>魔石十一阶</t>
   </si>
   <si>
-    <t>75000,2,110</t>
+    <t>11,110,3</t>
   </si>
   <si>
     <t>魔石十二阶</t>
   </si>
   <si>
-    <t>100000,2,120</t>
+    <t>12,120,3</t>
+  </si>
+  <si>
+    <t>魔石十三阶</t>
+  </si>
+  <si>
+    <t>14,140,3</t>
   </si>
   <si>
     <t>十年魂环</t>
@@ -9701,7 +9728,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9711,6 +9738,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -10208,158 +10249,172 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10681,21 +10736,21 @@
   <sheetPr/>
   <dimension ref="A1:O1325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1287" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A1287" workbookViewId="0">
       <selection activeCell="I1330" sqref="I1330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="4" customWidth="1"/>
     <col min="5" max="7" width="19.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.2916666666667" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.96666666666667" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.5916666666667" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.85" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="29" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.2916666666667" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.96666666666667" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.5916666666667" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9.85" style="10" customWidth="1"/>
     <col min="14" max="15" width="14.875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
@@ -10709,128 +10764,128 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
-      <c r="A4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -64969,10 +65024,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -64987,2820 +65042,2984 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="4:9">
-      <c r="D1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6"/>
+      <c r="D1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="4:9">
-      <c r="D2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A3" s="4"/>
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
-      <c r="A4" s="2"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A4" s="4"/>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="2"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C6">
+    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>3057</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>3058</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="17" t="s">
         <v>3059</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>-1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="8">
         <v>-1</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="8">
         <v>-1</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="8">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C7">
+    <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>3060</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>-1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>-1</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="8">
         <v>-1</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="8">
         <v>1</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C8">
+    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>3061</v>
       </c>
-      <c r="F8" t="s">
-        <v>466</v>
-      </c>
-      <c r="G8" t="s">
-        <v>466</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>3058</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="18" t="s">
         <v>3062</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>-1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>-1</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>-1</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C9">
+    <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>3063</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="18" t="s">
         <v>3064</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>-1</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="8">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="8">
         <v>-1</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="8">
         <v>-1</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="8">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C10">
+    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>3065</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="9" t="s">
         <v>3058</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="18" t="s">
         <v>3062</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>-1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="8">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>-1</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>-1</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="8">
         <v>1</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C11">
+    <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C11" s="8">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="9" t="s">
         <v>3066</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="18" t="s">
         <v>3064</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="8">
         <v>-1</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="8">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>-1</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="8">
         <v>-1</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="8">
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C12">
+    <row r="12" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C12" s="8">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="9" t="s">
         <v>3067</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="9" t="s">
         <v>3058</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="18" t="s">
         <v>3062</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8">
         <v>-1</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="8">
         <v>-1</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="8">
         <v>-1</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C13">
+    <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C13" s="8">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="9" t="s">
         <v>3068</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="18" t="s">
         <v>3064</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="8">
         <v>-1</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="8">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="8">
         <v>-1</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="8">
         <v>-1</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="8">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C14">
+    <row r="14" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C14" s="8">
         <v>101</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="9" t="s">
         <v>3069</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>11</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>11</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="18" t="s">
         <v>3071</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>-1</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="8">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="8">
         <v>-1</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="8">
         <v>-1</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="8">
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C15">
+    <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C15" s="8">
         <v>102</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="9" t="s">
         <v>3072</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>11</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="18" t="s">
         <v>3073</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="8">
         <v>-1</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="8">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="8">
         <v>-1</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="8">
         <v>-1</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="8">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C16">
+    <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C16" s="8">
         <v>103</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="9" t="s">
         <v>3074</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>11</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="8">
         <v>11</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="17" t="s">
         <v>3075</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="8">
         <v>-1</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="8">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="8">
         <v>-1</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="8">
         <v>-1</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="8">
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C17">
+    <row r="17" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C17" s="8">
         <v>104</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="9" t="s">
         <v>3076</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="8">
         <v>11</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="8">
         <v>11</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="17" t="s">
         <v>3077</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="8">
         <v>-1</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="8">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="8">
         <v>-1</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="8">
         <v>-1</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="8">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C18">
+    <row r="18" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C18" s="8">
         <v>105</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="9" t="s">
         <v>3078</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>11</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <v>11</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="17" t="s">
         <v>3079</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="8">
         <v>-1</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="8">
         <v>2</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="8">
         <v>-1</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="8">
         <v>-1</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="8">
         <v>1</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C19">
+    <row r="19" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C19" s="8">
         <v>106</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="9" t="s">
         <v>3080</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>11</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <v>11</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="17" t="s">
         <v>3081</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="8">
         <v>-1</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="8">
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="8">
         <v>-1</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="8">
         <v>-1</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="8">
         <v>1</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C20">
+    <row r="20" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C20" s="8">
         <v>107</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="9" t="s">
         <v>3082</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>11</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="8">
         <v>11</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="17" t="s">
         <v>3083</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="8">
         <v>-1</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="8">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="8">
         <v>-1</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="8">
         <v>-1</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="8">
         <v>1</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C21">
+    <row r="21" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C21" s="8">
         <v>108</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="9" t="s">
         <v>3084</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <v>11</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>11</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="17" t="s">
         <v>3085</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="8">
         <v>-1</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="8">
         <v>3</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="8">
         <v>-1</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="8">
         <v>-1</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="8">
         <v>1</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C22">
+    <row r="22" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C22" s="8">
         <v>109</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="9" t="s">
         <v>3086</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <v>11</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="8">
         <v>11</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="17" t="s">
         <v>3087</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="8">
         <v>-1</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="8">
         <v>3</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="8">
         <v>-1</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="8">
         <v>-1</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="8">
         <v>1</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C23">
+    <row r="23" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C23" s="8">
         <v>110</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="9" t="s">
         <v>3088</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <v>11</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <v>11</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="17" t="s">
         <v>3089</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="8">
         <v>-1</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="8">
         <v>4</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="8">
         <v>-1</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="8">
         <v>-1</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="8">
         <v>1</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C24">
+    <row r="24" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C24" s="8">
         <v>111</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="9" t="s">
         <v>3090</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <v>11</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>11</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="17" t="s">
         <v>3091</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="8">
         <v>-1</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="8">
         <v>4</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="8">
         <v>-1</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="8">
         <v>-1</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="8">
         <v>1</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C25">
+    <row r="25" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C25" s="8">
         <v>112</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="9" t="s">
         <v>3092</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="8">
         <v>11</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="8">
         <v>11</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="18" t="s">
         <v>3070</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="17" t="s">
         <v>3093</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="8">
         <v>-1</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="8">
         <v>4</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="8">
         <v>-1</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="8">
         <v>-1</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="8">
         <v>1</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C26">
+    <row r="26" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C26" s="8">
+        <v>113</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F26" s="8">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8">
+        <v>11</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>3070</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>3095</v>
+      </c>
+      <c r="J26" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>5</v>
+      </c>
+      <c r="L26" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C27" s="8">
         <v>201</v>
       </c>
-      <c r="D26">
+      <c r="D27" s="8">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>3094</v>
-      </c>
-      <c r="F26">
+      <c r="E27" s="9" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F27" s="8">
         <v>12</v>
       </c>
-      <c r="G26">
+      <c r="G27" s="8">
         <v>12</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>3096</v>
-      </c>
-      <c r="J26">
+      <c r="H27" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>3098</v>
+      </c>
+      <c r="J27" s="8">
         <v>-1</v>
       </c>
-      <c r="K26">
+      <c r="K27" s="8">
         <v>1</v>
       </c>
-      <c r="L26">
+      <c r="L27" s="8">
         <v>-1</v>
       </c>
-      <c r="M26">
+      <c r="M27" s="8">
         <v>-1</v>
       </c>
-      <c r="N26">
+      <c r="N27" s="8">
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="O27" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C27">
+    <row r="28" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C28" s="8">
         <v>202</v>
       </c>
-      <c r="D27">
+      <c r="D28" s="8">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" s="9" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F28" s="8">
+        <v>12</v>
+      </c>
+      <c r="G28" s="8">
+        <v>12</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>3097</v>
       </c>
-      <c r="F27">
+      <c r="I28" s="18" t="s">
+        <v>3100</v>
+      </c>
+      <c r="J28" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C29" s="8">
+        <v>203</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F29" s="8">
         <v>12</v>
       </c>
-      <c r="G27">
+      <c r="G29" s="8">
         <v>12</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="J27">
+      <c r="H29" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>3102</v>
+      </c>
+      <c r="J29" s="8">
         <v>-1</v>
       </c>
-      <c r="K27">
+      <c r="K29" s="8">
         <v>1</v>
       </c>
-      <c r="L27">
+      <c r="L29" s="8">
         <v>-1</v>
       </c>
-      <c r="M27">
+      <c r="M29" s="8">
         <v>-1</v>
       </c>
-      <c r="N27">
+      <c r="N29" s="8">
         <v>1</v>
       </c>
-      <c r="O27">
+      <c r="O29" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C28">
-        <v>203</v>
-      </c>
-      <c r="D28">
+    <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C30" s="8">
+        <v>204</v>
+      </c>
+      <c r="D30" s="8">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>3098</v>
-      </c>
-      <c r="F28">
+      <c r="E30" s="9" t="s">
+        <v>3103</v>
+      </c>
+      <c r="F30" s="8">
         <v>12</v>
       </c>
-      <c r="G28">
+      <c r="G30" s="8">
         <v>12</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>3099</v>
-      </c>
-      <c r="J28">
+      <c r="H30" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>3104</v>
+      </c>
+      <c r="J30" s="8">
         <v>-1</v>
       </c>
-      <c r="K28">
+      <c r="K30" s="8">
+        <v>2</v>
+      </c>
+      <c r="L30" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="8">
         <v>1</v>
       </c>
-      <c r="L28">
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C31" s="8">
+        <v>205</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>3105</v>
+      </c>
+      <c r="F31" s="8">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8">
+        <v>12</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>3106</v>
+      </c>
+      <c r="J31" s="8">
         <v>-1</v>
       </c>
-      <c r="M28">
+      <c r="K31" s="8">
+        <v>2</v>
+      </c>
+      <c r="L31" s="8">
         <v>-1</v>
       </c>
-      <c r="N28">
+      <c r="M31" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="8">
         <v>1</v>
       </c>
-      <c r="O28">
+      <c r="O31" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C29">
-        <v>204</v>
-      </c>
-      <c r="D29">
+    <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C32" s="8">
+        <v>206</v>
+      </c>
+      <c r="D32" s="8">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>3100</v>
-      </c>
-      <c r="F29">
+      <c r="E32" s="9" t="s">
+        <v>3107</v>
+      </c>
+      <c r="F32" s="8">
         <v>12</v>
       </c>
-      <c r="G29">
+      <c r="G32" s="8">
         <v>12</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>3101</v>
-      </c>
-      <c r="J29">
+      <c r="H32" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>3108</v>
+      </c>
+      <c r="J32" s="8">
         <v>-1</v>
       </c>
-      <c r="K29">
+      <c r="K32" s="8">
         <v>2</v>
       </c>
-      <c r="L29">
+      <c r="L32" s="8">
         <v>-1</v>
       </c>
-      <c r="M29">
+      <c r="M32" s="8">
         <v>-1</v>
       </c>
-      <c r="N29">
+      <c r="N32" s="8">
         <v>1</v>
       </c>
-      <c r="O29">
+      <c r="O32" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C30">
-        <v>205</v>
-      </c>
-      <c r="D30">
+    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C33" s="8">
+        <v>207</v>
+      </c>
+      <c r="D33" s="8">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F30">
+      <c r="E33" s="9" t="s">
+        <v>3109</v>
+      </c>
+      <c r="F33" s="8">
         <v>12</v>
       </c>
-      <c r="G30">
+      <c r="G33" s="8">
         <v>12</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>3103</v>
-      </c>
-      <c r="J30">
+      <c r="H33" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>3110</v>
+      </c>
+      <c r="J33" s="8">
         <v>-1</v>
       </c>
-      <c r="K30">
+      <c r="K33" s="8">
+        <v>3</v>
+      </c>
+      <c r="L33" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="8">
+        <v>1</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C34" s="8">
+        <v>208</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F34" s="8">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8">
+        <v>12</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>3112</v>
+      </c>
+      <c r="J34" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>3</v>
+      </c>
+      <c r="L34" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="8">
+        <v>1</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C35" s="8">
+        <v>209</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F35" s="8">
+        <v>12</v>
+      </c>
+      <c r="G35" s="8">
+        <v>12</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>3114</v>
+      </c>
+      <c r="J35" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>3</v>
+      </c>
+      <c r="L35" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>1</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C36" s="8">
+        <v>210</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F36" s="8">
+        <v>12</v>
+      </c>
+      <c r="G36" s="8">
+        <v>12</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>3116</v>
+      </c>
+      <c r="J36" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>4</v>
+      </c>
+      <c r="L36" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="8">
+        <v>1</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C37" s="8">
+        <v>211</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>3117</v>
+      </c>
+      <c r="F37" s="8">
+        <v>12</v>
+      </c>
+      <c r="G37" s="8">
+        <v>12</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>3118</v>
+      </c>
+      <c r="J37" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>4</v>
+      </c>
+      <c r="L37" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="8">
+        <v>1</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C38" s="8">
+        <v>212</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>3119</v>
+      </c>
+      <c r="F38" s="8">
+        <v>12</v>
+      </c>
+      <c r="G38" s="8">
+        <v>12</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>3120</v>
+      </c>
+      <c r="J38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>4</v>
+      </c>
+      <c r="L38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="8">
+        <v>1</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C39" s="8">
+        <v>213</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>3121</v>
+      </c>
+      <c r="F39" s="8">
+        <v>12</v>
+      </c>
+      <c r="G39" s="8">
+        <v>12</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>3122</v>
+      </c>
+      <c r="J39" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K39" s="8">
+        <v>4</v>
+      </c>
+      <c r="L39" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N39" s="8">
+        <v>1</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C40" s="8">
+        <v>301</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F40" s="8">
+        <v>13</v>
+      </c>
+      <c r="G40" s="8">
+        <v>13</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>3125</v>
+      </c>
+      <c r="J40" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="8">
+        <v>1</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C41" s="8">
+        <v>302</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F41" s="8">
+        <v>13</v>
+      </c>
+      <c r="G41" s="8">
+        <v>13</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>3127</v>
+      </c>
+      <c r="J41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N41" s="8">
+        <v>1</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C42" s="8">
+        <v>303</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F42" s="8">
+        <v>13</v>
+      </c>
+      <c r="G42" s="8">
+        <v>13</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>3129</v>
+      </c>
+      <c r="J42" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N42" s="8">
+        <v>1</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C43" s="8">
+        <v>304</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F43" s="8">
+        <v>13</v>
+      </c>
+      <c r="G43" s="8">
+        <v>13</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>3131</v>
+      </c>
+      <c r="J43" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="8">
         <v>2</v>
       </c>
-      <c r="L30">
+      <c r="L43" s="8">
         <v>-1</v>
       </c>
-      <c r="M30">
+      <c r="M43" s="8">
         <v>-1</v>
       </c>
-      <c r="N30">
+      <c r="N43" s="8">
         <v>1</v>
       </c>
-      <c r="O30">
+      <c r="O43" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C31">
-        <v>206</v>
-      </c>
-      <c r="D31">
+    <row r="44" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C44" s="8">
+        <v>305</v>
+      </c>
+      <c r="D44" s="8">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>3104</v>
-      </c>
-      <c r="F31">
-        <v>12</v>
-      </c>
-      <c r="G31">
-        <v>12</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>3105</v>
-      </c>
-      <c r="J31">
+      <c r="E44" s="9" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F44" s="8">
+        <v>13</v>
+      </c>
+      <c r="G44" s="8">
+        <v>13</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>3133</v>
+      </c>
+      <c r="J44" s="8">
         <v>-1</v>
       </c>
-      <c r="K31">
+      <c r="K44" s="8">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="L44" s="8">
         <v>-1</v>
       </c>
-      <c r="M31">
+      <c r="M44" s="8">
         <v>-1</v>
       </c>
-      <c r="N31">
+      <c r="N44" s="8">
         <v>1</v>
       </c>
-      <c r="O31">
+      <c r="O44" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C32">
-        <v>207</v>
-      </c>
-      <c r="D32">
+    <row r="45" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C45" s="8">
+        <v>306</v>
+      </c>
+      <c r="D45" s="8">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>3106</v>
-      </c>
-      <c r="F32">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>12</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>3107</v>
-      </c>
-      <c r="J32">
+      <c r="E45" s="9" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F45" s="8">
+        <v>13</v>
+      </c>
+      <c r="G45" s="8">
+        <v>13</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>3135</v>
+      </c>
+      <c r="J45" s="8">
         <v>-1</v>
       </c>
-      <c r="K32">
+      <c r="K45" s="8">
+        <v>2</v>
+      </c>
+      <c r="L45" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="8">
+        <v>1</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C46" s="8">
+        <v>307</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F46" s="8">
+        <v>13</v>
+      </c>
+      <c r="G46" s="8">
+        <v>13</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>3137</v>
+      </c>
+      <c r="J46" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="8">
         <v>3</v>
       </c>
-      <c r="L32">
+      <c r="L46" s="8">
         <v>-1</v>
       </c>
-      <c r="M32">
+      <c r="M46" s="8">
         <v>-1</v>
       </c>
-      <c r="N32">
+      <c r="N46" s="8">
         <v>1</v>
       </c>
-      <c r="O32">
+      <c r="O46" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C33">
-        <v>208</v>
-      </c>
-      <c r="D33">
+    <row r="47" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C47" s="8">
+        <v>308</v>
+      </c>
+      <c r="D47" s="8">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F33">
-        <v>12</v>
-      </c>
-      <c r="G33">
-        <v>12</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>3109</v>
-      </c>
-      <c r="J33">
+      <c r="E47" s="9" t="s">
+        <v>3138</v>
+      </c>
+      <c r="F47" s="8">
+        <v>13</v>
+      </c>
+      <c r="G47" s="8">
+        <v>13</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>3139</v>
+      </c>
+      <c r="J47" s="8">
         <v>-1</v>
       </c>
-      <c r="K33">
+      <c r="K47" s="8">
         <v>3</v>
       </c>
-      <c r="L33">
+      <c r="L47" s="8">
         <v>-1</v>
       </c>
-      <c r="M33">
+      <c r="M47" s="8">
         <v>-1</v>
       </c>
-      <c r="N33">
+      <c r="N47" s="8">
         <v>1</v>
       </c>
-      <c r="O33">
+      <c r="O47" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C34">
-        <v>209</v>
-      </c>
-      <c r="D34">
+    <row r="48" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C48" s="8">
+        <v>309</v>
+      </c>
+      <c r="D48" s="8">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>3110</v>
-      </c>
-      <c r="F34">
-        <v>12</v>
-      </c>
-      <c r="G34">
-        <v>12</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>3111</v>
-      </c>
-      <c r="J34">
+      <c r="E48" s="9" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F48" s="8">
+        <v>13</v>
+      </c>
+      <c r="G48" s="8">
+        <v>13</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>3141</v>
+      </c>
+      <c r="J48" s="8">
         <v>-1</v>
       </c>
-      <c r="K34">
+      <c r="K48" s="8">
         <v>3</v>
       </c>
-      <c r="L34">
+      <c r="L48" s="8">
         <v>-1</v>
       </c>
-      <c r="M34">
+      <c r="M48" s="8">
         <v>-1</v>
       </c>
-      <c r="N34">
+      <c r="N48" s="8">
         <v>1</v>
       </c>
-      <c r="O34">
+      <c r="O48" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C35">
-        <v>210</v>
-      </c>
-      <c r="D35">
+    <row r="49" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C49" s="8">
+        <v>310</v>
+      </c>
+      <c r="D49" s="8">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>3112</v>
-      </c>
-      <c r="F35">
-        <v>12</v>
-      </c>
-      <c r="G35">
-        <v>12</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>3113</v>
-      </c>
-      <c r="J35">
+      <c r="E49" s="9" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F49" s="8">
+        <v>13</v>
+      </c>
+      <c r="G49" s="8">
+        <v>13</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>3143</v>
+      </c>
+      <c r="J49" s="8">
         <v>-1</v>
       </c>
-      <c r="K35">
+      <c r="K49" s="8">
         <v>4</v>
       </c>
-      <c r="L35">
+      <c r="L49" s="8">
         <v>-1</v>
       </c>
-      <c r="M35">
+      <c r="M49" s="8">
         <v>-1</v>
       </c>
-      <c r="N35">
+      <c r="N49" s="8">
         <v>1</v>
       </c>
-      <c r="O35">
+      <c r="O49" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C36">
-        <v>211</v>
-      </c>
-      <c r="D36">
+    <row r="50" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C50" s="8">
+        <v>311</v>
+      </c>
+      <c r="D50" s="8">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
-        <v>3114</v>
-      </c>
-      <c r="F36">
-        <v>12</v>
-      </c>
-      <c r="G36">
-        <v>12</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>3115</v>
-      </c>
-      <c r="J36">
+      <c r="E50" s="9" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F50" s="8">
+        <v>13</v>
+      </c>
+      <c r="G50" s="8">
+        <v>13</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>3145</v>
+      </c>
+      <c r="J50" s="8">
         <v>-1</v>
       </c>
-      <c r="K36">
+      <c r="K50" s="8">
         <v>4</v>
       </c>
-      <c r="L36">
+      <c r="L50" s="8">
         <v>-1</v>
       </c>
-      <c r="M36">
+      <c r="M50" s="8">
         <v>-1</v>
       </c>
-      <c r="N36">
+      <c r="N50" s="8">
         <v>1</v>
       </c>
-      <c r="O36">
+      <c r="O50" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C37">
-        <v>212</v>
-      </c>
-      <c r="D37">
+    <row r="51" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C51" s="8">
+        <v>312</v>
+      </c>
+      <c r="D51" s="8">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>3116</v>
-      </c>
-      <c r="F37">
-        <v>12</v>
-      </c>
-      <c r="G37">
-        <v>12</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>3095</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>3117</v>
-      </c>
-      <c r="J37">
+      <c r="E51" s="9" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F51" s="8">
+        <v>13</v>
+      </c>
+      <c r="G51" s="8">
+        <v>13</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>3147</v>
+      </c>
+      <c r="J51" s="8">
         <v>-1</v>
       </c>
-      <c r="K37">
+      <c r="K51" s="8">
         <v>4</v>
       </c>
-      <c r="L37">
+      <c r="L51" s="8">
         <v>-1</v>
       </c>
-      <c r="M37">
+      <c r="M51" s="8">
         <v>-1</v>
       </c>
-      <c r="N37">
+      <c r="N51" s="8">
         <v>1</v>
       </c>
-      <c r="O37">
+      <c r="O51" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C38">
-        <v>301</v>
-      </c>
-      <c r="D38">
+    <row r="52" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C52" s="8">
+        <v>313</v>
+      </c>
+      <c r="D52" s="8">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>3118</v>
-      </c>
-      <c r="F38">
+      <c r="E52" s="9" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F52" s="8">
         <v>13</v>
       </c>
-      <c r="G38">
+      <c r="G52" s="8">
         <v>13</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>3120</v>
-      </c>
-      <c r="J38">
+      <c r="H52" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>3149</v>
+      </c>
+      <c r="J52" s="8">
         <v>-1</v>
       </c>
-      <c r="K38">
+      <c r="K52" s="8">
+        <v>5</v>
+      </c>
+      <c r="L52" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N52" s="8">
         <v>1</v>
       </c>
-      <c r="L38">
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C53" s="8">
+        <v>401</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F53" s="8">
+        <v>14</v>
+      </c>
+      <c r="G53" s="8">
+        <v>14</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>3152</v>
+      </c>
+      <c r="J53" s="8">
         <v>-1</v>
       </c>
-      <c r="M38">
+      <c r="K53" s="8">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8">
         <v>-1</v>
       </c>
-      <c r="N38">
+      <c r="M53" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N53" s="8">
         <v>1</v>
       </c>
-      <c r="O38">
+      <c r="O53" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C39">
-        <v>302</v>
-      </c>
-      <c r="D39">
+    <row r="54" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C54" s="8">
+        <v>402</v>
+      </c>
+      <c r="D54" s="8">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
-        <v>3121</v>
-      </c>
-      <c r="F39">
-        <v>13</v>
-      </c>
-      <c r="G39">
-        <v>13</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>3122</v>
-      </c>
-      <c r="J39">
+      <c r="E54" s="9" t="s">
+        <v>3153</v>
+      </c>
+      <c r="F54" s="8">
+        <v>14</v>
+      </c>
+      <c r="G54" s="8">
+        <v>14</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>3154</v>
+      </c>
+      <c r="J54" s="8">
         <v>-1</v>
       </c>
-      <c r="K39">
+      <c r="K54" s="8">
         <v>1</v>
       </c>
-      <c r="L39">
+      <c r="L54" s="8">
         <v>-1</v>
       </c>
-      <c r="M39">
+      <c r="M54" s="8">
         <v>-1</v>
       </c>
-      <c r="N39">
+      <c r="N54" s="8">
         <v>1</v>
       </c>
-      <c r="O39">
+      <c r="O54" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C40">
-        <v>303</v>
-      </c>
-      <c r="D40">
+    <row r="55" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C55" s="8">
+        <v>403</v>
+      </c>
+      <c r="D55" s="8">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
-        <v>3123</v>
-      </c>
-      <c r="F40">
-        <v>13</v>
-      </c>
-      <c r="G40">
-        <v>13</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>3124</v>
-      </c>
-      <c r="J40">
+      <c r="E55" s="9" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F55" s="8">
+        <v>14</v>
+      </c>
+      <c r="G55" s="8">
+        <v>14</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>3156</v>
+      </c>
+      <c r="J55" s="8">
         <v>-1</v>
       </c>
-      <c r="K40">
+      <c r="K55" s="8">
         <v>1</v>
       </c>
-      <c r="L40">
+      <c r="L55" s="8">
         <v>-1</v>
       </c>
-      <c r="M40">
+      <c r="M55" s="8">
         <v>-1</v>
       </c>
-      <c r="N40">
+      <c r="N55" s="8">
         <v>1</v>
       </c>
-      <c r="O40">
+      <c r="O55" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C41">
-        <v>304</v>
-      </c>
-      <c r="D41">
+    <row r="56" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C56" s="8">
+        <v>404</v>
+      </c>
+      <c r="D56" s="8">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>3125</v>
-      </c>
-      <c r="F41">
-        <v>13</v>
-      </c>
-      <c r="G41">
-        <v>13</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>3126</v>
-      </c>
-      <c r="J41">
+      <c r="E56" s="9" t="s">
+        <v>3157</v>
+      </c>
+      <c r="F56" s="8">
+        <v>14</v>
+      </c>
+      <c r="G56" s="8">
+        <v>14</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>3158</v>
+      </c>
+      <c r="J56" s="8">
         <v>-1</v>
       </c>
-      <c r="K41">
+      <c r="K56" s="8">
         <v>2</v>
       </c>
-      <c r="L41">
+      <c r="L56" s="8">
         <v>-1</v>
       </c>
-      <c r="M41">
+      <c r="M56" s="8">
         <v>-1</v>
       </c>
-      <c r="N41">
+      <c r="N56" s="8">
         <v>1</v>
       </c>
-      <c r="O41">
+      <c r="O56" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:15">
-      <c r="C42">
-        <v>305</v>
-      </c>
-      <c r="D42">
+    <row r="57" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C57" s="8">
+        <v>405</v>
+      </c>
+      <c r="D57" s="8">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>3127</v>
-      </c>
-      <c r="F42">
-        <v>13</v>
-      </c>
-      <c r="G42">
-        <v>13</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>3128</v>
-      </c>
-      <c r="J42">
+      <c r="E57" s="9" t="s">
+        <v>3159</v>
+      </c>
+      <c r="F57" s="8">
+        <v>14</v>
+      </c>
+      <c r="G57" s="8">
+        <v>14</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>3160</v>
+      </c>
+      <c r="J57" s="8">
         <v>-1</v>
       </c>
-      <c r="K42">
+      <c r="K57" s="8">
         <v>2</v>
       </c>
-      <c r="L42">
+      <c r="L57" s="8">
         <v>-1</v>
       </c>
-      <c r="M42">
+      <c r="M57" s="8">
         <v>-1</v>
       </c>
-      <c r="N42">
+      <c r="N57" s="8">
         <v>1</v>
       </c>
-      <c r="O42">
+      <c r="O57" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:15">
-      <c r="C43">
-        <v>306</v>
-      </c>
-      <c r="D43">
+    <row r="58" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C58" s="8">
+        <v>406</v>
+      </c>
+      <c r="D58" s="8">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
-        <v>3129</v>
-      </c>
-      <c r="F43">
-        <v>13</v>
-      </c>
-      <c r="G43">
-        <v>13</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>3130</v>
-      </c>
-      <c r="J43">
+      <c r="E58" s="9" t="s">
+        <v>3161</v>
+      </c>
+      <c r="F58" s="8">
+        <v>14</v>
+      </c>
+      <c r="G58" s="8">
+        <v>14</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>3162</v>
+      </c>
+      <c r="J58" s="8">
         <v>-1</v>
       </c>
-      <c r="K43">
+      <c r="K58" s="8">
         <v>2</v>
       </c>
-      <c r="L43">
+      <c r="L58" s="8">
         <v>-1</v>
       </c>
-      <c r="M43">
+      <c r="M58" s="8">
         <v>-1</v>
       </c>
-      <c r="N43">
+      <c r="N58" s="8">
         <v>1</v>
       </c>
-      <c r="O43">
+      <c r="O58" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:15">
-      <c r="C44">
-        <v>307</v>
-      </c>
-      <c r="D44">
+    <row r="59" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C59" s="8">
+        <v>407</v>
+      </c>
+      <c r="D59" s="8">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
-        <v>3131</v>
-      </c>
-      <c r="F44">
-        <v>13</v>
-      </c>
-      <c r="G44">
-        <v>13</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>3132</v>
-      </c>
-      <c r="J44">
+      <c r="E59" s="9" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F59" s="8">
+        <v>14</v>
+      </c>
+      <c r="G59" s="8">
+        <v>14</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>3164</v>
+      </c>
+      <c r="J59" s="8">
         <v>-1</v>
       </c>
-      <c r="K44">
+      <c r="K59" s="8">
         <v>3</v>
       </c>
-      <c r="L44">
+      <c r="L59" s="8">
         <v>-1</v>
       </c>
-      <c r="M44">
+      <c r="M59" s="8">
         <v>-1</v>
       </c>
-      <c r="N44">
+      <c r="N59" s="8">
         <v>1</v>
       </c>
-      <c r="O44">
+      <c r="O59" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:15">
-      <c r="C45">
-        <v>308</v>
-      </c>
-      <c r="D45">
+    <row r="60" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C60" s="8">
+        <v>408</v>
+      </c>
+      <c r="D60" s="8">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>3133</v>
-      </c>
-      <c r="F45">
-        <v>13</v>
-      </c>
-      <c r="G45">
-        <v>13</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>3134</v>
-      </c>
-      <c r="J45">
+      <c r="E60" s="9" t="s">
+        <v>3165</v>
+      </c>
+      <c r="F60" s="8">
+        <v>14</v>
+      </c>
+      <c r="G60" s="8">
+        <v>14</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>3166</v>
+      </c>
+      <c r="J60" s="8">
         <v>-1</v>
       </c>
-      <c r="K45">
+      <c r="K60" s="8">
         <v>3</v>
       </c>
-      <c r="L45">
+      <c r="L60" s="8">
         <v>-1</v>
       </c>
-      <c r="M45">
+      <c r="M60" s="8">
         <v>-1</v>
       </c>
-      <c r="N45">
+      <c r="N60" s="8">
         <v>1</v>
       </c>
-      <c r="O45">
+      <c r="O60" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:15">
-      <c r="C46">
-        <v>309</v>
-      </c>
-      <c r="D46">
+    <row r="61" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C61" s="8">
+        <v>409</v>
+      </c>
+      <c r="D61" s="8">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
-        <v>3135</v>
-      </c>
-      <c r="F46">
-        <v>13</v>
-      </c>
-      <c r="G46">
-        <v>13</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>3136</v>
-      </c>
-      <c r="J46">
+      <c r="E61" s="9" t="s">
+        <v>3167</v>
+      </c>
+      <c r="F61" s="8">
+        <v>14</v>
+      </c>
+      <c r="G61" s="8">
+        <v>14</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>3168</v>
+      </c>
+      <c r="J61" s="8">
         <v>-1</v>
       </c>
-      <c r="K46">
+      <c r="K61" s="8">
         <v>3</v>
       </c>
-      <c r="L46">
+      <c r="L61" s="8">
         <v>-1</v>
       </c>
-      <c r="M46">
+      <c r="M61" s="8">
         <v>-1</v>
       </c>
-      <c r="N46">
+      <c r="N61" s="8">
         <v>1</v>
       </c>
-      <c r="O46">
+      <c r="O61" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:15">
-      <c r="C47">
-        <v>310</v>
-      </c>
-      <c r="D47">
+    <row r="62" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C62" s="8">
+        <v>410</v>
+      </c>
+      <c r="D62" s="8">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>3137</v>
-      </c>
-      <c r="F47">
-        <v>13</v>
-      </c>
-      <c r="G47">
-        <v>13</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>3138</v>
-      </c>
-      <c r="J47">
+      <c r="E62" s="9" t="s">
+        <v>3169</v>
+      </c>
+      <c r="F62" s="8">
+        <v>14</v>
+      </c>
+      <c r="G62" s="8">
+        <v>14</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>3170</v>
+      </c>
+      <c r="J62" s="8">
         <v>-1</v>
       </c>
-      <c r="K47">
+      <c r="K62" s="8">
         <v>4</v>
       </c>
-      <c r="L47">
+      <c r="L62" s="8">
         <v>-1</v>
       </c>
-      <c r="M47">
+      <c r="M62" s="8">
         <v>-1</v>
       </c>
-      <c r="N47">
+      <c r="N62" s="8">
         <v>1</v>
       </c>
-      <c r="O47">
+      <c r="O62" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:15">
-      <c r="C48">
-        <v>311</v>
-      </c>
-      <c r="D48">
+    <row r="63" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C63" s="8">
+        <v>411</v>
+      </c>
+      <c r="D63" s="8">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
-        <v>3139</v>
-      </c>
-      <c r="F48">
-        <v>13</v>
-      </c>
-      <c r="G48">
-        <v>13</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>3140</v>
-      </c>
-      <c r="J48">
+      <c r="E63" s="9" t="s">
+        <v>3171</v>
+      </c>
+      <c r="F63" s="8">
+        <v>14</v>
+      </c>
+      <c r="G63" s="8">
+        <v>14</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>3172</v>
+      </c>
+      <c r="J63" s="8">
         <v>-1</v>
       </c>
-      <c r="K48">
+      <c r="K63" s="8">
         <v>4</v>
       </c>
-      <c r="L48">
+      <c r="L63" s="8">
         <v>-1</v>
       </c>
-      <c r="M48">
+      <c r="M63" s="8">
         <v>-1</v>
       </c>
-      <c r="N48">
+      <c r="N63" s="8">
         <v>1</v>
       </c>
-      <c r="O48">
+      <c r="O63" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:15">
-      <c r="C49">
-        <v>312</v>
-      </c>
-      <c r="D49">
+    <row r="64" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C64" s="8">
+        <v>412</v>
+      </c>
+      <c r="D64" s="8">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
-        <v>3141</v>
-      </c>
-      <c r="F49">
-        <v>13</v>
-      </c>
-      <c r="G49">
-        <v>13</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>3119</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>3142</v>
-      </c>
-      <c r="J49">
+      <c r="E64" s="9" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F64" s="8">
+        <v>14</v>
+      </c>
+      <c r="G64" s="8">
+        <v>14</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>3174</v>
+      </c>
+      <c r="J64" s="8">
         <v>-1</v>
       </c>
-      <c r="K49">
+      <c r="K64" s="8">
         <v>4</v>
       </c>
-      <c r="L49">
+      <c r="L64" s="8">
         <v>-1</v>
       </c>
-      <c r="M49">
+      <c r="M64" s="8">
         <v>-1</v>
       </c>
-      <c r="N49">
+      <c r="N64" s="8">
         <v>1</v>
       </c>
-      <c r="O49">
+      <c r="O64" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:15">
-      <c r="C50">
-        <v>401</v>
-      </c>
-      <c r="D50">
+    <row r="65" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C65" s="8">
+        <v>413</v>
+      </c>
+      <c r="D65" s="8">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
-        <v>3143</v>
-      </c>
-      <c r="F50">
+      <c r="E65" s="9" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F65" s="8">
         <v>14</v>
       </c>
-      <c r="G50">
+      <c r="G65" s="8">
         <v>14</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I50" t="s">
-        <v>3145</v>
-      </c>
-      <c r="J50">
+      <c r="H65" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>3176</v>
+      </c>
+      <c r="J65" s="8">
         <v>-1</v>
       </c>
-      <c r="K50">
+      <c r="K65" s="8">
+        <v>5</v>
+      </c>
+      <c r="L65" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M65" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N65" s="8">
         <v>1</v>
       </c>
-      <c r="L50">
+      <c r="O65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C66" s="8">
+        <v>501</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8">
+        <v>0</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>3179</v>
+      </c>
+      <c r="J66" s="8">
         <v>-1</v>
       </c>
-      <c r="M50">
+      <c r="K66" s="8">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8">
         <v>-1</v>
       </c>
-      <c r="N50">
+      <c r="M66" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N66" s="8">
         <v>1</v>
       </c>
-      <c r="O50">
+      <c r="O66" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:15">
-      <c r="C51">
-        <v>402</v>
-      </c>
-      <c r="D51">
+    <row r="67" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C67" s="8">
+        <v>502</v>
+      </c>
+      <c r="D67" s="8">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
-        <v>3146</v>
-      </c>
-      <c r="F51">
-        <v>14</v>
-      </c>
-      <c r="G51">
-        <v>14</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I51" t="s">
-        <v>3147</v>
-      </c>
-      <c r="J51">
+      <c r="E67" s="9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>3181</v>
+      </c>
+      <c r="J67" s="8">
         <v>-1</v>
       </c>
-      <c r="K51">
+      <c r="K67" s="8">
         <v>1</v>
       </c>
-      <c r="L51">
+      <c r="L67" s="8">
         <v>-1</v>
       </c>
-      <c r="M51">
+      <c r="M67" s="8">
         <v>-1</v>
       </c>
-      <c r="N51">
+      <c r="N67" s="8">
         <v>1</v>
       </c>
-      <c r="O51">
+      <c r="O67" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:15">
-      <c r="C52">
-        <v>403</v>
-      </c>
-      <c r="D52">
+    <row r="68" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C68" s="8">
+        <v>503</v>
+      </c>
+      <c r="D68" s="8">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>3148</v>
-      </c>
-      <c r="F52">
-        <v>14</v>
-      </c>
-      <c r="G52">
-        <v>14</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I52" t="s">
-        <v>3149</v>
-      </c>
-      <c r="J52">
+      <c r="E68" s="9" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0</v>
+      </c>
+      <c r="G68" s="8">
+        <v>0</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>3183</v>
+      </c>
+      <c r="J68" s="8">
         <v>-1</v>
       </c>
-      <c r="K52">
+      <c r="K68" s="8">
         <v>1</v>
       </c>
-      <c r="L52">
+      <c r="L68" s="8">
         <v>-1</v>
       </c>
-      <c r="M52">
+      <c r="M68" s="8">
         <v>-1</v>
       </c>
-      <c r="N52">
+      <c r="N68" s="8">
         <v>1</v>
       </c>
-      <c r="O52">
+      <c r="O68" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:15">
-      <c r="C53">
-        <v>404</v>
-      </c>
-      <c r="D53">
+    <row r="69" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C69" s="8">
+        <v>504</v>
+      </c>
+      <c r="D69" s="8">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
-        <v>3150</v>
-      </c>
-      <c r="F53">
-        <v>14</v>
-      </c>
-      <c r="G53">
-        <v>14</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I53" t="s">
-        <v>3151</v>
-      </c>
-      <c r="J53">
+      <c r="E69" s="9" t="s">
+        <v>3184</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8">
+        <v>0</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>3185</v>
+      </c>
+      <c r="J69" s="8">
         <v>-1</v>
       </c>
-      <c r="K53">
-        <v>2</v>
-      </c>
-      <c r="L53">
+      <c r="K69" s="8">
+        <v>1</v>
+      </c>
+      <c r="L69" s="8">
         <v>-1</v>
       </c>
-      <c r="M53">
+      <c r="M69" s="8">
         <v>-1</v>
       </c>
-      <c r="N53">
+      <c r="N69" s="8">
         <v>1</v>
       </c>
-      <c r="O53">
+      <c r="O69" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:15">
-      <c r="C54">
-        <v>405</v>
-      </c>
-      <c r="D54">
+    <row r="70" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C70" s="8">
+        <v>505</v>
+      </c>
+      <c r="D70" s="8">
         <v>0</v>
       </c>
-      <c r="E54" t="s">
-        <v>3152</v>
-      </c>
-      <c r="F54">
-        <v>14</v>
-      </c>
-      <c r="G54">
-        <v>14</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I54" t="s">
-        <v>3153</v>
-      </c>
-      <c r="J54">
+      <c r="E70" s="9" t="s">
+        <v>3186</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0</v>
+      </c>
+      <c r="G70" s="8">
+        <v>0</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>3187</v>
+      </c>
+      <c r="J70" s="8">
         <v>-1</v>
       </c>
-      <c r="K54">
-        <v>2</v>
-      </c>
-      <c r="L54">
+      <c r="K70" s="8">
+        <v>1</v>
+      </c>
+      <c r="L70" s="8">
         <v>-1</v>
       </c>
-      <c r="M54">
+      <c r="M70" s="8">
         <v>-1</v>
       </c>
-      <c r="N54">
+      <c r="N70" s="8">
         <v>1</v>
       </c>
-      <c r="O54">
+      <c r="O70" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:15">
-      <c r="C55">
-        <v>406</v>
-      </c>
-      <c r="D55">
+    <row r="71" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C71" s="8">
+        <v>506</v>
+      </c>
+      <c r="D71" s="8">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>3154</v>
-      </c>
-      <c r="F55">
-        <v>14</v>
-      </c>
-      <c r="G55">
-        <v>14</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I55" t="s">
-        <v>3155</v>
-      </c>
-      <c r="J55">
+      <c r="E71" s="9" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+      <c r="G71" s="8">
+        <v>0</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>3189</v>
+      </c>
+      <c r="J71" s="8">
         <v>-1</v>
       </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
+      <c r="K71" s="8">
+        <v>1</v>
+      </c>
+      <c r="L71" s="8">
         <v>-1</v>
       </c>
-      <c r="M55">
+      <c r="M71" s="8">
         <v>-1</v>
       </c>
-      <c r="N55">
+      <c r="N71" s="8">
         <v>1</v>
       </c>
-      <c r="O55">
+      <c r="O71" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:15">
-      <c r="C56">
-        <v>407</v>
-      </c>
-      <c r="D56">
+    <row r="72" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C72" s="8">
+        <v>507</v>
+      </c>
+      <c r="D72" s="8">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
-        <v>3156</v>
-      </c>
-      <c r="F56">
-        <v>14</v>
-      </c>
-      <c r="G56">
-        <v>14</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I56" t="s">
-        <v>3157</v>
-      </c>
-      <c r="J56">
+      <c r="E72" s="9" t="s">
+        <v>3190</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="8">
+        <v>0</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>3191</v>
+      </c>
+      <c r="J72" s="8">
         <v>-1</v>
       </c>
-      <c r="K56">
-        <v>3</v>
-      </c>
-      <c r="L56">
+      <c r="K72" s="8">
+        <v>1</v>
+      </c>
+      <c r="L72" s="8">
         <v>-1</v>
       </c>
-      <c r="M56">
+      <c r="M72" s="8">
         <v>-1</v>
       </c>
-      <c r="N56">
+      <c r="N72" s="8">
         <v>1</v>
       </c>
-      <c r="O56">
+      <c r="O72" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:15">
-      <c r="C57">
-        <v>408</v>
-      </c>
-      <c r="D57">
+    <row r="73" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C73" s="8">
+        <v>508</v>
+      </c>
+      <c r="D73" s="8">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
-        <v>3158</v>
-      </c>
-      <c r="F57">
-        <v>14</v>
-      </c>
-      <c r="G57">
-        <v>14</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I57" t="s">
-        <v>3159</v>
-      </c>
-      <c r="J57">
+      <c r="E73" s="9" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0</v>
+      </c>
+      <c r="G73" s="8">
+        <v>0</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>3193</v>
+      </c>
+      <c r="J73" s="8">
         <v>-1</v>
       </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
-      <c r="L57">
+      <c r="K73" s="8">
+        <v>1</v>
+      </c>
+      <c r="L73" s="8">
         <v>-1</v>
       </c>
-      <c r="M57">
+      <c r="M73" s="8">
         <v>-1</v>
       </c>
-      <c r="N57">
+      <c r="N73" s="8">
         <v>1</v>
       </c>
-      <c r="O57">
+      <c r="O73" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:15">
-      <c r="C58">
-        <v>409</v>
-      </c>
-      <c r="D58">
+    <row r="74" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C74" s="8">
+        <v>509</v>
+      </c>
+      <c r="D74" s="8">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
-        <v>3160</v>
-      </c>
-      <c r="F58">
-        <v>14</v>
-      </c>
-      <c r="G58">
-        <v>14</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I58" t="s">
-        <v>3161</v>
-      </c>
-      <c r="J58">
+      <c r="E74" s="9" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0</v>
+      </c>
+      <c r="G74" s="8">
+        <v>0</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>3195</v>
+      </c>
+      <c r="J74" s="8">
         <v>-1</v>
       </c>
-      <c r="K58">
-        <v>3</v>
-      </c>
-      <c r="L58">
+      <c r="K74" s="8">
+        <v>1</v>
+      </c>
+      <c r="L74" s="8">
         <v>-1</v>
       </c>
-      <c r="M58">
+      <c r="M74" s="8">
         <v>-1</v>
       </c>
-      <c r="N58">
+      <c r="N74" s="8">
         <v>1</v>
       </c>
-      <c r="O58">
+      <c r="O74" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:15">
-      <c r="C59">
-        <v>410</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>3162</v>
-      </c>
-      <c r="F59">
-        <v>14</v>
-      </c>
-      <c r="G59">
-        <v>14</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I59" t="s">
-        <v>3163</v>
-      </c>
-      <c r="J59">
-        <v>-1</v>
-      </c>
-      <c r="K59">
-        <v>4</v>
-      </c>
-      <c r="L59">
-        <v>-1</v>
-      </c>
-      <c r="M59">
-        <v>-1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15">
-      <c r="C60">
-        <v>411</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>3164</v>
-      </c>
-      <c r="F60">
-        <v>14</v>
-      </c>
-      <c r="G60">
-        <v>14</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>3165</v>
-      </c>
-      <c r="J60">
-        <v>-1</v>
-      </c>
-      <c r="K60">
-        <v>4</v>
-      </c>
-      <c r="L60">
-        <v>-1</v>
-      </c>
-      <c r="M60">
-        <v>-1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15">
-      <c r="C61">
-        <v>412</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>3166</v>
-      </c>
-      <c r="F61">
-        <v>14</v>
-      </c>
-      <c r="G61">
-        <v>14</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>3167</v>
-      </c>
-      <c r="J61">
-        <v>-1</v>
-      </c>
-      <c r="K61">
-        <v>4</v>
-      </c>
-      <c r="L61">
-        <v>-1</v>
-      </c>
-      <c r="M61">
-        <v>-1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15">
-      <c r="C62">
-        <v>501</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>3168</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>3170</v>
-      </c>
-      <c r="J62">
-        <v>-1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>-1</v>
-      </c>
-      <c r="M62">
-        <v>-1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15">
-      <c r="C63">
-        <v>502</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>3171</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>3172</v>
-      </c>
-      <c r="J63">
-        <v>-1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>-1</v>
-      </c>
-      <c r="M63">
-        <v>-1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:15">
-      <c r="C64">
-        <v>503</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>3173</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>3174</v>
-      </c>
-      <c r="J64">
-        <v>-1</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>-1</v>
-      </c>
-      <c r="M64">
-        <v>-1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:15">
-      <c r="C65">
-        <v>504</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>3175</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>3176</v>
-      </c>
-      <c r="J65">
-        <v>-1</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>-1</v>
-      </c>
-      <c r="M65">
-        <v>-1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:15">
-      <c r="C66">
-        <v>505</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>3177</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>3178</v>
-      </c>
-      <c r="J66">
-        <v>-1</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>-1</v>
-      </c>
-      <c r="M66">
-        <v>-1</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:15">
-      <c r="C67">
-        <v>506</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>3179</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>3180</v>
-      </c>
-      <c r="J67">
-        <v>-1</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>-1</v>
-      </c>
-      <c r="M67">
-        <v>-1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="3:15">
-      <c r="C68">
-        <v>507</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>3181</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>3182</v>
-      </c>
-      <c r="J68">
-        <v>-1</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>-1</v>
-      </c>
-      <c r="M68">
-        <v>-1</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="3:15">
-      <c r="C69">
-        <v>508</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>3183</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>3184</v>
-      </c>
-      <c r="J69">
-        <v>-1</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>-1</v>
-      </c>
-      <c r="M69">
-        <v>-1</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="3:15">
-      <c r="C70">
-        <v>509</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>3185</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>3186</v>
-      </c>
-      <c r="J70">
-        <v>-1</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>-1</v>
-      </c>
-      <c r="M70">
-        <v>-1</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9">
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="9:9">
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="9:9">
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="9:9">
-      <c r="I74" s="8"/>
-    </row>
     <row r="75" spans="9:9">
-      <c r="I75" s="8"/>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="9:9">
+      <c r="I79" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -10379,10 +10379,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10394,7 +10393,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -10743,14 +10741,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="3" customWidth="1"/>
     <col min="5" max="7" width="19.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="29" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.2916666666667" style="10" customWidth="1"/>
-    <col min="11" max="11" width="8.96666666666667" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.5916666666667" style="10" customWidth="1"/>
-    <col min="13" max="13" width="9.85" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.2916666666667" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.96666666666667" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.5916666666667" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.85" style="8" customWidth="1"/>
     <col min="14" max="15" width="14.875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
@@ -10764,128 +10762,128 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="4"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="3"/>
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="3"/>
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="3"/>
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -65026,8 +65024,8 @@
   <sheetPr/>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -65042,2984 +65040,2984 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="4:9">
-      <c r="D1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="4:9">
-      <c r="D2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="10"/>
+      <c r="D2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" spans="1:15">
-      <c r="A3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="3"/>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>3057</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>3058</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>3059</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>-1</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>1</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>-1</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>-1</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>1</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>3060</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>-1</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>1</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>-1</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>-1</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>1</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>3061</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>3058</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>3062</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>-1</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>1</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>-1</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>-1</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>1</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>3063</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="16" t="s">
         <v>3064</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>-1</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>1</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>-1</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>-1</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>1</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>3065</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>3058</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="16" t="s">
         <v>3062</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>-1</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>1</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>-1</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>-1</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>1</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>3066</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="16" t="s">
         <v>3064</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>-1</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>-1</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>-1</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>1</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>10</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>3067</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>3058</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>3062</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>-1</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>1</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>-1</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>-1</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>1</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>3068</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="16" t="s">
         <v>3064</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>-1</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>1</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>-1</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>-1</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>1</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>101</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>3069</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>11</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>11</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="16" t="s">
         <v>3071</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>-1</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>1</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>-1</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>-1</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>1</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>102</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>3072</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>11</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>11</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="16" t="s">
         <v>3073</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>-1</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>1</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>-1</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>-1</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>1</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>103</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>3074</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>11</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>11</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="15" t="s">
         <v>3075</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>-1</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>1</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>-1</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>-1</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>1</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>104</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>3076</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>11</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>11</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="15" t="s">
         <v>3077</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>-1</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>2</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>-1</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>-1</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>1</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>105</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>3078</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>11</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>11</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="15" t="s">
         <v>3079</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>-1</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>2</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>-1</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>-1</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>1</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>106</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>3080</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>11</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>11</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="15" t="s">
         <v>3081</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>-1</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>2</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>-1</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>-1</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>1</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>107</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>3082</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>11</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>11</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="15" t="s">
         <v>3083</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>-1</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>3</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>-1</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>-1</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>1</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>3084</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>11</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>11</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="15" t="s">
         <v>3085</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>-1</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>3</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>-1</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <v>-1</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>1</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>109</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>3086</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>11</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>11</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="15" t="s">
         <v>3087</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>-1</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>3</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>-1</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <v>-1</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>1</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>110</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>0</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>3088</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>11</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>11</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="15" t="s">
         <v>3089</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>-1</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>4</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>-1</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <v>-1</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>1</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>111</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>0</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>3090</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>11</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>11</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="15" t="s">
         <v>3091</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>-1</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>4</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>-1</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <v>-1</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>1</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>112</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>0</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>3092</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>11</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>11</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="15" t="s">
         <v>3093</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>-1</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>4</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>-1</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <v>-1</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>1</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>113</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>3094</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>11</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>11</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="15" t="s">
         <v>3095</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>-1</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>5</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>-1</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <v>-1</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>1</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>201</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>0</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>3096</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>12</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>12</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="16" t="s">
         <v>3098</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>-1</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>1</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>-1</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <v>-1</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>1</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>202</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>0</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>3099</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>12</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>12</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="16" t="s">
         <v>3100</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <v>-1</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>1</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>-1</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <v>-1</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>1</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>203</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>0</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>3101</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>12</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>12</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="15" t="s">
         <v>3102</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <v>-1</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>1</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>-1</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <v>-1</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>1</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>204</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>0</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>3103</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>12</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>12</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="15" t="s">
         <v>3104</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>-1</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <v>2</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>-1</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <v>-1</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>1</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>205</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>0</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="7" t="s">
         <v>3105</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>12</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>12</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="15" t="s">
         <v>3106</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <v>-1</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="7">
         <v>2</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>-1</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <v>-1</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>1</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>206</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>0</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>3107</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>12</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>12</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="15" t="s">
         <v>3108</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <v>-1</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <v>2</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="7">
         <v>-1</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="7">
         <v>-1</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <v>1</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>207</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>0</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>3109</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>12</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>12</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="15" t="s">
         <v>3110</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <v>-1</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <v>3</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="7">
         <v>-1</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="7">
         <v>-1</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <v>1</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>208</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>0</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>3111</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>12</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>12</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="15" t="s">
         <v>3112</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="7">
         <v>-1</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7">
         <v>3</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="7">
         <v>-1</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="7">
         <v>-1</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="7">
         <v>1</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>209</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>0</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>3113</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>12</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>12</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="15" t="s">
         <v>3114</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="7">
         <v>-1</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="7">
         <v>3</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="7">
         <v>-1</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="7">
         <v>-1</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="7">
         <v>1</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>210</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>0</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>3115</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>12</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>12</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="15" t="s">
         <v>3116</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <v>-1</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="7">
         <v>4</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="7">
         <v>-1</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="7">
         <v>-1</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <v>1</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>211</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>0</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>3117</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <v>12</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <v>12</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="15" t="s">
         <v>3118</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <v>-1</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="7">
         <v>4</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="7">
         <v>-1</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="7">
         <v>-1</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="7">
         <v>1</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>212</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>0</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>3119</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>12</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <v>12</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="15" t="s">
         <v>3120</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="7">
         <v>-1</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="7">
         <v>4</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="7">
         <v>-1</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="7">
         <v>-1</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="7">
         <v>1</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>213</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>0</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="7" t="s">
         <v>3121</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>12</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>12</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="16" t="s">
         <v>3097</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="15" t="s">
         <v>3122</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <v>-1</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="7">
+        <v>5</v>
+      </c>
+      <c r="L39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C40" s="7">
+        <v>301</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F40" s="7">
+        <v>13</v>
+      </c>
+      <c r="G40" s="7">
+        <v>13</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>3125</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C41" s="7">
+        <v>302</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F41" s="7">
+        <v>13</v>
+      </c>
+      <c r="G41" s="7">
+        <v>13</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>3127</v>
+      </c>
+      <c r="J41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
+      <c r="L41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C42" s="7">
+        <v>303</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F42" s="7">
+        <v>13</v>
+      </c>
+      <c r="G42" s="7">
+        <v>13</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>3129</v>
+      </c>
+      <c r="J42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C43" s="7">
+        <v>304</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F43" s="7">
+        <v>13</v>
+      </c>
+      <c r="G43" s="7">
+        <v>13</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>3131</v>
+      </c>
+      <c r="J43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2</v>
+      </c>
+      <c r="L43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N43" s="7">
+        <v>1</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C44" s="7">
+        <v>305</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F44" s="7">
+        <v>13</v>
+      </c>
+      <c r="G44" s="7">
+        <v>13</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>3133</v>
+      </c>
+      <c r="J44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2</v>
+      </c>
+      <c r="L44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N44" s="7">
+        <v>1</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C45" s="7">
+        <v>306</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F45" s="7">
+        <v>13</v>
+      </c>
+      <c r="G45" s="7">
+        <v>13</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>3135</v>
+      </c>
+      <c r="J45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K45" s="7">
+        <v>2</v>
+      </c>
+      <c r="L45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C46" s="7">
+        <v>307</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F46" s="7">
+        <v>13</v>
+      </c>
+      <c r="G46" s="7">
+        <v>13</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>3137</v>
+      </c>
+      <c r="J46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3</v>
+      </c>
+      <c r="L46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C47" s="7">
+        <v>308</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>3138</v>
+      </c>
+      <c r="F47" s="7">
+        <v>13</v>
+      </c>
+      <c r="G47" s="7">
+        <v>13</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="J47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>3</v>
+      </c>
+      <c r="L47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C48" s="7">
+        <v>309</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F48" s="7">
+        <v>13</v>
+      </c>
+      <c r="G48" s="7">
+        <v>13</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>3141</v>
+      </c>
+      <c r="J48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K48" s="7">
+        <v>3</v>
+      </c>
+      <c r="L48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C49" s="7">
+        <v>310</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F49" s="7">
+        <v>13</v>
+      </c>
+      <c r="G49" s="7">
+        <v>13</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>3143</v>
+      </c>
+      <c r="J49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K49" s="7">
         <v>4</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L49" s="7">
         <v>-1</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M49" s="7">
         <v>-1</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N49" s="7">
         <v>1</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O49" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C40" s="8">
-        <v>301</v>
-      </c>
-      <c r="D40" s="8">
+    <row r="50" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C50" s="7">
+        <v>311</v>
+      </c>
+      <c r="D50" s="7">
         <v>0</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>3123</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="E50" s="7" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F50" s="7">
         <v>13</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G50" s="7">
         <v>13</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H50" s="16" t="s">
         <v>3124</v>
       </c>
-      <c r="I40" s="17" t="s">
-        <v>3125</v>
-      </c>
-      <c r="J40" s="8">
+      <c r="I50" s="15" t="s">
+        <v>3145</v>
+      </c>
+      <c r="J50" s="7">
         <v>-1</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K50" s="7">
+        <v>4</v>
+      </c>
+      <c r="L50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N50" s="7">
         <v>1</v>
       </c>
-      <c r="L40" s="8">
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C51" s="7">
+        <v>312</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F51" s="7">
+        <v>13</v>
+      </c>
+      <c r="G51" s="7">
+        <v>13</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>3147</v>
+      </c>
+      <c r="J51" s="7">
         <v>-1</v>
       </c>
-      <c r="M40" s="8">
+      <c r="K51" s="7">
+        <v>4</v>
+      </c>
+      <c r="L51" s="7">
         <v>-1</v>
       </c>
-      <c r="N40" s="8">
+      <c r="M51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N51" s="7">
         <v>1</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O51" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C41" s="8">
-        <v>302</v>
-      </c>
-      <c r="D41" s="8">
+    <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C52" s="7">
+        <v>313</v>
+      </c>
+      <c r="D52" s="7">
         <v>0</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>3126</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="E52" s="7" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F52" s="7">
         <v>13</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G52" s="7">
         <v>13</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H52" s="16" t="s">
         <v>3124</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>3127</v>
-      </c>
-      <c r="J41" s="8">
+      <c r="I52" s="15" t="s">
+        <v>3149</v>
+      </c>
+      <c r="J52" s="7">
         <v>-1</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K52" s="7">
+        <v>5</v>
+      </c>
+      <c r="L52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N52" s="7">
         <v>1</v>
       </c>
-      <c r="L41" s="8">
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C53" s="7">
+        <v>401</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F53" s="7">
+        <v>14</v>
+      </c>
+      <c r="G53" s="7">
+        <v>14</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="J53" s="7">
         <v>-1</v>
       </c>
-      <c r="M41" s="8">
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+      <c r="L53" s="7">
         <v>-1</v>
       </c>
-      <c r="N41" s="8">
+      <c r="M53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N53" s="7">
         <v>1</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O53" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C42" s="8">
-        <v>303</v>
-      </c>
-      <c r="D42" s="8">
+    <row r="54" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C54" s="7">
+        <v>402</v>
+      </c>
+      <c r="D54" s="7">
         <v>0</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F42" s="8">
-        <v>13</v>
-      </c>
-      <c r="G42" s="8">
-        <v>13</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>3129</v>
-      </c>
-      <c r="J42" s="8">
+      <c r="E54" s="7" t="s">
+        <v>3153</v>
+      </c>
+      <c r="F54" s="7">
+        <v>14</v>
+      </c>
+      <c r="G54" s="7">
+        <v>14</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>3154</v>
+      </c>
+      <c r="J54" s="7">
         <v>-1</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K54" s="7">
         <v>1</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L54" s="7">
         <v>-1</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M54" s="7">
         <v>-1</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N54" s="7">
         <v>1</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O54" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C43" s="8">
-        <v>304</v>
-      </c>
-      <c r="D43" s="8">
+    <row r="55" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C55" s="7">
+        <v>403</v>
+      </c>
+      <c r="D55" s="7">
         <v>0</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>3130</v>
-      </c>
-      <c r="F43" s="8">
-        <v>13</v>
-      </c>
-      <c r="G43" s="8">
-        <v>13</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>3131</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="E55" s="7" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F55" s="7">
+        <v>14</v>
+      </c>
+      <c r="G55" s="7">
+        <v>14</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>3156</v>
+      </c>
+      <c r="J55" s="7">
         <v>-1</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N55" s="7">
+        <v>1</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C56" s="7">
+        <v>404</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>3157</v>
+      </c>
+      <c r="F56" s="7">
+        <v>14</v>
+      </c>
+      <c r="G56" s="7">
+        <v>14</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>3158</v>
+      </c>
+      <c r="J56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K56" s="7">
         <v>2</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L56" s="7">
         <v>-1</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M56" s="7">
         <v>-1</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N56" s="7">
         <v>1</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O56" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C44" s="8">
-        <v>305</v>
-      </c>
-      <c r="D44" s="8">
+    <row r="57" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C57" s="7">
+        <v>405</v>
+      </c>
+      <c r="D57" s="7">
         <v>0</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>3132</v>
-      </c>
-      <c r="F44" s="8">
-        <v>13</v>
-      </c>
-      <c r="G44" s="8">
-        <v>13</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>3133</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="E57" s="7" t="s">
+        <v>3159</v>
+      </c>
+      <c r="F57" s="7">
+        <v>14</v>
+      </c>
+      <c r="G57" s="7">
+        <v>14</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>3160</v>
+      </c>
+      <c r="J57" s="7">
         <v>-1</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K57" s="7">
         <v>2</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L57" s="7">
         <v>-1</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M57" s="7">
         <v>-1</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N57" s="7">
         <v>1</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O57" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C45" s="8">
-        <v>306</v>
-      </c>
-      <c r="D45" s="8">
+    <row r="58" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C58" s="7">
+        <v>406</v>
+      </c>
+      <c r="D58" s="7">
         <v>0</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F45" s="8">
-        <v>13</v>
-      </c>
-      <c r="G45" s="8">
-        <v>13</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>3135</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="E58" s="7" t="s">
+        <v>3161</v>
+      </c>
+      <c r="F58" s="7">
+        <v>14</v>
+      </c>
+      <c r="G58" s="7">
+        <v>14</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>3162</v>
+      </c>
+      <c r="J58" s="7">
         <v>-1</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K58" s="7">
         <v>2</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L58" s="7">
         <v>-1</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M58" s="7">
         <v>-1</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N58" s="7">
         <v>1</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O58" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C46" s="8">
-        <v>307</v>
-      </c>
-      <c r="D46" s="8">
+    <row r="59" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C59" s="7">
+        <v>407</v>
+      </c>
+      <c r="D59" s="7">
         <v>0</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>3136</v>
-      </c>
-      <c r="F46" s="8">
-        <v>13</v>
-      </c>
-      <c r="G46" s="8">
-        <v>13</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>3137</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="E59" s="7" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F59" s="7">
+        <v>14</v>
+      </c>
+      <c r="G59" s="7">
+        <v>14</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>3164</v>
+      </c>
+      <c r="J59" s="7">
         <v>-1</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K59" s="7">
         <v>3</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L59" s="7">
         <v>-1</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M59" s="7">
         <v>-1</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N59" s="7">
         <v>1</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O59" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C47" s="8">
-        <v>308</v>
-      </c>
-      <c r="D47" s="8">
+    <row r="60" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C60" s="7">
+        <v>408</v>
+      </c>
+      <c r="D60" s="7">
         <v>0</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>3138</v>
-      </c>
-      <c r="F47" s="8">
-        <v>13</v>
-      </c>
-      <c r="G47" s="8">
-        <v>13</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>3139</v>
-      </c>
-      <c r="J47" s="8">
+      <c r="E60" s="7" t="s">
+        <v>3165</v>
+      </c>
+      <c r="F60" s="7">
+        <v>14</v>
+      </c>
+      <c r="G60" s="7">
+        <v>14</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>3166</v>
+      </c>
+      <c r="J60" s="7">
         <v>-1</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K60" s="7">
         <v>3</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L60" s="7">
         <v>-1</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M60" s="7">
         <v>-1</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N60" s="7">
         <v>1</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O60" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C48" s="8">
-        <v>309</v>
-      </c>
-      <c r="D48" s="8">
+    <row r="61" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C61" s="7">
+        <v>409</v>
+      </c>
+      <c r="D61" s="7">
         <v>0</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>3140</v>
-      </c>
-      <c r="F48" s="8">
-        <v>13</v>
-      </c>
-      <c r="G48" s="8">
-        <v>13</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>3141</v>
-      </c>
-      <c r="J48" s="8">
+      <c r="E61" s="7" t="s">
+        <v>3167</v>
+      </c>
+      <c r="F61" s="7">
+        <v>14</v>
+      </c>
+      <c r="G61" s="7">
+        <v>14</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>3168</v>
+      </c>
+      <c r="J61" s="7">
         <v>-1</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K61" s="7">
         <v>3</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L61" s="7">
         <v>-1</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M61" s="7">
         <v>-1</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N61" s="7">
         <v>1</v>
       </c>
-      <c r="O48" s="8">
+      <c r="O61" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C49" s="8">
-        <v>310</v>
-      </c>
-      <c r="D49" s="8">
+    <row r="62" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C62" s="7">
+        <v>410</v>
+      </c>
+      <c r="D62" s="7">
         <v>0</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>3142</v>
-      </c>
-      <c r="F49" s="8">
-        <v>13</v>
-      </c>
-      <c r="G49" s="8">
-        <v>13</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>3143</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="E62" s="7" t="s">
+        <v>3169</v>
+      </c>
+      <c r="F62" s="7">
+        <v>14</v>
+      </c>
+      <c r="G62" s="7">
+        <v>14</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>3170</v>
+      </c>
+      <c r="J62" s="7">
         <v>-1</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K62" s="7">
         <v>4</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L62" s="7">
         <v>-1</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M62" s="7">
         <v>-1</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N62" s="7">
         <v>1</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O62" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C50" s="8">
-        <v>311</v>
-      </c>
-      <c r="D50" s="8">
+    <row r="63" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C63" s="7">
+        <v>411</v>
+      </c>
+      <c r="D63" s="7">
         <v>0</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>3144</v>
-      </c>
-      <c r="F50" s="8">
-        <v>13</v>
-      </c>
-      <c r="G50" s="8">
-        <v>13</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>3145</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="E63" s="7" t="s">
+        <v>3171</v>
+      </c>
+      <c r="F63" s="7">
+        <v>14</v>
+      </c>
+      <c r="G63" s="7">
+        <v>14</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>3172</v>
+      </c>
+      <c r="J63" s="7">
         <v>-1</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K63" s="7">
         <v>4</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L63" s="7">
         <v>-1</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M63" s="7">
         <v>-1</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N63" s="7">
         <v>1</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O63" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C51" s="8">
-        <v>312</v>
-      </c>
-      <c r="D51" s="8">
+    <row r="64" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C64" s="7">
+        <v>412</v>
+      </c>
+      <c r="D64" s="7">
         <v>0</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>3146</v>
-      </c>
-      <c r="F51" s="8">
-        <v>13</v>
-      </c>
-      <c r="G51" s="8">
-        <v>13</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>3147</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="E64" s="7" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F64" s="7">
+        <v>14</v>
+      </c>
+      <c r="G64" s="7">
+        <v>14</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>3174</v>
+      </c>
+      <c r="J64" s="7">
         <v>-1</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K64" s="7">
         <v>4</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L64" s="7">
         <v>-1</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M64" s="7">
         <v>-1</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N64" s="7">
         <v>1</v>
       </c>
-      <c r="O51" s="8">
+      <c r="O64" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C52" s="8">
-        <v>313</v>
-      </c>
-      <c r="D52" s="8">
+    <row r="65" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C65" s="7">
+        <v>413</v>
+      </c>
+      <c r="D65" s="7">
         <v>0</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>3148</v>
-      </c>
-      <c r="F52" s="8">
-        <v>13</v>
-      </c>
-      <c r="G52" s="8">
-        <v>13</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>3149</v>
-      </c>
-      <c r="J52" s="8">
+      <c r="E65" s="7" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F65" s="7">
+        <v>14</v>
+      </c>
+      <c r="G65" s="7">
+        <v>14</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>3176</v>
+      </c>
+      <c r="J65" s="7">
         <v>-1</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K65" s="7">
         <v>5</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L65" s="7">
         <v>-1</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M65" s="7">
         <v>-1</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N65" s="7">
         <v>1</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O65" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C53" s="8">
-        <v>401</v>
-      </c>
-      <c r="D53" s="8">
+    <row r="66" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C66" s="7">
+        <v>501</v>
+      </c>
+      <c r="D66" s="7">
         <v>0</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>3150</v>
-      </c>
-      <c r="F53" s="8">
-        <v>14</v>
-      </c>
-      <c r="G53" s="8">
-        <v>14</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>3152</v>
-      </c>
-      <c r="J53" s="8">
+      <c r="E66" s="7" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>3179</v>
+      </c>
+      <c r="J66" s="7">
         <v>-1</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K66" s="7">
         <v>1</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L66" s="7">
         <v>-1</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M66" s="7">
         <v>-1</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N66" s="7">
         <v>1</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O66" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="54" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C54" s="8">
-        <v>402</v>
-      </c>
-      <c r="D54" s="8">
+    <row r="67" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C67" s="7">
+        <v>502</v>
+      </c>
+      <c r="D67" s="7">
         <v>0</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>3153</v>
-      </c>
-      <c r="F54" s="8">
-        <v>14</v>
-      </c>
-      <c r="G54" s="8">
-        <v>14</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>3154</v>
-      </c>
-      <c r="J54" s="8">
+      <c r="E67" s="7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>3181</v>
+      </c>
+      <c r="J67" s="7">
         <v>-1</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K67" s="7">
         <v>1</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L67" s="7">
         <v>-1</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M67" s="7">
         <v>-1</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N67" s="7">
         <v>1</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O67" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C55" s="8">
-        <v>403</v>
-      </c>
-      <c r="D55" s="8">
+    <row r="68" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C68" s="7">
+        <v>503</v>
+      </c>
+      <c r="D68" s="7">
         <v>0</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>3155</v>
-      </c>
-      <c r="F55" s="8">
-        <v>14</v>
-      </c>
-      <c r="G55" s="8">
-        <v>14</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>3156</v>
-      </c>
-      <c r="J55" s="8">
+      <c r="E68" s="7" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>3183</v>
+      </c>
+      <c r="J68" s="7">
         <v>-1</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K68" s="7">
         <v>1</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L68" s="7">
         <v>-1</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M68" s="7">
         <v>-1</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N68" s="7">
         <v>1</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O68" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C56" s="8">
-        <v>404</v>
-      </c>
-      <c r="D56" s="8">
+    <row r="69" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C69" s="7">
+        <v>504</v>
+      </c>
+      <c r="D69" s="7">
         <v>0</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>3157</v>
-      </c>
-      <c r="F56" s="8">
-        <v>14</v>
-      </c>
-      <c r="G56" s="8">
-        <v>14</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>3158</v>
-      </c>
-      <c r="J56" s="8">
+      <c r="E69" s="7" t="s">
+        <v>3184</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>3185</v>
+      </c>
+      <c r="J69" s="7">
         <v>-1</v>
       </c>
-      <c r="K56" s="8">
-        <v>2</v>
-      </c>
-      <c r="L56" s="8">
+      <c r="K69" s="7">
+        <v>1</v>
+      </c>
+      <c r="L69" s="7">
         <v>-1</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M69" s="7">
         <v>-1</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N69" s="7">
         <v>1</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O69" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C57" s="8">
-        <v>405</v>
-      </c>
-      <c r="D57" s="8">
+    <row r="70" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C70" s="7">
+        <v>505</v>
+      </c>
+      <c r="D70" s="7">
         <v>0</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>3159</v>
-      </c>
-      <c r="F57" s="8">
-        <v>14</v>
-      </c>
-      <c r="G57" s="8">
-        <v>14</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>3160</v>
-      </c>
-      <c r="J57" s="8">
+      <c r="E70" s="7" t="s">
+        <v>3186</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>3187</v>
+      </c>
+      <c r="J70" s="7">
         <v>-1</v>
       </c>
-      <c r="K57" s="8">
-        <v>2</v>
-      </c>
-      <c r="L57" s="8">
+      <c r="K70" s="7">
+        <v>1</v>
+      </c>
+      <c r="L70" s="7">
         <v>-1</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M70" s="7">
         <v>-1</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N70" s="7">
         <v>1</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O70" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C58" s="8">
-        <v>406</v>
-      </c>
-      <c r="D58" s="8">
+    <row r="71" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C71" s="7">
+        <v>506</v>
+      </c>
+      <c r="D71" s="7">
         <v>0</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>3161</v>
-      </c>
-      <c r="F58" s="8">
-        <v>14</v>
-      </c>
-      <c r="G58" s="8">
-        <v>14</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>3162</v>
-      </c>
-      <c r="J58" s="8">
+      <c r="E71" s="7" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>3189</v>
+      </c>
+      <c r="J71" s="7">
         <v>-1</v>
       </c>
-      <c r="K58" s="8">
-        <v>2</v>
-      </c>
-      <c r="L58" s="8">
+      <c r="K71" s="7">
+        <v>1</v>
+      </c>
+      <c r="L71" s="7">
         <v>-1</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M71" s="7">
         <v>-1</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N71" s="7">
         <v>1</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O71" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C59" s="8">
-        <v>407</v>
-      </c>
-      <c r="D59" s="8">
+    <row r="72" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C72" s="7">
+        <v>507</v>
+      </c>
+      <c r="D72" s="7">
         <v>0</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>3163</v>
-      </c>
-      <c r="F59" s="8">
-        <v>14</v>
-      </c>
-      <c r="G59" s="8">
-        <v>14</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>3164</v>
-      </c>
-      <c r="J59" s="8">
+      <c r="E72" s="7" t="s">
+        <v>3190</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>3191</v>
+      </c>
+      <c r="J72" s="7">
         <v>-1</v>
       </c>
-      <c r="K59" s="8">
-        <v>3</v>
-      </c>
-      <c r="L59" s="8">
+      <c r="K72" s="7">
+        <v>1</v>
+      </c>
+      <c r="L72" s="7">
         <v>-1</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M72" s="7">
         <v>-1</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N72" s="7">
         <v>1</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O72" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C60" s="8">
-        <v>408</v>
-      </c>
-      <c r="D60" s="8">
+    <row r="73" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C73" s="7">
+        <v>508</v>
+      </c>
+      <c r="D73" s="7">
         <v>0</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>3165</v>
-      </c>
-      <c r="F60" s="8">
-        <v>14</v>
-      </c>
-      <c r="G60" s="8">
-        <v>14</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>3166</v>
-      </c>
-      <c r="J60" s="8">
+      <c r="E73" s="7" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>3193</v>
+      </c>
+      <c r="J73" s="7">
         <v>-1</v>
       </c>
-      <c r="K60" s="8">
-        <v>3</v>
-      </c>
-      <c r="L60" s="8">
+      <c r="K73" s="7">
+        <v>1</v>
+      </c>
+      <c r="L73" s="7">
         <v>-1</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M73" s="7">
         <v>-1</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N73" s="7">
         <v>1</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O73" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C61" s="8">
-        <v>409</v>
-      </c>
-      <c r="D61" s="8">
+    <row r="74" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C74" s="7">
+        <v>509</v>
+      </c>
+      <c r="D74" s="7">
         <v>0</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>3167</v>
-      </c>
-      <c r="F61" s="8">
-        <v>14</v>
-      </c>
-      <c r="G61" s="8">
-        <v>14</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>3168</v>
-      </c>
-      <c r="J61" s="8">
+      <c r="E74" s="7" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>3195</v>
+      </c>
+      <c r="J74" s="7">
         <v>-1</v>
       </c>
-      <c r="K61" s="8">
-        <v>3</v>
-      </c>
-      <c r="L61" s="8">
+      <c r="K74" s="7">
+        <v>1</v>
+      </c>
+      <c r="L74" s="7">
         <v>-1</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M74" s="7">
         <v>-1</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N74" s="7">
         <v>1</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O74" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C62" s="8">
-        <v>410</v>
-      </c>
-      <c r="D62" s="8">
-        <v>0</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>3169</v>
-      </c>
-      <c r="F62" s="8">
-        <v>14</v>
-      </c>
-      <c r="G62" s="8">
-        <v>14</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>3170</v>
-      </c>
-      <c r="J62" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K62" s="8">
-        <v>4</v>
-      </c>
-      <c r="L62" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M62" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N62" s="8">
-        <v>1</v>
-      </c>
-      <c r="O62" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C63" s="8">
-        <v>411</v>
-      </c>
-      <c r="D63" s="8">
-        <v>0</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>3171</v>
-      </c>
-      <c r="F63" s="8">
-        <v>14</v>
-      </c>
-      <c r="G63" s="8">
-        <v>14</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>3172</v>
-      </c>
-      <c r="J63" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K63" s="8">
-        <v>4</v>
-      </c>
-      <c r="L63" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M63" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N63" s="8">
-        <v>1</v>
-      </c>
-      <c r="O63" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C64" s="8">
-        <v>412</v>
-      </c>
-      <c r="D64" s="8">
-        <v>0</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>3173</v>
-      </c>
-      <c r="F64" s="8">
-        <v>14</v>
-      </c>
-      <c r="G64" s="8">
-        <v>14</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>3174</v>
-      </c>
-      <c r="J64" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K64" s="8">
-        <v>4</v>
-      </c>
-      <c r="L64" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M64" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N64" s="8">
-        <v>1</v>
-      </c>
-      <c r="O64" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C65" s="8">
-        <v>413</v>
-      </c>
-      <c r="D65" s="8">
-        <v>0</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>3175</v>
-      </c>
-      <c r="F65" s="8">
-        <v>14</v>
-      </c>
-      <c r="G65" s="8">
-        <v>14</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>3176</v>
-      </c>
-      <c r="J65" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K65" s="8">
-        <v>5</v>
-      </c>
-      <c r="L65" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M65" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N65" s="8">
-        <v>1</v>
-      </c>
-      <c r="O65" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C66" s="8">
-        <v>501</v>
-      </c>
-      <c r="D66" s="8">
-        <v>0</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>3177</v>
-      </c>
-      <c r="F66" s="8">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8">
-        <v>0</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>3179</v>
-      </c>
-      <c r="J66" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K66" s="8">
-        <v>1</v>
-      </c>
-      <c r="L66" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M66" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N66" s="8">
-        <v>1</v>
-      </c>
-      <c r="O66" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C67" s="8">
-        <v>502</v>
-      </c>
-      <c r="D67" s="8">
-        <v>0</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>3180</v>
-      </c>
-      <c r="F67" s="8">
-        <v>0</v>
-      </c>
-      <c r="G67" s="8">
-        <v>0</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I67" s="18" t="s">
-        <v>3181</v>
-      </c>
-      <c r="J67" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K67" s="8">
-        <v>1</v>
-      </c>
-      <c r="L67" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M67" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N67" s="8">
-        <v>1</v>
-      </c>
-      <c r="O67" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C68" s="8">
-        <v>503</v>
-      </c>
-      <c r="D68" s="8">
-        <v>0</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>3182</v>
-      </c>
-      <c r="F68" s="8">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8">
-        <v>0</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I68" s="18" t="s">
-        <v>3183</v>
-      </c>
-      <c r="J68" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K68" s="8">
-        <v>1</v>
-      </c>
-      <c r="L68" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M68" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N68" s="8">
-        <v>1</v>
-      </c>
-      <c r="O68" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C69" s="8">
-        <v>504</v>
-      </c>
-      <c r="D69" s="8">
-        <v>0</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>3184</v>
-      </c>
-      <c r="F69" s="8">
-        <v>0</v>
-      </c>
-      <c r="G69" s="8">
-        <v>0</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>3185</v>
-      </c>
-      <c r="J69" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K69" s="8">
-        <v>1</v>
-      </c>
-      <c r="L69" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M69" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N69" s="8">
-        <v>1</v>
-      </c>
-      <c r="O69" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C70" s="8">
-        <v>505</v>
-      </c>
-      <c r="D70" s="8">
-        <v>0</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>3186</v>
-      </c>
-      <c r="F70" s="8">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8">
-        <v>0</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>3187</v>
-      </c>
-      <c r="J70" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K70" s="8">
-        <v>1</v>
-      </c>
-      <c r="L70" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M70" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N70" s="8">
-        <v>1</v>
-      </c>
-      <c r="O70" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C71" s="8">
-        <v>506</v>
-      </c>
-      <c r="D71" s="8">
-        <v>0</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>3188</v>
-      </c>
-      <c r="F71" s="8">
-        <v>0</v>
-      </c>
-      <c r="G71" s="8">
-        <v>0</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>3189</v>
-      </c>
-      <c r="J71" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K71" s="8">
-        <v>1</v>
-      </c>
-      <c r="L71" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M71" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N71" s="8">
-        <v>1</v>
-      </c>
-      <c r="O71" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C72" s="8">
-        <v>507</v>
-      </c>
-      <c r="D72" s="8">
-        <v>0</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>3190</v>
-      </c>
-      <c r="F72" s="8">
-        <v>0</v>
-      </c>
-      <c r="G72" s="8">
-        <v>0</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>3191</v>
-      </c>
-      <c r="J72" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K72" s="8">
-        <v>1</v>
-      </c>
-      <c r="L72" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M72" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N72" s="8">
-        <v>1</v>
-      </c>
-      <c r="O72" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C73" s="8">
-        <v>508</v>
-      </c>
-      <c r="D73" s="8">
-        <v>0</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>3192</v>
-      </c>
-      <c r="F73" s="8">
-        <v>0</v>
-      </c>
-      <c r="G73" s="8">
-        <v>0</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>3193</v>
-      </c>
-      <c r="J73" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K73" s="8">
-        <v>1</v>
-      </c>
-      <c r="L73" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M73" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N73" s="8">
-        <v>1</v>
-      </c>
-      <c r="O73" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" s="3" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C74" s="8">
-        <v>509</v>
-      </c>
-      <c r="D74" s="8">
-        <v>0</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>3194</v>
-      </c>
-      <c r="F74" s="8">
-        <v>0</v>
-      </c>
-      <c r="G74" s="8">
-        <v>0</v>
-      </c>
-      <c r="H74" s="18" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>3195</v>
-      </c>
-      <c r="J74" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K74" s="8">
-        <v>1</v>
-      </c>
-      <c r="L74" s="8">
-        <v>-1</v>
-      </c>
-      <c r="M74" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N74" s="8">
-        <v>1</v>
-      </c>
-      <c r="O74" s="8">
-        <v>0</v>
-      </c>
-    </row>
     <row r="75" spans="9:9">
-      <c r="I75" s="13"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="9:9">
-      <c r="I76" s="13"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" spans="9:9">
-      <c r="I77" s="13"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="9:9">
-      <c r="I78" s="13"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="9:9">
-      <c r="I79" s="13"/>
+      <c r="I79" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17461" uniqueCount="3196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17461" uniqueCount="3197">
   <si>
     <t>_id</t>
   </si>
@@ -9661,16 +9661,19 @@
     <t>14,140,3</t>
   </si>
   <si>
-    <t>十年魂环</t>
+    <t>测试斗笠</t>
+  </si>
+  <si>
+    <t>26,27,28,12,6,29</t>
+  </si>
+  <si>
+    <t>200,200,200,200,500,500</t>
+  </si>
+  <si>
+    <t>百年魂环</t>
   </si>
   <si>
     <t>1,2,3,4,5,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21</t>
-  </si>
-  <si>
-    <t>100,10,10,10,10,1,1,10,1,10,10,10,10,10,10,10,10,10,1,10</t>
-  </si>
-  <si>
-    <t>百年魂环</t>
   </si>
   <si>
     <t>1000,100,100,100,100,2,2,20,2,20,20,20,20,20,20,20,20,20,2,20</t>
@@ -65024,8 +65027,8 @@
   <sheetPr/>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -67646,22 +67649,22 @@
         <v>3177</v>
       </c>
       <c r="F66" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G66" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>3178</v>
       </c>
-      <c r="I66" s="16" t="s">
+      <c r="I66" s="15" t="s">
         <v>3179</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
       </c>
       <c r="K66" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L66" s="7">
         <v>-1</v>
@@ -67693,10 +67696,10 @@
         <v>0</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="J67" s="7">
         <v>-1</v>
@@ -67725,7 +67728,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="F68" s="7">
         <v>0</v>
@@ -67734,10 +67737,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -67766,7 +67769,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="F69" s="7">
         <v>0</v>
@@ -67775,10 +67778,10 @@
         <v>0</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -67807,7 +67810,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="F70" s="7">
         <v>0</v>
@@ -67816,10 +67819,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -67848,7 +67851,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -67857,10 +67860,10 @@
         <v>0</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -67889,7 +67892,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="F72" s="7">
         <v>0</v>
@@ -67898,10 +67901,10 @@
         <v>0</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -67930,7 +67933,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="F73" s="7">
         <v>0</v>
@@ -67939,10 +67942,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="J73" s="7">
         <v>-1</v>
@@ -67971,7 +67974,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="F74" s="7">
         <v>0</v>
@@ -67980,10 +67983,10 @@
         <v>0</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -9911,12 +9911,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -65027,8 +65027,8 @@
   <sheetPr/>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -65511,7 +65511,7 @@
         <v>101</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>3069</v>
@@ -65552,7 +65552,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>3072</v>
@@ -65593,7 +65593,7 @@
         <v>103</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>3074</v>
@@ -65634,7 +65634,7 @@
         <v>104</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>3076</v>
@@ -65675,7 +65675,7 @@
         <v>105</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>3078</v>
@@ -65716,7 +65716,7 @@
         <v>106</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>3080</v>
@@ -65757,7 +65757,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>3082</v>
@@ -65798,7 +65798,7 @@
         <v>108</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>3084</v>
@@ -65839,7 +65839,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>3086</v>
@@ -65880,7 +65880,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>3088</v>
@@ -65921,7 +65921,7 @@
         <v>111</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>3090</v>
@@ -65962,7 +65962,7 @@
         <v>112</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>3092</v>
@@ -66003,7 +66003,7 @@
         <v>113</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>3094</v>
@@ -66044,7 +66044,7 @@
         <v>201</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>3096</v>
@@ -66085,7 +66085,7 @@
         <v>202</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>3099</v>
@@ -66126,7 +66126,7 @@
         <v>203</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>3101</v>
@@ -66167,7 +66167,7 @@
         <v>204</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>3103</v>
@@ -66208,7 +66208,7 @@
         <v>205</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>3105</v>
@@ -66249,7 +66249,7 @@
         <v>206</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>3107</v>
@@ -66290,7 +66290,7 @@
         <v>207</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>3109</v>
@@ -66331,7 +66331,7 @@
         <v>208</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>3111</v>
@@ -66372,7 +66372,7 @@
         <v>209</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>3113</v>
@@ -66413,7 +66413,7 @@
         <v>210</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>3115</v>
@@ -66454,7 +66454,7 @@
         <v>211</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>3117</v>
@@ -66495,7 +66495,7 @@
         <v>212</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>3119</v>
@@ -66536,7 +66536,7 @@
         <v>213</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>3121</v>
@@ -66577,7 +66577,7 @@
         <v>301</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>3123</v>
@@ -66618,7 +66618,7 @@
         <v>302</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>3126</v>
@@ -66659,7 +66659,7 @@
         <v>303</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>3128</v>
@@ -66700,7 +66700,7 @@
         <v>304</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>3130</v>
@@ -66741,7 +66741,7 @@
         <v>305</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>3132</v>
@@ -66782,7 +66782,7 @@
         <v>306</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>3134</v>
@@ -66823,7 +66823,7 @@
         <v>307</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>3136</v>
@@ -66864,7 +66864,7 @@
         <v>308</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>3138</v>
@@ -66905,7 +66905,7 @@
         <v>309</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>3140</v>
@@ -66946,7 +66946,7 @@
         <v>310</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>3142</v>
@@ -66987,7 +66987,7 @@
         <v>311</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>3144</v>
@@ -67028,7 +67028,7 @@
         <v>312</v>
       </c>
       <c r="D51" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>3146</v>
@@ -67069,7 +67069,7 @@
         <v>313</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>3148</v>
@@ -67110,7 +67110,7 @@
         <v>401</v>
       </c>
       <c r="D53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>3150</v>
@@ -67151,7 +67151,7 @@
         <v>402</v>
       </c>
       <c r="D54" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>3153</v>
@@ -67192,7 +67192,7 @@
         <v>403</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>3155</v>
@@ -67233,7 +67233,7 @@
         <v>404</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>3157</v>
@@ -67274,7 +67274,7 @@
         <v>405</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>3159</v>
@@ -67315,7 +67315,7 @@
         <v>406</v>
       </c>
       <c r="D58" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>3161</v>
@@ -67356,7 +67356,7 @@
         <v>407</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>3163</v>
@@ -67397,7 +67397,7 @@
         <v>408</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>3165</v>
@@ -67438,7 +67438,7 @@
         <v>409</v>
       </c>
       <c r="D61" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>3167</v>
@@ -67479,7 +67479,7 @@
         <v>410</v>
       </c>
       <c r="D62" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>3169</v>
@@ -67520,7 +67520,7 @@
         <v>411</v>
       </c>
       <c r="D63" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>3171</v>
@@ -67561,7 +67561,7 @@
         <v>412</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>3173</v>
@@ -67602,7 +67602,7 @@
         <v>413</v>
       </c>
       <c r="D65" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>3175</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
-    <sheet name="定制装备" sheetId="4" r:id="rId2"/>
+    <sheet name="新版随机" sheetId="5" r:id="rId2"/>
+    <sheet name="定制装备" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17461" uniqueCount="3197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17811" uniqueCount="3262">
   <si>
     <t>_id</t>
   </si>
@@ -9299,6 +9300,201 @@
   </si>
   <si>
     <t>幻纹道靴</t>
+  </si>
+  <si>
+    <t>21005501</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>幻·屠龙战刃</t>
+  </si>
+  <si>
+    <t>112500000</t>
+  </si>
+  <si>
+    <t>5000000000</t>
+  </si>
+  <si>
+    <t>21005502</t>
+  </si>
+  <si>
+    <t>幻·屠龙战甲</t>
+  </si>
+  <si>
+    <t>1250000000,50000000</t>
+  </si>
+  <si>
+    <t>21005503</t>
+  </si>
+  <si>
+    <t>幻·屠龙战链</t>
+  </si>
+  <si>
+    <t>625000000,37500000</t>
+  </si>
+  <si>
+    <t>2500000000</t>
+  </si>
+  <si>
+    <t>21005504</t>
+  </si>
+  <si>
+    <t>幻·屠龙战盔</t>
+  </si>
+  <si>
+    <t>625000000,50000000</t>
+  </si>
+  <si>
+    <t>21005505</t>
+  </si>
+  <si>
+    <t>幻·屠龙战镯</t>
+  </si>
+  <si>
+    <t>21005507</t>
+  </si>
+  <si>
+    <t>幻·屠龙战戒</t>
+  </si>
+  <si>
+    <t>21005509</t>
+  </si>
+  <si>
+    <t>幻·屠龙战带</t>
+  </si>
+  <si>
+    <t>625000000,37500000,50000000</t>
+  </si>
+  <si>
+    <t>21005510</t>
+  </si>
+  <si>
+    <t>幻·屠龙战靴</t>
+  </si>
+  <si>
+    <t>22005501</t>
+  </si>
+  <si>
+    <t>幻·龙牙法杖</t>
+  </si>
+  <si>
+    <t>187500000</t>
+  </si>
+  <si>
+    <t>22005502</t>
+  </si>
+  <si>
+    <t>幻·龙牙法衣</t>
+  </si>
+  <si>
+    <t>750000000,50000000</t>
+  </si>
+  <si>
+    <t>22005503</t>
+  </si>
+  <si>
+    <t>幻·龙牙法链</t>
+  </si>
+  <si>
+    <t>375000000,62500000</t>
+  </si>
+  <si>
+    <t>22005504</t>
+  </si>
+  <si>
+    <t>幻·龙牙法帽</t>
+  </si>
+  <si>
+    <t>375000000,50000000</t>
+  </si>
+  <si>
+    <t>22005505</t>
+  </si>
+  <si>
+    <t>幻·龙牙法镯</t>
+  </si>
+  <si>
+    <t>22005507</t>
+  </si>
+  <si>
+    <t>幻·龙牙法戒</t>
+  </si>
+  <si>
+    <t>22005509</t>
+  </si>
+  <si>
+    <t>幻·龙牙法带</t>
+  </si>
+  <si>
+    <t>375000000,62500000,50000000</t>
+  </si>
+  <si>
+    <t>22005510</t>
+  </si>
+  <si>
+    <t>幻·龙牙法靴</t>
+  </si>
+  <si>
+    <t>23005501</t>
+  </si>
+  <si>
+    <t>幻·逍遥道剑</t>
+  </si>
+  <si>
+    <t>150000000</t>
+  </si>
+  <si>
+    <t>23005502</t>
+  </si>
+  <si>
+    <t>幻·逍遥道袍</t>
+  </si>
+  <si>
+    <t>1000000000,50000000</t>
+  </si>
+  <si>
+    <t>23005503</t>
+  </si>
+  <si>
+    <t>幻·逍遥道链</t>
+  </si>
+  <si>
+    <t>500000000,50000000</t>
+  </si>
+  <si>
+    <t>23005504</t>
+  </si>
+  <si>
+    <t>幻·逍遥道冠</t>
+  </si>
+  <si>
+    <t>23005505</t>
+  </si>
+  <si>
+    <t>幻·逍遥道镯</t>
+  </si>
+  <si>
+    <t>23005507</t>
+  </si>
+  <si>
+    <t>幻·逍遥道戒</t>
+  </si>
+  <si>
+    <t>23005509</t>
+  </si>
+  <si>
+    <t>幻·逍遥道带</t>
+  </si>
+  <si>
+    <t>500000000,50000000,50000000</t>
+  </si>
+  <si>
+    <t>23005510</t>
+  </si>
+  <si>
+    <t>幻·逍遥道靴</t>
   </si>
   <si>
     <t>新手剑</t>
@@ -9731,7 +9927,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9758,6 +9954,14 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -9911,12 +10115,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -10252,16 +10456,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10270,119 +10471,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10405,15 +10609,32 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -10737,8 +10958,8 @@
   <sheetPr/>
   <dimension ref="A1:O1325"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A1287" workbookViewId="0">
-      <selection activeCell="I1330" sqref="I1330"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A1260" workbookViewId="0">
+      <selection activeCell="K1292" sqref="K1292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10766,127 +10987,127 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="3"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -65003,8 +65224,8 @@
       <c r="M1325" t="s">
         <v>31</v>
       </c>
-      <c r="N1325" t="s">
-        <v>680</v>
+      <c r="N1325">
+        <v>67402500</v>
       </c>
       <c r="O1325" t="s">
         <v>466</v>
@@ -65025,10 +65246,1160 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="19.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" customWidth="1"/>
+    <col min="9" max="13" width="21.125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="14.875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="4:11">
+      <c r="D1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="4:11">
+      <c r="D2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A3" s="12"/>
+      <c r="C3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A4" s="12"/>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C6" s="2" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3059</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C7" s="2" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3063</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3064</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C8" s="2" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3066</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3067</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C9" s="2" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3070</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3071</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C10" s="2" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3073</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>3067</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C11" s="2" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3075</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>3067</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C12" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3077</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>3078</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C13" s="2" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3080</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>3078</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C14" s="2" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3082</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>3083</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C15" s="2" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>3086</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C16" s="2" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3088</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>3089</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C17" s="2" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>3092</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C18" s="2" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>3089</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C19" s="2" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>3089</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C20" s="2" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3098</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>3099</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C21" s="2" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>3099</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C22" s="2" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3103</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>3104</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C23" s="2" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>3107</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C24" s="2" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3109</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C25" s="2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>3112</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C26" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C27" s="2" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3116</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C28" s="2" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>3118</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>3119</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C29" s="2" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>3121</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>3119</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:D65"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -65186,7 +66557,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3057</v>
+        <v>3122</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>28</v>
@@ -65195,10 +66566,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>3058</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>3059</v>
+        <v>3123</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>3124</v>
       </c>
       <c r="J6" s="7">
         <v>-1</v>
@@ -65227,7 +66598,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3060</v>
+        <v>3125</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>29</v>
@@ -65238,7 +66609,7 @@
       <c r="H7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="22" t="s">
         <v>471</v>
       </c>
       <c r="J7" s="7">
@@ -65268,7 +66639,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3061</v>
+        <v>3126</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>466</v>
@@ -65277,10 +66648,10 @@
         <v>466</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3058</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>3062</v>
+        <v>3123</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>3127</v>
       </c>
       <c r="J8" s="7">
         <v>-1</v>
@@ -65309,7 +66680,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3063</v>
+        <v>3128</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>683</v>
@@ -65320,8 +66691,8 @@
       <c r="H9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>3064</v>
+      <c r="I9" s="23" t="s">
+        <v>3129</v>
       </c>
       <c r="J9" s="7">
         <v>-1</v>
@@ -65350,7 +66721,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3065</v>
+        <v>3130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>794</v>
@@ -65359,10 +66730,10 @@
         <v>795</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>3058</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>3062</v>
+        <v>3123</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>3127</v>
       </c>
       <c r="J10" s="7">
         <v>-1</v>
@@ -65391,7 +66762,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3066</v>
+        <v>3131</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>906</v>
@@ -65402,8 +66773,8 @@
       <c r="H11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>3064</v>
+      <c r="I11" s="23" t="s">
+        <v>3129</v>
       </c>
       <c r="J11" s="7">
         <v>-1</v>
@@ -65432,7 +66803,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3067</v>
+        <v>3132</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1018</v>
@@ -65441,10 +66812,10 @@
         <v>1018</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>3058</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>3062</v>
+        <v>3123</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>3127</v>
       </c>
       <c r="J12" s="7">
         <v>-1</v>
@@ -65473,7 +66844,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3068</v>
+        <v>3133</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>26</v>
@@ -65484,8 +66855,8 @@
       <c r="H13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>3064</v>
+      <c r="I13" s="23" t="s">
+        <v>3129</v>
       </c>
       <c r="J13" s="7">
         <v>-1</v>
@@ -65514,7 +66885,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3069</v>
+        <v>3134</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
@@ -65522,11 +66893,11 @@
       <c r="G14" s="7">
         <v>11</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>3071</v>
+      <c r="H14" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>3136</v>
       </c>
       <c r="J14" s="7">
         <v>-1</v>
@@ -65555,7 +66926,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3072</v>
+        <v>3137</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
@@ -65563,11 +66934,11 @@
       <c r="G15" s="7">
         <v>11</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>3073</v>
+      <c r="H15" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>3138</v>
       </c>
       <c r="J15" s="7">
         <v>-1</v>
@@ -65596,7 +66967,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3074</v>
+        <v>3139</v>
       </c>
       <c r="F16" s="7">
         <v>11</v>
@@ -65604,11 +66975,11 @@
       <c r="G16" s="7">
         <v>11</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>3075</v>
+      <c r="H16" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>3140</v>
       </c>
       <c r="J16" s="7">
         <v>-1</v>
@@ -65637,7 +67008,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3076</v>
+        <v>3141</v>
       </c>
       <c r="F17" s="7">
         <v>11</v>
@@ -65645,11 +67016,11 @@
       <c r="G17" s="7">
         <v>11</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>3077</v>
+      <c r="H17" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>3142</v>
       </c>
       <c r="J17" s="7">
         <v>-1</v>
@@ -65678,7 +67049,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3078</v>
+        <v>3143</v>
       </c>
       <c r="F18" s="7">
         <v>11</v>
@@ -65686,11 +67057,11 @@
       <c r="G18" s="7">
         <v>11</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>3079</v>
+      <c r="H18" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>3144</v>
       </c>
       <c r="J18" s="7">
         <v>-1</v>
@@ -65719,7 +67090,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3080</v>
+        <v>3145</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -65727,11 +67098,11 @@
       <c r="G19" s="7">
         <v>11</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>3081</v>
+      <c r="H19" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>3146</v>
       </c>
       <c r="J19" s="7">
         <v>-1</v>
@@ -65760,7 +67131,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3082</v>
+        <v>3147</v>
       </c>
       <c r="F20" s="7">
         <v>11</v>
@@ -65768,11 +67139,11 @@
       <c r="G20" s="7">
         <v>11</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>3083</v>
+      <c r="H20" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>3148</v>
       </c>
       <c r="J20" s="7">
         <v>-1</v>
@@ -65801,7 +67172,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3084</v>
+        <v>3149</v>
       </c>
       <c r="F21" s="7">
         <v>11</v>
@@ -65809,11 +67180,11 @@
       <c r="G21" s="7">
         <v>11</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>3085</v>
+      <c r="H21" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>3150</v>
       </c>
       <c r="J21" s="7">
         <v>-1</v>
@@ -65842,7 +67213,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3086</v>
+        <v>3151</v>
       </c>
       <c r="F22" s="7">
         <v>11</v>
@@ -65850,11 +67221,11 @@
       <c r="G22" s="7">
         <v>11</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>3087</v>
+      <c r="H22" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>3152</v>
       </c>
       <c r="J22" s="7">
         <v>-1</v>
@@ -65883,7 +67254,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3088</v>
+        <v>3153</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
@@ -65891,11 +67262,11 @@
       <c r="G23" s="7">
         <v>11</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>3089</v>
+      <c r="H23" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>3154</v>
       </c>
       <c r="J23" s="7">
         <v>-1</v>
@@ -65924,7 +67295,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3090</v>
+        <v>3155</v>
       </c>
       <c r="F24" s="7">
         <v>11</v>
@@ -65932,11 +67303,11 @@
       <c r="G24" s="7">
         <v>11</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>3091</v>
+      <c r="H24" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>3156</v>
       </c>
       <c r="J24" s="7">
         <v>-1</v>
@@ -65965,7 +67336,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3092</v>
+        <v>3157</v>
       </c>
       <c r="F25" s="7">
         <v>11</v>
@@ -65973,11 +67344,11 @@
       <c r="G25" s="7">
         <v>11</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>3093</v>
+      <c r="H25" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>3158</v>
       </c>
       <c r="J25" s="7">
         <v>-1</v>
@@ -66006,7 +67377,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3094</v>
+        <v>3159</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
@@ -66014,11 +67385,11 @@
       <c r="G26" s="7">
         <v>11</v>
       </c>
-      <c r="H26" s="16" t="s">
-        <v>3070</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>3095</v>
+      <c r="H26" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>3160</v>
       </c>
       <c r="J26" s="7">
         <v>-1</v>
@@ -66047,7 +67418,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3096</v>
+        <v>3161</v>
       </c>
       <c r="F27" s="7">
         <v>12</v>
@@ -66055,11 +67426,11 @@
       <c r="G27" s="7">
         <v>12</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>3098</v>
+      <c r="H27" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>3163</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
@@ -66088,7 +67459,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>3099</v>
+        <v>3164</v>
       </c>
       <c r="F28" s="7">
         <v>12</v>
@@ -66096,11 +67467,11 @@
       <c r="G28" s="7">
         <v>12</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>3100</v>
+      <c r="H28" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>3165</v>
       </c>
       <c r="J28" s="7">
         <v>-1</v>
@@ -66129,7 +67500,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3101</v>
+        <v>3166</v>
       </c>
       <c r="F29" s="7">
         <v>12</v>
@@ -66137,11 +67508,11 @@
       <c r="G29" s="7">
         <v>12</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>3102</v>
+      <c r="H29" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>3167</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -66170,7 +67541,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3103</v>
+        <v>3168</v>
       </c>
       <c r="F30" s="7">
         <v>12</v>
@@ -66178,11 +67549,11 @@
       <c r="G30" s="7">
         <v>12</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>3104</v>
+      <c r="H30" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>3169</v>
       </c>
       <c r="J30" s="7">
         <v>-1</v>
@@ -66211,7 +67582,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>3105</v>
+        <v>3170</v>
       </c>
       <c r="F31" s="7">
         <v>12</v>
@@ -66219,11 +67590,11 @@
       <c r="G31" s="7">
         <v>12</v>
       </c>
-      <c r="H31" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>3106</v>
+      <c r="H31" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>3171</v>
       </c>
       <c r="J31" s="7">
         <v>-1</v>
@@ -66252,7 +67623,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3107</v>
+        <v>3172</v>
       </c>
       <c r="F32" s="7">
         <v>12</v>
@@ -66260,11 +67631,11 @@
       <c r="G32" s="7">
         <v>12</v>
       </c>
-      <c r="H32" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>3108</v>
+      <c r="H32" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>3173</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
@@ -66293,7 +67664,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>3109</v>
+        <v>3174</v>
       </c>
       <c r="F33" s="7">
         <v>12</v>
@@ -66301,11 +67672,11 @@
       <c r="G33" s="7">
         <v>12</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>3110</v>
+      <c r="H33" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>3175</v>
       </c>
       <c r="J33" s="7">
         <v>-1</v>
@@ -66334,7 +67705,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3111</v>
+        <v>3176</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -66342,11 +67713,11 @@
       <c r="G34" s="7">
         <v>12</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>3112</v>
+      <c r="H34" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>3177</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
@@ -66375,7 +67746,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3113</v>
+        <v>3178</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -66383,11 +67754,11 @@
       <c r="G35" s="7">
         <v>12</v>
       </c>
-      <c r="H35" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>3114</v>
+      <c r="H35" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>3179</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -66416,7 +67787,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3115</v>
+        <v>3180</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -66424,11 +67795,11 @@
       <c r="G36" s="7">
         <v>12</v>
       </c>
-      <c r="H36" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>3116</v>
+      <c r="H36" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>3181</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
@@ -66457,7 +67828,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3117</v>
+        <v>3182</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -66465,11 +67836,11 @@
       <c r="G37" s="7">
         <v>12</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>3118</v>
+      <c r="H37" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>3183</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
@@ -66498,7 +67869,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3119</v>
+        <v>3184</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -66506,11 +67877,11 @@
       <c r="G38" s="7">
         <v>12</v>
       </c>
-      <c r="H38" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>3120</v>
+      <c r="H38" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>3185</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -66539,7 +67910,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3121</v>
+        <v>3186</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -66547,11 +67918,11 @@
       <c r="G39" s="7">
         <v>12</v>
       </c>
-      <c r="H39" s="16" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>3122</v>
+      <c r="H39" s="23" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>3187</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
@@ -66580,7 +67951,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3123</v>
+        <v>3188</v>
       </c>
       <c r="F40" s="7">
         <v>13</v>
@@ -66588,11 +67959,11 @@
       <c r="G40" s="7">
         <v>13</v>
       </c>
-      <c r="H40" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>3125</v>
+      <c r="H40" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>3190</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
@@ -66621,7 +67992,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3126</v>
+        <v>3191</v>
       </c>
       <c r="F41" s="7">
         <v>13</v>
@@ -66629,11 +68000,11 @@
       <c r="G41" s="7">
         <v>13</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>3127</v>
+      <c r="H41" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>3192</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
@@ -66662,7 +68033,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3128</v>
+        <v>3193</v>
       </c>
       <c r="F42" s="7">
         <v>13</v>
@@ -66670,11 +68041,11 @@
       <c r="G42" s="7">
         <v>13</v>
       </c>
-      <c r="H42" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>3129</v>
+      <c r="H42" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>3194</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
@@ -66703,7 +68074,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>3130</v>
+        <v>3195</v>
       </c>
       <c r="F43" s="7">
         <v>13</v>
@@ -66711,11 +68082,11 @@
       <c r="G43" s="7">
         <v>13</v>
       </c>
-      <c r="H43" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>3131</v>
+      <c r="H43" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>3196</v>
       </c>
       <c r="J43" s="7">
         <v>-1</v>
@@ -66744,7 +68115,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3132</v>
+        <v>3197</v>
       </c>
       <c r="F44" s="7">
         <v>13</v>
@@ -66752,11 +68123,11 @@
       <c r="G44" s="7">
         <v>13</v>
       </c>
-      <c r="H44" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>3133</v>
+      <c r="H44" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>3198</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
@@ -66785,7 +68156,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3134</v>
+        <v>3199</v>
       </c>
       <c r="F45" s="7">
         <v>13</v>
@@ -66793,11 +68164,11 @@
       <c r="G45" s="7">
         <v>13</v>
       </c>
-      <c r="H45" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>3135</v>
+      <c r="H45" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>3200</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
@@ -66826,7 +68197,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3136</v>
+        <v>3201</v>
       </c>
       <c r="F46" s="7">
         <v>13</v>
@@ -66834,11 +68205,11 @@
       <c r="G46" s="7">
         <v>13</v>
       </c>
-      <c r="H46" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>3137</v>
+      <c r="H46" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>3202</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
@@ -66867,7 +68238,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3138</v>
+        <v>3203</v>
       </c>
       <c r="F47" s="7">
         <v>13</v>
@@ -66875,11 +68246,11 @@
       <c r="G47" s="7">
         <v>13</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>3139</v>
+      <c r="H47" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>3204</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -66908,7 +68279,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3140</v>
+        <v>3205</v>
       </c>
       <c r="F48" s="7">
         <v>13</v>
@@ -66916,11 +68287,11 @@
       <c r="G48" s="7">
         <v>13</v>
       </c>
-      <c r="H48" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>3141</v>
+      <c r="H48" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>3206</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -66949,7 +68320,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>3142</v>
+        <v>3207</v>
       </c>
       <c r="F49" s="7">
         <v>13</v>
@@ -66957,11 +68328,11 @@
       <c r="G49" s="7">
         <v>13</v>
       </c>
-      <c r="H49" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>3143</v>
+      <c r="H49" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>3208</v>
       </c>
       <c r="J49" s="7">
         <v>-1</v>
@@ -66990,7 +68361,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3144</v>
+        <v>3209</v>
       </c>
       <c r="F50" s="7">
         <v>13</v>
@@ -66998,11 +68369,11 @@
       <c r="G50" s="7">
         <v>13</v>
       </c>
-      <c r="H50" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>3145</v>
+      <c r="H50" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>3210</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -67031,7 +68402,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3146</v>
+        <v>3211</v>
       </c>
       <c r="F51" s="7">
         <v>13</v>
@@ -67039,11 +68410,11 @@
       <c r="G51" s="7">
         <v>13</v>
       </c>
-      <c r="H51" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>3147</v>
+      <c r="H51" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>3212</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -67072,7 +68443,7 @@
         <v>13</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3148</v>
+        <v>3213</v>
       </c>
       <c r="F52" s="7">
         <v>13</v>
@@ -67080,11 +68451,11 @@
       <c r="G52" s="7">
         <v>13</v>
       </c>
-      <c r="H52" s="16" t="s">
-        <v>3124</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>3149</v>
+      <c r="H52" s="23" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>3214</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -67113,7 +68484,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>3150</v>
+        <v>3215</v>
       </c>
       <c r="F53" s="7">
         <v>14</v>
@@ -67121,11 +68492,11 @@
       <c r="G53" s="7">
         <v>14</v>
       </c>
-      <c r="H53" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>3152</v>
+      <c r="H53" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>3217</v>
       </c>
       <c r="J53" s="7">
         <v>-1</v>
@@ -67154,7 +68525,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3153</v>
+        <v>3218</v>
       </c>
       <c r="F54" s="7">
         <v>14</v>
@@ -67162,11 +68533,11 @@
       <c r="G54" s="7">
         <v>14</v>
       </c>
-      <c r="H54" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>3154</v>
+      <c r="H54" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>3219</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
@@ -67195,7 +68566,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3155</v>
+        <v>3220</v>
       </c>
       <c r="F55" s="7">
         <v>14</v>
@@ -67203,11 +68574,11 @@
       <c r="G55" s="7">
         <v>14</v>
       </c>
-      <c r="H55" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>3156</v>
+      <c r="H55" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>3221</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
@@ -67236,7 +68607,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3157</v>
+        <v>3222</v>
       </c>
       <c r="F56" s="7">
         <v>14</v>
@@ -67244,11 +68615,11 @@
       <c r="G56" s="7">
         <v>14</v>
       </c>
-      <c r="H56" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>3158</v>
+      <c r="H56" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>3223</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -67277,7 +68648,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3159</v>
+        <v>3224</v>
       </c>
       <c r="F57" s="7">
         <v>14</v>
@@ -67285,11 +68656,11 @@
       <c r="G57" s="7">
         <v>14</v>
       </c>
-      <c r="H57" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>3160</v>
+      <c r="H57" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>3225</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
@@ -67318,7 +68689,7 @@
         <v>6</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>3161</v>
+        <v>3226</v>
       </c>
       <c r="F58" s="7">
         <v>14</v>
@@ -67326,11 +68697,11 @@
       <c r="G58" s="7">
         <v>14</v>
       </c>
-      <c r="H58" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>3162</v>
+      <c r="H58" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>3227</v>
       </c>
       <c r="J58" s="7">
         <v>-1</v>
@@ -67359,7 +68730,7 @@
         <v>7</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3163</v>
+        <v>3228</v>
       </c>
       <c r="F59" s="7">
         <v>14</v>
@@ -67367,11 +68738,11 @@
       <c r="G59" s="7">
         <v>14</v>
       </c>
-      <c r="H59" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>3164</v>
+      <c r="H59" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>3229</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -67400,7 +68771,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3165</v>
+        <v>3230</v>
       </c>
       <c r="F60" s="7">
         <v>14</v>
@@ -67408,11 +68779,11 @@
       <c r="G60" s="7">
         <v>14</v>
       </c>
-      <c r="H60" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>3166</v>
+      <c r="H60" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>3231</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
@@ -67441,7 +68812,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3167</v>
+        <v>3232</v>
       </c>
       <c r="F61" s="7">
         <v>14</v>
@@ -67449,11 +68820,11 @@
       <c r="G61" s="7">
         <v>14</v>
       </c>
-      <c r="H61" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>3168</v>
+      <c r="H61" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>3233</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
@@ -67482,7 +68853,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3169</v>
+        <v>3234</v>
       </c>
       <c r="F62" s="7">
         <v>14</v>
@@ -67490,11 +68861,11 @@
       <c r="G62" s="7">
         <v>14</v>
       </c>
-      <c r="H62" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>3170</v>
+      <c r="H62" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>3235</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -67523,7 +68894,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3171</v>
+        <v>3236</v>
       </c>
       <c r="F63" s="7">
         <v>14</v>
@@ -67531,11 +68902,11 @@
       <c r="G63" s="7">
         <v>14</v>
       </c>
-      <c r="H63" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>3172</v>
+      <c r="H63" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>3237</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
@@ -67564,7 +68935,7 @@
         <v>12</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3173</v>
+        <v>3238</v>
       </c>
       <c r="F64" s="7">
         <v>14</v>
@@ -67572,11 +68943,11 @@
       <c r="G64" s="7">
         <v>14</v>
       </c>
-      <c r="H64" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>3174</v>
+      <c r="H64" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>3239</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
@@ -67605,7 +68976,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3175</v>
+        <v>3240</v>
       </c>
       <c r="F65" s="7">
         <v>14</v>
@@ -67613,11 +68984,11 @@
       <c r="G65" s="7">
         <v>14</v>
       </c>
-      <c r="H65" s="16" t="s">
-        <v>3151</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>3176</v>
+      <c r="H65" s="23" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>3241</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
@@ -67646,7 +69017,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3177</v>
+        <v>3242</v>
       </c>
       <c r="F66" s="7">
         <v>11</v>
@@ -67654,11 +69025,11 @@
       <c r="G66" s="7">
         <v>11</v>
       </c>
-      <c r="H66" s="16" t="s">
-        <v>3178</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>3179</v>
+      <c r="H66" s="23" t="s">
+        <v>3243</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>3244</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
@@ -67687,7 +69058,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>3180</v>
+        <v>3245</v>
       </c>
       <c r="F67" s="7">
         <v>0</v>
@@ -67695,11 +69066,11 @@
       <c r="G67" s="7">
         <v>0</v>
       </c>
-      <c r="H67" s="16" t="s">
-        <v>3181</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>3182</v>
+      <c r="H67" s="23" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>3247</v>
       </c>
       <c r="J67" s="7">
         <v>-1</v>
@@ -67728,7 +69099,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3183</v>
+        <v>3248</v>
       </c>
       <c r="F68" s="7">
         <v>0</v>
@@ -67736,11 +69107,11 @@
       <c r="G68" s="7">
         <v>0</v>
       </c>
-      <c r="H68" s="16" t="s">
-        <v>3181</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>3184</v>
+      <c r="H68" s="23" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>3249</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -67769,7 +69140,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3185</v>
+        <v>3250</v>
       </c>
       <c r="F69" s="7">
         <v>0</v>
@@ -67777,11 +69148,11 @@
       <c r="G69" s="7">
         <v>0</v>
       </c>
-      <c r="H69" s="16" t="s">
-        <v>3181</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>3186</v>
+      <c r="H69" s="23" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>3251</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -67810,7 +69181,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3187</v>
+        <v>3252</v>
       </c>
       <c r="F70" s="7">
         <v>0</v>
@@ -67818,11 +69189,11 @@
       <c r="G70" s="7">
         <v>0</v>
       </c>
-      <c r="H70" s="16" t="s">
-        <v>3181</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>3188</v>
+      <c r="H70" s="23" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>3253</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -67851,7 +69222,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3189</v>
+        <v>3254</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -67859,11 +69230,11 @@
       <c r="G71" s="7">
         <v>0</v>
       </c>
-      <c r="H71" s="16" t="s">
-        <v>3181</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>3190</v>
+      <c r="H71" s="23" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>3255</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -67892,7 +69263,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3191</v>
+        <v>3256</v>
       </c>
       <c r="F72" s="7">
         <v>0</v>
@@ -67900,11 +69271,11 @@
       <c r="G72" s="7">
         <v>0</v>
       </c>
-      <c r="H72" s="16" t="s">
-        <v>3181</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>3192</v>
+      <c r="H72" s="23" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>3257</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -67933,7 +69304,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>3193</v>
+        <v>3258</v>
       </c>
       <c r="F73" s="7">
         <v>0</v>
@@ -67941,11 +69312,11 @@
       <c r="G73" s="7">
         <v>0</v>
       </c>
-      <c r="H73" s="16" t="s">
-        <v>3181</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>3194</v>
+      <c r="H73" s="23" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>3259</v>
       </c>
       <c r="J73" s="7">
         <v>-1</v>
@@ -67974,7 +69345,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3195</v>
+        <v>3260</v>
       </c>
       <c r="F74" s="7">
         <v>0</v>
@@ -67982,11 +69353,11 @@
       <c r="G74" s="7">
         <v>0</v>
       </c>
-      <c r="H74" s="16" t="s">
-        <v>3181</v>
-      </c>
-      <c r="I74" s="16" t="s">
-        <v>3196</v>
+      <c r="H74" s="23" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>3261</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17811" uniqueCount="3262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17823" uniqueCount="3270">
   <si>
     <t>_id</t>
   </si>
@@ -9614,6 +9614,12 @@
     <t>140,140,140,140</t>
   </si>
   <si>
+    <t>斗笠十四阶</t>
+  </si>
+  <si>
+    <t>160,160,160,160</t>
+  </si>
+  <si>
     <t>护盾一阶</t>
   </si>
   <si>
@@ -9695,6 +9701,12 @@
     <t>140,140</t>
   </si>
   <si>
+    <t>护盾十四阶</t>
+  </si>
+  <si>
+    <t>160,160</t>
+  </si>
+  <si>
     <t>神符一阶</t>
   </si>
   <si>
@@ -9776,6 +9788,12 @@
     <t>14,14,140,140,140</t>
   </si>
   <si>
+    <t>神符十四阶</t>
+  </si>
+  <si>
+    <t>16,16,160,160,160</t>
+  </si>
+  <si>
     <t>魔石一阶</t>
   </si>
   <si>
@@ -9855,6 +9873,12 @@
   </si>
   <si>
     <t>14,140,3</t>
+  </si>
+  <si>
+    <t>魔石十四阶</t>
+  </si>
+  <si>
+    <t>16,160,4</t>
   </si>
   <si>
     <t>测试斗笠</t>
@@ -65248,7 +65272,7 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -66396,10 +66420,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -67412,31 +67436,31 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C27" s="7">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="D27" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>3161</v>
       </c>
       <c r="F27" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="23" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I27" s="22" t="s">
         <v>3162</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>3163</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
       </c>
       <c r="K27" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L27" s="7">
         <v>-1</v>
@@ -67452,55 +67476,29 @@
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C28" s="7">
-        <v>202</v>
-      </c>
-      <c r="D28" s="7">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>3164</v>
-      </c>
-      <c r="F28" s="7">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7">
-        <v>12</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>3162</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>3165</v>
-      </c>
-      <c r="J28" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K28" s="7">
-        <v>1</v>
-      </c>
-      <c r="L28" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M28" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C29" s="7">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="F29" s="7">
         <v>12</v>
@@ -67509,10 +67507,10 @@
         <v>12</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>3162</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>3167</v>
+        <v>3164</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>3165</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -67535,13 +67533,13 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C30" s="7">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="F30" s="7">
         <v>12</v>
@@ -67550,16 +67548,16 @@
         <v>12</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>3162</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>3169</v>
+        <v>3164</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>3167</v>
       </c>
       <c r="J30" s="7">
         <v>-1</v>
       </c>
       <c r="K30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7">
         <v>-1</v>
@@ -67576,13 +67574,13 @@
     </row>
     <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C31" s="7">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D31" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="F31" s="7">
         <v>12</v>
@@ -67591,16 +67589,16 @@
         <v>12</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="J31" s="7">
         <v>-1</v>
       </c>
       <c r="K31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" s="7">
         <v>-1</v>
@@ -67617,13 +67615,13 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C32" s="7">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D32" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="F32" s="7">
         <v>12</v>
@@ -67632,10 +67630,10 @@
         <v>12</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
@@ -67658,13 +67656,13 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C33" s="7">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D33" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="F33" s="7">
         <v>12</v>
@@ -67673,16 +67671,16 @@
         <v>12</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="J33" s="7">
         <v>-1</v>
       </c>
       <c r="K33" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33" s="7">
         <v>-1</v>
@@ -67699,13 +67697,13 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C34" s="7">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D34" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -67714,16 +67712,16 @@
         <v>12</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
       </c>
       <c r="K34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" s="7">
         <v>-1</v>
@@ -67740,13 +67738,13 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C35" s="7">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -67755,10 +67753,10 @@
         <v>12</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -67781,13 +67779,13 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C36" s="7">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D36" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -67796,16 +67794,16 @@
         <v>12</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
       </c>
       <c r="K36" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" s="7">
         <v>-1</v>
@@ -67822,13 +67820,13 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C37" s="7">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D37" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -67837,16 +67835,16 @@
         <v>12</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
       </c>
       <c r="K37" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" s="7">
         <v>-1</v>
@@ -67863,13 +67861,13 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C38" s="7">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D38" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -67878,10 +67876,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -67904,13 +67902,13 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C39" s="7">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D39" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -67919,16 +67917,16 @@
         <v>12</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
       </c>
       <c r="K39" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" s="7">
         <v>-1</v>
@@ -67945,31 +67943,31 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C40" s="7">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="D40" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="F40" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>3189</v>
+        <v>3164</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
       </c>
       <c r="K40" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L40" s="7">
         <v>-1</v>
@@ -67986,31 +67984,31 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C41" s="7">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="D41" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="F41" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="23" t="s">
+        <v>3164</v>
+      </c>
+      <c r="I41" s="22" t="s">
         <v>3189</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>3192</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
       </c>
       <c r="K41" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L41" s="7">
         <v>-1</v>
@@ -68027,31 +68025,31 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C42" s="7">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="D42" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="F42" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>3189</v>
+        <v>3164</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
       </c>
       <c r="K42" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L42" s="7">
         <v>-1</v>
@@ -68067,55 +68065,29 @@
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C43" s="7">
-        <v>304</v>
-      </c>
-      <c r="D43" s="7">
-        <v>4</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>3195</v>
-      </c>
-      <c r="F43" s="7">
-        <v>13</v>
-      </c>
-      <c r="G43" s="7">
-        <v>13</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>3189</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>3196</v>
-      </c>
-      <c r="J43" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K43" s="7">
-        <v>2</v>
-      </c>
-      <c r="L43" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M43" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N43" s="7">
-        <v>1</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C44" s="7">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D44" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3197</v>
+        <v>3192</v>
       </c>
       <c r="F44" s="7">
         <v>13</v>
@@ -68124,16 +68096,16 @@
         <v>13</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
       </c>
       <c r="K44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44" s="7">
         <v>-1</v>
@@ -68150,13 +68122,13 @@
     </row>
     <row r="45" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C45" s="7">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D45" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="F45" s="7">
         <v>13</v>
@@ -68165,16 +68137,16 @@
         <v>13</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>3200</v>
+        <v>3196</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
       </c>
       <c r="K45" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45" s="7">
         <v>-1</v>
@@ -68191,13 +68163,13 @@
     </row>
     <row r="46" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C46" s="7">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D46" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3201</v>
+        <v>3197</v>
       </c>
       <c r="F46" s="7">
         <v>13</v>
@@ -68206,16 +68178,16 @@
         <v>13</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>3202</v>
+        <v>3198</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
       </c>
       <c r="K46" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" s="7">
         <v>-1</v>
@@ -68232,13 +68204,13 @@
     </row>
     <row r="47" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C47" s="7">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D47" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3203</v>
+        <v>3199</v>
       </c>
       <c r="F47" s="7">
         <v>13</v>
@@ -68247,16 +68219,16 @@
         <v>13</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>3204</v>
+        <v>3200</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
       </c>
       <c r="K47" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L47" s="7">
         <v>-1</v>
@@ -68273,13 +68245,13 @@
     </row>
     <row r="48" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C48" s="7">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D48" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3205</v>
+        <v>3201</v>
       </c>
       <c r="F48" s="7">
         <v>13</v>
@@ -68288,16 +68260,16 @@
         <v>13</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>3206</v>
+        <v>3202</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
       </c>
       <c r="K48" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L48" s="7">
         <v>-1</v>
@@ -68314,13 +68286,13 @@
     </row>
     <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C49" s="7">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D49" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="F49" s="7">
         <v>13</v>
@@ -68329,16 +68301,16 @@
         <v>13</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>3208</v>
+        <v>3204</v>
       </c>
       <c r="J49" s="7">
         <v>-1</v>
       </c>
       <c r="K49" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L49" s="7">
         <v>-1</v>
@@ -68355,13 +68327,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C50" s="7">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D50" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="F50" s="7">
         <v>13</v>
@@ -68370,16 +68342,16 @@
         <v>13</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>3210</v>
+        <v>3206</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
       </c>
       <c r="K50" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L50" s="7">
         <v>-1</v>
@@ -68396,13 +68368,13 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C51" s="7">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D51" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="F51" s="7">
         <v>13</v>
@@ -68411,16 +68383,16 @@
         <v>13</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
       </c>
       <c r="K51" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L51" s="7">
         <v>-1</v>
@@ -68437,13 +68409,13 @@
     </row>
     <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C52" s="7">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D52" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3213</v>
+        <v>3209</v>
       </c>
       <c r="F52" s="7">
         <v>13</v>
@@ -68452,16 +68424,16 @@
         <v>13</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>3214</v>
+        <v>3210</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
       </c>
       <c r="K52" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L52" s="7">
         <v>-1</v>
@@ -68478,31 +68450,31 @@
     </row>
     <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C53" s="7">
-        <v>401</v>
+        <v>310</v>
       </c>
       <c r="D53" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="F53" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>3216</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>3217</v>
+        <v>3193</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>3212</v>
       </c>
       <c r="J53" s="7">
         <v>-1</v>
       </c>
       <c r="K53" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L53" s="7">
         <v>-1</v>
@@ -68519,31 +68491,31 @@
     </row>
     <row r="54" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C54" s="7">
-        <v>402</v>
+        <v>311</v>
       </c>
       <c r="D54" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3218</v>
+        <v>3213</v>
       </c>
       <c r="F54" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>3216</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>3219</v>
+        <v>3193</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>3214</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
       </c>
       <c r="K54" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L54" s="7">
         <v>-1</v>
@@ -68560,31 +68532,31 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C55" s="7">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="D55" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3220</v>
+        <v>3215</v>
       </c>
       <c r="F55" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G55" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55" s="23" t="s">
+        <v>3193</v>
+      </c>
+      <c r="I55" s="22" t="s">
         <v>3216</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>3221</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
       </c>
       <c r="K55" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L55" s="7">
         <v>-1</v>
@@ -68601,31 +68573,31 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C56" s="7">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="D56" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3222</v>
+        <v>3217</v>
       </c>
       <c r="F56" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>3216</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>3223</v>
+        <v>3193</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>3218</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
       </c>
       <c r="K56" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L56" s="7">
         <v>-1</v>
@@ -68642,31 +68614,31 @@
     </row>
     <row r="57" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C57" s="7">
-        <v>405</v>
+        <v>314</v>
       </c>
       <c r="D57" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3224</v>
+        <v>3219</v>
       </c>
       <c r="F57" s="7">
         <v>14</v>
       </c>
       <c r="G57" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>3216</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>3225</v>
+        <v>3193</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>3220</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
       </c>
       <c r="K57" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L57" s="7">
         <v>-1</v>
@@ -68682,55 +68654,29 @@
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C58" s="7">
-        <v>406</v>
-      </c>
-      <c r="D58" s="7">
-        <v>6</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>3226</v>
-      </c>
-      <c r="F58" s="7">
-        <v>14</v>
-      </c>
-      <c r="G58" s="7">
-        <v>14</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>3216</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>3227</v>
-      </c>
-      <c r="J58" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K58" s="7">
-        <v>2</v>
-      </c>
-      <c r="L58" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M58" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N58" s="7">
-        <v>1</v>
-      </c>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C59" s="7">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D59" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3228</v>
+        <v>3221</v>
       </c>
       <c r="F59" s="7">
         <v>14</v>
@@ -68739,16 +68685,16 @@
         <v>14</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>3229</v>
+        <v>3223</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
       </c>
       <c r="K59" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L59" s="7">
         <v>-1</v>
@@ -68765,13 +68711,13 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C60" s="7">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D60" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3230</v>
+        <v>3224</v>
       </c>
       <c r="F60" s="7">
         <v>14</v>
@@ -68780,16 +68726,16 @@
         <v>14</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>3231</v>
+        <v>3225</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
       </c>
       <c r="K60" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L60" s="7">
         <v>-1</v>
@@ -68806,13 +68752,13 @@
     </row>
     <row r="61" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C61" s="7">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D61" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3232</v>
+        <v>3226</v>
       </c>
       <c r="F61" s="7">
         <v>14</v>
@@ -68821,16 +68767,16 @@
         <v>14</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>3233</v>
+        <v>3227</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
       </c>
       <c r="K61" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61" s="7">
         <v>-1</v>
@@ -68847,13 +68793,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C62" s="7">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D62" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3234</v>
+        <v>3228</v>
       </c>
       <c r="F62" s="7">
         <v>14</v>
@@ -68862,16 +68808,16 @@
         <v>14</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>3235</v>
+        <v>3229</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
       </c>
       <c r="K62" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L62" s="7">
         <v>-1</v>
@@ -68888,13 +68834,13 @@
     </row>
     <row r="63" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C63" s="7">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D63" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3236</v>
+        <v>3230</v>
       </c>
       <c r="F63" s="7">
         <v>14</v>
@@ -68903,16 +68849,16 @@
         <v>14</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>3237</v>
+        <v>3231</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
       </c>
       <c r="K63" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L63" s="7">
         <v>-1</v>
@@ -68929,13 +68875,13 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C64" s="7">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D64" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3238</v>
+        <v>3232</v>
       </c>
       <c r="F64" s="7">
         <v>14</v>
@@ -68944,16 +68890,16 @@
         <v>14</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>3239</v>
+        <v>3233</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
       </c>
       <c r="K64" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L64" s="7">
         <v>-1</v>
@@ -68970,13 +68916,13 @@
     </row>
     <row r="65" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C65" s="7">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D65" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3240</v>
+        <v>3234</v>
       </c>
       <c r="F65" s="7">
         <v>14</v>
@@ -68985,16 +68931,16 @@
         <v>14</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>3241</v>
+        <v>3235</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
       </c>
       <c r="K65" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L65" s="7">
         <v>-1</v>
@@ -69011,31 +68957,31 @@
     </row>
     <row r="66" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C66" s="7">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="D66" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3242</v>
+        <v>3236</v>
       </c>
       <c r="F66" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G66" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>3243</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>3244</v>
+        <v>3222</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>3237</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
       </c>
       <c r="K66" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L66" s="7">
         <v>-1</v>
@@ -69052,31 +68998,31 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C67" s="7">
-        <v>502</v>
+        <v>409</v>
       </c>
       <c r="D67" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>3245</v>
+        <v>3238</v>
       </c>
       <c r="F67" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G67" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>3246</v>
+        <v>3222</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>3247</v>
+        <v>3239</v>
       </c>
       <c r="J67" s="7">
         <v>-1</v>
       </c>
       <c r="K67" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67" s="7">
         <v>-1</v>
@@ -69093,31 +69039,31 @@
     </row>
     <row r="68" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C68" s="7">
-        <v>503</v>
+        <v>410</v>
       </c>
       <c r="D68" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3248</v>
+        <v>3240</v>
       </c>
       <c r="F68" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G68" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>3246</v>
+        <v>3222</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>3249</v>
+        <v>3241</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
       </c>
       <c r="K68" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L68" s="7">
         <v>-1</v>
@@ -69134,31 +69080,31 @@
     </row>
     <row r="69" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C69" s="7">
-        <v>504</v>
+        <v>411</v>
       </c>
       <c r="D69" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3250</v>
+        <v>3242</v>
       </c>
       <c r="F69" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G69" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>3246</v>
+        <v>3222</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>3251</v>
+        <v>3243</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
       </c>
       <c r="K69" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L69" s="7">
         <v>-1</v>
@@ -69175,31 +69121,31 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C70" s="7">
-        <v>505</v>
+        <v>412</v>
       </c>
       <c r="D70" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3252</v>
+        <v>3244</v>
       </c>
       <c r="F70" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G70" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>3246</v>
+        <v>3222</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>3253</v>
+        <v>3245</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
       </c>
       <c r="K70" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L70" s="7">
         <v>-1</v>
@@ -69216,31 +69162,31 @@
     </row>
     <row r="71" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C71" s="7">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="D71" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3254</v>
+        <v>3246</v>
       </c>
       <c r="F71" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G71" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>3246</v>
+        <v>3222</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>3255</v>
+        <v>3247</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
       </c>
       <c r="K71" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L71" s="7">
         <v>-1</v>
@@ -69257,31 +69203,31 @@
     </row>
     <row r="72" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C72" s="7">
-        <v>507</v>
+        <v>414</v>
       </c>
       <c r="D72" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3256</v>
+        <v>3248</v>
       </c>
       <c r="F72" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G72" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>3246</v>
+        <v>3222</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>3257</v>
+        <v>3249</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
       </c>
       <c r="K72" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L72" s="7">
         <v>-1</v>
@@ -69297,73 +69243,47 @@
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C73" s="7">
-        <v>508</v>
-      </c>
-      <c r="D73" s="7">
-        <v>0</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>3258</v>
-      </c>
-      <c r="F73" s="7">
-        <v>0</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>3246</v>
-      </c>
-      <c r="I73" s="23" t="s">
-        <v>3259</v>
-      </c>
-      <c r="J73" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K73" s="7">
-        <v>1</v>
-      </c>
-      <c r="L73" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M73" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N73" s="7">
-        <v>1</v>
-      </c>
-      <c r="O73" s="7">
-        <v>0</v>
-      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C74" s="7">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D74" s="7">
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3260</v>
+        <v>3250</v>
       </c>
       <c r="F74" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G74" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>3246</v>
-      </c>
-      <c r="I74" s="23" t="s">
-        <v>3261</v>
+        <v>3251</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>3252</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
       </c>
       <c r="K74" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L74" s="7">
         <v>-1</v>
@@ -69378,20 +69298,348 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="9:9">
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="9:9">
-      <c r="I76" s="11"/>
-    </row>
-    <row r="77" spans="9:9">
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="9:9">
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="9:9">
-      <c r="I79" s="11"/>
+    <row r="75" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C75" s="7">
+        <v>502</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>3253</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>3255</v>
+      </c>
+      <c r="J75" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K75" s="7">
+        <v>1</v>
+      </c>
+      <c r="L75" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N75" s="7">
+        <v>1</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C76" s="7">
+        <v>503</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>3257</v>
+      </c>
+      <c r="J76" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K76" s="7">
+        <v>1</v>
+      </c>
+      <c r="L76" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N76" s="7">
+        <v>1</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C77" s="7">
+        <v>504</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>3258</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>3259</v>
+      </c>
+      <c r="J77" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K77" s="7">
+        <v>1</v>
+      </c>
+      <c r="L77" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M77" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N77" s="7">
+        <v>1</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C78" s="7">
+        <v>505</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>3260</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>3261</v>
+      </c>
+      <c r="J78" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K78" s="7">
+        <v>1</v>
+      </c>
+      <c r="L78" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N78" s="7">
+        <v>1</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C79" s="7">
+        <v>506</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>3262</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>3263</v>
+      </c>
+      <c r="J79" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K79" s="7">
+        <v>1</v>
+      </c>
+      <c r="L79" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M79" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N79" s="7">
+        <v>1</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C80" s="7">
+        <v>507</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>3265</v>
+      </c>
+      <c r="J80" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K80" s="7">
+        <v>1</v>
+      </c>
+      <c r="L80" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M80" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N80" s="7">
+        <v>1</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C81" s="7">
+        <v>508</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>3266</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>3267</v>
+      </c>
+      <c r="J81" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K81" s="7">
+        <v>1</v>
+      </c>
+      <c r="L81" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M81" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N81" s="7">
+        <v>1</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C82" s="7">
+        <v>509</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>3268</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>3269</v>
+      </c>
+      <c r="J82" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K82" s="7">
+        <v>1</v>
+      </c>
+      <c r="L82" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M82" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N82" s="7">
+        <v>1</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9">
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="9:9">
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="9:9">
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="9:9">
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
     <sheet name="新版随机" sheetId="5" r:id="rId2"/>
     <sheet name="定制装备" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -129,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17823" uniqueCount="3270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18135" uniqueCount="3334">
   <si>
     <t>_id</t>
   </si>
@@ -9495,6 +9508,198 @@
   </si>
   <si>
     <t>幻·逍遥道靴</t>
+  </si>
+  <si>
+    <t>21005601</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>幻·开天战刃</t>
+  </si>
+  <si>
+    <t>225000000</t>
+  </si>
+  <si>
+    <t>10000000000</t>
+  </si>
+  <si>
+    <t>21005602</t>
+  </si>
+  <si>
+    <t>幻·开天战甲</t>
+  </si>
+  <si>
+    <t>2500000000,100000000</t>
+  </si>
+  <si>
+    <t>21005603</t>
+  </si>
+  <si>
+    <t>幻·开天战链</t>
+  </si>
+  <si>
+    <t>1250000000,75000000</t>
+  </si>
+  <si>
+    <t>21005604</t>
+  </si>
+  <si>
+    <t>幻·开天战盔</t>
+  </si>
+  <si>
+    <t>1250000000,100000000</t>
+  </si>
+  <si>
+    <t>21005605</t>
+  </si>
+  <si>
+    <t>幻·开天战镯</t>
+  </si>
+  <si>
+    <t>21005607</t>
+  </si>
+  <si>
+    <t>幻·开天战戒</t>
+  </si>
+  <si>
+    <t>21005609</t>
+  </si>
+  <si>
+    <t>幻·开天战带</t>
+  </si>
+  <si>
+    <t>1250000000,75000000,100000000</t>
+  </si>
+  <si>
+    <t>21005610</t>
+  </si>
+  <si>
+    <t>幻·开天战靴</t>
+  </si>
+  <si>
+    <t>22005601</t>
+  </si>
+  <si>
+    <t>幻·镇天法杖</t>
+  </si>
+  <si>
+    <t>375000000</t>
+  </si>
+  <si>
+    <t>22005602</t>
+  </si>
+  <si>
+    <t>幻·镇天法衣</t>
+  </si>
+  <si>
+    <t>1500000000,100000000</t>
+  </si>
+  <si>
+    <t>22005603</t>
+  </si>
+  <si>
+    <t>幻·镇天法链</t>
+  </si>
+  <si>
+    <t>750000000,125000000</t>
+  </si>
+  <si>
+    <t>22005604</t>
+  </si>
+  <si>
+    <t>幻·镇天法帽</t>
+  </si>
+  <si>
+    <t>750000000,100000000</t>
+  </si>
+  <si>
+    <t>22005605</t>
+  </si>
+  <si>
+    <t>幻·镇天法镯</t>
+  </si>
+  <si>
+    <t>22005607</t>
+  </si>
+  <si>
+    <t>幻·镇天法戒</t>
+  </si>
+  <si>
+    <t>22005609</t>
+  </si>
+  <si>
+    <t>幻·镇天法带</t>
+  </si>
+  <si>
+    <t>750000000,125000000,100000000</t>
+  </si>
+  <si>
+    <t>22005610</t>
+  </si>
+  <si>
+    <t>幻·镇天法靴</t>
+  </si>
+  <si>
+    <t>23005601</t>
+  </si>
+  <si>
+    <t>幻·玄天道剑</t>
+  </si>
+  <si>
+    <t>300000000</t>
+  </si>
+  <si>
+    <t>23005602</t>
+  </si>
+  <si>
+    <t>幻·玄天道袍</t>
+  </si>
+  <si>
+    <t>2000000000,100000000</t>
+  </si>
+  <si>
+    <t>23005603</t>
+  </si>
+  <si>
+    <t>幻·玄天道链</t>
+  </si>
+  <si>
+    <t>1000000000,100000000</t>
+  </si>
+  <si>
+    <t>23005604</t>
+  </si>
+  <si>
+    <t>幻·玄天道冠</t>
+  </si>
+  <si>
+    <t>23005605</t>
+  </si>
+  <si>
+    <t>幻·玄天道镯</t>
+  </si>
+  <si>
+    <t>23005607</t>
+  </si>
+  <si>
+    <t>幻·玄天道戒</t>
+  </si>
+  <si>
+    <t>23005609</t>
+  </si>
+  <si>
+    <t>幻·玄天道带</t>
+  </si>
+  <si>
+    <t>1000000000,100000000,100000000</t>
+  </si>
+  <si>
+    <t>23005610</t>
+  </si>
+  <si>
+    <t>幻·玄天道靴</t>
   </si>
   <si>
     <t>新手剑</t>
@@ -9944,14 +10149,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9977,6 +10182,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -10480,16 +10691,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10498,119 +10706,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10633,21 +10844,10 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10655,7 +10855,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -10982,7 +11194,7 @@
   <sheetPr/>
   <dimension ref="A1:O1325"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A1260" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A1308" workbookViewId="0">
       <selection activeCell="K1292" sqref="K1292"/>
     </sheetView>
   </sheetViews>
@@ -11011,127 +11223,127 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="3"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -65270,10 +65482,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -65288,142 +65500,142 @@
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="4:11">
-      <c r="D1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="D1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="4:11">
-      <c r="D2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="D2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A3" s="12"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="13"/>
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A4" s="12"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A5" s="12"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -65431,7 +65643,7 @@
       <c r="C6" s="2" t="s">
         <v>3057</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -65440,7 +65652,7 @@
       <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -65472,7 +65684,7 @@
       <c r="C7" s="2" t="s">
         <v>3062</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -65481,7 +65693,7 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -65513,7 +65725,7 @@
       <c r="C8" s="2" t="s">
         <v>3065</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -65522,7 +65734,7 @@
       <c r="F8" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="22" t="s">
         <v>466</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -65554,7 +65766,7 @@
       <c r="C9" s="2" t="s">
         <v>3069</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -65563,7 +65775,7 @@
       <c r="F9" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>683</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -65595,7 +65807,7 @@
       <c r="C10" s="2" t="s">
         <v>3072</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -65604,7 +65816,7 @@
       <c r="F10" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>795</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -65636,7 +65848,7 @@
       <c r="C11" s="2" t="s">
         <v>3074</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -65645,7 +65857,7 @@
       <c r="F11" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="22" t="s">
         <v>907</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -65677,7 +65889,7 @@
       <c r="C12" s="2" t="s">
         <v>3076</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -65686,7 +65898,7 @@
       <c r="F12" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>1018</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -65718,7 +65930,7 @@
       <c r="C13" s="2" t="s">
         <v>3079</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -65727,7 +65939,7 @@
       <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -65759,7 +65971,7 @@
       <c r="C14" s="2" t="s">
         <v>3081</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -65768,7 +65980,7 @@
       <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -65800,7 +66012,7 @@
       <c r="C15" s="2" t="s">
         <v>3084</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -65809,7 +66021,7 @@
       <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -65841,7 +66053,7 @@
       <c r="C16" s="2" t="s">
         <v>3087</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -65850,7 +66062,7 @@
       <c r="F16" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>466</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -65882,7 +66094,7 @@
       <c r="C17" s="2" t="s">
         <v>3090</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -65891,7 +66103,7 @@
       <c r="F17" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="22" t="s">
         <v>683</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -65923,7 +66135,7 @@
       <c r="C18" s="2" t="s">
         <v>3093</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -65932,7 +66144,7 @@
       <c r="F18" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="22" t="s">
         <v>795</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -65964,7 +66176,7 @@
       <c r="C19" s="2" t="s">
         <v>3095</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -65973,7 +66185,7 @@
       <c r="F19" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>907</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -66005,7 +66217,7 @@
       <c r="C20" s="2" t="s">
         <v>3097</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -66014,7 +66226,7 @@
       <c r="F20" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>1018</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -66046,7 +66258,7 @@
       <c r="C21" s="2" t="s">
         <v>3100</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -66055,7 +66267,7 @@
       <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -66087,7 +66299,7 @@
       <c r="C22" s="2" t="s">
         <v>3102</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -66096,7 +66308,7 @@
       <c r="F22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -66128,7 +66340,7 @@
       <c r="C23" s="2" t="s">
         <v>3105</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -66137,7 +66349,7 @@
       <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -66169,7 +66381,7 @@
       <c r="C24" s="2" t="s">
         <v>3108</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -66178,7 +66390,7 @@
       <c r="F24" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>466</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -66210,7 +66422,7 @@
       <c r="C25" s="2" t="s">
         <v>3111</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -66219,7 +66431,7 @@
       <c r="F25" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="22" t="s">
         <v>683</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -66251,7 +66463,7 @@
       <c r="C26" s="2" t="s">
         <v>3113</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -66260,7 +66472,7 @@
       <c r="F26" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="22" t="s">
         <v>795</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -66292,7 +66504,7 @@
       <c r="C27" s="2" t="s">
         <v>3115</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -66301,7 +66513,7 @@
       <c r="F27" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="22" t="s">
         <v>907</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -66333,7 +66545,7 @@
       <c r="C28" s="2" t="s">
         <v>3117</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -66342,7 +66554,7 @@
       <c r="F28" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="22" t="s">
         <v>1018</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -66374,7 +66586,7 @@
       <c r="C29" s="2" t="s">
         <v>3120</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="22" t="s">
         <v>3058</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -66383,7 +66595,7 @@
       <c r="F29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -66408,6 +66620,990 @@
         <v>3068</v>
       </c>
       <c r="O29" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C30" s="12" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>3124</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>3125</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C31" s="12" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>3129</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C32" s="12" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>3131</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>3132</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C33" s="12" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>3135</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C34" s="12" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>3137</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>3132</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C35" s="12" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>3139</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>3132</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C36" s="12" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>3142</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C37" s="12" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>3142</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C38" s="12" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>3147</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C39" s="12" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>3150</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C40" s="12" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>3152</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>3153</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C41" s="12" t="s">
+        <v>3154</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>3156</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C42" s="12" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>3158</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>3153</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C43" s="12" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>3160</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>3153</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C44" s="12" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>3162</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>3163</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C45" s="12" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>3165</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>3163</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C46" s="12" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>3167</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>3168</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C47" s="12" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>3170</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>3171</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="48" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C48" s="12" t="s">
+        <v>3172</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>3174</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C49" s="12" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>3176</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>3174</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="50" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C50" s="12" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>3178</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>3174</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C51" s="12" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>3174</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C52" s="12" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>3183</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" s="12" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C53" s="12" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>3185</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>3183</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O53" s="12" t="s">
         <v>466</v>
       </c>
     </row>
@@ -66422,7 +67618,7 @@
   <sheetPr/>
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -66581,7 +67777,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3122</v>
+        <v>3186</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>28</v>
@@ -66590,10 +67786,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>3123</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>3124</v>
+        <v>3187</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>3188</v>
       </c>
       <c r="J6" s="7">
         <v>-1</v>
@@ -66622,7 +67818,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3125</v>
+        <v>3189</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>29</v>
@@ -66633,7 +67829,7 @@
       <c r="H7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="23" t="s">
         <v>471</v>
       </c>
       <c r="J7" s="7">
@@ -66663,7 +67859,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3126</v>
+        <v>3190</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>466</v>
@@ -66672,10 +67868,10 @@
         <v>466</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3123</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>3127</v>
+        <v>3187</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>3191</v>
       </c>
       <c r="J8" s="7">
         <v>-1</v>
@@ -66704,7 +67900,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3128</v>
+        <v>3192</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>683</v>
@@ -66715,8 +67911,8 @@
       <c r="H9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>3129</v>
+      <c r="I9" s="24" t="s">
+        <v>3193</v>
       </c>
       <c r="J9" s="7">
         <v>-1</v>
@@ -66745,7 +67941,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3130</v>
+        <v>3194</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>794</v>
@@ -66754,10 +67950,10 @@
         <v>795</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>3123</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>3127</v>
+        <v>3187</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>3191</v>
       </c>
       <c r="J10" s="7">
         <v>-1</v>
@@ -66786,7 +67982,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3131</v>
+        <v>3195</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>906</v>
@@ -66797,8 +67993,8 @@
       <c r="H11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>3129</v>
+      <c r="I11" s="24" t="s">
+        <v>3193</v>
       </c>
       <c r="J11" s="7">
         <v>-1</v>
@@ -66827,7 +68023,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3132</v>
+        <v>3196</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1018</v>
@@ -66836,10 +68032,10 @@
         <v>1018</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>3123</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>3127</v>
+        <v>3187</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>3191</v>
       </c>
       <c r="J12" s="7">
         <v>-1</v>
@@ -66868,7 +68064,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3133</v>
+        <v>3197</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>26</v>
@@ -66879,8 +68075,8 @@
       <c r="H13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>3129</v>
+      <c r="I13" s="24" t="s">
+        <v>3193</v>
       </c>
       <c r="J13" s="7">
         <v>-1</v>
@@ -66909,7 +68105,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3134</v>
+        <v>3198</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
@@ -66917,11 +68113,11 @@
       <c r="G14" s="7">
         <v>11</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>3136</v>
+      <c r="H14" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>3200</v>
       </c>
       <c r="J14" s="7">
         <v>-1</v>
@@ -66950,7 +68146,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3137</v>
+        <v>3201</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
@@ -66958,11 +68154,11 @@
       <c r="G15" s="7">
         <v>11</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>3138</v>
+      <c r="H15" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>3202</v>
       </c>
       <c r="J15" s="7">
         <v>-1</v>
@@ -66991,7 +68187,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3139</v>
+        <v>3203</v>
       </c>
       <c r="F16" s="7">
         <v>11</v>
@@ -66999,11 +68195,11 @@
       <c r="G16" s="7">
         <v>11</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>3140</v>
+      <c r="H16" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>3204</v>
       </c>
       <c r="J16" s="7">
         <v>-1</v>
@@ -67032,7 +68228,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3141</v>
+        <v>3205</v>
       </c>
       <c r="F17" s="7">
         <v>11</v>
@@ -67040,11 +68236,11 @@
       <c r="G17" s="7">
         <v>11</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>3142</v>
+      <c r="H17" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>3206</v>
       </c>
       <c r="J17" s="7">
         <v>-1</v>
@@ -67073,7 +68269,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3143</v>
+        <v>3207</v>
       </c>
       <c r="F18" s="7">
         <v>11</v>
@@ -67081,11 +68277,11 @@
       <c r="G18" s="7">
         <v>11</v>
       </c>
-      <c r="H18" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>3144</v>
+      <c r="H18" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>3208</v>
       </c>
       <c r="J18" s="7">
         <v>-1</v>
@@ -67114,7 +68310,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3145</v>
+        <v>3209</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -67122,11 +68318,11 @@
       <c r="G19" s="7">
         <v>11</v>
       </c>
-      <c r="H19" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>3146</v>
+      <c r="H19" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>3210</v>
       </c>
       <c r="J19" s="7">
         <v>-1</v>
@@ -67155,7 +68351,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3147</v>
+        <v>3211</v>
       </c>
       <c r="F20" s="7">
         <v>11</v>
@@ -67163,11 +68359,11 @@
       <c r="G20" s="7">
         <v>11</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>3148</v>
+      <c r="H20" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>3212</v>
       </c>
       <c r="J20" s="7">
         <v>-1</v>
@@ -67196,7 +68392,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3149</v>
+        <v>3213</v>
       </c>
       <c r="F21" s="7">
         <v>11</v>
@@ -67204,11 +68400,11 @@
       <c r="G21" s="7">
         <v>11</v>
       </c>
-      <c r="H21" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>3150</v>
+      <c r="H21" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>3214</v>
       </c>
       <c r="J21" s="7">
         <v>-1</v>
@@ -67237,7 +68433,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3151</v>
+        <v>3215</v>
       </c>
       <c r="F22" s="7">
         <v>11</v>
@@ -67245,11 +68441,11 @@
       <c r="G22" s="7">
         <v>11</v>
       </c>
-      <c r="H22" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>3152</v>
+      <c r="H22" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>3216</v>
       </c>
       <c r="J22" s="7">
         <v>-1</v>
@@ -67278,7 +68474,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3153</v>
+        <v>3217</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
@@ -67286,11 +68482,11 @@
       <c r="G23" s="7">
         <v>11</v>
       </c>
-      <c r="H23" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>3154</v>
+      <c r="H23" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>3218</v>
       </c>
       <c r="J23" s="7">
         <v>-1</v>
@@ -67319,7 +68515,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3155</v>
+        <v>3219</v>
       </c>
       <c r="F24" s="7">
         <v>11</v>
@@ -67327,11 +68523,11 @@
       <c r="G24" s="7">
         <v>11</v>
       </c>
-      <c r="H24" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>3156</v>
+      <c r="H24" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>3220</v>
       </c>
       <c r="J24" s="7">
         <v>-1</v>
@@ -67360,7 +68556,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3157</v>
+        <v>3221</v>
       </c>
       <c r="F25" s="7">
         <v>11</v>
@@ -67368,11 +68564,11 @@
       <c r="G25" s="7">
         <v>11</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>3158</v>
+      <c r="H25" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>3222</v>
       </c>
       <c r="J25" s="7">
         <v>-1</v>
@@ -67401,7 +68597,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3159</v>
+        <v>3223</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
@@ -67409,11 +68605,11 @@
       <c r="G26" s="7">
         <v>11</v>
       </c>
-      <c r="H26" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>3160</v>
+      <c r="H26" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>3224</v>
       </c>
       <c r="J26" s="7">
         <v>-1</v>
@@ -67442,7 +68638,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3161</v>
+        <v>3225</v>
       </c>
       <c r="F27" s="7">
         <v>11</v>
@@ -67450,11 +68646,11 @@
       <c r="G27" s="7">
         <v>11</v>
       </c>
-      <c r="H27" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>3162</v>
+      <c r="H27" s="24" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>3226</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
@@ -67498,7 +68694,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3163</v>
+        <v>3227</v>
       </c>
       <c r="F29" s="7">
         <v>12</v>
@@ -67506,11 +68702,11 @@
       <c r="G29" s="7">
         <v>12</v>
       </c>
-      <c r="H29" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>3165</v>
+      <c r="H29" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>3229</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -67539,7 +68735,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3166</v>
+        <v>3230</v>
       </c>
       <c r="F30" s="7">
         <v>12</v>
@@ -67547,11 +68743,11 @@
       <c r="G30" s="7">
         <v>12</v>
       </c>
-      <c r="H30" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>3167</v>
+      <c r="H30" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>3231</v>
       </c>
       <c r="J30" s="7">
         <v>-1</v>
@@ -67580,7 +68776,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>3168</v>
+        <v>3232</v>
       </c>
       <c r="F31" s="7">
         <v>12</v>
@@ -67588,11 +68784,11 @@
       <c r="G31" s="7">
         <v>12</v>
       </c>
-      <c r="H31" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>3169</v>
+      <c r="H31" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>3233</v>
       </c>
       <c r="J31" s="7">
         <v>-1</v>
@@ -67621,7 +68817,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3170</v>
+        <v>3234</v>
       </c>
       <c r="F32" s="7">
         <v>12</v>
@@ -67629,11 +68825,11 @@
       <c r="G32" s="7">
         <v>12</v>
       </c>
-      <c r="H32" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>3171</v>
+      <c r="H32" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>3235</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
@@ -67662,7 +68858,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>3172</v>
+        <v>3236</v>
       </c>
       <c r="F33" s="7">
         <v>12</v>
@@ -67670,11 +68866,11 @@
       <c r="G33" s="7">
         <v>12</v>
       </c>
-      <c r="H33" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>3173</v>
+      <c r="H33" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>3237</v>
       </c>
       <c r="J33" s="7">
         <v>-1</v>
@@ -67703,7 +68899,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3174</v>
+        <v>3238</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -67711,11 +68907,11 @@
       <c r="G34" s="7">
         <v>12</v>
       </c>
-      <c r="H34" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>3175</v>
+      <c r="H34" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>3239</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
@@ -67744,7 +68940,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3176</v>
+        <v>3240</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -67752,11 +68948,11 @@
       <c r="G35" s="7">
         <v>12</v>
       </c>
-      <c r="H35" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>3177</v>
+      <c r="H35" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>3241</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -67785,7 +68981,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3178</v>
+        <v>3242</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -67793,11 +68989,11 @@
       <c r="G36" s="7">
         <v>12</v>
       </c>
-      <c r="H36" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>3179</v>
+      <c r="H36" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>3243</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
@@ -67826,7 +69022,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3180</v>
+        <v>3244</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -67834,11 +69030,11 @@
       <c r="G37" s="7">
         <v>12</v>
       </c>
-      <c r="H37" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>3181</v>
+      <c r="H37" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>3245</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
@@ -67867,7 +69063,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3182</v>
+        <v>3246</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -67875,11 +69071,11 @@
       <c r="G38" s="7">
         <v>12</v>
       </c>
-      <c r="H38" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>3183</v>
+      <c r="H38" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>3247</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -67908,7 +69104,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3184</v>
+        <v>3248</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -67916,11 +69112,11 @@
       <c r="G39" s="7">
         <v>12</v>
       </c>
-      <c r="H39" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>3185</v>
+      <c r="H39" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>3249</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
@@ -67949,7 +69145,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3186</v>
+        <v>3250</v>
       </c>
       <c r="F40" s="7">
         <v>12</v>
@@ -67957,11 +69153,11 @@
       <c r="G40" s="7">
         <v>12</v>
       </c>
-      <c r="H40" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>3187</v>
+      <c r="H40" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>3251</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
@@ -67990,7 +69186,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3188</v>
+        <v>3252</v>
       </c>
       <c r="F41" s="7">
         <v>12</v>
@@ -67998,11 +69194,11 @@
       <c r="G41" s="7">
         <v>12</v>
       </c>
-      <c r="H41" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>3189</v>
+      <c r="H41" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>3253</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
@@ -68031,7 +69227,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3190</v>
+        <v>3254</v>
       </c>
       <c r="F42" s="7">
         <v>12</v>
@@ -68039,11 +69235,11 @@
       <c r="G42" s="7">
         <v>12</v>
       </c>
-      <c r="H42" s="23" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>3191</v>
+      <c r="H42" s="24" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>3255</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
@@ -68087,7 +69283,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3192</v>
+        <v>3256</v>
       </c>
       <c r="F44" s="7">
         <v>13</v>
@@ -68095,11 +69291,11 @@
       <c r="G44" s="7">
         <v>13</v>
       </c>
-      <c r="H44" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>3194</v>
+      <c r="H44" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>3258</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
@@ -68128,7 +69324,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3195</v>
+        <v>3259</v>
       </c>
       <c r="F45" s="7">
         <v>13</v>
@@ -68136,11 +69332,11 @@
       <c r="G45" s="7">
         <v>13</v>
       </c>
-      <c r="H45" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>3196</v>
+      <c r="H45" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>3260</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
@@ -68169,7 +69365,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3197</v>
+        <v>3261</v>
       </c>
       <c r="F46" s="7">
         <v>13</v>
@@ -68177,11 +69373,11 @@
       <c r="G46" s="7">
         <v>13</v>
       </c>
-      <c r="H46" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>3198</v>
+      <c r="H46" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>3262</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
@@ -68210,7 +69406,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3199</v>
+        <v>3263</v>
       </c>
       <c r="F47" s="7">
         <v>13</v>
@@ -68218,11 +69414,11 @@
       <c r="G47" s="7">
         <v>13</v>
       </c>
-      <c r="H47" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>3200</v>
+      <c r="H47" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -68251,7 +69447,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3201</v>
+        <v>3265</v>
       </c>
       <c r="F48" s="7">
         <v>13</v>
@@ -68259,11 +69455,11 @@
       <c r="G48" s="7">
         <v>13</v>
       </c>
-      <c r="H48" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>3202</v>
+      <c r="H48" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>3266</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -68292,7 +69488,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>3203</v>
+        <v>3267</v>
       </c>
       <c r="F49" s="7">
         <v>13</v>
@@ -68300,11 +69496,11 @@
       <c r="G49" s="7">
         <v>13</v>
       </c>
-      <c r="H49" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>3204</v>
+      <c r="H49" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>3268</v>
       </c>
       <c r="J49" s="7">
         <v>-1</v>
@@ -68333,7 +69529,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3205</v>
+        <v>3269</v>
       </c>
       <c r="F50" s="7">
         <v>13</v>
@@ -68341,11 +69537,11 @@
       <c r="G50" s="7">
         <v>13</v>
       </c>
-      <c r="H50" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>3206</v>
+      <c r="H50" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>3270</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -68374,7 +69570,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3207</v>
+        <v>3271</v>
       </c>
       <c r="F51" s="7">
         <v>13</v>
@@ -68382,11 +69578,11 @@
       <c r="G51" s="7">
         <v>13</v>
       </c>
-      <c r="H51" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>3208</v>
+      <c r="H51" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>3272</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -68415,7 +69611,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3209</v>
+        <v>3273</v>
       </c>
       <c r="F52" s="7">
         <v>13</v>
@@ -68423,11 +69619,11 @@
       <c r="G52" s="7">
         <v>13</v>
       </c>
-      <c r="H52" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>3210</v>
+      <c r="H52" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>3274</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -68456,7 +69652,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>3211</v>
+        <v>3275</v>
       </c>
       <c r="F53" s="7">
         <v>13</v>
@@ -68464,11 +69660,11 @@
       <c r="G53" s="7">
         <v>13</v>
       </c>
-      <c r="H53" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>3212</v>
+      <c r="H53" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>3276</v>
       </c>
       <c r="J53" s="7">
         <v>-1</v>
@@ -68497,7 +69693,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3213</v>
+        <v>3277</v>
       </c>
       <c r="F54" s="7">
         <v>13</v>
@@ -68505,11 +69701,11 @@
       <c r="G54" s="7">
         <v>13</v>
       </c>
-      <c r="H54" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>3214</v>
+      <c r="H54" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>3278</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
@@ -68538,7 +69734,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3215</v>
+        <v>3279</v>
       </c>
       <c r="F55" s="7">
         <v>13</v>
@@ -68546,11 +69742,11 @@
       <c r="G55" s="7">
         <v>13</v>
       </c>
-      <c r="H55" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>3216</v>
+      <c r="H55" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>3280</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
@@ -68579,7 +69775,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3217</v>
+        <v>3281</v>
       </c>
       <c r="F56" s="7">
         <v>13</v>
@@ -68587,11 +69783,11 @@
       <c r="G56" s="7">
         <v>13</v>
       </c>
-      <c r="H56" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>3218</v>
+      <c r="H56" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>3282</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -68620,7 +69816,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3219</v>
+        <v>3283</v>
       </c>
       <c r="F57" s="7">
         <v>14</v>
@@ -68628,11 +69824,11 @@
       <c r="G57" s="7">
         <v>13</v>
       </c>
-      <c r="H57" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>3220</v>
+      <c r="H57" s="24" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>3284</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
@@ -68676,7 +69872,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3221</v>
+        <v>3285</v>
       </c>
       <c r="F59" s="7">
         <v>14</v>
@@ -68684,11 +69880,11 @@
       <c r="G59" s="7">
         <v>14</v>
       </c>
-      <c r="H59" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>3223</v>
+      <c r="H59" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>3287</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -68717,7 +69913,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3224</v>
+        <v>3288</v>
       </c>
       <c r="F60" s="7">
         <v>14</v>
@@ -68725,11 +69921,11 @@
       <c r="G60" s="7">
         <v>14</v>
       </c>
-      <c r="H60" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I60" s="23" t="s">
-        <v>3225</v>
+      <c r="H60" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>3289</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
@@ -68758,7 +69954,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3226</v>
+        <v>3290</v>
       </c>
       <c r="F61" s="7">
         <v>14</v>
@@ -68766,11 +69962,11 @@
       <c r="G61" s="7">
         <v>14</v>
       </c>
-      <c r="H61" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>3227</v>
+      <c r="H61" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>3291</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
@@ -68799,7 +69995,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3228</v>
+        <v>3292</v>
       </c>
       <c r="F62" s="7">
         <v>14</v>
@@ -68807,11 +70003,11 @@
       <c r="G62" s="7">
         <v>14</v>
       </c>
-      <c r="H62" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>3229</v>
+      <c r="H62" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>3293</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -68840,7 +70036,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3230</v>
+        <v>3294</v>
       </c>
       <c r="F63" s="7">
         <v>14</v>
@@ -68848,11 +70044,11 @@
       <c r="G63" s="7">
         <v>14</v>
       </c>
-      <c r="H63" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>3231</v>
+      <c r="H63" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>3295</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
@@ -68881,7 +70077,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3232</v>
+        <v>3296</v>
       </c>
       <c r="F64" s="7">
         <v>14</v>
@@ -68889,11 +70085,11 @@
       <c r="G64" s="7">
         <v>14</v>
       </c>
-      <c r="H64" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>3233</v>
+      <c r="H64" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>3297</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
@@ -68922,7 +70118,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3234</v>
+        <v>3298</v>
       </c>
       <c r="F65" s="7">
         <v>14</v>
@@ -68930,11 +70126,11 @@
       <c r="G65" s="7">
         <v>14</v>
       </c>
-      <c r="H65" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>3235</v>
+      <c r="H65" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>3299</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
@@ -68963,7 +70159,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3236</v>
+        <v>3300</v>
       </c>
       <c r="F66" s="7">
         <v>14</v>
@@ -68971,11 +70167,11 @@
       <c r="G66" s="7">
         <v>14</v>
       </c>
-      <c r="H66" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>3237</v>
+      <c r="H66" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>3301</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
@@ -69004,7 +70200,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>3238</v>
+        <v>3302</v>
       </c>
       <c r="F67" s="7">
         <v>14</v>
@@ -69012,11 +70208,11 @@
       <c r="G67" s="7">
         <v>14</v>
       </c>
-      <c r="H67" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I67" s="23" t="s">
-        <v>3239</v>
+      <c r="H67" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>3303</v>
       </c>
       <c r="J67" s="7">
         <v>-1</v>
@@ -69045,7 +70241,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3240</v>
+        <v>3304</v>
       </c>
       <c r="F68" s="7">
         <v>14</v>
@@ -69053,11 +70249,11 @@
       <c r="G68" s="7">
         <v>14</v>
       </c>
-      <c r="H68" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>3241</v>
+      <c r="H68" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>3305</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -69086,7 +70282,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3242</v>
+        <v>3306</v>
       </c>
       <c r="F69" s="7">
         <v>14</v>
@@ -69094,11 +70290,11 @@
       <c r="G69" s="7">
         <v>14</v>
       </c>
-      <c r="H69" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I69" s="23" t="s">
-        <v>3243</v>
+      <c r="H69" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>3307</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -69127,7 +70323,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3244</v>
+        <v>3308</v>
       </c>
       <c r="F70" s="7">
         <v>14</v>
@@ -69135,11 +70331,11 @@
       <c r="G70" s="7">
         <v>14</v>
       </c>
-      <c r="H70" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>3245</v>
+      <c r="H70" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>3309</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -69168,7 +70364,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3246</v>
+        <v>3310</v>
       </c>
       <c r="F71" s="7">
         <v>14</v>
@@ -69176,11 +70372,11 @@
       <c r="G71" s="7">
         <v>14</v>
       </c>
-      <c r="H71" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>3247</v>
+      <c r="H71" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>3311</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -69209,7 +70405,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3248</v>
+        <v>3312</v>
       </c>
       <c r="F72" s="7">
         <v>14</v>
@@ -69217,11 +70413,11 @@
       <c r="G72" s="7">
         <v>14</v>
       </c>
-      <c r="H72" s="23" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I72" s="23" t="s">
-        <v>3249</v>
+      <c r="H72" s="24" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>3313</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -69265,7 +70461,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3250</v>
+        <v>3314</v>
       </c>
       <c r="F74" s="7">
         <v>11</v>
@@ -69273,11 +70469,11 @@
       <c r="G74" s="7">
         <v>11</v>
       </c>
-      <c r="H74" s="23" t="s">
-        <v>3251</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>3252</v>
+      <c r="H74" s="24" t="s">
+        <v>3315</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>3316</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
@@ -69306,7 +70502,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3253</v>
+        <v>3317</v>
       </c>
       <c r="F75" s="7">
         <v>0</v>
@@ -69314,11 +70510,11 @@
       <c r="G75" s="7">
         <v>0</v>
       </c>
-      <c r="H75" s="23" t="s">
-        <v>3254</v>
-      </c>
-      <c r="I75" s="23" t="s">
-        <v>3255</v>
+      <c r="H75" s="24" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>3319</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
@@ -69347,7 +70543,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>3256</v>
+        <v>3320</v>
       </c>
       <c r="F76" s="7">
         <v>0</v>
@@ -69355,11 +70551,11 @@
       <c r="G76" s="7">
         <v>0</v>
       </c>
-      <c r="H76" s="23" t="s">
-        <v>3254</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>3257</v>
+      <c r="H76" s="24" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I76" s="24" t="s">
+        <v>3321</v>
       </c>
       <c r="J76" s="7">
         <v>-1</v>
@@ -69388,7 +70584,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>3258</v>
+        <v>3322</v>
       </c>
       <c r="F77" s="7">
         <v>0</v>
@@ -69396,11 +70592,11 @@
       <c r="G77" s="7">
         <v>0</v>
       </c>
-      <c r="H77" s="23" t="s">
-        <v>3254</v>
-      </c>
-      <c r="I77" s="23" t="s">
-        <v>3259</v>
+      <c r="H77" s="24" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>3323</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
@@ -69429,7 +70625,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>3260</v>
+        <v>3324</v>
       </c>
       <c r="F78" s="7">
         <v>0</v>
@@ -69437,11 +70633,11 @@
       <c r="G78" s="7">
         <v>0</v>
       </c>
-      <c r="H78" s="23" t="s">
-        <v>3254</v>
-      </c>
-      <c r="I78" s="23" t="s">
-        <v>3261</v>
+      <c r="H78" s="24" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>3325</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
@@ -69470,7 +70666,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3262</v>
+        <v>3326</v>
       </c>
       <c r="F79" s="7">
         <v>0</v>
@@ -69478,11 +70674,11 @@
       <c r="G79" s="7">
         <v>0</v>
       </c>
-      <c r="H79" s="23" t="s">
-        <v>3254</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>3263</v>
+      <c r="H79" s="24" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>3327</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
@@ -69511,7 +70707,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3264</v>
+        <v>3328</v>
       </c>
       <c r="F80" s="7">
         <v>0</v>
@@ -69519,11 +70715,11 @@
       <c r="G80" s="7">
         <v>0</v>
       </c>
-      <c r="H80" s="23" t="s">
-        <v>3254</v>
-      </c>
-      <c r="I80" s="23" t="s">
-        <v>3265</v>
+      <c r="H80" s="24" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>3329</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
@@ -69552,7 +70748,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3266</v>
+        <v>3330</v>
       </c>
       <c r="F81" s="7">
         <v>0</v>
@@ -69560,11 +70756,11 @@
       <c r="G81" s="7">
         <v>0</v>
       </c>
-      <c r="H81" s="23" t="s">
-        <v>3254</v>
-      </c>
-      <c r="I81" s="23" t="s">
-        <v>3267</v>
+      <c r="H81" s="24" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>3331</v>
       </c>
       <c r="J81" s="7">
         <v>-1</v>
@@ -69593,7 +70789,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3268</v>
+        <v>3332</v>
       </c>
       <c r="F82" s="7">
         <v>0</v>
@@ -69601,11 +70797,11 @@
       <c r="G82" s="7">
         <v>0</v>
       </c>
-      <c r="H82" s="23" t="s">
-        <v>3254</v>
-      </c>
-      <c r="I82" s="23" t="s">
-        <v>3269</v>
+      <c r="H82" s="24" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>3333</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18135" uniqueCount="3334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18136" uniqueCount="3335">
   <si>
     <t>_id</t>
   </si>
@@ -9522,7 +9522,7 @@
     <t>225000000</t>
   </si>
   <si>
-    <t>10000000000</t>
+    <t>6000000000</t>
   </si>
   <si>
     <t>21005602</t>
@@ -9541,6 +9541,9 @@
   </si>
   <si>
     <t>1250000000,75000000</t>
+  </si>
+  <si>
+    <t>3000000000</t>
   </si>
   <si>
     <t>21005604</t>
@@ -10870,7 +10873,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -11194,8 +11199,8 @@
   <sheetPr/>
   <dimension ref="A1:O1325"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A1308" workbookViewId="0">
-      <selection activeCell="K1292" sqref="K1292"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A1299" workbookViewId="0">
+      <selection activeCell="N1324" sqref="N1324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -65460,8 +65465,8 @@
       <c r="M1325" t="s">
         <v>31</v>
       </c>
-      <c r="N1325">
-        <v>67402500</v>
+      <c r="N1325" s="22" t="s">
+        <v>680</v>
       </c>
       <c r="O1325" t="s">
         <v>466</v>
@@ -65484,8 +65489,8 @@
   <sheetPr/>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46:N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -65643,7 +65648,7 @@
       <c r="C6" s="2" t="s">
         <v>3057</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -65652,7 +65657,7 @@
       <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -65673,7 +65678,7 @@
       <c r="M6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="23" t="s">
         <v>3061</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -65684,7 +65689,7 @@
       <c r="C7" s="2" t="s">
         <v>3062</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -65693,7 +65698,7 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -65725,7 +65730,7 @@
       <c r="C8" s="2" t="s">
         <v>3065</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -65734,7 +65739,7 @@
       <c r="F8" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>466</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -65766,7 +65771,7 @@
       <c r="C9" s="2" t="s">
         <v>3069</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -65775,7 +65780,7 @@
       <c r="F9" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="23" t="s">
         <v>683</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -65807,7 +65812,7 @@
       <c r="C10" s="2" t="s">
         <v>3072</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -65816,7 +65821,7 @@
       <c r="F10" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="23" t="s">
         <v>795</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -65848,7 +65853,7 @@
       <c r="C11" s="2" t="s">
         <v>3074</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -65857,7 +65862,7 @@
       <c r="F11" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>907</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -65889,7 +65894,7 @@
       <c r="C12" s="2" t="s">
         <v>3076</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -65898,7 +65903,7 @@
       <c r="F12" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>1018</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -65930,7 +65935,7 @@
       <c r="C13" s="2" t="s">
         <v>3079</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -65939,7 +65944,7 @@
       <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -65971,7 +65976,7 @@
       <c r="C14" s="2" t="s">
         <v>3081</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -65980,7 +65985,7 @@
       <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -66012,7 +66017,7 @@
       <c r="C15" s="2" t="s">
         <v>3084</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -66021,7 +66026,7 @@
       <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -66053,7 +66058,7 @@
       <c r="C16" s="2" t="s">
         <v>3087</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -66062,7 +66067,7 @@
       <c r="F16" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>466</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -66094,7 +66099,7 @@
       <c r="C17" s="2" t="s">
         <v>3090</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -66103,7 +66108,7 @@
       <c r="F17" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>683</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -66135,7 +66140,7 @@
       <c r="C18" s="2" t="s">
         <v>3093</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -66144,7 +66149,7 @@
       <c r="F18" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="23" t="s">
         <v>795</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -66176,7 +66181,7 @@
       <c r="C19" s="2" t="s">
         <v>3095</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -66185,7 +66190,7 @@
       <c r="F19" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="23" t="s">
         <v>907</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -66217,7 +66222,7 @@
       <c r="C20" s="2" t="s">
         <v>3097</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -66226,7 +66231,7 @@
       <c r="F20" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="23" t="s">
         <v>1018</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -66258,7 +66263,7 @@
       <c r="C21" s="2" t="s">
         <v>3100</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -66267,7 +66272,7 @@
       <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -66299,7 +66304,7 @@
       <c r="C22" s="2" t="s">
         <v>3102</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -66308,7 +66313,7 @@
       <c r="F22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -66340,7 +66345,7 @@
       <c r="C23" s="2" t="s">
         <v>3105</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -66349,7 +66354,7 @@
       <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="23" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -66381,7 +66386,7 @@
       <c r="C24" s="2" t="s">
         <v>3108</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -66390,7 +66395,7 @@
       <c r="F24" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="23" t="s">
         <v>466</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -66422,7 +66427,7 @@
       <c r="C25" s="2" t="s">
         <v>3111</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -66431,7 +66436,7 @@
       <c r="F25" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="23" t="s">
         <v>683</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -66463,7 +66468,7 @@
       <c r="C26" s="2" t="s">
         <v>3113</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -66472,7 +66477,7 @@
       <c r="F26" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="23" t="s">
         <v>795</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -66504,7 +66509,7 @@
       <c r="C27" s="2" t="s">
         <v>3115</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -66513,7 +66518,7 @@
       <c r="F27" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>907</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -66545,7 +66550,7 @@
       <c r="C28" s="2" t="s">
         <v>3117</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -66554,7 +66559,7 @@
       <c r="F28" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="23" t="s">
         <v>1018</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -66586,7 +66591,7 @@
       <c r="C29" s="2" t="s">
         <v>3120</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="23" t="s">
         <v>3058</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -66595,7 +66600,7 @@
       <c r="F29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -66657,7 +66662,7 @@
       <c r="M30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="24" t="s">
         <v>3126</v>
       </c>
       <c r="O30" s="12" t="s">
@@ -66698,7 +66703,7 @@
       <c r="M31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N31" s="24" t="s">
         <v>3126</v>
       </c>
       <c r="O31" s="12" t="s">
@@ -66739,8 +66744,8 @@
       <c r="M32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="12" t="s">
-        <v>3061</v>
+      <c r="N32" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O32" s="12" t="s">
         <v>28</v>
@@ -66748,13 +66753,13 @@
     </row>
     <row r="33" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C33" s="12" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>683</v>
@@ -66766,7 +66771,7 @@
         <v>300</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>31</v>
@@ -66780,8 +66785,8 @@
       <c r="M33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N33" s="12" t="s">
-        <v>3061</v>
+      <c r="N33" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O33" s="12" t="s">
         <v>28</v>
@@ -66789,13 +66794,13 @@
     </row>
     <row r="34" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C34" s="12" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>794</v>
@@ -66821,8 +66826,8 @@
       <c r="M34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="12" t="s">
-        <v>3061</v>
+      <c r="N34" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O34" s="12" t="s">
         <v>28</v>
@@ -66830,13 +66835,13 @@
     </row>
     <row r="35" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C35" s="12" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>906</v>
@@ -66862,8 +66867,8 @@
       <c r="M35" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N35" s="12" t="s">
-        <v>3061</v>
+      <c r="N35" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O35" s="12" t="s">
         <v>28</v>
@@ -66871,13 +66876,13 @@
     </row>
     <row r="36" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C36" s="12" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>1018</v>
@@ -66889,7 +66894,7 @@
         <v>1019</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>31</v>
@@ -66903,8 +66908,8 @@
       <c r="M36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="12" t="s">
-        <v>3061</v>
+      <c r="N36" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O36" s="12" t="s">
         <v>28</v>
@@ -66912,13 +66917,13 @@
     </row>
     <row r="37" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C37" s="12" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>26</v>
@@ -66930,7 +66935,7 @@
         <v>1019</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>31</v>
@@ -66944,8 +66949,8 @@
       <c r="M37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="12" t="s">
-        <v>3061</v>
+      <c r="N37" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O37" s="12" t="s">
         <v>28</v>
@@ -66953,13 +66958,13 @@
     </row>
     <row r="38" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C38" s="12" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>28</v>
@@ -66971,7 +66976,7 @@
         <v>466</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>31</v>
@@ -66985,7 +66990,7 @@
       <c r="M38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="12" t="s">
+      <c r="N38" s="24" t="s">
         <v>3126</v>
       </c>
       <c r="O38" s="12" t="s">
@@ -66994,13 +66999,13 @@
     </row>
     <row r="39" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C39" s="12" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>29</v>
@@ -67012,7 +67017,7 @@
         <v>300</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>31</v>
@@ -67026,7 +67031,7 @@
       <c r="M39" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="12" t="s">
+      <c r="N39" s="24" t="s">
         <v>3126</v>
       </c>
       <c r="O39" s="12" t="s">
@@ -67035,13 +67040,13 @@
     </row>
     <row r="40" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C40" s="12" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>466</v>
@@ -67053,7 +67058,7 @@
         <v>1515</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>31</v>
@@ -67067,8 +67072,8 @@
       <c r="M40" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="12" t="s">
-        <v>3061</v>
+      <c r="N40" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O40" s="12" t="s">
         <v>29</v>
@@ -67076,13 +67081,13 @@
     </row>
     <row r="41" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C41" s="12" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>683</v>
@@ -67094,7 +67099,7 @@
         <v>300</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>31</v>
@@ -67108,8 +67113,8 @@
       <c r="M41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="12" t="s">
-        <v>3061</v>
+      <c r="N41" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O41" s="12" t="s">
         <v>29</v>
@@ -67117,13 +67122,13 @@
     </row>
     <row r="42" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C42" s="12" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>794</v>
@@ -67135,7 +67140,7 @@
         <v>1515</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>31</v>
@@ -67149,8 +67154,8 @@
       <c r="M42" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="12" t="s">
-        <v>3061</v>
+      <c r="N42" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O42" s="12" t="s">
         <v>29</v>
@@ -67158,13 +67163,13 @@
     </row>
     <row r="43" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C43" s="12" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>906</v>
@@ -67176,7 +67181,7 @@
         <v>1515</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>31</v>
@@ -67190,8 +67195,8 @@
       <c r="M43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="12" t="s">
-        <v>3061</v>
+      <c r="N43" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O43" s="12" t="s">
         <v>29</v>
@@ -67199,13 +67204,13 @@
     </row>
     <row r="44" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C44" s="12" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>1018</v>
@@ -67217,7 +67222,7 @@
         <v>1956</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>31</v>
@@ -67231,8 +67236,8 @@
       <c r="M44" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="12" t="s">
-        <v>3061</v>
+      <c r="N44" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O44" s="12" t="s">
         <v>29</v>
@@ -67240,13 +67245,13 @@
     </row>
     <row r="45" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C45" s="12" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>26</v>
@@ -67258,7 +67263,7 @@
         <v>1956</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>31</v>
@@ -67272,8 +67277,8 @@
       <c r="M45" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N45" s="12" t="s">
-        <v>3061</v>
+      <c r="N45" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O45" s="12" t="s">
         <v>29</v>
@@ -67281,13 +67286,13 @@
     </row>
     <row r="46" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C46" s="12" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>28</v>
@@ -67299,7 +67304,7 @@
         <v>683</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>31</v>
@@ -67313,7 +67318,7 @@
       <c r="M46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N46" s="12" t="s">
+      <c r="N46" s="24" t="s">
         <v>3126</v>
       </c>
       <c r="O46" s="12" t="s">
@@ -67322,13 +67327,13 @@
     </row>
     <row r="47" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C47" s="12" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>29</v>
@@ -67340,7 +67345,7 @@
         <v>300</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>31</v>
@@ -67354,7 +67359,7 @@
       <c r="M47" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="12" t="s">
+      <c r="N47" s="24" t="s">
         <v>3126</v>
       </c>
       <c r="O47" s="12" t="s">
@@ -67363,13 +67368,13 @@
     </row>
     <row r="48" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C48" s="12" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>466</v>
@@ -67381,7 +67386,7 @@
         <v>2397</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>31</v>
@@ -67395,8 +67400,8 @@
       <c r="M48" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N48" s="12" t="s">
-        <v>3061</v>
+      <c r="N48" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O48" s="12" t="s">
         <v>466</v>
@@ -67404,13 +67409,13 @@
     </row>
     <row r="49" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C49" s="12" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>683</v>
@@ -67422,7 +67427,7 @@
         <v>300</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>31</v>
@@ -67436,8 +67441,8 @@
       <c r="M49" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N49" s="12" t="s">
-        <v>3061</v>
+      <c r="N49" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O49" s="12" t="s">
         <v>466</v>
@@ -67445,13 +67450,13 @@
     </row>
     <row r="50" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C50" s="12" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>794</v>
@@ -67463,7 +67468,7 @@
         <v>2397</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>31</v>
@@ -67477,8 +67482,8 @@
       <c r="M50" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="12" t="s">
-        <v>3061</v>
+      <c r="N50" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O50" s="12" t="s">
         <v>466</v>
@@ -67486,13 +67491,13 @@
     </row>
     <row r="51" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C51" s="12" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>906</v>
@@ -67504,7 +67509,7 @@
         <v>2397</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>31</v>
@@ -67518,8 +67523,8 @@
       <c r="M51" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N51" s="12" t="s">
-        <v>3061</v>
+      <c r="N51" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O51" s="12" t="s">
         <v>466</v>
@@ -67527,13 +67532,13 @@
     </row>
     <row r="52" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C52" s="12" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>1018</v>
@@ -67545,7 +67550,7 @@
         <v>2838</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>31</v>
@@ -67559,8 +67564,8 @@
       <c r="M52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N52" s="12" t="s">
-        <v>3061</v>
+      <c r="N52" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O52" s="12" t="s">
         <v>466</v>
@@ -67568,13 +67573,13 @@
     </row>
     <row r="53" s="12" customFormat="1" customHeight="1" spans="3:15">
       <c r="C53" s="12" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>3123</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>26</v>
@@ -67586,7 +67591,7 @@
         <v>2838</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>31</v>
@@ -67600,8 +67605,8 @@
       <c r="M53" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="12" t="s">
-        <v>3061</v>
+      <c r="N53" s="24" t="s">
+        <v>3133</v>
       </c>
       <c r="O53" s="12" t="s">
         <v>466</v>
@@ -67618,7 +67623,7 @@
   <sheetPr/>
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A63" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -67777,7 +67782,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>28</v>
@@ -67786,10 +67791,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>3187</v>
-      </c>
-      <c r="I6" s="23" t="s">
         <v>3188</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>3189</v>
       </c>
       <c r="J6" s="7">
         <v>-1</v>
@@ -67818,7 +67823,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>29</v>
@@ -67829,7 +67834,7 @@
       <c r="H7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="25" t="s">
         <v>471</v>
       </c>
       <c r="J7" s="7">
@@ -67859,7 +67864,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>466</v>
@@ -67868,10 +67873,10 @@
         <v>466</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3187</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>3191</v>
+        <v>3188</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>3192</v>
       </c>
       <c r="J8" s="7">
         <v>-1</v>
@@ -67900,7 +67905,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>683</v>
@@ -67911,8 +67916,8 @@
       <c r="H9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>3193</v>
+      <c r="I9" s="26" t="s">
+        <v>3194</v>
       </c>
       <c r="J9" s="7">
         <v>-1</v>
@@ -67941,7 +67946,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>794</v>
@@ -67950,10 +67955,10 @@
         <v>795</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>3187</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>3191</v>
+        <v>3188</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>3192</v>
       </c>
       <c r="J10" s="7">
         <v>-1</v>
@@ -67982,7 +67987,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>906</v>
@@ -67993,8 +67998,8 @@
       <c r="H11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>3193</v>
+      <c r="I11" s="26" t="s">
+        <v>3194</v>
       </c>
       <c r="J11" s="7">
         <v>-1</v>
@@ -68023,7 +68028,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1018</v>
@@ -68032,10 +68037,10 @@
         <v>1018</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>3187</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>3191</v>
+        <v>3188</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>3192</v>
       </c>
       <c r="J12" s="7">
         <v>-1</v>
@@ -68064,7 +68069,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>26</v>
@@ -68075,8 +68080,8 @@
       <c r="H13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>3193</v>
+      <c r="I13" s="26" t="s">
+        <v>3194</v>
       </c>
       <c r="J13" s="7">
         <v>-1</v>
@@ -68105,7 +68110,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
@@ -68113,11 +68118,11 @@
       <c r="G14" s="7">
         <v>11</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="H14" s="26" t="s">
         <v>3200</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>3201</v>
       </c>
       <c r="J14" s="7">
         <v>-1</v>
@@ -68146,7 +68151,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
@@ -68154,11 +68159,11 @@
       <c r="G15" s="7">
         <v>11</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>3202</v>
+      <c r="H15" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>3203</v>
       </c>
       <c r="J15" s="7">
         <v>-1</v>
@@ -68187,7 +68192,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="F16" s="7">
         <v>11</v>
@@ -68195,11 +68200,11 @@
       <c r="G16" s="7">
         <v>11</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>3204</v>
+      <c r="H16" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>3205</v>
       </c>
       <c r="J16" s="7">
         <v>-1</v>
@@ -68228,7 +68233,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="F17" s="7">
         <v>11</v>
@@ -68236,11 +68241,11 @@
       <c r="G17" s="7">
         <v>11</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>3206</v>
+      <c r="H17" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>3207</v>
       </c>
       <c r="J17" s="7">
         <v>-1</v>
@@ -68269,7 +68274,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="F18" s="7">
         <v>11</v>
@@ -68277,11 +68282,11 @@
       <c r="G18" s="7">
         <v>11</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>3208</v>
+      <c r="H18" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>3209</v>
       </c>
       <c r="J18" s="7">
         <v>-1</v>
@@ -68310,7 +68315,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -68318,11 +68323,11 @@
       <c r="G19" s="7">
         <v>11</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>3210</v>
+      <c r="H19" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>3211</v>
       </c>
       <c r="J19" s="7">
         <v>-1</v>
@@ -68351,7 +68356,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="F20" s="7">
         <v>11</v>
@@ -68359,11 +68364,11 @@
       <c r="G20" s="7">
         <v>11</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>3212</v>
+      <c r="H20" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>3213</v>
       </c>
       <c r="J20" s="7">
         <v>-1</v>
@@ -68392,7 +68397,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="F21" s="7">
         <v>11</v>
@@ -68400,11 +68405,11 @@
       <c r="G21" s="7">
         <v>11</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>3214</v>
+      <c r="H21" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>3215</v>
       </c>
       <c r="J21" s="7">
         <v>-1</v>
@@ -68433,7 +68438,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="F22" s="7">
         <v>11</v>
@@ -68441,11 +68446,11 @@
       <c r="G22" s="7">
         <v>11</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>3216</v>
+      <c r="H22" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>3217</v>
       </c>
       <c r="J22" s="7">
         <v>-1</v>
@@ -68474,7 +68479,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
@@ -68482,11 +68487,11 @@
       <c r="G23" s="7">
         <v>11</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>3218</v>
+      <c r="H23" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>3219</v>
       </c>
       <c r="J23" s="7">
         <v>-1</v>
@@ -68515,7 +68520,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="F24" s="7">
         <v>11</v>
@@ -68523,11 +68528,11 @@
       <c r="G24" s="7">
         <v>11</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>3220</v>
+      <c r="H24" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>3221</v>
       </c>
       <c r="J24" s="7">
         <v>-1</v>
@@ -68556,7 +68561,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="F25" s="7">
         <v>11</v>
@@ -68564,11 +68569,11 @@
       <c r="G25" s="7">
         <v>11</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>3222</v>
+      <c r="H25" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>3223</v>
       </c>
       <c r="J25" s="7">
         <v>-1</v>
@@ -68597,7 +68602,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
@@ -68605,11 +68610,11 @@
       <c r="G26" s="7">
         <v>11</v>
       </c>
-      <c r="H26" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>3224</v>
+      <c r="H26" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>3225</v>
       </c>
       <c r="J26" s="7">
         <v>-1</v>
@@ -68638,7 +68643,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="F27" s="7">
         <v>11</v>
@@ -68646,11 +68651,11 @@
       <c r="G27" s="7">
         <v>11</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>3226</v>
+      <c r="H27" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>3227</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
@@ -68694,7 +68699,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="F29" s="7">
         <v>12</v>
@@ -68702,11 +68707,11 @@
       <c r="G29" s="7">
         <v>12</v>
       </c>
-      <c r="H29" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I29" s="24" t="s">
+      <c r="H29" s="26" t="s">
         <v>3229</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>3230</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -68735,7 +68740,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="F30" s="7">
         <v>12</v>
@@ -68743,11 +68748,11 @@
       <c r="G30" s="7">
         <v>12</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>3231</v>
+      <c r="H30" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>3232</v>
       </c>
       <c r="J30" s="7">
         <v>-1</v>
@@ -68776,7 +68781,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="F31" s="7">
         <v>12</v>
@@ -68784,11 +68789,11 @@
       <c r="G31" s="7">
         <v>12</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>3233</v>
+      <c r="H31" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>3234</v>
       </c>
       <c r="J31" s="7">
         <v>-1</v>
@@ -68817,7 +68822,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="F32" s="7">
         <v>12</v>
@@ -68825,11 +68830,11 @@
       <c r="G32" s="7">
         <v>12</v>
       </c>
-      <c r="H32" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>3235</v>
+      <c r="H32" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>3236</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
@@ -68858,7 +68863,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="F33" s="7">
         <v>12</v>
@@ -68866,11 +68871,11 @@
       <c r="G33" s="7">
         <v>12</v>
       </c>
-      <c r="H33" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>3237</v>
+      <c r="H33" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>3238</v>
       </c>
       <c r="J33" s="7">
         <v>-1</v>
@@ -68899,7 +68904,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -68907,11 +68912,11 @@
       <c r="G34" s="7">
         <v>12</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>3239</v>
+      <c r="H34" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>3240</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
@@ -68940,7 +68945,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -68948,11 +68953,11 @@
       <c r="G35" s="7">
         <v>12</v>
       </c>
-      <c r="H35" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>3241</v>
+      <c r="H35" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>3242</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -68981,7 +68986,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -68989,11 +68994,11 @@
       <c r="G36" s="7">
         <v>12</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>3243</v>
+      <c r="H36" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>3244</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
@@ -69022,7 +69027,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -69030,11 +69035,11 @@
       <c r="G37" s="7">
         <v>12</v>
       </c>
-      <c r="H37" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>3245</v>
+      <c r="H37" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>3246</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
@@ -69063,7 +69068,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -69071,11 +69076,11 @@
       <c r="G38" s="7">
         <v>12</v>
       </c>
-      <c r="H38" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>3247</v>
+      <c r="H38" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>3248</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -69104,7 +69109,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -69112,11 +69117,11 @@
       <c r="G39" s="7">
         <v>12</v>
       </c>
-      <c r="H39" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>3249</v>
+      <c r="H39" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>3250</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
@@ -69145,7 +69150,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="F40" s="7">
         <v>12</v>
@@ -69153,11 +69158,11 @@
       <c r="G40" s="7">
         <v>12</v>
       </c>
-      <c r="H40" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>3251</v>
+      <c r="H40" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>3252</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
@@ -69186,7 +69191,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="F41" s="7">
         <v>12</v>
@@ -69194,11 +69199,11 @@
       <c r="G41" s="7">
         <v>12</v>
       </c>
-      <c r="H41" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>3253</v>
+      <c r="H41" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>3254</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
@@ -69227,7 +69232,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="F42" s="7">
         <v>12</v>
@@ -69235,11 +69240,11 @@
       <c r="G42" s="7">
         <v>12</v>
       </c>
-      <c r="H42" s="24" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>3255</v>
+      <c r="H42" s="26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>3256</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
@@ -69283,7 +69288,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="F44" s="7">
         <v>13</v>
@@ -69291,11 +69296,11 @@
       <c r="G44" s="7">
         <v>13</v>
       </c>
-      <c r="H44" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I44" s="23" t="s">
+      <c r="H44" s="26" t="s">
         <v>3258</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>3259</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
@@ -69324,7 +69329,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="F45" s="7">
         <v>13</v>
@@ -69332,11 +69337,11 @@
       <c r="G45" s="7">
         <v>13</v>
       </c>
-      <c r="H45" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>3260</v>
+      <c r="H45" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>3261</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
@@ -69365,7 +69370,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="F46" s="7">
         <v>13</v>
@@ -69373,11 +69378,11 @@
       <c r="G46" s="7">
         <v>13</v>
       </c>
-      <c r="H46" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>3262</v>
+      <c r="H46" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>3263</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
@@ -69406,7 +69411,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="F47" s="7">
         <v>13</v>
@@ -69414,11 +69419,11 @@
       <c r="G47" s="7">
         <v>13</v>
       </c>
-      <c r="H47" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>3264</v>
+      <c r="H47" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>3265</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -69447,7 +69452,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="F48" s="7">
         <v>13</v>
@@ -69455,11 +69460,11 @@
       <c r="G48" s="7">
         <v>13</v>
       </c>
-      <c r="H48" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I48" s="23" t="s">
-        <v>3266</v>
+      <c r="H48" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>3267</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -69488,7 +69493,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="F49" s="7">
         <v>13</v>
@@ -69496,11 +69501,11 @@
       <c r="G49" s="7">
         <v>13</v>
       </c>
-      <c r="H49" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>3268</v>
+      <c r="H49" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>3269</v>
       </c>
       <c r="J49" s="7">
         <v>-1</v>
@@ -69529,7 +69534,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="F50" s="7">
         <v>13</v>
@@ -69537,11 +69542,11 @@
       <c r="G50" s="7">
         <v>13</v>
       </c>
-      <c r="H50" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>3270</v>
+      <c r="H50" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>3271</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -69570,7 +69575,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="F51" s="7">
         <v>13</v>
@@ -69578,11 +69583,11 @@
       <c r="G51" s="7">
         <v>13</v>
       </c>
-      <c r="H51" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>3272</v>
+      <c r="H51" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>3273</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -69611,7 +69616,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="F52" s="7">
         <v>13</v>
@@ -69619,11 +69624,11 @@
       <c r="G52" s="7">
         <v>13</v>
       </c>
-      <c r="H52" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>3274</v>
+      <c r="H52" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>3275</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -69652,7 +69657,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="F53" s="7">
         <v>13</v>
@@ -69660,11 +69665,11 @@
       <c r="G53" s="7">
         <v>13</v>
       </c>
-      <c r="H53" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>3276</v>
+      <c r="H53" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>3277</v>
       </c>
       <c r="J53" s="7">
         <v>-1</v>
@@ -69693,7 +69698,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="F54" s="7">
         <v>13</v>
@@ -69701,11 +69706,11 @@
       <c r="G54" s="7">
         <v>13</v>
       </c>
-      <c r="H54" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>3278</v>
+      <c r="H54" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>3279</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
@@ -69734,7 +69739,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="F55" s="7">
         <v>13</v>
@@ -69742,11 +69747,11 @@
       <c r="G55" s="7">
         <v>13</v>
       </c>
-      <c r="H55" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>3280</v>
+      <c r="H55" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>3281</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
@@ -69775,7 +69780,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="F56" s="7">
         <v>13</v>
@@ -69783,11 +69788,11 @@
       <c r="G56" s="7">
         <v>13</v>
       </c>
-      <c r="H56" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>3282</v>
+      <c r="H56" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>3283</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -69816,7 +69821,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="F57" s="7">
         <v>14</v>
@@ -69824,11 +69829,11 @@
       <c r="G57" s="7">
         <v>13</v>
       </c>
-      <c r="H57" s="24" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>3284</v>
+      <c r="H57" s="26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>3285</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
@@ -69872,7 +69877,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="F59" s="7">
         <v>14</v>
@@ -69880,11 +69885,11 @@
       <c r="G59" s="7">
         <v>14</v>
       </c>
-      <c r="H59" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I59" s="24" t="s">
+      <c r="H59" s="26" t="s">
         <v>3287</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>3288</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -69913,7 +69918,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="F60" s="7">
         <v>14</v>
@@ -69921,11 +69926,11 @@
       <c r="G60" s="7">
         <v>14</v>
       </c>
-      <c r="H60" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>3289</v>
+      <c r="H60" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>3290</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
@@ -69954,7 +69959,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="F61" s="7">
         <v>14</v>
@@ -69962,11 +69967,11 @@
       <c r="G61" s="7">
         <v>14</v>
       </c>
-      <c r="H61" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>3291</v>
+      <c r="H61" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>3292</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
@@ -69995,7 +70000,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="F62" s="7">
         <v>14</v>
@@ -70003,11 +70008,11 @@
       <c r="G62" s="7">
         <v>14</v>
       </c>
-      <c r="H62" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>3293</v>
+      <c r="H62" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>3294</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -70036,7 +70041,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="F63" s="7">
         <v>14</v>
@@ -70044,11 +70049,11 @@
       <c r="G63" s="7">
         <v>14</v>
       </c>
-      <c r="H63" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>3295</v>
+      <c r="H63" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>3296</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
@@ -70077,7 +70082,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="F64" s="7">
         <v>14</v>
@@ -70085,11 +70090,11 @@
       <c r="G64" s="7">
         <v>14</v>
       </c>
-      <c r="H64" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>3297</v>
+      <c r="H64" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>3298</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
@@ -70118,7 +70123,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="F65" s="7">
         <v>14</v>
@@ -70126,11 +70131,11 @@
       <c r="G65" s="7">
         <v>14</v>
       </c>
-      <c r="H65" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>3299</v>
+      <c r="H65" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I65" s="26" t="s">
+        <v>3300</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
@@ -70159,7 +70164,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="F66" s="7">
         <v>14</v>
@@ -70167,11 +70172,11 @@
       <c r="G66" s="7">
         <v>14</v>
       </c>
-      <c r="H66" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>3301</v>
+      <c r="H66" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>3302</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
@@ -70200,7 +70205,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="F67" s="7">
         <v>14</v>
@@ -70208,11 +70213,11 @@
       <c r="G67" s="7">
         <v>14</v>
       </c>
-      <c r="H67" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>3303</v>
+      <c r="H67" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>3304</v>
       </c>
       <c r="J67" s="7">
         <v>-1</v>
@@ -70241,7 +70246,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="F68" s="7">
         <v>14</v>
@@ -70249,11 +70254,11 @@
       <c r="G68" s="7">
         <v>14</v>
       </c>
-      <c r="H68" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I68" s="24" t="s">
-        <v>3305</v>
+      <c r="H68" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>3306</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -70282,7 +70287,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="F69" s="7">
         <v>14</v>
@@ -70290,11 +70295,11 @@
       <c r="G69" s="7">
         <v>14</v>
       </c>
-      <c r="H69" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I69" s="24" t="s">
-        <v>3307</v>
+      <c r="H69" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>3308</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -70323,7 +70328,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="F70" s="7">
         <v>14</v>
@@ -70331,11 +70336,11 @@
       <c r="G70" s="7">
         <v>14</v>
       </c>
-      <c r="H70" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>3309</v>
+      <c r="H70" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>3310</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -70364,7 +70369,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="F71" s="7">
         <v>14</v>
@@ -70372,11 +70377,11 @@
       <c r="G71" s="7">
         <v>14</v>
       </c>
-      <c r="H71" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>3311</v>
+      <c r="H71" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>3312</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -70405,7 +70410,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="F72" s="7">
         <v>14</v>
@@ -70413,11 +70418,11 @@
       <c r="G72" s="7">
         <v>14</v>
       </c>
-      <c r="H72" s="24" t="s">
-        <v>3286</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>3313</v>
+      <c r="H72" s="26" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>3314</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -70461,7 +70466,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="F74" s="7">
         <v>11</v>
@@ -70469,11 +70474,11 @@
       <c r="G74" s="7">
         <v>11</v>
       </c>
-      <c r="H74" s="24" t="s">
-        <v>3315</v>
-      </c>
-      <c r="I74" s="23" t="s">
+      <c r="H74" s="26" t="s">
         <v>3316</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>3317</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
@@ -70502,7 +70507,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="F75" s="7">
         <v>0</v>
@@ -70510,11 +70515,11 @@
       <c r="G75" s="7">
         <v>0</v>
       </c>
-      <c r="H75" s="24" t="s">
-        <v>3318</v>
-      </c>
-      <c r="I75" s="24" t="s">
+      <c r="H75" s="26" t="s">
         <v>3319</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>3320</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
@@ -70543,7 +70548,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="F76" s="7">
         <v>0</v>
@@ -70551,11 +70556,11 @@
       <c r="G76" s="7">
         <v>0</v>
       </c>
-      <c r="H76" s="24" t="s">
-        <v>3318</v>
-      </c>
-      <c r="I76" s="24" t="s">
-        <v>3321</v>
+      <c r="H76" s="26" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>3322</v>
       </c>
       <c r="J76" s="7">
         <v>-1</v>
@@ -70584,7 +70589,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="F77" s="7">
         <v>0</v>
@@ -70592,11 +70597,11 @@
       <c r="G77" s="7">
         <v>0</v>
       </c>
-      <c r="H77" s="24" t="s">
-        <v>3318</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>3323</v>
+      <c r="H77" s="26" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>3324</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
@@ -70625,7 +70630,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="F78" s="7">
         <v>0</v>
@@ -70633,11 +70638,11 @@
       <c r="G78" s="7">
         <v>0</v>
       </c>
-      <c r="H78" s="24" t="s">
-        <v>3318</v>
-      </c>
-      <c r="I78" s="24" t="s">
-        <v>3325</v>
+      <c r="H78" s="26" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>3326</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
@@ -70666,7 +70671,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="F79" s="7">
         <v>0</v>
@@ -70674,11 +70679,11 @@
       <c r="G79" s="7">
         <v>0</v>
       </c>
-      <c r="H79" s="24" t="s">
-        <v>3318</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>3327</v>
+      <c r="H79" s="26" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>3328</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
@@ -70707,7 +70712,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="F80" s="7">
         <v>0</v>
@@ -70715,11 +70720,11 @@
       <c r="G80" s="7">
         <v>0</v>
       </c>
-      <c r="H80" s="24" t="s">
-        <v>3318</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>3329</v>
+      <c r="H80" s="26" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>3330</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
@@ -70748,7 +70753,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="F81" s="7">
         <v>0</v>
@@ -70756,11 +70761,11 @@
       <c r="G81" s="7">
         <v>0</v>
       </c>
-      <c r="H81" s="24" t="s">
-        <v>3318</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>3331</v>
+      <c r="H81" s="26" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>3332</v>
       </c>
       <c r="J81" s="7">
         <v>-1</v>
@@ -70789,7 +70794,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="F82" s="7">
         <v>0</v>
@@ -70797,11 +70802,11 @@
       <c r="G82" s="7">
         <v>0</v>
       </c>
-      <c r="H82" s="24" t="s">
-        <v>3318</v>
-      </c>
-      <c r="I82" s="24" t="s">
-        <v>3333</v>
+      <c r="H82" s="26" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>3334</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18136" uniqueCount="3335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18160" uniqueCount="3341">
   <si>
     <t>_id</t>
   </si>
@@ -9828,6 +9828,18 @@
     <t>160,160,160,160</t>
   </si>
   <si>
+    <t>斗笠十五阶</t>
+  </si>
+  <si>
+    <t>180,180,180,180</t>
+  </si>
+  <si>
+    <t>斗笠十六阶</t>
+  </si>
+  <si>
+    <t>200,200,200,200</t>
+  </si>
+  <si>
     <t>护盾一阶</t>
   </si>
   <si>
@@ -9915,6 +9927,18 @@
     <t>160,160</t>
   </si>
   <si>
+    <t>护盾十五阶</t>
+  </si>
+  <si>
+    <t>180,180</t>
+  </si>
+  <si>
+    <t>护盾十六阶</t>
+  </si>
+  <si>
+    <t>200,200</t>
+  </si>
+  <si>
     <t>神符一阶</t>
   </si>
   <si>
@@ -10002,6 +10026,18 @@
     <t>16,16,160,160,160</t>
   </si>
   <si>
+    <t>神符十五阶</t>
+  </si>
+  <si>
+    <t>18,18,180,180,180</t>
+  </si>
+  <si>
+    <t>神符十六阶</t>
+  </si>
+  <si>
+    <t>20,20,200,200,200</t>
+  </si>
+  <si>
     <t>魔石一阶</t>
   </si>
   <si>
@@ -10089,6 +10125,15 @@
     <t>16,160,4</t>
   </si>
   <si>
+    <t>魔石十五阶</t>
+  </si>
+  <si>
+    <t>18,180,4</t>
+  </si>
+  <si>
+    <t>魔石十六阶</t>
+  </si>
+  <si>
     <t>测试斗笠</t>
   </si>
   <si>
@@ -10101,52 +10146,25 @@
     <t>百年魂环</t>
   </si>
   <si>
-    <t>1,2,3,4,5,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21</t>
-  </si>
-  <si>
-    <t>1000,100,100,100,100,2,2,20,2,20,20,20,20,20,20,20,20,20,2,20</t>
-  </si>
-  <si>
     <t>千年魂环</t>
   </si>
   <si>
-    <t>10000,1000,1000,1000,1000,3,3,30,3,30,30,30,30,30,30,30,30,30,3,30</t>
-  </si>
-  <si>
     <t>万年魂环</t>
   </si>
   <si>
-    <t>100000,10000,10000,10000,10000,4,4,40,4,40,40,40,40,40,40,40,40,40,4,40</t>
-  </si>
-  <si>
     <t>十万年魂环</t>
   </si>
   <si>
-    <t>1000000,100000,100000,100000,100000,5,5,50,5,50,50,50,50,50,50,50,50,50,5,50</t>
-  </si>
-  <si>
     <t>百万年魂环</t>
   </si>
   <si>
-    <t>10000000,1000000,1000000,1000000,1000000,6,6,60,6,60,60,60,60,60,60,60,60,60,6,60</t>
-  </si>
-  <si>
     <t>千万年魂环</t>
   </si>
   <si>
-    <t>100000000,10000000,10000000,10000000,10000000,7,7,70,7,70,70,70,70,70,70,70,70,70,7,70</t>
-  </si>
-  <si>
     <t>亿年魂环</t>
   </si>
   <si>
-    <t>1000000000,100000000,100000000,100000000,100000000,8,8,80,8,80,80,80,80,80,80,80,80,80,8,80</t>
-  </si>
-  <si>
     <t>十亿年魂环</t>
-  </si>
-  <si>
-    <t>10000000000,1000000000,1000000000,1000000000,1000000000,9,9,90,9,90,90,90,90,90,90,90,90,90,9,90</t>
   </si>
 </sst>
 </file>
@@ -65489,7 +65507,7 @@
   <sheetPr/>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="N46" sqref="N46:N53"/>
     </sheetView>
   </sheetViews>
@@ -67621,10 +67639,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78:O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -67634,7 +67652,7 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="43.875" customWidth="1"/>
-    <col min="9" max="9" width="93.875" customWidth="1"/>
+    <col min="9" max="9" width="44.8416666666667" customWidth="1"/>
     <col min="10" max="15" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -68677,47 +68695,73 @@
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="C28" s="7">
+        <v>115</v>
+      </c>
+      <c r="D28" s="7">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>3228</v>
+      </c>
+      <c r="F28" s="7">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7">
+        <v>11</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>3229</v>
+      </c>
+      <c r="J28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="7">
+        <v>5</v>
+      </c>
+      <c r="L28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C29" s="7">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="D29" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="F29" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>3229</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>3230</v>
+        <v>3200</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>3231</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
       </c>
       <c r="K29" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L29" s="7">
         <v>-1</v>
@@ -68733,55 +68777,29 @@
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C30" s="7">
-        <v>202</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>3231</v>
-      </c>
-      <c r="F30" s="7">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7">
-        <v>12</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>3229</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>3232</v>
-      </c>
-      <c r="J30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K30" s="7">
-        <v>1</v>
-      </c>
-      <c r="L30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C31" s="7">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="F31" s="7">
         <v>12</v>
@@ -68790,9 +68808,9 @@
         <v>12</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>3229</v>
-      </c>
-      <c r="I31" s="25" t="s">
+        <v>3233</v>
+      </c>
+      <c r="I31" s="26" t="s">
         <v>3234</v>
       </c>
       <c r="J31" s="7">
@@ -68816,10 +68834,10 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C32" s="7">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D32" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>3235</v>
@@ -68831,16 +68849,16 @@
         <v>12</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>3229</v>
-      </c>
-      <c r="I32" s="25" t="s">
+        <v>3233</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>3236</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
       </c>
       <c r="K32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7">
         <v>-1</v>
@@ -68857,10 +68875,10 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C33" s="7">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D33" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>3237</v>
@@ -68872,7 +68890,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I33" s="25" t="s">
         <v>3238</v>
@@ -68881,7 +68899,7 @@
         <v>-1</v>
       </c>
       <c r="K33" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="7">
         <v>-1</v>
@@ -68898,10 +68916,10 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C34" s="7">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D34" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>3239</v>
@@ -68913,7 +68931,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I34" s="25" t="s">
         <v>3240</v>
@@ -68939,10 +68957,10 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C35" s="7">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D35" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>3241</v>
@@ -68954,7 +68972,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I35" s="25" t="s">
         <v>3242</v>
@@ -68963,7 +68981,7 @@
         <v>-1</v>
       </c>
       <c r="K35" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35" s="7">
         <v>-1</v>
@@ -68980,10 +68998,10 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C36" s="7">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D36" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>3243</v>
@@ -68995,7 +69013,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I36" s="25" t="s">
         <v>3244</v>
@@ -69004,7 +69022,7 @@
         <v>-1</v>
       </c>
       <c r="K36" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36" s="7">
         <v>-1</v>
@@ -69021,10 +69039,10 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C37" s="7">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D37" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>3245</v>
@@ -69036,7 +69054,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>3246</v>
@@ -69062,10 +69080,10 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C38" s="7">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D38" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>3247</v>
@@ -69077,7 +69095,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I38" s="25" t="s">
         <v>3248</v>
@@ -69086,7 +69104,7 @@
         <v>-1</v>
       </c>
       <c r="K38" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38" s="7">
         <v>-1</v>
@@ -69103,10 +69121,10 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C39" s="7">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D39" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>3249</v>
@@ -69118,7 +69136,7 @@
         <v>12</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I39" s="25" t="s">
         <v>3250</v>
@@ -69127,7 +69145,7 @@
         <v>-1</v>
       </c>
       <c r="K39" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39" s="7">
         <v>-1</v>
@@ -69144,10 +69162,10 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C40" s="7">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D40" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>3251</v>
@@ -69159,7 +69177,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I40" s="25" t="s">
         <v>3252</v>
@@ -69185,10 +69203,10 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C41" s="7">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D41" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>3253</v>
@@ -69200,7 +69218,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I41" s="25" t="s">
         <v>3254</v>
@@ -69209,7 +69227,7 @@
         <v>-1</v>
       </c>
       <c r="K41" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L41" s="7">
         <v>-1</v>
@@ -69226,10 +69244,10 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C42" s="7">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D42" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>3255</v>
@@ -69241,7 +69259,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="I42" s="25" t="s">
         <v>3256</v>
@@ -69250,7 +69268,7 @@
         <v>-1</v>
       </c>
       <c r="K42" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" s="7">
         <v>-1</v>
@@ -69266,47 +69284,73 @@
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
+      <c r="C43" s="7">
+        <v>213</v>
+      </c>
+      <c r="D43" s="7">
+        <v>13</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>3257</v>
+      </c>
+      <c r="F43" s="7">
+        <v>12</v>
+      </c>
+      <c r="G43" s="7">
+        <v>12</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>3233</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="7">
+        <v>5</v>
+      </c>
+      <c r="L43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N43" s="7">
+        <v>1</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C44" s="7">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="D44" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="F44" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>3258</v>
+        <v>3233</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
       </c>
       <c r="K44" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L44" s="7">
         <v>-1</v>
@@ -69323,31 +69367,31 @@
     </row>
     <row r="45" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C45" s="7">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="D45" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="F45" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>3258</v>
+        <v>3233</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
       </c>
       <c r="K45" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L45" s="7">
         <v>-1</v>
@@ -69364,31 +69408,31 @@
     </row>
     <row r="46" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C46" s="7">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="D46" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="F46" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>3258</v>
+        <v>3233</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
       </c>
       <c r="K46" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L46" s="7">
         <v>-1</v>
@@ -69404,55 +69448,29 @@
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C47" s="7">
-        <v>304</v>
-      </c>
-      <c r="D47" s="7">
-        <v>4</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>3264</v>
-      </c>
-      <c r="F47" s="7">
-        <v>13</v>
-      </c>
-      <c r="G47" s="7">
-        <v>13</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>3258</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>3265</v>
-      </c>
-      <c r="J47" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K47" s="7">
-        <v>2</v>
-      </c>
-      <c r="L47" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M47" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N47" s="7">
-        <v>1</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C48" s="7">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D48" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="F48" s="7">
         <v>13</v>
@@ -69461,7 +69479,7 @@
         <v>13</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I48" s="25" t="s">
         <v>3267</v>
@@ -69470,7 +69488,7 @@
         <v>-1</v>
       </c>
       <c r="K48" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" s="7">
         <v>-1</v>
@@ -69487,10 +69505,10 @@
     </row>
     <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C49" s="7">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D49" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>3268</v>
@@ -69502,7 +69520,7 @@
         <v>13</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>3269</v>
@@ -69511,7 +69529,7 @@
         <v>-1</v>
       </c>
       <c r="K49" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49" s="7">
         <v>-1</v>
@@ -69528,10 +69546,10 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C50" s="7">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D50" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>3270</v>
@@ -69543,7 +69561,7 @@
         <v>13</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>3271</v>
@@ -69552,7 +69570,7 @@
         <v>-1</v>
       </c>
       <c r="K50" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L50" s="7">
         <v>-1</v>
@@ -69569,10 +69587,10 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C51" s="7">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D51" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>3272</v>
@@ -69584,7 +69602,7 @@
         <v>13</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I51" s="25" t="s">
         <v>3273</v>
@@ -69593,7 +69611,7 @@
         <v>-1</v>
       </c>
       <c r="K51" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L51" s="7">
         <v>-1</v>
@@ -69610,10 +69628,10 @@
     </row>
     <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C52" s="7">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D52" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>3274</v>
@@ -69625,7 +69643,7 @@
         <v>13</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I52" s="25" t="s">
         <v>3275</v>
@@ -69634,7 +69652,7 @@
         <v>-1</v>
       </c>
       <c r="K52" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52" s="7">
         <v>-1</v>
@@ -69651,10 +69669,10 @@
     </row>
     <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C53" s="7">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D53" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>3276</v>
@@ -69666,7 +69684,7 @@
         <v>13</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I53" s="25" t="s">
         <v>3277</v>
@@ -69675,7 +69693,7 @@
         <v>-1</v>
       </c>
       <c r="K53" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L53" s="7">
         <v>-1</v>
@@ -69692,10 +69710,10 @@
     </row>
     <row r="54" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C54" s="7">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D54" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>3278</v>
@@ -69707,7 +69725,7 @@
         <v>13</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I54" s="25" t="s">
         <v>3279</v>
@@ -69716,7 +69734,7 @@
         <v>-1</v>
       </c>
       <c r="K54" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L54" s="7">
         <v>-1</v>
@@ -69733,10 +69751,10 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C55" s="7">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D55" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>3280</v>
@@ -69748,7 +69766,7 @@
         <v>13</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I55" s="25" t="s">
         <v>3281</v>
@@ -69757,7 +69775,7 @@
         <v>-1</v>
       </c>
       <c r="K55" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L55" s="7">
         <v>-1</v>
@@ -69774,10 +69792,10 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C56" s="7">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D56" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>3282</v>
@@ -69789,7 +69807,7 @@
         <v>13</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I56" s="25" t="s">
         <v>3283</v>
@@ -69798,7 +69816,7 @@
         <v>-1</v>
       </c>
       <c r="K56" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L56" s="7">
         <v>-1</v>
@@ -69815,22 +69833,22 @@
     </row>
     <row r="57" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C57" s="7">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D57" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>3284</v>
       </c>
       <c r="F57" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" s="7">
         <v>13</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="I57" s="25" t="s">
         <v>3285</v>
@@ -69839,7 +69857,7 @@
         <v>-1</v>
       </c>
       <c r="K57" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L57" s="7">
         <v>-1</v>
@@ -69855,47 +69873,73 @@
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
+      <c r="C58" s="7">
+        <v>311</v>
+      </c>
+      <c r="D58" s="7">
+        <v>11</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F58" s="7">
+        <v>13</v>
+      </c>
+      <c r="G58" s="7">
+        <v>13</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>3266</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>3287</v>
+      </c>
+      <c r="J58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K58" s="7">
+        <v>4</v>
+      </c>
+      <c r="L58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N58" s="7">
+        <v>1</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C59" s="7">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="D59" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="F59" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I59" s="26" t="s">
-        <v>3288</v>
+        <v>3266</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>3289</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
       </c>
       <c r="K59" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L59" s="7">
         <v>-1</v>
@@ -69912,31 +69956,31 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C60" s="7">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="D60" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="F60" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I60" s="26" t="s">
-        <v>3290</v>
+        <v>3266</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>3291</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
       </c>
       <c r="K60" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L60" s="7">
         <v>-1</v>
@@ -69953,31 +69997,31 @@
     </row>
     <row r="61" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C61" s="7">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="D61" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="F61" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I61" s="26" t="s">
-        <v>3292</v>
+        <v>3266</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>3293</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
       </c>
       <c r="K61" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L61" s="7">
         <v>-1</v>
@@ -69994,31 +70038,31 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C62" s="7">
-        <v>404</v>
+        <v>315</v>
       </c>
       <c r="D62" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="F62" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I62" s="26" t="s">
-        <v>3294</v>
+        <v>3266</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>3295</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
       </c>
       <c r="K62" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L62" s="7">
         <v>-1</v>
@@ -70035,31 +70079,31 @@
     </row>
     <row r="63" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C63" s="7">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="D63" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="F63" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I63" s="26" t="s">
-        <v>3296</v>
+        <v>3266</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>3297</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
       </c>
       <c r="K63" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L63" s="7">
         <v>-1</v>
@@ -70075,55 +70119,29 @@
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C64" s="7">
-        <v>406</v>
-      </c>
-      <c r="D64" s="7">
-        <v>6</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>3297</v>
-      </c>
-      <c r="F64" s="7">
-        <v>14</v>
-      </c>
-      <c r="G64" s="7">
-        <v>14</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I64" s="26" t="s">
-        <v>3298</v>
-      </c>
-      <c r="J64" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K64" s="7">
-        <v>2</v>
-      </c>
-      <c r="L64" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M64" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N64" s="7">
-        <v>1</v>
-      </c>
-      <c r="O64" s="7">
-        <v>0</v>
-      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C65" s="7">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D65" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="F65" s="7">
         <v>14</v>
@@ -70132,7 +70150,7 @@
         <v>14</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>3287</v>
+        <v>3299</v>
       </c>
       <c r="I65" s="26" t="s">
         <v>3300</v>
@@ -70141,7 +70159,7 @@
         <v>-1</v>
       </c>
       <c r="K65" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65" s="7">
         <v>-1</v>
@@ -70158,10 +70176,10 @@
     </row>
     <row r="66" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C66" s="7">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D66" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>3301</v>
@@ -70173,7 +70191,7 @@
         <v>14</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>3287</v>
+        <v>3299</v>
       </c>
       <c r="I66" s="26" t="s">
         <v>3302</v>
@@ -70182,7 +70200,7 @@
         <v>-1</v>
       </c>
       <c r="K66" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66" s="7">
         <v>-1</v>
@@ -70199,10 +70217,10 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C67" s="7">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D67" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>3303</v>
@@ -70214,7 +70232,7 @@
         <v>14</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>3287</v>
+        <v>3299</v>
       </c>
       <c r="I67" s="26" t="s">
         <v>3304</v>
@@ -70223,7 +70241,7 @@
         <v>-1</v>
       </c>
       <c r="K67" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67" s="7">
         <v>-1</v>
@@ -70240,10 +70258,10 @@
     </row>
     <row r="68" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C68" s="7">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D68" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>3305</v>
@@ -70255,7 +70273,7 @@
         <v>14</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>3287</v>
+        <v>3299</v>
       </c>
       <c r="I68" s="26" t="s">
         <v>3306</v>
@@ -70264,7 +70282,7 @@
         <v>-1</v>
       </c>
       <c r="K68" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L68" s="7">
         <v>-1</v>
@@ -70281,10 +70299,10 @@
     </row>
     <row r="69" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C69" s="7">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D69" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>3307</v>
@@ -70296,7 +70314,7 @@
         <v>14</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>3287</v>
+        <v>3299</v>
       </c>
       <c r="I69" s="26" t="s">
         <v>3308</v>
@@ -70305,7 +70323,7 @@
         <v>-1</v>
       </c>
       <c r="K69" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L69" s="7">
         <v>-1</v>
@@ -70322,10 +70340,10 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C70" s="7">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D70" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>3309</v>
@@ -70337,7 +70355,7 @@
         <v>14</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>3287</v>
+        <v>3299</v>
       </c>
       <c r="I70" s="26" t="s">
         <v>3310</v>
@@ -70346,7 +70364,7 @@
         <v>-1</v>
       </c>
       <c r="K70" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L70" s="7">
         <v>-1</v>
@@ -70363,10 +70381,10 @@
     </row>
     <row r="71" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C71" s="7">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D71" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>3311</v>
@@ -70378,7 +70396,7 @@
         <v>14</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>3287</v>
+        <v>3299</v>
       </c>
       <c r="I71" s="26" t="s">
         <v>3312</v>
@@ -70387,7 +70405,7 @@
         <v>-1</v>
       </c>
       <c r="K71" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L71" s="7">
         <v>-1</v>
@@ -70404,10 +70422,10 @@
     </row>
     <row r="72" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C72" s="7">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D72" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>3313</v>
@@ -70419,7 +70437,7 @@
         <v>14</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>3287</v>
+        <v>3299</v>
       </c>
       <c r="I72" s="26" t="s">
         <v>3314</v>
@@ -70428,7 +70446,7 @@
         <v>-1</v>
       </c>
       <c r="K72" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L72" s="7">
         <v>-1</v>
@@ -70444,47 +70462,73 @@
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
+      <c r="C73" s="7">
+        <v>409</v>
+      </c>
+      <c r="D73" s="7">
+        <v>9</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F73" s="7">
+        <v>14</v>
+      </c>
+      <c r="G73" s="7">
+        <v>14</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>3299</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>3316</v>
+      </c>
+      <c r="J73" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K73" s="7">
+        <v>3</v>
+      </c>
+      <c r="L73" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M73" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N73" s="7">
+        <v>1</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C74" s="7">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="D74" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3315</v>
+        <v>3317</v>
       </c>
       <c r="F74" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G74" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>3316</v>
-      </c>
-      <c r="I74" s="25" t="s">
-        <v>3317</v>
+        <v>3299</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>3318</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
       </c>
       <c r="K74" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L74" s="7">
         <v>-1</v>
@@ -70501,22 +70545,22 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C75" s="7">
-        <v>502</v>
+        <v>411</v>
       </c>
       <c r="D75" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="F75" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G75" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>3319</v>
+        <v>3299</v>
       </c>
       <c r="I75" s="26" t="s">
         <v>3320</v>
@@ -70525,7 +70569,7 @@
         <v>-1</v>
       </c>
       <c r="K75" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L75" s="7">
         <v>-1</v>
@@ -70542,22 +70586,22 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C76" s="7">
-        <v>503</v>
+        <v>412</v>
       </c>
       <c r="D76" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>3321</v>
       </c>
       <c r="F76" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G76" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>3319</v>
+        <v>3299</v>
       </c>
       <c r="I76" s="26" t="s">
         <v>3322</v>
@@ -70566,7 +70610,7 @@
         <v>-1</v>
       </c>
       <c r="K76" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L76" s="7">
         <v>-1</v>
@@ -70583,22 +70627,22 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C77" s="7">
-        <v>504</v>
+        <v>413</v>
       </c>
       <c r="D77" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>3323</v>
       </c>
       <c r="F77" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G77" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>3319</v>
+        <v>3299</v>
       </c>
       <c r="I77" s="26" t="s">
         <v>3324</v>
@@ -70607,7 +70651,7 @@
         <v>-1</v>
       </c>
       <c r="K77" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L77" s="7">
         <v>-1</v>
@@ -70624,22 +70668,22 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C78" s="7">
-        <v>505</v>
+        <v>414</v>
       </c>
       <c r="D78" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>3325</v>
       </c>
       <c r="F78" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G78" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>3319</v>
+        <v>3299</v>
       </c>
       <c r="I78" s="26" t="s">
         <v>3326</v>
@@ -70648,7 +70692,7 @@
         <v>-1</v>
       </c>
       <c r="K78" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L78" s="7">
         <v>-1</v>
@@ -70665,22 +70709,22 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C79" s="7">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D79" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>3327</v>
       </c>
       <c r="F79" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G79" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>3319</v>
+        <v>3299</v>
       </c>
       <c r="I79" s="26" t="s">
         <v>3328</v>
@@ -70689,7 +70733,7 @@
         <v>-1</v>
       </c>
       <c r="K79" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L79" s="7">
         <v>-1</v>
@@ -70706,31 +70750,31 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C80" s="7">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="D80" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>3329</v>
       </c>
       <c r="F80" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G80" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>3319</v>
+        <v>3299</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
       </c>
       <c r="K80" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L80" s="7">
         <v>-1</v>
@@ -70746,73 +70790,47 @@
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C81" s="7">
-        <v>508</v>
-      </c>
-      <c r="D81" s="7">
-        <v>0</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>3331</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
-      <c r="H81" s="26" t="s">
-        <v>3319</v>
-      </c>
-      <c r="I81" s="26" t="s">
-        <v>3332</v>
-      </c>
-      <c r="J81" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K81" s="7">
-        <v>1</v>
-      </c>
-      <c r="L81" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M81" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N81" s="7">
-        <v>1</v>
-      </c>
-      <c r="O81" s="7">
-        <v>0</v>
-      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C82" s="7">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D82" s="7">
         <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="F82" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G82" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>3319</v>
-      </c>
-      <c r="I82" s="26" t="s">
-        <v>3334</v>
+        <v>3331</v>
+      </c>
+      <c r="I82" s="25" t="s">
+        <v>3332</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
       </c>
       <c r="K82" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L82" s="7">
         <v>-1</v>
@@ -70827,20 +70845,348 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="9:9">
-      <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="9:9">
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="9:9">
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="9:9">
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="9:9">
-      <c r="I87" s="11"/>
+    <row r="83" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C83" s="7">
+        <v>502</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J83" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K83" s="7">
+        <v>1</v>
+      </c>
+      <c r="L83" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N83" s="7">
+        <v>1</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C84" s="7">
+        <v>503</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K84" s="7">
+        <v>1</v>
+      </c>
+      <c r="L84" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M84" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N84" s="7">
+        <v>1</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C85" s="7">
+        <v>504</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J85" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K85" s="7">
+        <v>1</v>
+      </c>
+      <c r="L85" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M85" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N85" s="7">
+        <v>1</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C86" s="7">
+        <v>505</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J86" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K86" s="7">
+        <v>1</v>
+      </c>
+      <c r="L86" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M86" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N86" s="7">
+        <v>1</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C87" s="7">
+        <v>506</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>3337</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J87" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K87" s="7">
+        <v>1</v>
+      </c>
+      <c r="L87" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M87" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N87" s="7">
+        <v>1</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C88" s="7">
+        <v>507</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J88" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K88" s="7">
+        <v>1</v>
+      </c>
+      <c r="L88" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M88" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N88" s="7">
+        <v>1</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C89" s="7">
+        <v>508</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K89" s="7">
+        <v>1</v>
+      </c>
+      <c r="L89" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M89" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N89" s="7">
+        <v>1</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C90" s="7">
+        <v>509</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K90" s="7">
+        <v>1</v>
+      </c>
+      <c r="L90" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M90" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N90" s="7">
+        <v>1</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9">
+      <c r="I91" s="11"/>
+    </row>
+    <row r="92" spans="9:9">
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" spans="9:9">
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="9:9">
+      <c r="I94" s="11"/>
+    </row>
+    <row r="95" spans="9:9">
+      <c r="I95" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18160" uniqueCount="3341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18472" uniqueCount="3406">
   <si>
     <t>_id</t>
   </si>
@@ -9703,6 +9703,201 @@
   </si>
   <si>
     <t>幻·玄天道靴</t>
+  </si>
+  <si>
+    <t>21005701</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>幻·雷霆战刃</t>
+  </si>
+  <si>
+    <t>450000000</t>
+  </si>
+  <si>
+    <t>9000000000</t>
+  </si>
+  <si>
+    <t>21005702</t>
+  </si>
+  <si>
+    <t>幻·雷霆战甲</t>
+  </si>
+  <si>
+    <t>5000000000,200000000</t>
+  </si>
+  <si>
+    <t>21005703</t>
+  </si>
+  <si>
+    <t>幻·雷霆战链</t>
+  </si>
+  <si>
+    <t>2500000000,150000000</t>
+  </si>
+  <si>
+    <t>4500000000</t>
+  </si>
+  <si>
+    <t>21005704</t>
+  </si>
+  <si>
+    <t>幻·雷霆战盔</t>
+  </si>
+  <si>
+    <t>2500000000,200000000</t>
+  </si>
+  <si>
+    <t>21005705</t>
+  </si>
+  <si>
+    <t>幻·雷霆战镯</t>
+  </si>
+  <si>
+    <t>21005707</t>
+  </si>
+  <si>
+    <t>幻·雷霆战戒</t>
+  </si>
+  <si>
+    <t>21005709</t>
+  </si>
+  <si>
+    <t>幻·雷霆战带</t>
+  </si>
+  <si>
+    <t>2500000000,150000000,200000000</t>
+  </si>
+  <si>
+    <t>21005710</t>
+  </si>
+  <si>
+    <t>幻·雷霆战靴</t>
+  </si>
+  <si>
+    <t>22005701</t>
+  </si>
+  <si>
+    <t>幻·烈焰法杖</t>
+  </si>
+  <si>
+    <t>750000000</t>
+  </si>
+  <si>
+    <t>22005702</t>
+  </si>
+  <si>
+    <t>幻·烈焰法衣</t>
+  </si>
+  <si>
+    <t>3000000000,200000000</t>
+  </si>
+  <si>
+    <t>22005703</t>
+  </si>
+  <si>
+    <t>幻·烈焰法链</t>
+  </si>
+  <si>
+    <t>1500000000,250000000</t>
+  </si>
+  <si>
+    <t>22005704</t>
+  </si>
+  <si>
+    <t>幻·烈焰法帽</t>
+  </si>
+  <si>
+    <t>1500000000,200000000</t>
+  </si>
+  <si>
+    <t>22005705</t>
+  </si>
+  <si>
+    <t>幻·烈焰法镯</t>
+  </si>
+  <si>
+    <t>22005707</t>
+  </si>
+  <si>
+    <t>幻·烈焰法戒</t>
+  </si>
+  <si>
+    <t>22005709</t>
+  </si>
+  <si>
+    <t>幻·烈焰法带</t>
+  </si>
+  <si>
+    <t>1500000000,250000000,200000000</t>
+  </si>
+  <si>
+    <t>22005710</t>
+  </si>
+  <si>
+    <t>幻·烈焰法靴</t>
+  </si>
+  <si>
+    <t>23005701</t>
+  </si>
+  <si>
+    <t>幻·光芒道剑</t>
+  </si>
+  <si>
+    <t>600000000</t>
+  </si>
+  <si>
+    <t>23005702</t>
+  </si>
+  <si>
+    <t>幻·光芒道袍</t>
+  </si>
+  <si>
+    <t>4000000000,200000000</t>
+  </si>
+  <si>
+    <t>23005703</t>
+  </si>
+  <si>
+    <t>幻·光芒道链</t>
+  </si>
+  <si>
+    <t>2000000000,200000000</t>
+  </si>
+  <si>
+    <t>23005704</t>
+  </si>
+  <si>
+    <t>幻·光芒道冠</t>
+  </si>
+  <si>
+    <t>23005705</t>
+  </si>
+  <si>
+    <t>幻·光芒道镯</t>
+  </si>
+  <si>
+    <t>23005707</t>
+  </si>
+  <si>
+    <t>幻·光芒道戒</t>
+  </si>
+  <si>
+    <t>23005709</t>
+  </si>
+  <si>
+    <t>幻·光芒道带</t>
+  </si>
+  <si>
+    <t>2000000000,200000000,200000000</t>
+  </si>
+  <si>
+    <t>23005710</t>
+  </si>
+  <si>
+    <t>幻·光芒道靴</t>
   </si>
   <si>
     <t>新手剑</t>
@@ -10217,7 +10412,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -10892,7 +11086,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -65505,10 +65698,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46:N53"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -65663,986 +65856,986 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>3057</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>3059</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>3060</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="J6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>3061</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>3062</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>3063</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="12" t="s">
         <v>3064</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="J7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>3061</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>3065</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="12" t="s">
         <v>3066</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="12" t="s">
         <v>466</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="12" t="s">
         <v>3067</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="J8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="12" t="s">
         <v>3069</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="12" t="s">
         <v>3070</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="12" t="s">
         <v>3071</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="J9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>3072</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>3073</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="12" t="s">
         <v>794</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="12" t="s">
         <v>3067</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="J10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>3074</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>3075</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="12" t="s">
         <v>906</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="12" t="s">
         <v>3067</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="2" t="s">
+      <c r="J11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="12" t="s">
         <v>3076</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>3077</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="12" t="s">
         <v>1018</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="12" t="s">
         <v>3078</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="J12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="12" t="s">
         <v>3079</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="12" t="s">
         <v>3080</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="12" t="s">
         <v>3078</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="J13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="12" t="s">
         <v>3081</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="12" t="s">
         <v>3082</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>3083</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="2" t="s">
+      <c r="J14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>3061</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="12" t="s">
         <v>3084</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>3085</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="12" t="s">
         <v>3086</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="2" t="s">
+      <c r="J15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="12" t="s">
         <v>3061</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="12" t="s">
         <v>3087</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="12" t="s">
         <v>3088</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="12" t="s">
         <v>466</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="12" t="s">
         <v>1515</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="12" t="s">
         <v>3089</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="2" t="s">
+      <c r="J16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="12" t="s">
         <v>3090</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="12" t="s">
         <v>3091</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="12" t="s">
         <v>3092</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="2" t="s">
+      <c r="J17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="12" t="s">
         <v>3093</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="12" t="s">
         <v>3094</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="12" t="s">
         <v>794</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="12" t="s">
         <v>1515</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="12" t="s">
         <v>3089</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="2" t="s">
+      <c r="J18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="12" t="s">
         <v>3095</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="12" t="s">
         <v>3096</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="12" t="s">
         <v>906</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="12" t="s">
         <v>1515</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="12" t="s">
         <v>3089</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="2" t="s">
+      <c r="J19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>3097</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="12" t="s">
         <v>3098</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="12" t="s">
         <v>1018</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="12" t="s">
         <v>1956</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="12" t="s">
         <v>3099</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="J20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>3100</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="12" t="s">
         <v>3101</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="12" t="s">
         <v>1956</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="12" t="s">
         <v>3099</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="J21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="12" t="s">
         <v>3102</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="12" t="s">
         <v>3103</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="12" t="s">
         <v>3104</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="2" t="s">
+      <c r="J22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="12" t="s">
         <v>3061</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="12" t="s">
         <v>3105</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="12" t="s">
         <v>3106</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="12" t="s">
         <v>3107</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="2" t="s">
+      <c r="J23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="12" t="s">
         <v>3061</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="12" t="s">
         <v>3108</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="12" t="s">
         <v>3109</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="12" t="s">
         <v>466</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="12" t="s">
         <v>2397</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="12" t="s">
         <v>3110</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="2" t="s">
+      <c r="J24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="12" t="s">
         <v>3111</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="12" t="s">
         <v>3112</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="12" t="s">
         <v>3110</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="2" t="s">
+      <c r="J25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="12" t="s">
         <v>3113</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="12" t="s">
         <v>3114</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="12" t="s">
         <v>794</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="12" t="s">
         <v>2397</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="12" t="s">
         <v>3110</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="2" t="s">
+      <c r="J26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="12" t="s">
         <v>3115</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="12" t="s">
         <v>3116</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="12" t="s">
         <v>906</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="12" t="s">
         <v>2397</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="12" t="s">
         <v>3110</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="2" t="s">
+      <c r="J27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="12" t="s">
         <v>3117</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="12" t="s">
         <v>3118</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="12" t="s">
         <v>1018</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="12" t="s">
         <v>2838</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="12" t="s">
         <v>3119</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="J28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="12" t="s">
         <v>3120</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="12" t="s">
         <v>3121</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="12" t="s">
         <v>2838</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="12" t="s">
         <v>3119</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="2" t="s">
+      <c r="J29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="12" t="s">
         <v>3068</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="12" t="s">
         <v>466</v>
       </c>
     </row>
@@ -66680,7 +66873,7 @@
       <c r="M30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="23" t="s">
         <v>3126</v>
       </c>
       <c r="O30" s="12" t="s">
@@ -66721,7 +66914,7 @@
       <c r="M31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="N31" s="23" t="s">
         <v>3126</v>
       </c>
       <c r="O31" s="12" t="s">
@@ -66762,7 +66955,7 @@
       <c r="M32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="N32" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O32" s="12" t="s">
@@ -66803,7 +66996,7 @@
       <c r="M33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N33" s="24" t="s">
+      <c r="N33" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O33" s="12" t="s">
@@ -66844,7 +67037,7 @@
       <c r="M34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="24" t="s">
+      <c r="N34" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O34" s="12" t="s">
@@ -66885,7 +67078,7 @@
       <c r="M35" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N35" s="24" t="s">
+      <c r="N35" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O35" s="12" t="s">
@@ -66926,7 +67119,7 @@
       <c r="M36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O36" s="12" t="s">
@@ -66967,7 +67160,7 @@
       <c r="M37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="24" t="s">
+      <c r="N37" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O37" s="12" t="s">
@@ -67008,7 +67201,7 @@
       <c r="M38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="24" t="s">
+      <c r="N38" s="23" t="s">
         <v>3126</v>
       </c>
       <c r="O38" s="12" t="s">
@@ -67049,7 +67242,7 @@
       <c r="M39" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="24" t="s">
+      <c r="N39" s="23" t="s">
         <v>3126</v>
       </c>
       <c r="O39" s="12" t="s">
@@ -67090,7 +67283,7 @@
       <c r="M40" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="N40" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O40" s="12" t="s">
@@ -67131,7 +67324,7 @@
       <c r="M41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="24" t="s">
+      <c r="N41" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O41" s="12" t="s">
@@ -67172,7 +67365,7 @@
       <c r="M42" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="24" t="s">
+      <c r="N42" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O42" s="12" t="s">
@@ -67213,7 +67406,7 @@
       <c r="M43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="N43" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O43" s="12" t="s">
@@ -67254,7 +67447,7 @@
       <c r="M44" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O44" s="12" t="s">
@@ -67295,7 +67488,7 @@
       <c r="M45" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N45" s="24" t="s">
+      <c r="N45" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O45" s="12" t="s">
@@ -67336,7 +67529,7 @@
       <c r="M46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N46" s="24" t="s">
+      <c r="N46" s="23" t="s">
         <v>3126</v>
       </c>
       <c r="O46" s="12" t="s">
@@ -67377,7 +67570,7 @@
       <c r="M47" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="24" t="s">
+      <c r="N47" s="23" t="s">
         <v>3126</v>
       </c>
       <c r="O47" s="12" t="s">
@@ -67418,7 +67611,7 @@
       <c r="M48" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N48" s="24" t="s">
+      <c r="N48" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O48" s="12" t="s">
@@ -67459,7 +67652,7 @@
       <c r="M49" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N49" s="24" t="s">
+      <c r="N49" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O49" s="12" t="s">
@@ -67500,7 +67693,7 @@
       <c r="M50" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="24" t="s">
+      <c r="N50" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O50" s="12" t="s">
@@ -67541,7 +67734,7 @@
       <c r="M51" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N51" s="24" t="s">
+      <c r="N51" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O51" s="12" t="s">
@@ -67582,7 +67775,7 @@
       <c r="M52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N52" s="24" t="s">
+      <c r="N52" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O52" s="12" t="s">
@@ -67623,12 +67816,1028 @@
       <c r="M53" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="24" t="s">
+      <c r="N53" s="23" t="s">
         <v>3133</v>
       </c>
       <c r="O53" s="12" t="s">
         <v>466</v>
       </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C54" s="12" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>3190</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>3191</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C55" s="12" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>3194</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>3191</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C56" s="12" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>3196</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>3197</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C57" s="12" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>3201</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C58" s="12" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>3203</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>3197</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C59" s="12" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>3197</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C60" s="12" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>3208</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O60" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C61" s="12" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>3208</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C62" s="12" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>3213</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="23" t="s">
+        <v>3191</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C63" s="12" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>3215</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>3216</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="23" t="s">
+        <v>3191</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C64" s="12" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>3218</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>3219</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C65" s="12" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>3221</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>3222</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C66" s="12" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>3219</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C67" s="12" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>3226</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>3219</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O67" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C68" s="12" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>3228</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>3229</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N68" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C69" s="12" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>3231</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>3229</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O69" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C70" s="12" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>3234</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="23" t="s">
+        <v>3191</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C71" s="12" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>3237</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>3191</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C72" s="12" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>3239</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>3240</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C73" s="12" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>3240</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O73" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C74" s="12" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>3240</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O74" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C75" s="12" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>3246</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>3240</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C76" s="12" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>3249</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N76" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C77" s="12" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>3251</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>3249</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="23" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="13:14">
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+    </row>
+    <row r="79" customHeight="1" spans="13:14">
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+    </row>
+    <row r="80" customHeight="1" spans="13:14">
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+    </row>
+    <row r="81" customHeight="1" spans="13:14">
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+    </row>
+    <row r="82" customHeight="1" spans="13:14">
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+    </row>
+    <row r="83" customHeight="1" spans="13:14">
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+    </row>
+    <row r="84" customHeight="1" spans="13:14">
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+    </row>
+    <row r="85" customHeight="1" spans="13:14">
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -67641,7 +68850,7 @@
   <sheetPr/>
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A59" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A59" workbookViewId="0">
       <selection activeCell="J78" sqref="J78:O80"/>
     </sheetView>
   </sheetViews>
@@ -67800,7 +69009,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3187</v>
+        <v>3252</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>28</v>
@@ -67809,10 +69018,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>3188</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>3189</v>
+        <v>3253</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>3254</v>
       </c>
       <c r="J6" s="7">
         <v>-1</v>
@@ -67841,7 +69050,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3190</v>
+        <v>3255</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>29</v>
@@ -67852,7 +69061,7 @@
       <c r="H7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>471</v>
       </c>
       <c r="J7" s="7">
@@ -67882,7 +69091,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3191</v>
+        <v>3256</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>466</v>
@@ -67891,10 +69100,10 @@
         <v>466</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3188</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>3192</v>
+        <v>3253</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>3257</v>
       </c>
       <c r="J8" s="7">
         <v>-1</v>
@@ -67923,7 +69132,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3193</v>
+        <v>3258</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>683</v>
@@ -67934,8 +69143,8 @@
       <c r="H9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>3194</v>
+      <c r="I9" s="25" t="s">
+        <v>3259</v>
       </c>
       <c r="J9" s="7">
         <v>-1</v>
@@ -67964,7 +69173,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3195</v>
+        <v>3260</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>794</v>
@@ -67973,10 +69182,10 @@
         <v>795</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>3188</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>3192</v>
+        <v>3253</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>3257</v>
       </c>
       <c r="J10" s="7">
         <v>-1</v>
@@ -68005,7 +69214,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3196</v>
+        <v>3261</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>906</v>
@@ -68016,8 +69225,8 @@
       <c r="H11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>3194</v>
+      <c r="I11" s="25" t="s">
+        <v>3259</v>
       </c>
       <c r="J11" s="7">
         <v>-1</v>
@@ -68046,7 +69255,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3197</v>
+        <v>3262</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1018</v>
@@ -68055,10 +69264,10 @@
         <v>1018</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>3188</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>3192</v>
+        <v>3253</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>3257</v>
       </c>
       <c r="J12" s="7">
         <v>-1</v>
@@ -68087,7 +69296,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3198</v>
+        <v>3263</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>26</v>
@@ -68098,8 +69307,8 @@
       <c r="H13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>3194</v>
+      <c r="I13" s="25" t="s">
+        <v>3259</v>
       </c>
       <c r="J13" s="7">
         <v>-1</v>
@@ -68128,7 +69337,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3199</v>
+        <v>3264</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
@@ -68136,11 +69345,11 @@
       <c r="G14" s="7">
         <v>11</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>3201</v>
+      <c r="H14" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>3266</v>
       </c>
       <c r="J14" s="7">
         <v>-1</v>
@@ -68169,7 +69378,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3202</v>
+        <v>3267</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
@@ -68177,11 +69386,11 @@
       <c r="G15" s="7">
         <v>11</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>3203</v>
+      <c r="H15" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>3268</v>
       </c>
       <c r="J15" s="7">
         <v>-1</v>
@@ -68210,7 +69419,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3204</v>
+        <v>3269</v>
       </c>
       <c r="F16" s="7">
         <v>11</v>
@@ -68218,11 +69427,11 @@
       <c r="G16" s="7">
         <v>11</v>
       </c>
-      <c r="H16" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>3205</v>
+      <c r="H16" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>3270</v>
       </c>
       <c r="J16" s="7">
         <v>-1</v>
@@ -68251,7 +69460,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3206</v>
+        <v>3271</v>
       </c>
       <c r="F17" s="7">
         <v>11</v>
@@ -68259,11 +69468,11 @@
       <c r="G17" s="7">
         <v>11</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>3207</v>
+      <c r="H17" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>3272</v>
       </c>
       <c r="J17" s="7">
         <v>-1</v>
@@ -68292,7 +69501,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3208</v>
+        <v>3273</v>
       </c>
       <c r="F18" s="7">
         <v>11</v>
@@ -68300,11 +69509,11 @@
       <c r="G18" s="7">
         <v>11</v>
       </c>
-      <c r="H18" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>3209</v>
+      <c r="H18" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>3274</v>
       </c>
       <c r="J18" s="7">
         <v>-1</v>
@@ -68333,7 +69542,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3210</v>
+        <v>3275</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -68341,11 +69550,11 @@
       <c r="G19" s="7">
         <v>11</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>3211</v>
+      <c r="H19" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>3276</v>
       </c>
       <c r="J19" s="7">
         <v>-1</v>
@@ -68374,7 +69583,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3212</v>
+        <v>3277</v>
       </c>
       <c r="F20" s="7">
         <v>11</v>
@@ -68382,11 +69591,11 @@
       <c r="G20" s="7">
         <v>11</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>3213</v>
+      <c r="H20" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>3278</v>
       </c>
       <c r="J20" s="7">
         <v>-1</v>
@@ -68415,7 +69624,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3214</v>
+        <v>3279</v>
       </c>
       <c r="F21" s="7">
         <v>11</v>
@@ -68423,11 +69632,11 @@
       <c r="G21" s="7">
         <v>11</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>3215</v>
+      <c r="H21" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>3280</v>
       </c>
       <c r="J21" s="7">
         <v>-1</v>
@@ -68456,7 +69665,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3216</v>
+        <v>3281</v>
       </c>
       <c r="F22" s="7">
         <v>11</v>
@@ -68464,11 +69673,11 @@
       <c r="G22" s="7">
         <v>11</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>3217</v>
+      <c r="H22" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>3282</v>
       </c>
       <c r="J22" s="7">
         <v>-1</v>
@@ -68497,7 +69706,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3218</v>
+        <v>3283</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
@@ -68505,11 +69714,11 @@
       <c r="G23" s="7">
         <v>11</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>3219</v>
+      <c r="H23" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>3284</v>
       </c>
       <c r="J23" s="7">
         <v>-1</v>
@@ -68538,7 +69747,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3220</v>
+        <v>3285</v>
       </c>
       <c r="F24" s="7">
         <v>11</v>
@@ -68546,11 +69755,11 @@
       <c r="G24" s="7">
         <v>11</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>3221</v>
+      <c r="H24" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>3286</v>
       </c>
       <c r="J24" s="7">
         <v>-1</v>
@@ -68579,7 +69788,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3222</v>
+        <v>3287</v>
       </c>
       <c r="F25" s="7">
         <v>11</v>
@@ -68587,11 +69796,11 @@
       <c r="G25" s="7">
         <v>11</v>
       </c>
-      <c r="H25" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>3223</v>
+      <c r="H25" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>3288</v>
       </c>
       <c r="J25" s="7">
         <v>-1</v>
@@ -68620,7 +69829,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3224</v>
+        <v>3289</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
@@ -68628,11 +69837,11 @@
       <c r="G26" s="7">
         <v>11</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>3225</v>
+      <c r="H26" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>3290</v>
       </c>
       <c r="J26" s="7">
         <v>-1</v>
@@ -68661,7 +69870,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3226</v>
+        <v>3291</v>
       </c>
       <c r="F27" s="7">
         <v>11</v>
@@ -68669,11 +69878,11 @@
       <c r="G27" s="7">
         <v>11</v>
       </c>
-      <c r="H27" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>3227</v>
+      <c r="H27" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>3292</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
@@ -68702,7 +69911,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>3228</v>
+        <v>3293</v>
       </c>
       <c r="F28" s="7">
         <v>11</v>
@@ -68710,11 +69919,11 @@
       <c r="G28" s="7">
         <v>11</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>3229</v>
+      <c r="H28" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>3294</v>
       </c>
       <c r="J28" s="7">
         <v>-1</v>
@@ -68743,7 +69952,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3230</v>
+        <v>3295</v>
       </c>
       <c r="F29" s="7">
         <v>11</v>
@@ -68751,11 +69960,11 @@
       <c r="G29" s="7">
         <v>11</v>
       </c>
-      <c r="H29" s="26" t="s">
-        <v>3200</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>3231</v>
+      <c r="H29" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>3296</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -68799,7 +70008,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>3232</v>
+        <v>3297</v>
       </c>
       <c r="F31" s="7">
         <v>12</v>
@@ -68807,11 +70016,11 @@
       <c r="G31" s="7">
         <v>12</v>
       </c>
-      <c r="H31" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>3234</v>
+      <c r="H31" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>3299</v>
       </c>
       <c r="J31" s="7">
         <v>-1</v>
@@ -68840,7 +70049,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3235</v>
+        <v>3300</v>
       </c>
       <c r="F32" s="7">
         <v>12</v>
@@ -68848,11 +70057,11 @@
       <c r="G32" s="7">
         <v>12</v>
       </c>
-      <c r="H32" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>3236</v>
+      <c r="H32" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>3301</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
@@ -68881,7 +70090,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>3237</v>
+        <v>3302</v>
       </c>
       <c r="F33" s="7">
         <v>12</v>
@@ -68889,11 +70098,11 @@
       <c r="G33" s="7">
         <v>12</v>
       </c>
-      <c r="H33" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>3238</v>
+      <c r="H33" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>3303</v>
       </c>
       <c r="J33" s="7">
         <v>-1</v>
@@ -68922,7 +70131,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3239</v>
+        <v>3304</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -68930,11 +70139,11 @@
       <c r="G34" s="7">
         <v>12</v>
       </c>
-      <c r="H34" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>3240</v>
+      <c r="H34" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>3305</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
@@ -68963,7 +70172,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3241</v>
+        <v>3306</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -68971,11 +70180,11 @@
       <c r="G35" s="7">
         <v>12</v>
       </c>
-      <c r="H35" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>3242</v>
+      <c r="H35" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>3307</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -69004,7 +70213,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3243</v>
+        <v>3308</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -69012,11 +70221,11 @@
       <c r="G36" s="7">
         <v>12</v>
       </c>
-      <c r="H36" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>3244</v>
+      <c r="H36" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>3309</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
@@ -69045,7 +70254,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3245</v>
+        <v>3310</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -69053,11 +70262,11 @@
       <c r="G37" s="7">
         <v>12</v>
       </c>
-      <c r="H37" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>3246</v>
+      <c r="H37" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>3311</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
@@ -69086,7 +70295,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3247</v>
+        <v>3312</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -69094,11 +70303,11 @@
       <c r="G38" s="7">
         <v>12</v>
       </c>
-      <c r="H38" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>3248</v>
+      <c r="H38" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>3313</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -69127,7 +70336,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3249</v>
+        <v>3314</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -69135,11 +70344,11 @@
       <c r="G39" s="7">
         <v>12</v>
       </c>
-      <c r="H39" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>3250</v>
+      <c r="H39" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>3315</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
@@ -69168,7 +70377,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3251</v>
+        <v>3316</v>
       </c>
       <c r="F40" s="7">
         <v>12</v>
@@ -69176,11 +70385,11 @@
       <c r="G40" s="7">
         <v>12</v>
       </c>
-      <c r="H40" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>3252</v>
+      <c r="H40" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>3317</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
@@ -69209,7 +70418,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3253</v>
+        <v>3318</v>
       </c>
       <c r="F41" s="7">
         <v>12</v>
@@ -69217,11 +70426,11 @@
       <c r="G41" s="7">
         <v>12</v>
       </c>
-      <c r="H41" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>3254</v>
+      <c r="H41" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>3319</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
@@ -69250,7 +70459,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3255</v>
+        <v>3320</v>
       </c>
       <c r="F42" s="7">
         <v>12</v>
@@ -69258,11 +70467,11 @@
       <c r="G42" s="7">
         <v>12</v>
       </c>
-      <c r="H42" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>3256</v>
+      <c r="H42" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>3321</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
@@ -69291,7 +70500,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>3257</v>
+        <v>3322</v>
       </c>
       <c r="F43" s="7">
         <v>12</v>
@@ -69299,11 +70508,11 @@
       <c r="G43" s="7">
         <v>12</v>
       </c>
-      <c r="H43" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>3258</v>
+      <c r="H43" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>3323</v>
       </c>
       <c r="J43" s="7">
         <v>-1</v>
@@ -69332,7 +70541,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3259</v>
+        <v>3324</v>
       </c>
       <c r="F44" s="7">
         <v>12</v>
@@ -69340,11 +70549,11 @@
       <c r="G44" s="7">
         <v>12</v>
       </c>
-      <c r="H44" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>3260</v>
+      <c r="H44" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>3325</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
@@ -69373,7 +70582,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3261</v>
+        <v>3326</v>
       </c>
       <c r="F45" s="7">
         <v>12</v>
@@ -69381,11 +70590,11 @@
       <c r="G45" s="7">
         <v>12</v>
       </c>
-      <c r="H45" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>3262</v>
+      <c r="H45" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>3327</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
@@ -69414,7 +70623,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3263</v>
+        <v>3328</v>
       </c>
       <c r="F46" s="7">
         <v>12</v>
@@ -69422,11 +70631,11 @@
       <c r="G46" s="7">
         <v>12</v>
       </c>
-      <c r="H46" s="26" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>3264</v>
+      <c r="H46" s="25" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>3329</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
@@ -69470,7 +70679,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3265</v>
+        <v>3330</v>
       </c>
       <c r="F48" s="7">
         <v>13</v>
@@ -69478,11 +70687,11 @@
       <c r="G48" s="7">
         <v>13</v>
       </c>
-      <c r="H48" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>3267</v>
+      <c r="H48" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>3332</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -69511,7 +70720,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>3268</v>
+        <v>3333</v>
       </c>
       <c r="F49" s="7">
         <v>13</v>
@@ -69519,11 +70728,11 @@
       <c r="G49" s="7">
         <v>13</v>
       </c>
-      <c r="H49" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>3269</v>
+      <c r="H49" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>3334</v>
       </c>
       <c r="J49" s="7">
         <v>-1</v>
@@ -69552,7 +70761,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3270</v>
+        <v>3335</v>
       </c>
       <c r="F50" s="7">
         <v>13</v>
@@ -69560,11 +70769,11 @@
       <c r="G50" s="7">
         <v>13</v>
       </c>
-      <c r="H50" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>3271</v>
+      <c r="H50" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>3336</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -69593,7 +70802,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3272</v>
+        <v>3337</v>
       </c>
       <c r="F51" s="7">
         <v>13</v>
@@ -69601,11 +70810,11 @@
       <c r="G51" s="7">
         <v>13</v>
       </c>
-      <c r="H51" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>3273</v>
+      <c r="H51" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>3338</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -69634,7 +70843,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3274</v>
+        <v>3339</v>
       </c>
       <c r="F52" s="7">
         <v>13</v>
@@ -69642,11 +70851,11 @@
       <c r="G52" s="7">
         <v>13</v>
       </c>
-      <c r="H52" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>3275</v>
+      <c r="H52" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>3340</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -69675,7 +70884,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>3276</v>
+        <v>3341</v>
       </c>
       <c r="F53" s="7">
         <v>13</v>
@@ -69683,11 +70892,11 @@
       <c r="G53" s="7">
         <v>13</v>
       </c>
-      <c r="H53" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>3277</v>
+      <c r="H53" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>3342</v>
       </c>
       <c r="J53" s="7">
         <v>-1</v>
@@ -69716,7 +70925,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3278</v>
+        <v>3343</v>
       </c>
       <c r="F54" s="7">
         <v>13</v>
@@ -69724,11 +70933,11 @@
       <c r="G54" s="7">
         <v>13</v>
       </c>
-      <c r="H54" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>3279</v>
+      <c r="H54" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>3344</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
@@ -69757,7 +70966,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3280</v>
+        <v>3345</v>
       </c>
       <c r="F55" s="7">
         <v>13</v>
@@ -69765,11 +70974,11 @@
       <c r="G55" s="7">
         <v>13</v>
       </c>
-      <c r="H55" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>3281</v>
+      <c r="H55" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>3346</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
@@ -69798,7 +71007,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3282</v>
+        <v>3347</v>
       </c>
       <c r="F56" s="7">
         <v>13</v>
@@ -69806,11 +71015,11 @@
       <c r="G56" s="7">
         <v>13</v>
       </c>
-      <c r="H56" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I56" s="25" t="s">
-        <v>3283</v>
+      <c r="H56" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>3348</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -69839,7 +71048,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3284</v>
+        <v>3349</v>
       </c>
       <c r="F57" s="7">
         <v>13</v>
@@ -69847,11 +71056,11 @@
       <c r="G57" s="7">
         <v>13</v>
       </c>
-      <c r="H57" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I57" s="25" t="s">
-        <v>3285</v>
+      <c r="H57" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>3350</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
@@ -69880,7 +71089,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>3286</v>
+        <v>3351</v>
       </c>
       <c r="F58" s="7">
         <v>13</v>
@@ -69888,11 +71097,11 @@
       <c r="G58" s="7">
         <v>13</v>
       </c>
-      <c r="H58" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>3287</v>
+      <c r="H58" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>3352</v>
       </c>
       <c r="J58" s="7">
         <v>-1</v>
@@ -69921,7 +71130,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3288</v>
+        <v>3353</v>
       </c>
       <c r="F59" s="7">
         <v>13</v>
@@ -69929,11 +71138,11 @@
       <c r="G59" s="7">
         <v>13</v>
       </c>
-      <c r="H59" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>3289</v>
+      <c r="H59" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>3354</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -69962,7 +71171,7 @@
         <v>13</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3290</v>
+        <v>3355</v>
       </c>
       <c r="F60" s="7">
         <v>13</v>
@@ -69970,11 +71179,11 @@
       <c r="G60" s="7">
         <v>13</v>
       </c>
-      <c r="H60" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>3291</v>
+      <c r="H60" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>3356</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
@@ -70003,7 +71212,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3292</v>
+        <v>3357</v>
       </c>
       <c r="F61" s="7">
         <v>13</v>
@@ -70011,11 +71220,11 @@
       <c r="G61" s="7">
         <v>13</v>
       </c>
-      <c r="H61" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I61" s="25" t="s">
-        <v>3293</v>
+      <c r="H61" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>3358</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
@@ -70044,7 +71253,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3294</v>
+        <v>3359</v>
       </c>
       <c r="F62" s="7">
         <v>13</v>
@@ -70052,11 +71261,11 @@
       <c r="G62" s="7">
         <v>13</v>
       </c>
-      <c r="H62" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>3295</v>
+      <c r="H62" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>3360</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -70085,7 +71294,7 @@
         <v>16</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3296</v>
+        <v>3361</v>
       </c>
       <c r="F63" s="7">
         <v>13</v>
@@ -70093,11 +71302,11 @@
       <c r="G63" s="7">
         <v>13</v>
       </c>
-      <c r="H63" s="26" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>3297</v>
+      <c r="H63" s="25" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>3362</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
@@ -70141,7 +71350,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3298</v>
+        <v>3363</v>
       </c>
       <c r="F65" s="7">
         <v>14</v>
@@ -70149,11 +71358,11 @@
       <c r="G65" s="7">
         <v>14</v>
       </c>
-      <c r="H65" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I65" s="26" t="s">
-        <v>3300</v>
+      <c r="H65" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>3365</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
@@ -70182,7 +71391,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3301</v>
+        <v>3366</v>
       </c>
       <c r="F66" s="7">
         <v>14</v>
@@ -70190,11 +71399,11 @@
       <c r="G66" s="7">
         <v>14</v>
       </c>
-      <c r="H66" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I66" s="26" t="s">
-        <v>3302</v>
+      <c r="H66" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>3367</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
@@ -70223,7 +71432,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>3303</v>
+        <v>3368</v>
       </c>
       <c r="F67" s="7">
         <v>14</v>
@@ -70231,11 +71440,11 @@
       <c r="G67" s="7">
         <v>14</v>
       </c>
-      <c r="H67" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I67" s="26" t="s">
-        <v>3304</v>
+      <c r="H67" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>3369</v>
       </c>
       <c r="J67" s="7">
         <v>-1</v>
@@ -70264,7 +71473,7 @@
         <v>4</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3305</v>
+        <v>3370</v>
       </c>
       <c r="F68" s="7">
         <v>14</v>
@@ -70272,11 +71481,11 @@
       <c r="G68" s="7">
         <v>14</v>
       </c>
-      <c r="H68" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I68" s="26" t="s">
-        <v>3306</v>
+      <c r="H68" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>3371</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -70305,7 +71514,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3307</v>
+        <v>3372</v>
       </c>
       <c r="F69" s="7">
         <v>14</v>
@@ -70313,11 +71522,11 @@
       <c r="G69" s="7">
         <v>14</v>
       </c>
-      <c r="H69" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I69" s="26" t="s">
-        <v>3308</v>
+      <c r="H69" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>3373</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -70346,7 +71555,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3309</v>
+        <v>3374</v>
       </c>
       <c r="F70" s="7">
         <v>14</v>
@@ -70354,11 +71563,11 @@
       <c r="G70" s="7">
         <v>14</v>
       </c>
-      <c r="H70" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I70" s="26" t="s">
-        <v>3310</v>
+      <c r="H70" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I70" s="25" t="s">
+        <v>3375</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -70387,7 +71596,7 @@
         <v>7</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3311</v>
+        <v>3376</v>
       </c>
       <c r="F71" s="7">
         <v>14</v>
@@ -70395,11 +71604,11 @@
       <c r="G71" s="7">
         <v>14</v>
       </c>
-      <c r="H71" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I71" s="26" t="s">
-        <v>3312</v>
+      <c r="H71" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>3377</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -70428,7 +71637,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3313</v>
+        <v>3378</v>
       </c>
       <c r="F72" s="7">
         <v>14</v>
@@ -70436,11 +71645,11 @@
       <c r="G72" s="7">
         <v>14</v>
       </c>
-      <c r="H72" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>3314</v>
+      <c r="H72" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>3379</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -70469,7 +71678,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>3315</v>
+        <v>3380</v>
       </c>
       <c r="F73" s="7">
         <v>14</v>
@@ -70477,11 +71686,11 @@
       <c r="G73" s="7">
         <v>14</v>
       </c>
-      <c r="H73" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I73" s="26" t="s">
-        <v>3316</v>
+      <c r="H73" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>3381</v>
       </c>
       <c r="J73" s="7">
         <v>-1</v>
@@ -70510,7 +71719,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3317</v>
+        <v>3382</v>
       </c>
       <c r="F74" s="7">
         <v>14</v>
@@ -70518,11 +71727,11 @@
       <c r="G74" s="7">
         <v>14</v>
       </c>
-      <c r="H74" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>3318</v>
+      <c r="H74" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>3383</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
@@ -70551,7 +71760,7 @@
         <v>11</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3319</v>
+        <v>3384</v>
       </c>
       <c r="F75" s="7">
         <v>14</v>
@@ -70559,11 +71768,11 @@
       <c r="G75" s="7">
         <v>14</v>
       </c>
-      <c r="H75" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I75" s="26" t="s">
-        <v>3320</v>
+      <c r="H75" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I75" s="25" t="s">
+        <v>3385</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
@@ -70592,7 +71801,7 @@
         <v>12</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>3321</v>
+        <v>3386</v>
       </c>
       <c r="F76" s="7">
         <v>14</v>
@@ -70600,11 +71809,11 @@
       <c r="G76" s="7">
         <v>14</v>
       </c>
-      <c r="H76" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I76" s="26" t="s">
-        <v>3322</v>
+      <c r="H76" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I76" s="25" t="s">
+        <v>3387</v>
       </c>
       <c r="J76" s="7">
         <v>-1</v>
@@ -70633,7 +71842,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>3323</v>
+        <v>3388</v>
       </c>
       <c r="F77" s="7">
         <v>14</v>
@@ -70641,11 +71850,11 @@
       <c r="G77" s="7">
         <v>14</v>
       </c>
-      <c r="H77" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I77" s="26" t="s">
-        <v>3324</v>
+      <c r="H77" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I77" s="25" t="s">
+        <v>3389</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
@@ -70674,7 +71883,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>3325</v>
+        <v>3390</v>
       </c>
       <c r="F78" s="7">
         <v>14</v>
@@ -70682,11 +71891,11 @@
       <c r="G78" s="7">
         <v>14</v>
       </c>
-      <c r="H78" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I78" s="26" t="s">
-        <v>3326</v>
+      <c r="H78" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>3391</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
@@ -70715,7 +71924,7 @@
         <v>15</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3327</v>
+        <v>3392</v>
       </c>
       <c r="F79" s="7">
         <v>14</v>
@@ -70723,11 +71932,11 @@
       <c r="G79" s="7">
         <v>14</v>
       </c>
-      <c r="H79" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I79" s="26" t="s">
-        <v>3328</v>
+      <c r="H79" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I79" s="25" t="s">
+        <v>3393</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
@@ -70756,7 +71965,7 @@
         <v>16</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3329</v>
+        <v>3394</v>
       </c>
       <c r="F80" s="7">
         <v>14</v>
@@ -70764,11 +71973,11 @@
       <c r="G80" s="7">
         <v>14</v>
       </c>
-      <c r="H80" s="26" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I80" s="26" t="s">
-        <v>3328</v>
+      <c r="H80" s="25" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>3393</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
@@ -70812,7 +72021,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3330</v>
+        <v>3395</v>
       </c>
       <c r="F82" s="7">
         <v>11</v>
@@ -70820,11 +72029,11 @@
       <c r="G82" s="7">
         <v>11</v>
       </c>
-      <c r="H82" s="26" t="s">
-        <v>3331</v>
-      </c>
-      <c r="I82" s="25" t="s">
-        <v>3332</v>
+      <c r="H82" s="25" t="s">
+        <v>3396</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>3397</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
@@ -70853,7 +72062,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>3333</v>
+        <v>3398</v>
       </c>
       <c r="F83" s="7">
         <v>0</v>
@@ -70861,10 +72070,10 @@
       <c r="G83" s="7">
         <v>0</v>
       </c>
-      <c r="H83" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I83" s="26" t="s">
+      <c r="H83" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J83" s="7">
@@ -70894,7 +72103,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>3334</v>
+        <v>3399</v>
       </c>
       <c r="F84" s="7">
         <v>0</v>
@@ -70902,10 +72111,10 @@
       <c r="G84" s="7">
         <v>0</v>
       </c>
-      <c r="H84" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I84" s="26" t="s">
+      <c r="H84" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J84" s="7">
@@ -70935,7 +72144,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>3335</v>
+        <v>3400</v>
       </c>
       <c r="F85" s="7">
         <v>0</v>
@@ -70943,10 +72152,10 @@
       <c r="G85" s="7">
         <v>0</v>
       </c>
-      <c r="H85" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" s="26" t="s">
+      <c r="H85" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J85" s="7">
@@ -70976,7 +72185,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>3336</v>
+        <v>3401</v>
       </c>
       <c r="F86" s="7">
         <v>0</v>
@@ -70984,10 +72193,10 @@
       <c r="G86" s="7">
         <v>0</v>
       </c>
-      <c r="H86" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" s="26" t="s">
+      <c r="H86" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J86" s="7">
@@ -71017,7 +72226,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>3337</v>
+        <v>3402</v>
       </c>
       <c r="F87" s="7">
         <v>0</v>
@@ -71025,10 +72234,10 @@
       <c r="G87" s="7">
         <v>0</v>
       </c>
-      <c r="H87" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I87" s="26" t="s">
+      <c r="H87" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J87" s="7">
@@ -71058,7 +72267,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>3338</v>
+        <v>3403</v>
       </c>
       <c r="F88" s="7">
         <v>0</v>
@@ -71066,10 +72275,10 @@
       <c r="G88" s="7">
         <v>0</v>
       </c>
-      <c r="H88" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I88" s="26" t="s">
+      <c r="H88" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J88" s="7">
@@ -71099,7 +72308,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>3339</v>
+        <v>3404</v>
       </c>
       <c r="F89" s="7">
         <v>0</v>
@@ -71107,10 +72316,10 @@
       <c r="G89" s="7">
         <v>0</v>
       </c>
-      <c r="H89" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I89" s="26" t="s">
+      <c r="H89" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J89" s="7">
@@ -71140,7 +72349,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>3340</v>
+        <v>3405</v>
       </c>
       <c r="F90" s="7">
         <v>0</v>
@@ -71148,10 +72357,10 @@
       <c r="G90" s="7">
         <v>0</v>
       </c>
-      <c r="H90" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="26" t="s">
+      <c r="H90" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J90" s="7">

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18472" uniqueCount="3406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18484" uniqueCount="3415">
   <si>
     <t>_id</t>
   </si>
@@ -10032,7 +10032,13 @@
     <t>斗笠十六阶</t>
   </si>
   <si>
-    <t>200,200,200,200</t>
+    <t>210,210,210,210</t>
+  </si>
+  <si>
+    <t>斗笠十七阶</t>
+  </si>
+  <si>
+    <t>250,250,250,250</t>
   </si>
   <si>
     <t>护盾一阶</t>
@@ -10131,7 +10137,13 @@
     <t>护盾十六阶</t>
   </si>
   <si>
-    <t>200,200</t>
+    <t>210,210</t>
+  </si>
+  <si>
+    <t>护盾十七阶</t>
+  </si>
+  <si>
+    <t>250,250</t>
   </si>
   <si>
     <t>神符一阶</t>
@@ -10230,7 +10242,13 @@
     <t>神符十六阶</t>
   </si>
   <si>
-    <t>20,20,200,200,200</t>
+    <t>21,21,210,210,210</t>
+  </si>
+  <si>
+    <t>神符十七阶</t>
+  </si>
+  <si>
+    <t>25,25,250,250,250</t>
   </si>
   <si>
     <t>魔石一阶</t>
@@ -10327,6 +10345,15 @@
   </si>
   <si>
     <t>魔石十六阶</t>
+  </si>
+  <si>
+    <t>21,210,4</t>
+  </si>
+  <si>
+    <t>魔石十七阶</t>
+  </si>
+  <si>
+    <t>25,250,5</t>
   </si>
   <si>
     <t>测试斗笠</t>
@@ -10565,12 +10592,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -65700,7 +65727,7 @@
   <sheetPr/>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
@@ -68848,10 +68875,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78:O80"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -69986,70 +70013,70 @@
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="C30" s="7">
+        <v>117</v>
+      </c>
+      <c r="D30" s="7">
+        <v>17</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>3297</v>
+      </c>
+      <c r="F30" s="7">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7">
+        <v>11</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>3298</v>
+      </c>
+      <c r="J30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="7">
+        <v>5</v>
+      </c>
+      <c r="L30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C31" s="7">
-        <v>201</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>3297</v>
-      </c>
-      <c r="F31" s="7">
-        <v>12</v>
-      </c>
-      <c r="G31" s="7">
-        <v>12</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>3298</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>3299</v>
-      </c>
-      <c r="J31" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K31" s="7">
-        <v>1</v>
-      </c>
-      <c r="L31" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M31" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C32" s="7">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="F32" s="7">
         <v>12</v>
@@ -70058,7 +70085,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I32" s="25" t="s">
         <v>3301</v>
@@ -70084,10 +70111,10 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C33" s="7">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>3302</v>
@@ -70099,9 +70126,9 @@
         <v>12</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>3298</v>
-      </c>
-      <c r="I33" s="24" t="s">
+        <v>3300</v>
+      </c>
+      <c r="I33" s="25" t="s">
         <v>3303</v>
       </c>
       <c r="J33" s="7">
@@ -70125,10 +70152,10 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C34" s="7">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>3304</v>
@@ -70140,7 +70167,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I34" s="24" t="s">
         <v>3305</v>
@@ -70149,7 +70176,7 @@
         <v>-1</v>
       </c>
       <c r="K34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="7">
         <v>-1</v>
@@ -70166,10 +70193,10 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C35" s="7">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>3306</v>
@@ -70181,7 +70208,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I35" s="24" t="s">
         <v>3307</v>
@@ -70207,10 +70234,10 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C36" s="7">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>3308</v>
@@ -70222,7 +70249,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I36" s="24" t="s">
         <v>3309</v>
@@ -70248,10 +70275,10 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C37" s="7">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>3310</v>
@@ -70263,7 +70290,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I37" s="24" t="s">
         <v>3311</v>
@@ -70272,7 +70299,7 @@
         <v>-1</v>
       </c>
       <c r="K37" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37" s="7">
         <v>-1</v>
@@ -70289,10 +70316,10 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C38" s="7">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>3312</v>
@@ -70304,7 +70331,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I38" s="24" t="s">
         <v>3313</v>
@@ -70330,10 +70357,10 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C39" s="7">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D39" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>3314</v>
@@ -70345,7 +70372,7 @@
         <v>12</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>3315</v>
@@ -70371,10 +70398,10 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C40" s="7">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>3316</v>
@@ -70386,7 +70413,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I40" s="24" t="s">
         <v>3317</v>
@@ -70395,7 +70422,7 @@
         <v>-1</v>
       </c>
       <c r="K40" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L40" s="7">
         <v>-1</v>
@@ -70412,10 +70439,10 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C41" s="7">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D41" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>3318</v>
@@ -70427,7 +70454,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>3319</v>
@@ -70453,10 +70480,10 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C42" s="7">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>3320</v>
@@ -70468,7 +70495,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I42" s="24" t="s">
         <v>3321</v>
@@ -70494,10 +70521,10 @@
     </row>
     <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C43" s="7">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D43" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>3322</v>
@@ -70509,7 +70536,7 @@
         <v>12</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>3323</v>
@@ -70518,7 +70545,7 @@
         <v>-1</v>
       </c>
       <c r="K43" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" s="7">
         <v>-1</v>
@@ -70535,10 +70562,10 @@
     </row>
     <row r="44" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C44" s="7">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>3324</v>
@@ -70550,7 +70577,7 @@
         <v>12</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>3325</v>
@@ -70576,10 +70603,10 @@
     </row>
     <row r="45" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C45" s="7">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>3326</v>
@@ -70591,7 +70618,7 @@
         <v>12</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I45" s="24" t="s">
         <v>3327</v>
@@ -70617,10 +70644,10 @@
     </row>
     <row r="46" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C46" s="7">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>3328</v>
@@ -70632,7 +70659,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="I46" s="24" t="s">
         <v>3329</v>
@@ -70657,47 +70684,73 @@
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
+      <c r="C47" s="7">
+        <v>216</v>
+      </c>
+      <c r="D47" s="7">
+        <v>16</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F47" s="7">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7">
+        <v>12</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>3300</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>5</v>
+      </c>
+      <c r="L47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C48" s="7">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="D48" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3330</v>
+        <v>3332</v>
       </c>
       <c r="F48" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>3331</v>
+        <v>3300</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
       </c>
       <c r="K48" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L48" s="7">
         <v>-1</v>
@@ -70713,55 +70766,29 @@
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C49" s="7">
-        <v>302</v>
-      </c>
-      <c r="D49" s="7">
-        <v>2</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>3333</v>
-      </c>
-      <c r="F49" s="7">
-        <v>13</v>
-      </c>
-      <c r="G49" s="7">
-        <v>13</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>3331</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>3334</v>
-      </c>
-      <c r="J49" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K49" s="7">
-        <v>1</v>
-      </c>
-      <c r="L49" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M49" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N49" s="7">
-        <v>1</v>
-      </c>
-      <c r="O49" s="7">
-        <v>0</v>
-      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C50" s="7">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D50" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="F50" s="7">
         <v>13</v>
@@ -70770,7 +70797,7 @@
         <v>13</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I50" s="24" t="s">
         <v>3336</v>
@@ -70796,10 +70823,10 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C51" s="7">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D51" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>3337</v>
@@ -70811,7 +70838,7 @@
         <v>13</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>3338</v>
@@ -70820,7 +70847,7 @@
         <v>-1</v>
       </c>
       <c r="K51" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" s="7">
         <v>-1</v>
@@ -70837,10 +70864,10 @@
     </row>
     <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C52" s="7">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D52" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>3339</v>
@@ -70852,7 +70879,7 @@
         <v>13</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>3340</v>
@@ -70861,7 +70888,7 @@
         <v>-1</v>
       </c>
       <c r="K52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" s="7">
         <v>-1</v>
@@ -70878,10 +70905,10 @@
     </row>
     <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C53" s="7">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D53" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>3341</v>
@@ -70893,7 +70920,7 @@
         <v>13</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>3342</v>
@@ -70919,10 +70946,10 @@
     </row>
     <row r="54" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C54" s="7">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D54" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>3343</v>
@@ -70934,7 +70961,7 @@
         <v>13</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I54" s="24" t="s">
         <v>3344</v>
@@ -70943,7 +70970,7 @@
         <v>-1</v>
       </c>
       <c r="K54" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L54" s="7">
         <v>-1</v>
@@ -70960,10 +70987,10 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C55" s="7">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D55" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>3345</v>
@@ -70975,7 +71002,7 @@
         <v>13</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I55" s="24" t="s">
         <v>3346</v>
@@ -70984,7 +71011,7 @@
         <v>-1</v>
       </c>
       <c r="K55" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L55" s="7">
         <v>-1</v>
@@ -71001,10 +71028,10 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C56" s="7">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D56" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>3347</v>
@@ -71016,7 +71043,7 @@
         <v>13</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I56" s="24" t="s">
         <v>3348</v>
@@ -71042,10 +71069,10 @@
     </row>
     <row r="57" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C57" s="7">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D57" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>3349</v>
@@ -71057,7 +71084,7 @@
         <v>13</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I57" s="24" t="s">
         <v>3350</v>
@@ -71066,7 +71093,7 @@
         <v>-1</v>
       </c>
       <c r="K57" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L57" s="7">
         <v>-1</v>
@@ -71083,10 +71110,10 @@
     </row>
     <row r="58" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C58" s="7">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D58" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>3351</v>
@@ -71098,7 +71125,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I58" s="24" t="s">
         <v>3352</v>
@@ -71107,7 +71134,7 @@
         <v>-1</v>
       </c>
       <c r="K58" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L58" s="7">
         <v>-1</v>
@@ -71124,10 +71151,10 @@
     </row>
     <row r="59" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C59" s="7">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D59" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>3353</v>
@@ -71139,7 +71166,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I59" s="24" t="s">
         <v>3354</v>
@@ -71165,10 +71192,10 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C60" s="7">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D60" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>3355</v>
@@ -71180,7 +71207,7 @@
         <v>13</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I60" s="24" t="s">
         <v>3356</v>
@@ -71189,7 +71216,7 @@
         <v>-1</v>
       </c>
       <c r="K60" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L60" s="7">
         <v>-1</v>
@@ -71206,10 +71233,10 @@
     </row>
     <row r="61" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C61" s="7">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D61" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>3357</v>
@@ -71221,7 +71248,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I61" s="24" t="s">
         <v>3358</v>
@@ -71230,7 +71257,7 @@
         <v>-1</v>
       </c>
       <c r="K61" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L61" s="7">
         <v>-1</v>
@@ -71247,10 +71274,10 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C62" s="7">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D62" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>3359</v>
@@ -71262,7 +71289,7 @@
         <v>13</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I62" s="24" t="s">
         <v>3360</v>
@@ -71288,10 +71315,10 @@
     </row>
     <row r="63" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C63" s="7">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D63" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>3361</v>
@@ -71303,7 +71330,7 @@
         <v>13</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="I63" s="24" t="s">
         <v>3362</v>
@@ -71328,47 +71355,73 @@
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
+      <c r="C64" s="7">
+        <v>315</v>
+      </c>
+      <c r="D64" s="7">
+        <v>15</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F64" s="7">
+        <v>13</v>
+      </c>
+      <c r="G64" s="7">
+        <v>13</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>3335</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>3364</v>
+      </c>
+      <c r="J64" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K64" s="7">
+        <v>5</v>
+      </c>
+      <c r="L64" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M64" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N64" s="7">
+        <v>1</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C65" s="7">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="D65" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3363</v>
+        <v>3365</v>
       </c>
       <c r="F65" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>3364</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>3365</v>
+        <v>3335</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>3366</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
       </c>
       <c r="K65" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L65" s="7">
         <v>-1</v>
@@ -71385,31 +71438,31 @@
     </row>
     <row r="66" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C66" s="7">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="D66" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="F66" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G66" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>3364</v>
-      </c>
-      <c r="I66" s="25" t="s">
-        <v>3367</v>
+        <v>3335</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>3368</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
       </c>
       <c r="K66" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L66" s="7">
         <v>-1</v>
@@ -71425,55 +71478,29 @@
       </c>
     </row>
     <row r="67" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C67" s="7">
-        <v>403</v>
-      </c>
-      <c r="D67" s="7">
-        <v>3</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>3368</v>
-      </c>
-      <c r="F67" s="7">
-        <v>14</v>
-      </c>
-      <c r="G67" s="7">
-        <v>14</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>3364</v>
-      </c>
-      <c r="I67" s="25" t="s">
-        <v>3369</v>
-      </c>
-      <c r="J67" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K67" s="7">
-        <v>1</v>
-      </c>
-      <c r="L67" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M67" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N67" s="7">
-        <v>1</v>
-      </c>
-      <c r="O67" s="7">
-        <v>0</v>
-      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C68" s="7">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D68" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="F68" s="7">
         <v>14</v>
@@ -71482,7 +71509,7 @@
         <v>14</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I68" s="25" t="s">
         <v>3371</v>
@@ -71491,7 +71518,7 @@
         <v>-1</v>
       </c>
       <c r="K68" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="7">
         <v>-1</v>
@@ -71508,10 +71535,10 @@
     </row>
     <row r="69" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C69" s="7">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D69" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>3372</v>
@@ -71523,7 +71550,7 @@
         <v>14</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I69" s="25" t="s">
         <v>3373</v>
@@ -71532,7 +71559,7 @@
         <v>-1</v>
       </c>
       <c r="K69" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" s="7">
         <v>-1</v>
@@ -71549,10 +71576,10 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C70" s="7">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D70" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>3374</v>
@@ -71564,7 +71591,7 @@
         <v>14</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I70" s="25" t="s">
         <v>3375</v>
@@ -71573,7 +71600,7 @@
         <v>-1</v>
       </c>
       <c r="K70" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70" s="7">
         <v>-1</v>
@@ -71590,10 +71617,10 @@
     </row>
     <row r="71" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C71" s="7">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D71" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>3376</v>
@@ -71605,7 +71632,7 @@
         <v>14</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I71" s="25" t="s">
         <v>3377</v>
@@ -71614,7 +71641,7 @@
         <v>-1</v>
       </c>
       <c r="K71" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L71" s="7">
         <v>-1</v>
@@ -71631,10 +71658,10 @@
     </row>
     <row r="72" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C72" s="7">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D72" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>3378</v>
@@ -71646,7 +71673,7 @@
         <v>14</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I72" s="25" t="s">
         <v>3379</v>
@@ -71655,7 +71682,7 @@
         <v>-1</v>
       </c>
       <c r="K72" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72" s="7">
         <v>-1</v>
@@ -71672,10 +71699,10 @@
     </row>
     <row r="73" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C73" s="7">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D73" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>3380</v>
@@ -71687,7 +71714,7 @@
         <v>14</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I73" s="25" t="s">
         <v>3381</v>
@@ -71696,7 +71723,7 @@
         <v>-1</v>
       </c>
       <c r="K73" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73" s="7">
         <v>-1</v>
@@ -71713,10 +71740,10 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C74" s="7">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D74" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>3382</v>
@@ -71728,7 +71755,7 @@
         <v>14</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I74" s="25" t="s">
         <v>3383</v>
@@ -71737,7 +71764,7 @@
         <v>-1</v>
       </c>
       <c r="K74" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L74" s="7">
         <v>-1</v>
@@ -71754,10 +71781,10 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C75" s="7">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D75" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>3384</v>
@@ -71769,7 +71796,7 @@
         <v>14</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I75" s="25" t="s">
         <v>3385</v>
@@ -71778,7 +71805,7 @@
         <v>-1</v>
       </c>
       <c r="K75" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L75" s="7">
         <v>-1</v>
@@ -71795,10 +71822,10 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C76" s="7">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D76" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>3386</v>
@@ -71810,7 +71837,7 @@
         <v>14</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I76" s="25" t="s">
         <v>3387</v>
@@ -71819,7 +71846,7 @@
         <v>-1</v>
       </c>
       <c r="K76" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L76" s="7">
         <v>-1</v>
@@ -71836,10 +71863,10 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C77" s="7">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D77" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>3388</v>
@@ -71851,7 +71878,7 @@
         <v>14</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I77" s="25" t="s">
         <v>3389</v>
@@ -71860,7 +71887,7 @@
         <v>-1</v>
       </c>
       <c r="K77" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L77" s="7">
         <v>-1</v>
@@ -71877,10 +71904,10 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C78" s="7">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D78" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>3390</v>
@@ -71892,7 +71919,7 @@
         <v>14</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I78" s="25" t="s">
         <v>3391</v>
@@ -71901,7 +71928,7 @@
         <v>-1</v>
       </c>
       <c r="K78" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L78" s="7">
         <v>-1</v>
@@ -71918,10 +71945,10 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C79" s="7">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D79" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>3392</v>
@@ -71933,7 +71960,7 @@
         <v>14</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I79" s="25" t="s">
         <v>3393</v>
@@ -71942,7 +71969,7 @@
         <v>-1</v>
       </c>
       <c r="K79" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L79" s="7">
         <v>-1</v>
@@ -71959,10 +71986,10 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C80" s="7">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D80" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>3394</v>
@@ -71974,10 +72001,10 @@
         <v>14</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>3364</v>
+        <v>3370</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
@@ -71999,41 +72026,67 @@
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
+      <c r="C81" s="7">
+        <v>414</v>
+      </c>
+      <c r="D81" s="7">
+        <v>14</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>3396</v>
+      </c>
+      <c r="F81" s="7">
+        <v>14</v>
+      </c>
+      <c r="G81" s="7">
+        <v>14</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>3370</v>
+      </c>
+      <c r="I81" s="25" t="s">
+        <v>3397</v>
+      </c>
+      <c r="J81" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K81" s="7">
+        <v>5</v>
+      </c>
+      <c r="L81" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M81" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N81" s="7">
+        <v>1</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C82" s="7">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="D82" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3395</v>
+        <v>3398</v>
       </c>
       <c r="F82" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G82" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>3396</v>
-      </c>
-      <c r="I82" s="24" t="s">
-        <v>3397</v>
+        <v>3370</v>
+      </c>
+      <c r="I82" s="25" t="s">
+        <v>3399</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
@@ -72056,31 +72109,31 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C83" s="7">
-        <v>502</v>
+        <v>416</v>
       </c>
       <c r="D83" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="F83" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G83" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>28</v>
+        <v>3370</v>
       </c>
       <c r="I83" s="25" t="s">
-        <v>37</v>
+        <v>3401</v>
       </c>
       <c r="J83" s="7">
         <v>-1</v>
       </c>
       <c r="K83" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L83" s="7">
         <v>-1</v>
@@ -72097,31 +72150,31 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C84" s="7">
-        <v>503</v>
+        <v>417</v>
       </c>
       <c r="D84" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
       <c r="F84" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G84" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>28</v>
+        <v>3370</v>
       </c>
       <c r="I84" s="25" t="s">
-        <v>37</v>
+        <v>3403</v>
       </c>
       <c r="J84" s="7">
         <v>-1</v>
       </c>
       <c r="K84" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L84" s="7">
         <v>-1</v>
@@ -72137,114 +72190,62 @@
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C85" s="7">
-        <v>504</v>
-      </c>
-      <c r="D85" s="7">
-        <v>0</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>3400</v>
-      </c>
-      <c r="F85" s="7">
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J85" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K85" s="7">
-        <v>1</v>
-      </c>
-      <c r="L85" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M85" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N85" s="7">
-        <v>1</v>
-      </c>
-      <c r="O85" s="7">
-        <v>0</v>
-      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C86" s="7">
-        <v>505</v>
-      </c>
-      <c r="D86" s="7">
-        <v>0</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>3401</v>
-      </c>
-      <c r="F86" s="7">
-        <v>0</v>
-      </c>
-      <c r="G86" s="7">
-        <v>0</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J86" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K86" s="7">
-        <v>1</v>
-      </c>
-      <c r="L86" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M86" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N86" s="7">
-        <v>1</v>
-      </c>
-      <c r="O86" s="7">
-        <v>0</v>
-      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C87" s="7">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D87" s="7">
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="F87" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G87" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I87" s="25" t="s">
-        <v>37</v>
+        <v>3405</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>3406</v>
       </c>
       <c r="J87" s="7">
         <v>-1</v>
       </c>
       <c r="K87" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L87" s="7">
         <v>-1</v>
@@ -72261,13 +72262,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C88" s="7">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D88" s="7">
         <v>0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>3403</v>
+        <v>3407</v>
       </c>
       <c r="F88" s="7">
         <v>0</v>
@@ -72302,13 +72303,13 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C89" s="7">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D89" s="7">
         <v>0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>3404</v>
+        <v>3408</v>
       </c>
       <c r="F89" s="7">
         <v>0</v>
@@ -72343,13 +72344,13 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C90" s="7">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D90" s="7">
         <v>0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>3405</v>
+        <v>3409</v>
       </c>
       <c r="F90" s="7">
         <v>0</v>
@@ -72382,20 +72383,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="9:9">
-      <c r="I91" s="11"/>
-    </row>
-    <row r="92" spans="9:9">
-      <c r="I92" s="11"/>
-    </row>
-    <row r="93" spans="9:9">
-      <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="9:9">
-      <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="9:9">
-      <c r="I95" s="11"/>
+    <row r="91" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C91" s="7">
+        <v>505</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>3410</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J91" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K91" s="7">
+        <v>1</v>
+      </c>
+      <c r="L91" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M91" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N91" s="7">
+        <v>1</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C92" s="7">
+        <v>506</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>3411</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J92" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K92" s="7">
+        <v>1</v>
+      </c>
+      <c r="L92" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M92" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N92" s="7">
+        <v>1</v>
+      </c>
+      <c r="O92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C93" s="7">
+        <v>507</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J93" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K93" s="7">
+        <v>1</v>
+      </c>
+      <c r="L93" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M93" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N93" s="7">
+        <v>1</v>
+      </c>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C94" s="7">
+        <v>508</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>3413</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J94" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K94" s="7">
+        <v>1</v>
+      </c>
+      <c r="L94" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M94" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N94" s="7">
+        <v>1</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C95" s="7">
+        <v>509</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>3414</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J95" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K95" s="7">
+        <v>1</v>
+      </c>
+      <c r="L95" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M95" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N95" s="7">
+        <v>1</v>
+      </c>
+      <c r="O95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9">
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" spans="9:9">
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="9:9">
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" spans="9:9">
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="9:9">
+      <c r="I100" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18484" uniqueCount="3415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18796" uniqueCount="3478">
   <si>
     <t>_id</t>
   </si>
@@ -9898,6 +9898,195 @@
   </si>
   <si>
     <t>幻·光芒道靴</t>
+  </si>
+  <si>
+    <t>21005801</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>梦·屠龙战刃</t>
+  </si>
+  <si>
+    <t>900000000</t>
+  </si>
+  <si>
+    <t>21005802</t>
+  </si>
+  <si>
+    <t>梦·屠龙战甲</t>
+  </si>
+  <si>
+    <t>10000000000,400000000</t>
+  </si>
+  <si>
+    <t>21005803</t>
+  </si>
+  <si>
+    <t>梦·屠龙战链</t>
+  </si>
+  <si>
+    <t>5000000000,300000000</t>
+  </si>
+  <si>
+    <t>21005804</t>
+  </si>
+  <si>
+    <t>梦·屠龙战盔</t>
+  </si>
+  <si>
+    <t>5000000000,400000000</t>
+  </si>
+  <si>
+    <t>21005805</t>
+  </si>
+  <si>
+    <t>梦·屠龙战镯</t>
+  </si>
+  <si>
+    <t>21005807</t>
+  </si>
+  <si>
+    <t>梦·屠龙战戒</t>
+  </si>
+  <si>
+    <t>21005809</t>
+  </si>
+  <si>
+    <t>梦·屠龙战带</t>
+  </si>
+  <si>
+    <t>5000000000,300000000,400000000</t>
+  </si>
+  <si>
+    <t>21005810</t>
+  </si>
+  <si>
+    <t>梦·屠龙战靴</t>
+  </si>
+  <si>
+    <t>22005801</t>
+  </si>
+  <si>
+    <t>梦·龙牙法杖</t>
+  </si>
+  <si>
+    <t>1500000000</t>
+  </si>
+  <si>
+    <t>22005802</t>
+  </si>
+  <si>
+    <t>梦·龙牙法衣</t>
+  </si>
+  <si>
+    <t>6000000000,400000000</t>
+  </si>
+  <si>
+    <t>22005803</t>
+  </si>
+  <si>
+    <t>梦·龙牙法链</t>
+  </si>
+  <si>
+    <t>3000000000,500000000</t>
+  </si>
+  <si>
+    <t>22005804</t>
+  </si>
+  <si>
+    <t>梦·龙牙法帽</t>
+  </si>
+  <si>
+    <t>3000000000,400000000</t>
+  </si>
+  <si>
+    <t>22005805</t>
+  </si>
+  <si>
+    <t>梦·龙牙法镯</t>
+  </si>
+  <si>
+    <t>22005807</t>
+  </si>
+  <si>
+    <t>梦·龙牙法戒</t>
+  </si>
+  <si>
+    <t>22005809</t>
+  </si>
+  <si>
+    <t>梦·龙牙法带</t>
+  </si>
+  <si>
+    <t>3000000000,500000000,400000000</t>
+  </si>
+  <si>
+    <t>22005810</t>
+  </si>
+  <si>
+    <t>梦·龙牙法靴</t>
+  </si>
+  <si>
+    <t>23005801</t>
+  </si>
+  <si>
+    <t>梦·逍遥道剑</t>
+  </si>
+  <si>
+    <t>1200000000</t>
+  </si>
+  <si>
+    <t>23005802</t>
+  </si>
+  <si>
+    <t>梦·逍遥道袍</t>
+  </si>
+  <si>
+    <t>8000000000,400000000</t>
+  </si>
+  <si>
+    <t>23005803</t>
+  </si>
+  <si>
+    <t>梦·逍遥道链</t>
+  </si>
+  <si>
+    <t>4000000000,400000000</t>
+  </si>
+  <si>
+    <t>23005804</t>
+  </si>
+  <si>
+    <t>梦·逍遥道冠</t>
+  </si>
+  <si>
+    <t>23005805</t>
+  </si>
+  <si>
+    <t>梦·逍遥道镯</t>
+  </si>
+  <si>
+    <t>23005807</t>
+  </si>
+  <si>
+    <t>梦·逍遥道戒</t>
+  </si>
+  <si>
+    <t>23005809</t>
+  </si>
+  <si>
+    <t>梦·逍遥道带</t>
+  </si>
+  <si>
+    <t>4000000000,400000000,400000000</t>
+  </si>
+  <si>
+    <t>23005810</t>
+  </si>
+  <si>
+    <t>梦·逍遥道靴</t>
   </si>
   <si>
     <t>新手剑</t>
@@ -10592,12 +10781,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -65725,10 +65914,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -68834,37 +69023,1004 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="13:14">
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
-    </row>
-    <row r="79" customHeight="1" spans="13:14">
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-    </row>
-    <row r="80" customHeight="1" spans="13:14">
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-    </row>
-    <row r="81" customHeight="1" spans="13:14">
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-    </row>
-    <row r="82" customHeight="1" spans="13:14">
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-    </row>
-    <row r="83" customHeight="1" spans="13:14">
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-    </row>
-    <row r="84" customHeight="1" spans="13:14">
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-    </row>
-    <row r="85" customHeight="1" spans="13:14">
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
+      <c r="O78" s="12"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C79" s="2" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" s="23" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O79" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C80" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>3257</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C81" s="2" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>3260</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O81" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C82" s="2" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>3264</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O82" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C83" s="2" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>3266</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C84" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>3268</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O84" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C85" s="2" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>3270</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O85" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C86" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>3273</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O86" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C87" s="2" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>3276</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O87" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C88" s="2" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O88" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C89" s="2" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>3282</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O89" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C90" s="2" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>3285</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O90" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C91" s="2" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>3282</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O91" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C92" s="2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>3282</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O92" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C93" s="2" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>3291</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N93" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O93" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C94" s="2" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M94" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O94" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C95" s="2" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>3297</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O95" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C96" s="2" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O96" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="97" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C97" s="2" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O97" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C98" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M98" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N98" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O98" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C99" s="2" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>3307</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O99" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C100" s="2" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O100" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C101" s="2" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O101" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="102" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C102" s="2" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>3314</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N102" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="O102" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -68877,7 +70033,7 @@
   <sheetPr/>
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A69" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A69" workbookViewId="0">
       <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
@@ -69036,7 +70192,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3252</v>
+        <v>3315</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>28</v>
@@ -69045,10 +70201,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>3253</v>
+        <v>3316</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>3254</v>
+        <v>3317</v>
       </c>
       <c r="J6" s="7">
         <v>-1</v>
@@ -69077,7 +70233,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3255</v>
+        <v>3318</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>29</v>
@@ -69118,7 +70274,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3256</v>
+        <v>3319</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>466</v>
@@ -69127,10 +70283,10 @@
         <v>466</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3253</v>
+        <v>3316</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>3257</v>
+        <v>3320</v>
       </c>
       <c r="J8" s="7">
         <v>-1</v>
@@ -69159,7 +70315,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3258</v>
+        <v>3321</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>683</v>
@@ -69171,7 +70327,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>3259</v>
+        <v>3322</v>
       </c>
       <c r="J9" s="7">
         <v>-1</v>
@@ -69200,7 +70356,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3260</v>
+        <v>3323</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>794</v>
@@ -69209,10 +70365,10 @@
         <v>795</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>3253</v>
+        <v>3316</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>3257</v>
+        <v>3320</v>
       </c>
       <c r="J10" s="7">
         <v>-1</v>
@@ -69241,7 +70397,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3261</v>
+        <v>3324</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>906</v>
@@ -69253,7 +70409,7 @@
         <v>300</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>3259</v>
+        <v>3322</v>
       </c>
       <c r="J11" s="7">
         <v>-1</v>
@@ -69282,7 +70438,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3262</v>
+        <v>3325</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1018</v>
@@ -69291,10 +70447,10 @@
         <v>1018</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>3253</v>
+        <v>3316</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>3257</v>
+        <v>3320</v>
       </c>
       <c r="J12" s="7">
         <v>-1</v>
@@ -69323,7 +70479,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3263</v>
+        <v>3326</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>26</v>
@@ -69335,7 +70491,7 @@
         <v>300</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>3259</v>
+        <v>3322</v>
       </c>
       <c r="J13" s="7">
         <v>-1</v>
@@ -69364,7 +70520,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3264</v>
+        <v>3327</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
@@ -69373,10 +70529,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>3266</v>
+        <v>3329</v>
       </c>
       <c r="J14" s="7">
         <v>-1</v>
@@ -69405,7 +70561,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3267</v>
+        <v>3330</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
@@ -69414,10 +70570,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>3268</v>
+        <v>3331</v>
       </c>
       <c r="J15" s="7">
         <v>-1</v>
@@ -69446,7 +70602,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3269</v>
+        <v>3332</v>
       </c>
       <c r="F16" s="7">
         <v>11</v>
@@ -69455,10 +70611,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>3270</v>
+        <v>3333</v>
       </c>
       <c r="J16" s="7">
         <v>-1</v>
@@ -69487,7 +70643,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3271</v>
+        <v>3334</v>
       </c>
       <c r="F17" s="7">
         <v>11</v>
@@ -69496,10 +70652,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>3272</v>
+        <v>3335</v>
       </c>
       <c r="J17" s="7">
         <v>-1</v>
@@ -69528,7 +70684,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3273</v>
+        <v>3336</v>
       </c>
       <c r="F18" s="7">
         <v>11</v>
@@ -69537,10 +70693,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>3274</v>
+        <v>3337</v>
       </c>
       <c r="J18" s="7">
         <v>-1</v>
@@ -69569,7 +70725,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3275</v>
+        <v>3338</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -69578,10 +70734,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>3276</v>
+        <v>3339</v>
       </c>
       <c r="J19" s="7">
         <v>-1</v>
@@ -69610,7 +70766,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3277</v>
+        <v>3340</v>
       </c>
       <c r="F20" s="7">
         <v>11</v>
@@ -69619,10 +70775,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>3278</v>
+        <v>3341</v>
       </c>
       <c r="J20" s="7">
         <v>-1</v>
@@ -69651,7 +70807,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3279</v>
+        <v>3342</v>
       </c>
       <c r="F21" s="7">
         <v>11</v>
@@ -69660,10 +70816,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>3280</v>
+        <v>3343</v>
       </c>
       <c r="J21" s="7">
         <v>-1</v>
@@ -69692,7 +70848,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3281</v>
+        <v>3344</v>
       </c>
       <c r="F22" s="7">
         <v>11</v>
@@ -69701,10 +70857,10 @@
         <v>11</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>3282</v>
+        <v>3345</v>
       </c>
       <c r="J22" s="7">
         <v>-1</v>
@@ -69733,7 +70889,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3283</v>
+        <v>3346</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
@@ -69742,10 +70898,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>3284</v>
+        <v>3347</v>
       </c>
       <c r="J23" s="7">
         <v>-1</v>
@@ -69774,7 +70930,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3285</v>
+        <v>3348</v>
       </c>
       <c r="F24" s="7">
         <v>11</v>
@@ -69783,10 +70939,10 @@
         <v>11</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>3286</v>
+        <v>3349</v>
       </c>
       <c r="J24" s="7">
         <v>-1</v>
@@ -69815,7 +70971,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3287</v>
+        <v>3350</v>
       </c>
       <c r="F25" s="7">
         <v>11</v>
@@ -69824,10 +70980,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>3288</v>
+        <v>3351</v>
       </c>
       <c r="J25" s="7">
         <v>-1</v>
@@ -69856,7 +71012,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3289</v>
+        <v>3352</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
@@ -69865,10 +71021,10 @@
         <v>11</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>3290</v>
+        <v>3353</v>
       </c>
       <c r="J26" s="7">
         <v>-1</v>
@@ -69897,7 +71053,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3291</v>
+        <v>3354</v>
       </c>
       <c r="F27" s="7">
         <v>11</v>
@@ -69906,10 +71062,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>3292</v>
+        <v>3355</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
@@ -69938,7 +71094,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>3293</v>
+        <v>3356</v>
       </c>
       <c r="F28" s="7">
         <v>11</v>
@@ -69947,10 +71103,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>3294</v>
+        <v>3357</v>
       </c>
       <c r="J28" s="7">
         <v>-1</v>
@@ -69979,7 +71135,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3295</v>
+        <v>3358</v>
       </c>
       <c r="F29" s="7">
         <v>11</v>
@@ -69988,10 +71144,10 @@
         <v>11</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>3296</v>
+        <v>3359</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -70020,7 +71176,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3297</v>
+        <v>3360</v>
       </c>
       <c r="F30" s="7">
         <v>11</v>
@@ -70029,10 +71185,10 @@
         <v>11</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>3298</v>
+        <v>3361</v>
       </c>
       <c r="J30" s="7">
         <v>-1</v>
@@ -70076,7 +71232,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3299</v>
+        <v>3362</v>
       </c>
       <c r="F32" s="7">
         <v>12</v>
@@ -70085,10 +71241,10 @@
         <v>12</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>3301</v>
+        <v>3364</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
@@ -70117,7 +71273,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>3302</v>
+        <v>3365</v>
       </c>
       <c r="F33" s="7">
         <v>12</v>
@@ -70126,10 +71282,10 @@
         <v>12</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>3303</v>
+        <v>3366</v>
       </c>
       <c r="J33" s="7">
         <v>-1</v>
@@ -70158,7 +71314,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3304</v>
+        <v>3367</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -70167,10 +71323,10 @@
         <v>12</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>3305</v>
+        <v>3368</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
@@ -70199,7 +71355,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3306</v>
+        <v>3369</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -70208,10 +71364,10 @@
         <v>12</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>3307</v>
+        <v>3370</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -70240,7 +71396,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3308</v>
+        <v>3371</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -70249,10 +71405,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>3309</v>
+        <v>3372</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
@@ -70281,7 +71437,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3310</v>
+        <v>3373</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -70290,10 +71446,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>3311</v>
+        <v>3374</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
@@ -70322,7 +71478,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3312</v>
+        <v>3375</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -70331,10 +71487,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>3313</v>
+        <v>3376</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -70363,7 +71519,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3314</v>
+        <v>3377</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -70372,10 +71528,10 @@
         <v>12</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>3315</v>
+        <v>3378</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
@@ -70404,7 +71560,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3316</v>
+        <v>3379</v>
       </c>
       <c r="F40" s="7">
         <v>12</v>
@@ -70413,10 +71569,10 @@
         <v>12</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>3317</v>
+        <v>3380</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
@@ -70445,7 +71601,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3318</v>
+        <v>3381</v>
       </c>
       <c r="F41" s="7">
         <v>12</v>
@@ -70454,10 +71610,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>3319</v>
+        <v>3382</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
@@ -70486,7 +71642,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3320</v>
+        <v>3383</v>
       </c>
       <c r="F42" s="7">
         <v>12</v>
@@ -70495,10 +71651,10 @@
         <v>12</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>3321</v>
+        <v>3384</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
@@ -70527,7 +71683,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>3322</v>
+        <v>3385</v>
       </c>
       <c r="F43" s="7">
         <v>12</v>
@@ -70536,10 +71692,10 @@
         <v>12</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>3323</v>
+        <v>3386</v>
       </c>
       <c r="J43" s="7">
         <v>-1</v>
@@ -70568,7 +71724,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3324</v>
+        <v>3387</v>
       </c>
       <c r="F44" s="7">
         <v>12</v>
@@ -70577,10 +71733,10 @@
         <v>12</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>3325</v>
+        <v>3388</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
@@ -70609,7 +71765,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3326</v>
+        <v>3389</v>
       </c>
       <c r="F45" s="7">
         <v>12</v>
@@ -70618,10 +71774,10 @@
         <v>12</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>3327</v>
+        <v>3390</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
@@ -70650,7 +71806,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3328</v>
+        <v>3391</v>
       </c>
       <c r="F46" s="7">
         <v>12</v>
@@ -70659,10 +71815,10 @@
         <v>12</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>3329</v>
+        <v>3392</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
@@ -70691,7 +71847,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3330</v>
+        <v>3393</v>
       </c>
       <c r="F47" s="7">
         <v>12</v>
@@ -70700,10 +71856,10 @@
         <v>12</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>3331</v>
+        <v>3394</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -70732,7 +71888,7 @@
         <v>17</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3332</v>
+        <v>3395</v>
       </c>
       <c r="F48" s="7">
         <v>12</v>
@@ -70741,10 +71897,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>3300</v>
+        <v>3363</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>3333</v>
+        <v>3396</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -70788,7 +71944,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3334</v>
+        <v>3397</v>
       </c>
       <c r="F50" s="7">
         <v>13</v>
@@ -70797,10 +71953,10 @@
         <v>13</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>3336</v>
+        <v>3399</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -70829,7 +71985,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3337</v>
+        <v>3400</v>
       </c>
       <c r="F51" s="7">
         <v>13</v>
@@ -70838,10 +71994,10 @@
         <v>13</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>3338</v>
+        <v>3401</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -70870,7 +72026,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3339</v>
+        <v>3402</v>
       </c>
       <c r="F52" s="7">
         <v>13</v>
@@ -70879,10 +72035,10 @@
         <v>13</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>3340</v>
+        <v>3403</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -70911,7 +72067,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>3341</v>
+        <v>3404</v>
       </c>
       <c r="F53" s="7">
         <v>13</v>
@@ -70920,10 +72076,10 @@
         <v>13</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>3342</v>
+        <v>3405</v>
       </c>
       <c r="J53" s="7">
         <v>-1</v>
@@ -70952,7 +72108,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3343</v>
+        <v>3406</v>
       </c>
       <c r="F54" s="7">
         <v>13</v>
@@ -70961,10 +72117,10 @@
         <v>13</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>3344</v>
+        <v>3407</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
@@ -70993,7 +72149,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3345</v>
+        <v>3408</v>
       </c>
       <c r="F55" s="7">
         <v>13</v>
@@ -71002,10 +72158,10 @@
         <v>13</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>3346</v>
+        <v>3409</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
@@ -71034,7 +72190,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3347</v>
+        <v>3410</v>
       </c>
       <c r="F56" s="7">
         <v>13</v>
@@ -71043,10 +72199,10 @@
         <v>13</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>3348</v>
+        <v>3411</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -71075,7 +72231,7 @@
         <v>8</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3349</v>
+        <v>3412</v>
       </c>
       <c r="F57" s="7">
         <v>13</v>
@@ -71084,10 +72240,10 @@
         <v>13</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>3350</v>
+        <v>3413</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
@@ -71116,7 +72272,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>3351</v>
+        <v>3414</v>
       </c>
       <c r="F58" s="7">
         <v>13</v>
@@ -71125,10 +72281,10 @@
         <v>13</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>3352</v>
+        <v>3415</v>
       </c>
       <c r="J58" s="7">
         <v>-1</v>
@@ -71157,7 +72313,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3353</v>
+        <v>3416</v>
       </c>
       <c r="F59" s="7">
         <v>13</v>
@@ -71166,10 +72322,10 @@
         <v>13</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>3354</v>
+        <v>3417</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -71198,7 +72354,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3355</v>
+        <v>3418</v>
       </c>
       <c r="F60" s="7">
         <v>13</v>
@@ -71207,10 +72363,10 @@
         <v>13</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>3356</v>
+        <v>3419</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
@@ -71239,7 +72395,7 @@
         <v>12</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3357</v>
+        <v>3420</v>
       </c>
       <c r="F61" s="7">
         <v>13</v>
@@ -71248,10 +72404,10 @@
         <v>13</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>3358</v>
+        <v>3421</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
@@ -71280,7 +72436,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3359</v>
+        <v>3422</v>
       </c>
       <c r="F62" s="7">
         <v>13</v>
@@ -71289,10 +72445,10 @@
         <v>13</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>3360</v>
+        <v>3423</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -71321,7 +72477,7 @@
         <v>14</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3361</v>
+        <v>3424</v>
       </c>
       <c r="F63" s="7">
         <v>13</v>
@@ -71330,10 +72486,10 @@
         <v>13</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>3362</v>
+        <v>3425</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
@@ -71362,7 +72518,7 @@
         <v>15</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3363</v>
+        <v>3426</v>
       </c>
       <c r="F64" s="7">
         <v>13</v>
@@ -71371,10 +72527,10 @@
         <v>13</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>3364</v>
+        <v>3427</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
@@ -71403,7 +72559,7 @@
         <v>16</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3365</v>
+        <v>3428</v>
       </c>
       <c r="F65" s="7">
         <v>13</v>
@@ -71412,10 +72568,10 @@
         <v>13</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>3366</v>
+        <v>3429</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
@@ -71444,7 +72600,7 @@
         <v>17</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3367</v>
+        <v>3430</v>
       </c>
       <c r="F66" s="7">
         <v>13</v>
@@ -71453,10 +72609,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
@@ -71500,7 +72656,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3369</v>
+        <v>3432</v>
       </c>
       <c r="F68" s="7">
         <v>14</v>
@@ -71509,10 +72665,10 @@
         <v>14</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>3371</v>
+        <v>3434</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -71541,7 +72697,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3372</v>
+        <v>3435</v>
       </c>
       <c r="F69" s="7">
         <v>14</v>
@@ -71550,10 +72706,10 @@
         <v>14</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>3373</v>
+        <v>3436</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -71582,7 +72738,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3374</v>
+        <v>3437</v>
       </c>
       <c r="F70" s="7">
         <v>14</v>
@@ -71591,10 +72747,10 @@
         <v>14</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>3375</v>
+        <v>3438</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -71623,7 +72779,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3376</v>
+        <v>3439</v>
       </c>
       <c r="F71" s="7">
         <v>14</v>
@@ -71632,10 +72788,10 @@
         <v>14</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>3377</v>
+        <v>3440</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -71664,7 +72820,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3378</v>
+        <v>3441</v>
       </c>
       <c r="F72" s="7">
         <v>14</v>
@@ -71673,10 +72829,10 @@
         <v>14</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>3379</v>
+        <v>3442</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -71705,7 +72861,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>3380</v>
+        <v>3443</v>
       </c>
       <c r="F73" s="7">
         <v>14</v>
@@ -71714,10 +72870,10 @@
         <v>14</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>3381</v>
+        <v>3444</v>
       </c>
       <c r="J73" s="7">
         <v>-1</v>
@@ -71746,7 +72902,7 @@
         <v>7</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3382</v>
+        <v>3445</v>
       </c>
       <c r="F74" s="7">
         <v>14</v>
@@ -71755,10 +72911,10 @@
         <v>14</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>3383</v>
+        <v>3446</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
@@ -71787,7 +72943,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3384</v>
+        <v>3447</v>
       </c>
       <c r="F75" s="7">
         <v>14</v>
@@ -71796,10 +72952,10 @@
         <v>14</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>3385</v>
+        <v>3448</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
@@ -71828,7 +72984,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>3386</v>
+        <v>3449</v>
       </c>
       <c r="F76" s="7">
         <v>14</v>
@@ -71837,10 +72993,10 @@
         <v>14</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>3387</v>
+        <v>3450</v>
       </c>
       <c r="J76" s="7">
         <v>-1</v>
@@ -71869,7 +73025,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>3388</v>
+        <v>3451</v>
       </c>
       <c r="F77" s="7">
         <v>14</v>
@@ -71878,10 +73034,10 @@
         <v>14</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I77" s="25" t="s">
-        <v>3389</v>
+        <v>3452</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
@@ -71910,7 +73066,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>3390</v>
+        <v>3453</v>
       </c>
       <c r="F78" s="7">
         <v>14</v>
@@ -71919,10 +73075,10 @@
         <v>14</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>3391</v>
+        <v>3454</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
@@ -71951,7 +73107,7 @@
         <v>12</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3392</v>
+        <v>3455</v>
       </c>
       <c r="F79" s="7">
         <v>14</v>
@@ -71960,10 +73116,10 @@
         <v>14</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>3393</v>
+        <v>3456</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
@@ -71992,7 +73148,7 @@
         <v>13</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3394</v>
+        <v>3457</v>
       </c>
       <c r="F80" s="7">
         <v>14</v>
@@ -72001,10 +73157,10 @@
         <v>14</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>3395</v>
+        <v>3458</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
@@ -72033,7 +73189,7 @@
         <v>14</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3396</v>
+        <v>3459</v>
       </c>
       <c r="F81" s="7">
         <v>14</v>
@@ -72042,10 +73198,10 @@
         <v>14</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>3397</v>
+        <v>3460</v>
       </c>
       <c r="J81" s="7">
         <v>-1</v>
@@ -72074,7 +73230,7 @@
         <v>15</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3398</v>
+        <v>3461</v>
       </c>
       <c r="F82" s="7">
         <v>14</v>
@@ -72083,10 +73239,10 @@
         <v>14</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>3399</v>
+        <v>3462</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
@@ -72115,7 +73271,7 @@
         <v>16</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>3400</v>
+        <v>3463</v>
       </c>
       <c r="F83" s="7">
         <v>14</v>
@@ -72124,10 +73280,10 @@
         <v>14</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I83" s="25" t="s">
-        <v>3401</v>
+        <v>3464</v>
       </c>
       <c r="J83" s="7">
         <v>-1</v>
@@ -72156,7 +73312,7 @@
         <v>17</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>3402</v>
+        <v>3465</v>
       </c>
       <c r="F84" s="7">
         <v>14</v>
@@ -72165,10 +73321,10 @@
         <v>14</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="I84" s="25" t="s">
-        <v>3403</v>
+        <v>3466</v>
       </c>
       <c r="J84" s="7">
         <v>-1</v>
@@ -72227,7 +73383,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>3404</v>
+        <v>3467</v>
       </c>
       <c r="F87" s="7">
         <v>11</v>
@@ -72236,10 +73392,10 @@
         <v>11</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>3405</v>
+        <v>3468</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>3406</v>
+        <v>3469</v>
       </c>
       <c r="J87" s="7">
         <v>-1</v>
@@ -72268,7 +73424,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="F88" s="7">
         <v>0</v>
@@ -72309,7 +73465,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>3408</v>
+        <v>3471</v>
       </c>
       <c r="F89" s="7">
         <v>0</v>
@@ -72350,7 +73506,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>3409</v>
+        <v>3472</v>
       </c>
       <c r="F90" s="7">
         <v>0</v>
@@ -72391,7 +73547,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>3410</v>
+        <v>3473</v>
       </c>
       <c r="F91" s="7">
         <v>0</v>
@@ -72432,7 +73588,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>3411</v>
+        <v>3474</v>
       </c>
       <c r="F92" s="7">
         <v>0</v>
@@ -72473,7 +73629,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>3412</v>
+        <v>3475</v>
       </c>
       <c r="F93" s="7">
         <v>0</v>
@@ -72514,7 +73670,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>3413</v>
+        <v>3476</v>
       </c>
       <c r="F94" s="7">
         <v>0</v>
@@ -72555,7 +73711,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>3414</v>
+        <v>3477</v>
       </c>
       <c r="F95" s="7">
         <v>0</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
     <sheet name="新版随机" sheetId="5" r:id="rId2"/>
-    <sheet name="定制装备" sheetId="4" r:id="rId3"/>
+    <sheet name="红装" sheetId="6" r:id="rId3"/>
+    <sheet name="定制装备" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18796" uniqueCount="3478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19051" uniqueCount="3514">
   <si>
     <t>_id</t>
   </si>
@@ -10087,6 +10088,114 @@
   </si>
   <si>
     <t>梦·逍遥道靴</t>
+  </si>
+  <si>
+    <t>神龙战刃</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>1000000000,10000000000</t>
+  </si>
+  <si>
+    <t>神龙战甲</t>
+  </si>
+  <si>
+    <t>12000000000,500000000</t>
+  </si>
+  <si>
+    <t>神龙战链</t>
+  </si>
+  <si>
+    <t>神龙战盔</t>
+  </si>
+  <si>
+    <t>神龙战镯</t>
+  </si>
+  <si>
+    <t>神龙战戒</t>
+  </si>
+  <si>
+    <t>神龙战带</t>
+  </si>
+  <si>
+    <t>6000000000,500000000,400000000</t>
+  </si>
+  <si>
+    <t>神龙战靴</t>
+  </si>
+  <si>
+    <t>神凰法杖</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>1500000000,5000000000</t>
+  </si>
+  <si>
+    <t>神凰法衣</t>
+  </si>
+  <si>
+    <t>神凰法链</t>
+  </si>
+  <si>
+    <t>4000000000,600000000</t>
+  </si>
+  <si>
+    <t>神凰法帽</t>
+  </si>
+  <si>
+    <t>神凰法镯</t>
+  </si>
+  <si>
+    <t>神凰法戒</t>
+  </si>
+  <si>
+    <t>神凰法带</t>
+  </si>
+  <si>
+    <t>4000000000,500000000,600000000</t>
+  </si>
+  <si>
+    <t>神凰法靴</t>
+  </si>
+  <si>
+    <t>神麟道剑</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>1200000000,8000000000</t>
+  </si>
+  <si>
+    <t>神麟道袍</t>
+  </si>
+  <si>
+    <t>神麟道链</t>
+  </si>
+  <si>
+    <t>5000000000,500000000</t>
+  </si>
+  <si>
+    <t>神麟道冠</t>
+  </si>
+  <si>
+    <t>神麟道镯</t>
+  </si>
+  <si>
+    <t>神麟道戒</t>
+  </si>
+  <si>
+    <t>神麟道带</t>
+  </si>
+  <si>
+    <t>5000000000,500000000,500000000</t>
+  </si>
+  <si>
+    <t>神麟道靴</t>
   </si>
   <si>
     <t>新手剑</t>
@@ -10617,13 +10726,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -11275,21 +11384,21 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11302,7 +11411,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -65916,8 +66026,8 @@
   <sheetPr/>
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="D108" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -65932,3111 +66042,3111 @@
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="4:11">
-      <c r="D1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="4:11">
-      <c r="D2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A3" s="13"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="12"/>
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A4" s="13"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="12"/>
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A5" s="13"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
         <v>3057</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="16" t="s">
         <v>3059</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>3060</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>3061</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="16" t="s">
         <v>3062</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="16" t="s">
         <v>3063</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="16" t="s">
         <v>3064</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="16" t="s">
         <v>3065</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="16" t="s">
         <v>3066</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="16" t="s">
         <v>466</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="16" t="s">
         <v>3067</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="12" t="s">
+      <c r="J8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="16" t="s">
         <v>3069</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="16" t="s">
         <v>3070</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="16" t="s">
         <v>683</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="16" t="s">
         <v>3071</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="J9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="16" t="s">
         <v>3072</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="16" t="s">
         <v>3073</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="16" t="s">
         <v>794</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="16" t="s">
         <v>3067</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="J10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>3074</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="16" t="s">
         <v>3075</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="16" t="s">
         <v>906</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="16" t="s">
         <v>3067</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="J11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="16" t="s">
         <v>3076</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="16" t="s">
         <v>3077</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="16" t="s">
         <v>1018</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="16" t="s">
         <v>1019</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="16" t="s">
         <v>3078</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="J12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="16" t="s">
         <v>3079</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="16" t="s">
         <v>3080</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="16" t="s">
         <v>1019</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="16" t="s">
         <v>3078</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="12" t="s">
+      <c r="J13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="16" t="s">
         <v>3081</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="16" t="s">
         <v>3082</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>3083</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="J14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="16" t="s">
         <v>3084</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="16" t="s">
         <v>3085</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="16" t="s">
         <v>3086</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="12" t="s">
+      <c r="J15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="16" t="s">
         <v>3087</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="16" t="s">
         <v>3088</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="16" t="s">
         <v>466</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="16" t="s">
         <v>3089</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="12" t="s">
+      <c r="J16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="16" t="s">
         <v>3090</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="16" t="s">
         <v>3091</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="16" t="s">
         <v>683</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="16" t="s">
         <v>3092</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="12" t="s">
+      <c r="J17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="16" t="s">
         <v>3093</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="16" t="s">
         <v>3094</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="16" t="s">
         <v>794</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="16" t="s">
         <v>3089</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="12" t="s">
+      <c r="J18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="16" t="s">
         <v>3095</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="16" t="s">
         <v>3096</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="16" t="s">
         <v>906</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="16" t="s">
         <v>3089</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="12" t="s">
+      <c r="J19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="16" t="s">
         <v>3097</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="16" t="s">
         <v>3098</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="16" t="s">
         <v>1018</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="16" t="s">
         <v>1956</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="16" t="s">
         <v>3099</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="12" t="s">
+      <c r="J20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="16" t="s">
         <v>3100</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="16" t="s">
         <v>3101</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="16" t="s">
         <v>1956</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="16" t="s">
         <v>3099</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="12" t="s">
+      <c r="J21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="16" t="s">
         <v>3102</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="16" t="s">
         <v>3103</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="16" t="s">
         <v>3104</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="12" t="s">
+      <c r="J22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="16" t="s">
         <v>3105</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="16" t="s">
         <v>3106</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="16" t="s">
         <v>3107</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="12" t="s">
+      <c r="J23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="16" t="s">
         <v>3108</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="16" t="s">
         <v>3109</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="16" t="s">
         <v>466</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="16" t="s">
         <v>3110</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="12" t="s">
+      <c r="J24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="O24" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="16" t="s">
         <v>3111</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="16" t="s">
         <v>3112</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="16" t="s">
         <v>683</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="16" t="s">
         <v>3110</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="12" t="s">
+      <c r="J25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="O25" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="16" t="s">
         <v>3113</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="16" t="s">
         <v>3114</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="16" t="s">
         <v>794</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="16" t="s">
         <v>3110</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="12" t="s">
+      <c r="J26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="O26" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="16" t="s">
         <v>3115</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="16" t="s">
         <v>3116</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="16" t="s">
         <v>906</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="16" t="s">
         <v>3110</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="12" t="s">
+      <c r="J27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="16" t="s">
         <v>3117</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="16" t="s">
         <v>3118</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="16" t="s">
         <v>1018</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="16" t="s">
         <v>2838</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="16" t="s">
         <v>3119</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="12" t="s">
+      <c r="J28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="16" t="s">
         <v>3120</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>3058</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="16" t="s">
         <v>3121</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="16" t="s">
         <v>2838</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="16" t="s">
         <v>3119</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="12" t="s">
+      <c r="J29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O29" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="30" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C30" s="12" t="s">
+      <c r="O29" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C30" s="16" t="s">
         <v>3122</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="16" t="s">
         <v>3124</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="12" t="s">
+      <c r="F30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="16" t="s">
         <v>3125</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="12" t="s">
+      <c r="J30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>3126</v>
       </c>
-      <c r="O30" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C31" s="12" t="s">
+      <c r="O30" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C31" s="16" t="s">
         <v>3127</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="16" t="s">
         <v>3128</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="12" t="s">
+      <c r="F31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="16" t="s">
         <v>3129</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="12" t="s">
+      <c r="J31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>3126</v>
       </c>
-      <c r="O31" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C32" s="12" t="s">
+      <c r="O31" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C32" s="16" t="s">
         <v>3130</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="16" t="s">
         <v>3131</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="F32" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="16" t="s">
         <v>3132</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="12" t="s">
+      <c r="J32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N32" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O32" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C33" s="12" t="s">
+      <c r="O32" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C33" s="16" t="s">
         <v>3134</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="16" t="s">
         <v>3135</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="16" t="s">
         <v>3136</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="12" t="s">
+      <c r="J33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O33" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C34" s="12" t="s">
+      <c r="O33" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C34" s="16" t="s">
         <v>3137</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="16" t="s">
         <v>3138</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="16" t="s">
         <v>3132</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="12" t="s">
+      <c r="J34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O34" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C35" s="12" t="s">
+      <c r="O34" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C35" s="16" t="s">
         <v>3139</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="16" t="s">
         <v>3140</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="16" t="s">
         <v>3132</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="12" t="s">
+      <c r="J35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O35" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C36" s="12" t="s">
+      <c r="O35" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C36" s="16" t="s">
         <v>3141</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="16" t="s">
         <v>3142</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="16" t="s">
         <v>1019</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="16" t="s">
         <v>3143</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="12" t="s">
+      <c r="J36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O36" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C37" s="12" t="s">
+      <c r="O36" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C37" s="16" t="s">
         <v>3144</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="16" t="s">
         <v>3145</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="16" t="s">
         <v>1019</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="16" t="s">
         <v>3143</v>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="12" t="s">
+      <c r="J37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O37" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C38" s="12" t="s">
+      <c r="O37" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C38" s="16" t="s">
         <v>3146</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="16" t="s">
         <v>3147</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="I38" s="12" t="s">
+      <c r="F38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="I38" s="16" t="s">
         <v>3148</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="12" t="s">
+      <c r="J38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>3126</v>
       </c>
-      <c r="O38" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C39" s="12" t="s">
+      <c r="O38" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C39" s="16" t="s">
         <v>3149</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="16" t="s">
         <v>3150</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="F39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="16" t="s">
         <v>3151</v>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="12" t="s">
+      <c r="J39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>3126</v>
       </c>
-      <c r="O39" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C40" s="12" t="s">
+      <c r="O39" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C40" s="16" t="s">
         <v>3152</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="16" t="s">
         <v>3153</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="H40" s="12" t="s">
+      <c r="F40" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="16" t="s">
         <v>3154</v>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M40" s="12" t="s">
+      <c r="J40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O40" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C41" s="12" t="s">
+      <c r="O40" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C41" s="16" t="s">
         <v>3155</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="16" t="s">
         <v>3156</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="16" t="s">
         <v>3157</v>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="12" t="s">
+      <c r="J41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O41" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C42" s="12" t="s">
+      <c r="O41" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C42" s="16" t="s">
         <v>3158</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="16" t="s">
         <v>3159</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="16" t="s">
         <v>3154</v>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M42" s="12" t="s">
+      <c r="J42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O42" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C43" s="12" t="s">
+      <c r="O42" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C43" s="16" t="s">
         <v>3160</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="16" t="s">
         <v>3161</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="16" t="s">
         <v>3154</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M43" s="12" t="s">
+      <c r="J43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O43" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C44" s="12" t="s">
+      <c r="O43" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C44" s="16" t="s">
         <v>3162</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="16" t="s">
         <v>3163</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="16" t="s">
         <v>1956</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="16" t="s">
         <v>3164</v>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M44" s="12" t="s">
+      <c r="J44" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O44" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C45" s="12" t="s">
+      <c r="O44" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C45" s="16" t="s">
         <v>3165</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="16" t="s">
         <v>3166</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="16" t="s">
         <v>1956</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="16" t="s">
         <v>3164</v>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="12" t="s">
+      <c r="J45" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O45" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C46" s="12" t="s">
+      <c r="O45" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C46" s="16" t="s">
         <v>3167</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="16" t="s">
         <v>3168</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="12" t="s">
+      <c r="F46" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="16" t="s">
         <v>3169</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M46" s="12" t="s">
+      <c r="J46" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>3126</v>
       </c>
-      <c r="O46" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="47" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C47" s="12" t="s">
+      <c r="O46" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C47" s="16" t="s">
         <v>3170</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="16" t="s">
         <v>3171</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="12" t="s">
+      <c r="F47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="16" t="s">
         <v>3172</v>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="12" t="s">
+      <c r="J47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>3126</v>
       </c>
-      <c r="O47" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="48" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C48" s="12" t="s">
+      <c r="O47" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="48" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C48" s="16" t="s">
         <v>3173</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="16" t="s">
         <v>3174</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="H48" s="12" t="s">
+      <c r="F48" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="16" t="s">
         <v>3175</v>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M48" s="12" t="s">
+      <c r="J48" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O48" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="49" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C49" s="12" t="s">
+      <c r="O48" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C49" s="16" t="s">
         <v>3176</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="16" t="s">
         <v>3177</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="16" t="s">
         <v>3175</v>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M49" s="12" t="s">
+      <c r="J49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O49" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="50" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C50" s="12" t="s">
+      <c r="O49" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="50" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C50" s="16" t="s">
         <v>3178</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="16" t="s">
         <v>3179</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="16" t="s">
         <v>3175</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M50" s="12" t="s">
+      <c r="J50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O50" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="51" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C51" s="12" t="s">
+      <c r="O50" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C51" s="16" t="s">
         <v>3180</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="16" t="s">
         <v>3181</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="16" t="s">
         <v>3175</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M51" s="12" t="s">
+      <c r="J51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O51" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="52" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C52" s="12" t="s">
+      <c r="O51" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C52" s="16" t="s">
         <v>3182</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="16" t="s">
         <v>3183</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="16" t="s">
         <v>2838</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="16" t="s">
         <v>3184</v>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M52" s="12" t="s">
+      <c r="J52" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O52" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="53" s="12" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C53" s="12" t="s">
+      <c r="O52" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" s="16" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C53" s="16" t="s">
         <v>3185</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="16" t="s">
         <v>3123</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="16" t="s">
         <v>3186</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="16" t="s">
         <v>2838</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="16" t="s">
         <v>3184</v>
       </c>
-      <c r="J53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M53" s="12" t="s">
+      <c r="J53" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N53" s="23" t="s">
         <v>3133</v>
       </c>
-      <c r="O53" s="12" t="s">
+      <c r="O53" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="16" t="s">
         <v>3187</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="16" t="s">
         <v>3189</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="12" t="s">
+      <c r="F54" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="16" t="s">
         <v>3190</v>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M54" s="12" t="s">
+      <c r="J54" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N54" s="23" t="s">
         <v>3191</v>
       </c>
-      <c r="O54" s="12" t="s">
+      <c r="O54" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="16" t="s">
         <v>3192</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="16" t="s">
         <v>3193</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="12" t="s">
+      <c r="F55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="16" t="s">
         <v>3194</v>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="12" t="s">
+      <c r="J55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N55" s="23" t="s">
         <v>3191</v>
       </c>
-      <c r="O55" s="12" t="s">
+      <c r="O55" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="16" t="s">
         <v>3195</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="16" t="s">
         <v>3196</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="H56" s="12" t="s">
+      <c r="F56" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="H56" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="16" t="s">
         <v>3197</v>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M56" s="12" t="s">
+      <c r="J56" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N56" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O56" s="12" t="s">
+      <c r="O56" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="16" t="s">
         <v>3199</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="16" t="s">
         <v>3200</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="16" t="s">
         <v>3201</v>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M57" s="12" t="s">
+      <c r="J57" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N57" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O57" s="12" t="s">
+      <c r="O57" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="16" t="s">
         <v>3202</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="16" t="s">
         <v>3203</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="16" t="s">
         <v>3197</v>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M58" s="12" t="s">
+      <c r="J58" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N58" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O58" s="12" t="s">
+      <c r="O58" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="16" t="s">
         <v>3204</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="16" t="s">
         <v>3205</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="16" t="s">
         <v>3197</v>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M59" s="12" t="s">
+      <c r="J59" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N59" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O59" s="12" t="s">
+      <c r="O59" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="16" t="s">
         <v>3206</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="16" t="s">
         <v>3207</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="H60" s="16" t="s">
         <v>1019</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="16" t="s">
         <v>3208</v>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M60" s="12" t="s">
+      <c r="J60" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N60" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O60" s="12" t="s">
+      <c r="O60" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="16" t="s">
         <v>3209</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="16" t="s">
         <v>3210</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G61" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="16" t="s">
         <v>1019</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="16" t="s">
         <v>3208</v>
       </c>
-      <c r="J61" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M61" s="12" t="s">
+      <c r="J61" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N61" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O61" s="12" t="s">
+      <c r="O61" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="16" t="s">
         <v>3211</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="16" t="s">
         <v>3212</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="I62" s="12" t="s">
+      <c r="F62" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="I62" s="16" t="s">
         <v>3213</v>
       </c>
-      <c r="J62" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M62" s="12" t="s">
+      <c r="J62" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N62" s="23" t="s">
         <v>3191</v>
       </c>
-      <c r="O62" s="12" t="s">
+      <c r="O62" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="16" t="s">
         <v>3214</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="16" t="s">
         <v>3215</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="12" t="s">
+      <c r="F63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="16" t="s">
         <v>3216</v>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M63" s="12" t="s">
+      <c r="J63" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N63" s="23" t="s">
         <v>3191</v>
       </c>
-      <c r="O63" s="12" t="s">
+      <c r="O63" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="16" t="s">
         <v>3217</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="16" t="s">
         <v>3218</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="H64" s="12" t="s">
+      <c r="F64" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="H64" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="16" t="s">
         <v>3219</v>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M64" s="12" t="s">
+      <c r="J64" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M64" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N64" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O64" s="12" t="s">
+      <c r="O64" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="16" t="s">
         <v>3220</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="16" t="s">
         <v>3221</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="16" t="s">
         <v>3222</v>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M65" s="12" t="s">
+      <c r="J65" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O65" s="12" t="s">
+      <c r="O65" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="16" t="s">
         <v>3223</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="16" t="s">
         <v>3224</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="G66" s="12" t="s">
+      <c r="G66" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="H66" s="12" t="s">
+      <c r="H66" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="I66" s="16" t="s">
         <v>3219</v>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L66" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M66" s="12" t="s">
+      <c r="J66" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N66" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O66" s="12" t="s">
+      <c r="O66" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="16" t="s">
         <v>3225</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="16" t="s">
         <v>3226</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="G67" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="16" t="s">
         <v>1515</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="I67" s="16" t="s">
         <v>3219</v>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M67" s="12" t="s">
+      <c r="J67" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N67" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O67" s="12" t="s">
+      <c r="O67" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="16" t="s">
         <v>3227</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="16" t="s">
         <v>3228</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="G68" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="16" t="s">
         <v>1956</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="I68" s="16" t="s">
         <v>3229</v>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M68" s="12" t="s">
+      <c r="J68" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M68" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N68" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O68" s="12" t="s">
+      <c r="O68" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="16" t="s">
         <v>3230</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="16" t="s">
         <v>3231</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="12" t="s">
+      <c r="H69" s="16" t="s">
         <v>1956</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="I69" s="16" t="s">
         <v>3229</v>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M69" s="12" t="s">
+      <c r="J69" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M69" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N69" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O69" s="12" t="s">
+      <c r="O69" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="16" t="s">
         <v>3232</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="16" t="s">
         <v>3233</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H70" s="12" t="s">
+      <c r="F70" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="I70" s="16" t="s">
         <v>3234</v>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M70" s="12" t="s">
+      <c r="J70" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M70" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N70" s="23" t="s">
         <v>3191</v>
       </c>
-      <c r="O70" s="12" t="s">
+      <c r="O70" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="16" t="s">
         <v>3235</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="16" t="s">
         <v>3236</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="12" t="s">
+      <c r="F71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="16" t="s">
         <v>3237</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M71" s="12" t="s">
+      <c r="J71" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N71" s="23" t="s">
         <v>3191</v>
       </c>
-      <c r="O71" s="12" t="s">
+      <c r="O71" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="16" t="s">
         <v>3238</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="16" t="s">
         <v>3239</v>
       </c>
-      <c r="F72" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="H72" s="12" t="s">
+      <c r="F72" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="H72" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="16" t="s">
         <v>3240</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M72" s="12" t="s">
+      <c r="J72" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N72" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O72" s="12" t="s">
+      <c r="O72" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="16" t="s">
         <v>3241</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="16" t="s">
         <v>3242</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="G73" s="12" t="s">
+      <c r="G73" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="H73" s="12" t="s">
+      <c r="H73" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I73" s="12" t="s">
+      <c r="I73" s="16" t="s">
         <v>3240</v>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M73" s="12" t="s">
+      <c r="J73" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N73" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O73" s="12" t="s">
+      <c r="O73" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="16" t="s">
         <v>3243</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="16" t="s">
         <v>3244</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="G74" s="12" t="s">
+      <c r="G74" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="H74" s="12" t="s">
+      <c r="H74" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="I74" s="16" t="s">
         <v>3240</v>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M74" s="12" t="s">
+      <c r="J74" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N74" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O74" s="12" t="s">
+      <c r="O74" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="16" t="s">
         <v>3245</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="16" t="s">
         <v>3246</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="G75" s="12" t="s">
+      <c r="G75" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="H75" s="12" t="s">
+      <c r="H75" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="I75" s="16" t="s">
         <v>3240</v>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M75" s="12" t="s">
+      <c r="J75" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O75" s="12" t="s">
+      <c r="O75" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="16" t="s">
         <v>3247</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="16" t="s">
         <v>3248</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="G76" s="12" t="s">
+      <c r="G76" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="16" t="s">
         <v>2838</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="I76" s="16" t="s">
         <v>3249</v>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M76" s="12" t="s">
+      <c r="J76" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N76" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O76" s="12" t="s">
+      <c r="O76" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="16" t="s">
         <v>3250</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="16" t="s">
         <v>3188</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="16" t="s">
         <v>3251</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="16" t="s">
         <v>2838</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="I77" s="16" t="s">
         <v>3249</v>
       </c>
-      <c r="J77" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M77" s="12" t="s">
+      <c r="J77" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N77" s="23" t="s">
         <v>3198</v>
       </c>
-      <c r="O77" s="12" t="s">
+      <c r="O77" s="16" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="3:15">
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:15">
       <c r="C79" s="2" t="s">
@@ -69045,37 +69155,37 @@
       <c r="D79" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="16" t="s">
         <v>3254</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="H79" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>3255</v>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K79" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L79" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M79" s="12" t="s">
+      <c r="J79" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M79" s="16" t="s">
         <v>31</v>
       </c>
       <c r="N79" s="23" t="s">
         <v>3061</v>
       </c>
-      <c r="O79" s="12" t="s">
+      <c r="O79" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -69086,37 +69196,37 @@
       <c r="D80" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="16" t="s">
         <v>3257</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="H80" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>3258</v>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M80" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N80" s="12" t="s">
+      <c r="J80" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N80" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O80" s="12" t="s">
+      <c r="O80" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -69127,37 +69237,37 @@
       <c r="D81" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="16" t="s">
         <v>3260</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="16" t="s">
         <v>466</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="H81" s="12" t="s">
+      <c r="H81" s="16" t="s">
         <v>467</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>3261</v>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N81" s="12" t="s">
+      <c r="J81" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O81" s="12" t="s">
+      <c r="O81" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -69168,37 +69278,37 @@
       <c r="D82" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="16" t="s">
         <v>3263</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="16" t="s">
         <v>683</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H82" s="12" t="s">
+      <c r="H82" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>3264</v>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K82" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L82" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M82" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N82" s="12" t="s">
+      <c r="J82" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M82" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O82" s="12" t="s">
+      <c r="O82" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -69209,37 +69319,37 @@
       <c r="D83" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="16" t="s">
         <v>3266</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="16" t="s">
         <v>794</v>
       </c>
       <c r="G83" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="H83" s="12" t="s">
+      <c r="H83" s="16" t="s">
         <v>467</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>3261</v>
       </c>
-      <c r="J83" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K83" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M83" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N83" s="12" t="s">
+      <c r="J83" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O83" s="12" t="s">
+      <c r="O83" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -69250,37 +69360,37 @@
       <c r="D84" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="16" t="s">
         <v>3268</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="16" t="s">
         <v>906</v>
       </c>
       <c r="G84" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="H84" s="16" t="s">
         <v>467</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>3261</v>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K84" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L84" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M84" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N84" s="12" t="s">
+      <c r="J84" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O84" s="12" t="s">
+      <c r="O84" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -69291,37 +69401,37 @@
       <c r="D85" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="16" t="s">
         <v>3270</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="16" t="s">
         <v>1018</v>
       </c>
       <c r="G85" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="H85" s="12" t="s">
+      <c r="H85" s="16" t="s">
         <v>1019</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>3271</v>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K85" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L85" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M85" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N85" s="12" t="s">
+      <c r="J85" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O85" s="12" t="s">
+      <c r="O85" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -69332,37 +69442,37 @@
       <c r="D86" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="16" t="s">
         <v>3273</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="F86" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H86" s="12" t="s">
+      <c r="H86" s="16" t="s">
         <v>1019</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>3271</v>
       </c>
-      <c r="J86" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K86" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L86" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M86" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N86" s="12" t="s">
+      <c r="J86" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O86" s="12" t="s">
+      <c r="O86" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -69373,37 +69483,37 @@
       <c r="D87" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="16" t="s">
         <v>3275</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G87" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="16" t="s">
         <v>466</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>3276</v>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K87" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L87" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M87" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N87" s="12" t="s">
+      <c r="J87" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O87" s="12" t="s">
+      <c r="O87" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -69414,37 +69524,37 @@
       <c r="D88" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="16" t="s">
         <v>3278</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F88" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G88" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H88" s="12" t="s">
+      <c r="H88" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>3279</v>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N88" s="12" t="s">
+      <c r="J88" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O88" s="12" t="s">
+      <c r="O88" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -69455,37 +69565,37 @@
       <c r="D89" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="16" t="s">
         <v>3281</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="16" t="s">
         <v>466</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="H89" s="16" t="s">
         <v>1515</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3282</v>
       </c>
-      <c r="J89" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L89" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M89" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N89" s="12" t="s">
+      <c r="J89" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M89" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O89" s="12" t="s">
+      <c r="O89" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -69496,37 +69606,37 @@
       <c r="D90" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="16" t="s">
         <v>3284</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="16" t="s">
         <v>683</v>
       </c>
       <c r="G90" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H90" s="12" t="s">
+      <c r="H90" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>3285</v>
       </c>
-      <c r="J90" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K90" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L90" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N90" s="12" t="s">
+      <c r="J90" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M90" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N90" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O90" s="12" t="s">
+      <c r="O90" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -69537,37 +69647,37 @@
       <c r="D91" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="16" t="s">
         <v>3287</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="16" t="s">
         <v>794</v>
       </c>
       <c r="G91" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="H91" s="16" t="s">
         <v>1515</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>3282</v>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K91" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L91" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N91" s="12" t="s">
+      <c r="J91" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O91" s="12" t="s">
+      <c r="O91" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -69578,37 +69688,37 @@
       <c r="D92" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="16" t="s">
         <v>3289</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="16" t="s">
         <v>906</v>
       </c>
       <c r="G92" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="H92" s="12" t="s">
+      <c r="H92" s="16" t="s">
         <v>1515</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>3282</v>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K92" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L92" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M92" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N92" s="12" t="s">
+      <c r="J92" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O92" s="12" t="s">
+      <c r="O92" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -69619,37 +69729,37 @@
       <c r="D93" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="16" t="s">
         <v>3291</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="16" t="s">
         <v>1018</v>
       </c>
       <c r="G93" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="H93" s="12" t="s">
+      <c r="H93" s="16" t="s">
         <v>1956</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>3292</v>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M93" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N93" s="12" t="s">
+      <c r="J93" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M93" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N93" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O93" s="12" t="s">
+      <c r="O93" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -69660,37 +69770,37 @@
       <c r="D94" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="16" t="s">
         <v>3294</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H94" s="12" t="s">
+      <c r="H94" s="16" t="s">
         <v>1956</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>3292</v>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K94" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L94" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M94" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" s="12" t="s">
+      <c r="J94" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K94" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M94" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O94" s="12" t="s">
+      <c r="O94" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -69701,37 +69811,37 @@
       <c r="D95" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="16" t="s">
         <v>3296</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G95" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H95" s="12" t="s">
+      <c r="H95" s="16" t="s">
         <v>683</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>3297</v>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K95" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L95" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N95" s="12" t="s">
+      <c r="J95" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M95" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O95" s="12" t="s">
+      <c r="O95" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -69742,37 +69852,37 @@
       <c r="D96" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="16" t="s">
         <v>3299</v>
       </c>
-      <c r="F96" s="12" t="s">
+      <c r="F96" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G96" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H96" s="12" t="s">
+      <c r="H96" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>3300</v>
       </c>
-      <c r="J96" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K96" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M96" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N96" s="12" t="s">
+      <c r="J96" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" s="16" t="s">
         <v>3061</v>
       </c>
-      <c r="O96" s="12" t="s">
+      <c r="O96" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -69783,37 +69893,37 @@
       <c r="D97" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="16" t="s">
         <v>3302</v>
       </c>
-      <c r="F97" s="12" t="s">
+      <c r="F97" s="16" t="s">
         <v>466</v>
       </c>
       <c r="G97" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="H97" s="12" t="s">
+      <c r="H97" s="16" t="s">
         <v>2397</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>3303</v>
       </c>
-      <c r="J97" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K97" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L97" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M97" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N97" s="12" t="s">
+      <c r="J97" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O97" s="12" t="s">
+      <c r="O97" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -69824,37 +69934,37 @@
       <c r="D98" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="16" t="s">
         <v>3305</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F98" s="16" t="s">
         <v>683</v>
       </c>
       <c r="G98" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H98" s="12" t="s">
+      <c r="H98" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>3303</v>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K98" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L98" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M98" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N98" s="12" t="s">
+      <c r="J98" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M98" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N98" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O98" s="12" t="s">
+      <c r="O98" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -69865,37 +69975,37 @@
       <c r="D99" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="16" t="s">
         <v>3307</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="F99" s="16" t="s">
         <v>794</v>
       </c>
       <c r="G99" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="H99" s="12" t="s">
+      <c r="H99" s="16" t="s">
         <v>2397</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>3303</v>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K99" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L99" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M99" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N99" s="12" t="s">
+      <c r="J99" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O99" s="12" t="s">
+      <c r="O99" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -69906,37 +70016,37 @@
       <c r="D100" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="16" t="s">
         <v>3309</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="16" t="s">
         <v>906</v>
       </c>
       <c r="G100" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="H100" s="12" t="s">
+      <c r="H100" s="16" t="s">
         <v>2397</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>3303</v>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K100" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L100" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M100" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N100" s="12" t="s">
+      <c r="J100" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O100" s="12" t="s">
+      <c r="O100" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -69947,37 +70057,37 @@
       <c r="D101" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="16" t="s">
         <v>3311</v>
       </c>
-      <c r="F101" s="12" t="s">
+      <c r="F101" s="16" t="s">
         <v>1018</v>
       </c>
       <c r="G101" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="H101" s="12" t="s">
+      <c r="H101" s="16" t="s">
         <v>2838</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>3312</v>
       </c>
-      <c r="J101" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K101" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M101" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N101" s="12" t="s">
+      <c r="J101" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O101" s="12" t="s">
+      <c r="O101" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -69988,37 +70098,37 @@
       <c r="D102" s="23" t="s">
         <v>3253</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="16" t="s">
         <v>3314</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G102" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="16" t="s">
         <v>2838</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>3312</v>
       </c>
-      <c r="J102" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K102" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L102" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M102" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N102" s="12" t="s">
+      <c r="J102" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N102" s="16" t="s">
         <v>3068</v>
       </c>
-      <c r="O102" s="12" t="s">
+      <c r="O102" s="16" t="s">
         <v>466</v>
       </c>
     </row>
@@ -70029,6 +70139,1156 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="19.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" customWidth="1"/>
+    <col min="9" max="13" width="21.125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="14.875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="4:11">
+      <c r="D1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="4:11">
+      <c r="D2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A3" s="12"/>
+      <c r="C3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A4" s="12"/>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C6" s="2">
+        <v>21105801</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>3316</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>3317</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="16">
+        <v>6</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C7" s="2">
+        <v>21105802</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>3319</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="16">
+        <v>6</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="16">
+        <v>1</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C8" s="2">
+        <v>21105803</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>3279</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="16">
+        <v>6</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C9" s="2">
+        <v>21105804</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>3279</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="16">
+        <v>6</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C10" s="2">
+        <v>21105805</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>3322</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>3279</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="16">
+        <v>6</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C11" s="2">
+        <v>21105807</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>3323</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>3279</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="16">
+        <v>6</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C12" s="2">
+        <v>21105809</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>3325</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="16">
+        <v>6</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C13" s="2">
+        <v>21105810</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>3326</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>3325</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="16">
+        <v>6</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="16">
+        <v>1</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C14" s="2">
+        <v>22105801</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>3328</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>3329</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="16">
+        <v>6</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="16">
+        <v>1</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C15" s="2">
+        <v>22105802</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>3319</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="16">
+        <v>6</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C16" s="2">
+        <v>22105803</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>3332</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="16">
+        <v>6</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C17" s="2">
+        <v>22105804</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>3332</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="16">
+        <v>6</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="16">
+        <v>1</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C18" s="2">
+        <v>22105805</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>3332</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="16">
+        <v>6</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="16">
+        <v>1</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C19" s="2">
+        <v>22105807</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>3332</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="16">
+        <v>6</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="16">
+        <v>1</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C20" s="2">
+        <v>22105809</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>3337</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="16">
+        <v>6</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="16">
+        <v>1</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C21" s="2">
+        <v>22105810</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>3337</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="16">
+        <v>6</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="16">
+        <v>1</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C22" s="2">
+        <v>23105801</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>3340</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>3341</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="16">
+        <v>6</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C23" s="2">
+        <v>23105802</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>3319</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="16">
+        <v>6</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C24" s="2">
+        <v>23105803</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="16">
+        <v>6</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="16">
+        <v>1</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C25" s="2">
+        <v>23105804</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="16">
+        <v>6</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="16">
+        <v>1</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C26" s="2">
+        <v>23105805</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="16">
+        <v>6</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="16">
+        <v>1</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C27" s="2">
+        <v>23105807</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="16">
+        <v>6</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C28" s="2">
+        <v>23105809</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>3349</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="16">
+        <v>6</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="16">
+        <v>1</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C29" s="2">
+        <v>23105810</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>3349</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="16">
+        <v>6</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="16">
+        <v>1</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O100"/>
@@ -70192,7 +71452,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3315</v>
+        <v>3351</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>28</v>
@@ -70201,10 +71461,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>3316</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>3317</v>
+        <v>3352</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>3353</v>
       </c>
       <c r="J6" s="7">
         <v>-1</v>
@@ -70233,7 +71493,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3318</v>
+        <v>3354</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>29</v>
@@ -70244,7 +71504,7 @@
       <c r="H7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>471</v>
       </c>
       <c r="J7" s="7">
@@ -70274,7 +71534,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3319</v>
+        <v>3355</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>466</v>
@@ -70283,10 +71543,10 @@
         <v>466</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3316</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>3320</v>
+        <v>3352</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>3356</v>
       </c>
       <c r="J8" s="7">
         <v>-1</v>
@@ -70315,7 +71575,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3321</v>
+        <v>3357</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>683</v>
@@ -70326,8 +71586,8 @@
       <c r="H9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>3322</v>
+      <c r="I9" s="26" t="s">
+        <v>3358</v>
       </c>
       <c r="J9" s="7">
         <v>-1</v>
@@ -70356,7 +71616,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3323</v>
+        <v>3359</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>794</v>
@@ -70365,10 +71625,10 @@
         <v>795</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>3316</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>3320</v>
+        <v>3352</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>3356</v>
       </c>
       <c r="J10" s="7">
         <v>-1</v>
@@ -70397,7 +71657,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3324</v>
+        <v>3360</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>906</v>
@@ -70408,8 +71668,8 @@
       <c r="H11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>3322</v>
+      <c r="I11" s="26" t="s">
+        <v>3358</v>
       </c>
       <c r="J11" s="7">
         <v>-1</v>
@@ -70438,7 +71698,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3325</v>
+        <v>3361</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1018</v>
@@ -70447,10 +71707,10 @@
         <v>1018</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>3316</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>3320</v>
+        <v>3352</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>3356</v>
       </c>
       <c r="J12" s="7">
         <v>-1</v>
@@ -70479,7 +71739,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3326</v>
+        <v>3362</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>26</v>
@@ -70490,8 +71750,8 @@
       <c r="H13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>3322</v>
+      <c r="I13" s="26" t="s">
+        <v>3358</v>
       </c>
       <c r="J13" s="7">
         <v>-1</v>
@@ -70520,7 +71780,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3327</v>
+        <v>3363</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
@@ -70528,11 +71788,11 @@
       <c r="G14" s="7">
         <v>11</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>3329</v>
+      <c r="H14" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>3365</v>
       </c>
       <c r="J14" s="7">
         <v>-1</v>
@@ -70561,7 +71821,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3330</v>
+        <v>3366</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
@@ -70569,11 +71829,11 @@
       <c r="G15" s="7">
         <v>11</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>3331</v>
+      <c r="H15" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>3367</v>
       </c>
       <c r="J15" s="7">
         <v>-1</v>
@@ -70602,7 +71862,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3332</v>
+        <v>3368</v>
       </c>
       <c r="F16" s="7">
         <v>11</v>
@@ -70610,11 +71870,11 @@
       <c r="G16" s="7">
         <v>11</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>3333</v>
+      <c r="H16" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>3369</v>
       </c>
       <c r="J16" s="7">
         <v>-1</v>
@@ -70643,7 +71903,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3334</v>
+        <v>3370</v>
       </c>
       <c r="F17" s="7">
         <v>11</v>
@@ -70651,11 +71911,11 @@
       <c r="G17" s="7">
         <v>11</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>3335</v>
+      <c r="H17" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>3371</v>
       </c>
       <c r="J17" s="7">
         <v>-1</v>
@@ -70684,7 +71944,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3336</v>
+        <v>3372</v>
       </c>
       <c r="F18" s="7">
         <v>11</v>
@@ -70692,11 +71952,11 @@
       <c r="G18" s="7">
         <v>11</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>3337</v>
+      <c r="H18" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>3373</v>
       </c>
       <c r="J18" s="7">
         <v>-1</v>
@@ -70725,7 +71985,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3338</v>
+        <v>3374</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -70733,11 +71993,11 @@
       <c r="G19" s="7">
         <v>11</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>3339</v>
+      <c r="H19" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>3375</v>
       </c>
       <c r="J19" s="7">
         <v>-1</v>
@@ -70766,7 +72026,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3340</v>
+        <v>3376</v>
       </c>
       <c r="F20" s="7">
         <v>11</v>
@@ -70774,11 +72034,11 @@
       <c r="G20" s="7">
         <v>11</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>3341</v>
+      <c r="H20" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>3377</v>
       </c>
       <c r="J20" s="7">
         <v>-1</v>
@@ -70807,7 +72067,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3342</v>
+        <v>3378</v>
       </c>
       <c r="F21" s="7">
         <v>11</v>
@@ -70815,11 +72075,11 @@
       <c r="G21" s="7">
         <v>11</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>3343</v>
+      <c r="H21" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>3379</v>
       </c>
       <c r="J21" s="7">
         <v>-1</v>
@@ -70848,7 +72108,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3344</v>
+        <v>3380</v>
       </c>
       <c r="F22" s="7">
         <v>11</v>
@@ -70856,11 +72116,11 @@
       <c r="G22" s="7">
         <v>11</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>3345</v>
+      <c r="H22" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>3381</v>
       </c>
       <c r="J22" s="7">
         <v>-1</v>
@@ -70889,7 +72149,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3346</v>
+        <v>3382</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
@@ -70897,11 +72157,11 @@
       <c r="G23" s="7">
         <v>11</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>3347</v>
+      <c r="H23" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>3383</v>
       </c>
       <c r="J23" s="7">
         <v>-1</v>
@@ -70930,7 +72190,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3348</v>
+        <v>3384</v>
       </c>
       <c r="F24" s="7">
         <v>11</v>
@@ -70938,11 +72198,11 @@
       <c r="G24" s="7">
         <v>11</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>3349</v>
+      <c r="H24" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>3385</v>
       </c>
       <c r="J24" s="7">
         <v>-1</v>
@@ -70971,7 +72231,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3350</v>
+        <v>3386</v>
       </c>
       <c r="F25" s="7">
         <v>11</v>
@@ -70979,11 +72239,11 @@
       <c r="G25" s="7">
         <v>11</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>3351</v>
+      <c r="H25" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>3387</v>
       </c>
       <c r="J25" s="7">
         <v>-1</v>
@@ -71012,7 +72272,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3352</v>
+        <v>3388</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
@@ -71020,11 +72280,11 @@
       <c r="G26" s="7">
         <v>11</v>
       </c>
-      <c r="H26" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>3353</v>
+      <c r="H26" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>3389</v>
       </c>
       <c r="J26" s="7">
         <v>-1</v>
@@ -71053,7 +72313,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3354</v>
+        <v>3390</v>
       </c>
       <c r="F27" s="7">
         <v>11</v>
@@ -71061,11 +72321,11 @@
       <c r="G27" s="7">
         <v>11</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>3355</v>
+      <c r="H27" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>3391</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
@@ -71094,7 +72354,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>3356</v>
+        <v>3392</v>
       </c>
       <c r="F28" s="7">
         <v>11</v>
@@ -71102,11 +72362,11 @@
       <c r="G28" s="7">
         <v>11</v>
       </c>
-      <c r="H28" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>3357</v>
+      <c r="H28" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>3393</v>
       </c>
       <c r="J28" s="7">
         <v>-1</v>
@@ -71135,7 +72395,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3358</v>
+        <v>3394</v>
       </c>
       <c r="F29" s="7">
         <v>11</v>
@@ -71143,11 +72403,11 @@
       <c r="G29" s="7">
         <v>11</v>
       </c>
-      <c r="H29" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>3359</v>
+      <c r="H29" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>3395</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -71176,7 +72436,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3360</v>
+        <v>3396</v>
       </c>
       <c r="F30" s="7">
         <v>11</v>
@@ -71184,11 +72444,11 @@
       <c r="G30" s="7">
         <v>11</v>
       </c>
-      <c r="H30" s="25" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>3361</v>
+      <c r="H30" s="26" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>3397</v>
       </c>
       <c r="J30" s="7">
         <v>-1</v>
@@ -71232,7 +72492,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3362</v>
+        <v>3398</v>
       </c>
       <c r="F32" s="7">
         <v>12</v>
@@ -71240,11 +72500,11 @@
       <c r="G32" s="7">
         <v>12</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>3364</v>
+      <c r="H32" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>3400</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
@@ -71273,7 +72533,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>3365</v>
+        <v>3401</v>
       </c>
       <c r="F33" s="7">
         <v>12</v>
@@ -71281,11 +72541,11 @@
       <c r="G33" s="7">
         <v>12</v>
       </c>
-      <c r="H33" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>3366</v>
+      <c r="H33" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>3402</v>
       </c>
       <c r="J33" s="7">
         <v>-1</v>
@@ -71314,7 +72574,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3367</v>
+        <v>3403</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -71322,11 +72582,11 @@
       <c r="G34" s="7">
         <v>12</v>
       </c>
-      <c r="H34" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>3368</v>
+      <c r="H34" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>3404</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
@@ -71355,7 +72615,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3369</v>
+        <v>3405</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -71363,11 +72623,11 @@
       <c r="G35" s="7">
         <v>12</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>3370</v>
+      <c r="H35" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>3406</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -71396,7 +72656,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3371</v>
+        <v>3407</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -71404,11 +72664,11 @@
       <c r="G36" s="7">
         <v>12</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>3372</v>
+      <c r="H36" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>3408</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
@@ -71437,7 +72697,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3373</v>
+        <v>3409</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -71445,11 +72705,11 @@
       <c r="G37" s="7">
         <v>12</v>
       </c>
-      <c r="H37" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>3374</v>
+      <c r="H37" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>3410</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
@@ -71478,7 +72738,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3375</v>
+        <v>3411</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -71486,11 +72746,11 @@
       <c r="G38" s="7">
         <v>12</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>3376</v>
+      <c r="H38" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>3412</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -71519,7 +72779,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3377</v>
+        <v>3413</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -71527,11 +72787,11 @@
       <c r="G39" s="7">
         <v>12</v>
       </c>
-      <c r="H39" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>3378</v>
+      <c r="H39" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>3414</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
@@ -71560,7 +72820,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3379</v>
+        <v>3415</v>
       </c>
       <c r="F40" s="7">
         <v>12</v>
@@ -71568,11 +72828,11 @@
       <c r="G40" s="7">
         <v>12</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I40" s="24" t="s">
-        <v>3380</v>
+      <c r="H40" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>3416</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
@@ -71601,7 +72861,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3381</v>
+        <v>3417</v>
       </c>
       <c r="F41" s="7">
         <v>12</v>
@@ -71609,11 +72869,11 @@
       <c r="G41" s="7">
         <v>12</v>
       </c>
-      <c r="H41" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>3382</v>
+      <c r="H41" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>3418</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
@@ -71642,7 +72902,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3383</v>
+        <v>3419</v>
       </c>
       <c r="F42" s="7">
         <v>12</v>
@@ -71650,11 +72910,11 @@
       <c r="G42" s="7">
         <v>12</v>
       </c>
-      <c r="H42" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>3384</v>
+      <c r="H42" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>3420</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
@@ -71683,7 +72943,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>3385</v>
+        <v>3421</v>
       </c>
       <c r="F43" s="7">
         <v>12</v>
@@ -71691,11 +72951,11 @@
       <c r="G43" s="7">
         <v>12</v>
       </c>
-      <c r="H43" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I43" s="24" t="s">
-        <v>3386</v>
+      <c r="H43" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>3422</v>
       </c>
       <c r="J43" s="7">
         <v>-1</v>
@@ -71724,7 +72984,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3387</v>
+        <v>3423</v>
       </c>
       <c r="F44" s="7">
         <v>12</v>
@@ -71732,11 +72992,11 @@
       <c r="G44" s="7">
         <v>12</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>3388</v>
+      <c r="H44" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>3424</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
@@ -71765,7 +73025,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3389</v>
+        <v>3425</v>
       </c>
       <c r="F45" s="7">
         <v>12</v>
@@ -71773,11 +73033,11 @@
       <c r="G45" s="7">
         <v>12</v>
       </c>
-      <c r="H45" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>3390</v>
+      <c r="H45" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>3426</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
@@ -71806,7 +73066,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3391</v>
+        <v>3427</v>
       </c>
       <c r="F46" s="7">
         <v>12</v>
@@ -71814,11 +73074,11 @@
       <c r="G46" s="7">
         <v>12</v>
       </c>
-      <c r="H46" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>3392</v>
+      <c r="H46" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>3428</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
@@ -71847,7 +73107,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3393</v>
+        <v>3429</v>
       </c>
       <c r="F47" s="7">
         <v>12</v>
@@ -71855,11 +73115,11 @@
       <c r="G47" s="7">
         <v>12</v>
       </c>
-      <c r="H47" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>3394</v>
+      <c r="H47" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>3430</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -71888,7 +73148,7 @@
         <v>17</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3395</v>
+        <v>3431</v>
       </c>
       <c r="F48" s="7">
         <v>12</v>
@@ -71896,11 +73156,11 @@
       <c r="G48" s="7">
         <v>12</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>3396</v>
+      <c r="H48" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>3432</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -71944,7 +73204,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3397</v>
+        <v>3433</v>
       </c>
       <c r="F50" s="7">
         <v>13</v>
@@ -71952,11 +73212,11 @@
       <c r="G50" s="7">
         <v>13</v>
       </c>
-      <c r="H50" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>3399</v>
+      <c r="H50" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>3435</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -71985,7 +73245,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3400</v>
+        <v>3436</v>
       </c>
       <c r="F51" s="7">
         <v>13</v>
@@ -71993,11 +73253,11 @@
       <c r="G51" s="7">
         <v>13</v>
       </c>
-      <c r="H51" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>3401</v>
+      <c r="H51" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>3437</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -72026,7 +73286,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3402</v>
+        <v>3438</v>
       </c>
       <c r="F52" s="7">
         <v>13</v>
@@ -72034,11 +73294,11 @@
       <c r="G52" s="7">
         <v>13</v>
       </c>
-      <c r="H52" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>3403</v>
+      <c r="H52" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>3439</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -72067,7 +73327,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>3404</v>
+        <v>3440</v>
       </c>
       <c r="F53" s="7">
         <v>13</v>
@@ -72075,11 +73335,11 @@
       <c r="G53" s="7">
         <v>13</v>
       </c>
-      <c r="H53" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>3405</v>
+      <c r="H53" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>3441</v>
       </c>
       <c r="J53" s="7">
         <v>-1</v>
@@ -72108,7 +73368,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3406</v>
+        <v>3442</v>
       </c>
       <c r="F54" s="7">
         <v>13</v>
@@ -72116,11 +73376,11 @@
       <c r="G54" s="7">
         <v>13</v>
       </c>
-      <c r="H54" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>3407</v>
+      <c r="H54" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>3443</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
@@ -72149,7 +73409,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3408</v>
+        <v>3444</v>
       </c>
       <c r="F55" s="7">
         <v>13</v>
@@ -72157,11 +73417,11 @@
       <c r="G55" s="7">
         <v>13</v>
       </c>
-      <c r="H55" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>3409</v>
+      <c r="H55" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>3445</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
@@ -72190,7 +73450,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3410</v>
+        <v>3446</v>
       </c>
       <c r="F56" s="7">
         <v>13</v>
@@ -72198,11 +73458,11 @@
       <c r="G56" s="7">
         <v>13</v>
       </c>
-      <c r="H56" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>3411</v>
+      <c r="H56" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>3447</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -72231,7 +73491,7 @@
         <v>8</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3412</v>
+        <v>3448</v>
       </c>
       <c r="F57" s="7">
         <v>13</v>
@@ -72239,11 +73499,11 @@
       <c r="G57" s="7">
         <v>13</v>
       </c>
-      <c r="H57" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>3413</v>
+      <c r="H57" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>3449</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
@@ -72272,7 +73532,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>3414</v>
+        <v>3450</v>
       </c>
       <c r="F58" s="7">
         <v>13</v>
@@ -72280,11 +73540,11 @@
       <c r="G58" s="7">
         <v>13</v>
       </c>
-      <c r="H58" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>3415</v>
+      <c r="H58" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>3451</v>
       </c>
       <c r="J58" s="7">
         <v>-1</v>
@@ -72313,7 +73573,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3416</v>
+        <v>3452</v>
       </c>
       <c r="F59" s="7">
         <v>13</v>
@@ -72321,11 +73581,11 @@
       <c r="G59" s="7">
         <v>13</v>
       </c>
-      <c r="H59" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>3417</v>
+      <c r="H59" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>3453</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -72354,7 +73614,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3418</v>
+        <v>3454</v>
       </c>
       <c r="F60" s="7">
         <v>13</v>
@@ -72362,11 +73622,11 @@
       <c r="G60" s="7">
         <v>13</v>
       </c>
-      <c r="H60" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>3419</v>
+      <c r="H60" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>3455</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
@@ -72395,7 +73655,7 @@
         <v>12</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3420</v>
+        <v>3456</v>
       </c>
       <c r="F61" s="7">
         <v>13</v>
@@ -72403,11 +73663,11 @@
       <c r="G61" s="7">
         <v>13</v>
       </c>
-      <c r="H61" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>3421</v>
+      <c r="H61" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>3457</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
@@ -72436,7 +73696,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3422</v>
+        <v>3458</v>
       </c>
       <c r="F62" s="7">
         <v>13</v>
@@ -72444,11 +73704,11 @@
       <c r="G62" s="7">
         <v>13</v>
       </c>
-      <c r="H62" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>3423</v>
+      <c r="H62" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>3459</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -72477,7 +73737,7 @@
         <v>14</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3424</v>
+        <v>3460</v>
       </c>
       <c r="F63" s="7">
         <v>13</v>
@@ -72485,11 +73745,11 @@
       <c r="G63" s="7">
         <v>13</v>
       </c>
-      <c r="H63" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>3425</v>
+      <c r="H63" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>3461</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
@@ -72518,7 +73778,7 @@
         <v>15</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3426</v>
+        <v>3462</v>
       </c>
       <c r="F64" s="7">
         <v>13</v>
@@ -72526,11 +73786,11 @@
       <c r="G64" s="7">
         <v>13</v>
       </c>
-      <c r="H64" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>3427</v>
+      <c r="H64" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>3463</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
@@ -72559,7 +73819,7 @@
         <v>16</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3428</v>
+        <v>3464</v>
       </c>
       <c r="F65" s="7">
         <v>13</v>
@@ -72567,11 +73827,11 @@
       <c r="G65" s="7">
         <v>13</v>
       </c>
-      <c r="H65" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>3429</v>
+      <c r="H65" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>3465</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
@@ -72600,7 +73860,7 @@
         <v>17</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3430</v>
+        <v>3466</v>
       </c>
       <c r="F66" s="7">
         <v>13</v>
@@ -72608,11 +73868,11 @@
       <c r="G66" s="7">
         <v>13</v>
       </c>
-      <c r="H66" s="25" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>3431</v>
+      <c r="H66" s="26" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>3467</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
@@ -72656,7 +73916,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3432</v>
+        <v>3468</v>
       </c>
       <c r="F68" s="7">
         <v>14</v>
@@ -72664,11 +73924,11 @@
       <c r="G68" s="7">
         <v>14</v>
       </c>
-      <c r="H68" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I68" s="25" t="s">
-        <v>3434</v>
+      <c r="H68" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>3470</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -72697,7 +73957,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3435</v>
+        <v>3471</v>
       </c>
       <c r="F69" s="7">
         <v>14</v>
@@ -72705,11 +73965,11 @@
       <c r="G69" s="7">
         <v>14</v>
       </c>
-      <c r="H69" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I69" s="25" t="s">
-        <v>3436</v>
+      <c r="H69" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>3472</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -72738,7 +73998,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3437</v>
+        <v>3473</v>
       </c>
       <c r="F70" s="7">
         <v>14</v>
@@ -72746,11 +74006,11 @@
       <c r="G70" s="7">
         <v>14</v>
       </c>
-      <c r="H70" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I70" s="25" t="s">
-        <v>3438</v>
+      <c r="H70" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>3474</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -72779,7 +74039,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3439</v>
+        <v>3475</v>
       </c>
       <c r="F71" s="7">
         <v>14</v>
@@ -72787,11 +74047,11 @@
       <c r="G71" s="7">
         <v>14</v>
       </c>
-      <c r="H71" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I71" s="25" t="s">
-        <v>3440</v>
+      <c r="H71" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>3476</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -72820,7 +74080,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3441</v>
+        <v>3477</v>
       </c>
       <c r="F72" s="7">
         <v>14</v>
@@ -72828,11 +74088,11 @@
       <c r="G72" s="7">
         <v>14</v>
       </c>
-      <c r="H72" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>3442</v>
+      <c r="H72" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>3478</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -72861,7 +74121,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>3443</v>
+        <v>3479</v>
       </c>
       <c r="F73" s="7">
         <v>14</v>
@@ -72869,11 +74129,11 @@
       <c r="G73" s="7">
         <v>14</v>
       </c>
-      <c r="H73" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>3444</v>
+      <c r="H73" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>3480</v>
       </c>
       <c r="J73" s="7">
         <v>-1</v>
@@ -72902,7 +74162,7 @@
         <v>7</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3445</v>
+        <v>3481</v>
       </c>
       <c r="F74" s="7">
         <v>14</v>
@@ -72910,11 +74170,11 @@
       <c r="G74" s="7">
         <v>14</v>
       </c>
-      <c r="H74" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I74" s="25" t="s">
-        <v>3446</v>
+      <c r="H74" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>3482</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
@@ -72943,7 +74203,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3447</v>
+        <v>3483</v>
       </c>
       <c r="F75" s="7">
         <v>14</v>
@@ -72951,11 +74211,11 @@
       <c r="G75" s="7">
         <v>14</v>
       </c>
-      <c r="H75" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>3448</v>
+      <c r="H75" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>3484</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
@@ -72984,7 +74244,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>3449</v>
+        <v>3485</v>
       </c>
       <c r="F76" s="7">
         <v>14</v>
@@ -72992,11 +74252,11 @@
       <c r="G76" s="7">
         <v>14</v>
       </c>
-      <c r="H76" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I76" s="25" t="s">
-        <v>3450</v>
+      <c r="H76" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>3486</v>
       </c>
       <c r="J76" s="7">
         <v>-1</v>
@@ -73025,7 +74285,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>3451</v>
+        <v>3487</v>
       </c>
       <c r="F77" s="7">
         <v>14</v>
@@ -73033,11 +74293,11 @@
       <c r="G77" s="7">
         <v>14</v>
       </c>
-      <c r="H77" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I77" s="25" t="s">
-        <v>3452</v>
+      <c r="H77" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>3488</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
@@ -73066,7 +74326,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>3453</v>
+        <v>3489</v>
       </c>
       <c r="F78" s="7">
         <v>14</v>
@@ -73074,11 +74334,11 @@
       <c r="G78" s="7">
         <v>14</v>
       </c>
-      <c r="H78" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I78" s="25" t="s">
-        <v>3454</v>
+      <c r="H78" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>3490</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
@@ -73107,7 +74367,7 @@
         <v>12</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3455</v>
+        <v>3491</v>
       </c>
       <c r="F79" s="7">
         <v>14</v>
@@ -73115,11 +74375,11 @@
       <c r="G79" s="7">
         <v>14</v>
       </c>
-      <c r="H79" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I79" s="25" t="s">
-        <v>3456</v>
+      <c r="H79" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>3492</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
@@ -73148,7 +74408,7 @@
         <v>13</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3457</v>
+        <v>3493</v>
       </c>
       <c r="F80" s="7">
         <v>14</v>
@@ -73156,11 +74416,11 @@
       <c r="G80" s="7">
         <v>14</v>
       </c>
-      <c r="H80" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I80" s="25" t="s">
-        <v>3458</v>
+      <c r="H80" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>3494</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
@@ -73189,7 +74449,7 @@
         <v>14</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3459</v>
+        <v>3495</v>
       </c>
       <c r="F81" s="7">
         <v>14</v>
@@ -73197,11 +74457,11 @@
       <c r="G81" s="7">
         <v>14</v>
       </c>
-      <c r="H81" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I81" s="25" t="s">
-        <v>3460</v>
+      <c r="H81" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>3496</v>
       </c>
       <c r="J81" s="7">
         <v>-1</v>
@@ -73230,7 +74490,7 @@
         <v>15</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3461</v>
+        <v>3497</v>
       </c>
       <c r="F82" s="7">
         <v>14</v>
@@ -73238,11 +74498,11 @@
       <c r="G82" s="7">
         <v>14</v>
       </c>
-      <c r="H82" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I82" s="25" t="s">
-        <v>3462</v>
+      <c r="H82" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>3498</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
@@ -73271,7 +74531,7 @@
         <v>16</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>3463</v>
+        <v>3499</v>
       </c>
       <c r="F83" s="7">
         <v>14</v>
@@ -73279,11 +74539,11 @@
       <c r="G83" s="7">
         <v>14</v>
       </c>
-      <c r="H83" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I83" s="25" t="s">
-        <v>3464</v>
+      <c r="H83" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>3500</v>
       </c>
       <c r="J83" s="7">
         <v>-1</v>
@@ -73312,7 +74572,7 @@
         <v>17</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>3465</v>
+        <v>3501</v>
       </c>
       <c r="F84" s="7">
         <v>14</v>
@@ -73320,11 +74580,11 @@
       <c r="G84" s="7">
         <v>14</v>
       </c>
-      <c r="H84" s="25" t="s">
-        <v>3433</v>
-      </c>
-      <c r="I84" s="25" t="s">
-        <v>3466</v>
+      <c r="H84" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>3502</v>
       </c>
       <c r="J84" s="7">
         <v>-1</v>
@@ -73383,7 +74643,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>3467</v>
+        <v>3503</v>
       </c>
       <c r="F87" s="7">
         <v>11</v>
@@ -73391,11 +74651,11 @@
       <c r="G87" s="7">
         <v>11</v>
       </c>
-      <c r="H87" s="25" t="s">
-        <v>3468</v>
-      </c>
-      <c r="I87" s="24" t="s">
-        <v>3469</v>
+      <c r="H87" s="26" t="s">
+        <v>3504</v>
+      </c>
+      <c r="I87" s="25" t="s">
+        <v>3505</v>
       </c>
       <c r="J87" s="7">
         <v>-1</v>
@@ -73424,7 +74684,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>3470</v>
+        <v>3506</v>
       </c>
       <c r="F88" s="7">
         <v>0</v>
@@ -73432,10 +74692,10 @@
       <c r="G88" s="7">
         <v>0</v>
       </c>
-      <c r="H88" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I88" s="25" t="s">
+      <c r="H88" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J88" s="7">
@@ -73465,7 +74725,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>3471</v>
+        <v>3507</v>
       </c>
       <c r="F89" s="7">
         <v>0</v>
@@ -73473,10 +74733,10 @@
       <c r="G89" s="7">
         <v>0</v>
       </c>
-      <c r="H89" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I89" s="25" t="s">
+      <c r="H89" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J89" s="7">
@@ -73506,7 +74766,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>3472</v>
+        <v>3508</v>
       </c>
       <c r="F90" s="7">
         <v>0</v>
@@ -73514,10 +74774,10 @@
       <c r="G90" s="7">
         <v>0</v>
       </c>
-      <c r="H90" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="25" t="s">
+      <c r="H90" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J90" s="7">
@@ -73547,7 +74807,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>3473</v>
+        <v>3509</v>
       </c>
       <c r="F91" s="7">
         <v>0</v>
@@ -73555,10 +74815,10 @@
       <c r="G91" s="7">
         <v>0</v>
       </c>
-      <c r="H91" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I91" s="25" t="s">
+      <c r="H91" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J91" s="7">
@@ -73588,7 +74848,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>3474</v>
+        <v>3510</v>
       </c>
       <c r="F92" s="7">
         <v>0</v>
@@ -73596,10 +74856,10 @@
       <c r="G92" s="7">
         <v>0</v>
       </c>
-      <c r="H92" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="25" t="s">
+      <c r="H92" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J92" s="7">
@@ -73629,7 +74889,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>3475</v>
+        <v>3511</v>
       </c>
       <c r="F93" s="7">
         <v>0</v>
@@ -73637,10 +74897,10 @@
       <c r="G93" s="7">
         <v>0</v>
       </c>
-      <c r="H93" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I93" s="25" t="s">
+      <c r="H93" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J93" s="7">
@@ -73670,7 +74930,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>3476</v>
+        <v>3512</v>
       </c>
       <c r="F94" s="7">
         <v>0</v>
@@ -73678,10 +74938,10 @@
       <c r="G94" s="7">
         <v>0</v>
       </c>
-      <c r="H94" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I94" s="25" t="s">
+      <c r="H94" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J94" s="7">
@@ -73711,7 +74971,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>3477</v>
+        <v>3513</v>
       </c>
       <c r="F95" s="7">
         <v>0</v>
@@ -73719,10 +74979,10 @@
       <c r="G95" s="7">
         <v>0</v>
       </c>
-      <c r="H95" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" s="25" t="s">
+      <c r="H95" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J95" s="7">

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -70144,7 +70144,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -70303,7 +70303,7 @@
         <v>21105801</v>
       </c>
       <c r="D6" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>3315</v>
@@ -70344,7 +70344,7 @@
         <v>21105802</v>
       </c>
       <c r="D7" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>3318</v>
@@ -70385,7 +70385,7 @@
         <v>21105803</v>
       </c>
       <c r="D8" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>3320</v>
@@ -70426,7 +70426,7 @@
         <v>21105804</v>
       </c>
       <c r="D9" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>3321</v>
@@ -70467,7 +70467,7 @@
         <v>21105805</v>
       </c>
       <c r="D10" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>3322</v>
@@ -70508,7 +70508,7 @@
         <v>21105807</v>
       </c>
       <c r="D11" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>3323</v>
@@ -70549,7 +70549,7 @@
         <v>21105809</v>
       </c>
       <c r="D12" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>3324</v>
@@ -70590,7 +70590,7 @@
         <v>21105810</v>
       </c>
       <c r="D13" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>3326</v>
@@ -70631,7 +70631,7 @@
         <v>22105801</v>
       </c>
       <c r="D14" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>3327</v>
@@ -70672,7 +70672,7 @@
         <v>22105802</v>
       </c>
       <c r="D15" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>3330</v>
@@ -70713,7 +70713,7 @@
         <v>22105803</v>
       </c>
       <c r="D16" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>3331</v>
@@ -70754,7 +70754,7 @@
         <v>22105804</v>
       </c>
       <c r="D17" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>3333</v>
@@ -70795,7 +70795,7 @@
         <v>22105805</v>
       </c>
       <c r="D18" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>3334</v>
@@ -70836,7 +70836,7 @@
         <v>22105807</v>
       </c>
       <c r="D19" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>3335</v>
@@ -70877,7 +70877,7 @@
         <v>22105809</v>
       </c>
       <c r="D20" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>3336</v>
@@ -70918,7 +70918,7 @@
         <v>22105810</v>
       </c>
       <c r="D21" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>3338</v>
@@ -70959,7 +70959,7 @@
         <v>23105801</v>
       </c>
       <c r="D22" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>3339</v>
@@ -71000,7 +71000,7 @@
         <v>23105802</v>
       </c>
       <c r="D23" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>3342</v>
@@ -71041,7 +71041,7 @@
         <v>23105803</v>
       </c>
       <c r="D24" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>3343</v>
@@ -71082,7 +71082,7 @@
         <v>23105804</v>
       </c>
       <c r="D25" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>3345</v>
@@ -71123,7 +71123,7 @@
         <v>23105805</v>
       </c>
       <c r="D26" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>3346</v>
@@ -71164,7 +71164,7 @@
         <v>23105807</v>
       </c>
       <c r="D27" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>3347</v>
@@ -71205,7 +71205,7 @@
         <v>23105809</v>
       </c>
       <c r="D28" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>3348</v>
@@ -71246,7 +71246,7 @@
         <v>23105810</v>
       </c>
       <c r="D29" s="16">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>3350</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19063" uniqueCount="3515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19063" uniqueCount="3516">
   <si>
     <t>_id</t>
   </si>
@@ -10099,18 +10099,21 @@
     <t>2,5</t>
   </si>
   <si>
-    <t>1000000000,10000000000</t>
+    <t>2000000000,20000000000</t>
   </si>
   <si>
     <t>神龙战甲</t>
   </si>
   <si>
-    <t>12000000000,500000000</t>
+    <t>24000000000,1000000000</t>
   </si>
   <si>
     <t>神龙战链</t>
   </si>
   <si>
+    <t>12000000000,800000000</t>
+  </si>
+  <si>
     <t>神龙战盔</t>
   </si>
   <si>
@@ -10123,7 +10126,7 @@
     <t>神龙战带</t>
   </si>
   <si>
-    <t>6000000000,500000000,400000000</t>
+    <t>12000000000,1000000000,800000000</t>
   </si>
   <si>
     <t>神龙战靴</t>
@@ -10135,7 +10138,7 @@
     <t>3,5</t>
   </si>
   <si>
-    <t>1500000000,5000000000</t>
+    <t>3000000000,10000000000</t>
   </si>
   <si>
     <t>神凰法衣</t>
@@ -10144,7 +10147,7 @@
     <t>神凰法链</t>
   </si>
   <si>
-    <t>4000000000,600000000</t>
+    <t>8000000000,1200000000</t>
   </si>
   <si>
     <t>神凰法帽</t>
@@ -10159,7 +10162,7 @@
     <t>神凰法带</t>
   </si>
   <si>
-    <t>4000000000,500000000,600000000</t>
+    <t>8000000000,1000000000,1200000000</t>
   </si>
   <si>
     <t>神凰法靴</t>
@@ -10171,7 +10174,7 @@
     <t>4,5</t>
   </si>
   <si>
-    <t>1200000000,8000000000</t>
+    <t>2400000000,16000000000</t>
   </si>
   <si>
     <t>神麟道袍</t>
@@ -10180,7 +10183,7 @@
     <t>神麟道链</t>
   </si>
   <si>
-    <t>5000000000,500000000</t>
+    <t>10000000000,1000000000</t>
   </si>
   <si>
     <t>神麟道冠</t>
@@ -10195,7 +10198,7 @@
     <t>神麟道带</t>
   </si>
   <si>
-    <t>5000000000,500000000,500000000</t>
+    <t>10000000000,1000000000,1000000000</t>
   </si>
   <si>
     <t>神麟道靴</t>
@@ -10893,12 +10896,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -11739,7 +11742,7 @@
   <sheetPr/>
   <dimension ref="A1:P1325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -69998,8 +70001,8 @@
   <sheetPr/>
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P5"/>
+    <sheetView topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -74422,8 +74425,8 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -74699,7 +74702,7 @@
         <v>468</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>3280</v>
+        <v>3322</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>32</v>
@@ -74731,7 +74734,7 @@
         <v>750</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>684</v>
@@ -74743,7 +74746,7 @@
         <v>301</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>3280</v>
+        <v>3322</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>32</v>
@@ -74775,7 +74778,7 @@
         <v>750</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>795</v>
@@ -74787,7 +74790,7 @@
         <v>468</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>3280</v>
+        <v>3322</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>32</v>
@@ -74819,7 +74822,7 @@
         <v>750</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>907</v>
@@ -74831,7 +74834,7 @@
         <v>468</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>3280</v>
+        <v>3322</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>32</v>
@@ -74863,7 +74866,7 @@
         <v>750</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>1019</v>
@@ -74875,7 +74878,7 @@
         <v>1020</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>32</v>
@@ -74907,7 +74910,7 @@
         <v>750</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>27</v>
@@ -74919,7 +74922,7 @@
         <v>1020</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>32</v>
@@ -74951,7 +74954,7 @@
         <v>750</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>29</v>
@@ -74960,10 +74963,10 @@
         <v>29</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>32</v>
@@ -74995,7 +74998,7 @@
         <v>750</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>30</v>
@@ -75039,7 +75042,7 @@
         <v>750</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>467</v>
@@ -75051,7 +75054,7 @@
         <v>1516</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>32</v>
@@ -75083,7 +75086,7 @@
         <v>750</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>684</v>
@@ -75095,7 +75098,7 @@
         <v>301</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>32</v>
@@ -75127,7 +75130,7 @@
         <v>750</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>795</v>
@@ -75139,7 +75142,7 @@
         <v>1516</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>32</v>
@@ -75171,7 +75174,7 @@
         <v>750</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>907</v>
@@ -75183,7 +75186,7 @@
         <v>1516</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>32</v>
@@ -75215,7 +75218,7 @@
         <v>750</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>1019</v>
@@ -75227,7 +75230,7 @@
         <v>1957</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>32</v>
@@ -75259,7 +75262,7 @@
         <v>750</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>27</v>
@@ -75271,7 +75274,7 @@
         <v>1957</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>32</v>
@@ -75303,7 +75306,7 @@
         <v>750</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>29</v>
@@ -75312,10 +75315,10 @@
         <v>29</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>32</v>
@@ -75347,7 +75350,7 @@
         <v>750</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>30</v>
@@ -75391,7 +75394,7 @@
         <v>750</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>467</v>
@@ -75403,7 +75406,7 @@
         <v>2398</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>32</v>
@@ -75435,7 +75438,7 @@
         <v>750</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>684</v>
@@ -75447,7 +75450,7 @@
         <v>301</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>32</v>
@@ -75479,7 +75482,7 @@
         <v>750</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>795</v>
@@ -75491,7 +75494,7 @@
         <v>2398</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>32</v>
@@ -75523,7 +75526,7 @@
         <v>750</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>907</v>
@@ -75535,7 +75538,7 @@
         <v>2398</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>32</v>
@@ -75567,7 +75570,7 @@
         <v>750</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>1019</v>
@@ -75579,7 +75582,7 @@
         <v>2839</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>32</v>
@@ -75611,7 +75614,7 @@
         <v>750</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>27</v>
@@ -75623,7 +75626,7 @@
         <v>2839</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>32</v>
@@ -75832,7 +75835,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>29</v>
@@ -75841,10 +75844,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="J6" s="7">
         <v>-1</v>
@@ -75876,7 +75879,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>30</v>
@@ -75920,7 +75923,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>467</v>
@@ -75929,10 +75932,10 @@
         <v>467</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="J8" s="7">
         <v>-1</v>
@@ -75964,7 +75967,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>684</v>
@@ -75976,7 +75979,7 @@
         <v>301</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="J9" s="7">
         <v>-1</v>
@@ -76008,7 +76011,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>795</v>
@@ -76017,10 +76020,10 @@
         <v>796</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="J10" s="7">
         <v>-1</v>
@@ -76052,7 +76055,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>907</v>
@@ -76064,7 +76067,7 @@
         <v>301</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="J11" s="7">
         <v>-1</v>
@@ -76096,7 +76099,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1019</v>
@@ -76105,10 +76108,10 @@
         <v>1019</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="J12" s="7">
         <v>-1</v>
@@ -76140,7 +76143,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>27</v>
@@ -76152,7 +76155,7 @@
         <v>301</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="J13" s="7">
         <v>-1</v>
@@ -76184,7 +76187,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
@@ -76193,10 +76196,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="J14" s="7">
         <v>-1</v>
@@ -76228,7 +76231,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
@@ -76237,10 +76240,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="J15" s="7">
         <v>-1</v>
@@ -76272,7 +76275,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="F16" s="7">
         <v>11</v>
@@ -76281,10 +76284,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="J16" s="7">
         <v>-1</v>
@@ -76316,7 +76319,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="F17" s="7">
         <v>11</v>
@@ -76325,10 +76328,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="J17" s="7">
         <v>-1</v>
@@ -76360,7 +76363,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="F18" s="7">
         <v>11</v>
@@ -76369,10 +76372,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="J18" s="7">
         <v>-1</v>
@@ -76404,7 +76407,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -76413,10 +76416,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="J19" s="7">
         <v>-1</v>
@@ -76448,7 +76451,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="F20" s="7">
         <v>11</v>
@@ -76457,10 +76460,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="J20" s="7">
         <v>-1</v>
@@ -76492,7 +76495,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="F21" s="7">
         <v>11</v>
@@ -76501,10 +76504,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="J21" s="7">
         <v>-1</v>
@@ -76536,7 +76539,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="F22" s="7">
         <v>11</v>
@@ -76545,10 +76548,10 @@
         <v>11</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="J22" s="7">
         <v>-1</v>
@@ -76580,7 +76583,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
@@ -76589,10 +76592,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="J23" s="7">
         <v>-1</v>
@@ -76624,7 +76627,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F24" s="7">
         <v>11</v>
@@ -76633,10 +76636,10 @@
         <v>11</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="J24" s="7">
         <v>-1</v>
@@ -76668,7 +76671,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F25" s="7">
         <v>11</v>
@@ -76677,10 +76680,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="J25" s="7">
         <v>-1</v>
@@ -76712,7 +76715,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
@@ -76721,10 +76724,10 @@
         <v>11</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="J26" s="7">
         <v>-1</v>
@@ -76756,7 +76759,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="F27" s="7">
         <v>11</v>
@@ -76765,10 +76768,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
@@ -76800,7 +76803,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="F28" s="7">
         <v>11</v>
@@ -76809,10 +76812,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="J28" s="7">
         <v>-1</v>
@@ -76844,7 +76847,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="F29" s="7">
         <v>11</v>
@@ -76853,10 +76856,10 @@
         <v>11</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -76888,7 +76891,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="F30" s="7">
         <v>11</v>
@@ -76897,10 +76900,10 @@
         <v>11</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="J30" s="7">
         <v>-1</v>
@@ -76947,7 +76950,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="F32" s="7">
         <v>12</v>
@@ -76956,10 +76959,10 @@
         <v>12</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
@@ -76991,7 +76994,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="F33" s="7">
         <v>12</v>
@@ -77000,10 +77003,10 @@
         <v>12</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="J33" s="7">
         <v>-1</v>
@@ -77035,7 +77038,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -77044,10 +77047,10 @@
         <v>12</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
@@ -77079,7 +77082,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -77088,10 +77091,10 @@
         <v>12</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -77123,7 +77126,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -77132,10 +77135,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
@@ -77167,7 +77170,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -77176,10 +77179,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
@@ -77211,7 +77214,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -77220,10 +77223,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -77255,7 +77258,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -77264,10 +77267,10 @@
         <v>12</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
@@ -77299,7 +77302,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="F40" s="7">
         <v>12</v>
@@ -77308,10 +77311,10 @@
         <v>12</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
@@ -77343,7 +77346,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="F41" s="7">
         <v>12</v>
@@ -77352,10 +77355,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
@@ -77387,7 +77390,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="F42" s="7">
         <v>12</v>
@@ -77396,10 +77399,10 @@
         <v>12</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
@@ -77431,7 +77434,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="F43" s="7">
         <v>12</v>
@@ -77440,10 +77443,10 @@
         <v>12</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="J43" s="7">
         <v>-1</v>
@@ -77475,7 +77478,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="F44" s="7">
         <v>12</v>
@@ -77484,10 +77487,10 @@
         <v>12</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
@@ -77519,7 +77522,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="F45" s="7">
         <v>12</v>
@@ -77528,10 +77531,10 @@
         <v>12</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
@@ -77563,7 +77566,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="F46" s="7">
         <v>12</v>
@@ -77572,10 +77575,10 @@
         <v>12</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
@@ -77607,7 +77610,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="F47" s="7">
         <v>12</v>
@@ -77616,10 +77619,10 @@
         <v>12</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -77651,7 +77654,7 @@
         <v>17</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="F48" s="7">
         <v>12</v>
@@ -77660,10 +77663,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -77710,7 +77713,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="F50" s="7">
         <v>13</v>
@@ -77719,10 +77722,10 @@
         <v>13</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -77754,7 +77757,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="F51" s="7">
         <v>13</v>
@@ -77763,10 +77766,10 @@
         <v>13</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -77798,7 +77801,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="F52" s="7">
         <v>13</v>
@@ -77807,10 +77810,10 @@
         <v>13</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -77842,7 +77845,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="F53" s="7">
         <v>13</v>
@@ -77851,10 +77854,10 @@
         <v>13</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="J53" s="7">
         <v>-1</v>
@@ -77886,7 +77889,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="F54" s="7">
         <v>13</v>
@@ -77895,10 +77898,10 @@
         <v>13</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
@@ -77930,7 +77933,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="F55" s="7">
         <v>13</v>
@@ -77939,10 +77942,10 @@
         <v>13</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
@@ -77974,7 +77977,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="F56" s="7">
         <v>13</v>
@@ -77983,10 +77986,10 @@
         <v>13</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -78018,7 +78021,7 @@
         <v>8</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="F57" s="7">
         <v>13</v>
@@ -78027,10 +78030,10 @@
         <v>13</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
@@ -78062,7 +78065,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="F58" s="7">
         <v>13</v>
@@ -78071,10 +78074,10 @@
         <v>13</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="J58" s="7">
         <v>-1</v>
@@ -78106,7 +78109,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="F59" s="7">
         <v>13</v>
@@ -78115,10 +78118,10 @@
         <v>13</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -78150,7 +78153,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="F60" s="7">
         <v>13</v>
@@ -78159,10 +78162,10 @@
         <v>13</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
@@ -78194,7 +78197,7 @@
         <v>12</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="F61" s="7">
         <v>13</v>
@@ -78203,10 +78206,10 @@
         <v>13</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
@@ -78238,7 +78241,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="F62" s="7">
         <v>13</v>
@@ -78247,10 +78250,10 @@
         <v>13</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -78282,7 +78285,7 @@
         <v>14</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="F63" s="7">
         <v>13</v>
@@ -78291,10 +78294,10 @@
         <v>13</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
@@ -78326,7 +78329,7 @@
         <v>15</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="F64" s="7">
         <v>13</v>
@@ -78335,10 +78338,10 @@
         <v>13</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
@@ -78370,7 +78373,7 @@
         <v>16</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="F65" s="7">
         <v>13</v>
@@ -78379,10 +78382,10 @@
         <v>13</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
@@ -78414,7 +78417,7 @@
         <v>17</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="F66" s="7">
         <v>13</v>
@@ -78423,10 +78426,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
@@ -78473,7 +78476,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="F68" s="7">
         <v>14</v>
@@ -78482,10 +78485,10 @@
         <v>14</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -78517,7 +78520,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="F69" s="7">
         <v>14</v>
@@ -78526,10 +78529,10 @@
         <v>14</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -78561,7 +78564,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="F70" s="7">
         <v>14</v>
@@ -78570,10 +78573,10 @@
         <v>14</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -78605,7 +78608,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="F71" s="7">
         <v>14</v>
@@ -78614,10 +78617,10 @@
         <v>14</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -78649,7 +78652,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="F72" s="7">
         <v>14</v>
@@ -78658,10 +78661,10 @@
         <v>14</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -78693,7 +78696,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="F73" s="7">
         <v>14</v>
@@ -78702,10 +78705,10 @@
         <v>14</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="J73" s="7">
         <v>-1</v>
@@ -78737,7 +78740,7 @@
         <v>7</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="F74" s="7">
         <v>14</v>
@@ -78746,10 +78749,10 @@
         <v>14</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
@@ -78781,7 +78784,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="F75" s="7">
         <v>14</v>
@@ -78790,10 +78793,10 @@
         <v>14</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
@@ -78825,7 +78828,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="F76" s="7">
         <v>14</v>
@@ -78834,10 +78837,10 @@
         <v>14</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="J76" s="7">
         <v>-1</v>
@@ -78869,7 +78872,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="F77" s="7">
         <v>14</v>
@@ -78878,10 +78881,10 @@
         <v>14</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
@@ -78913,7 +78916,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="F78" s="7">
         <v>14</v>
@@ -78922,10 +78925,10 @@
         <v>14</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
@@ -78957,7 +78960,7 @@
         <v>12</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="F79" s="7">
         <v>14</v>
@@ -78966,10 +78969,10 @@
         <v>14</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
@@ -79001,7 +79004,7 @@
         <v>13</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="F80" s="7">
         <v>14</v>
@@ -79010,10 +79013,10 @@
         <v>14</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
@@ -79045,7 +79048,7 @@
         <v>14</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="F81" s="7">
         <v>14</v>
@@ -79054,10 +79057,10 @@
         <v>14</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="J81" s="7">
         <v>-1</v>
@@ -79089,7 +79092,7 @@
         <v>15</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="F82" s="7">
         <v>14</v>
@@ -79098,10 +79101,10 @@
         <v>14</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
@@ -79133,7 +79136,7 @@
         <v>16</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="F83" s="7">
         <v>14</v>
@@ -79142,10 +79145,10 @@
         <v>14</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="J83" s="7">
         <v>-1</v>
@@ -79177,7 +79180,7 @@
         <v>17</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="F84" s="7">
         <v>14</v>
@@ -79186,10 +79189,10 @@
         <v>14</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="J84" s="7">
         <v>-1</v>
@@ -79251,7 +79254,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="F87" s="7">
         <v>11</v>
@@ -79260,10 +79263,10 @@
         <v>11</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="J87" s="7">
         <v>-1</v>
@@ -79295,7 +79298,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="F88" s="7">
         <v>0</v>
@@ -79339,7 +79342,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="F89" s="7">
         <v>0</v>
@@ -79383,7 +79386,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="F90" s="7">
         <v>0</v>
@@ -79427,7 +79430,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="F91" s="7">
         <v>0</v>
@@ -79471,7 +79474,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="F92" s="7">
         <v>0</v>
@@ -79515,7 +79518,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="F93" s="7">
         <v>0</v>
@@ -79559,7 +79562,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="F94" s="7">
         <v>0</v>
@@ -79603,7 +79606,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="F95" s="7">
         <v>0</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -10096,7 +10096,7 @@
     <t>神龙战刃</t>
   </si>
   <si>
-    <t>2,5</t>
+    <t>2,1</t>
   </si>
   <si>
     <t>2000000000,20000000000</t>
@@ -10135,7 +10135,7 @@
     <t>神凰法杖</t>
   </si>
   <si>
-    <t>3,5</t>
+    <t>3,1</t>
   </si>
   <si>
     <t>3000000000,10000000000</t>
@@ -10171,7 +10171,7 @@
     <t>神麟道剑</t>
   </si>
   <si>
-    <t>4,5</t>
+    <t>4,1</t>
   </si>
   <si>
     <t>2400000000,16000000000</t>
@@ -74426,7 +74426,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -75666,7 +75666,7 @@
   <sheetPr/>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B78" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B70" workbookViewId="0">
       <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19063" uniqueCount="3516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19063" uniqueCount="3526">
   <si>
     <t>_id</t>
   </si>
@@ -9916,6 +9916,9 @@
     <t>900000000</t>
   </si>
   <si>
+    <t>15000000000</t>
+  </si>
+  <si>
     <t>21005802</t>
   </si>
   <si>
@@ -9934,6 +9937,9 @@
     <t>5000000000,300000000</t>
   </si>
   <si>
+    <t>7500000000</t>
+  </si>
+  <si>
     <t>21005804</t>
   </si>
   <si>
@@ -10345,6 +10351,18 @@
     <t>250,250,250,250</t>
   </si>
   <si>
+    <t>斗笠十八阶</t>
+  </si>
+  <si>
+    <t>290,290,290,290</t>
+  </si>
+  <si>
+    <t>斗笠十九阶</t>
+  </si>
+  <si>
+    <t>350,350,350,350</t>
+  </si>
+  <si>
     <t>护盾一阶</t>
   </si>
   <si>
@@ -10450,6 +10468,18 @@
     <t>250,250</t>
   </si>
   <si>
+    <t>护盾十八阶</t>
+  </si>
+  <si>
+    <t>290,290</t>
+  </si>
+  <si>
+    <t>护盾十九阶</t>
+  </si>
+  <si>
+    <t>350,350</t>
+  </si>
+  <si>
     <t>神符一阶</t>
   </si>
   <si>
@@ -10555,6 +10585,18 @@
     <t>25,25,250,250,250</t>
   </si>
   <si>
+    <t>神符十八阶</t>
+  </si>
+  <si>
+    <t>29,29,290,290,290</t>
+  </si>
+  <si>
+    <t>神符十九阶</t>
+  </si>
+  <si>
+    <t>35,35,350,350,350</t>
+  </si>
+  <si>
     <t>魔石一阶</t>
   </si>
   <si>
@@ -10660,6 +10702,18 @@
     <t>25,250,5</t>
   </si>
   <si>
+    <t>魔石十八阶</t>
+  </si>
+  <si>
+    <t>29,290,5</t>
+  </si>
+  <si>
+    <t>魔石十九阶</t>
+  </si>
+  <si>
+    <t>35,350,6</t>
+  </si>
+  <si>
     <t>测试斗笠</t>
   </si>
   <si>
@@ -10667,30 +10721,6 @@
   </si>
   <si>
     <t>200,200,200,200,500,500</t>
-  </si>
-  <si>
-    <t>百年魂环</t>
-  </si>
-  <si>
-    <t>千年魂环</t>
-  </si>
-  <si>
-    <t>万年魂环</t>
-  </si>
-  <si>
-    <t>十万年魂环</t>
-  </si>
-  <si>
-    <t>百万年魂环</t>
-  </si>
-  <si>
-    <t>千万年魂环</t>
-  </si>
-  <si>
-    <t>亿年魂环</t>
-  </si>
-  <si>
-    <t>十亿年魂环</t>
   </si>
 </sst>
 </file>
@@ -70001,8 +70031,8 @@
   <sheetPr/>
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="E73" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -73388,7 +73418,7 @@
         <v>32</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>3062</v>
+        <v>3257</v>
       </c>
       <c r="O79" s="17" t="s">
         <v>29</v>
@@ -73399,13 +73429,13 @@
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C80" s="2" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="D80" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="F80" s="17" t="s">
         <v>30</v>
@@ -73417,7 +73447,7 @@
         <v>301</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="J80" s="17" t="s">
         <v>32</v>
@@ -73431,8 +73461,8 @@
       <c r="M80" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N80" s="17" t="s">
-        <v>3062</v>
+      <c r="N80" s="23" t="s">
+        <v>3257</v>
       </c>
       <c r="O80" s="17" t="s">
         <v>29</v>
@@ -73443,13 +73473,13 @@
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C81" s="2" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="D81" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>467</v>
@@ -73461,7 +73491,7 @@
         <v>468</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="J81" s="17" t="s">
         <v>32</v>
@@ -73475,8 +73505,8 @@
       <c r="M81" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N81" s="17" t="s">
-        <v>3069</v>
+      <c r="N81" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O81" s="17" t="s">
         <v>29</v>
@@ -73487,13 +73517,13 @@
     </row>
     <row r="82" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C82" s="2" t="s">
-        <v>3263</v>
+        <v>3265</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>3264</v>
+        <v>3266</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>684</v>
@@ -73505,7 +73535,7 @@
         <v>301</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="J82" s="17" t="s">
         <v>32</v>
@@ -73519,8 +73549,8 @@
       <c r="M82" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N82" s="17" t="s">
-        <v>3069</v>
+      <c r="N82" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O82" s="17" t="s">
         <v>29</v>
@@ -73531,13 +73561,13 @@
     </row>
     <row r="83" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C83" s="2" t="s">
-        <v>3266</v>
+        <v>3268</v>
       </c>
       <c r="D83" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>795</v>
@@ -73549,7 +73579,7 @@
         <v>468</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="J83" s="17" t="s">
         <v>32</v>
@@ -73563,8 +73593,8 @@
       <c r="M83" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N83" s="17" t="s">
-        <v>3069</v>
+      <c r="N83" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O83" s="17" t="s">
         <v>29</v>
@@ -73575,13 +73605,13 @@
     </row>
     <row r="84" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C84" s="2" t="s">
-        <v>3268</v>
+        <v>3270</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>907</v>
@@ -73593,7 +73623,7 @@
         <v>468</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="J84" s="17" t="s">
         <v>32</v>
@@ -73607,8 +73637,8 @@
       <c r="M84" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N84" s="17" t="s">
-        <v>3069</v>
+      <c r="N84" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O84" s="17" t="s">
         <v>29</v>
@@ -73619,13 +73649,13 @@
     </row>
     <row r="85" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C85" s="2" t="s">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>1019</v>
@@ -73637,7 +73667,7 @@
         <v>1020</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>3272</v>
+        <v>3274</v>
       </c>
       <c r="J85" s="17" t="s">
         <v>32</v>
@@ -73651,8 +73681,8 @@
       <c r="M85" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N85" s="17" t="s">
-        <v>3069</v>
+      <c r="N85" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O85" s="17" t="s">
         <v>29</v>
@@ -73663,13 +73693,13 @@
     </row>
     <row r="86" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C86" s="2" t="s">
-        <v>3273</v>
+        <v>3275</v>
       </c>
       <c r="D86" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>27</v>
@@ -73681,7 +73711,7 @@
         <v>1020</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>3272</v>
+        <v>3274</v>
       </c>
       <c r="J86" s="17" t="s">
         <v>32</v>
@@ -73695,8 +73725,8 @@
       <c r="M86" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N86" s="17" t="s">
-        <v>3069</v>
+      <c r="N86" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O86" s="17" t="s">
         <v>29</v>
@@ -73707,13 +73737,13 @@
     </row>
     <row r="87" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C87" s="2" t="s">
-        <v>3275</v>
+        <v>3277</v>
       </c>
       <c r="D87" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>3276</v>
+        <v>3278</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>29</v>
@@ -73725,7 +73755,7 @@
         <v>467</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="J87" s="17" t="s">
         <v>32</v>
@@ -73739,8 +73769,8 @@
       <c r="M87" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N87" s="17" t="s">
-        <v>3062</v>
+      <c r="N87" s="23" t="s">
+        <v>3257</v>
       </c>
       <c r="O87" s="17" t="s">
         <v>30</v>
@@ -73751,13 +73781,13 @@
     </row>
     <row r="88" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C88" s="2" t="s">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>3279</v>
+        <v>3281</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>30</v>
@@ -73769,7 +73799,7 @@
         <v>301</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="J88" s="17" t="s">
         <v>32</v>
@@ -73783,8 +73813,8 @@
       <c r="M88" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N88" s="17" t="s">
-        <v>3062</v>
+      <c r="N88" s="23" t="s">
+        <v>3257</v>
       </c>
       <c r="O88" s="17" t="s">
         <v>30</v>
@@ -73795,13 +73825,13 @@
     </row>
     <row r="89" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C89" s="2" t="s">
-        <v>3281</v>
+        <v>3283</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>467</v>
@@ -73813,7 +73843,7 @@
         <v>1516</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="J89" s="17" t="s">
         <v>32</v>
@@ -73827,8 +73857,8 @@
       <c r="M89" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N89" s="17" t="s">
-        <v>3069</v>
+      <c r="N89" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O89" s="17" t="s">
         <v>30</v>
@@ -73839,13 +73869,13 @@
     </row>
     <row r="90" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C90" s="2" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="F90" s="17" t="s">
         <v>684</v>
@@ -73857,7 +73887,7 @@
         <v>301</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="J90" s="17" t="s">
         <v>32</v>
@@ -73871,8 +73901,8 @@
       <c r="M90" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N90" s="17" t="s">
-        <v>3069</v>
+      <c r="N90" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O90" s="17" t="s">
         <v>30</v>
@@ -73883,13 +73913,13 @@
     </row>
     <row r="91" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C91" s="2" t="s">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="F91" s="17" t="s">
         <v>795</v>
@@ -73901,7 +73931,7 @@
         <v>1516</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="J91" s="17" t="s">
         <v>32</v>
@@ -73915,8 +73945,8 @@
       <c r="M91" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N91" s="17" t="s">
-        <v>3069</v>
+      <c r="N91" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O91" s="17" t="s">
         <v>30</v>
@@ -73927,13 +73957,13 @@
     </row>
     <row r="92" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C92" s="2" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>907</v>
@@ -73945,7 +73975,7 @@
         <v>1516</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="J92" s="17" t="s">
         <v>32</v>
@@ -73959,8 +73989,8 @@
       <c r="M92" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N92" s="17" t="s">
-        <v>3069</v>
+      <c r="N92" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O92" s="17" t="s">
         <v>30</v>
@@ -73971,13 +74001,13 @@
     </row>
     <row r="93" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C93" s="2" t="s">
-        <v>3291</v>
+        <v>3293</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>1019</v>
@@ -73989,7 +74019,7 @@
         <v>1957</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="J93" s="17" t="s">
         <v>32</v>
@@ -74003,8 +74033,8 @@
       <c r="M93" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N93" s="17" t="s">
-        <v>3069</v>
+      <c r="N93" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O93" s="17" t="s">
         <v>30</v>
@@ -74015,13 +74045,13 @@
     </row>
     <row r="94" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C94" s="2" t="s">
-        <v>3294</v>
+        <v>3296</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>3295</v>
+        <v>3297</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>27</v>
@@ -74033,7 +74063,7 @@
         <v>1957</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="J94" s="17" t="s">
         <v>32</v>
@@ -74047,8 +74077,8 @@
       <c r="M94" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N94" s="17" t="s">
-        <v>3069</v>
+      <c r="N94" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O94" s="17" t="s">
         <v>30</v>
@@ -74059,13 +74089,13 @@
     </row>
     <row r="95" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C95" s="2" t="s">
-        <v>3296</v>
+        <v>3298</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>3297</v>
+        <v>3299</v>
       </c>
       <c r="F95" s="17" t="s">
         <v>29</v>
@@ -74077,7 +74107,7 @@
         <v>684</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="J95" s="17" t="s">
         <v>32</v>
@@ -74091,8 +74121,8 @@
       <c r="M95" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N95" s="17" t="s">
-        <v>3062</v>
+      <c r="N95" s="23" t="s">
+        <v>3257</v>
       </c>
       <c r="O95" s="17" t="s">
         <v>467</v>
@@ -74103,13 +74133,13 @@
     </row>
     <row r="96" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C96" s="2" t="s">
-        <v>3299</v>
+        <v>3301</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>3300</v>
+        <v>3302</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>30</v>
@@ -74121,7 +74151,7 @@
         <v>301</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="J96" s="17" t="s">
         <v>32</v>
@@ -74135,8 +74165,8 @@
       <c r="M96" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N96" s="17" t="s">
-        <v>3062</v>
+      <c r="N96" s="23" t="s">
+        <v>3257</v>
       </c>
       <c r="O96" s="17" t="s">
         <v>467</v>
@@ -74147,13 +74177,13 @@
     </row>
     <row r="97" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C97" s="2" t="s">
-        <v>3302</v>
+        <v>3304</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>467</v>
@@ -74165,7 +74195,7 @@
         <v>2398</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="J97" s="17" t="s">
         <v>32</v>
@@ -74179,8 +74209,8 @@
       <c r="M97" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N97" s="17" t="s">
-        <v>3069</v>
+      <c r="N97" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O97" s="17" t="s">
         <v>467</v>
@@ -74191,13 +74221,13 @@
     </row>
     <row r="98" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C98" s="2" t="s">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>3306</v>
+        <v>3308</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>684</v>
@@ -74209,7 +74239,7 @@
         <v>301</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="J98" s="17" t="s">
         <v>32</v>
@@ -74223,8 +74253,8 @@
       <c r="M98" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N98" s="17" t="s">
-        <v>3069</v>
+      <c r="N98" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O98" s="17" t="s">
         <v>467</v>
@@ -74235,13 +74265,13 @@
     </row>
     <row r="99" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C99" s="2" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
       <c r="D99" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>3308</v>
+        <v>3310</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>795</v>
@@ -74253,7 +74283,7 @@
         <v>2398</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="J99" s="17" t="s">
         <v>32</v>
@@ -74267,8 +74297,8 @@
       <c r="M99" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N99" s="17" t="s">
-        <v>3069</v>
+      <c r="N99" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O99" s="17" t="s">
         <v>467</v>
@@ -74279,13 +74309,13 @@
     </row>
     <row r="100" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C100" s="2" t="s">
-        <v>3309</v>
+        <v>3311</v>
       </c>
       <c r="D100" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>3310</v>
+        <v>3312</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>907</v>
@@ -74297,7 +74327,7 @@
         <v>2398</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="J100" s="17" t="s">
         <v>32</v>
@@ -74311,8 +74341,8 @@
       <c r="M100" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N100" s="17" t="s">
-        <v>3069</v>
+      <c r="N100" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O100" s="17" t="s">
         <v>467</v>
@@ -74323,13 +74353,13 @@
     </row>
     <row r="101" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C101" s="2" t="s">
-        <v>3311</v>
+        <v>3313</v>
       </c>
       <c r="D101" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>1019</v>
@@ -74341,7 +74371,7 @@
         <v>2839</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="J101" s="17" t="s">
         <v>32</v>
@@ -74355,8 +74385,8 @@
       <c r="M101" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N101" s="17" t="s">
-        <v>3069</v>
+      <c r="N101" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O101" s="17" t="s">
         <v>467</v>
@@ -74367,13 +74397,13 @@
     </row>
     <row r="102" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C102" s="2" t="s">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="D102" s="23" t="s">
         <v>3254</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>3315</v>
+        <v>3317</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>27</v>
@@ -74385,7 +74415,7 @@
         <v>2839</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="J102" s="17" t="s">
         <v>32</v>
@@ -74399,8 +74429,8 @@
       <c r="M102" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N102" s="17" t="s">
-        <v>3069</v>
+      <c r="N102" s="23" t="s">
+        <v>3264</v>
       </c>
       <c r="O102" s="17" t="s">
         <v>467</v>
@@ -74425,8 +74455,8 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -74602,7 +74632,7 @@
         <v>750</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>3316</v>
+        <v>3318</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>29</v>
@@ -74611,10 +74641,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>3318</v>
+        <v>3320</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>32</v>
@@ -74646,7 +74676,7 @@
         <v>750</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>30</v>
@@ -74658,7 +74688,7 @@
         <v>301</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>32</v>
@@ -74690,7 +74720,7 @@
         <v>750</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>467</v>
@@ -74702,7 +74732,7 @@
         <v>468</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>32</v>
@@ -74734,7 +74764,7 @@
         <v>750</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>684</v>
@@ -74746,7 +74776,7 @@
         <v>301</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>32</v>
@@ -74778,7 +74808,7 @@
         <v>750</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>3324</v>
+        <v>3326</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>795</v>
@@ -74790,7 +74820,7 @@
         <v>468</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>32</v>
@@ -74822,7 +74852,7 @@
         <v>750</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>3325</v>
+        <v>3327</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>907</v>
@@ -74834,7 +74864,7 @@
         <v>468</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>32</v>
@@ -74866,7 +74896,7 @@
         <v>750</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>3326</v>
+        <v>3328</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>1019</v>
@@ -74878,7 +74908,7 @@
         <v>1020</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>32</v>
@@ -74910,7 +74940,7 @@
         <v>750</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>27</v>
@@ -74922,7 +74952,7 @@
         <v>1020</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>32</v>
@@ -74954,7 +74984,7 @@
         <v>750</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>29</v>
@@ -74963,10 +74993,10 @@
         <v>29</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>3330</v>
+        <v>3332</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>32</v>
@@ -74998,7 +75028,7 @@
         <v>750</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>30</v>
@@ -75010,7 +75040,7 @@
         <v>301</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>32</v>
@@ -75042,7 +75072,7 @@
         <v>750</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>467</v>
@@ -75054,7 +75084,7 @@
         <v>1516</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>32</v>
@@ -75086,7 +75116,7 @@
         <v>750</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>684</v>
@@ -75098,7 +75128,7 @@
         <v>301</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>32</v>
@@ -75130,7 +75160,7 @@
         <v>750</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>795</v>
@@ -75142,7 +75172,7 @@
         <v>1516</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>32</v>
@@ -75174,7 +75204,7 @@
         <v>750</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>907</v>
@@ -75186,7 +75216,7 @@
         <v>1516</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>32</v>
@@ -75218,7 +75248,7 @@
         <v>750</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>3338</v>
+        <v>3340</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>1019</v>
@@ -75230,7 +75260,7 @@
         <v>1957</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>32</v>
@@ -75262,7 +75292,7 @@
         <v>750</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>3340</v>
+        <v>3342</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>27</v>
@@ -75274,7 +75304,7 @@
         <v>1957</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>32</v>
@@ -75306,7 +75336,7 @@
         <v>750</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>3341</v>
+        <v>3343</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>29</v>
@@ -75315,10 +75345,10 @@
         <v>29</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>3342</v>
+        <v>3344</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>3343</v>
+        <v>3345</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>32</v>
@@ -75350,7 +75380,7 @@
         <v>750</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>3344</v>
+        <v>3346</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>30</v>
@@ -75362,7 +75392,7 @@
         <v>301</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="J23" s="17" t="s">
         <v>32</v>
@@ -75394,7 +75424,7 @@
         <v>750</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>467</v>
@@ -75406,7 +75436,7 @@
         <v>2398</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>32</v>
@@ -75438,7 +75468,7 @@
         <v>750</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>684</v>
@@ -75450,7 +75480,7 @@
         <v>301</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>32</v>
@@ -75482,7 +75512,7 @@
         <v>750</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>3348</v>
+        <v>3350</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>795</v>
@@ -75494,7 +75524,7 @@
         <v>2398</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>32</v>
@@ -75526,7 +75556,7 @@
         <v>750</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>907</v>
@@ -75538,7 +75568,7 @@
         <v>2398</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>32</v>
@@ -75570,7 +75600,7 @@
         <v>750</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>1019</v>
@@ -75582,7 +75612,7 @@
         <v>2839</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>32</v>
@@ -75614,7 +75644,7 @@
         <v>750</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>3352</v>
+        <v>3354</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>27</v>
@@ -75626,7 +75656,7 @@
         <v>2839</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>32</v>
@@ -75664,10 +75694,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="N102" sqref="N102"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -75835,7 +75865,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3353</v>
+        <v>3355</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>29</v>
@@ -75844,10 +75874,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="J6" s="7">
         <v>-1</v>
@@ -75879,7 +75909,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3356</v>
+        <v>3358</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>30</v>
@@ -75923,7 +75953,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>467</v>
@@ -75932,10 +75962,10 @@
         <v>467</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>3358</v>
+        <v>3360</v>
       </c>
       <c r="J8" s="7">
         <v>-1</v>
@@ -75967,7 +75997,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>684</v>
@@ -75979,7 +76009,7 @@
         <v>301</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="J9" s="7">
         <v>-1</v>
@@ -76011,7 +76041,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>795</v>
@@ -76020,10 +76050,10 @@
         <v>796</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>3358</v>
+        <v>3360</v>
       </c>
       <c r="J10" s="7">
         <v>-1</v>
@@ -76055,7 +76085,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>907</v>
@@ -76067,7 +76097,7 @@
         <v>301</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="J11" s="7">
         <v>-1</v>
@@ -76099,7 +76129,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3363</v>
+        <v>3365</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1019</v>
@@ -76108,10 +76138,10 @@
         <v>1019</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>3358</v>
+        <v>3360</v>
       </c>
       <c r="J12" s="7">
         <v>-1</v>
@@ -76143,7 +76173,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>27</v>
@@ -76155,7 +76185,7 @@
         <v>301</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="J13" s="7">
         <v>-1</v>
@@ -76187,7 +76217,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3365</v>
+        <v>3367</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
@@ -76196,10 +76226,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>3367</v>
+        <v>3369</v>
       </c>
       <c r="J14" s="7">
         <v>-1</v>
@@ -76231,7 +76261,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3368</v>
+        <v>3370</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
@@ -76240,10 +76270,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>3369</v>
+        <v>3371</v>
       </c>
       <c r="J15" s="7">
         <v>-1</v>
@@ -76275,7 +76305,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3370</v>
+        <v>3372</v>
       </c>
       <c r="F16" s="7">
         <v>11</v>
@@ -76284,10 +76314,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>3371</v>
+        <v>3373</v>
       </c>
       <c r="J16" s="7">
         <v>-1</v>
@@ -76319,7 +76349,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3372</v>
+        <v>3374</v>
       </c>
       <c r="F17" s="7">
         <v>11</v>
@@ -76328,10 +76358,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>3373</v>
+        <v>3375</v>
       </c>
       <c r="J17" s="7">
         <v>-1</v>
@@ -76363,7 +76393,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3374</v>
+        <v>3376</v>
       </c>
       <c r="F18" s="7">
         <v>11</v>
@@ -76372,10 +76402,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>3375</v>
+        <v>3377</v>
       </c>
       <c r="J18" s="7">
         <v>-1</v>
@@ -76407,7 +76437,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -76416,10 +76446,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="J19" s="7">
         <v>-1</v>
@@ -76451,7 +76481,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
       <c r="F20" s="7">
         <v>11</v>
@@ -76460,10 +76490,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="J20" s="7">
         <v>-1</v>
@@ -76495,7 +76525,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="F21" s="7">
         <v>11</v>
@@ -76504,10 +76534,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="J21" s="7">
         <v>-1</v>
@@ -76539,7 +76569,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="F22" s="7">
         <v>11</v>
@@ -76548,10 +76578,10 @@
         <v>11</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
       <c r="J22" s="7">
         <v>-1</v>
@@ -76583,7 +76613,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
@@ -76592,10 +76622,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="J23" s="7">
         <v>-1</v>
@@ -76627,7 +76657,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="F24" s="7">
         <v>11</v>
@@ -76636,10 +76666,10 @@
         <v>11</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="J24" s="7">
         <v>-1</v>
@@ -76671,7 +76701,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="F25" s="7">
         <v>11</v>
@@ -76680,10 +76710,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="J25" s="7">
         <v>-1</v>
@@ -76715,7 +76745,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
@@ -76724,10 +76754,10 @@
         <v>11</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="J26" s="7">
         <v>-1</v>
@@ -76759,7 +76789,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="F27" s="7">
         <v>11</v>
@@ -76768,10 +76798,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
@@ -76803,7 +76833,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="F28" s="7">
         <v>11</v>
@@ -76812,10 +76842,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="J28" s="7">
         <v>-1</v>
@@ -76847,7 +76877,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="F29" s="7">
         <v>11</v>
@@ -76856,10 +76886,10 @@
         <v>11</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -76891,7 +76921,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="F30" s="7">
         <v>11</v>
@@ -76900,10 +76930,10 @@
         <v>11</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="J30" s="7">
         <v>-1</v>
@@ -76927,48 +76957,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+    <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C31" s="7">
+        <v>118</v>
+      </c>
+      <c r="D31" s="7">
+        <v>18</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>3402</v>
+      </c>
+      <c r="F31" s="7">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7">
+        <v>11</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>3368</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>3403</v>
+      </c>
+      <c r="J31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="7">
+        <v>5</v>
+      </c>
+      <c r="L31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C32" s="7">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="D32" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3400</v>
+        <v>3404</v>
       </c>
       <c r="F32" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>3401</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>3402</v>
+        <v>3368</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>3405</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
       </c>
       <c r="K32" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L32" s="7">
         <v>-1</v>
@@ -76986,59 +77045,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
-      <c r="C33" s="7">
-        <v>202</v>
-      </c>
-      <c r="D33" s="7">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>3403</v>
-      </c>
-      <c r="F33" s="7">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7">
-        <v>12</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>3401</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>3404</v>
-      </c>
-      <c r="J33" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K33" s="7">
-        <v>1</v>
-      </c>
-      <c r="L33" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M33" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
+    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C34" s="7">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D34" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -77047,10 +77077,10 @@
         <v>12</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>3401</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>3406</v>
+        <v>3407</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>3408</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
@@ -77076,13 +77106,13 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C35" s="7">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D35" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -77091,16 +77121,16 @@
         <v>12</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>3401</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>3408</v>
+        <v>3407</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>3410</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
       </c>
       <c r="K35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" s="7">
         <v>-1</v>
@@ -77120,13 +77150,13 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C36" s="7">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D36" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -77135,16 +77165,16 @@
         <v>12</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>3410</v>
+        <v>3412</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
       </c>
       <c r="K36" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" s="7">
         <v>-1</v>
@@ -77164,13 +77194,13 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C37" s="7">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D37" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -77179,10 +77209,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>3412</v>
+        <v>3414</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
@@ -77208,13 +77238,13 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C38" s="7">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D38" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -77223,16 +77253,16 @@
         <v>12</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
       </c>
       <c r="K38" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38" s="7">
         <v>-1</v>
@@ -77252,13 +77282,13 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C39" s="7">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D39" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -77267,16 +77297,16 @@
         <v>12</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
       </c>
       <c r="K39" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L39" s="7">
         <v>-1</v>
@@ -77296,13 +77326,13 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C40" s="7">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D40" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="F40" s="7">
         <v>12</v>
@@ -77311,10 +77341,10 @@
         <v>12</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
@@ -77340,13 +77370,13 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C41" s="7">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D41" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="F41" s="7">
         <v>12</v>
@@ -77355,16 +77385,16 @@
         <v>12</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
       </c>
       <c r="K41" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L41" s="7">
         <v>-1</v>
@@ -77384,13 +77414,13 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C42" s="7">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D42" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="F42" s="7">
         <v>12</v>
@@ -77399,16 +77429,16 @@
         <v>12</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>3422</v>
+        <v>3424</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
       </c>
       <c r="K42" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L42" s="7">
         <v>-1</v>
@@ -77428,13 +77458,13 @@
     </row>
     <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C43" s="7">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D43" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="F43" s="7">
         <v>12</v>
@@ -77443,10 +77473,10 @@
         <v>12</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
       <c r="J43" s="7">
         <v>-1</v>
@@ -77472,13 +77502,13 @@
     </row>
     <row r="44" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C44" s="7">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D44" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3425</v>
+        <v>3427</v>
       </c>
       <c r="F44" s="7">
         <v>12</v>
@@ -77487,16 +77517,16 @@
         <v>12</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
       </c>
       <c r="K44" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" s="7">
         <v>-1</v>
@@ -77516,13 +77546,13 @@
     </row>
     <row r="45" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C45" s="7">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D45" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="F45" s="7">
         <v>12</v>
@@ -77531,16 +77561,16 @@
         <v>12</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
       </c>
       <c r="K45" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" s="7">
         <v>-1</v>
@@ -77560,13 +77590,13 @@
     </row>
     <row r="46" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C46" s="7">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D46" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="F46" s="7">
         <v>12</v>
@@ -77575,10 +77605,10 @@
         <v>12</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>3430</v>
+        <v>3432</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
@@ -77604,13 +77634,13 @@
     </row>
     <row r="47" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C47" s="7">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D47" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3431</v>
+        <v>3433</v>
       </c>
       <c r="F47" s="7">
         <v>12</v>
@@ -77619,10 +77649,10 @@
         <v>12</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -77648,13 +77678,13 @@
     </row>
     <row r="48" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C48" s="7">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D48" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="F48" s="7">
         <v>12</v>
@@ -77663,10 +77693,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>3434</v>
+        <v>3436</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -77690,48 +77720,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
+    <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C49" s="7">
+        <v>216</v>
+      </c>
+      <c r="D49" s="7">
+        <v>16</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F49" s="7">
+        <v>12</v>
+      </c>
+      <c r="G49" s="7">
+        <v>12</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>3407</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>3438</v>
+      </c>
+      <c r="J49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K49" s="7">
+        <v>5</v>
+      </c>
+      <c r="L49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C50" s="7">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="D50" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3435</v>
+        <v>3439</v>
       </c>
       <c r="F50" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>3436</v>
+        <v>3407</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
       </c>
       <c r="K50" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L50" s="7">
         <v>-1</v>
@@ -77751,31 +77810,31 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C51" s="7">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="D51" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="F51" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>3436</v>
+        <v>3407</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
       </c>
       <c r="K51" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L51" s="7">
         <v>-1</v>
@@ -77795,31 +77854,31 @@
     </row>
     <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C52" s="7">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="D52" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="F52" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>3436</v>
+        <v>3407</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
       </c>
       <c r="K52" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L52" s="7">
         <v>-1</v>
@@ -77837,59 +77896,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
-      <c r="C53" s="7">
-        <v>304</v>
-      </c>
-      <c r="D53" s="7">
-        <v>4</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>3442</v>
-      </c>
-      <c r="F53" s="7">
-        <v>13</v>
-      </c>
-      <c r="G53" s="7">
-        <v>13</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>3436</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>3443</v>
-      </c>
-      <c r="J53" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K53" s="7">
-        <v>2</v>
-      </c>
-      <c r="L53" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M53" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N53" s="7">
-        <v>1</v>
-      </c>
-      <c r="O53" s="7">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0</v>
-      </c>
+    <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C54" s="7">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D54" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="F54" s="7">
         <v>13</v>
@@ -77898,16 +77928,16 @@
         <v>13</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>3445</v>
+        <v>3447</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
       </c>
       <c r="K54" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54" s="7">
         <v>-1</v>
@@ -77927,13 +77957,13 @@
     </row>
     <row r="55" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C55" s="7">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D55" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
       <c r="F55" s="7">
         <v>13</v>
@@ -77942,16 +77972,16 @@
         <v>13</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
       </c>
       <c r="K55" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" s="7">
         <v>-1</v>
@@ -77971,13 +78001,13 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C56" s="7">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D56" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
       <c r="F56" s="7">
         <v>13</v>
@@ -77986,16 +78016,16 @@
         <v>13</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
       </c>
       <c r="K56" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56" s="7">
         <v>-1</v>
@@ -78015,13 +78045,13 @@
     </row>
     <row r="57" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C57" s="7">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D57" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3450</v>
+        <v>3452</v>
       </c>
       <c r="F57" s="7">
         <v>13</v>
@@ -78030,16 +78060,16 @@
         <v>13</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>3451</v>
+        <v>3453</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
       </c>
       <c r="K57" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L57" s="7">
         <v>-1</v>
@@ -78059,13 +78089,13 @@
     </row>
     <row r="58" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C58" s="7">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D58" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="F58" s="7">
         <v>13</v>
@@ -78074,16 +78104,16 @@
         <v>13</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="J58" s="7">
         <v>-1</v>
       </c>
       <c r="K58" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L58" s="7">
         <v>-1</v>
@@ -78103,13 +78133,13 @@
     </row>
     <row r="59" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C59" s="7">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D59" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
       <c r="F59" s="7">
         <v>13</v>
@@ -78118,16 +78148,16 @@
         <v>13</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
       </c>
       <c r="K59" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L59" s="7">
         <v>-1</v>
@@ -78147,13 +78177,13 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C60" s="7">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D60" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3456</v>
+        <v>3458</v>
       </c>
       <c r="F60" s="7">
         <v>13</v>
@@ -78162,16 +78192,16 @@
         <v>13</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
       </c>
       <c r="K60" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L60" s="7">
         <v>-1</v>
@@ -78191,13 +78221,13 @@
     </row>
     <row r="61" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C61" s="7">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D61" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="F61" s="7">
         <v>13</v>
@@ -78206,16 +78236,16 @@
         <v>13</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
       </c>
       <c r="K61" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L61" s="7">
         <v>-1</v>
@@ -78235,13 +78265,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C62" s="7">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D62" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3460</v>
+        <v>3462</v>
       </c>
       <c r="F62" s="7">
         <v>13</v>
@@ -78250,16 +78280,16 @@
         <v>13</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
       </c>
       <c r="K62" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L62" s="7">
         <v>-1</v>
@@ -78279,13 +78309,13 @@
     </row>
     <row r="63" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C63" s="7">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D63" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
       <c r="F63" s="7">
         <v>13</v>
@@ -78294,16 +78324,16 @@
         <v>13</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
       </c>
       <c r="K63" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L63" s="7">
         <v>-1</v>
@@ -78323,13 +78353,13 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C64" s="7">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D64" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3464</v>
+        <v>3466</v>
       </c>
       <c r="F64" s="7">
         <v>13</v>
@@ -78338,16 +78368,16 @@
         <v>13</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
       </c>
       <c r="K64" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L64" s="7">
         <v>-1</v>
@@ -78367,13 +78397,13 @@
     </row>
     <row r="65" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C65" s="7">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D65" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="F65" s="7">
         <v>13</v>
@@ -78382,16 +78412,16 @@
         <v>13</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
       </c>
       <c r="K65" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L65" s="7">
         <v>-1</v>
@@ -78411,13 +78441,13 @@
     </row>
     <row r="66" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C66" s="7">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D66" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
       <c r="F66" s="7">
         <v>13</v>
@@ -78426,10 +78456,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
@@ -78453,48 +78483,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
+    <row r="67" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C67" s="7">
+        <v>314</v>
+      </c>
+      <c r="D67" s="7">
+        <v>14</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F67" s="7">
+        <v>13</v>
+      </c>
+      <c r="G67" s="7">
+        <v>13</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>3473</v>
+      </c>
+      <c r="J67" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K67" s="7">
+        <v>5</v>
+      </c>
+      <c r="L67" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M67" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N67" s="7">
+        <v>1</v>
+      </c>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C68" s="7">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="D68" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3470</v>
+        <v>3474</v>
       </c>
       <c r="F68" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G68" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>3471</v>
-      </c>
-      <c r="I68" s="26" t="s">
-        <v>3472</v>
+        <v>3446</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>3475</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
       </c>
       <c r="K68" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L68" s="7">
         <v>-1</v>
@@ -78514,31 +78573,31 @@
     </row>
     <row r="69" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C69" s="7">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="D69" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
       <c r="F69" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>3471</v>
-      </c>
-      <c r="I69" s="26" t="s">
-        <v>3474</v>
+        <v>3446</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>3477</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
       </c>
       <c r="K69" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L69" s="7">
         <v>-1</v>
@@ -78558,31 +78617,31 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C70" s="7">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="D70" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="F70" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>3471</v>
-      </c>
-      <c r="I70" s="26" t="s">
-        <v>3476</v>
+        <v>3446</v>
+      </c>
+      <c r="I70" s="25" t="s">
+        <v>3479</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
       </c>
       <c r="K70" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L70" s="7">
         <v>-1</v>
@@ -78602,31 +78661,31 @@
     </row>
     <row r="71" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C71" s="7">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="D71" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="F71" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G71" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>3471</v>
-      </c>
-      <c r="I71" s="26" t="s">
-        <v>3478</v>
+        <v>3446</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>3481</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
       </c>
       <c r="K71" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L71" s="7">
         <v>-1</v>
@@ -78646,31 +78705,31 @@
     </row>
     <row r="72" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C72" s="7">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="D72" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="F72" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G72" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>3471</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>3480</v>
+        <v>3446</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>3483</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
       </c>
       <c r="K72" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L72" s="7">
         <v>-1</v>
@@ -78688,59 +78747,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
-      <c r="C73" s="7">
-        <v>406</v>
-      </c>
-      <c r="D73" s="7">
-        <v>6</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>3481</v>
-      </c>
-      <c r="F73" s="7">
-        <v>14</v>
-      </c>
-      <c r="G73" s="7">
-        <v>14</v>
-      </c>
-      <c r="H73" s="26" t="s">
-        <v>3471</v>
-      </c>
-      <c r="I73" s="26" t="s">
-        <v>3482</v>
-      </c>
-      <c r="J73" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K73" s="7">
-        <v>2</v>
-      </c>
-      <c r="L73" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M73" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N73" s="7">
-        <v>1</v>
-      </c>
-      <c r="O73" s="7">
-        <v>0</v>
-      </c>
-      <c r="P73" s="2">
-        <v>0</v>
-      </c>
+    <row r="73" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C74" s="7">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D74" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="F74" s="7">
         <v>14</v>
@@ -78749,16 +78779,16 @@
         <v>14</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>3484</v>
+        <v>3486</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
       </c>
       <c r="K74" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L74" s="7">
         <v>-1</v>
@@ -78778,13 +78808,13 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C75" s="7">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D75" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="F75" s="7">
         <v>14</v>
@@ -78793,16 +78823,16 @@
         <v>14</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>3486</v>
+        <v>3488</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
       </c>
       <c r="K75" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L75" s="7">
         <v>-1</v>
@@ -78822,13 +78852,13 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C76" s="7">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D76" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="F76" s="7">
         <v>14</v>
@@ -78837,16 +78867,16 @@
         <v>14</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="J76" s="7">
         <v>-1</v>
       </c>
       <c r="K76" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L76" s="7">
         <v>-1</v>
@@ -78866,13 +78896,13 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C77" s="7">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D77" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>3489</v>
+        <v>3491</v>
       </c>
       <c r="F77" s="7">
         <v>14</v>
@@ -78881,16 +78911,16 @@
         <v>14</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>3490</v>
+        <v>3492</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
       </c>
       <c r="K77" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L77" s="7">
         <v>-1</v>
@@ -78910,13 +78940,13 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C78" s="7">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D78" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="F78" s="7">
         <v>14</v>
@@ -78925,16 +78955,16 @@
         <v>14</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>3492</v>
+        <v>3494</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
       </c>
       <c r="K78" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L78" s="7">
         <v>-1</v>
@@ -78954,13 +78984,13 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C79" s="7">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D79" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="F79" s="7">
         <v>14</v>
@@ -78969,16 +78999,16 @@
         <v>14</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
       </c>
       <c r="K79" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L79" s="7">
         <v>-1</v>
@@ -78998,13 +79028,13 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C80" s="7">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D80" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
       <c r="F80" s="7">
         <v>14</v>
@@ -79013,16 +79043,16 @@
         <v>14</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
       </c>
       <c r="K80" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L80" s="7">
         <v>-1</v>
@@ -79042,13 +79072,13 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C81" s="7">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D81" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="F81" s="7">
         <v>14</v>
@@ -79057,16 +79087,16 @@
         <v>14</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="J81" s="7">
         <v>-1</v>
       </c>
       <c r="K81" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L81" s="7">
         <v>-1</v>
@@ -79086,13 +79116,13 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C82" s="7">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D82" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
       <c r="F82" s="7">
         <v>14</v>
@@ -79101,16 +79131,16 @@
         <v>14</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
       </c>
       <c r="K82" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L82" s="7">
         <v>-1</v>
@@ -79130,13 +79160,13 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C83" s="7">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D83" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
       <c r="F83" s="7">
         <v>14</v>
@@ -79145,16 +79175,16 @@
         <v>14</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="J83" s="7">
         <v>-1</v>
       </c>
       <c r="K83" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L83" s="7">
         <v>-1</v>
@@ -79174,13 +79204,13 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C84" s="7">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D84" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
       <c r="F84" s="7">
         <v>14</v>
@@ -79189,16 +79219,16 @@
         <v>14</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>3471</v>
+        <v>3485</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="J84" s="7">
         <v>-1</v>
       </c>
       <c r="K84" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L84" s="7">
         <v>-1</v>
@@ -79216,57 +79246,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
+    <row r="85" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C85" s="7">
+        <v>412</v>
+      </c>
+      <c r="D85" s="7">
+        <v>12</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F85" s="7">
+        <v>14</v>
+      </c>
+      <c r="G85" s="7">
+        <v>14</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>3485</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>3508</v>
+      </c>
+      <c r="J85" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K85" s="7">
+        <v>4</v>
+      </c>
+      <c r="L85" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M85" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N85" s="7">
+        <v>1</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C86" s="7">
+        <v>413</v>
+      </c>
+      <c r="D86" s="7">
+        <v>13</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F86" s="7">
+        <v>14</v>
+      </c>
+      <c r="G86" s="7">
+        <v>14</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>3485</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>3510</v>
+      </c>
+      <c r="J86" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K86" s="7">
+        <v>5</v>
+      </c>
+      <c r="L86" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M86" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N86" s="7">
+        <v>1</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C87" s="7">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="D87" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>3505</v>
+        <v>3511</v>
       </c>
       <c r="F87" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G87" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>3506</v>
-      </c>
-      <c r="I87" s="25" t="s">
-        <v>3507</v>
+        <v>3485</v>
+      </c>
+      <c r="I87" s="26" t="s">
+        <v>3512</v>
       </c>
       <c r="J87" s="7">
         <v>-1</v>
@@ -79292,31 +79380,31 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C88" s="7">
-        <v>502</v>
+        <v>415</v>
       </c>
       <c r="D88" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>3508</v>
+        <v>3513</v>
       </c>
       <c r="F88" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G88" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>29</v>
+        <v>3485</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>38</v>
+        <v>3514</v>
       </c>
       <c r="J88" s="7">
         <v>-1</v>
       </c>
       <c r="K88" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L88" s="7">
         <v>-1</v>
@@ -79336,31 +79424,31 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C89" s="7">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="D89" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="F89" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G89" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>29</v>
+        <v>3485</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>38</v>
+        <v>3516</v>
       </c>
       <c r="J89" s="7">
         <v>-1</v>
       </c>
       <c r="K89" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L89" s="7">
         <v>-1</v>
@@ -79380,31 +79468,31 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C90" s="7">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="D90" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>3510</v>
+        <v>3517</v>
       </c>
       <c r="F90" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G90" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>29</v>
+        <v>3485</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>38</v>
+        <v>3518</v>
       </c>
       <c r="J90" s="7">
         <v>-1</v>
       </c>
       <c r="K90" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L90" s="7">
         <v>-1</v>
@@ -79424,31 +79512,31 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C91" s="7">
-        <v>505</v>
+        <v>418</v>
       </c>
       <c r="D91" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>3511</v>
+        <v>3519</v>
       </c>
       <c r="F91" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G91" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>29</v>
+        <v>3485</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>38</v>
+        <v>3520</v>
       </c>
       <c r="J91" s="7">
         <v>-1</v>
       </c>
       <c r="K91" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L91" s="7">
         <v>-1</v>
@@ -79468,31 +79556,31 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C92" s="7">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="D92" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>3512</v>
+        <v>3521</v>
       </c>
       <c r="F92" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G92" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>29</v>
+        <v>3485</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>38</v>
+        <v>3522</v>
       </c>
       <c r="J92" s="7">
         <v>-1</v>
       </c>
       <c r="K92" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L92" s="7">
         <v>-1</v>
@@ -79510,121 +79598,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
-      <c r="C93" s="7">
-        <v>507</v>
-      </c>
-      <c r="D93" s="7">
-        <v>0</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>3513</v>
-      </c>
-      <c r="F93" s="7">
-        <v>0</v>
-      </c>
-      <c r="G93" s="7">
-        <v>0</v>
-      </c>
-      <c r="H93" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I93" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J93" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K93" s="7">
-        <v>1</v>
-      </c>
-      <c r="L93" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M93" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N93" s="7">
-        <v>1</v>
-      </c>
-      <c r="O93" s="7">
-        <v>0</v>
-      </c>
-      <c r="P93" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
-      <c r="C94" s="7">
-        <v>508</v>
-      </c>
-      <c r="D94" s="7">
-        <v>0</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>3514</v>
-      </c>
-      <c r="F94" s="7">
-        <v>0</v>
-      </c>
-      <c r="G94" s="7">
-        <v>0</v>
-      </c>
-      <c r="H94" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I94" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J94" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K94" s="7">
-        <v>1</v>
-      </c>
-      <c r="L94" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M94" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N94" s="7">
-        <v>1</v>
-      </c>
-      <c r="O94" s="7">
-        <v>0</v>
-      </c>
-      <c r="P94" s="2">
-        <v>0</v>
-      </c>
+    <row r="93" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C95" s="7">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D95" s="7">
         <v>0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>3515</v>
+        <v>3523</v>
       </c>
       <c r="F95" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G95" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I95" s="26" t="s">
-        <v>38</v>
+        <v>3524</v>
+      </c>
+      <c r="I95" s="25" t="s">
+        <v>3525</v>
       </c>
       <c r="J95" s="7">
         <v>-1</v>
       </c>
       <c r="K95" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L95" s="7">
         <v>-1</v>
@@ -79642,20 +79672,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="9:9">
-      <c r="I96" s="12"/>
-    </row>
-    <row r="97" spans="9:9">
-      <c r="I97" s="12"/>
-    </row>
-    <row r="98" spans="9:9">
-      <c r="I98" s="12"/>
-    </row>
-    <row r="99" spans="9:9">
-      <c r="I99" s="12"/>
-    </row>
-    <row r="100" spans="9:9">
-      <c r="I100" s="12"/>
+    <row r="96" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+    </row>
+    <row r="104" spans="9:9">
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="9:9">
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="9:9">
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="9:9">
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="9:9">
+      <c r="I108" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -10926,12 +10926,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -75696,8 +75696,8 @@
   <sheetPr/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70:C72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -78664,7 +78664,7 @@
         <v>318</v>
       </c>
       <c r="D71" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>3480</v>
@@ -78708,7 +78708,7 @@
         <v>319</v>
       </c>
       <c r="D72" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>3482</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19063" uniqueCount="3526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19375" uniqueCount="3589">
   <si>
     <t>_id</t>
   </si>
@@ -10099,6 +10099,198 @@
     <t>梦·逍遥道靴</t>
   </si>
   <si>
+    <t>21005901</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>梦·狂雷战刃</t>
+  </si>
+  <si>
+    <t>1800000000</t>
+  </si>
+  <si>
+    <t>20000000000</t>
+  </si>
+  <si>
+    <t>21005902</t>
+  </si>
+  <si>
+    <t>梦·狂雷战甲</t>
+  </si>
+  <si>
+    <t>20000000000,800000000</t>
+  </si>
+  <si>
+    <t>21005903</t>
+  </si>
+  <si>
+    <t>梦·狂雷战链</t>
+  </si>
+  <si>
+    <t>10000000000,600000000</t>
+  </si>
+  <si>
+    <t>10000000000</t>
+  </si>
+  <si>
+    <t>21005904</t>
+  </si>
+  <si>
+    <t>梦·狂雷战盔</t>
+  </si>
+  <si>
+    <t>10000000000,800000000</t>
+  </si>
+  <si>
+    <t>21005905</t>
+  </si>
+  <si>
+    <t>梦·狂雷战镯</t>
+  </si>
+  <si>
+    <t>21005907</t>
+  </si>
+  <si>
+    <t>梦·狂雷战戒</t>
+  </si>
+  <si>
+    <t>21005909</t>
+  </si>
+  <si>
+    <t>梦·狂雷战带</t>
+  </si>
+  <si>
+    <t>10000000000,600000000,800000000</t>
+  </si>
+  <si>
+    <t>21005910</t>
+  </si>
+  <si>
+    <t>梦·狂雷战靴</t>
+  </si>
+  <si>
+    <t>22005901</t>
+  </si>
+  <si>
+    <t>梦·逆火法杖</t>
+  </si>
+  <si>
+    <t>22005902</t>
+  </si>
+  <si>
+    <t>梦·逆火法衣</t>
+  </si>
+  <si>
+    <t>12000000000,800000000</t>
+  </si>
+  <si>
+    <t>22005903</t>
+  </si>
+  <si>
+    <t>梦·逆火法链</t>
+  </si>
+  <si>
+    <t>6000000000,1000000000</t>
+  </si>
+  <si>
+    <t>22005904</t>
+  </si>
+  <si>
+    <t>梦·逆火法帽</t>
+  </si>
+  <si>
+    <t>6000000000,800000000</t>
+  </si>
+  <si>
+    <t>22005905</t>
+  </si>
+  <si>
+    <t>梦·逆火法镯</t>
+  </si>
+  <si>
+    <t>22005907</t>
+  </si>
+  <si>
+    <t>梦·逆火法戒</t>
+  </si>
+  <si>
+    <t>22005909</t>
+  </si>
+  <si>
+    <t>梦·逆火法带</t>
+  </si>
+  <si>
+    <t>6000000000,1000000000,800000000</t>
+  </si>
+  <si>
+    <t>22005910</t>
+  </si>
+  <si>
+    <t>梦·逆火法靴</t>
+  </si>
+  <si>
+    <t>23005901</t>
+  </si>
+  <si>
+    <t>梦·通云道剑</t>
+  </si>
+  <si>
+    <t>2400000000</t>
+  </si>
+  <si>
+    <t>23005902</t>
+  </si>
+  <si>
+    <t>梦·通云道袍</t>
+  </si>
+  <si>
+    <t>16000000000,800000000</t>
+  </si>
+  <si>
+    <t>23005903</t>
+  </si>
+  <si>
+    <t>梦·通云道链</t>
+  </si>
+  <si>
+    <t>8000000000,800000000</t>
+  </si>
+  <si>
+    <t>23005904</t>
+  </si>
+  <si>
+    <t>梦·通云道冠</t>
+  </si>
+  <si>
+    <t>23005905</t>
+  </si>
+  <si>
+    <t>梦·通云道镯</t>
+  </si>
+  <si>
+    <t>23005907</t>
+  </si>
+  <si>
+    <t>梦·通云道戒</t>
+  </si>
+  <si>
+    <t>23005909</t>
+  </si>
+  <si>
+    <t>梦·通云道带</t>
+  </si>
+  <si>
+    <t>8000000000,800000000,800000000</t>
+  </si>
+  <si>
+    <t>23005910</t>
+  </si>
+  <si>
+    <t>梦·通云道靴</t>
+  </si>
+  <si>
     <t>神龙战刃</t>
   </si>
   <si>
@@ -10115,9 +10307,6 @@
   </si>
   <si>
     <t>神龙战链</t>
-  </si>
-  <si>
-    <t>12000000000,800000000</t>
   </si>
   <si>
     <t>神龙战盔</t>
@@ -10926,12 +11115,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -70029,13 +70218,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="N104" sqref="N104"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
@@ -74439,6 +74628,1062 @@
         <v>4201</v>
       </c>
     </row>
+    <row r="104" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C104" s="17" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>3321</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L104" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M104" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N104" s="17" t="s">
+        <v>3322</v>
+      </c>
+      <c r="O104" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P104" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="105" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C105" s="17" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="I105" s="17" t="s">
+        <v>3325</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K105" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L105" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M105" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N105" s="17" t="s">
+        <v>3322</v>
+      </c>
+      <c r="O105" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P105" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="106" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C106" s="17" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L106" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M106" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N106" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O106" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P106" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="107" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C107" s="17" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="I107" s="17" t="s">
+        <v>3332</v>
+      </c>
+      <c r="J107" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K107" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L107" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M107" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N107" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O107" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P107" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="108" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C108" s="17" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="I108" s="17" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L108" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M108" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N108" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O108" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="109" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C109" s="17" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="I109" s="17" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J109" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L109" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N109" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O109" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P109" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="110" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C110" s="17" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I110" s="17" t="s">
+        <v>3339</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L110" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N110" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O110" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P110" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="111" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C111" s="17" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>3339</v>
+      </c>
+      <c r="J111" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K111" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L111" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M111" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N111" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O111" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P111" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="112" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C112" s="17" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="I112" s="17" t="s">
+        <v>3134</v>
+      </c>
+      <c r="J112" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K112" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L112" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M112" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N112" s="17" t="s">
+        <v>3322</v>
+      </c>
+      <c r="O112" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P112" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="113" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C113" s="17" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="I113" s="17" t="s">
+        <v>3346</v>
+      </c>
+      <c r="J113" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L113" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M113" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N113" s="17" t="s">
+        <v>3322</v>
+      </c>
+      <c r="O113" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P113" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="114" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C114" s="17" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>3349</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L114" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M114" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N114" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O114" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P114" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="115" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C115" s="17" t="s">
+        <v>3350</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="I115" s="17" t="s">
+        <v>3352</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L115" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M115" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N115" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O115" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P115" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="116" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C116" s="17" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I116" s="17" t="s">
+        <v>3349</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L116" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M116" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N116" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O116" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P116" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="117" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C117" s="17" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I117" s="17" t="s">
+        <v>3349</v>
+      </c>
+      <c r="J117" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K117" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L117" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M117" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N117" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O117" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P117" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="118" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C118" s="17" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>3358</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I118" s="17" t="s">
+        <v>3359</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M118" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N118" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O118" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P118" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="119" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C119" s="17" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>3361</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I119" s="17" t="s">
+        <v>3359</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L119" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M119" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N119" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O119" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P119" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="120" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C120" s="17" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="I120" s="17" t="s">
+        <v>3364</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L120" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M120" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N120" s="17" t="s">
+        <v>3322</v>
+      </c>
+      <c r="O120" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="P120" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="121" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C121" s="17" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>3366</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="I121" s="17" t="s">
+        <v>3367</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L121" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M121" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N121" s="17" t="s">
+        <v>3322</v>
+      </c>
+      <c r="O121" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="P121" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="122" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C122" s="17" t="s">
+        <v>3368</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I122" s="17" t="s">
+        <v>3370</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L122" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M122" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N122" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O122" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="P122" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="123" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C123" s="17" t="s">
+        <v>3371</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>3372</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="H123" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="I123" s="17" t="s">
+        <v>3370</v>
+      </c>
+      <c r="J123" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K123" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L123" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N123" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O123" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="P123" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="124" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C124" s="17" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I124" s="17" t="s">
+        <v>3370</v>
+      </c>
+      <c r="J124" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K124" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L124" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M124" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N124" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O124" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="P124" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="125" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C125" s="17" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F125" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I125" s="17" t="s">
+        <v>3370</v>
+      </c>
+      <c r="J125" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K125" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L125" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M125" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N125" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O125" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="P125" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="126" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C126" s="17" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>2839</v>
+      </c>
+      <c r="I126" s="17" t="s">
+        <v>3379</v>
+      </c>
+      <c r="J126" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K126" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L126" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M126" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N126" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O126" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="P126" s="17">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="127" s="17" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C127" s="17" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>3381</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>2839</v>
+      </c>
+      <c r="I127" s="17" t="s">
+        <v>3379</v>
+      </c>
+      <c r="J127" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L127" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M127" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N127" s="17" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O127" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="P127" s="17">
+        <v>4202</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="P3 P4 P5" errorStyle="warning">
@@ -74456,7 +75701,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -74632,7 +75877,7 @@
         <v>750</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>3318</v>
+        <v>3382</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>29</v>
@@ -74641,10 +75886,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>3319</v>
+        <v>3383</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>3320</v>
+        <v>3384</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>32</v>
@@ -74676,7 +75921,7 @@
         <v>750</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>3321</v>
+        <v>3385</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>30</v>
@@ -74688,7 +75933,7 @@
         <v>301</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>3322</v>
+        <v>3386</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>32</v>
@@ -74720,7 +75965,7 @@
         <v>750</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>3323</v>
+        <v>3387</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>467</v>
@@ -74732,7 +75977,7 @@
         <v>468</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>3324</v>
+        <v>3346</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>32</v>
@@ -74764,7 +76009,7 @@
         <v>750</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>3325</v>
+        <v>3388</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>684</v>
@@ -74776,7 +76021,7 @@
         <v>301</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>3324</v>
+        <v>3346</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>32</v>
@@ -74808,7 +76053,7 @@
         <v>750</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>3326</v>
+        <v>3389</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>795</v>
@@ -74820,7 +76065,7 @@
         <v>468</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>3324</v>
+        <v>3346</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>32</v>
@@ -74852,7 +76097,7 @@
         <v>750</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>3327</v>
+        <v>3390</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>907</v>
@@ -74864,7 +76109,7 @@
         <v>468</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>3324</v>
+        <v>3346</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>32</v>
@@ -74896,7 +76141,7 @@
         <v>750</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>3328</v>
+        <v>3391</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>1019</v>
@@ -74908,7 +76153,7 @@
         <v>1020</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>3329</v>
+        <v>3392</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>32</v>
@@ -74940,7 +76185,7 @@
         <v>750</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>3330</v>
+        <v>3393</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>27</v>
@@ -74952,7 +76197,7 @@
         <v>1020</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>3329</v>
+        <v>3392</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>32</v>
@@ -74984,7 +76229,7 @@
         <v>750</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>3331</v>
+        <v>3394</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>29</v>
@@ -74993,10 +76238,10 @@
         <v>29</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>3332</v>
+        <v>3395</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>3333</v>
+        <v>3396</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>32</v>
@@ -75028,7 +76273,7 @@
         <v>750</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>3334</v>
+        <v>3397</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>30</v>
@@ -75040,7 +76285,7 @@
         <v>301</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>3322</v>
+        <v>3386</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>32</v>
@@ -75072,7 +76317,7 @@
         <v>750</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>467</v>
@@ -75084,7 +76329,7 @@
         <v>1516</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>3336</v>
+        <v>3399</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>32</v>
@@ -75116,7 +76361,7 @@
         <v>750</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3337</v>
+        <v>3400</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>684</v>
@@ -75128,7 +76373,7 @@
         <v>301</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>3336</v>
+        <v>3399</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>32</v>
@@ -75160,7 +76405,7 @@
         <v>750</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>3338</v>
+        <v>3401</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>795</v>
@@ -75172,7 +76417,7 @@
         <v>1516</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>3336</v>
+        <v>3399</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>32</v>
@@ -75204,7 +76449,7 @@
         <v>750</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>3339</v>
+        <v>3402</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>907</v>
@@ -75216,7 +76461,7 @@
         <v>1516</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>3336</v>
+        <v>3399</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>32</v>
@@ -75248,7 +76493,7 @@
         <v>750</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>3340</v>
+        <v>3403</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>1019</v>
@@ -75260,7 +76505,7 @@
         <v>1957</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>3341</v>
+        <v>3404</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>32</v>
@@ -75292,7 +76537,7 @@
         <v>750</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>3342</v>
+        <v>3405</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>27</v>
@@ -75304,7 +76549,7 @@
         <v>1957</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>3341</v>
+        <v>3404</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>32</v>
@@ -75336,7 +76581,7 @@
         <v>750</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>3343</v>
+        <v>3406</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>29</v>
@@ -75345,10 +76590,10 @@
         <v>29</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>3344</v>
+        <v>3407</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>3345</v>
+        <v>3408</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>32</v>
@@ -75380,7 +76625,7 @@
         <v>750</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>3346</v>
+        <v>3409</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>30</v>
@@ -75392,7 +76637,7 @@
         <v>301</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>3322</v>
+        <v>3386</v>
       </c>
       <c r="J23" s="17" t="s">
         <v>32</v>
@@ -75424,7 +76669,7 @@
         <v>750</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>3347</v>
+        <v>3410</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>467</v>
@@ -75436,7 +76681,7 @@
         <v>2398</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>3348</v>
+        <v>3411</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>32</v>
@@ -75468,7 +76713,7 @@
         <v>750</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>3349</v>
+        <v>3412</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>684</v>
@@ -75480,7 +76725,7 @@
         <v>301</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>3348</v>
+        <v>3411</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>32</v>
@@ -75512,7 +76757,7 @@
         <v>750</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>3350</v>
+        <v>3413</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>795</v>
@@ -75524,7 +76769,7 @@
         <v>2398</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>3348</v>
+        <v>3411</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>32</v>
@@ -75556,7 +76801,7 @@
         <v>750</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>3351</v>
+        <v>3414</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>907</v>
@@ -75568,7 +76813,7 @@
         <v>2398</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>3348</v>
+        <v>3411</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>32</v>
@@ -75600,7 +76845,7 @@
         <v>750</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>3352</v>
+        <v>3415</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>1019</v>
@@ -75612,7 +76857,7 @@
         <v>2839</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>3353</v>
+        <v>3416</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>32</v>
@@ -75644,7 +76889,7 @@
         <v>750</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>3354</v>
+        <v>3417</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>27</v>
@@ -75656,7 +76901,7 @@
         <v>2839</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>3353</v>
+        <v>3416</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>32</v>
@@ -75696,7 +76941,7 @@
   <sheetPr/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B61" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B71" workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -75865,7 +77110,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3355</v>
+        <v>3418</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>29</v>
@@ -75874,10 +77119,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>3356</v>
+        <v>3419</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>3357</v>
+        <v>3420</v>
       </c>
       <c r="J6" s="7">
         <v>-1</v>
@@ -75909,7 +77154,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3358</v>
+        <v>3421</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>30</v>
@@ -75953,7 +77198,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3359</v>
+        <v>3422</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>467</v>
@@ -75962,10 +77207,10 @@
         <v>467</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3356</v>
+        <v>3419</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>3360</v>
+        <v>3423</v>
       </c>
       <c r="J8" s="7">
         <v>-1</v>
@@ -75997,7 +77242,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3361</v>
+        <v>3424</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>684</v>
@@ -76009,7 +77254,7 @@
         <v>301</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>3362</v>
+        <v>3425</v>
       </c>
       <c r="J9" s="7">
         <v>-1</v>
@@ -76041,7 +77286,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3363</v>
+        <v>3426</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>795</v>
@@ -76050,10 +77295,10 @@
         <v>796</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>3356</v>
+        <v>3419</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>3360</v>
+        <v>3423</v>
       </c>
       <c r="J10" s="7">
         <v>-1</v>
@@ -76085,7 +77330,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3364</v>
+        <v>3427</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>907</v>
@@ -76097,7 +77342,7 @@
         <v>301</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>3362</v>
+        <v>3425</v>
       </c>
       <c r="J11" s="7">
         <v>-1</v>
@@ -76129,7 +77374,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3365</v>
+        <v>3428</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1019</v>
@@ -76138,10 +77383,10 @@
         <v>1019</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>3356</v>
+        <v>3419</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>3360</v>
+        <v>3423</v>
       </c>
       <c r="J12" s="7">
         <v>-1</v>
@@ -76173,7 +77418,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3366</v>
+        <v>3429</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>27</v>
@@ -76185,7 +77430,7 @@
         <v>301</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>3362</v>
+        <v>3425</v>
       </c>
       <c r="J13" s="7">
         <v>-1</v>
@@ -76217,7 +77462,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3367</v>
+        <v>3430</v>
       </c>
       <c r="F14" s="7">
         <v>11</v>
@@ -76226,10 +77471,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>3369</v>
+        <v>3432</v>
       </c>
       <c r="J14" s="7">
         <v>-1</v>
@@ -76261,7 +77506,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3370</v>
+        <v>3433</v>
       </c>
       <c r="F15" s="7">
         <v>11</v>
@@ -76270,10 +77515,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>3371</v>
+        <v>3434</v>
       </c>
       <c r="J15" s="7">
         <v>-1</v>
@@ -76305,7 +77550,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3372</v>
+        <v>3435</v>
       </c>
       <c r="F16" s="7">
         <v>11</v>
@@ -76314,10 +77559,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>3373</v>
+        <v>3436</v>
       </c>
       <c r="J16" s="7">
         <v>-1</v>
@@ -76349,7 +77594,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3374</v>
+        <v>3437</v>
       </c>
       <c r="F17" s="7">
         <v>11</v>
@@ -76358,10 +77603,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>3375</v>
+        <v>3438</v>
       </c>
       <c r="J17" s="7">
         <v>-1</v>
@@ -76393,7 +77638,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3376</v>
+        <v>3439</v>
       </c>
       <c r="F18" s="7">
         <v>11</v>
@@ -76402,10 +77647,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>3377</v>
+        <v>3440</v>
       </c>
       <c r="J18" s="7">
         <v>-1</v>
@@ -76437,7 +77682,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3378</v>
+        <v>3441</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -76446,10 +77691,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>3379</v>
+        <v>3442</v>
       </c>
       <c r="J19" s="7">
         <v>-1</v>
@@ -76481,7 +77726,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3380</v>
+        <v>3443</v>
       </c>
       <c r="F20" s="7">
         <v>11</v>
@@ -76490,10 +77735,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>3381</v>
+        <v>3444</v>
       </c>
       <c r="J20" s="7">
         <v>-1</v>
@@ -76525,7 +77770,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3382</v>
+        <v>3445</v>
       </c>
       <c r="F21" s="7">
         <v>11</v>
@@ -76534,10 +77779,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>3383</v>
+        <v>3446</v>
       </c>
       <c r="J21" s="7">
         <v>-1</v>
@@ -76569,7 +77814,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3384</v>
+        <v>3447</v>
       </c>
       <c r="F22" s="7">
         <v>11</v>
@@ -76578,10 +77823,10 @@
         <v>11</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>3385</v>
+        <v>3448</v>
       </c>
       <c r="J22" s="7">
         <v>-1</v>
@@ -76613,7 +77858,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3386</v>
+        <v>3449</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
@@ -76622,10 +77867,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>3387</v>
+        <v>3450</v>
       </c>
       <c r="J23" s="7">
         <v>-1</v>
@@ -76657,7 +77902,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3388</v>
+        <v>3451</v>
       </c>
       <c r="F24" s="7">
         <v>11</v>
@@ -76666,10 +77911,10 @@
         <v>11</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>3389</v>
+        <v>3452</v>
       </c>
       <c r="J24" s="7">
         <v>-1</v>
@@ -76701,7 +77946,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3390</v>
+        <v>3453</v>
       </c>
       <c r="F25" s="7">
         <v>11</v>
@@ -76710,10 +77955,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>3391</v>
+        <v>3454</v>
       </c>
       <c r="J25" s="7">
         <v>-1</v>
@@ -76745,7 +77990,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3392</v>
+        <v>3455</v>
       </c>
       <c r="F26" s="7">
         <v>11</v>
@@ -76754,10 +77999,10 @@
         <v>11</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>3393</v>
+        <v>3456</v>
       </c>
       <c r="J26" s="7">
         <v>-1</v>
@@ -76789,7 +78034,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3394</v>
+        <v>3457</v>
       </c>
       <c r="F27" s="7">
         <v>11</v>
@@ -76798,10 +78043,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>3395</v>
+        <v>3458</v>
       </c>
       <c r="J27" s="7">
         <v>-1</v>
@@ -76833,7 +78078,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>3396</v>
+        <v>3459</v>
       </c>
       <c r="F28" s="7">
         <v>11</v>
@@ -76842,10 +78087,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>3397</v>
+        <v>3460</v>
       </c>
       <c r="J28" s="7">
         <v>-1</v>
@@ -76877,7 +78122,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3398</v>
+        <v>3461</v>
       </c>
       <c r="F29" s="7">
         <v>11</v>
@@ -76886,10 +78131,10 @@
         <v>11</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>3399</v>
+        <v>3462</v>
       </c>
       <c r="J29" s="7">
         <v>-1</v>
@@ -76921,7 +78166,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3400</v>
+        <v>3463</v>
       </c>
       <c r="F30" s="7">
         <v>11</v>
@@ -76930,10 +78175,10 @@
         <v>11</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>3401</v>
+        <v>3464</v>
       </c>
       <c r="J30" s="7">
         <v>-1</v>
@@ -76965,7 +78210,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>3402</v>
+        <v>3465</v>
       </c>
       <c r="F31" s="7">
         <v>11</v>
@@ -76974,10 +78219,10 @@
         <v>11</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>3403</v>
+        <v>3466</v>
       </c>
       <c r="J31" s="7">
         <v>-1</v>
@@ -77009,7 +78254,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3404</v>
+        <v>3467</v>
       </c>
       <c r="F32" s="7">
         <v>11</v>
@@ -77018,10 +78263,10 @@
         <v>11</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>3368</v>
+        <v>3431</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>3405</v>
+        <v>3468</v>
       </c>
       <c r="J32" s="7">
         <v>-1</v>
@@ -77068,7 +78313,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>3406</v>
+        <v>3469</v>
       </c>
       <c r="F34" s="7">
         <v>12</v>
@@ -77077,10 +78322,10 @@
         <v>12</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>3408</v>
+        <v>3471</v>
       </c>
       <c r="J34" s="7">
         <v>-1</v>
@@ -77112,7 +78357,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>3409</v>
+        <v>3472</v>
       </c>
       <c r="F35" s="7">
         <v>12</v>
@@ -77121,10 +78366,10 @@
         <v>12</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>3410</v>
+        <v>3473</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -77156,7 +78401,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3411</v>
+        <v>3474</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -77165,10 +78410,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>3412</v>
+        <v>3475</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
@@ -77200,7 +78445,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3413</v>
+        <v>3476</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -77209,10 +78454,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>3414</v>
+        <v>3477</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
@@ -77244,7 +78489,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3415</v>
+        <v>3478</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -77253,10 +78498,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>3416</v>
+        <v>3479</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -77288,7 +78533,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3417</v>
+        <v>3480</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -77297,10 +78542,10 @@
         <v>12</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>3418</v>
+        <v>3481</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
@@ -77332,7 +78577,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3419</v>
+        <v>3482</v>
       </c>
       <c r="F40" s="7">
         <v>12</v>
@@ -77341,10 +78586,10 @@
         <v>12</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>3420</v>
+        <v>3483</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
@@ -77376,7 +78621,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3421</v>
+        <v>3484</v>
       </c>
       <c r="F41" s="7">
         <v>12</v>
@@ -77385,10 +78630,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>3422</v>
+        <v>3485</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
@@ -77420,7 +78665,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3423</v>
+        <v>3486</v>
       </c>
       <c r="F42" s="7">
         <v>12</v>
@@ -77429,10 +78674,10 @@
         <v>12</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>3424</v>
+        <v>3487</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
@@ -77464,7 +78709,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>3425</v>
+        <v>3488</v>
       </c>
       <c r="F43" s="7">
         <v>12</v>
@@ -77473,10 +78718,10 @@
         <v>12</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>3426</v>
+        <v>3489</v>
       </c>
       <c r="J43" s="7">
         <v>-1</v>
@@ -77508,7 +78753,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3427</v>
+        <v>3490</v>
       </c>
       <c r="F44" s="7">
         <v>12</v>
@@ -77517,10 +78762,10 @@
         <v>12</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>3428</v>
+        <v>3491</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
@@ -77552,7 +78797,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3429</v>
+        <v>3492</v>
       </c>
       <c r="F45" s="7">
         <v>12</v>
@@ -77561,10 +78806,10 @@
         <v>12</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>3430</v>
+        <v>3493</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
@@ -77596,7 +78841,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3431</v>
+        <v>3494</v>
       </c>
       <c r="F46" s="7">
         <v>12</v>
@@ -77605,10 +78850,10 @@
         <v>12</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>3432</v>
+        <v>3495</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
@@ -77640,7 +78885,7 @@
         <v>14</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3433</v>
+        <v>3496</v>
       </c>
       <c r="F47" s="7">
         <v>12</v>
@@ -77649,10 +78894,10 @@
         <v>12</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>3434</v>
+        <v>3497</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -77684,7 +78929,7 @@
         <v>15</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3435</v>
+        <v>3498</v>
       </c>
       <c r="F48" s="7">
         <v>12</v>
@@ -77693,10 +78938,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>3436</v>
+        <v>3499</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -77728,7 +78973,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>3437</v>
+        <v>3500</v>
       </c>
       <c r="F49" s="7">
         <v>12</v>
@@ -77737,10 +78982,10 @@
         <v>12</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>3438</v>
+        <v>3501</v>
       </c>
       <c r="J49" s="7">
         <v>-1</v>
@@ -77772,7 +79017,7 @@
         <v>17</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3439</v>
+        <v>3502</v>
       </c>
       <c r="F50" s="7">
         <v>12</v>
@@ -77781,10 +79026,10 @@
         <v>12</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>3440</v>
+        <v>3503</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -77816,7 +79061,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3441</v>
+        <v>3504</v>
       </c>
       <c r="F51" s="7">
         <v>12</v>
@@ -77825,10 +79070,10 @@
         <v>12</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>3442</v>
+        <v>3505</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -77860,7 +79105,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3443</v>
+        <v>3506</v>
       </c>
       <c r="F52" s="7">
         <v>12</v>
@@ -77869,10 +79114,10 @@
         <v>12</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>3407</v>
+        <v>3470</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>3444</v>
+        <v>3507</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -77919,7 +79164,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3445</v>
+        <v>3508</v>
       </c>
       <c r="F54" s="7">
         <v>13</v>
@@ -77928,10 +79173,10 @@
         <v>13</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>3447</v>
+        <v>3510</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
@@ -77963,7 +79208,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3448</v>
+        <v>3511</v>
       </c>
       <c r="F55" s="7">
         <v>13</v>
@@ -77972,10 +79217,10 @@
         <v>13</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>3449</v>
+        <v>3512</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
@@ -78007,7 +79252,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3450</v>
+        <v>3513</v>
       </c>
       <c r="F56" s="7">
         <v>13</v>
@@ -78016,10 +79261,10 @@
         <v>13</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>3451</v>
+        <v>3514</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -78051,7 +79296,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3452</v>
+        <v>3515</v>
       </c>
       <c r="F57" s="7">
         <v>13</v>
@@ -78060,10 +79305,10 @@
         <v>13</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>3453</v>
+        <v>3516</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
@@ -78095,7 +79340,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>3454</v>
+        <v>3517</v>
       </c>
       <c r="F58" s="7">
         <v>13</v>
@@ -78104,10 +79349,10 @@
         <v>13</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>3455</v>
+        <v>3518</v>
       </c>
       <c r="J58" s="7">
         <v>-1</v>
@@ -78139,7 +79384,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3456</v>
+        <v>3519</v>
       </c>
       <c r="F59" s="7">
         <v>13</v>
@@ -78148,10 +79393,10 @@
         <v>13</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>3457</v>
+        <v>3520</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -78183,7 +79428,7 @@
         <v>7</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3458</v>
+        <v>3521</v>
       </c>
       <c r="F60" s="7">
         <v>13</v>
@@ -78192,10 +79437,10 @@
         <v>13</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>3459</v>
+        <v>3522</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
@@ -78227,7 +79472,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3460</v>
+        <v>3523</v>
       </c>
       <c r="F61" s="7">
         <v>13</v>
@@ -78236,10 +79481,10 @@
         <v>13</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>3461</v>
+        <v>3524</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
@@ -78271,7 +79516,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3462</v>
+        <v>3525</v>
       </c>
       <c r="F62" s="7">
         <v>13</v>
@@ -78280,10 +79525,10 @@
         <v>13</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>3463</v>
+        <v>3526</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -78315,7 +79560,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3464</v>
+        <v>3527</v>
       </c>
       <c r="F63" s="7">
         <v>13</v>
@@ -78324,10 +79569,10 @@
         <v>13</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>3465</v>
+        <v>3528</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
@@ -78359,7 +79604,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3466</v>
+        <v>3529</v>
       </c>
       <c r="F64" s="7">
         <v>13</v>
@@ -78368,10 +79613,10 @@
         <v>13</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>3467</v>
+        <v>3530</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
@@ -78403,7 +79648,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3468</v>
+        <v>3531</v>
       </c>
       <c r="F65" s="7">
         <v>13</v>
@@ -78412,10 +79657,10 @@
         <v>13</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>3469</v>
+        <v>3532</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
@@ -78447,7 +79692,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3470</v>
+        <v>3533</v>
       </c>
       <c r="F66" s="7">
         <v>13</v>
@@ -78456,10 +79701,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>3471</v>
+        <v>3534</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
@@ -78491,7 +79736,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>3472</v>
+        <v>3535</v>
       </c>
       <c r="F67" s="7">
         <v>13</v>
@@ -78500,10 +79745,10 @@
         <v>13</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>3473</v>
+        <v>3536</v>
       </c>
       <c r="J67" s="7">
         <v>-1</v>
@@ -78535,7 +79780,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3474</v>
+        <v>3537</v>
       </c>
       <c r="F68" s="7">
         <v>13</v>
@@ -78544,10 +79789,10 @@
         <v>13</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>3475</v>
+        <v>3538</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -78579,7 +79824,7 @@
         <v>16</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3476</v>
+        <v>3539</v>
       </c>
       <c r="F69" s="7">
         <v>13</v>
@@ -78588,10 +79833,10 @@
         <v>13</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>3477</v>
+        <v>3540</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -78623,7 +79868,7 @@
         <v>17</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3478</v>
+        <v>3541</v>
       </c>
       <c r="F70" s="7">
         <v>13</v>
@@ -78632,10 +79877,10 @@
         <v>13</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>3479</v>
+        <v>3542</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -78667,7 +79912,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3480</v>
+        <v>3543</v>
       </c>
       <c r="F71" s="7">
         <v>13</v>
@@ -78676,10 +79921,10 @@
         <v>13</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>3481</v>
+        <v>3544</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -78711,7 +79956,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3482</v>
+        <v>3545</v>
       </c>
       <c r="F72" s="7">
         <v>13</v>
@@ -78720,10 +79965,10 @@
         <v>13</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>3446</v>
+        <v>3509</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>3483</v>
+        <v>3546</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -78770,7 +80015,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3484</v>
+        <v>3547</v>
       </c>
       <c r="F74" s="7">
         <v>14</v>
@@ -78779,10 +80024,10 @@
         <v>14</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>3486</v>
+        <v>3549</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
@@ -78814,7 +80059,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3487</v>
+        <v>3550</v>
       </c>
       <c r="F75" s="7">
         <v>14</v>
@@ -78823,10 +80068,10 @@
         <v>14</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>3488</v>
+        <v>3551</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
@@ -78858,7 +80103,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>3489</v>
+        <v>3552</v>
       </c>
       <c r="F76" s="7">
         <v>14</v>
@@ -78867,10 +80112,10 @@
         <v>14</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>3490</v>
+        <v>3553</v>
       </c>
       <c r="J76" s="7">
         <v>-1</v>
@@ -78902,7 +80147,7 @@
         <v>4</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>3491</v>
+        <v>3554</v>
       </c>
       <c r="F77" s="7">
         <v>14</v>
@@ -78911,10 +80156,10 @@
         <v>14</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>3492</v>
+        <v>3555</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
@@ -78946,7 +80191,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>3493</v>
+        <v>3556</v>
       </c>
       <c r="F78" s="7">
         <v>14</v>
@@ -78955,10 +80200,10 @@
         <v>14</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>3494</v>
+        <v>3557</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
@@ -78990,7 +80235,7 @@
         <v>6</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3495</v>
+        <v>3558</v>
       </c>
       <c r="F79" s="7">
         <v>14</v>
@@ -78999,10 +80244,10 @@
         <v>14</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>3496</v>
+        <v>3559</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
@@ -79034,7 +80279,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3497</v>
+        <v>3560</v>
       </c>
       <c r="F80" s="7">
         <v>14</v>
@@ -79043,10 +80288,10 @@
         <v>14</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>3498</v>
+        <v>3561</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
@@ -79078,7 +80323,7 @@
         <v>8</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3499</v>
+        <v>3562</v>
       </c>
       <c r="F81" s="7">
         <v>14</v>
@@ -79087,10 +80332,10 @@
         <v>14</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>3500</v>
+        <v>3563</v>
       </c>
       <c r="J81" s="7">
         <v>-1</v>
@@ -79122,7 +80367,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3501</v>
+        <v>3564</v>
       </c>
       <c r="F82" s="7">
         <v>14</v>
@@ -79131,10 +80376,10 @@
         <v>14</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>3502</v>
+        <v>3565</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
@@ -79166,7 +80411,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>3503</v>
+        <v>3566</v>
       </c>
       <c r="F83" s="7">
         <v>14</v>
@@ -79175,10 +80420,10 @@
         <v>14</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>3504</v>
+        <v>3567</v>
       </c>
       <c r="J83" s="7">
         <v>-1</v>
@@ -79210,7 +80455,7 @@
         <v>11</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>3505</v>
+        <v>3568</v>
       </c>
       <c r="F84" s="7">
         <v>14</v>
@@ -79219,10 +80464,10 @@
         <v>14</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>3506</v>
+        <v>3569</v>
       </c>
       <c r="J84" s="7">
         <v>-1</v>
@@ -79254,7 +80499,7 @@
         <v>12</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>3507</v>
+        <v>3570</v>
       </c>
       <c r="F85" s="7">
         <v>14</v>
@@ -79263,10 +80508,10 @@
         <v>14</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>3508</v>
+        <v>3571</v>
       </c>
       <c r="J85" s="7">
         <v>-1</v>
@@ -79298,7 +80543,7 @@
         <v>13</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>3509</v>
+        <v>3572</v>
       </c>
       <c r="F86" s="7">
         <v>14</v>
@@ -79307,10 +80552,10 @@
         <v>14</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>3510</v>
+        <v>3573</v>
       </c>
       <c r="J86" s="7">
         <v>-1</v>
@@ -79342,7 +80587,7 @@
         <v>14</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>3511</v>
+        <v>3574</v>
       </c>
       <c r="F87" s="7">
         <v>14</v>
@@ -79351,10 +80596,10 @@
         <v>14</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>3512</v>
+        <v>3575</v>
       </c>
       <c r="J87" s="7">
         <v>-1</v>
@@ -79386,7 +80631,7 @@
         <v>15</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>3513</v>
+        <v>3576</v>
       </c>
       <c r="F88" s="7">
         <v>14</v>
@@ -79395,10 +80640,10 @@
         <v>14</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>3514</v>
+        <v>3577</v>
       </c>
       <c r="J88" s="7">
         <v>-1</v>
@@ -79430,7 +80675,7 @@
         <v>16</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>3515</v>
+        <v>3578</v>
       </c>
       <c r="F89" s="7">
         <v>14</v>
@@ -79439,10 +80684,10 @@
         <v>14</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>3516</v>
+        <v>3579</v>
       </c>
       <c r="J89" s="7">
         <v>-1</v>
@@ -79474,7 +80719,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>3517</v>
+        <v>3580</v>
       </c>
       <c r="F90" s="7">
         <v>14</v>
@@ -79483,10 +80728,10 @@
         <v>14</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>3518</v>
+        <v>3581</v>
       </c>
       <c r="J90" s="7">
         <v>-1</v>
@@ -79518,7 +80763,7 @@
         <v>18</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>3519</v>
+        <v>3582</v>
       </c>
       <c r="F91" s="7">
         <v>14</v>
@@ -79527,10 +80772,10 @@
         <v>14</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>3520</v>
+        <v>3583</v>
       </c>
       <c r="J91" s="7">
         <v>-1</v>
@@ -79562,7 +80807,7 @@
         <v>19</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>3521</v>
+        <v>3584</v>
       </c>
       <c r="F92" s="7">
         <v>14</v>
@@ -79571,10 +80816,10 @@
         <v>14</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>3485</v>
+        <v>3548</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>3522</v>
+        <v>3585</v>
       </c>
       <c r="J92" s="7">
         <v>-1</v>
@@ -79636,7 +80881,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>3523</v>
+        <v>3586</v>
       </c>
       <c r="F95" s="7">
         <v>11</v>
@@ -79645,10 +80890,10 @@
         <v>11</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>3524</v>
+        <v>3587</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>3525</v>
+        <v>3588</v>
       </c>
       <c r="J95" s="7">
         <v>-1</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -11961,7 +11961,7 @@
   <sheetPr/>
   <dimension ref="A1:P1325"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -70220,8 +70220,8 @@
   <sheetPr/>
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView tabSelected="1" topLeftCell="C104" workbookViewId="0">
+      <selection activeCell="P104" sqref="P104:P127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -74669,7 +74669,7 @@
         <v>29</v>
       </c>
       <c r="P104" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="105" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -74713,7 +74713,7 @@
         <v>29</v>
       </c>
       <c r="P105" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="106" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -74757,7 +74757,7 @@
         <v>29</v>
       </c>
       <c r="P106" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="107" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -74801,7 +74801,7 @@
         <v>29</v>
       </c>
       <c r="P107" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="108" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -74845,7 +74845,7 @@
         <v>29</v>
       </c>
       <c r="P108" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="109" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -74889,7 +74889,7 @@
         <v>29</v>
       </c>
       <c r="P109" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="110" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -74933,7 +74933,7 @@
         <v>29</v>
       </c>
       <c r="P110" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="111" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -74977,7 +74977,7 @@
         <v>29</v>
       </c>
       <c r="P111" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="112" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75021,7 +75021,7 @@
         <v>30</v>
       </c>
       <c r="P112" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="113" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75065,7 +75065,7 @@
         <v>30</v>
       </c>
       <c r="P113" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="114" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75109,7 +75109,7 @@
         <v>30</v>
       </c>
       <c r="P114" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="115" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75153,7 +75153,7 @@
         <v>30</v>
       </c>
       <c r="P115" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="116" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75197,7 +75197,7 @@
         <v>30</v>
       </c>
       <c r="P116" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="117" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75241,7 +75241,7 @@
         <v>30</v>
       </c>
       <c r="P117" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="118" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75285,7 +75285,7 @@
         <v>30</v>
       </c>
       <c r="P118" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="119" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75329,7 +75329,7 @@
         <v>30</v>
       </c>
       <c r="P119" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="120" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75373,7 +75373,7 @@
         <v>467</v>
       </c>
       <c r="P120" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="121" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75417,7 +75417,7 @@
         <v>467</v>
       </c>
       <c r="P121" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="122" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75461,7 +75461,7 @@
         <v>467</v>
       </c>
       <c r="P122" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="123" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75505,7 +75505,7 @@
         <v>467</v>
       </c>
       <c r="P123" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="124" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75549,7 +75549,7 @@
         <v>467</v>
       </c>
       <c r="P124" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="125" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75593,7 +75593,7 @@
         <v>467</v>
       </c>
       <c r="P125" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="126" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75637,7 +75637,7 @@
         <v>467</v>
       </c>
       <c r="P126" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="127" s="17" customFormat="1" customHeight="1" spans="3:16">
@@ -75681,7 +75681,7 @@
         <v>467</v>
       </c>
       <c r="P127" s="17">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -70220,7 +70220,7 @@
   <sheetPr/>
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C104" workbookViewId="0">
+    <sheetView topLeftCell="C104" workbookViewId="0">
       <selection activeCell="P104" sqref="P104:P127"/>
     </sheetView>
   </sheetViews>
@@ -75700,8 +75700,8 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19375" uniqueCount="3589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19387" uniqueCount="3601">
   <si>
     <t>_id</t>
   </si>
@@ -10552,6 +10552,15 @@
     <t>350,350,350,350</t>
   </si>
   <si>
+    <t>斗笠二十阶</t>
+  </si>
+  <si>
+    <t>26,27,28,12,2010</t>
+  </si>
+  <si>
+    <t>350,350,350,350,10</t>
+  </si>
+  <si>
     <t>护盾一阶</t>
   </si>
   <si>
@@ -10669,6 +10678,15 @@
     <t>350,350</t>
   </si>
   <si>
+    <t>护盾二十阶</t>
+  </si>
+  <si>
+    <t>16,13,2011</t>
+  </si>
+  <si>
+    <t>400,400,5</t>
+  </si>
+  <si>
     <t>神符一阶</t>
   </si>
   <si>
@@ -10786,6 +10804,15 @@
     <t>35,35,350,350,350</t>
   </si>
   <si>
+    <t>神符二十阶</t>
+  </si>
+  <si>
+    <t>7,8,14,18,20,2001</t>
+  </si>
+  <si>
+    <t>40,40,400,400,400,10</t>
+  </si>
+  <si>
     <t>魔石一阶</t>
   </si>
   <si>
@@ -10901,6 +10928,15 @@
   </si>
   <si>
     <t>35,350,6</t>
+  </si>
+  <si>
+    <t>魔石二十阶</t>
+  </si>
+  <si>
+    <t>10,15,23,2003</t>
+  </si>
+  <si>
+    <t>40,400,6,20</t>
   </si>
   <si>
     <t>测试斗笠</t>
@@ -75700,7 +75736,7 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -76939,10 +76975,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -78290,71 +78326,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
-      <c r="C34" s="7">
-        <v>201</v>
-      </c>
-      <c r="D34" s="7">
+    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C33" s="7">
+        <v>120</v>
+      </c>
+      <c r="D33" s="7">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>3469</v>
+      </c>
+      <c r="F33" s="7">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7">
+        <v>11</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>3470</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>3471</v>
+      </c>
+      <c r="J33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="7">
+        <v>6</v>
+      </c>
+      <c r="L33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="7">
         <v>1</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>3469</v>
-      </c>
-      <c r="F34" s="7">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7">
-        <v>12</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>3470</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>3471</v>
-      </c>
-      <c r="J34" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K34" s="7">
-        <v>1</v>
-      </c>
-      <c r="L34" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C35" s="7">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>3472</v>
@@ -78366,10 +78402,10 @@
         <v>12</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="J35" s="7">
         <v>-1</v>
@@ -78395,13 +78431,13 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C36" s="7">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -78410,10 +78446,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>3470</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>3475</v>
+        <v>3473</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>3476</v>
       </c>
       <c r="J36" s="7">
         <v>-1</v>
@@ -78439,13 +78475,13 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C37" s="7">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="F37" s="7">
         <v>12</v>
@@ -78454,16 +78490,16 @@
         <v>12</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="J37" s="7">
         <v>-1</v>
       </c>
       <c r="K37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" s="7">
         <v>-1</v>
@@ -78483,13 +78519,13 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C38" s="7">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -78498,10 +78534,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="J38" s="7">
         <v>-1</v>
@@ -78527,13 +78563,13 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C39" s="7">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="F39" s="7">
         <v>12</v>
@@ -78542,10 +78578,10 @@
         <v>12</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="J39" s="7">
         <v>-1</v>
@@ -78571,13 +78607,13 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C40" s="7">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="F40" s="7">
         <v>12</v>
@@ -78586,16 +78622,16 @@
         <v>12</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="J40" s="7">
         <v>-1</v>
       </c>
       <c r="K40" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40" s="7">
         <v>-1</v>
@@ -78615,13 +78651,13 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C41" s="7">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="F41" s="7">
         <v>12</v>
@@ -78630,10 +78666,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="J41" s="7">
         <v>-1</v>
@@ -78659,13 +78695,13 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C42" s="7">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="F42" s="7">
         <v>12</v>
@@ -78674,10 +78710,10 @@
         <v>12</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="J42" s="7">
         <v>-1</v>
@@ -78703,13 +78739,13 @@
     </row>
     <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C43" s="7">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="F43" s="7">
         <v>12</v>
@@ -78718,16 +78754,16 @@
         <v>12</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="J43" s="7">
         <v>-1</v>
       </c>
       <c r="K43" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43" s="7">
         <v>-1</v>
@@ -78747,13 +78783,13 @@
     </row>
     <row r="44" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C44" s="7">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="F44" s="7">
         <v>12</v>
@@ -78762,10 +78798,10 @@
         <v>12</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="J44" s="7">
         <v>-1</v>
@@ -78791,13 +78827,13 @@
     </row>
     <row r="45" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C45" s="7">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="F45" s="7">
         <v>12</v>
@@ -78806,10 +78842,10 @@
         <v>12</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="J45" s="7">
         <v>-1</v>
@@ -78835,13 +78871,13 @@
     </row>
     <row r="46" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C46" s="7">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="F46" s="7">
         <v>12</v>
@@ -78850,16 +78886,16 @@
         <v>12</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="J46" s="7">
         <v>-1</v>
       </c>
       <c r="K46" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" s="7">
         <v>-1</v>
@@ -78879,13 +78915,13 @@
     </row>
     <row r="47" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C47" s="7">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D47" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="F47" s="7">
         <v>12</v>
@@ -78894,10 +78930,10 @@
         <v>12</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -78923,13 +78959,13 @@
     </row>
     <row r="48" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C48" s="7">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="F48" s="7">
         <v>12</v>
@@ -78938,10 +78974,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -78967,13 +79003,13 @@
     </row>
     <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C49" s="7">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D49" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="F49" s="7">
         <v>12</v>
@@ -78982,10 +79018,10 @@
         <v>12</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="J49" s="7">
         <v>-1</v>
@@ -79011,13 +79047,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C50" s="7">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="F50" s="7">
         <v>12</v>
@@ -79026,10 +79062,10 @@
         <v>12</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -79055,13 +79091,13 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C51" s="7">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D51" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="F51" s="7">
         <v>12</v>
@@ -79070,10 +79106,10 @@
         <v>12</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -79099,13 +79135,13 @@
     </row>
     <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C52" s="7">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="F52" s="7">
         <v>12</v>
@@ -79114,10 +79150,10 @@
         <v>12</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -79141,48 +79177,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
+    <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C53" s="7">
+        <v>219</v>
+      </c>
+      <c r="D53" s="7">
+        <v>19</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F53" s="7">
+        <v>12</v>
+      </c>
+      <c r="G53" s="7">
+        <v>12</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>3473</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>3510</v>
+      </c>
+      <c r="J53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K53" s="7">
+        <v>5</v>
+      </c>
+      <c r="L53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C54" s="7">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="D54" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="F54" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
       </c>
       <c r="K54" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L54" s="7">
         <v>-1</v>
@@ -79200,59 +79265,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
-      <c r="C55" s="7">
-        <v>302</v>
-      </c>
-      <c r="D55" s="7">
-        <v>2</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>3511</v>
-      </c>
-      <c r="F55" s="7">
-        <v>13</v>
-      </c>
-      <c r="G55" s="7">
-        <v>13</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>3509</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>3512</v>
-      </c>
-      <c r="J55" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K55" s="7">
-        <v>1</v>
-      </c>
-      <c r="L55" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M55" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N55" s="7">
-        <v>1</v>
-      </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
+    <row r="55" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C56" s="7">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D56" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="F56" s="7">
         <v>13</v>
@@ -79261,10 +79297,10 @@
         <v>13</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -79290,13 +79326,13 @@
     </row>
     <row r="57" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C57" s="7">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D57" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
       <c r="F57" s="7">
         <v>13</v>
@@ -79305,16 +79341,16 @@
         <v>13</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
       </c>
       <c r="K57" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" s="7">
         <v>-1</v>
@@ -79334,13 +79370,13 @@
     </row>
     <row r="58" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C58" s="7">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D58" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>3517</v>
+        <v>3519</v>
       </c>
       <c r="F58" s="7">
         <v>13</v>
@@ -79349,16 +79385,16 @@
         <v>13</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="J58" s="7">
         <v>-1</v>
       </c>
       <c r="K58" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" s="7">
         <v>-1</v>
@@ -79378,13 +79414,13 @@
     </row>
     <row r="59" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C59" s="7">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D59" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>3519</v>
+        <v>3521</v>
       </c>
       <c r="F59" s="7">
         <v>13</v>
@@ -79393,10 +79429,10 @@
         <v>13</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -79422,13 +79458,13 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C60" s="7">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D60" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
       <c r="F60" s="7">
         <v>13</v>
@@ -79437,16 +79473,16 @@
         <v>13</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
       </c>
       <c r="K60" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L60" s="7">
         <v>-1</v>
@@ -79466,13 +79502,13 @@
     </row>
     <row r="61" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C61" s="7">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D61" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
       <c r="F61" s="7">
         <v>13</v>
@@ -79481,16 +79517,16 @@
         <v>13</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
       </c>
       <c r="K61" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L61" s="7">
         <v>-1</v>
@@ -79510,13 +79546,13 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C62" s="7">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D62" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="F62" s="7">
         <v>13</v>
@@ -79525,10 +79561,10 @@
         <v>13</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -79554,13 +79590,13 @@
     </row>
     <row r="63" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C63" s="7">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D63" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
       <c r="F63" s="7">
         <v>13</v>
@@ -79569,16 +79605,16 @@
         <v>13</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
       </c>
       <c r="K63" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L63" s="7">
         <v>-1</v>
@@ -79598,13 +79634,13 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C64" s="7">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D64" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
       <c r="F64" s="7">
         <v>13</v>
@@ -79613,16 +79649,16 @@
         <v>13</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="J64" s="7">
         <v>-1</v>
       </c>
       <c r="K64" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L64" s="7">
         <v>-1</v>
@@ -79642,13 +79678,13 @@
     </row>
     <row r="65" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C65" s="7">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D65" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3531</v>
+        <v>3533</v>
       </c>
       <c r="F65" s="7">
         <v>13</v>
@@ -79657,10 +79693,10 @@
         <v>13</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>3532</v>
+        <v>3534</v>
       </c>
       <c r="J65" s="7">
         <v>-1</v>
@@ -79686,13 +79722,13 @@
     </row>
     <row r="66" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C66" s="7">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D66" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="F66" s="7">
         <v>13</v>
@@ -79701,16 +79737,16 @@
         <v>13</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
       <c r="J66" s="7">
         <v>-1</v>
       </c>
       <c r="K66" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L66" s="7">
         <v>-1</v>
@@ -79730,13 +79766,13 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C67" s="7">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D67" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="F67" s="7">
         <v>13</v>
@@ -79745,16 +79781,16 @@
         <v>13</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
       <c r="J67" s="7">
         <v>-1</v>
       </c>
       <c r="K67" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L67" s="7">
         <v>-1</v>
@@ -79774,13 +79810,13 @@
     </row>
     <row r="68" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C68" s="7">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D68" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="F68" s="7">
         <v>13</v>
@@ -79789,10 +79825,10 @@
         <v>13</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="J68" s="7">
         <v>-1</v>
@@ -79818,13 +79854,13 @@
     </row>
     <row r="69" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C69" s="7">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D69" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="F69" s="7">
         <v>13</v>
@@ -79833,10 +79869,10 @@
         <v>13</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="J69" s="7">
         <v>-1</v>
@@ -79862,13 +79898,13 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C70" s="7">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D70" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="F70" s="7">
         <v>13</v>
@@ -79877,10 +79913,10 @@
         <v>13</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -79906,13 +79942,13 @@
     </row>
     <row r="71" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C71" s="7">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D71" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
       <c r="F71" s="7">
         <v>13</v>
@@ -79921,10 +79957,10 @@
         <v>13</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -79950,13 +79986,13 @@
     </row>
     <row r="72" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C72" s="7">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D72" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>3545</v>
+        <v>3547</v>
       </c>
       <c r="F72" s="7">
         <v>13</v>
@@ -79965,10 +80001,10 @@
         <v>13</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>3546</v>
+        <v>3548</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -79992,48 +80028,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
+    <row r="73" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C73" s="7">
+        <v>318</v>
+      </c>
+      <c r="D73" s="7">
+        <v>18</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>3549</v>
+      </c>
+      <c r="F73" s="7">
+        <v>13</v>
+      </c>
+      <c r="G73" s="7">
+        <v>13</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>3515</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>3550</v>
+      </c>
+      <c r="J73" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K73" s="7">
+        <v>5</v>
+      </c>
+      <c r="L73" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M73" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N73" s="7">
+        <v>1</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C74" s="7">
-        <v>401</v>
+        <v>319</v>
       </c>
       <c r="D74" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>3547</v>
+        <v>3551</v>
       </c>
       <c r="F74" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G74" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>3548</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>3549</v>
+        <v>3515</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>3552</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
       </c>
       <c r="K74" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L74" s="7">
         <v>-1</v>
@@ -80053,31 +80118,31 @@
     </row>
     <row r="75" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C75" s="7">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="D75" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="F75" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G75" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>3548</v>
-      </c>
-      <c r="I75" s="26" t="s">
-        <v>3551</v>
+        <v>3554</v>
+      </c>
+      <c r="I75" s="25" t="s">
+        <v>3555</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
       </c>
       <c r="K75" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L75" s="7">
         <v>-1</v>
@@ -80095,59 +80160,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
-      <c r="C76" s="7">
-        <v>403</v>
-      </c>
-      <c r="D76" s="7">
-        <v>3</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>3552</v>
-      </c>
-      <c r="F76" s="7">
-        <v>14</v>
-      </c>
-      <c r="G76" s="7">
-        <v>14</v>
-      </c>
-      <c r="H76" s="26" t="s">
-        <v>3548</v>
-      </c>
-      <c r="I76" s="26" t="s">
-        <v>3553</v>
-      </c>
-      <c r="J76" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K76" s="7">
-        <v>1</v>
-      </c>
-      <c r="L76" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M76" s="7">
-        <v>-1</v>
-      </c>
-      <c r="N76" s="7">
-        <v>1</v>
-      </c>
-      <c r="O76" s="7">
-        <v>0</v>
-      </c>
-      <c r="P76" s="2">
-        <v>0</v>
-      </c>
+    <row r="76" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C77" s="7">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D77" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="F77" s="7">
         <v>14</v>
@@ -80156,16 +80192,16 @@
         <v>14</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
       </c>
       <c r="K77" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" s="7">
         <v>-1</v>
@@ -80185,13 +80221,13 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C78" s="7">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D78" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="F78" s="7">
         <v>14</v>
@@ -80200,16 +80236,16 @@
         <v>14</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
       </c>
       <c r="K78" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78" s="7">
         <v>-1</v>
@@ -80229,13 +80265,13 @@
     </row>
     <row r="79" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C79" s="7">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D79" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="F79" s="7">
         <v>14</v>
@@ -80244,16 +80280,16 @@
         <v>14</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
       </c>
       <c r="K79" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79" s="7">
         <v>-1</v>
@@ -80273,13 +80309,13 @@
     </row>
     <row r="80" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C80" s="7">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D80" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="F80" s="7">
         <v>14</v>
@@ -80288,16 +80324,16 @@
         <v>14</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
       </c>
       <c r="K80" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L80" s="7">
         <v>-1</v>
@@ -80317,13 +80353,13 @@
     </row>
     <row r="81" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C81" s="7">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D81" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="F81" s="7">
         <v>14</v>
@@ -80332,16 +80368,16 @@
         <v>14</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="J81" s="7">
         <v>-1</v>
       </c>
       <c r="K81" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L81" s="7">
         <v>-1</v>
@@ -80361,13 +80397,13 @@
     </row>
     <row r="82" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C82" s="7">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D82" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="F82" s="7">
         <v>14</v>
@@ -80376,16 +80412,16 @@
         <v>14</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
       </c>
       <c r="K82" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L82" s="7">
         <v>-1</v>
@@ -80405,13 +80441,13 @@
     </row>
     <row r="83" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C83" s="7">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D83" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="F83" s="7">
         <v>14</v>
@@ -80420,16 +80456,16 @@
         <v>14</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="J83" s="7">
         <v>-1</v>
       </c>
       <c r="K83" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L83" s="7">
         <v>-1</v>
@@ -80449,13 +80485,13 @@
     </row>
     <row r="84" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C84" s="7">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D84" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>3568</v>
+        <v>3571</v>
       </c>
       <c r="F84" s="7">
         <v>14</v>
@@ -80464,16 +80500,16 @@
         <v>14</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="J84" s="7">
         <v>-1</v>
       </c>
       <c r="K84" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L84" s="7">
         <v>-1</v>
@@ -80493,13 +80529,13 @@
     </row>
     <row r="85" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C85" s="7">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D85" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="F85" s="7">
         <v>14</v>
@@ -80508,16 +80544,16 @@
         <v>14</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="J85" s="7">
         <v>-1</v>
       </c>
       <c r="K85" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L85" s="7">
         <v>-1</v>
@@ -80537,13 +80573,13 @@
     </row>
     <row r="86" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C86" s="7">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D86" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
       <c r="F86" s="7">
         <v>14</v>
@@ -80552,16 +80588,16 @@
         <v>14</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="J86" s="7">
         <v>-1</v>
       </c>
       <c r="K86" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L86" s="7">
         <v>-1</v>
@@ -80581,13 +80617,13 @@
     </row>
     <row r="87" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C87" s="7">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D87" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="F87" s="7">
         <v>14</v>
@@ -80596,16 +80632,16 @@
         <v>14</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
       <c r="J87" s="7">
         <v>-1</v>
       </c>
       <c r="K87" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L87" s="7">
         <v>-1</v>
@@ -80625,13 +80661,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C88" s="7">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D88" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="F88" s="7">
         <v>14</v>
@@ -80640,16 +80676,16 @@
         <v>14</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="J88" s="7">
         <v>-1</v>
       </c>
       <c r="K88" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L88" s="7">
         <v>-1</v>
@@ -80669,13 +80705,13 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C89" s="7">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D89" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
       <c r="F89" s="7">
         <v>14</v>
@@ -80684,10 +80720,10 @@
         <v>14</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="J89" s="7">
         <v>-1</v>
@@ -80713,13 +80749,13 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C90" s="7">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D90" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="F90" s="7">
         <v>14</v>
@@ -80728,10 +80764,10 @@
         <v>14</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="J90" s="7">
         <v>-1</v>
@@ -80757,13 +80793,13 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C91" s="7">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D91" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="F91" s="7">
         <v>14</v>
@@ -80772,10 +80808,10 @@
         <v>14</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="J91" s="7">
         <v>-1</v>
@@ -80801,13 +80837,13 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C92" s="7">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D92" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="F92" s="7">
         <v>14</v>
@@ -80816,10 +80852,10 @@
         <v>14</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="J92" s="7">
         <v>-1</v>
@@ -80843,57 +80879,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
+    <row r="93" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C93" s="7">
+        <v>417</v>
+      </c>
+      <c r="D93" s="7">
+        <v>17</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>3589</v>
+      </c>
+      <c r="F93" s="7">
+        <v>14</v>
+      </c>
+      <c r="G93" s="7">
+        <v>14</v>
+      </c>
+      <c r="H93" s="26" t="s">
+        <v>3557</v>
+      </c>
+      <c r="I93" s="26" t="s">
+        <v>3590</v>
+      </c>
+      <c r="J93" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K93" s="7">
+        <v>5</v>
+      </c>
+      <c r="L93" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M93" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N93" s="7">
+        <v>1</v>
+      </c>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C94" s="7">
+        <v>418</v>
+      </c>
+      <c r="D94" s="7">
+        <v>18</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>3591</v>
+      </c>
+      <c r="F94" s="7">
+        <v>14</v>
+      </c>
+      <c r="G94" s="7">
+        <v>14</v>
+      </c>
+      <c r="H94" s="26" t="s">
+        <v>3557</v>
+      </c>
+      <c r="I94" s="26" t="s">
+        <v>3592</v>
+      </c>
+      <c r="J94" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K94" s="7">
+        <v>5</v>
+      </c>
+      <c r="L94" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M94" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N94" s="7">
+        <v>1</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+      <c r="P94" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
       <c r="C95" s="7">
-        <v>501</v>
+        <v>419</v>
       </c>
       <c r="D95" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="F95" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G95" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>3587</v>
-      </c>
-      <c r="I95" s="25" t="s">
-        <v>3588</v>
+        <v>3557</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>3594</v>
       </c>
       <c r="J95" s="7">
         <v>-1</v>
@@ -80917,20 +81011,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
+    <row r="96" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C96" s="7">
+        <v>420</v>
+      </c>
+      <c r="D96" s="7">
+        <v>20</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>3595</v>
+      </c>
+      <c r="F96" s="7">
+        <v>14</v>
+      </c>
+      <c r="G96" s="7">
+        <v>14</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>3596</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>3597</v>
+      </c>
+      <c r="J96" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K96" s="7">
+        <v>6</v>
+      </c>
+      <c r="L96" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M96" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N96" s="7">
+        <v>1</v>
+      </c>
+      <c r="O96" s="7">
+        <v>0</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C97" s="7"/>
@@ -80947,20 +81070,49 @@
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
     </row>
-    <row r="98" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
+    <row r="98" s="2" customFormat="1" ht="24" customHeight="1" spans="3:16">
+      <c r="C98" s="7">
+        <v>501</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>3598</v>
+      </c>
+      <c r="F98" s="7">
+        <v>11</v>
+      </c>
+      <c r="G98" s="7">
+        <v>11</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>3599</v>
+      </c>
+      <c r="I98" s="25" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J98" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K98" s="7">
+        <v>5</v>
+      </c>
+      <c r="L98" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M98" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N98" s="7">
+        <v>1</v>
+      </c>
+      <c r="O98" s="7">
+        <v>0</v>
+      </c>
+      <c r="P98" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
       <c r="C99" s="7"/>
@@ -81037,20 +81189,65 @@
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
     </row>
-    <row r="104" spans="9:9">
-      <c r="I104" s="12"/>
-    </row>
-    <row r="105" spans="9:9">
-      <c r="I105" s="12"/>
-    </row>
-    <row r="106" spans="9:9">
-      <c r="I106" s="12"/>
+    <row r="104" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="24" customHeight="1" spans="3:15">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
     </row>
     <row r="107" spans="9:9">
       <c r="I107" s="12"/>
     </row>
     <row r="108" spans="9:9">
       <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="9:9">
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="9:9">
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="9:9">
+      <c r="I111" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -70360,8 +70360,8 @@
   <sheetPr/>
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -76016,7 +76016,7 @@
     </row>
     <row r="134" s="14" customFormat="1" customHeight="1" spans="3:15">
       <c r="C134" s="14">
-        <v>21006006</v>
+        <v>21006007</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>3382</v>
@@ -76057,7 +76057,7 @@
     </row>
     <row r="135" s="14" customFormat="1" customHeight="1" spans="3:15">
       <c r="C135" s="14">
-        <v>21006007</v>
+        <v>21006009</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>3382</v>
@@ -76098,7 +76098,7 @@
     </row>
     <row r="136" s="14" customFormat="1" customHeight="1" spans="3:15">
       <c r="C136" s="14">
-        <v>21006008</v>
+        <v>21006010</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>3382</v>
@@ -76344,7 +76344,7 @@
     </row>
     <row r="142" s="14" customFormat="1" customHeight="1" spans="3:15">
       <c r="C142" s="14">
-        <v>22006006</v>
+        <v>22006007</v>
       </c>
       <c r="D142" s="14" t="s">
         <v>3382</v>
@@ -76385,7 +76385,7 @@
     </row>
     <row r="143" s="14" customFormat="1" customHeight="1" spans="3:15">
       <c r="C143" s="14">
-        <v>22006007</v>
+        <v>22006009</v>
       </c>
       <c r="D143" s="14" t="s">
         <v>3382</v>
@@ -76426,7 +76426,7 @@
     </row>
     <row r="144" s="14" customFormat="1" customHeight="1" spans="3:15">
       <c r="C144" s="14">
-        <v>22006008</v>
+        <v>22006010</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>3382</v>
@@ -76672,7 +76672,7 @@
     </row>
     <row r="150" s="14" customFormat="1" customHeight="1" spans="3:15">
       <c r="C150" s="14">
-        <v>23006006</v>
+        <v>23006007</v>
       </c>
       <c r="D150" s="14" t="s">
         <v>3382</v>
@@ -76713,7 +76713,7 @@
     </row>
     <row r="151" s="14" customFormat="1" customHeight="1" spans="3:15">
       <c r="C151" s="14">
-        <v>23006007</v>
+        <v>23006009</v>
       </c>
       <c r="D151" s="14" t="s">
         <v>3382</v>
@@ -76754,7 +76754,7 @@
     </row>
     <row r="152" s="14" customFormat="1" customHeight="1" spans="3:15">
       <c r="C152" s="14">
-        <v>23006008</v>
+        <v>23006010</v>
       </c>
       <c r="D152" s="14" t="s">
         <v>3382</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -70360,8 +70360,8 @@
   <sheetPr/>
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
+      <selection activeCell="P129" sqref="P129:P152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -75809,7 +75809,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="129" s="14" customFormat="1" customHeight="1" spans="3:15">
+    <row r="129" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C129" s="14">
         <v>21006001</v>
       </c>
@@ -75849,8 +75849,11 @@
       <c r="O129" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="130" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P129" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="130" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C130" s="14">
         <v>21006002</v>
       </c>
@@ -75890,8 +75893,11 @@
       <c r="O130" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="131" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P130" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="131" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C131" s="14">
         <v>21006003</v>
       </c>
@@ -75931,8 +75937,11 @@
       <c r="O131" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="132" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P131" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="132" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C132" s="14">
         <v>21006004</v>
       </c>
@@ -75972,8 +75981,11 @@
       <c r="O132" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="133" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P132" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="133" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C133" s="14">
         <v>21006005</v>
       </c>
@@ -76013,8 +76025,11 @@
       <c r="O133" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="134" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P133" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="134" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C134" s="14">
         <v>21006007</v>
       </c>
@@ -76054,8 +76069,11 @@
       <c r="O134" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="135" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P134" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="135" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C135" s="14">
         <v>21006009</v>
       </c>
@@ -76095,8 +76113,11 @@
       <c r="O135" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="136" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P135" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="136" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C136" s="14">
         <v>21006010</v>
       </c>
@@ -76136,8 +76157,11 @@
       <c r="O136" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="137" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P136" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="137" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C137" s="14">
         <v>22006001</v>
       </c>
@@ -76177,8 +76201,11 @@
       <c r="O137" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="138" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P137" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="138" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C138" s="14">
         <v>22006002</v>
       </c>
@@ -76218,8 +76245,11 @@
       <c r="O138" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="139" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P138" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="139" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C139" s="14">
         <v>22006003</v>
       </c>
@@ -76259,8 +76289,11 @@
       <c r="O139" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="140" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P139" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="140" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C140" s="14">
         <v>22006004</v>
       </c>
@@ -76300,8 +76333,11 @@
       <c r="O140" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="141" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P140" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="141" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C141" s="14">
         <v>22006005</v>
       </c>
@@ -76341,8 +76377,11 @@
       <c r="O141" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="142" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P141" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="142" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C142" s="14">
         <v>22006007</v>
       </c>
@@ -76382,8 +76421,11 @@
       <c r="O142" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="143" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P142" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="143" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C143" s="14">
         <v>22006009</v>
       </c>
@@ -76423,8 +76465,11 @@
       <c r="O143" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="144" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P143" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="144" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C144" s="14">
         <v>22006010</v>
       </c>
@@ -76464,8 +76509,11 @@
       <c r="O144" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="145" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P144" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="145" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C145" s="14">
         <v>23006001</v>
       </c>
@@ -76505,8 +76553,11 @@
       <c r="O145" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="146" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P145" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="146" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C146" s="14">
         <v>23006002</v>
       </c>
@@ -76546,8 +76597,11 @@
       <c r="O146" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="147" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P146" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="147" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C147" s="14">
         <v>23006003</v>
       </c>
@@ -76587,8 +76641,11 @@
       <c r="O147" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="148" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P147" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="148" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C148" s="14">
         <v>23006004</v>
       </c>
@@ -76628,8 +76685,11 @@
       <c r="O148" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="149" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P148" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="149" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C149" s="14">
         <v>23006005</v>
       </c>
@@ -76669,8 +76729,11 @@
       <c r="O149" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="150" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P149" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="150" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C150" s="14">
         <v>23006007</v>
       </c>
@@ -76710,8 +76773,11 @@
       <c r="O150" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="151" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P150" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="151" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C151" s="14">
         <v>23006009</v>
       </c>
@@ -76751,8 +76817,11 @@
       <c r="O151" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="152" s="14" customFormat="1" customHeight="1" spans="3:15">
+      <c r="P151" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="152" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C152" s="14">
         <v>23006010</v>
       </c>
@@ -76791,6 +76860,9 @@
       </c>
       <c r="O152" s="14" t="s">
         <v>467</v>
+      </c>
+      <c r="P152" s="14">
+        <v>4201</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -11261,12 +11261,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -70360,7 +70360,7 @@
   <sheetPr/>
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
+    <sheetView topLeftCell="C124" workbookViewId="0">
       <selection activeCell="P129" sqref="P129:P152"/>
     </sheetView>
   </sheetViews>
@@ -78122,8 +78122,8 @@
   <sheetPr/>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -10675,7 +10675,7 @@
     <t>26,27,28,12,2010</t>
   </si>
   <si>
-    <t>350,350,350,350,10</t>
+    <t>400,400,400,400,10</t>
   </si>
   <si>
     <t>护盾一阶</t>
@@ -11261,12 +11261,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -78122,8 +78122,8 @@
   <sheetPr/>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19675" uniqueCount="3640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19939" uniqueCount="3680">
   <si>
     <t>_id</t>
   </si>
@@ -10406,6 +10406,126 @@
   </si>
   <si>
     <t>梦·冰龙道靴</t>
+  </si>
+  <si>
+    <t>梦·主宰战刃</t>
+  </si>
+  <si>
+    <t>7200000000</t>
+  </si>
+  <si>
+    <t>60000000000</t>
+  </si>
+  <si>
+    <t>梦·主宰战甲</t>
+  </si>
+  <si>
+    <t>80000000000,3200000000</t>
+  </si>
+  <si>
+    <t>梦·主宰战链</t>
+  </si>
+  <si>
+    <t>40000000000,2400000000</t>
+  </si>
+  <si>
+    <t>30000000000</t>
+  </si>
+  <si>
+    <t>梦·主宰战盔</t>
+  </si>
+  <si>
+    <t>40000000000,3200000000</t>
+  </si>
+  <si>
+    <t>梦·主宰战镯</t>
+  </si>
+  <si>
+    <t>梦·主宰战戒</t>
+  </si>
+  <si>
+    <t>梦·主宰战带</t>
+  </si>
+  <si>
+    <t>40000000000,2400000000,3200000000</t>
+  </si>
+  <si>
+    <t>梦·主宰战靴</t>
+  </si>
+  <si>
+    <t>梦·支配法杖</t>
+  </si>
+  <si>
+    <t>12000000000</t>
+  </si>
+  <si>
+    <t>梦·支配法衣</t>
+  </si>
+  <si>
+    <t>48000000000,3200000000</t>
+  </si>
+  <si>
+    <t>梦·支配法链</t>
+  </si>
+  <si>
+    <t>24000000000,4000000000</t>
+  </si>
+  <si>
+    <t>梦·支配法帽</t>
+  </si>
+  <si>
+    <t>24000000000,3200000000</t>
+  </si>
+  <si>
+    <t>梦·支配法镯</t>
+  </si>
+  <si>
+    <t>梦·支配法戒</t>
+  </si>
+  <si>
+    <t>梦·支配法带</t>
+  </si>
+  <si>
+    <t>24000000000,4000000000,3200000000</t>
+  </si>
+  <si>
+    <t>梦·支配法靴</t>
+  </si>
+  <si>
+    <t>梦·统御道剑</t>
+  </si>
+  <si>
+    <t>9600000000</t>
+  </si>
+  <si>
+    <t>梦·统御道袍</t>
+  </si>
+  <si>
+    <t>64000000000,3200000000</t>
+  </si>
+  <si>
+    <t>梦·统御道链</t>
+  </si>
+  <si>
+    <t>32000000000,3200000000</t>
+  </si>
+  <si>
+    <t>梦·统御道冠</t>
+  </si>
+  <si>
+    <t>梦·统御道镯</t>
+  </si>
+  <si>
+    <t>梦·统御道戒</t>
+  </si>
+  <si>
+    <t>梦·统御道带</t>
+  </si>
+  <si>
+    <t>32000000000,3200000000,3200000000</t>
+  </si>
+  <si>
+    <t>梦·统御道靴</t>
   </si>
   <si>
     <t>神龙战刃</t>
@@ -70358,10 +70478,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P152"/>
+  <dimension ref="A1:P177"/>
   <sheetViews>
-    <sheetView topLeftCell="C124" workbookViewId="0">
-      <selection activeCell="P129" sqref="P129:P152"/>
+    <sheetView tabSelected="1" topLeftCell="C152" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -76862,6 +76982,1062 @@
         <v>467</v>
       </c>
       <c r="P152" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="154" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C154" s="14">
+        <v>21006101</v>
+      </c>
+      <c r="D154" s="14">
+        <v>900</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>3421</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>3422</v>
+      </c>
+      <c r="J154" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K154" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L154" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M154" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N154" s="21" t="s">
+        <v>3423</v>
+      </c>
+      <c r="O154" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P154" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="155" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C155" s="14">
+        <v>21006102</v>
+      </c>
+      <c r="D155" s="14">
+        <v>900</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>3424</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>3425</v>
+      </c>
+      <c r="J155" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K155" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L155" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M155" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N155" s="21" t="s">
+        <v>3423</v>
+      </c>
+      <c r="O155" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P155" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="156" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C156" s="14">
+        <v>21006103</v>
+      </c>
+      <c r="D156" s="14">
+        <v>900</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="J156" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K156" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L156" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M156" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N156" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O156" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P156" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="157" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C157" s="14">
+        <v>21006104</v>
+      </c>
+      <c r="D157" s="14">
+        <v>900</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>3430</v>
+      </c>
+      <c r="J157" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K157" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L157" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M157" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N157" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O157" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P157" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="158" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C158" s="14">
+        <v>21006105</v>
+      </c>
+      <c r="D158" s="14">
+        <v>900</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>3431</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="J158" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K158" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L158" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M158" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N158" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O158" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P158" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="159" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C159" s="14">
+        <v>21006106</v>
+      </c>
+      <c r="D159" s="14">
+        <v>900</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K159" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L159" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M159" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N159" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O159" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P159" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="160" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C160" s="14">
+        <v>21006109</v>
+      </c>
+      <c r="D160" s="14">
+        <v>900</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>3434</v>
+      </c>
+      <c r="J160" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K160" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L160" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M160" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N160" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O160" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P160" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="161" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C161" s="14">
+        <v>21006110</v>
+      </c>
+      <c r="D161" s="14">
+        <v>900</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>3434</v>
+      </c>
+      <c r="J161" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K161" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L161" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M161" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N161" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O161" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P161" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="162" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C162" s="14">
+        <v>22006101</v>
+      </c>
+      <c r="D162" s="14">
+        <v>900</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>3437</v>
+      </c>
+      <c r="J162" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L162" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M162" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N162" s="21" t="s">
+        <v>3423</v>
+      </c>
+      <c r="O162" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P162" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="163" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C163" s="14">
+        <v>22006102</v>
+      </c>
+      <c r="D163" s="14">
+        <v>900</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>3438</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>3439</v>
+      </c>
+      <c r="J163" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L163" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M163" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N163" s="21" t="s">
+        <v>3423</v>
+      </c>
+      <c r="O163" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P163" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="164" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C164" s="14">
+        <v>22006103</v>
+      </c>
+      <c r="D164" s="14">
+        <v>900</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J164" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K164" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L164" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M164" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N164" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O164" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P164" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="165" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C165" s="14">
+        <v>22006104</v>
+      </c>
+      <c r="D165" s="14">
+        <v>900</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>3442</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>3443</v>
+      </c>
+      <c r="J165" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K165" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L165" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M165" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N165" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O165" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P165" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="166" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C166" s="14">
+        <v>22006105</v>
+      </c>
+      <c r="D166" s="14">
+        <v>900</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>3444</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J166" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K166" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L166" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M166" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N166" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O166" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P166" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="167" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C167" s="14">
+        <v>22006106</v>
+      </c>
+      <c r="D167" s="14">
+        <v>900</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>3445</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J167" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K167" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L167" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M167" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N167" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O167" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P167" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="168" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C168" s="14">
+        <v>22006109</v>
+      </c>
+      <c r="D168" s="14">
+        <v>900</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>3447</v>
+      </c>
+      <c r="J168" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K168" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L168" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M168" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N168" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O168" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P168" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="169" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C169" s="14">
+        <v>22006110</v>
+      </c>
+      <c r="D169" s="14">
+        <v>900</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>3447</v>
+      </c>
+      <c r="J169" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K169" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L169" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M169" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N169" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O169" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P169" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="170" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C170" s="14">
+        <v>23006101</v>
+      </c>
+      <c r="D170" s="14">
+        <v>900</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>3449</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J170" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K170" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L170" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M170" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N170" s="21" t="s">
+        <v>3423</v>
+      </c>
+      <c r="O170" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P170" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="171" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C171" s="14">
+        <v>23006102</v>
+      </c>
+      <c r="D171" s="14">
+        <v>900</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>3451</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>3452</v>
+      </c>
+      <c r="J171" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K171" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L171" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M171" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N171" s="21" t="s">
+        <v>3423</v>
+      </c>
+      <c r="O171" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P171" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="172" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C172" s="14">
+        <v>23006103</v>
+      </c>
+      <c r="D172" s="14">
+        <v>900</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>3453</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G172" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H172" s="14" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="J172" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K172" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L172" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M172" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N172" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O172" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P172" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="173" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C173" s="14">
+        <v>23006104</v>
+      </c>
+      <c r="D173" s="14">
+        <v>900</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>3455</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="J173" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K173" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L173" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M173" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N173" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O173" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P173" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="174" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C174" s="14">
+        <v>23006105</v>
+      </c>
+      <c r="D174" s="14">
+        <v>900</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="J174" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K174" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L174" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M174" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N174" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O174" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P174" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="175" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C175" s="14">
+        <v>23006106</v>
+      </c>
+      <c r="D175" s="14">
+        <v>900</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="J175" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K175" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L175" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M175" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N175" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O175" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P175" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="176" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C176" s="14">
+        <v>23006109</v>
+      </c>
+      <c r="D176" s="14">
+        <v>900</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>3458</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H176" s="14" t="s">
+        <v>2839</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>3459</v>
+      </c>
+      <c r="J176" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K176" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L176" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M176" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N176" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O176" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P176" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="177" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C177" s="14">
+        <v>23006110</v>
+      </c>
+      <c r="D177" s="14">
+        <v>900</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H177" s="14" t="s">
+        <v>2839</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>3459</v>
+      </c>
+      <c r="J177" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K177" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L177" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M177" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N177" s="21" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O177" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P177" s="14">
         <v>4201</v>
       </c>
     </row>
@@ -77058,7 +78234,7 @@
         <v>750</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>3421</v>
+        <v>3461</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>29</v>
@@ -77067,10 +78243,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>3422</v>
+        <v>3462</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>3423</v>
+        <v>3463</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>32</v>
@@ -77102,7 +78278,7 @@
         <v>750</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>3424</v>
+        <v>3464</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>30</v>
@@ -77114,7 +78290,7 @@
         <v>301</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>3425</v>
+        <v>3465</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>32</v>
@@ -77146,7 +78322,7 @@
         <v>750</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>3426</v>
+        <v>3466</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>467</v>
@@ -77190,7 +78366,7 @@
         <v>750</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>3427</v>
+        <v>3467</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>684</v>
@@ -77234,7 +78410,7 @@
         <v>750</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>3428</v>
+        <v>3468</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>795</v>
@@ -77278,7 +78454,7 @@
         <v>750</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>3429</v>
+        <v>3469</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>907</v>
@@ -77322,7 +78498,7 @@
         <v>750</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>3430</v>
+        <v>3470</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>1019</v>
@@ -77334,7 +78510,7 @@
         <v>1020</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>3431</v>
+        <v>3471</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>32</v>
@@ -77366,7 +78542,7 @@
         <v>750</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>3432</v>
+        <v>3472</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>27</v>
@@ -77378,7 +78554,7 @@
         <v>1020</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>3431</v>
+        <v>3471</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>32</v>
@@ -77410,7 +78586,7 @@
         <v>750</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>3433</v>
+        <v>3473</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>29</v>
@@ -77419,10 +78595,10 @@
         <v>29</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>3434</v>
+        <v>3474</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>3435</v>
+        <v>3475</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>32</v>
@@ -77454,7 +78630,7 @@
         <v>750</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>3436</v>
+        <v>3476</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>30</v>
@@ -77466,7 +78642,7 @@
         <v>301</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>3425</v>
+        <v>3465</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>32</v>
@@ -77498,7 +78674,7 @@
         <v>750</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>3437</v>
+        <v>3477</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>467</v>
@@ -77510,7 +78686,7 @@
         <v>1516</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>3438</v>
+        <v>3478</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>32</v>
@@ -77542,7 +78718,7 @@
         <v>750</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>3439</v>
+        <v>3479</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>684</v>
@@ -77554,7 +78730,7 @@
         <v>301</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>3438</v>
+        <v>3478</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>32</v>
@@ -77586,7 +78762,7 @@
         <v>750</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>3440</v>
+        <v>3480</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>795</v>
@@ -77598,7 +78774,7 @@
         <v>1516</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>3438</v>
+        <v>3478</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>32</v>
@@ -77630,7 +78806,7 @@
         <v>750</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>3441</v>
+        <v>3481</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>907</v>
@@ -77642,7 +78818,7 @@
         <v>1516</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>3438</v>
+        <v>3478</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>32</v>
@@ -77674,7 +78850,7 @@
         <v>750</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>3442</v>
+        <v>3482</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>1019</v>
@@ -77686,7 +78862,7 @@
         <v>1957</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>3443</v>
+        <v>3483</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>32</v>
@@ -77718,7 +78894,7 @@
         <v>750</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>3444</v>
+        <v>3484</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>27</v>
@@ -77730,7 +78906,7 @@
         <v>1957</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>3443</v>
+        <v>3483</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>32</v>
@@ -77762,7 +78938,7 @@
         <v>750</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>3445</v>
+        <v>3485</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>29</v>
@@ -77771,10 +78947,10 @@
         <v>29</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>3446</v>
+        <v>3486</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>3447</v>
+        <v>3487</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>32</v>
@@ -77806,7 +78982,7 @@
         <v>750</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>3448</v>
+        <v>3488</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>30</v>
@@ -77818,7 +78994,7 @@
         <v>301</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>3425</v>
+        <v>3465</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>32</v>
@@ -77850,7 +79026,7 @@
         <v>750</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>3449</v>
+        <v>3489</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>467</v>
@@ -77862,7 +79038,7 @@
         <v>2398</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>3450</v>
+        <v>3490</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>32</v>
@@ -77894,7 +79070,7 @@
         <v>750</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>3451</v>
+        <v>3491</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>684</v>
@@ -77906,7 +79082,7 @@
         <v>301</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>3450</v>
+        <v>3490</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>32</v>
@@ -77938,7 +79114,7 @@
         <v>750</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>3452</v>
+        <v>3492</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>795</v>
@@ -77950,7 +79126,7 @@
         <v>2398</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>3450</v>
+        <v>3490</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>32</v>
@@ -77982,7 +79158,7 @@
         <v>750</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>3453</v>
+        <v>3493</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>907</v>
@@ -77994,7 +79170,7 @@
         <v>2398</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>3450</v>
+        <v>3490</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>32</v>
@@ -78026,7 +79202,7 @@
         <v>750</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>3454</v>
+        <v>3494</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>1019</v>
@@ -78038,7 +79214,7 @@
         <v>2839</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>3455</v>
+        <v>3495</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>32</v>
@@ -78070,7 +79246,7 @@
         <v>750</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>3456</v>
+        <v>3496</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>27</v>
@@ -78082,7 +79258,7 @@
         <v>2839</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>3455</v>
+        <v>3495</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>32</v>
@@ -78122,7 +79298,7 @@
   <sheetPr/>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -78293,7 +79469,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3457</v>
+        <v>3497</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>29</v>
@@ -78302,10 +79478,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>3458</v>
+        <v>3498</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>3459</v>
+        <v>3499</v>
       </c>
       <c r="J6" s="2">
         <v>-1</v>
@@ -78337,7 +79513,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3460</v>
+        <v>3500</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
@@ -78381,7 +79557,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3461</v>
+        <v>3501</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>467</v>
@@ -78390,10 +79566,10 @@
         <v>467</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3458</v>
+        <v>3498</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>3462</v>
+        <v>3502</v>
       </c>
       <c r="J8" s="2">
         <v>-1</v>
@@ -78425,7 +79601,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3463</v>
+        <v>3503</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>684</v>
@@ -78437,7 +79613,7 @@
         <v>301</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>3464</v>
+        <v>3504</v>
       </c>
       <c r="J9" s="2">
         <v>-1</v>
@@ -78469,7 +79645,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3465</v>
+        <v>3505</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>795</v>
@@ -78478,10 +79654,10 @@
         <v>796</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>3458</v>
+        <v>3498</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>3462</v>
+        <v>3502</v>
       </c>
       <c r="J10" s="2">
         <v>-1</v>
@@ -78513,7 +79689,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3466</v>
+        <v>3506</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>907</v>
@@ -78525,7 +79701,7 @@
         <v>301</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>3464</v>
+        <v>3504</v>
       </c>
       <c r="J11" s="2">
         <v>-1</v>
@@ -78557,7 +79733,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3467</v>
+        <v>3507</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1019</v>
@@ -78566,10 +79742,10 @@
         <v>1019</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>3458</v>
+        <v>3498</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>3462</v>
+        <v>3502</v>
       </c>
       <c r="J12" s="2">
         <v>-1</v>
@@ -78601,7 +79777,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3468</v>
+        <v>3508</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
@@ -78613,7 +79789,7 @@
         <v>301</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>3464</v>
+        <v>3504</v>
       </c>
       <c r="J13" s="2">
         <v>-1</v>
@@ -78645,7 +79821,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3469</v>
+        <v>3509</v>
       </c>
       <c r="F14" s="2">
         <v>11</v>
@@ -78654,10 +79830,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>3471</v>
+        <v>3511</v>
       </c>
       <c r="J14" s="2">
         <v>-1</v>
@@ -78689,7 +79865,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3472</v>
+        <v>3512</v>
       </c>
       <c r="F15" s="2">
         <v>11</v>
@@ -78698,10 +79874,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>3473</v>
+        <v>3513</v>
       </c>
       <c r="J15" s="2">
         <v>-1</v>
@@ -78733,7 +79909,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3474</v>
+        <v>3514</v>
       </c>
       <c r="F16" s="2">
         <v>11</v>
@@ -78742,10 +79918,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>3475</v>
+        <v>3515</v>
       </c>
       <c r="J16" s="2">
         <v>-1</v>
@@ -78777,7 +79953,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3476</v>
+        <v>3516</v>
       </c>
       <c r="F17" s="2">
         <v>11</v>
@@ -78786,10 +79962,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>3477</v>
+        <v>3517</v>
       </c>
       <c r="J17" s="2">
         <v>-1</v>
@@ -78821,7 +79997,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3478</v>
+        <v>3518</v>
       </c>
       <c r="F18" s="2">
         <v>11</v>
@@ -78830,10 +80006,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>3479</v>
+        <v>3519</v>
       </c>
       <c r="J18" s="2">
         <v>-1</v>
@@ -78865,7 +80041,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3480</v>
+        <v>3520</v>
       </c>
       <c r="F19" s="2">
         <v>11</v>
@@ -78874,10 +80050,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>3481</v>
+        <v>3521</v>
       </c>
       <c r="J19" s="2">
         <v>-1</v>
@@ -78909,7 +80085,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3482</v>
+        <v>3522</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
@@ -78918,10 +80094,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>3483</v>
+        <v>3523</v>
       </c>
       <c r="J20" s="2">
         <v>-1</v>
@@ -78953,7 +80129,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3484</v>
+        <v>3524</v>
       </c>
       <c r="F21" s="2">
         <v>11</v>
@@ -78962,10 +80138,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>3485</v>
+        <v>3525</v>
       </c>
       <c r="J21" s="2">
         <v>-1</v>
@@ -78997,7 +80173,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3486</v>
+        <v>3526</v>
       </c>
       <c r="F22" s="2">
         <v>11</v>
@@ -79006,10 +80182,10 @@
         <v>11</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>3487</v>
+        <v>3527</v>
       </c>
       <c r="J22" s="2">
         <v>-1</v>
@@ -79041,7 +80217,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>3488</v>
+        <v>3528</v>
       </c>
       <c r="F23" s="2">
         <v>11</v>
@@ -79050,10 +80226,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>3489</v>
+        <v>3529</v>
       </c>
       <c r="J23" s="2">
         <v>-1</v>
@@ -79085,7 +80261,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3490</v>
+        <v>3530</v>
       </c>
       <c r="F24" s="2">
         <v>11</v>
@@ -79094,10 +80270,10 @@
         <v>11</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>3491</v>
+        <v>3531</v>
       </c>
       <c r="J24" s="2">
         <v>-1</v>
@@ -79129,7 +80305,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3492</v>
+        <v>3532</v>
       </c>
       <c r="F25" s="2">
         <v>11</v>
@@ -79138,10 +80314,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>3493</v>
+        <v>3533</v>
       </c>
       <c r="J25" s="2">
         <v>-1</v>
@@ -79173,7 +80349,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>3494</v>
+        <v>3534</v>
       </c>
       <c r="F26" s="2">
         <v>11</v>
@@ -79182,10 +80358,10 @@
         <v>11</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>3495</v>
+        <v>3535</v>
       </c>
       <c r="J26" s="2">
         <v>-1</v>
@@ -79217,7 +80393,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>3496</v>
+        <v>3536</v>
       </c>
       <c r="F27" s="2">
         <v>11</v>
@@ -79226,10 +80402,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>3497</v>
+        <v>3537</v>
       </c>
       <c r="J27" s="2">
         <v>-1</v>
@@ -79261,7 +80437,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>3498</v>
+        <v>3538</v>
       </c>
       <c r="F28" s="2">
         <v>11</v>
@@ -79270,10 +80446,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>3499</v>
+        <v>3539</v>
       </c>
       <c r="J28" s="2">
         <v>-1</v>
@@ -79305,7 +80481,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>3500</v>
+        <v>3540</v>
       </c>
       <c r="F29" s="2">
         <v>11</v>
@@ -79314,10 +80490,10 @@
         <v>11</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>3501</v>
+        <v>3541</v>
       </c>
       <c r="J29" s="2">
         <v>-1</v>
@@ -79349,7 +80525,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>3502</v>
+        <v>3542</v>
       </c>
       <c r="F30" s="2">
         <v>11</v>
@@ -79358,10 +80534,10 @@
         <v>11</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>3503</v>
+        <v>3543</v>
       </c>
       <c r="J30" s="2">
         <v>-1</v>
@@ -79393,7 +80569,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>3504</v>
+        <v>3544</v>
       </c>
       <c r="F31" s="2">
         <v>11</v>
@@ -79402,10 +80578,10 @@
         <v>11</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>3505</v>
+        <v>3545</v>
       </c>
       <c r="J31" s="2">
         <v>-1</v>
@@ -79437,7 +80613,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>3506</v>
+        <v>3546</v>
       </c>
       <c r="F32" s="2">
         <v>11</v>
@@ -79446,10 +80622,10 @@
         <v>11</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>3470</v>
+        <v>3510</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>3507</v>
+        <v>3547</v>
       </c>
       <c r="J32" s="2">
         <v>-1</v>
@@ -79481,7 +80657,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>3508</v>
+        <v>3548</v>
       </c>
       <c r="F33" s="2">
         <v>11</v>
@@ -79490,10 +80666,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>3509</v>
+        <v>3549</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>3510</v>
+        <v>3550</v>
       </c>
       <c r="J33" s="2">
         <v>-1</v>
@@ -79528,7 +80704,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>3511</v>
+        <v>3551</v>
       </c>
       <c r="F35" s="2">
         <v>12</v>
@@ -79537,10 +80713,10 @@
         <v>12</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>3513</v>
+        <v>3553</v>
       </c>
       <c r="J35" s="2">
         <v>-1</v>
@@ -79572,7 +80748,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>3514</v>
+        <v>3554</v>
       </c>
       <c r="F36" s="2">
         <v>12</v>
@@ -79581,10 +80757,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>3515</v>
+        <v>3555</v>
       </c>
       <c r="J36" s="2">
         <v>-1</v>
@@ -79616,7 +80792,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>3516</v>
+        <v>3556</v>
       </c>
       <c r="F37" s="2">
         <v>12</v>
@@ -79625,10 +80801,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>3517</v>
+        <v>3557</v>
       </c>
       <c r="J37" s="2">
         <v>-1</v>
@@ -79660,7 +80836,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>3518</v>
+        <v>3558</v>
       </c>
       <c r="F38" s="2">
         <v>12</v>
@@ -79669,10 +80845,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>3519</v>
+        <v>3559</v>
       </c>
       <c r="J38" s="2">
         <v>-1</v>
@@ -79704,7 +80880,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>3520</v>
+        <v>3560</v>
       </c>
       <c r="F39" s="2">
         <v>12</v>
@@ -79713,10 +80889,10 @@
         <v>12</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>3521</v>
+        <v>3561</v>
       </c>
       <c r="J39" s="2">
         <v>-1</v>
@@ -79748,7 +80924,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>3522</v>
+        <v>3562</v>
       </c>
       <c r="F40" s="2">
         <v>12</v>
@@ -79757,10 +80933,10 @@
         <v>12</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>3523</v>
+        <v>3563</v>
       </c>
       <c r="J40" s="2">
         <v>-1</v>
@@ -79792,7 +80968,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>3524</v>
+        <v>3564</v>
       </c>
       <c r="F41" s="2">
         <v>12</v>
@@ -79801,10 +80977,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>3525</v>
+        <v>3565</v>
       </c>
       <c r="J41" s="2">
         <v>-1</v>
@@ -79836,7 +81012,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>3526</v>
+        <v>3566</v>
       </c>
       <c r="F42" s="2">
         <v>12</v>
@@ -79845,10 +81021,10 @@
         <v>12</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>3527</v>
+        <v>3567</v>
       </c>
       <c r="J42" s="2">
         <v>-1</v>
@@ -79880,7 +81056,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>3528</v>
+        <v>3568</v>
       </c>
       <c r="F43" s="2">
         <v>12</v>
@@ -79889,10 +81065,10 @@
         <v>12</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>3529</v>
+        <v>3569</v>
       </c>
       <c r="J43" s="2">
         <v>-1</v>
@@ -79924,7 +81100,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>3530</v>
+        <v>3570</v>
       </c>
       <c r="F44" s="2">
         <v>12</v>
@@ -79933,10 +81109,10 @@
         <v>12</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>3531</v>
+        <v>3571</v>
       </c>
       <c r="J44" s="2">
         <v>-1</v>
@@ -79968,7 +81144,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>3532</v>
+        <v>3572</v>
       </c>
       <c r="F45" s="2">
         <v>12</v>
@@ -79977,10 +81153,10 @@
         <v>12</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>3533</v>
+        <v>3573</v>
       </c>
       <c r="J45" s="2">
         <v>-1</v>
@@ -80012,7 +81188,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>3534</v>
+        <v>3574</v>
       </c>
       <c r="F46" s="2">
         <v>12</v>
@@ -80021,10 +81197,10 @@
         <v>12</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>3535</v>
+        <v>3575</v>
       </c>
       <c r="J46" s="2">
         <v>-1</v>
@@ -80056,7 +81232,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>3536</v>
+        <v>3576</v>
       </c>
       <c r="F47" s="2">
         <v>12</v>
@@ -80065,10 +81241,10 @@
         <v>12</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>3537</v>
+        <v>3577</v>
       </c>
       <c r="J47" s="2">
         <v>-1</v>
@@ -80100,7 +81276,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>3538</v>
+        <v>3578</v>
       </c>
       <c r="F48" s="2">
         <v>12</v>
@@ -80109,10 +81285,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>3539</v>
+        <v>3579</v>
       </c>
       <c r="J48" s="2">
         <v>-1</v>
@@ -80144,7 +81320,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3540</v>
+        <v>3580</v>
       </c>
       <c r="F49" s="2">
         <v>12</v>
@@ -80153,10 +81329,10 @@
         <v>12</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>3541</v>
+        <v>3581</v>
       </c>
       <c r="J49" s="2">
         <v>-1</v>
@@ -80188,7 +81364,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>3542</v>
+        <v>3582</v>
       </c>
       <c r="F50" s="2">
         <v>12</v>
@@ -80197,10 +81373,10 @@
         <v>12</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>3543</v>
+        <v>3583</v>
       </c>
       <c r="J50" s="2">
         <v>-1</v>
@@ -80232,7 +81408,7 @@
         <v>17</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>3544</v>
+        <v>3584</v>
       </c>
       <c r="F51" s="2">
         <v>12</v>
@@ -80241,10 +81417,10 @@
         <v>12</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>3545</v>
+        <v>3585</v>
       </c>
       <c r="J51" s="2">
         <v>-1</v>
@@ -80276,7 +81452,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>3546</v>
+        <v>3586</v>
       </c>
       <c r="F52" s="2">
         <v>12</v>
@@ -80285,10 +81461,10 @@
         <v>12</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>3547</v>
+        <v>3587</v>
       </c>
       <c r="J52" s="2">
         <v>-1</v>
@@ -80320,7 +81496,7 @@
         <v>19</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>3548</v>
+        <v>3588</v>
       </c>
       <c r="F53" s="2">
         <v>12</v>
@@ -80329,10 +81505,10 @@
         <v>12</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>3512</v>
+        <v>3552</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>3549</v>
+        <v>3589</v>
       </c>
       <c r="J53" s="2">
         <v>-1</v>
@@ -80364,7 +81540,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>3550</v>
+        <v>3590</v>
       </c>
       <c r="F54" s="2">
         <v>12</v>
@@ -80373,10 +81549,10 @@
         <v>12</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>3551</v>
+        <v>3591</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>3552</v>
+        <v>3592</v>
       </c>
       <c r="J54" s="2">
         <v>-1</v>
@@ -80411,7 +81587,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>3553</v>
+        <v>3593</v>
       </c>
       <c r="F56" s="2">
         <v>13</v>
@@ -80420,10 +81596,10 @@
         <v>13</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>3555</v>
+        <v>3595</v>
       </c>
       <c r="J56" s="2">
         <v>-1</v>
@@ -80455,7 +81631,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>3556</v>
+        <v>3596</v>
       </c>
       <c r="F57" s="2">
         <v>13</v>
@@ -80464,10 +81640,10 @@
         <v>13</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>3557</v>
+        <v>3597</v>
       </c>
       <c r="J57" s="2">
         <v>-1</v>
@@ -80499,7 +81675,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>3558</v>
+        <v>3598</v>
       </c>
       <c r="F58" s="2">
         <v>13</v>
@@ -80508,10 +81684,10 @@
         <v>13</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>3559</v>
+        <v>3599</v>
       </c>
       <c r="J58" s="2">
         <v>-1</v>
@@ -80543,7 +81719,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>3560</v>
+        <v>3600</v>
       </c>
       <c r="F59" s="2">
         <v>13</v>
@@ -80552,10 +81728,10 @@
         <v>13</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>3561</v>
+        <v>3601</v>
       </c>
       <c r="J59" s="2">
         <v>-1</v>
@@ -80587,7 +81763,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3562</v>
+        <v>3602</v>
       </c>
       <c r="F60" s="2">
         <v>13</v>
@@ -80596,10 +81772,10 @@
         <v>13</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>3563</v>
+        <v>3603</v>
       </c>
       <c r="J60" s="2">
         <v>-1</v>
@@ -80631,7 +81807,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>3564</v>
+        <v>3604</v>
       </c>
       <c r="F61" s="2">
         <v>13</v>
@@ -80640,10 +81816,10 @@
         <v>13</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>3565</v>
+        <v>3605</v>
       </c>
       <c r="J61" s="2">
         <v>-1</v>
@@ -80675,7 +81851,7 @@
         <v>7</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>3566</v>
+        <v>3606</v>
       </c>
       <c r="F62" s="2">
         <v>13</v>
@@ -80684,10 +81860,10 @@
         <v>13</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>3567</v>
+        <v>3607</v>
       </c>
       <c r="J62" s="2">
         <v>-1</v>
@@ -80719,7 +81895,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>3568</v>
+        <v>3608</v>
       </c>
       <c r="F63" s="2">
         <v>13</v>
@@ -80728,10 +81904,10 @@
         <v>13</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>3569</v>
+        <v>3609</v>
       </c>
       <c r="J63" s="2">
         <v>-1</v>
@@ -80763,7 +81939,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>3570</v>
+        <v>3610</v>
       </c>
       <c r="F64" s="2">
         <v>13</v>
@@ -80772,10 +81948,10 @@
         <v>13</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>3571</v>
+        <v>3611</v>
       </c>
       <c r="J64" s="2">
         <v>-1</v>
@@ -80807,7 +81983,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>3572</v>
+        <v>3612</v>
       </c>
       <c r="F65" s="2">
         <v>13</v>
@@ -80816,10 +81992,10 @@
         <v>13</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>3573</v>
+        <v>3613</v>
       </c>
       <c r="J65" s="2">
         <v>-1</v>
@@ -80851,7 +82027,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>3574</v>
+        <v>3614</v>
       </c>
       <c r="F66" s="2">
         <v>13</v>
@@ -80860,10 +82036,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>3575</v>
+        <v>3615</v>
       </c>
       <c r="J66" s="2">
         <v>-1</v>
@@ -80895,7 +82071,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>3576</v>
+        <v>3616</v>
       </c>
       <c r="F67" s="2">
         <v>13</v>
@@ -80904,10 +82080,10 @@
         <v>13</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>3577</v>
+        <v>3617</v>
       </c>
       <c r="J67" s="2">
         <v>-1</v>
@@ -80939,7 +82115,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>3578</v>
+        <v>3618</v>
       </c>
       <c r="F68" s="2">
         <v>13</v>
@@ -80948,10 +82124,10 @@
         <v>13</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>3579</v>
+        <v>3619</v>
       </c>
       <c r="J68" s="2">
         <v>-1</v>
@@ -80983,7 +82159,7 @@
         <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>3580</v>
+        <v>3620</v>
       </c>
       <c r="F69" s="2">
         <v>13</v>
@@ -80992,10 +82168,10 @@
         <v>13</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>3581</v>
+        <v>3621</v>
       </c>
       <c r="J69" s="2">
         <v>-1</v>
@@ -81027,7 +82203,7 @@
         <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>3582</v>
+        <v>3622</v>
       </c>
       <c r="F70" s="2">
         <v>13</v>
@@ -81036,10 +82212,10 @@
         <v>13</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>3583</v>
+        <v>3623</v>
       </c>
       <c r="J70" s="2">
         <v>-1</v>
@@ -81071,7 +82247,7 @@
         <v>16</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>3584</v>
+        <v>3624</v>
       </c>
       <c r="F71" s="2">
         <v>13</v>
@@ -81080,10 +82256,10 @@
         <v>13</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>3585</v>
+        <v>3625</v>
       </c>
       <c r="J71" s="2">
         <v>-1</v>
@@ -81115,7 +82291,7 @@
         <v>17</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>3586</v>
+        <v>3626</v>
       </c>
       <c r="F72" s="2">
         <v>13</v>
@@ -81124,10 +82300,10 @@
         <v>13</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>3587</v>
+        <v>3627</v>
       </c>
       <c r="J72" s="2">
         <v>-1</v>
@@ -81159,7 +82335,7 @@
         <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>3588</v>
+        <v>3628</v>
       </c>
       <c r="F73" s="2">
         <v>13</v>
@@ -81168,10 +82344,10 @@
         <v>13</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>3589</v>
+        <v>3629</v>
       </c>
       <c r="J73" s="2">
         <v>-1</v>
@@ -81203,7 +82379,7 @@
         <v>19</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>3590</v>
+        <v>3630</v>
       </c>
       <c r="F74" s="2">
         <v>13</v>
@@ -81212,10 +82388,10 @@
         <v>13</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>3554</v>
+        <v>3594</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>3591</v>
+        <v>3631</v>
       </c>
       <c r="J74" s="2">
         <v>-1</v>
@@ -81247,7 +82423,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>3592</v>
+        <v>3632</v>
       </c>
       <c r="F75" s="2">
         <v>13</v>
@@ -81256,10 +82432,10 @@
         <v>13</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>3593</v>
+        <v>3633</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>3594</v>
+        <v>3634</v>
       </c>
       <c r="J75" s="2">
         <v>-1</v>
@@ -81294,7 +82470,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>3595</v>
+        <v>3635</v>
       </c>
       <c r="F77" s="2">
         <v>14</v>
@@ -81303,10 +82479,10 @@
         <v>14</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>3597</v>
+        <v>3637</v>
       </c>
       <c r="J77" s="2">
         <v>-1</v>
@@ -81338,7 +82514,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>3598</v>
+        <v>3638</v>
       </c>
       <c r="F78" s="2">
         <v>14</v>
@@ -81347,10 +82523,10 @@
         <v>14</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>3599</v>
+        <v>3639</v>
       </c>
       <c r="J78" s="2">
         <v>-1</v>
@@ -81382,7 +82558,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>3600</v>
+        <v>3640</v>
       </c>
       <c r="F79" s="2">
         <v>14</v>
@@ -81391,10 +82567,10 @@
         <v>14</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>3601</v>
+        <v>3641</v>
       </c>
       <c r="J79" s="2">
         <v>-1</v>
@@ -81426,7 +82602,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>3602</v>
+        <v>3642</v>
       </c>
       <c r="F80" s="2">
         <v>14</v>
@@ -81435,10 +82611,10 @@
         <v>14</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I80" s="20" t="s">
-        <v>3603</v>
+        <v>3643</v>
       </c>
       <c r="J80" s="2">
         <v>-1</v>
@@ -81470,7 +82646,7 @@
         <v>5</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>3604</v>
+        <v>3644</v>
       </c>
       <c r="F81" s="2">
         <v>14</v>
@@ -81479,10 +82655,10 @@
         <v>14</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>3605</v>
+        <v>3645</v>
       </c>
       <c r="J81" s="2">
         <v>-1</v>
@@ -81514,7 +82690,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>3606</v>
+        <v>3646</v>
       </c>
       <c r="F82" s="2">
         <v>14</v>
@@ -81523,10 +82699,10 @@
         <v>14</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>3607</v>
+        <v>3647</v>
       </c>
       <c r="J82" s="2">
         <v>-1</v>
@@ -81558,7 +82734,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>3608</v>
+        <v>3648</v>
       </c>
       <c r="F83" s="2">
         <v>14</v>
@@ -81567,10 +82743,10 @@
         <v>14</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>3609</v>
+        <v>3649</v>
       </c>
       <c r="J83" s="2">
         <v>-1</v>
@@ -81602,7 +82778,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>3610</v>
+        <v>3650</v>
       </c>
       <c r="F84" s="2">
         <v>14</v>
@@ -81611,10 +82787,10 @@
         <v>14</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>3611</v>
+        <v>3651</v>
       </c>
       <c r="J84" s="2">
         <v>-1</v>
@@ -81646,7 +82822,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>3612</v>
+        <v>3652</v>
       </c>
       <c r="F85" s="2">
         <v>14</v>
@@ -81655,10 +82831,10 @@
         <v>14</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>3613</v>
+        <v>3653</v>
       </c>
       <c r="J85" s="2">
         <v>-1</v>
@@ -81690,7 +82866,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>3614</v>
+        <v>3654</v>
       </c>
       <c r="F86" s="2">
         <v>14</v>
@@ -81699,10 +82875,10 @@
         <v>14</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>3615</v>
+        <v>3655</v>
       </c>
       <c r="J86" s="2">
         <v>-1</v>
@@ -81734,7 +82910,7 @@
         <v>11</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>3616</v>
+        <v>3656</v>
       </c>
       <c r="F87" s="2">
         <v>14</v>
@@ -81743,10 +82919,10 @@
         <v>14</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>3617</v>
+        <v>3657</v>
       </c>
       <c r="J87" s="2">
         <v>-1</v>
@@ -81778,7 +82954,7 @@
         <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>3618</v>
+        <v>3658</v>
       </c>
       <c r="F88" s="2">
         <v>14</v>
@@ -81787,10 +82963,10 @@
         <v>14</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>3619</v>
+        <v>3659</v>
       </c>
       <c r="J88" s="2">
         <v>-1</v>
@@ -81822,7 +82998,7 @@
         <v>13</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>3620</v>
+        <v>3660</v>
       </c>
       <c r="F89" s="2">
         <v>14</v>
@@ -81831,10 +83007,10 @@
         <v>14</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>3621</v>
+        <v>3661</v>
       </c>
       <c r="J89" s="2">
         <v>-1</v>
@@ -81866,7 +83042,7 @@
         <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>3622</v>
+        <v>3662</v>
       </c>
       <c r="F90" s="2">
         <v>14</v>
@@ -81875,10 +83051,10 @@
         <v>14</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>3623</v>
+        <v>3663</v>
       </c>
       <c r="J90" s="2">
         <v>-1</v>
@@ -81910,7 +83086,7 @@
         <v>15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>3624</v>
+        <v>3664</v>
       </c>
       <c r="F91" s="2">
         <v>14</v>
@@ -81919,10 +83095,10 @@
         <v>14</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>3625</v>
+        <v>3665</v>
       </c>
       <c r="J91" s="2">
         <v>-1</v>
@@ -81954,7 +83130,7 @@
         <v>16</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>3626</v>
+        <v>3666</v>
       </c>
       <c r="F92" s="2">
         <v>14</v>
@@ -81963,10 +83139,10 @@
         <v>14</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>3627</v>
+        <v>3667</v>
       </c>
       <c r="J92" s="2">
         <v>-1</v>
@@ -81998,7 +83174,7 @@
         <v>17</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>3628</v>
+        <v>3668</v>
       </c>
       <c r="F93" s="2">
         <v>14</v>
@@ -82007,10 +83183,10 @@
         <v>14</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>3629</v>
+        <v>3669</v>
       </c>
       <c r="J93" s="2">
         <v>-1</v>
@@ -82042,7 +83218,7 @@
         <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>3630</v>
+        <v>3670</v>
       </c>
       <c r="F94" s="2">
         <v>14</v>
@@ -82051,10 +83227,10 @@
         <v>14</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>3631</v>
+        <v>3671</v>
       </c>
       <c r="J94" s="2">
         <v>-1</v>
@@ -82086,7 +83262,7 @@
         <v>19</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>3632</v>
+        <v>3672</v>
       </c>
       <c r="F95" s="2">
         <v>14</v>
@@ -82095,10 +83271,10 @@
         <v>14</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>3596</v>
+        <v>3636</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>3633</v>
+        <v>3673</v>
       </c>
       <c r="J95" s="2">
         <v>-1</v>
@@ -82130,7 +83306,7 @@
         <v>20</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>3634</v>
+        <v>3674</v>
       </c>
       <c r="F96" s="2">
         <v>14</v>
@@ -82139,10 +83315,10 @@
         <v>14</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>3635</v>
+        <v>3675</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>3636</v>
+        <v>3676</v>
       </c>
       <c r="J96" s="2">
         <v>-1</v>
@@ -82174,7 +83350,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>3637</v>
+        <v>3677</v>
       </c>
       <c r="F98" s="2">
         <v>11</v>
@@ -82183,10 +83359,10 @@
         <v>11</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>3638</v>
+        <v>3678</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>3639</v>
+        <v>3679</v>
       </c>
       <c r="J98" s="2">
         <v>-1</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -70480,8 +70480,8 @@
   <sheetPr/>
   <dimension ref="A1:P177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C152" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -77207,7 +77207,7 @@
     </row>
     <row r="159" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C159" s="14">
-        <v>21006106</v>
+        <v>21006107</v>
       </c>
       <c r="D159" s="14">
         <v>900</v>
@@ -77559,7 +77559,7 @@
     </row>
     <row r="167" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C167" s="14">
-        <v>22006106</v>
+        <v>22006107</v>
       </c>
       <c r="D167" s="14">
         <v>900</v>
@@ -77911,7 +77911,7 @@
     </row>
     <row r="175" s="14" customFormat="1" customHeight="1" spans="3:16">
       <c r="C175" s="14">
-        <v>23006106</v>
+        <v>23006107</v>
       </c>
       <c r="D175" s="14">
         <v>900</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19939" uniqueCount="3680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19948" uniqueCount="3685">
   <si>
     <t>_id</t>
   </si>
@@ -10798,6 +10798,12 @@
     <t>400,400,400,400,10</t>
   </si>
   <si>
+    <t>斗笠二一阶</t>
+  </si>
+  <si>
+    <t>500,500,500,500,20</t>
+  </si>
+  <si>
     <t>护盾一阶</t>
   </si>
   <si>
@@ -10924,6 +10930,12 @@
     <t>400,400,5</t>
   </si>
   <si>
+    <t>护盾二一阶</t>
+  </si>
+  <si>
+    <t>500,500,10</t>
+  </si>
+  <si>
     <t>神符一阶</t>
   </si>
   <si>
@@ -11050,6 +11062,12 @@
     <t>40,40,400,400,400,10</t>
   </si>
   <si>
+    <t>神符二一阶</t>
+  </si>
+  <si>
+    <t>50,50,500,500,500,20</t>
+  </si>
+  <si>
     <t>魔石一阶</t>
   </si>
   <si>
@@ -11176,13 +11194,10 @@
     <t>40,400,6,20</t>
   </si>
   <si>
-    <t>测试斗笠</t>
-  </si>
-  <si>
-    <t>26,27,28,12,6,29</t>
-  </si>
-  <si>
-    <t>200,200,200,200,500,500</t>
+    <t>魔石二一阶</t>
+  </si>
+  <si>
+    <t>50,500,6,30</t>
   </si>
 </sst>
 </file>
@@ -11381,12 +11396,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -70480,7 +70495,7 @@
   <sheetPr/>
   <dimension ref="A1:P177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+    <sheetView topLeftCell="A152" workbookViewId="0">
       <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
@@ -79296,10 +79311,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -80693,62 +80708,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C35" s="2">
-        <v>201</v>
-      </c>
-      <c r="D35" s="2">
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C34" s="2">
+        <v>121</v>
+      </c>
+      <c r="D34" s="2">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>3551</v>
+      </c>
+      <c r="F34" s="2">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2">
+        <v>11</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>3549</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>3552</v>
+      </c>
+      <c r="J34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>6</v>
+      </c>
+      <c r="L34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>3551</v>
-      </c>
-      <c r="F35" s="2">
-        <v>12</v>
-      </c>
-      <c r="G35" s="2">
-        <v>12</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>3552</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>3553</v>
-      </c>
-      <c r="J35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M35" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N35" s="2">
-        <v>1</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I35" s="9"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C36" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="F36" s="2">
         <v>12</v>
@@ -80757,7 +80772,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I36" s="20" t="s">
         <v>3555</v>
@@ -80786,10 +80801,10 @@
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C37" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>3556</v>
@@ -80801,9 +80816,9 @@
         <v>12</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>3552</v>
-      </c>
-      <c r="I37" s="22" t="s">
+        <v>3554</v>
+      </c>
+      <c r="I37" s="20" t="s">
         <v>3557</v>
       </c>
       <c r="J37" s="2">
@@ -80830,10 +80845,10 @@
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C38" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>3558</v>
@@ -80845,7 +80860,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I38" s="22" t="s">
         <v>3559</v>
@@ -80854,7 +80869,7 @@
         <v>-1</v>
       </c>
       <c r="K38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
         <v>-1</v>
@@ -80874,10 +80889,10 @@
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C39" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>3560</v>
@@ -80889,7 +80904,7 @@
         <v>12</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I39" s="22" t="s">
         <v>3561</v>
@@ -80918,10 +80933,10 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C40" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>3562</v>
@@ -80933,7 +80948,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I40" s="22" t="s">
         <v>3563</v>
@@ -80962,10 +80977,10 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C41" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D41" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>3564</v>
@@ -80977,7 +80992,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I41" s="22" t="s">
         <v>3565</v>
@@ -80986,7 +81001,7 @@
         <v>-1</v>
       </c>
       <c r="K41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L41" s="2">
         <v>-1</v>
@@ -81006,10 +81021,10 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C42" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D42" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>3566</v>
@@ -81021,7 +81036,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I42" s="22" t="s">
         <v>3567</v>
@@ -81050,10 +81065,10 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C43" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D43" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>3568</v>
@@ -81065,7 +81080,7 @@
         <v>12</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>3569</v>
@@ -81094,10 +81109,10 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C44" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>3570</v>
@@ -81109,7 +81124,7 @@
         <v>12</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I44" s="22" t="s">
         <v>3571</v>
@@ -81118,7 +81133,7 @@
         <v>-1</v>
       </c>
       <c r="K44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L44" s="2">
         <v>-1</v>
@@ -81138,10 +81153,10 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C45" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D45" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>3572</v>
@@ -81153,7 +81168,7 @@
         <v>12</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I45" s="22" t="s">
         <v>3573</v>
@@ -81182,10 +81197,10 @@
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C46" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D46" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>3574</v>
@@ -81197,7 +81212,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>3575</v>
@@ -81226,10 +81241,10 @@
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C47" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D47" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>3576</v>
@@ -81241,7 +81256,7 @@
         <v>12</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>3577</v>
@@ -81250,7 +81265,7 @@
         <v>-1</v>
       </c>
       <c r="K47" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" s="2">
         <v>-1</v>
@@ -81270,10 +81285,10 @@
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C48" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D48" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>3578</v>
@@ -81285,7 +81300,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>3579</v>
@@ -81314,10 +81329,10 @@
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C49" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D49" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>3580</v>
@@ -81329,7 +81344,7 @@
         <v>12</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>3581</v>
@@ -81358,10 +81373,10 @@
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C50" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D50" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>3582</v>
@@ -81373,7 +81388,7 @@
         <v>12</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>3583</v>
@@ -81402,10 +81417,10 @@
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C51" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D51" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>3584</v>
@@ -81417,7 +81432,7 @@
         <v>12</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I51" s="22" t="s">
         <v>3585</v>
@@ -81446,10 +81461,10 @@
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C52" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D52" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>3586</v>
@@ -81461,7 +81476,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I52" s="22" t="s">
         <v>3587</v>
@@ -81490,10 +81505,10 @@
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C53" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D53" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>3588</v>
@@ -81505,7 +81520,7 @@
         <v>12</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="I53" s="22" t="s">
         <v>3589</v>
@@ -81534,10 +81549,10 @@
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C54" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D54" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>3590</v>
@@ -81549,16 +81564,16 @@
         <v>12</v>
       </c>
       <c r="H54" s="20" t="s">
+        <v>3554</v>
+      </c>
+      <c r="I54" s="22" t="s">
         <v>3591</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>3592</v>
       </c>
       <c r="J54" s="2">
         <v>-1</v>
       </c>
       <c r="K54" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L54" s="2">
         <v>-1</v>
@@ -81576,36 +81591,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I55" s="9"/>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C55" s="2">
+        <v>220</v>
+      </c>
+      <c r="D55" s="2">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>3592</v>
+      </c>
+      <c r="F55" s="2">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2">
+        <v>12</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>3593</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>3594</v>
+      </c>
+      <c r="J55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>6</v>
+      </c>
+      <c r="L55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C56" s="2">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>3595</v>
+      </c>
+      <c r="F56" s="2">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2">
+        <v>12</v>
+      </c>
+      <c r="H56" s="20" t="s">
         <v>3593</v>
       </c>
-      <c r="F56" s="2">
-        <v>13</v>
-      </c>
-      <c r="G56" s="2">
-        <v>13</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>3594</v>
-      </c>
       <c r="I56" s="22" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="J56" s="2">
         <v>-1</v>
       </c>
       <c r="K56" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L56" s="2">
         <v>-1</v>
@@ -81623,59 +81679,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C57" s="2">
-        <v>302</v>
-      </c>
-      <c r="D57" s="2">
-        <v>2</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>3596</v>
-      </c>
-      <c r="F57" s="2">
-        <v>13</v>
-      </c>
-      <c r="G57" s="2">
-        <v>13</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>3594</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>3597</v>
-      </c>
-      <c r="J57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M57" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N57" s="2">
-        <v>1</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I57" s="9"/>
     </row>
     <row r="58" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C58" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D58" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="F58" s="2">
         <v>13</v>
@@ -81684,7 +81699,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I58" s="22" t="s">
         <v>3599</v>
@@ -81713,10 +81728,10 @@
     </row>
     <row r="59" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C59" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D59" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>3600</v>
@@ -81728,7 +81743,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I59" s="22" t="s">
         <v>3601</v>
@@ -81737,7 +81752,7 @@
         <v>-1</v>
       </c>
       <c r="K59" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59" s="2">
         <v>-1</v>
@@ -81757,10 +81772,10 @@
     </row>
     <row r="60" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C60" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D60" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>3602</v>
@@ -81772,7 +81787,7 @@
         <v>13</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I60" s="22" t="s">
         <v>3603</v>
@@ -81781,7 +81796,7 @@
         <v>-1</v>
       </c>
       <c r="K60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" s="2">
         <v>-1</v>
@@ -81801,10 +81816,10 @@
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C61" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D61" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>3604</v>
@@ -81816,7 +81831,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I61" s="22" t="s">
         <v>3605</v>
@@ -81845,10 +81860,10 @@
     </row>
     <row r="62" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C62" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D62" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>3606</v>
@@ -81860,7 +81875,7 @@
         <v>13</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I62" s="22" t="s">
         <v>3607</v>
@@ -81869,7 +81884,7 @@
         <v>-1</v>
       </c>
       <c r="K62" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L62" s="2">
         <v>-1</v>
@@ -81889,10 +81904,10 @@
     </row>
     <row r="63" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C63" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D63" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>3608</v>
@@ -81904,7 +81919,7 @@
         <v>13</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I63" s="22" t="s">
         <v>3609</v>
@@ -81913,7 +81928,7 @@
         <v>-1</v>
       </c>
       <c r="K63" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L63" s="2">
         <v>-1</v>
@@ -81933,10 +81948,10 @@
     </row>
     <row r="64" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C64" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D64" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>3610</v>
@@ -81948,7 +81963,7 @@
         <v>13</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I64" s="22" t="s">
         <v>3611</v>
@@ -81977,10 +81992,10 @@
     </row>
     <row r="65" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C65" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D65" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>3612</v>
@@ -81992,7 +82007,7 @@
         <v>13</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I65" s="22" t="s">
         <v>3613</v>
@@ -82001,7 +82016,7 @@
         <v>-1</v>
       </c>
       <c r="K65" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L65" s="2">
         <v>-1</v>
@@ -82021,10 +82036,10 @@
     </row>
     <row r="66" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C66" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D66" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>3614</v>
@@ -82036,7 +82051,7 @@
         <v>13</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I66" s="22" t="s">
         <v>3615</v>
@@ -82045,7 +82060,7 @@
         <v>-1</v>
       </c>
       <c r="K66" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L66" s="2">
         <v>-1</v>
@@ -82065,10 +82080,10 @@
     </row>
     <row r="67" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C67" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D67" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>3616</v>
@@ -82080,7 +82095,7 @@
         <v>13</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I67" s="22" t="s">
         <v>3617</v>
@@ -82109,10 +82124,10 @@
     </row>
     <row r="68" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C68" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D68" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>3618</v>
@@ -82124,7 +82139,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I68" s="22" t="s">
         <v>3619</v>
@@ -82133,7 +82148,7 @@
         <v>-1</v>
       </c>
       <c r="K68" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L68" s="2">
         <v>-1</v>
@@ -82153,10 +82168,10 @@
     </row>
     <row r="69" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C69" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D69" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>3620</v>
@@ -82168,7 +82183,7 @@
         <v>13</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I69" s="22" t="s">
         <v>3621</v>
@@ -82177,7 +82192,7 @@
         <v>-1</v>
       </c>
       <c r="K69" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L69" s="2">
         <v>-1</v>
@@ -82197,10 +82212,10 @@
     </row>
     <row r="70" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C70" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D70" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>3622</v>
@@ -82212,7 +82227,7 @@
         <v>13</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I70" s="22" t="s">
         <v>3623</v>
@@ -82241,10 +82256,10 @@
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C71" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D71" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>3624</v>
@@ -82256,7 +82271,7 @@
         <v>13</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I71" s="22" t="s">
         <v>3625</v>
@@ -82285,10 +82300,10 @@
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C72" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D72" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>3626</v>
@@ -82300,7 +82315,7 @@
         <v>13</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I72" s="22" t="s">
         <v>3627</v>
@@ -82329,10 +82344,10 @@
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C73" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D73" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>3628</v>
@@ -82344,7 +82359,7 @@
         <v>13</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I73" s="22" t="s">
         <v>3629</v>
@@ -82373,10 +82388,10 @@
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C74" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D74" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>3630</v>
@@ -82388,7 +82403,7 @@
         <v>13</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="I74" s="22" t="s">
         <v>3631</v>
@@ -82417,10 +82432,10 @@
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C75" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D75" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>3632</v>
@@ -82432,16 +82447,16 @@
         <v>13</v>
       </c>
       <c r="H75" s="20" t="s">
+        <v>3598</v>
+      </c>
+      <c r="I75" s="22" t="s">
         <v>3633</v>
-      </c>
-      <c r="I75" s="22" t="s">
-        <v>3634</v>
       </c>
       <c r="J75" s="2">
         <v>-1</v>
       </c>
       <c r="K75" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L75" s="2">
         <v>-1</v>
@@ -82459,36 +82474,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I76" s="9"/>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C76" s="2">
+        <v>319</v>
+      </c>
+      <c r="D76" s="2">
+        <v>19</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F76" s="2">
+        <v>13</v>
+      </c>
+      <c r="G76" s="2">
+        <v>13</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>3598</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>3635</v>
+      </c>
+      <c r="J76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K76" s="2">
+        <v>5</v>
+      </c>
+      <c r="L76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N76" s="2">
+        <v>1</v>
+      </c>
+      <c r="O76" s="2">
+        <v>0</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C77" s="2">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="D77" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="F77" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G77" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>3636</v>
-      </c>
-      <c r="I77" s="20" t="s">
         <v>3637</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>3638</v>
       </c>
       <c r="J77" s="2">
         <v>-1</v>
       </c>
       <c r="K77" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L77" s="2">
         <v>-1</v>
@@ -82508,31 +82564,31 @@
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C78" s="2">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="D78" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="F78" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G78" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>3636</v>
-      </c>
-      <c r="I78" s="20" t="s">
-        <v>3639</v>
+        <v>3637</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>3640</v>
       </c>
       <c r="J78" s="2">
         <v>-1</v>
       </c>
       <c r="K78" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L78" s="2">
         <v>-1</v>
@@ -82550,59 +82606,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C79" s="2">
-        <v>403</v>
-      </c>
-      <c r="D79" s="2">
-        <v>3</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>3640</v>
-      </c>
-      <c r="F79" s="2">
-        <v>14</v>
-      </c>
-      <c r="G79" s="2">
-        <v>14</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>3636</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>3641</v>
-      </c>
-      <c r="J79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-      <c r="L79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N79" s="2">
-        <v>1</v>
-      </c>
-      <c r="O79" s="2">
-        <v>0</v>
-      </c>
-      <c r="P79" s="2">
-        <v>0</v>
-      </c>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I79" s="9"/>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C80" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D80" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="F80" s="2">
         <v>14</v>
@@ -82611,7 +82626,7 @@
         <v>14</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I80" s="20" t="s">
         <v>3643</v>
@@ -82620,7 +82635,7 @@
         <v>-1</v>
       </c>
       <c r="K80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80" s="2">
         <v>-1</v>
@@ -82640,10 +82655,10 @@
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C81" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D81" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>3644</v>
@@ -82655,7 +82670,7 @@
         <v>14</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I81" s="20" t="s">
         <v>3645</v>
@@ -82664,7 +82679,7 @@
         <v>-1</v>
       </c>
       <c r="K81" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L81" s="2">
         <v>-1</v>
@@ -82684,10 +82699,10 @@
     </row>
     <row r="82" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C82" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D82" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>3646</v>
@@ -82699,7 +82714,7 @@
         <v>14</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I82" s="20" t="s">
         <v>3647</v>
@@ -82708,7 +82723,7 @@
         <v>-1</v>
       </c>
       <c r="K82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L82" s="2">
         <v>-1</v>
@@ -82728,10 +82743,10 @@
     </row>
     <row r="83" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C83" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D83" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>3648</v>
@@ -82743,7 +82758,7 @@
         <v>14</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I83" s="20" t="s">
         <v>3649</v>
@@ -82752,7 +82767,7 @@
         <v>-1</v>
       </c>
       <c r="K83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L83" s="2">
         <v>-1</v>
@@ -82772,10 +82787,10 @@
     </row>
     <row r="84" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C84" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D84" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>3650</v>
@@ -82787,7 +82802,7 @@
         <v>14</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I84" s="20" t="s">
         <v>3651</v>
@@ -82796,7 +82811,7 @@
         <v>-1</v>
       </c>
       <c r="K84" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L84" s="2">
         <v>-1</v>
@@ -82816,10 +82831,10 @@
     </row>
     <row r="85" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C85" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D85" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>3652</v>
@@ -82831,7 +82846,7 @@
         <v>14</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I85" s="20" t="s">
         <v>3653</v>
@@ -82840,7 +82855,7 @@
         <v>-1</v>
       </c>
       <c r="K85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L85" s="2">
         <v>-1</v>
@@ -82860,10 +82875,10 @@
     </row>
     <row r="86" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C86" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D86" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>3654</v>
@@ -82875,7 +82890,7 @@
         <v>14</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I86" s="20" t="s">
         <v>3655</v>
@@ -82884,7 +82899,7 @@
         <v>-1</v>
       </c>
       <c r="K86" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L86" s="2">
         <v>-1</v>
@@ -82904,10 +82919,10 @@
     </row>
     <row r="87" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C87" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D87" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>3656</v>
@@ -82919,7 +82934,7 @@
         <v>14</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I87" s="20" t="s">
         <v>3657</v>
@@ -82928,7 +82943,7 @@
         <v>-1</v>
       </c>
       <c r="K87" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L87" s="2">
         <v>-1</v>
@@ -82948,10 +82963,10 @@
     </row>
     <row r="88" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C88" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D88" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>3658</v>
@@ -82963,7 +82978,7 @@
         <v>14</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I88" s="20" t="s">
         <v>3659</v>
@@ -82972,7 +82987,7 @@
         <v>-1</v>
       </c>
       <c r="K88" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L88" s="2">
         <v>-1</v>
@@ -82992,10 +83007,10 @@
     </row>
     <row r="89" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C89" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D89" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>3660</v>
@@ -83007,7 +83022,7 @@
         <v>14</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I89" s="20" t="s">
         <v>3661</v>
@@ -83016,7 +83031,7 @@
         <v>-1</v>
       </c>
       <c r="K89" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L89" s="2">
         <v>-1</v>
@@ -83036,10 +83051,10 @@
     </row>
     <row r="90" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C90" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D90" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>3662</v>
@@ -83051,7 +83066,7 @@
         <v>14</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I90" s="20" t="s">
         <v>3663</v>
@@ -83060,7 +83075,7 @@
         <v>-1</v>
       </c>
       <c r="K90" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L90" s="2">
         <v>-1</v>
@@ -83080,10 +83095,10 @@
     </row>
     <row r="91" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C91" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D91" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>3664</v>
@@ -83095,7 +83110,7 @@
         <v>14</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I91" s="20" t="s">
         <v>3665</v>
@@ -83104,7 +83119,7 @@
         <v>-1</v>
       </c>
       <c r="K91" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L91" s="2">
         <v>-1</v>
@@ -83124,10 +83139,10 @@
     </row>
     <row r="92" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C92" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D92" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>3666</v>
@@ -83139,7 +83154,7 @@
         <v>14</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I92" s="20" t="s">
         <v>3667</v>
@@ -83168,10 +83183,10 @@
     </row>
     <row r="93" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C93" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D93" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>3668</v>
@@ -83183,7 +83198,7 @@
         <v>14</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I93" s="20" t="s">
         <v>3669</v>
@@ -83212,10 +83227,10 @@
     </row>
     <row r="94" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C94" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D94" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>3670</v>
@@ -83227,7 +83242,7 @@
         <v>14</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I94" s="20" t="s">
         <v>3671</v>
@@ -83256,10 +83271,10 @@
     </row>
     <row r="95" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C95" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D95" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>3672</v>
@@ -83271,7 +83286,7 @@
         <v>14</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="I95" s="20" t="s">
         <v>3673</v>
@@ -83300,10 +83315,10 @@
     </row>
     <row r="96" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C96" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D96" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>3674</v>
@@ -83315,16 +83330,16 @@
         <v>14</v>
       </c>
       <c r="H96" s="20" t="s">
+        <v>3642</v>
+      </c>
+      <c r="I96" s="20" t="s">
         <v>3675</v>
-      </c>
-      <c r="I96" s="20" t="s">
-        <v>3676</v>
       </c>
       <c r="J96" s="2">
         <v>-1</v>
       </c>
       <c r="K96" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L96" s="2">
         <v>-1</v>
@@ -83342,26 +83357,70 @@
         <v>0</v>
       </c>
     </row>
+    <row r="97" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C97" s="2">
+        <v>418</v>
+      </c>
+      <c r="D97" s="2">
+        <v>18</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>3676</v>
+      </c>
+      <c r="F97" s="2">
+        <v>14</v>
+      </c>
+      <c r="G97" s="2">
+        <v>14</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>3642</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>3677</v>
+      </c>
+      <c r="J97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K97" s="2">
+        <v>5</v>
+      </c>
+      <c r="L97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N97" s="2">
+        <v>1</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="98" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C98" s="2">
-        <v>501</v>
+        <v>419</v>
       </c>
       <c r="D98" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="F98" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G98" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>3678</v>
-      </c>
-      <c r="I98" s="22" t="s">
+        <v>3642</v>
+      </c>
+      <c r="I98" s="20" t="s">
         <v>3679</v>
       </c>
       <c r="J98" s="2">
@@ -83386,20 +83445,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="9:9">
-      <c r="I107" s="9"/>
-    </row>
-    <row r="108" customHeight="1" spans="9:9">
-      <c r="I108" s="9"/>
-    </row>
-    <row r="109" customHeight="1" spans="9:9">
-      <c r="I109" s="9"/>
+    <row r="99" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C99" s="2">
+        <v>420</v>
+      </c>
+      <c r="D99" s="2">
+        <v>20</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>3680</v>
+      </c>
+      <c r="F99" s="2">
+        <v>14</v>
+      </c>
+      <c r="G99" s="2">
+        <v>14</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>3681</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>3682</v>
+      </c>
+      <c r="J99" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K99" s="2">
+        <v>6</v>
+      </c>
+      <c r="L99" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M99" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N99" s="2">
+        <v>1</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0</v>
+      </c>
+      <c r="P99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C100" s="2">
+        <v>421</v>
+      </c>
+      <c r="D100" s="2">
+        <v>21</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F100" s="2">
+        <v>14</v>
+      </c>
+      <c r="G100" s="2">
+        <v>14</v>
+      </c>
+      <c r="H100" s="20" t="s">
+        <v>3681</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>3684</v>
+      </c>
+      <c r="J100" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K100" s="2">
+        <v>6</v>
+      </c>
+      <c r="L100" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N100" s="2">
+        <v>1</v>
+      </c>
+      <c r="O100" s="2">
+        <v>0</v>
+      </c>
+      <c r="P100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I101" s="9"/>
     </row>
     <row r="110" customHeight="1" spans="9:9">
       <c r="I110" s="9"/>
     </row>
     <row r="111" customHeight="1" spans="9:9">
       <c r="I111" s="9"/>
+    </row>
+    <row r="112" customHeight="1" spans="9:9">
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" customHeight="1" spans="9:9">
+      <c r="I113" s="9"/>
+    </row>
+    <row r="114" customHeight="1" spans="9:9">
+      <c r="I114" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -11396,12 +11396,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -12236,8 +12236,8 @@
   <sheetPr/>
   <dimension ref="A1:P1325"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A1300" workbookViewId="0">
+      <selection activeCell="E1305" sqref="E1305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -70495,8 +70495,8 @@
   <sheetPr/>
   <dimension ref="A1:P177"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -79313,7 +79313,7 @@
   <sheetPr/>
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B70" workbookViewId="0">
       <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19948" uniqueCount="3685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20260" uniqueCount="3750">
   <si>
     <t>_id</t>
   </si>
@@ -10526,6 +10526,201 @@
   </si>
   <si>
     <t>梦·统御道靴</t>
+  </si>
+  <si>
+    <t>21006201</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>梦·雷神战刃</t>
+  </si>
+  <si>
+    <t>14400000000</t>
+  </si>
+  <si>
+    <t>90000000000</t>
+  </si>
+  <si>
+    <t>21006202</t>
+  </si>
+  <si>
+    <t>梦·雷神战甲</t>
+  </si>
+  <si>
+    <t>160000000000,6400000000</t>
+  </si>
+  <si>
+    <t>21006203</t>
+  </si>
+  <si>
+    <t>梦·雷神战链</t>
+  </si>
+  <si>
+    <t>80000000000,4800000000</t>
+  </si>
+  <si>
+    <t>45000000000</t>
+  </si>
+  <si>
+    <t>21006204</t>
+  </si>
+  <si>
+    <t>梦·雷神战盔</t>
+  </si>
+  <si>
+    <t>80000000000,6400000000</t>
+  </si>
+  <si>
+    <t>21006205</t>
+  </si>
+  <si>
+    <t>梦·雷神战镯</t>
+  </si>
+  <si>
+    <t>21006207</t>
+  </si>
+  <si>
+    <t>梦·雷神战戒</t>
+  </si>
+  <si>
+    <t>21006209</t>
+  </si>
+  <si>
+    <t>梦·雷神战带</t>
+  </si>
+  <si>
+    <t>80000000000,4800000000,6400000000</t>
+  </si>
+  <si>
+    <t>21006210</t>
+  </si>
+  <si>
+    <t>梦·雷神战靴</t>
+  </si>
+  <si>
+    <t>22006201</t>
+  </si>
+  <si>
+    <t>梦·火神法杖</t>
+  </si>
+  <si>
+    <t>24000000000</t>
+  </si>
+  <si>
+    <t>22006202</t>
+  </si>
+  <si>
+    <t>梦·火神法衣</t>
+  </si>
+  <si>
+    <t>96000000000,6400000000</t>
+  </si>
+  <si>
+    <t>22006203</t>
+  </si>
+  <si>
+    <t>梦·火神法链</t>
+  </si>
+  <si>
+    <t>48000000000,8000000000</t>
+  </si>
+  <si>
+    <t>22006204</t>
+  </si>
+  <si>
+    <t>梦·火神法帽</t>
+  </si>
+  <si>
+    <t>48000000000,6400000000</t>
+  </si>
+  <si>
+    <t>22006205</t>
+  </si>
+  <si>
+    <t>梦·火神法镯</t>
+  </si>
+  <si>
+    <t>22006207</t>
+  </si>
+  <si>
+    <t>梦·火神法戒</t>
+  </si>
+  <si>
+    <t>22006209</t>
+  </si>
+  <si>
+    <t>梦·火神法带</t>
+  </si>
+  <si>
+    <t>48000000000,8000000000,6400000000</t>
+  </si>
+  <si>
+    <t>22006210</t>
+  </si>
+  <si>
+    <t>梦·火神法靴</t>
+  </si>
+  <si>
+    <t>23006201</t>
+  </si>
+  <si>
+    <t>梦·风神道剑</t>
+  </si>
+  <si>
+    <t>19200000000</t>
+  </si>
+  <si>
+    <t>23006202</t>
+  </si>
+  <si>
+    <t>梦·风神道袍</t>
+  </si>
+  <si>
+    <t>128000000000,6400000000</t>
+  </si>
+  <si>
+    <t>23006203</t>
+  </si>
+  <si>
+    <t>梦·风神道链</t>
+  </si>
+  <si>
+    <t>64000000000,6400000000</t>
+  </si>
+  <si>
+    <t>23006204</t>
+  </si>
+  <si>
+    <t>梦·风神道冠</t>
+  </si>
+  <si>
+    <t>23006205</t>
+  </si>
+  <si>
+    <t>梦·风神道镯</t>
+  </si>
+  <si>
+    <t>23006207</t>
+  </si>
+  <si>
+    <t>梦·风神道戒</t>
+  </si>
+  <si>
+    <t>23006209</t>
+  </si>
+  <si>
+    <t>梦·风神道带</t>
+  </si>
+  <si>
+    <t>64000000000,6400000000,6400000000</t>
+  </si>
+  <si>
+    <t>23006210</t>
+  </si>
+  <si>
+    <t>梦·风神道靴</t>
   </si>
   <si>
     <t>神龙战刃</t>
@@ -70493,10 +70688,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P177"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="E179" workbookViewId="0">
+      <selection activeCell="P179" sqref="P179:P202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -78053,6 +78248,1062 @@
         <v>467</v>
       </c>
       <c r="P177" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="179" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C179" s="14" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H179" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I179" s="14" t="s">
+        <v>3464</v>
+      </c>
+      <c r="J179" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K179" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L179" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M179" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N179" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="O179" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P179" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="180" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C180" s="14" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>3467</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G180" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H180" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I180" s="14" t="s">
+        <v>3468</v>
+      </c>
+      <c r="J180" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K180" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L180" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M180" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N180" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="O180" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P180" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="181" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C181" s="14" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>3470</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="I181" s="14" t="s">
+        <v>3471</v>
+      </c>
+      <c r="J181" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K181" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L181" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M181" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N181" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O181" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P181" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="182" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C182" s="14" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>3474</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I182" s="14" t="s">
+        <v>3475</v>
+      </c>
+      <c r="J182" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K182" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L182" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M182" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N182" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O182" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P182" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="183" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C183" s="14" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>3477</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="H183" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="I183" s="14" t="s">
+        <v>3471</v>
+      </c>
+      <c r="J183" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K183" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L183" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M183" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N183" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O183" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P183" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="184" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C184" s="14" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>3479</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="I184" s="14" t="s">
+        <v>3471</v>
+      </c>
+      <c r="J184" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K184" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L184" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M184" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N184" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O184" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P184" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="185" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C185" s="14" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G185" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I185" s="14" t="s">
+        <v>3482</v>
+      </c>
+      <c r="J185" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K185" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L185" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M185" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N185" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O185" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P185" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="186" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C186" s="14" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>3484</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G186" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H186" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I186" s="14" t="s">
+        <v>3482</v>
+      </c>
+      <c r="J186" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K186" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L186" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M186" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N186" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O186" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P186" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="187" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C187" s="14" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>3486</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G187" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H187" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="I187" s="14" t="s">
+        <v>3487</v>
+      </c>
+      <c r="J187" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L187" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M187" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N187" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="O187" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P187" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="188" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C188" s="14" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D188" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H188" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I188" s="14" t="s">
+        <v>3490</v>
+      </c>
+      <c r="J188" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K188" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L188" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M188" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N188" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="O188" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P188" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="189" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C189" s="14" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D189" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>3492</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G189" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H189" s="14" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I189" s="14" t="s">
+        <v>3493</v>
+      </c>
+      <c r="J189" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K189" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L189" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M189" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N189" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O189" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P189" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="190" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C190" s="14" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D190" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G190" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="H190" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I190" s="14" t="s">
+        <v>3496</v>
+      </c>
+      <c r="J190" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K190" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L190" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M190" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N190" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O190" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P190" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="191" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C191" s="14" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D191" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>3498</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="G191" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="H191" s="14" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I191" s="14" t="s">
+        <v>3493</v>
+      </c>
+      <c r="J191" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K191" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L191" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M191" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N191" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O191" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P191" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="192" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C192" s="14" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D192" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>3500</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="G192" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="H192" s="14" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I192" s="14" t="s">
+        <v>3493</v>
+      </c>
+      <c r="J192" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K192" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L192" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M192" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N192" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O192" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P192" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="193" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C193" s="14" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D193" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>3502</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G193" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H193" s="14" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I193" s="14" t="s">
+        <v>3503</v>
+      </c>
+      <c r="J193" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K193" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L193" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M193" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N193" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O193" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P193" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="194" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C194" s="14" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D194" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G194" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H194" s="14" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I194" s="14" t="s">
+        <v>3503</v>
+      </c>
+      <c r="J194" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K194" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L194" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M194" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N194" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O194" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P194" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="195" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C195" s="14" t="s">
+        <v>3506</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H195" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="I195" s="14" t="s">
+        <v>3508</v>
+      </c>
+      <c r="J195" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K195" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L195" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M195" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N195" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="O195" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P195" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="196" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C196" s="14" t="s">
+        <v>3509</v>
+      </c>
+      <c r="D196" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>3510</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H196" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I196" s="14" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J196" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K196" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L196" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M196" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N196" s="2" t="s">
+        <v>3465</v>
+      </c>
+      <c r="O196" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P196" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="197" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C197" s="14" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D197" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G197" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H197" s="14" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I197" s="14" t="s">
+        <v>3514</v>
+      </c>
+      <c r="J197" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K197" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L197" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M197" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N197" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O197" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P197" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="198" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C198" s="14" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D198" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E198" s="14" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="H198" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I198" s="14" t="s">
+        <v>3514</v>
+      </c>
+      <c r="J198" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K198" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L198" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M198" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N198" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O198" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P198" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="199" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C199" s="14" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>3518</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="G199" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="H199" s="14" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I199" s="14" t="s">
+        <v>3514</v>
+      </c>
+      <c r="J199" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K199" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L199" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M199" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N199" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O199" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P199" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="200" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C200" s="14" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>3520</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="G200" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="H200" s="14" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I200" s="14" t="s">
+        <v>3514</v>
+      </c>
+      <c r="J200" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K200" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L200" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M200" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O200" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P200" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="201" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C201" s="14" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G201" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H201" s="14" t="s">
+        <v>2839</v>
+      </c>
+      <c r="I201" s="14" t="s">
+        <v>3523</v>
+      </c>
+      <c r="J201" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K201" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L201" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M201" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O201" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P201" s="14">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="202" s="14" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C202" s="14" t="s">
+        <v>3524</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>3525</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G202" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H202" s="14" t="s">
+        <v>2839</v>
+      </c>
+      <c r="I202" s="14" t="s">
+        <v>3523</v>
+      </c>
+      <c r="J202" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K202" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L202" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M202" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N202" s="2" t="s">
+        <v>3472</v>
+      </c>
+      <c r="O202" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="P202" s="14">
         <v>4201</v>
       </c>
     </row>
@@ -78249,7 +79500,7 @@
         <v>750</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>3461</v>
+        <v>3526</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>29</v>
@@ -78258,10 +79509,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>3462</v>
+        <v>3527</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>3463</v>
+        <v>3528</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>32</v>
@@ -78293,7 +79544,7 @@
         <v>750</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>3464</v>
+        <v>3529</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>30</v>
@@ -78305,7 +79556,7 @@
         <v>301</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>3465</v>
+        <v>3530</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>32</v>
@@ -78337,7 +79588,7 @@
         <v>750</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>3466</v>
+        <v>3531</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>467</v>
@@ -78381,7 +79632,7 @@
         <v>750</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>3467</v>
+        <v>3532</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>684</v>
@@ -78425,7 +79676,7 @@
         <v>750</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>3468</v>
+        <v>3533</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>795</v>
@@ -78469,7 +79720,7 @@
         <v>750</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>3469</v>
+        <v>3534</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>907</v>
@@ -78513,7 +79764,7 @@
         <v>750</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>3470</v>
+        <v>3535</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>1019</v>
@@ -78525,7 +79776,7 @@
         <v>1020</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>3471</v>
+        <v>3536</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>32</v>
@@ -78557,7 +79808,7 @@
         <v>750</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>3472</v>
+        <v>3537</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>27</v>
@@ -78569,7 +79820,7 @@
         <v>1020</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>3471</v>
+        <v>3536</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>32</v>
@@ -78601,7 +79852,7 @@
         <v>750</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>3473</v>
+        <v>3538</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>29</v>
@@ -78610,10 +79861,10 @@
         <v>29</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>3474</v>
+        <v>3539</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>3475</v>
+        <v>3540</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>32</v>
@@ -78645,7 +79896,7 @@
         <v>750</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>3476</v>
+        <v>3541</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>30</v>
@@ -78657,7 +79908,7 @@
         <v>301</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>3465</v>
+        <v>3530</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>32</v>
@@ -78689,7 +79940,7 @@
         <v>750</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>3477</v>
+        <v>3542</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>467</v>
@@ -78701,7 +79952,7 @@
         <v>1516</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>3478</v>
+        <v>3543</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>32</v>
@@ -78733,7 +79984,7 @@
         <v>750</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>3479</v>
+        <v>3544</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>684</v>
@@ -78745,7 +79996,7 @@
         <v>301</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>3478</v>
+        <v>3543</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>32</v>
@@ -78777,7 +80028,7 @@
         <v>750</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>3480</v>
+        <v>3545</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>795</v>
@@ -78789,7 +80040,7 @@
         <v>1516</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>3478</v>
+        <v>3543</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>32</v>
@@ -78821,7 +80072,7 @@
         <v>750</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>3481</v>
+        <v>3546</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>907</v>
@@ -78833,7 +80084,7 @@
         <v>1516</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>3478</v>
+        <v>3543</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>32</v>
@@ -78865,7 +80116,7 @@
         <v>750</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>3482</v>
+        <v>3547</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>1019</v>
@@ -78877,7 +80128,7 @@
         <v>1957</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>3483</v>
+        <v>3548</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>32</v>
@@ -78909,7 +80160,7 @@
         <v>750</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>3484</v>
+        <v>3549</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>27</v>
@@ -78921,7 +80172,7 @@
         <v>1957</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>3483</v>
+        <v>3548</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>32</v>
@@ -78953,7 +80204,7 @@
         <v>750</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>3485</v>
+        <v>3550</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>29</v>
@@ -78962,10 +80213,10 @@
         <v>29</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>3486</v>
+        <v>3551</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>3487</v>
+        <v>3552</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>32</v>
@@ -78997,7 +80248,7 @@
         <v>750</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>3488</v>
+        <v>3553</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>30</v>
@@ -79009,7 +80260,7 @@
         <v>301</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>3465</v>
+        <v>3530</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>32</v>
@@ -79041,7 +80292,7 @@
         <v>750</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>3489</v>
+        <v>3554</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>467</v>
@@ -79053,7 +80304,7 @@
         <v>2398</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>3490</v>
+        <v>3555</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>32</v>
@@ -79085,7 +80336,7 @@
         <v>750</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>3491</v>
+        <v>3556</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>684</v>
@@ -79097,7 +80348,7 @@
         <v>301</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>3490</v>
+        <v>3555</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>32</v>
@@ -79129,7 +80380,7 @@
         <v>750</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>3492</v>
+        <v>3557</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>795</v>
@@ -79141,7 +80392,7 @@
         <v>2398</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>3490</v>
+        <v>3555</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>32</v>
@@ -79173,7 +80424,7 @@
         <v>750</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>3493</v>
+        <v>3558</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>907</v>
@@ -79185,7 +80436,7 @@
         <v>2398</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>3490</v>
+        <v>3555</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>32</v>
@@ -79217,7 +80468,7 @@
         <v>750</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>3494</v>
+        <v>3559</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>1019</v>
@@ -79229,7 +80480,7 @@
         <v>2839</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>3495</v>
+        <v>3560</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>32</v>
@@ -79261,7 +80512,7 @@
         <v>750</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>3496</v>
+        <v>3561</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>27</v>
@@ -79273,7 +80524,7 @@
         <v>2839</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>3495</v>
+        <v>3560</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>32</v>
@@ -79484,7 +80735,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3497</v>
+        <v>3562</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>29</v>
@@ -79493,10 +80744,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>3498</v>
+        <v>3563</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>3499</v>
+        <v>3564</v>
       </c>
       <c r="J6" s="2">
         <v>-1</v>
@@ -79528,7 +80779,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3500</v>
+        <v>3565</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
@@ -79572,7 +80823,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3501</v>
+        <v>3566</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>467</v>
@@ -79581,10 +80832,10 @@
         <v>467</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3498</v>
+        <v>3563</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>3502</v>
+        <v>3567</v>
       </c>
       <c r="J8" s="2">
         <v>-1</v>
@@ -79616,7 +80867,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3503</v>
+        <v>3568</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>684</v>
@@ -79628,7 +80879,7 @@
         <v>301</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>3504</v>
+        <v>3569</v>
       </c>
       <c r="J9" s="2">
         <v>-1</v>
@@ -79660,7 +80911,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3505</v>
+        <v>3570</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>795</v>
@@ -79669,10 +80920,10 @@
         <v>796</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>3498</v>
+        <v>3563</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>3502</v>
+        <v>3567</v>
       </c>
       <c r="J10" s="2">
         <v>-1</v>
@@ -79704,7 +80955,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3506</v>
+        <v>3571</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>907</v>
@@ -79716,7 +80967,7 @@
         <v>301</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>3504</v>
+        <v>3569</v>
       </c>
       <c r="J11" s="2">
         <v>-1</v>
@@ -79748,7 +80999,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3507</v>
+        <v>3572</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1019</v>
@@ -79757,10 +81008,10 @@
         <v>1019</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>3498</v>
+        <v>3563</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>3502</v>
+        <v>3567</v>
       </c>
       <c r="J12" s="2">
         <v>-1</v>
@@ -79792,7 +81043,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3508</v>
+        <v>3573</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
@@ -79804,7 +81055,7 @@
         <v>301</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>3504</v>
+        <v>3569</v>
       </c>
       <c r="J13" s="2">
         <v>-1</v>
@@ -79836,7 +81087,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3509</v>
+        <v>3574</v>
       </c>
       <c r="F14" s="2">
         <v>11</v>
@@ -79845,10 +81096,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>3511</v>
+        <v>3576</v>
       </c>
       <c r="J14" s="2">
         <v>-1</v>
@@ -79880,7 +81131,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3512</v>
+        <v>3577</v>
       </c>
       <c r="F15" s="2">
         <v>11</v>
@@ -79889,10 +81140,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>3513</v>
+        <v>3578</v>
       </c>
       <c r="J15" s="2">
         <v>-1</v>
@@ -79924,7 +81175,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3514</v>
+        <v>3579</v>
       </c>
       <c r="F16" s="2">
         <v>11</v>
@@ -79933,10 +81184,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>3515</v>
+        <v>3580</v>
       </c>
       <c r="J16" s="2">
         <v>-1</v>
@@ -79968,7 +81219,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3516</v>
+        <v>3581</v>
       </c>
       <c r="F17" s="2">
         <v>11</v>
@@ -79977,10 +81228,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>3517</v>
+        <v>3582</v>
       </c>
       <c r="J17" s="2">
         <v>-1</v>
@@ -80012,7 +81263,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3518</v>
+        <v>3583</v>
       </c>
       <c r="F18" s="2">
         <v>11</v>
@@ -80021,10 +81272,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>3519</v>
+        <v>3584</v>
       </c>
       <c r="J18" s="2">
         <v>-1</v>
@@ -80056,7 +81307,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3520</v>
+        <v>3585</v>
       </c>
       <c r="F19" s="2">
         <v>11</v>
@@ -80065,10 +81316,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>3521</v>
+        <v>3586</v>
       </c>
       <c r="J19" s="2">
         <v>-1</v>
@@ -80100,7 +81351,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3522</v>
+        <v>3587</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
@@ -80109,10 +81360,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>3523</v>
+        <v>3588</v>
       </c>
       <c r="J20" s="2">
         <v>-1</v>
@@ -80144,7 +81395,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3524</v>
+        <v>3589</v>
       </c>
       <c r="F21" s="2">
         <v>11</v>
@@ -80153,10 +81404,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>3525</v>
+        <v>3590</v>
       </c>
       <c r="J21" s="2">
         <v>-1</v>
@@ -80188,7 +81439,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>3526</v>
+        <v>3591</v>
       </c>
       <c r="F22" s="2">
         <v>11</v>
@@ -80197,10 +81448,10 @@
         <v>11</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>3527</v>
+        <v>3592</v>
       </c>
       <c r="J22" s="2">
         <v>-1</v>
@@ -80232,7 +81483,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>3528</v>
+        <v>3593</v>
       </c>
       <c r="F23" s="2">
         <v>11</v>
@@ -80241,10 +81492,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>3529</v>
+        <v>3594</v>
       </c>
       <c r="J23" s="2">
         <v>-1</v>
@@ -80276,7 +81527,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3530</v>
+        <v>3595</v>
       </c>
       <c r="F24" s="2">
         <v>11</v>
@@ -80285,10 +81536,10 @@
         <v>11</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>3531</v>
+        <v>3596</v>
       </c>
       <c r="J24" s="2">
         <v>-1</v>
@@ -80320,7 +81571,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3532</v>
+        <v>3597</v>
       </c>
       <c r="F25" s="2">
         <v>11</v>
@@ -80329,10 +81580,10 @@
         <v>11</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>3533</v>
+        <v>3598</v>
       </c>
       <c r="J25" s="2">
         <v>-1</v>
@@ -80364,7 +81615,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>3534</v>
+        <v>3599</v>
       </c>
       <c r="F26" s="2">
         <v>11</v>
@@ -80373,10 +81624,10 @@
         <v>11</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>3535</v>
+        <v>3600</v>
       </c>
       <c r="J26" s="2">
         <v>-1</v>
@@ -80408,7 +81659,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>3536</v>
+        <v>3601</v>
       </c>
       <c r="F27" s="2">
         <v>11</v>
@@ -80417,10 +81668,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>3537</v>
+        <v>3602</v>
       </c>
       <c r="J27" s="2">
         <v>-1</v>
@@ -80452,7 +81703,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>3538</v>
+        <v>3603</v>
       </c>
       <c r="F28" s="2">
         <v>11</v>
@@ -80461,10 +81712,10 @@
         <v>11</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>3539</v>
+        <v>3604</v>
       </c>
       <c r="J28" s="2">
         <v>-1</v>
@@ -80496,7 +81747,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>3540</v>
+        <v>3605</v>
       </c>
       <c r="F29" s="2">
         <v>11</v>
@@ -80505,10 +81756,10 @@
         <v>11</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>3541</v>
+        <v>3606</v>
       </c>
       <c r="J29" s="2">
         <v>-1</v>
@@ -80540,7 +81791,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>3542</v>
+        <v>3607</v>
       </c>
       <c r="F30" s="2">
         <v>11</v>
@@ -80549,10 +81800,10 @@
         <v>11</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>3543</v>
+        <v>3608</v>
       </c>
       <c r="J30" s="2">
         <v>-1</v>
@@ -80584,7 +81835,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>3544</v>
+        <v>3609</v>
       </c>
       <c r="F31" s="2">
         <v>11</v>
@@ -80593,10 +81844,10 @@
         <v>11</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>3545</v>
+        <v>3610</v>
       </c>
       <c r="J31" s="2">
         <v>-1</v>
@@ -80628,7 +81879,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>3546</v>
+        <v>3611</v>
       </c>
       <c r="F32" s="2">
         <v>11</v>
@@ -80637,10 +81888,10 @@
         <v>11</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>3510</v>
+        <v>3575</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>3547</v>
+        <v>3612</v>
       </c>
       <c r="J32" s="2">
         <v>-1</v>
@@ -80672,7 +81923,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>3548</v>
+        <v>3613</v>
       </c>
       <c r="F33" s="2">
         <v>11</v>
@@ -80681,10 +81932,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>3549</v>
+        <v>3614</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>3550</v>
+        <v>3615</v>
       </c>
       <c r="J33" s="2">
         <v>-1</v>
@@ -80716,7 +81967,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>3551</v>
+        <v>3616</v>
       </c>
       <c r="F34" s="2">
         <v>11</v>
@@ -80725,10 +81976,10 @@
         <v>11</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>3549</v>
+        <v>3614</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>3552</v>
+        <v>3617</v>
       </c>
       <c r="J34" s="2">
         <v>-1</v>
@@ -80763,7 +82014,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>3553</v>
+        <v>3618</v>
       </c>
       <c r="F36" s="2">
         <v>12</v>
@@ -80772,10 +82023,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>3555</v>
+        <v>3620</v>
       </c>
       <c r="J36" s="2">
         <v>-1</v>
@@ -80807,7 +82058,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>3556</v>
+        <v>3621</v>
       </c>
       <c r="F37" s="2">
         <v>12</v>
@@ -80816,10 +82067,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>3557</v>
+        <v>3622</v>
       </c>
       <c r="J37" s="2">
         <v>-1</v>
@@ -80851,7 +82102,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>3558</v>
+        <v>3623</v>
       </c>
       <c r="F38" s="2">
         <v>12</v>
@@ -80860,10 +82111,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>3559</v>
+        <v>3624</v>
       </c>
       <c r="J38" s="2">
         <v>-1</v>
@@ -80895,7 +82146,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>3560</v>
+        <v>3625</v>
       </c>
       <c r="F39" s="2">
         <v>12</v>
@@ -80904,10 +82155,10 @@
         <v>12</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>3561</v>
+        <v>3626</v>
       </c>
       <c r="J39" s="2">
         <v>-1</v>
@@ -80939,7 +82190,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>3562</v>
+        <v>3627</v>
       </c>
       <c r="F40" s="2">
         <v>12</v>
@@ -80948,10 +82199,10 @@
         <v>12</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>3563</v>
+        <v>3628</v>
       </c>
       <c r="J40" s="2">
         <v>-1</v>
@@ -80983,7 +82234,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>3564</v>
+        <v>3629</v>
       </c>
       <c r="F41" s="2">
         <v>12</v>
@@ -80992,10 +82243,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>3565</v>
+        <v>3630</v>
       </c>
       <c r="J41" s="2">
         <v>-1</v>
@@ -81027,7 +82278,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>3566</v>
+        <v>3631</v>
       </c>
       <c r="F42" s="2">
         <v>12</v>
@@ -81036,10 +82287,10 @@
         <v>12</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>3567</v>
+        <v>3632</v>
       </c>
       <c r="J42" s="2">
         <v>-1</v>
@@ -81071,7 +82322,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>3568</v>
+        <v>3633</v>
       </c>
       <c r="F43" s="2">
         <v>12</v>
@@ -81080,10 +82331,10 @@
         <v>12</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>3569</v>
+        <v>3634</v>
       </c>
       <c r="J43" s="2">
         <v>-1</v>
@@ -81115,7 +82366,7 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>3570</v>
+        <v>3635</v>
       </c>
       <c r="F44" s="2">
         <v>12</v>
@@ -81124,10 +82375,10 @@
         <v>12</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>3571</v>
+        <v>3636</v>
       </c>
       <c r="J44" s="2">
         <v>-1</v>
@@ -81159,7 +82410,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>3572</v>
+        <v>3637</v>
       </c>
       <c r="F45" s="2">
         <v>12</v>
@@ -81168,10 +82419,10 @@
         <v>12</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>3573</v>
+        <v>3638</v>
       </c>
       <c r="J45" s="2">
         <v>-1</v>
@@ -81203,7 +82454,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>3574</v>
+        <v>3639</v>
       </c>
       <c r="F46" s="2">
         <v>12</v>
@@ -81212,10 +82463,10 @@
         <v>12</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>3575</v>
+        <v>3640</v>
       </c>
       <c r="J46" s="2">
         <v>-1</v>
@@ -81247,7 +82498,7 @@
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>3576</v>
+        <v>3641</v>
       </c>
       <c r="F47" s="2">
         <v>12</v>
@@ -81256,10 +82507,10 @@
         <v>12</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>3577</v>
+        <v>3642</v>
       </c>
       <c r="J47" s="2">
         <v>-1</v>
@@ -81291,7 +82542,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>3578</v>
+        <v>3643</v>
       </c>
       <c r="F48" s="2">
         <v>12</v>
@@ -81300,10 +82551,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>3579</v>
+        <v>3644</v>
       </c>
       <c r="J48" s="2">
         <v>-1</v>
@@ -81335,7 +82586,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3580</v>
+        <v>3645</v>
       </c>
       <c r="F49" s="2">
         <v>12</v>
@@ -81344,10 +82595,10 @@
         <v>12</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>3581</v>
+        <v>3646</v>
       </c>
       <c r="J49" s="2">
         <v>-1</v>
@@ -81379,7 +82630,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>3582</v>
+        <v>3647</v>
       </c>
       <c r="F50" s="2">
         <v>12</v>
@@ -81388,10 +82639,10 @@
         <v>12</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>3583</v>
+        <v>3648</v>
       </c>
       <c r="J50" s="2">
         <v>-1</v>
@@ -81423,7 +82674,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>3584</v>
+        <v>3649</v>
       </c>
       <c r="F51" s="2">
         <v>12</v>
@@ -81432,10 +82683,10 @@
         <v>12</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>3585</v>
+        <v>3650</v>
       </c>
       <c r="J51" s="2">
         <v>-1</v>
@@ -81467,7 +82718,7 @@
         <v>17</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>3586</v>
+        <v>3651</v>
       </c>
       <c r="F52" s="2">
         <v>12</v>
@@ -81476,10 +82727,10 @@
         <v>12</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>3587</v>
+        <v>3652</v>
       </c>
       <c r="J52" s="2">
         <v>-1</v>
@@ -81511,7 +82762,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>3588</v>
+        <v>3653</v>
       </c>
       <c r="F53" s="2">
         <v>12</v>
@@ -81520,10 +82771,10 @@
         <v>12</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>3589</v>
+        <v>3654</v>
       </c>
       <c r="J53" s="2">
         <v>-1</v>
@@ -81555,7 +82806,7 @@
         <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>3590</v>
+        <v>3655</v>
       </c>
       <c r="F54" s="2">
         <v>12</v>
@@ -81564,10 +82815,10 @@
         <v>12</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>3554</v>
+        <v>3619</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>3591</v>
+        <v>3656</v>
       </c>
       <c r="J54" s="2">
         <v>-1</v>
@@ -81599,7 +82850,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>3592</v>
+        <v>3657</v>
       </c>
       <c r="F55" s="2">
         <v>12</v>
@@ -81608,10 +82859,10 @@
         <v>12</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>3593</v>
+        <v>3658</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>3594</v>
+        <v>3659</v>
       </c>
       <c r="J55" s="2">
         <v>-1</v>
@@ -81643,7 +82894,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>3595</v>
+        <v>3660</v>
       </c>
       <c r="F56" s="2">
         <v>12</v>
@@ -81652,10 +82903,10 @@
         <v>12</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>3593</v>
+        <v>3658</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>3596</v>
+        <v>3661</v>
       </c>
       <c r="J56" s="2">
         <v>-1</v>
@@ -81690,7 +82941,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>3597</v>
+        <v>3662</v>
       </c>
       <c r="F58" s="2">
         <v>13</v>
@@ -81699,10 +82950,10 @@
         <v>13</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>3599</v>
+        <v>3664</v>
       </c>
       <c r="J58" s="2">
         <v>-1</v>
@@ -81734,7 +82985,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>3600</v>
+        <v>3665</v>
       </c>
       <c r="F59" s="2">
         <v>13</v>
@@ -81743,10 +82994,10 @@
         <v>13</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>3601</v>
+        <v>3666</v>
       </c>
       <c r="J59" s="2">
         <v>-1</v>
@@ -81778,7 +83029,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3602</v>
+        <v>3667</v>
       </c>
       <c r="F60" s="2">
         <v>13</v>
@@ -81787,10 +83038,10 @@
         <v>13</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>3603</v>
+        <v>3668</v>
       </c>
       <c r="J60" s="2">
         <v>-1</v>
@@ -81822,7 +83073,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>3604</v>
+        <v>3669</v>
       </c>
       <c r="F61" s="2">
         <v>13</v>
@@ -81831,10 +83082,10 @@
         <v>13</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>3605</v>
+        <v>3670</v>
       </c>
       <c r="J61" s="2">
         <v>-1</v>
@@ -81866,7 +83117,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>3606</v>
+        <v>3671</v>
       </c>
       <c r="F62" s="2">
         <v>13</v>
@@ -81875,10 +83126,10 @@
         <v>13</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>3607</v>
+        <v>3672</v>
       </c>
       <c r="J62" s="2">
         <v>-1</v>
@@ -81910,7 +83161,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>3608</v>
+        <v>3673</v>
       </c>
       <c r="F63" s="2">
         <v>13</v>
@@ -81919,10 +83170,10 @@
         <v>13</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>3609</v>
+        <v>3674</v>
       </c>
       <c r="J63" s="2">
         <v>-1</v>
@@ -81954,7 +83205,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>3610</v>
+        <v>3675</v>
       </c>
       <c r="F64" s="2">
         <v>13</v>
@@ -81963,10 +83214,10 @@
         <v>13</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>3611</v>
+        <v>3676</v>
       </c>
       <c r="J64" s="2">
         <v>-1</v>
@@ -81998,7 +83249,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>3612</v>
+        <v>3677</v>
       </c>
       <c r="F65" s="2">
         <v>13</v>
@@ -82007,10 +83258,10 @@
         <v>13</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>3613</v>
+        <v>3678</v>
       </c>
       <c r="J65" s="2">
         <v>-1</v>
@@ -82042,7 +83293,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>3614</v>
+        <v>3679</v>
       </c>
       <c r="F66" s="2">
         <v>13</v>
@@ -82051,10 +83302,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>3615</v>
+        <v>3680</v>
       </c>
       <c r="J66" s="2">
         <v>-1</v>
@@ -82086,7 +83337,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>3616</v>
+        <v>3681</v>
       </c>
       <c r="F67" s="2">
         <v>13</v>
@@ -82095,10 +83346,10 @@
         <v>13</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>3617</v>
+        <v>3682</v>
       </c>
       <c r="J67" s="2">
         <v>-1</v>
@@ -82130,7 +83381,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>3618</v>
+        <v>3683</v>
       </c>
       <c r="F68" s="2">
         <v>13</v>
@@ -82139,10 +83390,10 @@
         <v>13</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>3619</v>
+        <v>3684</v>
       </c>
       <c r="J68" s="2">
         <v>-1</v>
@@ -82174,7 +83425,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>3620</v>
+        <v>3685</v>
       </c>
       <c r="F69" s="2">
         <v>13</v>
@@ -82183,10 +83434,10 @@
         <v>13</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>3621</v>
+        <v>3686</v>
       </c>
       <c r="J69" s="2">
         <v>-1</v>
@@ -82218,7 +83469,7 @@
         <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>3622</v>
+        <v>3687</v>
       </c>
       <c r="F70" s="2">
         <v>13</v>
@@ -82227,10 +83478,10 @@
         <v>13</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>3623</v>
+        <v>3688</v>
       </c>
       <c r="J70" s="2">
         <v>-1</v>
@@ -82262,7 +83513,7 @@
         <v>14</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>3624</v>
+        <v>3689</v>
       </c>
       <c r="F71" s="2">
         <v>13</v>
@@ -82271,10 +83522,10 @@
         <v>13</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>3625</v>
+        <v>3690</v>
       </c>
       <c r="J71" s="2">
         <v>-1</v>
@@ -82306,7 +83557,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>3626</v>
+        <v>3691</v>
       </c>
       <c r="F72" s="2">
         <v>13</v>
@@ -82315,10 +83566,10 @@
         <v>13</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>3627</v>
+        <v>3692</v>
       </c>
       <c r="J72" s="2">
         <v>-1</v>
@@ -82350,7 +83601,7 @@
         <v>16</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>3628</v>
+        <v>3693</v>
       </c>
       <c r="F73" s="2">
         <v>13</v>
@@ -82359,10 +83610,10 @@
         <v>13</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>3629</v>
+        <v>3694</v>
       </c>
       <c r="J73" s="2">
         <v>-1</v>
@@ -82394,7 +83645,7 @@
         <v>17</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>3630</v>
+        <v>3695</v>
       </c>
       <c r="F74" s="2">
         <v>13</v>
@@ -82403,10 +83654,10 @@
         <v>13</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>3631</v>
+        <v>3696</v>
       </c>
       <c r="J74" s="2">
         <v>-1</v>
@@ -82438,7 +83689,7 @@
         <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>3632</v>
+        <v>3697</v>
       </c>
       <c r="F75" s="2">
         <v>13</v>
@@ -82447,10 +83698,10 @@
         <v>13</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>3633</v>
+        <v>3698</v>
       </c>
       <c r="J75" s="2">
         <v>-1</v>
@@ -82482,7 +83733,7 @@
         <v>19</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>3634</v>
+        <v>3699</v>
       </c>
       <c r="F76" s="2">
         <v>13</v>
@@ -82491,10 +83742,10 @@
         <v>13</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>3598</v>
+        <v>3663</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>3635</v>
+        <v>3700</v>
       </c>
       <c r="J76" s="2">
         <v>-1</v>
@@ -82526,7 +83777,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>3636</v>
+        <v>3701</v>
       </c>
       <c r="F77" s="2">
         <v>13</v>
@@ -82535,10 +83786,10 @@
         <v>13</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>3637</v>
+        <v>3702</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>3638</v>
+        <v>3703</v>
       </c>
       <c r="J77" s="2">
         <v>-1</v>
@@ -82570,7 +83821,7 @@
         <v>21</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>3639</v>
+        <v>3704</v>
       </c>
       <c r="F78" s="2">
         <v>13</v>
@@ -82579,10 +83830,10 @@
         <v>13</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>3637</v>
+        <v>3702</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>3640</v>
+        <v>3705</v>
       </c>
       <c r="J78" s="2">
         <v>-1</v>
@@ -82617,7 +83868,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>3641</v>
+        <v>3706</v>
       </c>
       <c r="F80" s="2">
         <v>14</v>
@@ -82626,10 +83877,10 @@
         <v>14</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I80" s="20" t="s">
-        <v>3643</v>
+        <v>3708</v>
       </c>
       <c r="J80" s="2">
         <v>-1</v>
@@ -82661,7 +83912,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>3644</v>
+        <v>3709</v>
       </c>
       <c r="F81" s="2">
         <v>14</v>
@@ -82670,10 +83921,10 @@
         <v>14</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>3645</v>
+        <v>3710</v>
       </c>
       <c r="J81" s="2">
         <v>-1</v>
@@ -82705,7 +83956,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>3646</v>
+        <v>3711</v>
       </c>
       <c r="F82" s="2">
         <v>14</v>
@@ -82714,10 +83965,10 @@
         <v>14</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>3647</v>
+        <v>3712</v>
       </c>
       <c r="J82" s="2">
         <v>-1</v>
@@ -82749,7 +84000,7 @@
         <v>4</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>3648</v>
+        <v>3713</v>
       </c>
       <c r="F83" s="2">
         <v>14</v>
@@ -82758,10 +84009,10 @@
         <v>14</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>3649</v>
+        <v>3714</v>
       </c>
       <c r="J83" s="2">
         <v>-1</v>
@@ -82793,7 +84044,7 @@
         <v>5</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>3650</v>
+        <v>3715</v>
       </c>
       <c r="F84" s="2">
         <v>14</v>
@@ -82802,10 +84053,10 @@
         <v>14</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>3651</v>
+        <v>3716</v>
       </c>
       <c r="J84" s="2">
         <v>-1</v>
@@ -82837,7 +84088,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>3652</v>
+        <v>3717</v>
       </c>
       <c r="F85" s="2">
         <v>14</v>
@@ -82846,10 +84097,10 @@
         <v>14</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>3653</v>
+        <v>3718</v>
       </c>
       <c r="J85" s="2">
         <v>-1</v>
@@ -82881,7 +84132,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>3654</v>
+        <v>3719</v>
       </c>
       <c r="F86" s="2">
         <v>14</v>
@@ -82890,10 +84141,10 @@
         <v>14</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>3655</v>
+        <v>3720</v>
       </c>
       <c r="J86" s="2">
         <v>-1</v>
@@ -82925,7 +84176,7 @@
         <v>8</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>3656</v>
+        <v>3721</v>
       </c>
       <c r="F87" s="2">
         <v>14</v>
@@ -82934,10 +84185,10 @@
         <v>14</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>3657</v>
+        <v>3722</v>
       </c>
       <c r="J87" s="2">
         <v>-1</v>
@@ -82969,7 +84220,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>3658</v>
+        <v>3723</v>
       </c>
       <c r="F88" s="2">
         <v>14</v>
@@ -82978,10 +84229,10 @@
         <v>14</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>3659</v>
+        <v>3724</v>
       </c>
       <c r="J88" s="2">
         <v>-1</v>
@@ -83013,7 +84264,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>3660</v>
+        <v>3725</v>
       </c>
       <c r="F89" s="2">
         <v>14</v>
@@ -83022,10 +84273,10 @@
         <v>14</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>3661</v>
+        <v>3726</v>
       </c>
       <c r="J89" s="2">
         <v>-1</v>
@@ -83057,7 +84308,7 @@
         <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>3662</v>
+        <v>3727</v>
       </c>
       <c r="F90" s="2">
         <v>14</v>
@@ -83066,10 +84317,10 @@
         <v>14</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>3663</v>
+        <v>3728</v>
       </c>
       <c r="J90" s="2">
         <v>-1</v>
@@ -83101,7 +84352,7 @@
         <v>12</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>3664</v>
+        <v>3729</v>
       </c>
       <c r="F91" s="2">
         <v>14</v>
@@ -83110,10 +84361,10 @@
         <v>14</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>3665</v>
+        <v>3730</v>
       </c>
       <c r="J91" s="2">
         <v>-1</v>
@@ -83145,7 +84396,7 @@
         <v>13</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>3666</v>
+        <v>3731</v>
       </c>
       <c r="F92" s="2">
         <v>14</v>
@@ -83154,10 +84405,10 @@
         <v>14</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>3667</v>
+        <v>3732</v>
       </c>
       <c r="J92" s="2">
         <v>-1</v>
@@ -83189,7 +84440,7 @@
         <v>14</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>3668</v>
+        <v>3733</v>
       </c>
       <c r="F93" s="2">
         <v>14</v>
@@ -83198,10 +84449,10 @@
         <v>14</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>3669</v>
+        <v>3734</v>
       </c>
       <c r="J93" s="2">
         <v>-1</v>
@@ -83233,7 +84484,7 @@
         <v>15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>3670</v>
+        <v>3735</v>
       </c>
       <c r="F94" s="2">
         <v>14</v>
@@ -83242,10 +84493,10 @@
         <v>14</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>3671</v>
+        <v>3736</v>
       </c>
       <c r="J94" s="2">
         <v>-1</v>
@@ -83277,7 +84528,7 @@
         <v>16</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>3672</v>
+        <v>3737</v>
       </c>
       <c r="F95" s="2">
         <v>14</v>
@@ -83286,10 +84537,10 @@
         <v>14</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>3673</v>
+        <v>3738</v>
       </c>
       <c r="J95" s="2">
         <v>-1</v>
@@ -83321,7 +84572,7 @@
         <v>17</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>3674</v>
+        <v>3739</v>
       </c>
       <c r="F96" s="2">
         <v>14</v>
@@ -83330,10 +84581,10 @@
         <v>14</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>3675</v>
+        <v>3740</v>
       </c>
       <c r="J96" s="2">
         <v>-1</v>
@@ -83365,7 +84616,7 @@
         <v>18</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>3676</v>
+        <v>3741</v>
       </c>
       <c r="F97" s="2">
         <v>14</v>
@@ -83374,10 +84625,10 @@
         <v>14</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>3677</v>
+        <v>3742</v>
       </c>
       <c r="J97" s="2">
         <v>-1</v>
@@ -83409,7 +84660,7 @@
         <v>19</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>3678</v>
+        <v>3743</v>
       </c>
       <c r="F98" s="2">
         <v>14</v>
@@ -83418,10 +84669,10 @@
         <v>14</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>3642</v>
+        <v>3707</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>3679</v>
+        <v>3744</v>
       </c>
       <c r="J98" s="2">
         <v>-1</v>
@@ -83453,7 +84704,7 @@
         <v>20</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>3680</v>
+        <v>3745</v>
       </c>
       <c r="F99" s="2">
         <v>14</v>
@@ -83462,10 +84713,10 @@
         <v>14</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>3681</v>
+        <v>3746</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>3682</v>
+        <v>3747</v>
       </c>
       <c r="J99" s="2">
         <v>-1</v>
@@ -83497,7 +84748,7 @@
         <v>21</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>3683</v>
+        <v>3748</v>
       </c>
       <c r="F100" s="2">
         <v>14</v>
@@ -83506,10 +84757,10 @@
         <v>14</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>3681</v>
+        <v>3746</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>3684</v>
+        <v>3749</v>
       </c>
       <c r="J100" s="2">
         <v>-1</v>

--- a/Excel/EquipConfig.xlsx
+++ b/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="随机装备" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20260" uniqueCount="3750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20272" uniqueCount="3758">
   <si>
     <t>_id</t>
   </si>
@@ -10999,6 +10999,12 @@
     <t>500,500,500,500,20</t>
   </si>
   <si>
+    <t>斗笠二二阶</t>
+  </si>
+  <si>
+    <t>600,600,600,600,30</t>
+  </si>
+  <si>
     <t>护盾一阶</t>
   </si>
   <si>
@@ -11131,6 +11137,12 @@
     <t>500,500,10</t>
   </si>
   <si>
+    <t>护盾二二阶</t>
+  </si>
+  <si>
+    <t>600,600,15</t>
+  </si>
+  <si>
     <t>神符一阶</t>
   </si>
   <si>
@@ -11263,6 +11275,12 @@
     <t>50,50,500,500,500,20</t>
   </si>
   <si>
+    <t>神符二二阶</t>
+  </si>
+  <si>
+    <t>60,60,600,600,600,30</t>
+  </si>
+  <si>
     <t>魔石一阶</t>
   </si>
   <si>
@@ -11393,6 +11411,12 @@
   </si>
   <si>
     <t>50,500,6,30</t>
+  </si>
+  <si>
+    <t>魔石二二阶</t>
+  </si>
+  <si>
+    <t>60,600,6,40</t>
   </si>
 </sst>
 </file>
@@ -70690,7 +70714,7 @@
   <sheetPr/>
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E179" workbookViewId="0">
+    <sheetView topLeftCell="E179" workbookViewId="0">
       <selection activeCell="P179" sqref="P179:P202"/>
     </sheetView>
   </sheetViews>
@@ -80562,10 +80586,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -82003,62 +82027,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C36" s="2">
-        <v>201</v>
-      </c>
-      <c r="D36" s="2">
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C35" s="2">
+        <v>122</v>
+      </c>
+      <c r="D35" s="2">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>3618</v>
+      </c>
+      <c r="F35" s="2">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2">
+        <v>11</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>3614</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>3619</v>
+      </c>
+      <c r="J35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>6</v>
+      </c>
+      <c r="L35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>3618</v>
-      </c>
-      <c r="F36" s="2">
-        <v>12</v>
-      </c>
-      <c r="G36" s="2">
-        <v>12</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>3619</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>3620</v>
-      </c>
-      <c r="J36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="2">
-        <v>1</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I36" s="9"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C37" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="F37" s="2">
         <v>12</v>
@@ -82067,7 +82091,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I37" s="20" t="s">
         <v>3622</v>
@@ -82096,10 +82120,10 @@
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C38" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>3623</v>
@@ -82111,9 +82135,9 @@
         <v>12</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>3619</v>
-      </c>
-      <c r="I38" s="22" t="s">
+        <v>3621</v>
+      </c>
+      <c r="I38" s="20" t="s">
         <v>3624</v>
       </c>
       <c r="J38" s="2">
@@ -82140,10 +82164,10 @@
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C39" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>3625</v>
@@ -82155,7 +82179,7 @@
         <v>12</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I39" s="22" t="s">
         <v>3626</v>
@@ -82164,7 +82188,7 @@
         <v>-1</v>
       </c>
       <c r="K39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2">
         <v>-1</v>
@@ -82184,10 +82208,10 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C40" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>3627</v>
@@ -82199,7 +82223,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I40" s="22" t="s">
         <v>3628</v>
@@ -82228,10 +82252,10 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C41" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D41" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>3629</v>
@@ -82243,7 +82267,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I41" s="22" t="s">
         <v>3630</v>
@@ -82272,10 +82296,10 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C42" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D42" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>3631</v>
@@ -82287,7 +82311,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I42" s="22" t="s">
         <v>3632</v>
@@ -82296,7 +82320,7 @@
         <v>-1</v>
       </c>
       <c r="K42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" s="2">
         <v>-1</v>
@@ -82316,10 +82340,10 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C43" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D43" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>3633</v>
@@ -82331,7 +82355,7 @@
         <v>12</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>3634</v>
@@ -82360,10 +82384,10 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C44" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>3635</v>
@@ -82375,7 +82399,7 @@
         <v>12</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I44" s="22" t="s">
         <v>3636</v>
@@ -82404,10 +82428,10 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C45" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>3637</v>
@@ -82419,7 +82443,7 @@
         <v>12</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I45" s="22" t="s">
         <v>3638</v>
@@ -82428,7 +82452,7 @@
         <v>-1</v>
       </c>
       <c r="K45" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L45" s="2">
         <v>-1</v>
@@ -82448,10 +82472,10 @@
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C46" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D46" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>3639</v>
@@ -82463,7 +82487,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>3640</v>
@@ -82492,10 +82516,10 @@
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C47" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D47" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>3641</v>
@@ -82507,7 +82531,7 @@
         <v>12</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>3642</v>
@@ -82536,10 +82560,10 @@
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C48" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D48" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>3643</v>
@@ -82551,7 +82575,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>3644</v>
@@ -82560,7 +82584,7 @@
         <v>-1</v>
       </c>
       <c r="K48" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L48" s="2">
         <v>-1</v>
@@ -82580,10 +82604,10 @@
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C49" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D49" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>3645</v>
@@ -82595,7 +82619,7 @@
         <v>12</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>3646</v>
@@ -82624,10 +82648,10 @@
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C50" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D50" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>3647</v>
@@ -82639,7 +82663,7 @@
         <v>12</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>3648</v>
@@ -82668,10 +82692,10 @@
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C51" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D51" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>3649</v>
@@ -82683,7 +82707,7 @@
         <v>12</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I51" s="22" t="s">
         <v>3650</v>
@@ -82712,10 +82736,10 @@
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C52" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D52" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>3651</v>
@@ -82727,7 +82751,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I52" s="22" t="s">
         <v>3652</v>
@@ -82756,10 +82780,10 @@
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C53" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>3653</v>
@@ -82771,7 +82795,7 @@
         <v>12</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I53" s="22" t="s">
         <v>3654</v>
@@ -82800,10 +82824,10 @@
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C54" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D54" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>3655</v>
@@ -82815,7 +82839,7 @@
         <v>12</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
       <c r="I54" s="22" t="s">
         <v>3656</v>
@@ -82844,10 +82868,10 @@
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C55" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D55" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>3657</v>
@@ -82859,16 +82883,16 @@
         <v>12</v>
       </c>
       <c r="H55" s="20" t="s">
+        <v>3621</v>
+      </c>
+      <c r="I55" s="22" t="s">
         <v>3658</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>3659</v>
       </c>
       <c r="J55" s="2">
         <v>-1</v>
       </c>
       <c r="K55" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L55" s="2">
         <v>-1</v>
@@ -82888,13 +82912,13 @@
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C56" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D56" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="F56" s="2">
         <v>12</v>
@@ -82903,7 +82927,7 @@
         <v>12</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>3658</v>
+        <v>3660</v>
       </c>
       <c r="I56" s="22" t="s">
         <v>3661</v>
@@ -82930,36 +82954,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I57" s="9"/>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C57" s="2">
+        <v>221</v>
+      </c>
+      <c r="D57" s="2">
+        <v>21</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>3662</v>
+      </c>
+      <c r="F57" s="2">
+        <v>12</v>
+      </c>
+      <c r="G57" s="2">
+        <v>12</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>3660</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>6</v>
+      </c>
+      <c r="L57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C58" s="2">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="D58" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>3662</v>
+        <v>3664</v>
       </c>
       <c r="F58" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>3663</v>
+        <v>3660</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="J58" s="2">
         <v>-1</v>
       </c>
       <c r="K58" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L58" s="2">
         <v>-1</v>
@@ -82977,191 +83042,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C59" s="2">
-        <v>302</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>3665</v>
-      </c>
-      <c r="F59" s="2">
-        <v>13</v>
-      </c>
-      <c r="G59" s="2">
-        <v>13</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>3663</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>3666</v>
-      </c>
-      <c r="J59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M59" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N59" s="2">
-        <v>1</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C60" s="2">
-        <v>303</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>3667</v>
-      </c>
-      <c r="F60" s="2">
-        <v>13</v>
-      </c>
-      <c r="G60" s="2">
-        <v>13</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>3663</v>
-      </c>
-      <c r="I60" s="22" t="s">
-        <v>3668</v>
-      </c>
-      <c r="J60" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M60" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N60" s="2">
-        <v>1</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C61" s="2">
-        <v>304</v>
-      </c>
-      <c r="D61" s="2">
-        <v>4</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>3669</v>
-      </c>
-      <c r="F61" s="2">
-        <v>13</v>
-      </c>
-      <c r="G61" s="2">
-        <v>13</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>3663</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>3670</v>
-      </c>
-      <c r="J61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K61" s="2">
-        <v>2</v>
-      </c>
-      <c r="L61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M61" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N61" s="2">
-        <v>1</v>
-      </c>
-      <c r="O61" s="2">
-        <v>0</v>
-      </c>
-      <c r="P61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C62" s="2">
-        <v>305</v>
-      </c>
-      <c r="D62" s="2">
-        <v>5</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>3671</v>
-      </c>
-      <c r="F62" s="2">
-        <v>13</v>
-      </c>
-      <c r="G62" s="2">
-        <v>13</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>3663</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>3672</v>
-      </c>
-      <c r="J62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K62" s="2">
-        <v>2</v>
-      </c>
-      <c r="L62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M62" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N62" s="2">
-        <v>1</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2">
-        <v>0</v>
-      </c>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I62" s="9"/>
     </row>
     <row r="63" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C63" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D63" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>3673</v>
+        <v>3666</v>
       </c>
       <c r="F63" s="2">
         <v>13</v>
@@ -83170,16 +83071,16 @@
         <v>13</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>3674</v>
+        <v>3668</v>
       </c>
       <c r="J63" s="2">
         <v>-1</v>
       </c>
       <c r="K63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" s="2">
         <v>-1</v>
@@ -83199,13 +83100,13 @@
     </row>
     <row r="64" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C64" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D64" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>3675</v>
+        <v>3669</v>
       </c>
       <c r="F64" s="2">
         <v>13</v>
@@ -83214,16 +83115,16 @@
         <v>13</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>3676</v>
+        <v>3670</v>
       </c>
       <c r="J64" s="2">
         <v>-1</v>
       </c>
       <c r="K64" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64" s="2">
         <v>-1</v>
@@ -83243,13 +83144,13 @@
     </row>
     <row r="65" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C65" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D65" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>3677</v>
+        <v>3671</v>
       </c>
       <c r="F65" s="2">
         <v>13</v>
@@ -83258,16 +83159,16 @@
         <v>13</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>3678</v>
+        <v>3672</v>
       </c>
       <c r="J65" s="2">
         <v>-1</v>
       </c>
       <c r="K65" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65" s="2">
         <v>-1</v>
@@ -83287,13 +83188,13 @@
     </row>
     <row r="66" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C66" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D66" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>3679</v>
+        <v>3673</v>
       </c>
       <c r="F66" s="2">
         <v>13</v>
@@ -83302,16 +83203,16 @@
         <v>13</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>3680</v>
+        <v>3674</v>
       </c>
       <c r="J66" s="2">
         <v>-1</v>
       </c>
       <c r="K66" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66" s="2">
         <v>-1</v>
@@ -83331,13 +83232,13 @@
     </row>
     <row r="67" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C67" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D67" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>3681</v>
+        <v>3675</v>
       </c>
       <c r="F67" s="2">
         <v>13</v>
@@ -83346,16 +83247,16 @@
         <v>13</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>3682</v>
+        <v>3676</v>
       </c>
       <c r="J67" s="2">
         <v>-1</v>
       </c>
       <c r="K67" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L67" s="2">
         <v>-1</v>
@@ -83375,13 +83276,13 @@
     </row>
     <row r="68" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C68" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D68" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="F68" s="2">
         <v>13</v>
@@ -83390,16 +83291,16 @@
         <v>13</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>3684</v>
+        <v>3678</v>
       </c>
       <c r="J68" s="2">
         <v>-1</v>
       </c>
       <c r="K68" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L68" s="2">
         <v>-1</v>
@@ -83419,13 +83320,13 @@
     </row>
     <row r="69" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C69" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D69" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>3685</v>
+        <v>3679</v>
       </c>
       <c r="F69" s="2">
         <v>13</v>
@@ -83434,16 +83335,16 @@
         <v>13</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>3686</v>
+        <v>3680</v>
       </c>
       <c r="J69" s="2">
         <v>-1</v>
       </c>
       <c r="K69" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L69" s="2">
         <v>-1</v>
@@ -83463,13 +83364,13 @@
     </row>
     <row r="70" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C70" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D70" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>3687</v>
+        <v>3681</v>
       </c>
       <c r="F70" s="2">
         <v>13</v>
@@ -83478,16 +83379,16 @@
         <v>13</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>3688</v>
+        <v>3682</v>
       </c>
       <c r="J70" s="2">
         <v>-1</v>
       </c>
       <c r="K70" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L70" s="2">
         <v>-1</v>
@@ -83507,13 +83408,13 @@
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C71" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D71" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>3689</v>
+        <v>3683</v>
       </c>
       <c r="F71" s="2">
         <v>13</v>
@@ -83522,16 +83423,16 @@
         <v>13</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>3690</v>
+        <v>3684</v>
       </c>
       <c r="J71" s="2">
         <v>-1</v>
       </c>
       <c r="K71" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L71" s="2">
         <v>-1</v>
@@ -83551,13 +83452,13 @@
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C72" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D72" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>3691</v>
+        <v>3685</v>
       </c>
       <c r="F72" s="2">
         <v>13</v>
@@ -83566,16 +83467,16 @@
         <v>13</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>3692</v>
+        <v>3686</v>
       </c>
       <c r="J72" s="2">
         <v>-1</v>
       </c>
       <c r="K72" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L72" s="2">
         <v>-1</v>
@@ -83595,13 +83496,13 @@
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C73" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D73" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>3693</v>
+        <v>3687</v>
       </c>
       <c r="F73" s="2">
         <v>13</v>
@@ -83610,16 +83511,16 @@
         <v>13</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>3694</v>
+        <v>3688</v>
       </c>
       <c r="J73" s="2">
         <v>-1</v>
       </c>
       <c r="K73" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L73" s="2">
         <v>-1</v>
@@ -83639,13 +83540,13 @@
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C74" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D74" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>3695</v>
+        <v>3689</v>
       </c>
       <c r="F74" s="2">
         <v>13</v>
@@ -83654,16 +83555,16 @@
         <v>13</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>3696</v>
+        <v>3690</v>
       </c>
       <c r="J74" s="2">
         <v>-1</v>
       </c>
       <c r="K74" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L74" s="2">
         <v>-1</v>
@@ -83683,13 +83584,13 @@
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C75" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D75" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>3697</v>
+        <v>3691</v>
       </c>
       <c r="F75" s="2">
         <v>13</v>
@@ -83698,10 +83599,10 @@
         <v>13</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>3698</v>
+        <v>3692</v>
       </c>
       <c r="J75" s="2">
         <v>-1</v>
@@ -83727,13 +83628,13 @@
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C76" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D76" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>3699</v>
+        <v>3693</v>
       </c>
       <c r="F76" s="2">
         <v>13</v>
@@ -83742,10 +83643,10 @@
         <v>13</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>3700</v>
+        <v>3694</v>
       </c>
       <c r="J76" s="2">
         <v>-1</v>
@@ -83771,13 +83672,13 @@
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C77" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D77" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>3701</v>
+        <v>3695</v>
       </c>
       <c r="F77" s="2">
         <v>13</v>
@@ -83786,16 +83687,16 @@
         <v>13</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>3702</v>
+        <v>3667</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>3703</v>
+        <v>3696</v>
       </c>
       <c r="J77" s="2">
         <v>-1</v>
       </c>
       <c r="K77" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L77" s="2">
         <v>-1</v>
@@ -83815,13 +83716,13 @@
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C78" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D78" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>3704</v>
+        <v>3697</v>
       </c>
       <c r="F78" s="2">
         <v>13</v>
@@ -83830,16 +83731,16 @@
         <v>13</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>3702</v>
+        <v>3667</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>3705</v>
+        <v>3698</v>
       </c>
       <c r="J78" s="2">
         <v>-1</v>
       </c>
       <c r="K78" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L78" s="2">
         <v>-1</v>
@@ -83857,36 +83758,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I79" s="9"/>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C79" s="2">
+        <v>317</v>
+      </c>
+      <c r="D79" s="2">
+        <v>17</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>3699</v>
+      </c>
+      <c r="F79" s="2">
+        <v>13</v>
+      </c>
+      <c r="G79" s="2">
+        <v>13</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>3667</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>3700</v>
+      </c>
+      <c r="J79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K79" s="2">
+        <v>5</v>
+      </c>
+      <c r="L79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N79" s="2">
+        <v>1</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C80" s="2">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="D80" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>3706</v>
+        <v>3701</v>
       </c>
       <c r="F80" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>3707</v>
-      </c>
-      <c r="I80" s="20" t="s">
-        <v>3708</v>
+        <v>3667</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>3702</v>
       </c>
       <c r="J80" s="2">
         <v>-1</v>
       </c>
       <c r="K80" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L80" s="2">
         <v>-1</v>
@@ -83906,31 +83848,31 @@
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C81" s="2">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="D81" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>3709</v>
+        <v>3703</v>
       </c>
       <c r="F81" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G81" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>3707</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>3710</v>
+        <v>3667</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>3704</v>
       </c>
       <c r="J81" s="2">
         <v>-1</v>
       </c>
       <c r="K81" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L81" s="2">
         <v>-1</v>
@@ -83950,31 +83892,31 @@
     </row>
     <row r="82" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C82" s="2">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="D82" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>3711</v>
+        <v>3705</v>
       </c>
       <c r="F82" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G82" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H82" s="20" t="s">
+        <v>3706</v>
+      </c>
+      <c r="I82" s="22" t="s">
         <v>3707</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>3712</v>
       </c>
       <c r="J82" s="2">
         <v>-1</v>
       </c>
       <c r="K82" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L82" s="2">
         <v>-1</v>
@@ -83994,31 +83936,31 @@
     </row>
     <row r="83" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C83" s="2">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="D83" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>3713</v>
+        <v>3708</v>
       </c>
       <c r="F83" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G83" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>3707</v>
-      </c>
-      <c r="I83" s="20" t="s">
-        <v>3714</v>
+        <v>3706</v>
+      </c>
+      <c r="I83" s="22" t="s">
+        <v>3709</v>
       </c>
       <c r="J83" s="2">
         <v>-1</v>
       </c>
       <c r="K83" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L83" s="2">
         <v>-1</v>
@@ -84038,31 +83980,31 @@
     </row>
     <row r="84" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C84" s="2">
-        <v>405</v>
+        <v>322</v>
       </c>
       <c r="D84" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>3715</v>
+        <v>3710</v>
       </c>
       <c r="F84" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>3707</v>
-      </c>
-      <c r="I84" s="20" t="s">
-        <v>3716</v>
+        <v>3706</v>
+      </c>
+      <c r="I84" s="22" t="s">
+        <v>3711</v>
       </c>
       <c r="J84" s="2">
         <v>-1</v>
       </c>
       <c r="K84" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L84" s="2">
         <v>-1</v>
@@ -84080,191 +84022,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C85" s="2">
-        <v>406</v>
-      </c>
-      <c r="D85" s="2">
-        <v>6</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>3717</v>
-      </c>
-      <c r="F85" s="2">
-        <v>14</v>
-      </c>
-      <c r="G85" s="2">
-        <v>14</v>
-      </c>
-      <c r="H85" s="20" t="s">
-        <v>3707</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>3718</v>
-      </c>
-      <c r="J85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K85" s="2">
-        <v>2</v>
-      </c>
-      <c r="L85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M85" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N85" s="2">
-        <v>1</v>
-      </c>
-      <c r="O85" s="2">
-        <v>0</v>
-      </c>
-      <c r="P85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C86" s="2">
-        <v>407</v>
-      </c>
-      <c r="D86" s="2">
-        <v>7</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>3719</v>
-      </c>
-      <c r="F86" s="2">
-        <v>14</v>
-      </c>
-      <c r="G86" s="2">
-        <v>14</v>
-      </c>
-      <c r="H86" s="20" t="s">
-        <v>3707</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>3720</v>
-      </c>
-      <c r="J86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K86" s="2">
-        <v>3</v>
-      </c>
-      <c r="L86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M86" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N86" s="2">
-        <v>1</v>
-      </c>
-      <c r="O86" s="2">
-        <v>0</v>
-      </c>
-      <c r="P86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C87" s="2">
-        <v>408</v>
-      </c>
-      <c r="D87" s="2">
-        <v>8</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>3721</v>
-      </c>
-      <c r="F87" s="2">
-        <v>14</v>
-      </c>
-      <c r="G87" s="2">
-        <v>14</v>
-      </c>
-      <c r="H87" s="20" t="s">
-        <v>3707</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>3722</v>
-      </c>
-      <c r="J87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K87" s="2">
-        <v>3</v>
-      </c>
-      <c r="L87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N87" s="2">
-        <v>1</v>
-      </c>
-      <c r="O87" s="2">
-        <v>0</v>
-      </c>
-      <c r="P87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="1" customHeight="1" spans="3:16">
-      <c r="C88" s="2">
-        <v>409</v>
-      </c>
-      <c r="D88" s="2">
-        <v>9</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>3723</v>
-      </c>
-      <c r="F88" s="2">
-        <v>14</v>
-      </c>
-      <c r="G88" s="2">
-        <v>14</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>3707</v>
-      </c>
-      <c r="I88" s="20" t="s">
-        <v>3724</v>
-      </c>
-      <c r="J88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K88" s="2">
-        <v>3</v>
-      </c>
-      <c r="L88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N88" s="2">
-        <v>1</v>
-      </c>
-      <c r="O88" s="2">
-        <v>0</v>
-      </c>
-      <c r="P88" s="2">
-        <v>0</v>
-      </c>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I88" s="9"/>
     </row>
     <row r="89" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C89" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D89" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>3725</v>
+        <v>3712</v>
       </c>
       <c r="F89" s="2">
         <v>14</v>
@@ -84273,16 +84051,16 @@
         <v>14</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>3726</v>
+        <v>3714</v>
       </c>
       <c r="J89" s="2">
         <v>-1</v>
       </c>
       <c r="K89" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L89" s="2">
         <v>-1</v>
@@ -84302,13 +84080,13 @@
     </row>
     <row r="90" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C90" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D90" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>3727</v>
+        <v>3715</v>
       </c>
       <c r="F90" s="2">
         <v>14</v>
@@ -84317,16 +84095,16 @@
         <v>14</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>3728</v>
+        <v>3716</v>
       </c>
       <c r="J90" s="2">
         <v>-1</v>
       </c>
       <c r="K90" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L90" s="2">
         <v>-1</v>
@@ -84346,13 +84124,13 @@
     </row>
     <row r="91" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C91" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D91" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>3729</v>
+        <v>3717</v>
       </c>
       <c r="F91" s="2">
         <v>14</v>
@@ -84361,16 +84139,16 @@
         <v>14</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>3730</v>
+        <v>3718</v>
       </c>
       <c r="J91" s="2">
         <v>-1</v>
       </c>
       <c r="K91" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L91" s="2">
         <v>-1</v>
@@ -84390,13 +84168,13 @@
     </row>
     <row r="92" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C92" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D92" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>3731</v>
+        <v>3719</v>
       </c>
       <c r="F92" s="2">
         <v>14</v>
@@ -84405,16 +84183,16 @@
         <v>14</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>3732</v>
+        <v>3720</v>
       </c>
       <c r="J92" s="2">
         <v>-1</v>
       </c>
       <c r="K92" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L92" s="2">
         <v>-1</v>
@@ -84434,13 +84212,13 @@
     </row>
     <row r="93" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C93" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D93" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>3733</v>
+        <v>3721</v>
       </c>
       <c r="F93" s="2">
         <v>14</v>
@@ -84449,16 +84227,16 @@
         <v>14</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>3734</v>
+        <v>3722</v>
       </c>
       <c r="J93" s="2">
         <v>-1</v>
       </c>
       <c r="K93" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L93" s="2">
         <v>-1</v>
@@ -84478,13 +84256,13 @@
     </row>
     <row r="94" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C94" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D94" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>3735</v>
+        <v>3723</v>
       </c>
       <c r="F94" s="2">
         <v>14</v>
@@ -84493,16 +84271,16 @@
         <v>14</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>3736</v>
+        <v>3724</v>
       </c>
       <c r="J94" s="2">
         <v>-1</v>
       </c>
       <c r="K94" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L94" s="2">
         <v>-1</v>
@@ -84522,13 +84300,13 @@
     </row>
     <row r="95" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C95" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D95" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>3737</v>
+        <v>3725</v>
       </c>
       <c r="F95" s="2">
         <v>14</v>
@@ -84537,16 +84315,16 @@
         <v>14</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>3738</v>
+        <v>3726</v>
       </c>
       <c r="J95" s="2">
         <v>-1</v>
       </c>
       <c r="K95" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L95" s="2">
         <v>-1</v>
@@ -84566,13 +84344,13 @@
     </row>
     <row r="96" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C96" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D96" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>3739</v>
+        <v>3727</v>
       </c>
       <c r="F96" s="2">
         <v>14</v>
@@ -84581,16 +84359,16 @@
         <v>14</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>3740</v>
+        <v>3728</v>
       </c>
       <c r="J96" s="2">
         <v>-1</v>
       </c>
       <c r="K96" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L96" s="2">
         <v>-1</v>
@@ -84610,13 +84388,13 @@
     </row>
     <row r="97" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C97" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D97" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>3741</v>
+        <v>3729</v>
       </c>
       <c r="F97" s="2">
         <v>14</v>
@@ -84625,16 +84403,16 @@
         <v>14</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>3742</v>
+        <v>3730</v>
       </c>
       <c r="J97" s="2">
         <v>-1</v>
       </c>
       <c r="K97" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L97" s="2">
         <v>-1</v>
@@ -84654,13 +84432,13 @@
     </row>
     <row r="98" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C98" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D98" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>3743</v>
+        <v>3731</v>
       </c>
       <c r="F98" s="2">
         <v>14</v>
@@ -84669,16 +84447,16 @@
         <v>14</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>3707</v>
+        <v>3713</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>3744</v>
+        <v>3732</v>
       </c>
       <c r="J98" s="2">
         <v>-1</v>
       </c>
       <c r="K98" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L98" s="2">
         <v>-1</v>
@@ -84698,13 +84476,13 @@
     </row>
     <row r="99" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C99" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D99" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>3745</v>
+        <v>3733</v>
       </c>
       <c r="F99" s="2">
         <v>14</v>
@@ -84713,16 +84491,16 @@
         <v>14</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>3746</v>
+        <v>3713</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="J99" s="2">
         <v>-1</v>
       </c>
       <c r="K99" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L99" s="2">
         <v>-1</v>
@@ -84742,13 +84520,13 @@
     </row>
     <row r="100" s="2" customFormat="1" customHeight="1" spans="3:16">
       <c r="C100" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D100" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>3748</v>
+        <v>3735</v>
       </c>
       <c r="F100" s="2">
         <v>14</v>
@@ -84757,16 +84535,16 @@
         <v>14</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>3746</v>
+        <v>3713</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>3749</v>
+        <v>3736</v>
       </c>
       <c r="J100" s="2">
         <v>-1</v>
       </c>
       <c r="K100" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L100" s="2">
         <v>-1</v>
@@ -84784,23 +84562,460 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I101" s="9"/>
-    </row>
-    <row r="110" customHeight="1" spans="9:9">
-      <c r="I110" s="9"/>
-    </row>
-    <row r="111" customHeight="1" spans="9:9">
-      <c r="I111" s="9"/>
-    </row>
-    <row r="112" customHeight="1" spans="9:9">
-      <c r="I112" s="9"/>
-    </row>
-    <row r="113" customHeight="1" spans="9:9">
-      <c r="I113" s="9"/>
-    </row>
-    <row r="114" customHeight="1" spans="9:9">
-      <c r="I114" s="9"/>
+    <row r="101" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C101" s="2">
+        <v>413</v>
+      </c>
+      <c r="D101" s="2">
+        <v>13</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F101" s="2">
+        <v>14</v>
+      </c>
+      <c r="G101" s="2">
+        <v>14</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>3713</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>3738</v>
+      </c>
+      <c r="J101" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K101" s="2">
+        <v>5</v>
+      </c>
+      <c r="L101" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M101" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N101" s="2">
+        <v>1</v>
+      </c>
+      <c r="O101" s="2">
+        <v>0</v>
+      </c>
+      <c r="P101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C102" s="2">
+        <v>414</v>
+      </c>
+      <c r="D102" s="2">
+        <v>14</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>3739</v>
+      </c>
+      <c r="F102" s="2">
+        <v>14</v>
+      </c>
+      <c r="G102" s="2">
+        <v>14</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>3713</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>3740</v>
+      </c>
+      <c r="J102" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K102" s="2">
+        <v>5</v>
+      </c>
+      <c r="L102" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M102" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N102" s="2">
+        <v>1</v>
+      </c>
+      <c r="O102" s="2">
+        <v>0</v>
+      </c>
+      <c r="P102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C103" s="2">
+        <v>415</v>
+      </c>
+      <c r="D103" s="2">
+        <v>15</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="F103" s="2">
+        <v>14</v>
+      </c>
+      <c r="G103" s="2">
+        <v>14</v>
+      </c>
+      <c r="H103" s="20" t="s">
+        <v>3713</v>
+      </c>
+      <c r="I103" s="20" t="s">
+        <v>3742</v>
+      </c>
+      <c r="J103" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K103" s="2">
+        <v>5</v>
+      </c>
+      <c r="L103" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M103" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N103" s="2">
+        <v>1</v>
+      </c>
+      <c r="O103" s="2">
+        <v>0</v>
+      </c>
+      <c r="P103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C104" s="2">
+        <v>416</v>
+      </c>
+      <c r="D104" s="2">
+        <v>16</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>3743</v>
+      </c>
+      <c r="F104" s="2">
+        <v>14</v>
+      </c>
+      <c r="G104" s="2">
+        <v>14</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>3713</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>3744</v>
+      </c>
+      <c r="J104" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K104" s="2">
+        <v>5</v>
+      </c>
+      <c r="L104" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M104" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N104" s="2">
+        <v>1</v>
+      </c>
+      <c r="O104" s="2">
+        <v>0</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C105" s="2">
+        <v>417</v>
+      </c>
+      <c r="D105" s="2">
+        <v>17</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>3745</v>
+      </c>
+      <c r="F105" s="2">
+        <v>14</v>
+      </c>
+      <c r="G105" s="2">
+        <v>14</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>3713</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>3746</v>
+      </c>
+      <c r="J105" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K105" s="2">
+        <v>5</v>
+      </c>
+      <c r="L105" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M105" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N105" s="2">
+        <v>1</v>
+      </c>
+      <c r="O105" s="2">
+        <v>0</v>
+      </c>
+      <c r="P105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C106" s="2">
+        <v>418</v>
+      </c>
+      <c r="D106" s="2">
+        <v>18</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>3747</v>
+      </c>
+      <c r="F106" s="2">
+        <v>14</v>
+      </c>
+      <c r="G106" s="2">
+        <v>14</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>3713</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>3748</v>
+      </c>
+      <c r="J106" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K106" s="2">
+        <v>5</v>
+      </c>
+      <c r="L106" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M106" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N106" s="2">
+        <v>1</v>
+      </c>
+      <c r="O106" s="2">
+        <v>0</v>
+      </c>
+      <c r="P106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C107" s="2">
+        <v>419</v>
+      </c>
+      <c r="D107" s="2">
+        <v>19</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F107" s="2">
+        <v>14</v>
+      </c>
+      <c r="G107" s="2">
+        <v>14</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>3713</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>3750</v>
+      </c>
+      <c r="J107" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K107" s="2">
+        <v>5</v>
+      </c>
+      <c r="L107" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M107" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N107" s="2">
+        <v>1</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" s="2" customFormat="1" customHeight="1" spans="3:16">
+      <c r="C108" s="2">
+        <v>420</v>
+      </c>
+      <c r="D108" s="2">
+        <v>20</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>3751</v>
+      </c>
+      <c